--- a/REGN.xlsx
+++ b/REGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF2D440-7459-46E2-9C97-27F5D0546B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46176F5B-6838-44D6-8935-770D20E5E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17430" yWindow="510" windowWidth="25035" windowHeight="19590" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
+    <workbookView xWindow="-50850" yWindow="360" windowWidth="29100" windowHeight="20670" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <author>tc={E621A5CA-53E8-48F9-80F2-12D076620DD9}</author>
   </authors>
   <commentList>
-    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
+    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +57,7 @@
     NGNI 1080.2</t>
       </text>
     </comment>
-    <comment ref="J29" authorId="1" shapeId="0" xr:uid="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
+    <comment ref="N29" authorId="1" shapeId="0" xr:uid="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="270">
   <si>
     <t>Nov. 11:  Eylea approved. Priced at $1,700/injection.</t>
   </si>
@@ -886,9 +886,6 @@
     <t>Praluent</t>
   </si>
   <si>
-    <t>REGEN-COV</t>
-  </si>
-  <si>
     <t>Evkeeza</t>
   </si>
   <si>
@@ -992,6 +989,36 @@
   </si>
   <si>
     <t>Dupixent y/y</t>
+  </si>
+  <si>
+    <t>Q123</t>
+  </si>
+  <si>
+    <t>Q223</t>
+  </si>
+  <si>
+    <t>Q323</t>
+  </si>
+  <si>
+    <t>Q423</t>
+  </si>
+  <si>
+    <t>Inmazeb/REGEN-COV</t>
+  </si>
+  <si>
+    <t>Eylea y/y</t>
+  </si>
+  <si>
+    <t>Q119</t>
+  </si>
+  <si>
+    <t>Q219</t>
+  </si>
+  <si>
+    <t>Q319</t>
+  </si>
+  <si>
+    <t>Q419</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1028,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1061,12 +1088,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1217,7 +1238,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
@@ -1254,75 +1275,80 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1348,16 +1374,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31531</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>15437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>31531</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1372,8 +1398,58 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7486650" y="28575"/>
-          <a:ext cx="0" cy="6362700"/>
+          <a:off x="8104790" y="15437"/>
+          <a:ext cx="0" cy="7109263"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>24962</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>24962</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648F258B-0BD1-4851-812D-88247FE41913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22760152" y="0"/>
+          <a:ext cx="0" cy="7273487"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1702,10 +1778,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F29" dT="2022-09-16T10:03:00.58" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
+  <threadedComment ref="J29" dT="2022-09-16T10:03:00.58" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
     <text>NGNI 1080.2</text>
   </threadedComment>
-  <threadedComment ref="J29" dT="2022-09-16T10:02:53.72" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
+  <threadedComment ref="N29" dT="2022-09-16T10:02:53.72" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
     <text>NGNI 2711.5</text>
   </threadedComment>
 </ThreadedComments>
@@ -1721,10 +1797,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="25" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="25" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
@@ -1746,138 +1821,138 @@
       <c r="G2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="25">
         <v>705</v>
       </c>
-      <c r="K2" s="27"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <v>39479</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <v>1</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="33">
         <f>128.3-20.6+1.818146</f>
         <v>109.51814600000002</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="G4" s="37"/>
-      <c r="I4" s="25" t="s">
+      <c r="F4" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="1">
         <f>J2*J3</f>
         <v>77210.292930000011</v>
       </c>
-      <c r="K4" s="39"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="I5" s="25" t="s">
+      <c r="G5" s="36"/>
+      <c r="I5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="1">
         <f>3395.1+4171.3+6415.9</f>
         <v>13982.3</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="36" t="s">
+      <c r="G6" s="36"/>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1980.7</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="I6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="38">
-        <v>1980.7</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>255</v>
-      </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="1">
         <f>J4-J5+J6</f>
         <v>65208.692930000005</v>
       </c>
@@ -1891,259 +1966,259 @@
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
       <c r="G8" s="24"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="46"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="43"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="37"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="36" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="37"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="47" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
+      <c r="B11" s="44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="48"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="49" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="42"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="49" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="45"/>
+      <c r="G15" s="42"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="49" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="49" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="45"/>
+      <c r="G17" s="42"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="49" t="s">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="45"/>
+      <c r="G18" s="42"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="49" t="s">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="45"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="49" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="45"/>
+      <c r="G20" s="42"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="49" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="45"/>
+      <c r="G21" s="42"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="49" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="45"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="51" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="45"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="51" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="51" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="45"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="51" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="45"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="51" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="45"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="51" t="s">
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="45"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="51" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="45"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="51" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G30" s="45"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="51" t="s">
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="45"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="51" t="s">
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G32" s="45"/>
+      <c r="G32" s="42"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="51" t="s">
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="45"/>
+      <c r="G33" s="42"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2160,284 +2235,665 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BECB6-C670-4D66-9069-7BDB54779CF7}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="AP27" sqref="AP27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="17"/>
+    <col min="3" max="18" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C2" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="H2" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="I2" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="J2" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="K2" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="L2" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="M2" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="N2" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="O2" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="P2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="Q2" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S2" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z2">
+        <v>2010</v>
+      </c>
+      <c r="AA2">
+        <f>+Z2+1</f>
+        <v>2011</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" ref="AB2:BH2" si="0">+AA2+1</f>
+        <v>2012</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" si="0"/>
+        <v>2021</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" si="0"/>
+        <v>2027</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
+      <c r="AS2">
+        <f t="shared" si="0"/>
+        <v>2029</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" si="0"/>
+        <v>2031</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
+      <c r="AW2">
+        <f t="shared" si="0"/>
+        <v>2033</v>
+      </c>
+      <c r="AX2">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
+      <c r="AY2">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
+      <c r="AZ2">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
+      <c r="BA2">
+        <f t="shared" si="0"/>
+        <v>2037</v>
+      </c>
+      <c r="BB2">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="BC2">
+        <f t="shared" si="0"/>
+        <v>2039</v>
+      </c>
+      <c r="BD2">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
+      <c r="BE2">
+        <f t="shared" si="0"/>
+        <v>2041</v>
+      </c>
+      <c r="BF2">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
+      <c r="BG2">
+        <f t="shared" si="0"/>
+        <v>2043</v>
+      </c>
+      <c r="BH2">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18">
+      <c r="C3" s="18">
+        <v>1074.0999999999999</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1160</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18">
+        <v>1172</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1114</v>
+      </c>
+      <c r="I3" s="18">
         <v>1318</v>
       </c>
-      <c r="F3" s="18">
+      <c r="J3" s="18">
         <v>1343</v>
       </c>
-      <c r="G3" s="18">
+      <c r="K3" s="18">
         <v>1347</v>
       </c>
-      <c r="H3" s="18">
+      <c r="L3" s="18">
         <v>1425</v>
       </c>
-      <c r="I3" s="18">
+      <c r="M3" s="18">
         <v>1473</v>
       </c>
-      <c r="J3" s="18">
+      <c r="N3" s="18">
         <v>1547</v>
       </c>
-      <c r="K3" s="18">
+      <c r="O3" s="18">
         <v>1518</v>
       </c>
-      <c r="L3" s="18">
+      <c r="P3" s="18">
         <v>1621</v>
       </c>
-      <c r="M3" s="18">
-        <f>+I3*1.1</f>
-        <v>1620.3000000000002</v>
-      </c>
-      <c r="N3" s="18">
-        <f>+J3*1.1</f>
+      <c r="Q3" s="18">
+        <v>1629</v>
+      </c>
+      <c r="R3" s="18">
+        <f>+N3*1.1</f>
         <v>1701.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="18">
+        <f t="shared" ref="S3:V3" si="1">+O3*1.1</f>
+        <v>1669.8000000000002</v>
+      </c>
+      <c r="T3" s="18">
+        <f t="shared" si="1"/>
+        <v>1783.1000000000001</v>
+      </c>
+      <c r="U3" s="18">
+        <f t="shared" si="1"/>
+        <v>1791.9</v>
+      </c>
+      <c r="V3" s="18">
+        <f t="shared" si="1"/>
+        <v>1871.8700000000001</v>
+      </c>
+      <c r="AJ3" s="1">
+        <f>SUM(G3:J3)</f>
+        <v>4947</v>
+      </c>
+      <c r="AK3" s="1">
+        <f>SUM(K3:N3)</f>
+        <v>5792</v>
+      </c>
+      <c r="AL3" s="1">
+        <f>SUM(O3:R3)</f>
+        <v>6469.7</v>
+      </c>
+      <c r="AM3" s="1">
+        <f>SUM(S3:V3)</f>
+        <v>7116.670000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18">
+      <c r="C4" s="18">
+        <v>26.8</v>
+      </c>
+      <c r="D4" s="18">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18">
+        <v>61.7</v>
+      </c>
+      <c r="H4" s="18">
+        <v>63.3</v>
+      </c>
+      <c r="I4" s="18">
         <v>72</v>
       </c>
-      <c r="F4" s="18">
+      <c r="J4" s="18">
         <v>74</v>
       </c>
-      <c r="G4" s="18">
+      <c r="K4" s="18">
         <v>69</v>
       </c>
-      <c r="H4" s="18">
+      <c r="L4" s="18">
         <v>78</v>
       </c>
-      <c r="I4" s="18">
+      <c r="M4" s="18">
         <v>78</v>
       </c>
-      <c r="J4" s="18">
+      <c r="N4" s="18">
         <v>81</v>
       </c>
-      <c r="K4" s="18">
+      <c r="O4" s="18">
         <v>79</v>
       </c>
-      <c r="L4" s="18">
+      <c r="P4" s="18">
         <v>91</v>
       </c>
-      <c r="M4" s="18">
-        <f t="shared" ref="M4:N4" si="0">+I4*1.1</f>
-        <v>85.800000000000011</v>
-      </c>
-      <c r="N4" s="18">
-        <f t="shared" si="0"/>
-        <v>89.100000000000009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="18">
+        <f>95+31</f>
+        <v>126</v>
+      </c>
+      <c r="R4" s="18">
+        <f>+Q4+5</f>
+        <v>131</v>
+      </c>
+      <c r="S4" s="1">
+        <f>+R4+5</f>
+        <v>136</v>
+      </c>
+      <c r="T4" s="1">
+        <f>+S4+5</f>
+        <v>141</v>
+      </c>
+      <c r="U4" s="1">
+        <f>+T4+5</f>
+        <v>146</v>
+      </c>
+      <c r="V4" s="1">
+        <f>+U4+5</f>
+        <v>151</v>
+      </c>
+      <c r="AJ4" s="1">
+        <f t="shared" ref="AJ4:AJ18" si="2">SUM(G4:J4)</f>
+        <v>271</v>
+      </c>
+      <c r="AK4" s="1">
+        <f t="shared" ref="AK4:AK18" si="3">SUM(K4:N4)</f>
+        <v>306</v>
+      </c>
+      <c r="AL4" s="1">
+        <f t="shared" ref="AL4:AL18" si="4">SUM(O4:R4)</f>
+        <v>427</v>
+      </c>
+      <c r="AM4" s="1">
+        <f t="shared" ref="AM4:AM18" si="5">SUM(S4:V4)</f>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18">
+      <c r="C5" s="18">
+        <v>0</v>
+      </c>
+      <c r="D5" s="18">
+        <v>26.5</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>47.2</v>
+      </c>
+      <c r="I5" s="18">
         <v>49</v>
       </c>
-      <c r="F5" s="18">
+      <c r="J5" s="18">
         <v>55</v>
       </c>
-      <c r="G5" s="18">
+      <c r="K5" s="18">
         <v>43</v>
       </c>
-      <c r="H5" s="18">
+      <c r="L5" s="18">
         <v>42</v>
       </c>
-      <c r="I5" s="18">
+      <c r="M5" s="18">
         <v>45</v>
       </c>
-      <c r="J5" s="18">
+      <c r="N5" s="18">
         <v>40</v>
       </c>
-      <c r="K5" s="18">
+      <c r="O5" s="18">
         <v>34</v>
       </c>
-      <c r="L5" s="18">
+      <c r="P5" s="18">
         <v>31</v>
       </c>
-      <c r="M5" s="18">
-        <f t="shared" ref="M5" si="1">+I5*1.1</f>
-        <v>49.500000000000007</v>
-      </c>
-      <c r="N5" s="18">
-        <f t="shared" ref="N5" si="2">+J5*1.1</f>
+      <c r="Q5" s="18">
+        <v>30</v>
+      </c>
+      <c r="R5" s="18">
+        <f t="shared" ref="R5" si="6">+N5*1.1</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="1">
+        <f>+R5+1</f>
+        <v>45</v>
+      </c>
+      <c r="T5" s="1">
+        <f>+S5+1</f>
+        <v>46</v>
+      </c>
+      <c r="U5" s="1">
+        <f>+T5+1</f>
+        <v>47</v>
+      </c>
+      <c r="V5" s="1">
+        <f>+U5+1</f>
+        <v>48</v>
+      </c>
+      <c r="AJ5" s="1">
+        <f t="shared" si="2"/>
+        <v>151.19999999999999</v>
+      </c>
+      <c r="AK5" s="1">
+        <f t="shared" si="3"/>
+        <v>170</v>
+      </c>
+      <c r="AL5" s="1">
+        <f t="shared" si="4"/>
+        <v>139</v>
+      </c>
+      <c r="AM5" s="1">
+        <f t="shared" si="5"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>40</v>
+      </c>
+      <c r="J6" s="18">
+        <v>146</v>
+      </c>
+      <c r="K6" s="18">
+        <v>262</v>
+      </c>
+      <c r="L6" s="18">
+        <v>2591</v>
+      </c>
+      <c r="M6" s="18">
+        <v>677</v>
+      </c>
+      <c r="N6" s="18">
+        <v>2298</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0</v>
+      </c>
+      <c r="P6" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>3</v>
+      </c>
+      <c r="R6" s="18">
+        <f>+Q6</f>
+        <v>3</v>
+      </c>
+      <c r="S6" s="18">
+        <f>+R6</f>
+        <v>3</v>
+      </c>
+      <c r="T6" s="18">
+        <f>+S6</f>
+        <v>3</v>
+      </c>
+      <c r="U6" s="18">
+        <f>+T6</f>
+        <v>3</v>
+      </c>
+      <c r="V6" s="18">
+        <f>+U6</f>
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="3"/>
+        <v>5828</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AM6" s="1">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18">
-        <v>40</v>
-      </c>
-      <c r="F6" s="18">
-        <v>146</v>
-      </c>
-      <c r="G6" s="18">
-        <v>262</v>
-      </c>
-      <c r="H6" s="18">
-        <v>2591</v>
-      </c>
-      <c r="I6" s="18">
-        <v>677</v>
-      </c>
-      <c r="J6" s="18">
-        <v>2298</v>
-      </c>
-      <c r="K6" s="18">
+      <c r="C7" s="18">
         <v>0</v>
       </c>
-      <c r="L6" s="18">
+      <c r="D7" s="18">
         <v>0</v>
       </c>
-      <c r="M6" s="18">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18">
         <v>0</v>
       </c>
-      <c r="N6" s="18">
+      <c r="H7" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18">
+      <c r="I7" s="18">
         <v>0</v>
       </c>
-      <c r="F7" s="18">
+      <c r="J7" s="18">
         <v>0</v>
       </c>
-      <c r="G7" s="18">
+      <c r="K7" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="18">
+      <c r="L7" s="18">
         <v>2</v>
       </c>
-      <c r="I7" s="18">
+      <c r="M7" s="18">
         <v>7</v>
       </c>
-      <c r="J7" s="18">
+      <c r="N7" s="18">
         <v>9</v>
       </c>
-      <c r="K7" s="18">
+      <c r="O7" s="18">
         <v>8</v>
       </c>
-      <c r="L7" s="18">
+      <c r="P7" s="18">
         <v>11</v>
       </c>
-      <c r="M7" s="18">
-        <f>+L7+2</f>
-        <v>13</v>
-      </c>
-      <c r="N7" s="18">
-        <f>+M7+2</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="18">
+        <v>14</v>
+      </c>
+      <c r="R7" s="18">
+        <f>+Q7+2</f>
+        <v>16</v>
+      </c>
+      <c r="S7" s="1">
+        <f>+R7+1</f>
+        <v>17</v>
+      </c>
+      <c r="T7" s="1">
+        <f>+S7+1</f>
+        <v>18</v>
+      </c>
+      <c r="U7" s="1">
+        <f>+T7+1</f>
+        <v>19</v>
+      </c>
+      <c r="V7" s="1">
+        <f>+U7+1</f>
+        <v>20</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="AL7" s="1">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="AM7" s="1">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18">
-        <v>3</v>
-      </c>
-      <c r="F8" s="18">
-        <v>4</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C8" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="D8" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="18">
         <v>3</v>
       </c>
       <c r="H8" s="18">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="I8" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="18">
         <v>0</v>
@@ -2448,305 +2904,598 @@
       <c r="N8" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O8" s="18">
+        <v>0</v>
+      </c>
+      <c r="P8" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>0</v>
+      </c>
+      <c r="R8" s="18">
+        <v>0</v>
+      </c>
+      <c r="S8" s="18">
+        <v>0</v>
+      </c>
+      <c r="T8" s="18">
+        <v>0</v>
+      </c>
+      <c r="U8" s="18">
+        <v>0</v>
+      </c>
+      <c r="V8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="2"/>
+        <v>12.7</v>
+      </c>
+      <c r="AK8" s="1">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AL8" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18">
-        <f t="shared" ref="E9:I9" si="3">SUM(E10:E12)</f>
+      <c r="C9" s="18">
+        <f t="shared" ref="C9:D9" si="7">SUM(C10:C12)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18">
+        <f t="shared" ref="G9:M9" si="8">SUM(G10:G12)</f>
+        <v>246.9</v>
+      </c>
+      <c r="H9" s="18">
+        <f t="shared" si="8"/>
+        <v>269.10000000000002</v>
+      </c>
+      <c r="I9" s="18">
+        <f t="shared" si="8"/>
         <v>353.3</v>
       </c>
-      <c r="F9" s="18">
+      <c r="J9" s="18">
+        <f t="shared" si="8"/>
+        <v>317.10000000000002</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="8"/>
+        <v>364.80000000000007</v>
+      </c>
+      <c r="L9" s="18">
+        <f t="shared" si="8"/>
+        <v>437.7</v>
+      </c>
+      <c r="M9" s="18">
+        <f t="shared" si="8"/>
+        <v>581.80000000000007</v>
+      </c>
+      <c r="N9" s="18">
+        <f>SUM(N10:N12)</f>
+        <v>517.9</v>
+      </c>
+      <c r="O9" s="18">
+        <f>SUM(O10:O12)</f>
+        <v>630.9</v>
+      </c>
+      <c r="P9" s="18">
+        <f>SUM(P10:P12)</f>
+        <v>677.5</v>
+      </c>
+      <c r="Q9" s="18">
+        <f>SUM(Q10:Q12)</f>
+        <v>711.4</v>
+      </c>
+      <c r="R9" s="18">
+        <f>+N9*1.4</f>
+        <v>725.06</v>
+      </c>
+      <c r="S9" s="18">
+        <f>+O9*1.3</f>
+        <v>820.17</v>
+      </c>
+      <c r="T9" s="18">
+        <f>+P9*1.3</f>
+        <v>880.75</v>
+      </c>
+      <c r="U9" s="18">
+        <f>+Q9*1.2</f>
+        <v>853.68</v>
+      </c>
+      <c r="V9" s="18">
+        <f>+R9*1.2</f>
+        <v>870.07199999999989</v>
+      </c>
+      <c r="AJ9" s="1">
+        <f t="shared" si="2"/>
+        <v>1186.4000000000001</v>
+      </c>
+      <c r="AK9" s="1">
         <f t="shared" si="3"/>
-        <v>317.10000000000002</v>
-      </c>
-      <c r="G9" s="18">
-        <f t="shared" si="3"/>
-        <v>364.80000000000007</v>
-      </c>
-      <c r="H9" s="18">
-        <f t="shared" si="3"/>
-        <v>437.7</v>
-      </c>
-      <c r="I9" s="18">
-        <f t="shared" si="3"/>
-        <v>581.80000000000007</v>
-      </c>
-      <c r="J9" s="18">
-        <f>SUM(J10:J12)</f>
-        <v>517.9</v>
-      </c>
-      <c r="K9" s="18">
-        <f>SUM(K10:K12)</f>
-        <v>630.9</v>
-      </c>
-      <c r="L9" s="18">
-        <f>SUM(L10:L12)</f>
-        <v>677.5</v>
-      </c>
-      <c r="M9" s="18">
-        <f>+I9*1.4</f>
-        <v>814.5200000000001</v>
-      </c>
-      <c r="N9" s="18">
-        <f>+J9*1.4</f>
-        <v>725.06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1902.2000000000003</v>
+      </c>
+      <c r="AL9" s="1">
+        <f t="shared" si="4"/>
+        <v>2744.86</v>
+      </c>
+      <c r="AM9" s="1">
+        <f t="shared" si="5"/>
+        <v>3424.6719999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="18">
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18">
+        <v>170.9</v>
+      </c>
+      <c r="H10" s="18">
+        <v>171.9</v>
+      </c>
+      <c r="I10" s="18">
         <v>212.8</v>
       </c>
-      <c r="F10" s="18">
+      <c r="J10" s="18">
         <v>229.6</v>
       </c>
-      <c r="G10" s="18">
+      <c r="K10" s="18">
         <v>260.60000000000002</v>
       </c>
-      <c r="H10" s="18">
+      <c r="L10" s="18">
         <v>327.60000000000002</v>
       </c>
-      <c r="I10" s="18">
+      <c r="M10" s="18">
         <v>387</v>
       </c>
-      <c r="J10" s="18">
+      <c r="N10" s="18">
         <v>387.8</v>
       </c>
-      <c r="K10" s="18">
+      <c r="O10" s="18">
         <v>415.3</v>
       </c>
-      <c r="L10" s="18">
+      <c r="P10" s="18">
         <v>496.6</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="18">
+        <v>551.1</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="AJ10" s="1">
+        <f t="shared" si="2"/>
+        <v>785.2</v>
+      </c>
+      <c r="AK10" s="1">
+        <f t="shared" si="3"/>
+        <v>1363</v>
+      </c>
+      <c r="AL10" s="1">
+        <f t="shared" si="4"/>
+        <v>1463</v>
+      </c>
+      <c r="AM10" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="18">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="H11" s="18">
+        <v>100.6</v>
+      </c>
+      <c r="I11" s="18">
         <v>94.3</v>
       </c>
-      <c r="F11" s="18">
+      <c r="J11" s="18">
         <v>93</v>
       </c>
-      <c r="G11" s="18">
+      <c r="K11" s="18">
         <v>105.6</v>
       </c>
-      <c r="H11" s="18">
+      <c r="L11" s="18">
         <v>110.9</v>
       </c>
-      <c r="I11" s="18">
+      <c r="M11" s="18">
         <v>144.69999999999999</v>
       </c>
-      <c r="J11" s="18">
+      <c r="N11" s="18">
         <v>127.6</v>
       </c>
-      <c r="K11" s="18">
+      <c r="O11" s="18">
         <v>160.80000000000001</v>
       </c>
-      <c r="L11" s="18">
+      <c r="P11" s="18">
         <v>145.5</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="18">
+        <v>160.5</v>
+      </c>
+      <c r="R11" s="18"/>
+      <c r="AJ11" s="1">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="AK11" s="1">
+        <f t="shared" si="3"/>
+        <v>488.79999999999995</v>
+      </c>
+      <c r="AL11" s="1">
+        <f t="shared" si="4"/>
+        <v>466.8</v>
+      </c>
+      <c r="AM11" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="18">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18">
+        <f>-6.2+2.1</f>
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="H12" s="18">
+        <f>-6.4+3</f>
+        <v>-3.4000000000000004</v>
+      </c>
+      <c r="I12" s="18">
         <f>50-4.7+0.9</f>
         <v>46.199999999999996</v>
       </c>
-      <c r="F12" s="18">
+      <c r="J12" s="18">
         <f>-8.4+2.9</f>
         <v>-5.5</v>
       </c>
-      <c r="G12" s="18">
+      <c r="K12" s="18">
         <f>-6.1+4.7</f>
         <v>-1.3999999999999995</v>
       </c>
-      <c r="H12" s="18">
+      <c r="L12" s="18">
         <f>-3.5+2.7</f>
         <v>-0.79999999999999982</v>
       </c>
-      <c r="I12" s="18">
+      <c r="M12" s="18">
         <f>50+3.1-3</f>
         <v>50.1</v>
       </c>
-      <c r="J12" s="18">
+      <c r="N12" s="18">
         <f>-1+3.5</f>
         <v>2.5</v>
       </c>
-      <c r="K12" s="18">
+      <c r="O12" s="18">
         <f>50+2.8+2</f>
         <v>54.8</v>
       </c>
-      <c r="L12" s="18">
+      <c r="P12" s="18">
         <f>28.9+3.9+2.6</f>
         <v>35.4</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="18">
+        <v>-0.2</v>
+      </c>
+      <c r="R12" s="18"/>
+      <c r="AJ12" s="1">
+        <f t="shared" si="2"/>
+        <v>33.199999999999996</v>
+      </c>
+      <c r="AK12" s="1">
+        <f t="shared" si="3"/>
+        <v>50.400000000000006</v>
+      </c>
+      <c r="AL12" s="1">
+        <f t="shared" si="4"/>
+        <v>89.999999999999986</v>
+      </c>
+      <c r="AM12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18">
+        <v>557.29999999999995</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18">
+        <v>855</v>
+      </c>
+      <c r="H13" s="18">
+        <v>945</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1072.5999999999999</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1172</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1262.9000000000001</v>
+      </c>
+      <c r="L13" s="18">
+        <v>1499</v>
+      </c>
+      <c r="M13" s="18">
+        <v>1662.9</v>
+      </c>
+      <c r="N13" s="18">
+        <v>1773.8</v>
+      </c>
+      <c r="O13" s="18">
+        <v>1810.4</v>
+      </c>
+      <c r="P13" s="18">
+        <v>2091.8000000000002</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>2330.1</v>
+      </c>
+      <c r="R13" s="18"/>
+      <c r="AJ13" s="1">
+        <f t="shared" si="2"/>
+        <v>4044.6</v>
+      </c>
+      <c r="AK13" s="1">
+        <f t="shared" si="3"/>
+        <v>6198.6</v>
+      </c>
+      <c r="AL13" s="1">
+        <f t="shared" si="4"/>
+        <v>6232.3</v>
+      </c>
+      <c r="AM13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18">
-        <v>1072.5999999999999</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1172</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1262.9000000000001</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1499</v>
-      </c>
-      <c r="I13" s="18">
-        <v>1662.9</v>
-      </c>
-      <c r="J13" s="18">
-        <v>1773.8</v>
-      </c>
-      <c r="K13" s="18">
-        <v>1810.4</v>
-      </c>
-      <c r="L13" s="18">
-        <v>2091.8000000000002</v>
-      </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18">
+        <v>73.7</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18">
+        <v>86.6</v>
+      </c>
+      <c r="I14" s="18">
+        <v>91.5</v>
+      </c>
+      <c r="J14" s="18">
+        <v>100.9</v>
+      </c>
+      <c r="K14" s="18">
+        <v>104.6</v>
+      </c>
+      <c r="L14" s="18">
+        <v>99.4</v>
+      </c>
+      <c r="M14" s="18">
+        <v>114.5</v>
+      </c>
+      <c r="N14" s="18">
+        <v>102.6</v>
+      </c>
+      <c r="O14" s="18">
+        <v>111.4</v>
+      </c>
+      <c r="P14" s="18">
+        <v>108.9</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>113.7</v>
+      </c>
+      <c r="R14" s="18"/>
+      <c r="AJ14" s="1">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+      <c r="AK14" s="1">
+        <f t="shared" si="3"/>
+        <v>421.1</v>
+      </c>
+      <c r="AL14" s="1">
+        <f t="shared" si="4"/>
+        <v>334</v>
+      </c>
+      <c r="AM14" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18">
-        <v>91.5</v>
-      </c>
-      <c r="F14" s="18">
-        <v>100.9</v>
-      </c>
-      <c r="G14" s="18">
-        <v>104.6</v>
-      </c>
-      <c r="H14" s="18">
-        <v>99.4</v>
-      </c>
-      <c r="I14" s="18">
-        <v>114.5</v>
-      </c>
-      <c r="J14" s="18">
-        <v>102.6</v>
-      </c>
-      <c r="K14" s="18">
-        <v>111.4</v>
-      </c>
-      <c r="L14" s="18">
-        <v>108.9</v>
-      </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18">
+      <c r="D15" s="18">
+        <v>58.5</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18">
+        <v>68.3</v>
+      </c>
+      <c r="I15" s="18">
         <v>70</v>
       </c>
-      <c r="F15" s="18">
+      <c r="J15" s="18">
         <v>71.5</v>
       </c>
-      <c r="G15" s="18">
+      <c r="K15" s="18">
         <v>69.099999999999994</v>
       </c>
-      <c r="H15" s="18">
+      <c r="L15" s="18">
         <v>66.7</v>
       </c>
-      <c r="I15" s="18">
+      <c r="M15" s="18">
         <v>97.8</v>
       </c>
-      <c r="J15" s="18">
+      <c r="N15" s="18">
         <v>103.9</v>
       </c>
-      <c r="K15" s="18">
+      <c r="O15" s="18">
         <v>106.4</v>
       </c>
-      <c r="L15" s="18">
+      <c r="P15" s="18">
         <v>82.3</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="18">
+        <v>88.1</v>
+      </c>
+      <c r="R15" s="18"/>
+      <c r="AJ15" s="1">
+        <f t="shared" si="2"/>
+        <v>209.8</v>
+      </c>
+      <c r="AK15" s="1">
+        <f t="shared" si="3"/>
+        <v>337.5</v>
+      </c>
+      <c r="AL15" s="1">
+        <f t="shared" si="4"/>
+        <v>276.79999999999995</v>
+      </c>
+      <c r="AM15" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="18">
+        <v>264</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="H16" s="18">
+        <v>244.2</v>
+      </c>
+      <c r="I16" s="18">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="J16" s="18">
+        <v>360.6</v>
+      </c>
+      <c r="K16" s="18">
+        <v>322.8</v>
+      </c>
+      <c r="L16" s="18">
+        <v>349</v>
+      </c>
+      <c r="M16" s="18">
+        <v>365</v>
+      </c>
+      <c r="N16" s="18">
+        <v>372.4</v>
+      </c>
+      <c r="O16" s="18">
+        <v>385.3</v>
+      </c>
+      <c r="P16" s="18">
+        <v>358</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>333</v>
+      </c>
+      <c r="R16" s="18">
+        <f>+N16*1.01</f>
+        <v>376.12399999999997</v>
+      </c>
+      <c r="S16" s="18">
+        <f t="shared" ref="S16:V16" si="9">+O16*1.01</f>
+        <v>389.15300000000002</v>
+      </c>
+      <c r="T16" s="18">
+        <f t="shared" si="9"/>
+        <v>361.58</v>
+      </c>
+      <c r="U16" s="18">
+        <f t="shared" si="9"/>
+        <v>336.33</v>
+      </c>
+      <c r="V16" s="18">
+        <f t="shared" si="9"/>
+        <v>379.88523999999995</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f t="shared" si="2"/>
+        <v>1186.0999999999999</v>
+      </c>
+      <c r="AK16" s="1">
+        <f t="shared" si="3"/>
+        <v>1409.1999999999998</v>
+      </c>
+      <c r="AL16" s="1">
+        <f t="shared" si="4"/>
+        <v>1452.424</v>
+      </c>
+      <c r="AM16" s="1">
+        <f t="shared" si="5"/>
+        <v>1466.9482399999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18">
-        <v>299.89999999999998</v>
-      </c>
-      <c r="F16" s="18">
-        <v>360.6</v>
-      </c>
-      <c r="G16" s="18">
-        <v>322.8</v>
-      </c>
-      <c r="H16" s="18">
-        <v>349</v>
-      </c>
-      <c r="I16" s="18">
-        <v>365</v>
-      </c>
-      <c r="J16" s="18">
-        <v>372.4</v>
-      </c>
-      <c r="K16" s="18">
-        <v>385.3</v>
-      </c>
-      <c r="L16" s="18">
-        <v>358</v>
-      </c>
-      <c r="M16" s="18">
-        <f>+I16*1.1</f>
-        <v>401.50000000000006</v>
-      </c>
-      <c r="N16" s="18">
-        <f>+J16*1.1</f>
-        <v>409.64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="18">
+        <v>0</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0</v>
+      </c>
       <c r="E17" s="18">
         <v>0</v>
       </c>
@@ -2754,755 +3503,1510 @@
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <v>66.8</v>
+        <v>0</v>
       </c>
       <c r="H17" s="18">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="I17" s="18">
-        <v>127.1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="18">
         <v>0</v>
       </c>
       <c r="K17" s="18">
+        <v>66.8</v>
+      </c>
+      <c r="L17" s="18">
+        <v>168</v>
+      </c>
+      <c r="M17" s="18">
+        <v>127.1</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0</v>
+      </c>
+      <c r="O17" s="18">
         <v>216.3</v>
       </c>
-      <c r="L17" s="18">
+      <c r="P17" s="18">
         <v>8</v>
       </c>
-      <c r="M17" s="18">
-        <f>+I17*1.1</f>
-        <v>139.81</v>
-      </c>
-      <c r="N17" s="18">
-        <f>+J17*1.1</f>
+      <c r="Q17" s="18">
+        <v>6</v>
+      </c>
+      <c r="R17" s="18">
+        <f t="shared" ref="R17:R18" si="10">+N17*1.1</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S17" s="1">
+        <f t="shared" ref="S17:V17" si="11">AVERAGE(O17:R17)</f>
+        <v>57.575000000000003</v>
+      </c>
+      <c r="T17" s="1">
+        <f t="shared" si="11"/>
+        <v>17.893750000000001</v>
+      </c>
+      <c r="U17" s="1">
+        <f t="shared" si="11"/>
+        <v>20.3671875</v>
+      </c>
+      <c r="V17" s="1">
+        <f t="shared" si="11"/>
+        <v>23.958984375</v>
+      </c>
+      <c r="AJ17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1">
+        <f t="shared" si="3"/>
+        <v>361.9</v>
+      </c>
+      <c r="AL17" s="1">
+        <f t="shared" si="4"/>
+        <v>230.3</v>
+      </c>
+      <c r="AM17" s="1">
+        <f t="shared" si="5"/>
+        <v>119.794921875</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C18" s="18"/>
+        <v>228</v>
+      </c>
+      <c r="C18" s="18">
+        <v>22.2</v>
+      </c>
       <c r="D18" s="18"/>
-      <c r="E18" s="18">
-        <v>158.6</v>
-      </c>
+      <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18">
+        <v>63.2</v>
+      </c>
+      <c r="H18" s="18">
+        <v>211.8</v>
+      </c>
+      <c r="I18" s="18">
+        <v>158.6</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18">
         <v>50</v>
       </c>
-      <c r="H18" s="18">
+      <c r="L18" s="18">
         <v>46</v>
       </c>
-      <c r="I18" s="18">
+      <c r="M18" s="18">
         <v>99</v>
       </c>
-      <c r="J18" s="18">
+      <c r="N18" s="18">
         <v>86.2</v>
       </c>
-      <c r="K18" s="18">
+      <c r="O18" s="18">
         <v>94</v>
       </c>
-      <c r="L18" s="18">
+      <c r="P18" s="18">
         <v>59</v>
       </c>
-      <c r="M18" s="18">
-        <f>+I18*1.1</f>
-        <v>108.9</v>
-      </c>
-      <c r="N18" s="18">
-        <f>+J18*1.1</f>
+      <c r="Q18" s="18">
+        <v>84</v>
+      </c>
+      <c r="R18" s="18">
+        <f t="shared" si="10"/>
         <v>94.820000000000007</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S18" s="1">
+        <f>AVERAGE(O18:R18)</f>
+        <v>82.954999999999998</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" ref="T18:V18" si="12">AVERAGE(P18:S18)</f>
+        <v>80.193749999999994</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="12"/>
+        <v>85.4921875</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="12"/>
+        <v>85.865234375</v>
+      </c>
+      <c r="AJ18" s="1">
+        <f t="shared" si="2"/>
+        <v>433.6</v>
+      </c>
+      <c r="AK18" s="1">
+        <f t="shared" si="3"/>
+        <v>281.2</v>
+      </c>
+      <c r="AL18" s="1">
+        <f t="shared" si="4"/>
+        <v>331.82</v>
+      </c>
+      <c r="AM18" s="1">
+        <f t="shared" si="5"/>
+        <v>334.50617187500001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="21">
+        <f t="shared" ref="C19:D19" si="13">SUM(C3:C9)+C16+C17+C18</f>
+        <v>1390.6</v>
+      </c>
+      <c r="D19" s="21">
+        <f t="shared" si="13"/>
+        <v>1231.5</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21">
+        <f t="shared" ref="G19:J19" si="14">SUM(G3:G9)+G16+G17+G18</f>
+        <v>1828.2</v>
+      </c>
+      <c r="H19" s="21">
+        <f t="shared" si="14"/>
+        <v>1952.3000000000002</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="14"/>
+        <v>2293.7999999999997</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" si="14"/>
+        <v>2299.6999999999998</v>
+      </c>
+      <c r="K19" s="21">
+        <f t="shared" ref="K19:P19" si="15">SUM(K3:K9)+K16+K17+K18</f>
+        <v>2529.4000000000005</v>
+      </c>
+      <c r="L19" s="21">
+        <f t="shared" si="15"/>
+        <v>5138.7</v>
+      </c>
+      <c r="M19" s="21">
+        <f>SUM(M3:M9)+M16+M17+M18</f>
+        <v>3452.9</v>
+      </c>
+      <c r="N19" s="21">
+        <f t="shared" si="15"/>
+        <v>4951.4999999999991</v>
+      </c>
+      <c r="O19" s="21">
+        <f t="shared" si="15"/>
+        <v>2965.5000000000005</v>
+      </c>
+      <c r="P19" s="21">
+        <f t="shared" si="15"/>
+        <v>2856.5</v>
+      </c>
+      <c r="Q19" s="21">
+        <f t="shared" ref="Q19:V19" si="16">SUM(Q3:Q9)+Q16+Q17+Q18</f>
+        <v>2936.4</v>
+      </c>
+      <c r="R19" s="21">
+        <f t="shared" si="16"/>
+        <v>3091.7040000000002</v>
+      </c>
+      <c r="S19" s="21">
+        <f t="shared" si="16"/>
+        <v>3220.6530000000002</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" si="16"/>
+        <v>3331.5175000000004</v>
+      </c>
+      <c r="U19" s="21">
+        <f t="shared" si="16"/>
+        <v>3302.7693749999999</v>
+      </c>
+      <c r="V19" s="21">
+        <f t="shared" si="16"/>
+        <v>3453.6514587500001</v>
+      </c>
+      <c r="AJ19" s="21">
+        <f t="shared" ref="AJ19:AM19" si="17">SUM(AJ3:AJ9)+AJ16+AJ17+AJ18</f>
+        <v>8374</v>
+      </c>
+      <c r="AK19" s="21">
+        <f t="shared" si="17"/>
+        <v>16072.500000000002</v>
+      </c>
+      <c r="AL19" s="21">
+        <f t="shared" si="17"/>
+        <v>11850.103999999999</v>
+      </c>
+      <c r="AM19" s="21">
+        <f t="shared" si="17"/>
+        <v>13308.591333750001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C19" s="21">
-        <f t="shared" ref="C19:F19" si="4">SUM(C3:C9)+C16+C17+C18</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="21">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="21">
-        <f t="shared" si="4"/>
-        <v>2293.7999999999997</v>
-      </c>
-      <c r="F19" s="21">
-        <f t="shared" si="4"/>
-        <v>2299.6999999999998</v>
-      </c>
-      <c r="G19" s="21">
-        <f t="shared" ref="G19:L19" si="5">SUM(G3:G9)+G16+G17+G18</f>
-        <v>2529.4000000000005</v>
-      </c>
-      <c r="H19" s="21">
-        <f t="shared" si="5"/>
-        <v>5138.7</v>
-      </c>
-      <c r="I19" s="21">
-        <f>SUM(I3:I9)+I16+I17+I18</f>
-        <v>3452.9</v>
-      </c>
-      <c r="J19" s="21">
-        <f t="shared" si="5"/>
-        <v>4951.4999999999991</v>
-      </c>
-      <c r="K19" s="21">
-        <f t="shared" si="5"/>
-        <v>2965.5000000000005</v>
-      </c>
-      <c r="L19" s="21">
-        <f t="shared" si="5"/>
-        <v>2856.5</v>
-      </c>
-      <c r="M19" s="21">
-        <f t="shared" ref="M19:N19" si="6">SUM(M3:M9)+M16+M17+M18</f>
-        <v>3233.3300000000004</v>
-      </c>
-      <c r="N19" s="21">
-        <f t="shared" si="6"/>
-        <v>3079.3199999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>231</v>
-      </c>
       <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18">
+      <c r="D20" s="18">
+        <v>58.2</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18">
+        <f>78.8+138.5</f>
+        <v>217.3</v>
+      </c>
+      <c r="H20" s="18">
+        <f>93.2+173</f>
+        <v>266.2</v>
+      </c>
+      <c r="I20" s="18">
         <v>122</v>
       </c>
-      <c r="F20" s="18">
+      <c r="J20" s="18">
         <f>166+173.5</f>
         <v>339.5</v>
       </c>
-      <c r="G20" s="18">
+      <c r="K20" s="18">
         <f>183.2+124.8</f>
         <v>308</v>
       </c>
-      <c r="H20" s="18">
+      <c r="L20" s="18">
         <f>539.4+154.3</f>
         <v>693.7</v>
       </c>
-      <c r="I20" s="18">
+      <c r="M20" s="18">
         <v>224</v>
       </c>
-      <c r="J20" s="18">
+      <c r="N20" s="18">
         <f>559+170.9</f>
         <v>729.9</v>
       </c>
-      <c r="K20" s="18">
+      <c r="O20" s="18">
         <f>207.3+197.6</f>
         <v>404.9</v>
       </c>
-      <c r="L20" s="18">
+      <c r="P20" s="18">
         <f>149.2+147.9</f>
         <v>297.10000000000002</v>
       </c>
-      <c r="M20" s="18">
-        <f>+M19-M21</f>
-        <v>323.33300000000008</v>
-      </c>
-      <c r="N20" s="18">
-        <f>+N19-N21</f>
-        <v>307.93199999999979</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="18">
+        <v>109</v>
+      </c>
+      <c r="R20" s="18">
+        <f>+R19-R21</f>
+        <v>309.17039999999997</v>
+      </c>
+      <c r="S20" s="18">
+        <f t="shared" ref="S20:V20" si="18">+S19-S21</f>
+        <v>322.06529999999975</v>
+      </c>
+      <c r="T20" s="18">
+        <f t="shared" si="18"/>
+        <v>333.15174999999999</v>
+      </c>
+      <c r="U20" s="18">
+        <f t="shared" si="18"/>
+        <v>330.2769374999998</v>
+      </c>
+      <c r="V20" s="18">
+        <f t="shared" si="18"/>
+        <v>345.36514587500005</v>
+      </c>
+      <c r="AJ20" s="1">
+        <f t="shared" ref="AJ20" si="19">SUM(G20:J20)</f>
+        <v>945</v>
+      </c>
+      <c r="AK20" s="1">
+        <f t="shared" ref="AK20" si="20">SUM(K20:N20)</f>
+        <v>1955.6</v>
+      </c>
+      <c r="AL20" s="1">
+        <f t="shared" ref="AL20" si="21">SUM(O20:R20)</f>
+        <v>1120.1704</v>
+      </c>
+      <c r="AM20" s="1">
+        <f t="shared" ref="AM20" si="22">SUM(S20:V20)</f>
+        <v>1330.8591333749996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="18">
-        <f>+E19-E20</f>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18">
+        <f t="shared" ref="G21" si="23">+G19-G20</f>
+        <v>1610.9</v>
+      </c>
+      <c r="H21" s="18">
+        <f t="shared" ref="H21:P21" si="24">+H19-H20</f>
+        <v>1686.1000000000001</v>
+      </c>
+      <c r="I21" s="18">
+        <f t="shared" si="24"/>
         <v>2171.7999999999997</v>
       </c>
-      <c r="F21" s="18">
-        <f>+F19-F20</f>
+      <c r="J21" s="18">
+        <f t="shared" si="24"/>
         <v>1960.1999999999998</v>
       </c>
-      <c r="G21" s="18">
-        <f>+G19-G20</f>
+      <c r="K21" s="18">
+        <f t="shared" si="24"/>
         <v>2221.4000000000005</v>
       </c>
-      <c r="H21" s="18">
-        <f>+H19-H20</f>
+      <c r="L21" s="18">
+        <f t="shared" si="24"/>
         <v>4445</v>
       </c>
-      <c r="I21" s="18">
-        <f>+I19-I20</f>
+      <c r="M21" s="18">
+        <f t="shared" si="24"/>
         <v>3228.9</v>
       </c>
-      <c r="J21" s="18">
-        <f>+J19-J20</f>
+      <c r="N21" s="18">
+        <f t="shared" si="24"/>
         <v>4221.5999999999995</v>
       </c>
-      <c r="K21" s="18">
-        <f>+K19-K20</f>
+      <c r="O21" s="18">
+        <f t="shared" si="24"/>
         <v>2560.6000000000004</v>
       </c>
-      <c r="L21" s="18">
-        <f>+L19-L20</f>
+      <c r="P21" s="18">
+        <f t="shared" si="24"/>
         <v>2559.4</v>
       </c>
-      <c r="M21" s="18">
-        <f>+M19*0.9</f>
-        <v>2909.9970000000003</v>
-      </c>
-      <c r="N21" s="18">
-        <f>+N19*0.9</f>
-        <v>2771.3879999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="18">
+        <f>+Q19-Q20</f>
+        <v>2827.4</v>
+      </c>
+      <c r="R21" s="18">
+        <f>+R19*0.9</f>
+        <v>2782.5336000000002</v>
+      </c>
+      <c r="S21" s="18">
+        <f t="shared" ref="S21:V21" si="25">+S19*0.9</f>
+        <v>2898.5877000000005</v>
+      </c>
+      <c r="T21" s="18">
+        <f t="shared" si="25"/>
+        <v>2998.3657500000004</v>
+      </c>
+      <c r="U21" s="18">
+        <f t="shared" si="25"/>
+        <v>2972.4924375000001</v>
+      </c>
+      <c r="V21" s="18">
+        <f t="shared" si="25"/>
+        <v>3108.286312875</v>
+      </c>
+      <c r="AJ21" s="1">
+        <f>+AJ19-AJ20</f>
+        <v>7429</v>
+      </c>
+      <c r="AK21" s="1">
+        <f t="shared" ref="AK21:AM21" si="26">+AK19-AK20</f>
+        <v>14116.900000000001</v>
+      </c>
+      <c r="AL21" s="1">
+        <f t="shared" si="26"/>
+        <v>10729.9336</v>
+      </c>
+      <c r="AM21" s="1">
+        <f t="shared" si="26"/>
+        <v>11977.732200375001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18">
+      <c r="D22" s="18">
+        <v>426.2</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18">
+        <v>583.9</v>
+      </c>
+      <c r="H22" s="18">
+        <v>580.1</v>
+      </c>
+      <c r="I22" s="18">
         <v>629</v>
       </c>
-      <c r="F22" s="18">
+      <c r="J22" s="18">
         <v>675</v>
       </c>
-      <c r="G22" s="18">
+      <c r="K22" s="18">
         <v>742.9</v>
       </c>
-      <c r="H22" s="18">
+      <c r="L22" s="18">
         <v>714.2</v>
       </c>
-      <c r="I22" s="18">
+      <c r="M22" s="18">
         <v>592</v>
       </c>
-      <c r="J22" s="18">
+      <c r="N22" s="18">
         <v>639</v>
       </c>
-      <c r="K22" s="18">
+      <c r="O22" s="18">
         <v>843.8</v>
       </c>
-      <c r="L22" s="18">
+      <c r="P22" s="18">
         <f>794.3-14.6</f>
         <v>779.69999999999993</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="18">
+        <v>817</v>
+      </c>
+      <c r="R22" s="18"/>
+      <c r="AJ22" s="1">
+        <f t="shared" ref="AJ22:AJ23" si="27">SUM(G22:J22)</f>
+        <v>2468</v>
+      </c>
+      <c r="AK22" s="1">
+        <f t="shared" ref="AK22:AK23" si="28">SUM(K22:N22)</f>
+        <v>2688.1</v>
+      </c>
+      <c r="AL22" s="1">
+        <f t="shared" ref="AL22:AL23" si="29">SUM(O22:R22)</f>
+        <v>2440.5</v>
+      </c>
+      <c r="AM22" s="1">
+        <f t="shared" ref="AM22:AM23" si="30">SUM(S22:V22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18">
+      <c r="D23" s="18">
+        <v>251.9</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18">
+        <f>367.3-20.2</f>
+        <v>347.1</v>
+      </c>
+      <c r="H23" s="18">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="I23" s="18">
         <v>291</v>
       </c>
-      <c r="F23" s="18">
+      <c r="J23" s="18">
         <v>381</v>
       </c>
-      <c r="G23" s="18">
+      <c r="K23" s="18">
         <v>405.6</v>
       </c>
-      <c r="H23" s="18">
+      <c r="L23" s="18">
         <v>414.7</v>
       </c>
-      <c r="I23" s="18">
+      <c r="M23" s="18">
         <v>391</v>
       </c>
-      <c r="J23" s="18">
+      <c r="N23" s="18">
         <v>495</v>
       </c>
-      <c r="K23" s="18">
+      <c r="O23" s="18">
         <v>450</v>
       </c>
-      <c r="L23" s="18">
+      <c r="P23" s="18">
         <f>476.3-1.1</f>
         <v>475.2</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="18">
+        <v>467</v>
+      </c>
+      <c r="R23" s="18">
+        <f>+N23</f>
+        <v>495</v>
+      </c>
+      <c r="S23" s="18">
+        <f t="shared" ref="S23:V23" si="31">+O23</f>
+        <v>450</v>
+      </c>
+      <c r="T23" s="18">
+        <f t="shared" si="31"/>
+        <v>475.2</v>
+      </c>
+      <c r="U23" s="18">
+        <f t="shared" si="31"/>
+        <v>467</v>
+      </c>
+      <c r="V23" s="18">
+        <f t="shared" si="31"/>
+        <v>495</v>
+      </c>
+      <c r="AJ23" s="1">
+        <f t="shared" si="27"/>
+        <v>1320.5</v>
+      </c>
+      <c r="AK23" s="1">
+        <f t="shared" si="28"/>
+        <v>1706.3</v>
+      </c>
+      <c r="AL23" s="1">
+        <f t="shared" si="29"/>
+        <v>1887.2</v>
+      </c>
+      <c r="AM23" s="1">
+        <f t="shared" si="30"/>
+        <v>1887.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="18">
-        <f t="shared" ref="E24:I24" si="7">+E23+E22</f>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18">
+        <f t="shared" ref="G24" si="32">+G23+G22</f>
+        <v>931</v>
+      </c>
+      <c r="H24" s="18">
+        <f>+H23+H22</f>
+        <v>881.5</v>
+      </c>
+      <c r="I24" s="18">
+        <f t="shared" ref="I24:M24" si="33">+I23+I22</f>
         <v>920</v>
       </c>
-      <c r="F24" s="18">
-        <f t="shared" si="7"/>
+      <c r="J24" s="18">
+        <f t="shared" si="33"/>
         <v>1056</v>
       </c>
-      <c r="G24" s="18">
-        <f t="shared" si="7"/>
+      <c r="K24" s="18">
+        <f t="shared" si="33"/>
         <v>1148.5</v>
       </c>
-      <c r="H24" s="18">
-        <f t="shared" si="7"/>
+      <c r="L24" s="18">
+        <f t="shared" si="33"/>
         <v>1128.9000000000001</v>
       </c>
-      <c r="I24" s="18">
-        <f t="shared" si="7"/>
+      <c r="M24" s="18">
+        <f t="shared" si="33"/>
         <v>983</v>
       </c>
-      <c r="J24" s="18">
-        <f>+J23+J22</f>
+      <c r="N24" s="18">
+        <f>+N23+N22</f>
         <v>1134</v>
       </c>
-      <c r="K24" s="18">
-        <f>+K23+K22</f>
+      <c r="O24" s="18">
+        <f>+O23+O22</f>
         <v>1293.8</v>
       </c>
-      <c r="L24" s="18">
-        <f>+L23+L22</f>
+      <c r="P24" s="18">
+        <f>+P23+P22</f>
         <v>1254.8999999999999</v>
       </c>
-      <c r="M24" s="18">
-        <f>+M23+M22</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="18">
-        <f t="shared" ref="N24" si="8">+N23+N22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q24" s="18">
+        <f>+Q23+Q22</f>
+        <v>1284</v>
+      </c>
+      <c r="R24" s="18">
+        <f t="shared" ref="R24:V24" si="34">+R23+R22</f>
+        <v>495</v>
+      </c>
+      <c r="S24" s="18">
+        <f t="shared" si="34"/>
+        <v>450</v>
+      </c>
+      <c r="T24" s="18">
+        <f t="shared" si="34"/>
+        <v>475.2</v>
+      </c>
+      <c r="U24" s="18">
+        <f t="shared" si="34"/>
+        <v>467</v>
+      </c>
+      <c r="V24" s="18">
+        <f t="shared" si="34"/>
+        <v>495</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f>+AJ22+AJ23</f>
+        <v>3788.5</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" ref="AK24:AM24" si="35">+AK22+AK23</f>
+        <v>4394.3999999999996</v>
+      </c>
+      <c r="AL24" s="1">
+        <f t="shared" si="35"/>
+        <v>4327.7</v>
+      </c>
+      <c r="AM24" s="1">
+        <f t="shared" si="35"/>
+        <v>1887.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="18">
-        <f t="shared" ref="E25:I25" si="9">+E21-E24</f>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18">
+        <f>+G21-G24</f>
+        <v>679.90000000000009</v>
+      </c>
+      <c r="H25" s="18">
+        <f>+H21-H24</f>
+        <v>804.60000000000014</v>
+      </c>
+      <c r="I25" s="18">
+        <f t="shared" ref="I25:M25" si="36">+I21-I24</f>
         <v>1251.7999999999997</v>
       </c>
-      <c r="F25" s="18">
-        <f t="shared" si="9"/>
+      <c r="J25" s="18">
+        <f t="shared" si="36"/>
         <v>904.19999999999982</v>
       </c>
-      <c r="G25" s="18">
-        <f t="shared" si="9"/>
+      <c r="K25" s="18">
+        <f t="shared" si="36"/>
         <v>1072.9000000000005</v>
       </c>
-      <c r="H25" s="18">
-        <f t="shared" si="9"/>
+      <c r="L25" s="18">
+        <f t="shared" si="36"/>
         <v>3316.1</v>
       </c>
-      <c r="I25" s="18">
-        <f t="shared" si="9"/>
+      <c r="M25" s="18">
+        <f t="shared" si="36"/>
         <v>2245.9</v>
       </c>
-      <c r="J25" s="18">
-        <f>+J21-J24</f>
+      <c r="N25" s="18">
+        <f>+N21-N24</f>
         <v>3087.5999999999995</v>
       </c>
-      <c r="K25" s="18">
-        <f>+K21-K24</f>
+      <c r="O25" s="18">
+        <f>+O21-O24</f>
         <v>1266.8000000000004</v>
       </c>
-      <c r="L25" s="18">
-        <f>+L21-L24</f>
+      <c r="P25" s="18">
+        <f>+P21-P24</f>
         <v>1304.5000000000002</v>
       </c>
-      <c r="M25" s="18">
-        <f>+M21-M24</f>
-        <v>2909.9970000000003</v>
-      </c>
-      <c r="N25" s="18">
-        <f t="shared" ref="N25" si="10">+N21-N24</f>
-        <v>2771.3879999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="18">
+        <f>+Q21-Q24</f>
+        <v>1543.4</v>
+      </c>
+      <c r="R25" s="18">
+        <f t="shared" ref="R25:V25" si="37">+R21-R24</f>
+        <v>2287.5336000000002</v>
+      </c>
+      <c r="S25" s="18">
+        <f t="shared" si="37"/>
+        <v>2448.5877000000005</v>
+      </c>
+      <c r="T25" s="18">
+        <f t="shared" si="37"/>
+        <v>2523.1657500000006</v>
+      </c>
+      <c r="U25" s="18">
+        <f t="shared" si="37"/>
+        <v>2505.4924375000001</v>
+      </c>
+      <c r="V25" s="18">
+        <f t="shared" si="37"/>
+        <v>2613.286312875</v>
+      </c>
+      <c r="AJ25" s="1">
+        <f>+AJ21-AJ24</f>
+        <v>3640.5</v>
+      </c>
+      <c r="AK25" s="1">
+        <f t="shared" ref="AK25:AM25" si="38">+AK21-AK24</f>
+        <v>9722.5000000000018</v>
+      </c>
+      <c r="AL25" s="1">
+        <f t="shared" si="38"/>
+        <v>6402.2336000000005</v>
+      </c>
+      <c r="AM25" s="1">
+        <f t="shared" si="38"/>
+        <v>10090.532200375001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="18">
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18">
+        <f>40.4+25.3</f>
+        <v>65.7</v>
+      </c>
+      <c r="H26" s="18">
+        <f>-50.2+7.9</f>
+        <v>-42.300000000000004</v>
+      </c>
+      <c r="I26" s="18">
         <v>-54.8</v>
       </c>
-      <c r="F26" s="18">
+      <c r="J26" s="18">
         <v>57.6</v>
       </c>
-      <c r="G26" s="18">
+      <c r="K26" s="18">
         <f>40.5-14.6</f>
         <v>25.9</v>
       </c>
-      <c r="H26" s="18">
+      <c r="L26" s="18">
         <f>-14.4-31.3</f>
         <v>-45.7</v>
       </c>
-      <c r="I26" s="18">
+      <c r="M26" s="18">
         <v>-30.6</v>
       </c>
-      <c r="J26" s="18">
+      <c r="N26" s="18">
         <f>15.8-136.3</f>
         <v>-120.50000000000001</v>
       </c>
-      <c r="K26" s="18">
+      <c r="O26" s="18">
         <f>20.2-197.4</f>
         <v>-177.20000000000002</v>
       </c>
-      <c r="L26" s="18">
+      <c r="P26" s="18">
         <f>-133.6-13.1-17.4</f>
         <v>-164.1</v>
       </c>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-    </row>
-    <row r="27" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q26" s="18">
+        <v>32.6</v>
+      </c>
+      <c r="R26" s="18"/>
+      <c r="AJ26" s="1">
+        <f t="shared" ref="AJ26" si="39">SUM(G26:J26)</f>
+        <v>26.200000000000003</v>
+      </c>
+      <c r="AK26" s="1">
+        <f t="shared" ref="AK26" si="40">SUM(K26:N26)</f>
+        <v>-170.90000000000003</v>
+      </c>
+      <c r="AL26" s="1">
+        <f t="shared" ref="AL26" si="41">SUM(O26:R26)</f>
+        <v>-308.7</v>
+      </c>
+      <c r="AM26" s="1">
+        <f t="shared" ref="AM26" si="42">SUM(S26:V26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="18">
-        <f>E25+E26</f>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18">
+        <f t="shared" ref="G27" si="43">G25+G26</f>
+        <v>745.60000000000014</v>
+      </c>
+      <c r="H27" s="18">
+        <f t="shared" ref="H27:R27" si="44">H25+H26</f>
+        <v>762.30000000000018</v>
+      </c>
+      <c r="I27" s="18">
+        <f t="shared" si="44"/>
         <v>1196.9999999999998</v>
       </c>
-      <c r="F27" s="18">
-        <f>F25+F26</f>
+      <c r="J27" s="18">
+        <f t="shared" si="44"/>
         <v>961.79999999999984</v>
       </c>
-      <c r="G27" s="18">
-        <f>G25+G26</f>
+      <c r="K27" s="18">
+        <f t="shared" si="44"/>
         <v>1098.8000000000006</v>
       </c>
-      <c r="H27" s="18">
-        <f>H25+H26</f>
+      <c r="L27" s="18">
+        <f t="shared" si="44"/>
         <v>3270.4</v>
       </c>
-      <c r="I27" s="18">
-        <f>I25+I26</f>
+      <c r="M27" s="18">
+        <f t="shared" si="44"/>
         <v>2215.3000000000002</v>
       </c>
-      <c r="J27" s="18">
-        <f>J25+J26</f>
+      <c r="N27" s="18">
+        <f t="shared" si="44"/>
         <v>2967.0999999999995</v>
       </c>
-      <c r="K27" s="18">
-        <f>K25+K26</f>
+      <c r="O27" s="18">
+        <f t="shared" si="44"/>
         <v>1089.6000000000004</v>
       </c>
-      <c r="L27" s="18">
-        <f>L25+L26</f>
+      <c r="P27" s="18">
+        <f t="shared" si="44"/>
         <v>1140.4000000000003</v>
       </c>
-      <c r="M27" s="18">
-        <f>M25+M26</f>
-        <v>2909.9970000000003</v>
-      </c>
-      <c r="N27" s="18">
-        <f>N25+N26</f>
-        <v>2771.3879999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="18">
+        <f t="shared" si="44"/>
+        <v>1576</v>
+      </c>
+      <c r="R27" s="18">
+        <f t="shared" si="44"/>
+        <v>2287.5336000000002</v>
+      </c>
+      <c r="S27" s="18">
+        <f t="shared" ref="S27" si="45">S25+S26</f>
+        <v>2448.5877000000005</v>
+      </c>
+      <c r="T27" s="18">
+        <f t="shared" ref="T27" si="46">T25+T26</f>
+        <v>2523.1657500000006</v>
+      </c>
+      <c r="U27" s="18">
+        <f t="shared" ref="U27" si="47">U25+U26</f>
+        <v>2505.4924375000001</v>
+      </c>
+      <c r="V27" s="18">
+        <f t="shared" ref="V27" si="48">V25+V26</f>
+        <v>2613.286312875</v>
+      </c>
+      <c r="AJ27" s="1">
+        <f>+AJ25+AJ26</f>
+        <v>3666.7</v>
+      </c>
+      <c r="AK27" s="1">
+        <f t="shared" ref="AK27:AM27" si="49">+AK25+AK26</f>
+        <v>9551.6000000000022</v>
+      </c>
+      <c r="AL27" s="1">
+        <f t="shared" si="49"/>
+        <v>6093.5336000000007</v>
+      </c>
+      <c r="AM27" s="1">
+        <f t="shared" si="49"/>
+        <v>10090.532200375001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="18">
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18">
+        <v>44</v>
+      </c>
+      <c r="H28" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="I28" s="18">
         <v>156.19999999999999</v>
       </c>
-      <c r="F28" s="18">
+      <c r="J28" s="18">
         <v>75.400000000000006</v>
       </c>
-      <c r="G28" s="18">
+      <c r="K28" s="18">
         <v>137.80000000000001</v>
       </c>
-      <c r="H28" s="18">
+      <c r="L28" s="18">
         <v>653.9</v>
       </c>
-      <c r="I28" s="18">
+      <c r="M28" s="18">
         <v>184.4</v>
       </c>
-      <c r="J28" s="18">
+      <c r="N28" s="18">
         <v>274.39999999999998</v>
       </c>
-      <c r="K28" s="18">
+      <c r="O28" s="18">
         <v>87.6</v>
       </c>
-      <c r="L28" s="18">
+      <c r="P28" s="18">
         <v>111.1</v>
       </c>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-    </row>
-    <row r="29" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q28" s="18">
+        <v>194.1</v>
+      </c>
+      <c r="R28" s="18">
+        <f>+R27*0.15</f>
+        <v>343.13004000000001</v>
+      </c>
+      <c r="S28" s="18">
+        <f t="shared" ref="S28:V28" si="50">+S27*0.15</f>
+        <v>367.28815500000007</v>
+      </c>
+      <c r="T28" s="18">
+        <f t="shared" si="50"/>
+        <v>378.47486250000009</v>
+      </c>
+      <c r="U28" s="18">
+        <f t="shared" si="50"/>
+        <v>375.823865625</v>
+      </c>
+      <c r="V28" s="18">
+        <f t="shared" si="50"/>
+        <v>391.99294693125</v>
+      </c>
+      <c r="AJ28" s="1">
+        <f t="shared" ref="AJ28" si="51">SUM(G28:J28)</f>
+        <v>297.2</v>
+      </c>
+      <c r="AK28" s="1">
+        <f t="shared" ref="AK28" si="52">SUM(K28:N28)</f>
+        <v>1250.5</v>
+      </c>
+      <c r="AL28" s="1">
+        <f t="shared" ref="AL28" si="53">SUM(O28:R28)</f>
+        <v>735.93003999999996</v>
+      </c>
+      <c r="AM28" s="1">
+        <f t="shared" ref="AM28" si="54">SUM(S28:V28)</f>
+        <v>1513.5798300562501</v>
+      </c>
+    </row>
+    <row r="29" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="18">
-        <f>+E27-E28</f>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18">
+        <f t="shared" ref="G29" si="55">+G27-G28</f>
+        <v>701.60000000000014</v>
+      </c>
+      <c r="H29" s="18">
+        <f t="shared" ref="H29:R29" si="56">+H27-H28</f>
+        <v>740.70000000000016</v>
+      </c>
+      <c r="I29" s="18">
+        <f t="shared" si="56"/>
         <v>1040.7999999999997</v>
       </c>
-      <c r="F29" s="18">
-        <f>+F27-F28</f>
+      <c r="J29" s="18">
+        <f t="shared" si="56"/>
         <v>886.39999999999986</v>
       </c>
-      <c r="G29" s="18">
-        <f>+G27-G28</f>
+      <c r="K29" s="18">
+        <f t="shared" si="56"/>
         <v>961.00000000000068</v>
       </c>
-      <c r="H29" s="18">
-        <f>+H27-H28</f>
+      <c r="L29" s="18">
+        <f t="shared" si="56"/>
         <v>2616.5</v>
       </c>
-      <c r="I29" s="18">
-        <f>+I27-I28</f>
+      <c r="M29" s="18">
+        <f t="shared" si="56"/>
         <v>2030.9</v>
       </c>
-      <c r="J29" s="18">
-        <f>+J27-J28</f>
+      <c r="N29" s="18">
+        <f t="shared" si="56"/>
         <v>2692.6999999999994</v>
       </c>
-      <c r="K29" s="18">
-        <f>+K27-K28</f>
+      <c r="O29" s="18">
+        <f t="shared" si="56"/>
         <v>1002.0000000000003</v>
       </c>
-      <c r="L29" s="18">
-        <f>+L27-L28</f>
+      <c r="P29" s="18">
+        <f t="shared" si="56"/>
         <v>1029.3000000000004</v>
       </c>
-      <c r="M29" s="18">
-        <f>+M27-M28</f>
-        <v>2909.9970000000003</v>
-      </c>
-      <c r="N29" s="18">
-        <f>+N27-N28</f>
-        <v>2771.3879999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="Q29" s="18">
+        <f t="shared" si="56"/>
+        <v>1381.9</v>
+      </c>
+      <c r="R29" s="18">
+        <f t="shared" si="56"/>
+        <v>1944.4035600000002</v>
+      </c>
+      <c r="S29" s="18">
+        <f t="shared" ref="S29" si="57">+S27-S28</f>
+        <v>2081.2995450000003</v>
+      </c>
+      <c r="T29" s="18">
+        <f t="shared" ref="T29" si="58">+T27-T28</f>
+        <v>2144.6908875000004</v>
+      </c>
+      <c r="U29" s="18">
+        <f t="shared" ref="U29" si="59">+U27-U28</f>
+        <v>2129.668571875</v>
+      </c>
+      <c r="V29" s="18">
+        <f t="shared" ref="V29" si="60">+V27-V28</f>
+        <v>2221.2933659437499</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f>+AJ27-AJ28</f>
+        <v>3369.5</v>
+      </c>
+      <c r="AK29" s="1">
+        <f t="shared" ref="AK29:AM29" si="61">+AK27-AK28</f>
+        <v>8301.1000000000022</v>
+      </c>
+      <c r="AL29" s="1">
+        <f t="shared" si="61"/>
+        <v>5357.6035600000005</v>
+      </c>
+      <c r="AM29" s="1">
+        <f t="shared" si="61"/>
+        <v>8576.9523703187515</v>
+      </c>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E30" s="19">
-        <f>+E29/E31</f>
+        <v>240</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" ref="G30" si="62">+G29/G31</f>
+        <v>6.0955690703735899</v>
+      </c>
+      <c r="H30" s="19">
+        <f t="shared" ref="H30:R30" si="63">+H29/H31</f>
+        <v>6.2087175188600181</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" si="63"/>
         <v>9.1378402107111469</v>
       </c>
-      <c r="F30" s="19">
-        <f>+F29/F31</f>
+      <c r="J30" s="19">
+        <f t="shared" si="63"/>
         <v>7.900178253119428</v>
       </c>
-      <c r="G30" s="19">
-        <f>+G29/G31</f>
+      <c r="K30" s="19">
+        <f t="shared" si="63"/>
         <v>8.5727029438001843</v>
       </c>
-      <c r="H30" s="19">
-        <f>+H29/H31</f>
+      <c r="L30" s="19">
+        <f t="shared" si="63"/>
         <v>23.319964349376114</v>
       </c>
-      <c r="I30" s="19">
-        <f>+I29/I31</f>
+      <c r="M30" s="19">
+        <f t="shared" si="63"/>
         <v>17.830553116769096</v>
       </c>
-      <c r="J30" s="19">
-        <f>+J29/J31</f>
+      <c r="N30" s="19">
+        <f t="shared" si="63"/>
         <v>23.787102473498226</v>
       </c>
-      <c r="K30" s="19">
-        <f>+K29/K31</f>
+      <c r="O30" s="19">
+        <f t="shared" si="63"/>
         <v>8.7358326068003507</v>
       </c>
-      <c r="L30" s="19">
-        <f>+L29/L31</f>
+      <c r="P30" s="19">
+        <f t="shared" si="63"/>
         <v>8.9194107452339715</v>
       </c>
-      <c r="M30" s="19">
-        <f>+M29/M31</f>
-        <v>25.216611785095321</v>
-      </c>
-      <c r="N30" s="19">
-        <f>+N29/N31</f>
-        <v>24.015493934142114</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="19">
+        <f t="shared" si="63"/>
+        <v>12.250886524822697</v>
+      </c>
+      <c r="R30" s="19">
+        <f t="shared" si="63"/>
+        <v>17.237620212765961</v>
+      </c>
+      <c r="S30" s="19">
+        <f t="shared" ref="S30" si="64">+S29/S31</f>
+        <v>18.451237101063832</v>
+      </c>
+      <c r="T30" s="19">
+        <f t="shared" ref="T30" si="65">+T29/T31</f>
+        <v>19.013217087765963</v>
+      </c>
+      <c r="U30" s="19">
+        <f t="shared" ref="U30" si="66">+U29/U31</f>
+        <v>18.880040530806738</v>
+      </c>
+      <c r="V30" s="19">
+        <f t="shared" ref="V30" si="67">+V29/V31</f>
+        <v>19.692317073969413</v>
+      </c>
+      <c r="AJ30" s="25">
+        <f>+AJ29/AJ31</f>
+        <v>29.268186753528777</v>
+      </c>
+      <c r="AK30" s="25">
+        <f t="shared" ref="AK30:AM30" si="68">+AK29/AK31</f>
+        <v>73.558706247230845</v>
+      </c>
+      <c r="AL30" s="25">
+        <f t="shared" si="68"/>
+        <v>47.027461575597982</v>
+      </c>
+      <c r="AM30" s="25">
+        <f t="shared" si="68"/>
+        <v>76.036811793605949</v>
+      </c>
+    </row>
+    <row r="31" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
-      <c r="E31" s="18">
-        <v>113.9</v>
-      </c>
-      <c r="F31" s="18">
-        <v>112.2</v>
-      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="18">
-        <v>112.1</v>
+        <v>115.1</v>
       </c>
       <c r="H31" s="18">
-        <v>112.2</v>
+        <v>119.3</v>
       </c>
       <c r="I31" s="18">
         <v>113.9</v>
       </c>
       <c r="J31" s="18">
+        <v>112.2</v>
+      </c>
+      <c r="K31" s="18">
+        <v>112.1</v>
+      </c>
+      <c r="L31" s="18">
+        <v>112.2</v>
+      </c>
+      <c r="M31" s="18">
+        <v>113.9</v>
+      </c>
+      <c r="N31" s="18">
         <v>113.2</v>
       </c>
-      <c r="K31" s="18">
+      <c r="O31" s="18">
         <v>114.7</v>
       </c>
-      <c r="L31" s="18">
+      <c r="P31" s="18">
         <v>115.4</v>
       </c>
-      <c r="M31" s="18">
-        <f>+L31</f>
-        <v>115.4</v>
-      </c>
-      <c r="N31" s="18">
-        <f>+M31</f>
-        <v>115.4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+      <c r="Q31" s="18">
+        <v>112.8</v>
+      </c>
+      <c r="R31" s="18">
+        <f>+Q31</f>
+        <v>112.8</v>
+      </c>
+      <c r="S31" s="18">
+        <f t="shared" ref="S31:V31" si="69">+R31</f>
+        <v>112.8</v>
+      </c>
+      <c r="T31" s="18">
+        <f t="shared" si="69"/>
+        <v>112.8</v>
+      </c>
+      <c r="U31" s="18">
+        <f t="shared" si="69"/>
+        <v>112.8</v>
+      </c>
+      <c r="V31" s="18">
+        <f t="shared" si="69"/>
+        <v>112.8</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f>AVERAGE(G31:J31)</f>
+        <v>115.12499999999999</v>
+      </c>
+      <c r="AK31" s="1">
+        <f>AVERAGE(K31:N31)</f>
+        <v>112.85000000000001</v>
+      </c>
+      <c r="AL31" s="1">
+        <f>AVERAGE(O31:R31)</f>
+        <v>113.92500000000001</v>
+      </c>
+      <c r="AM31" s="1">
+        <f>AVERAGE(S31:V31)</f>
+        <v>112.8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51">
+        <f t="shared" ref="K33" si="70">K19/G19-1</f>
+        <v>0.38354665791488918</v>
+      </c>
+      <c r="L33" s="51">
+        <f t="shared" ref="L33" si="71">L19/H19-1</f>
+        <v>1.6321262101111507</v>
+      </c>
+      <c r="M33" s="51">
+        <f t="shared" ref="M33:O33" si="72">M19/I19-1</f>
+        <v>0.50531868515127765</v>
+      </c>
+      <c r="N33" s="51">
+        <f t="shared" si="72"/>
+        <v>1.153106926990477</v>
+      </c>
+      <c r="O33" s="51">
+        <f t="shared" si="72"/>
+        <v>0.17241242982525495</v>
+      </c>
+      <c r="P33" s="51">
+        <f>P19/L19-1</f>
+        <v>-0.44412010819857162</v>
+      </c>
+      <c r="Q33" s="51">
+        <f t="shared" ref="Q33:R33" si="73">Q19/M19-1</f>
+        <v>-0.14958440730979761</v>
+      </c>
+      <c r="R33" s="51">
+        <f t="shared" si="73"/>
+        <v>-0.37560254468342913</v>
+      </c>
+      <c r="S33" s="51">
+        <f t="shared" ref="S33" si="74">S19/O19-1</f>
+        <v>8.604046535154275E-2</v>
+      </c>
+      <c r="T33" s="51">
+        <f t="shared" ref="T33" si="75">T19/P19-1</f>
+        <v>0.16629354104673566</v>
+      </c>
+      <c r="U33" s="51">
+        <f t="shared" ref="U33" si="76">U19/Q19-1</f>
+        <v>0.12476821107478542</v>
+      </c>
+      <c r="V33" s="51">
+        <f t="shared" ref="V33" si="77">V19/R19-1</f>
+        <v>0.11707054063066846</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="53">
+        <f t="shared" ref="K34" si="78">+K3/G3-1</f>
+        <v>0.14931740614334466</v>
+      </c>
+      <c r="L34" s="53">
+        <f t="shared" ref="L34" si="79">+L3/H3-1</f>
+        <v>0.2791741472172351</v>
+      </c>
+      <c r="M34" s="53">
+        <f>+M3/I3-1</f>
+        <v>0.11760242792109254</v>
+      </c>
+      <c r="N34" s="53">
+        <f t="shared" ref="N34:V34" si="80">+N3/J3-1</f>
+        <v>0.15189873417721511</v>
+      </c>
+      <c r="O34" s="53">
+        <f t="shared" si="80"/>
+        <v>0.12694877505567925</v>
+      </c>
+      <c r="P34" s="53">
+        <f t="shared" si="80"/>
+        <v>0.13754385964912275</v>
+      </c>
+      <c r="Q34" s="53">
+        <f t="shared" si="80"/>
+        <v>0.10590631364562109</v>
+      </c>
+      <c r="R34" s="53">
+        <f t="shared" si="80"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S34" s="53">
+        <f t="shared" si="80"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="T34" s="53">
+        <f t="shared" si="80"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="U34" s="53">
+        <f t="shared" si="80"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="V34" s="53">
+        <f t="shared" si="80"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="I33" s="52">
-        <f t="shared" ref="I33:K33" si="11">I19/E19-1</f>
-        <v>0.50531868515127765</v>
-      </c>
-      <c r="J33" s="52">
-        <f t="shared" si="11"/>
-        <v>1.153106926990477</v>
-      </c>
-      <c r="K33" s="52">
-        <f t="shared" si="11"/>
-        <v>0.17241242982525495</v>
-      </c>
-      <c r="L33" s="52">
-        <f>L19/H19-1</f>
-        <v>-0.44412010819857162</v>
-      </c>
-      <c r="M33" s="52">
-        <f t="shared" ref="M33:N33" si="12">M19/I19-1</f>
-        <v>-6.3590025775435044E-2</v>
-      </c>
-      <c r="N33" s="52">
-        <f t="shared" si="12"/>
-        <v>-0.3781036049681914</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+      <c r="K35" s="49">
+        <f t="shared" ref="K35" si="81">K9/G9-1</f>
+        <v>0.47752126366950209</v>
+      </c>
+      <c r="L35" s="49">
+        <f t="shared" ref="L35" si="82">L9/H9-1</f>
+        <v>0.6265328874024525</v>
+      </c>
+      <c r="M35" s="49">
+        <f>M9/I9-1</f>
+        <v>0.64675912821964343</v>
+      </c>
+      <c r="N35" s="49">
+        <f t="shared" ref="N35:R35" si="83">N9/J9-1</f>
+        <v>0.63323872595395758</v>
+      </c>
+      <c r="O35" s="49">
+        <f t="shared" si="83"/>
+        <v>0.72944078947368385</v>
+      </c>
+      <c r="P35" s="49">
+        <f t="shared" si="83"/>
+        <v>0.54786383367603375</v>
+      </c>
+      <c r="Q35" s="49">
+        <f t="shared" si="83"/>
+        <v>0.22275696115503596</v>
+      </c>
+      <c r="R35" s="49">
+        <f t="shared" si="83"/>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="S35" s="49">
+        <f t="shared" ref="S35" si="84">S9/O9-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="T35" s="49">
+        <f t="shared" ref="T35" si="85">T9/P9-1</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="U35" s="49">
+        <f t="shared" ref="U35" si="86">U9/Q9-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="V35" s="49">
+        <f t="shared" ref="V35" si="87">V9/R9-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="I34" s="52">
-        <f>I9/E9-1</f>
-        <v>0.64675912821964343</v>
-      </c>
-      <c r="J34" s="52">
-        <f t="shared" ref="J34:O34" si="13">J9/F9-1</f>
-        <v>0.63323872595395758</v>
-      </c>
-      <c r="K34" s="52">
-        <f t="shared" si="13"/>
-        <v>0.72944078947368385</v>
-      </c>
-      <c r="L34" s="52">
-        <f t="shared" si="13"/>
-        <v>0.54786383367603375</v>
-      </c>
-      <c r="M34" s="52">
-        <f t="shared" si="13"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="N34" s="52">
-        <f t="shared" si="13"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="O34" s="52"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="I35" s="52">
-        <f>I13/E13-1</f>
+      <c r="K36" s="49">
+        <f t="shared" ref="K36" si="88">K13/G13-1</f>
+        <v>0.47707602339181299</v>
+      </c>
+      <c r="L36" s="49">
+        <f t="shared" ref="L36" si="89">L13/H13-1</f>
+        <v>0.58624338624338623</v>
+      </c>
+      <c r="M36" s="49">
+        <f>M13/I13-1</f>
         <v>0.55034495618124213</v>
       </c>
-      <c r="J35" s="52">
-        <f t="shared" ref="J35:N35" si="14">J13/F13-1</f>
+      <c r="N36" s="49">
+        <f t="shared" ref="N36:R36" si="90">N13/J13-1</f>
         <v>0.51348122866894186</v>
       </c>
-      <c r="K35" s="52">
-        <f t="shared" si="14"/>
+      <c r="O36" s="49">
+        <f t="shared" si="90"/>
         <v>0.43352601156069359</v>
       </c>
-      <c r="L35" s="52">
-        <f t="shared" si="14"/>
+      <c r="P36" s="49">
+        <f t="shared" si="90"/>
         <v>0.39546364242828558</v>
       </c>
-      <c r="M35" s="52">
-        <f t="shared" si="14"/>
+      <c r="Q36" s="49">
+        <f t="shared" si="90"/>
+        <v>0.40122677250586314</v>
+      </c>
+      <c r="R36" s="49">
+        <f t="shared" si="90"/>
         <v>-1</v>
       </c>
-      <c r="N35" s="52">
-        <f t="shared" si="14"/>
+      <c r="S36" s="49">
+        <f t="shared" ref="S36" si="91">S13/O13-1</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E37" s="52">
-        <f t="shared" ref="E37:L37" si="15">+E21/E19</f>
+      <c r="T36" s="49">
+        <f t="shared" ref="T36" si="92">T13/P13-1</f>
+        <v>-1</v>
+      </c>
+      <c r="U36" s="49">
+        <f t="shared" ref="U36" si="93">U13/Q13-1</f>
+        <v>-1</v>
+      </c>
+      <c r="V36" s="49" t="e">
+        <f t="shared" ref="V36" si="94">V13/R13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G38" s="49">
+        <f t="shared" ref="G38:H38" si="95">+G21/G19</f>
+        <v>0.88113991904605626</v>
+      </c>
+      <c r="H38" s="49">
+        <f t="shared" ref="H38:O38" si="96">+H21/H19</f>
+        <v>0.863648004917277</v>
+      </c>
+      <c r="I38" s="49">
+        <f t="shared" si="96"/>
         <v>0.94681314848722642</v>
       </c>
-      <c r="F37" s="52">
-        <f t="shared" si="15"/>
+      <c r="J38" s="49">
+        <f t="shared" si="96"/>
         <v>0.85237204852806892</v>
       </c>
-      <c r="G37" s="52">
-        <f t="shared" si="15"/>
+      <c r="K38" s="49">
+        <f t="shared" si="96"/>
         <v>0.87823199177670597</v>
       </c>
-      <c r="H37" s="52">
-        <f t="shared" si="15"/>
+      <c r="L38" s="49">
+        <f t="shared" si="96"/>
         <v>0.86500476774281432</v>
       </c>
-      <c r="I37" s="52">
-        <f t="shared" si="15"/>
+      <c r="M38" s="49">
+        <f t="shared" si="96"/>
         <v>0.93512699470010718</v>
       </c>
-      <c r="J37" s="52">
-        <f t="shared" si="15"/>
+      <c r="N38" s="49">
+        <f t="shared" si="96"/>
         <v>0.85259012420478653</v>
       </c>
-      <c r="K37" s="52">
-        <f t="shared" si="15"/>
+      <c r="O38" s="49">
+        <f t="shared" si="96"/>
         <v>0.86346315966953291</v>
       </c>
-      <c r="L37" s="52">
-        <f>+L21/L19</f>
+      <c r="P38" s="49">
+        <f>+P21/P19</f>
         <v>0.89599159810957474</v>
       </c>
-      <c r="M37" s="52">
-        <f t="shared" ref="M37:N37" si="16">+M21/M19</f>
-        <v>0.9</v>
-      </c>
-      <c r="N37" s="52">
-        <f t="shared" si="16"/>
+      <c r="Q38" s="49">
+        <f t="shared" ref="Q38:R38" si="97">+Q21/Q19</f>
+        <v>0.96287971665985561</v>
+      </c>
+      <c r="R38" s="49">
+        <f t="shared" si="97"/>
         <v>0.9</v>
       </c>
     </row>

--- a/REGN.xlsx
+++ b/REGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46176F5B-6838-44D6-8935-770D20E5E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83990343-7E39-40A1-965E-0F6F197CF395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50850" yWindow="360" windowWidth="29100" windowHeight="20670" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
+    <workbookView xWindow="10290" yWindow="135" windowWidth="41355" windowHeight="20745" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="Arcalyst" sheetId="2" r:id="rId5"/>
     <sheet name="Zaltrap" sheetId="4" r:id="rId6"/>
     <sheet name="VEGF Trap" sheetId="5" r:id="rId7"/>
-    <sheet name="REGN727" sheetId="6" r:id="rId8"/>
-    <sheet name="REGN88" sheetId="7" r:id="rId9"/>
+    <sheet name="Praluent" sheetId="6" r:id="rId8"/>
+    <sheet name="Kevzara" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="327">
   <si>
     <t>Nov. 11:  Eylea approved. Priced at $1,700/injection.</t>
   </si>
@@ -132,21 +132,9 @@
     <t>Jun 2010: announced positive results of PRE-SURGE 1 of Arcalyst in gout prevention</t>
   </si>
   <si>
-    <t>PCSK9 antibody</t>
-  </si>
-  <si>
     <t>Sanofi</t>
   </si>
   <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>LDL reduction</t>
-  </si>
-  <si>
-    <t>alirocumab (REGN727)</t>
-  </si>
-  <si>
     <t>NGF</t>
   </si>
   <si>
@@ -159,18 +147,9 @@
     <t>fasinumab (REGN475)</t>
   </si>
   <si>
-    <t>IL-6R antibody</t>
-  </si>
-  <si>
-    <t>II, II/III</t>
-  </si>
-  <si>
     <t>RA</t>
   </si>
   <si>
-    <t>sarilumab (REGN88)</t>
-  </si>
-  <si>
     <t>EV</t>
   </si>
   <si>
@@ -184,9 +163,6 @@
   </si>
   <si>
     <t>Antibody</t>
-  </si>
-  <si>
-    <t>Bayer (ex NA)</t>
   </si>
   <si>
     <t>AMD</t>
@@ -1019,6 +995,201 @@
   </si>
   <si>
     <t>Q419</t>
+  </si>
+  <si>
+    <t>Praluent (alirocumab)</t>
+  </si>
+  <si>
+    <t>Hypercholesterolemia</t>
+  </si>
+  <si>
+    <t>PCSK9</t>
+  </si>
+  <si>
+    <t>Kevzara (sarilumab)</t>
+  </si>
+  <si>
+    <t>IL-6R</t>
+  </si>
+  <si>
+    <t>BAY</t>
+  </si>
+  <si>
+    <t>NSCLC</t>
+  </si>
+  <si>
+    <t>Kevzara</t>
+  </si>
+  <si>
+    <t>CHAPLE</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>Filed</t>
+  </si>
+  <si>
+    <t>fianlimab</t>
+  </si>
+  <si>
+    <t>odronextamab</t>
+  </si>
+  <si>
+    <t>CD20xCD3</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>DLBCL</t>
+  </si>
+  <si>
+    <t>linvoseltamab</t>
+  </si>
+  <si>
+    <t>BCMAxCD3</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Zaltrap (aflibercept)</t>
+  </si>
+  <si>
+    <t>Eylea (aflibercept)</t>
+  </si>
+  <si>
+    <t>mibavademab</t>
+  </si>
+  <si>
+    <t>Lipodystrophy</t>
+  </si>
+  <si>
+    <t>LEPR agonist</t>
+  </si>
+  <si>
+    <t>garetosmab</t>
+  </si>
+  <si>
+    <t>FOP</t>
+  </si>
+  <si>
+    <t>Activin A</t>
+  </si>
+  <si>
+    <t>Evkeeza (evinacumab)</t>
+  </si>
+  <si>
+    <t>ANGPTL3</t>
+  </si>
+  <si>
+    <t>REGN7508</t>
+  </si>
+  <si>
+    <t>Thrombosis</t>
+  </si>
+  <si>
+    <t>Factor XI</t>
+  </si>
+  <si>
+    <t>REGN7999</t>
+  </si>
+  <si>
+    <t>Iron Overload</t>
+  </si>
+  <si>
+    <t>TMPRSS6</t>
+  </si>
+  <si>
+    <t>NTLA-2001</t>
+  </si>
+  <si>
+    <t>NTLA</t>
+  </si>
+  <si>
+    <t>CRISPR</t>
+  </si>
+  <si>
+    <t>ATTR</t>
+  </si>
+  <si>
+    <t>REGN7257</t>
+  </si>
+  <si>
+    <t>Aplastic Anemia</t>
+  </si>
+  <si>
+    <t>IL-2Rgamma</t>
+  </si>
+  <si>
+    <t>REGN7075</t>
+  </si>
+  <si>
+    <t>EGFR/CD28</t>
+  </si>
+  <si>
+    <t>REGN6569</t>
+  </si>
+  <si>
+    <t>GITR</t>
+  </si>
+  <si>
+    <t>REGN5093</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>REGN4336</t>
+  </si>
+  <si>
+    <t>Prostate Cancer</t>
+  </si>
+  <si>
+    <t>PSMAxCD3</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepaids</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <t>ONCA</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>Leases</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>ONCL</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1409,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
@@ -1348,9 +1519,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1374,16 +1552,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>31531</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18393</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>15437</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>31531</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>63062</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>18393</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1398,8 +1576,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8104790" y="15437"/>
-          <a:ext cx="0" cy="7109263"/>
+          <a:off x="11146221" y="0"/>
+          <a:ext cx="0" cy="14550259"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1789,52 +1967,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD5CF22-E8A9-4919-AD75-F071CE6857D9}">
-  <dimension ref="B2:K33"/>
+  <dimension ref="B2:K47"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J2" s="25">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="K2" s="26"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D3" s="29">
         <v>39479</v>
@@ -1843,362 +2023,441 @@
         <v>1</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J3" s="33">
-        <f>128.3-20.6+1.818146</f>
-        <v>109.51814600000002</v>
+        <f>107.507386+1.818146</f>
+        <v>109.325532</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="34" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G4" s="36"/>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1">
         <f>J2*J3</f>
-        <v>77210.292930000011</v>
+        <v>86367.170279999991</v>
       </c>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="35" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G5" s="36"/>
       <c r="I5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1">
-        <f>3395.1+4171.3+6415.9</f>
-        <v>13982.3</v>
+        <v>14334</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="35"/>
+        <v>244</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>268</v>
+      </c>
       <c r="D6" s="35"/>
       <c r="E6" s="35" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G6" s="36"/>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1">
         <v>1980.7</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>37</v>
+      <c r="B7" s="34" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>30</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1">
         <f>J4-J5+J6</f>
-        <v>65208.692930000005</v>
+        <v>74013.870279999988</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
+      <c r="B8" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" s="41"/>
-      <c r="J8" s="43"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="35" t="s">
+      <c r="B9" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="55"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="G10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="I10" s="41"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="44" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="35"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="42" t="s">
+        <v>298</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="36"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" s="42"/>
+      <c r="F15" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G15" s="36"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C16" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D16" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="45"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="42"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="41"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="42"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="42"/>
+      <c r="B17" s="44" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+      <c r="B18" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="42"/>
-      <c r="F18" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="42"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D19" s="35"/>
       <c r="E19" s="42"/>
-      <c r="F19" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="42"/>
+      <c r="F19" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="B20" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="35"/>
       <c r="E20" s="42"/>
-      <c r="F20" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="42"/>
+      <c r="F20" s="35" t="s">
+        <v>305</v>
+      </c>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
+      <c r="B21" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="35"/>
       <c r="E21" s="42"/>
-      <c r="F21" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="42"/>
+      <c r="F21" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
+      <c r="B22" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="42"/>
-      <c r="F22" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="42"/>
+      <c r="F22" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
+      <c r="B23" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="42"/>
-      <c r="F23" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="42"/>
+      <c r="F23" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
+      <c r="B24" s="44" t="s">
+        <v>310</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="35"/>
       <c r="E24" s="42"/>
-      <c r="F24" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="42"/>
+      <c r="F24" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
+      <c r="B25" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D25" s="35"/>
       <c r="E25" s="42"/>
-      <c r="F25" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="42"/>
+      <c r="F25" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="42"/>
+      <c r="B26" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>284</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="G26" s="45"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
-      <c r="F27" s="48" t="s">
-        <v>6</v>
-      </c>
+      <c r="F27" s="42"/>
       <c r="G27" s="42"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="41"/>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="48" t="s">
-        <v>5</v>
+      <c r="F28" s="46" t="s">
+        <v>19</v>
       </c>
       <c r="G28" s="42"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B29" s="41"/>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="48" t="s">
-        <v>4</v>
+      <c r="E29" s="47"/>
+      <c r="F29" s="46" t="s">
+        <v>18</v>
       </c>
       <c r="G29" s="42"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B30" s="41"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="48" t="s">
-        <v>3</v>
+      <c r="E30" s="47"/>
+      <c r="F30" s="46" t="s">
+        <v>17</v>
       </c>
       <c r="G30" s="42"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B31" s="41"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="48" t="s">
-        <v>2</v>
+      <c r="E31" s="47"/>
+      <c r="F31" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="G31" s="42"/>
     </row>
@@ -2206,8 +2465,8 @@
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="48" t="s">
-        <v>1</v>
+      <c r="F32" s="46" t="s">
+        <v>15</v>
       </c>
       <c r="G32" s="42"/>
     </row>
@@ -2215,19 +2474,145 @@
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="42"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="42"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="42"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="42"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="42"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="42"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="42"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="42"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="42"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="42"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="42"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="42"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G45" s="42"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="42"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="42"/>
+      <c r="G47" s="42"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="Arcalyst!A1" display="Arcalyst" xr:uid="{BDF22BBF-5632-43C4-825A-494559AE5BB9}"/>
-    <hyperlink ref="B12" location="REGN727!A1" display="REGN727" xr:uid="{8D796E16-1B6A-4863-8C76-1C9033CFEB9D}"/>
-    <hyperlink ref="B9" location="REGN88!A1" display="REGN88" xr:uid="{8D20C485-61D6-4E03-A982-1D64315E19D9}"/>
     <hyperlink ref="B4" location="Zaltrap!A1" display="Zaltrap" xr:uid="{B1A779BE-0169-48CB-AB42-981661C5EA87}"/>
     <hyperlink ref="B7" location="'VEGF Trap-Eye'!A1" display="VEGF Trap-Eye" xr:uid="{632465B5-10C7-43D8-A04F-89D049587F0F}"/>
     <hyperlink ref="B5" location="Dupixent!A1" display="Dupixent (dupilumab)" xr:uid="{4B303E05-22EB-4F26-B307-EFDE28905187}"/>
+    <hyperlink ref="B10" location="Praluent!A1" display="Praluent (alirocumab)" xr:uid="{1FBBB777-8F0A-401F-910F-1D5972FED37A}"/>
+    <hyperlink ref="B8" location="Kevzara!A1" display="Kevzara (sarilumab)" xr:uid="{87937E02-CEC4-452E-83BE-A472FFD8A1F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2235,13 +2620,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BECB6-C670-4D66-9069-7BDB54779CF7}">
-  <dimension ref="A1:BH38"/>
+  <dimension ref="A1:BH62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP27" sqref="AP27"/>
+      <selection pane="bottomRight" activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2253,69 +2638,69 @@
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="C2" s="17" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G2" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="O2" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="P2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="R2" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>222</v>
-      </c>
       <c r="S2" s="17" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="Z2">
         <v>2010</v>
@@ -2459,7 +2844,7 @@
     </row>
     <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C3" s="18">
         <v>1074.0999999999999</v>
@@ -2503,8 +2888,7 @@
         <v>1629</v>
       </c>
       <c r="R3" s="18">
-        <f>+N3*1.1</f>
-        <v>1701.7</v>
+        <v>1496</v>
       </c>
       <c r="S3" s="18">
         <f t="shared" ref="S3:V3" si="1">+O3*1.1</f>
@@ -2520,7 +2904,7 @@
       </c>
       <c r="V3" s="18">
         <f t="shared" si="1"/>
-        <v>1871.8700000000001</v>
+        <v>1645.6000000000001</v>
       </c>
       <c r="AJ3" s="1">
         <f>SUM(G3:J3)</f>
@@ -2532,16 +2916,16 @@
       </c>
       <c r="AL3" s="1">
         <f>SUM(O3:R3)</f>
-        <v>6469.7</v>
+        <v>6264</v>
       </c>
       <c r="AM3" s="1">
         <f>SUM(S3:V3)</f>
-        <v>7116.670000000001</v>
+        <v>6890.4000000000015</v>
       </c>
     </row>
     <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C4" s="18">
         <v>26.8</v>
@@ -2586,24 +2970,24 @@
         <v>126</v>
       </c>
       <c r="R4" s="18">
-        <f>+Q4+5</f>
-        <v>131</v>
+        <f>110+42</f>
+        <v>152</v>
       </c>
       <c r="S4" s="1">
         <f>+R4+5</f>
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="T4" s="1">
         <f>+S4+5</f>
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="U4" s="1">
         <f>+T4+5</f>
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="V4" s="1">
         <f>+U4+5</f>
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="AJ4" s="1">
         <f t="shared" ref="AJ4:AJ18" si="2">SUM(G4:J4)</f>
@@ -2615,16 +2999,16 @@
       </c>
       <c r="AL4" s="1">
         <f t="shared" ref="AL4:AL18" si="4">SUM(O4:R4)</f>
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="AM4" s="1">
         <f t="shared" ref="AM4:AM18" si="5">SUM(S4:V4)</f>
-        <v>574</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C5" s="18">
         <v>0</v>
@@ -2668,24 +3052,23 @@
         <v>30</v>
       </c>
       <c r="R5" s="18">
-        <f t="shared" ref="R5" si="6">+N5*1.1</f>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="S5" s="1">
         <f>+R5+1</f>
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="T5" s="1">
         <f>+S5+1</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="U5" s="1">
         <f>+T5+1</f>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="V5" s="1">
         <f>+U5+1</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AJ5" s="1">
         <f t="shared" si="2"/>
@@ -2697,16 +3080,16 @@
       </c>
       <c r="AL5" s="1">
         <f t="shared" si="4"/>
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="AM5" s="1">
         <f t="shared" si="5"/>
-        <v>186</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
@@ -2750,24 +3133,23 @@
         <v>3</v>
       </c>
       <c r="R6" s="18">
-        <f>+Q6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S6" s="18">
         <f>+R6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" s="18">
         <f>+S6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U6" s="18">
         <f>+T6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V6" s="18">
         <f>+U6</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <f t="shared" si="2"/>
@@ -2779,16 +3161,16 @@
       </c>
       <c r="AL6" s="1">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AM6" s="1">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C7" s="18">
         <v>0</v>
@@ -2832,24 +3214,23 @@
         <v>14</v>
       </c>
       <c r="R7" s="18">
-        <f>+Q7+2</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S7" s="1">
         <f>+R7+1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T7" s="1">
         <f>+S7+1</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="U7" s="1">
         <f>+T7+1</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V7" s="1">
         <f>+U7+1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ7" s="1">
         <f t="shared" si="2"/>
@@ -2861,16 +3242,16 @@
       </c>
       <c r="AL7" s="1">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AM7" s="1">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C8" s="18">
         <v>3.5</v>
@@ -2947,44 +3328,44 @@
     </row>
     <row r="9" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="18">
-        <f t="shared" ref="C9:D9" si="7">SUM(C10:C12)</f>
+        <f t="shared" ref="C9:D9" si="6">SUM(C10:C12)</f>
         <v>0</v>
       </c>
       <c r="D9" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18">
-        <f t="shared" ref="G9:M9" si="8">SUM(G10:G12)</f>
+        <f t="shared" ref="G9:M9" si="7">SUM(G10:G12)</f>
         <v>246.9</v>
       </c>
       <c r="H9" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>269.10000000000002</v>
       </c>
       <c r="I9" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>353.3</v>
       </c>
       <c r="J9" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>317.10000000000002</v>
       </c>
       <c r="K9" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>364.80000000000007</v>
       </c>
       <c r="L9" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>437.7</v>
       </c>
       <c r="M9" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>581.80000000000007</v>
       </c>
       <c r="N9" s="18">
@@ -3004,8 +3385,8 @@
         <v>711.4</v>
       </c>
       <c r="R9" s="18">
-        <f>+N9*1.4</f>
-        <v>725.06</v>
+        <f>SUM(R10:R12)</f>
+        <v>835.9</v>
       </c>
       <c r="S9" s="18">
         <f>+O9*1.3</f>
@@ -3021,7 +3402,7 @@
       </c>
       <c r="V9" s="18">
         <f>+R9*1.2</f>
-        <v>870.07199999999989</v>
+        <v>1003.0799999999999</v>
       </c>
       <c r="AJ9" s="1">
         <f t="shared" si="2"/>
@@ -3033,16 +3414,16 @@
       </c>
       <c r="AL9" s="1">
         <f t="shared" si="4"/>
-        <v>2744.86</v>
+        <v>2855.7000000000003</v>
       </c>
       <c r="AM9" s="1">
         <f t="shared" si="5"/>
-        <v>3424.6719999999996</v>
+        <v>3557.68</v>
       </c>
     </row>
     <row r="10" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
@@ -3081,7 +3462,9 @@
       <c r="Q10" s="18">
         <v>551.1</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="18">
+        <v>619</v>
+      </c>
       <c r="AJ10" s="1">
         <f t="shared" si="2"/>
         <v>785.2</v>
@@ -3092,7 +3475,7 @@
       </c>
       <c r="AL10" s="1">
         <f t="shared" si="4"/>
-        <v>1463</v>
+        <v>2082</v>
       </c>
       <c r="AM10" s="1">
         <f t="shared" si="5"/>
@@ -3101,7 +3484,7 @@
     </row>
     <row r="11" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
@@ -3140,7 +3523,9 @@
       <c r="Q11" s="18">
         <v>160.5</v>
       </c>
-      <c r="R11" s="18"/>
+      <c r="R11" s="18">
+        <v>166.9</v>
+      </c>
       <c r="AJ11" s="1">
         <f t="shared" si="2"/>
         <v>368</v>
@@ -3151,7 +3536,7 @@
       </c>
       <c r="AL11" s="1">
         <f t="shared" si="4"/>
-        <v>466.8</v>
+        <v>633.70000000000005</v>
       </c>
       <c r="AM11" s="1">
         <f t="shared" si="5"/>
@@ -3160,7 +3545,7 @@
     </row>
     <row r="12" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
@@ -3209,7 +3594,9 @@
       <c r="Q12" s="18">
         <v>-0.2</v>
       </c>
-      <c r="R12" s="18"/>
+      <c r="R12" s="18">
+        <v>50</v>
+      </c>
       <c r="AJ12" s="1">
         <f t="shared" si="2"/>
         <v>33.199999999999996</v>
@@ -3220,7 +3607,7 @@
       </c>
       <c r="AL12" s="1">
         <f t="shared" si="4"/>
-        <v>89.999999999999986</v>
+        <v>140</v>
       </c>
       <c r="AM12" s="1">
         <f t="shared" si="5"/>
@@ -3229,7 +3616,7 @@
     </row>
     <row r="13" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18">
@@ -3270,7 +3657,9 @@
       <c r="Q13" s="18">
         <v>2330.1</v>
       </c>
-      <c r="R13" s="18"/>
+      <c r="R13" s="18">
+        <v>2448.9</v>
+      </c>
       <c r="AJ13" s="1">
         <f t="shared" si="2"/>
         <v>4044.6</v>
@@ -3281,7 +3670,7 @@
       </c>
       <c r="AL13" s="1">
         <f t="shared" si="4"/>
-        <v>6232.3</v>
+        <v>8681.2000000000007</v>
       </c>
       <c r="AM13" s="1">
         <f t="shared" si="5"/>
@@ -3290,7 +3679,7 @@
     </row>
     <row r="14" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18">
@@ -3329,7 +3718,9 @@
       <c r="Q14" s="18">
         <v>113.7</v>
       </c>
-      <c r="R14" s="18"/>
+      <c r="R14" s="18">
+        <v>133.4</v>
+      </c>
       <c r="AJ14" s="1">
         <f t="shared" si="2"/>
         <v>279</v>
@@ -3340,7 +3731,7 @@
       </c>
       <c r="AL14" s="1">
         <f t="shared" si="4"/>
-        <v>334</v>
+        <v>467.4</v>
       </c>
       <c r="AM14" s="1">
         <f t="shared" si="5"/>
@@ -3349,7 +3740,7 @@
     </row>
     <row r="15" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18">
@@ -3388,7 +3779,9 @@
       <c r="Q15" s="18">
         <v>88.1</v>
       </c>
-      <c r="R15" s="18"/>
+      <c r="R15" s="18">
+        <v>81.2</v>
+      </c>
       <c r="AJ15" s="1">
         <f t="shared" si="2"/>
         <v>209.8</v>
@@ -3399,7 +3792,7 @@
       </c>
       <c r="AL15" s="1">
         <f t="shared" si="4"/>
-        <v>276.79999999999995</v>
+        <v>357.99999999999994</v>
       </c>
       <c r="AM15" s="1">
         <f t="shared" si="5"/>
@@ -3408,7 +3801,7 @@
     </row>
     <row r="16" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C16" s="18">
         <v>264</v>
@@ -3450,24 +3843,23 @@
         <v>333</v>
       </c>
       <c r="R16" s="18">
-        <f>+N16*1.01</f>
-        <v>376.12399999999997</v>
+        <v>355.1</v>
       </c>
       <c r="S16" s="18">
-        <f t="shared" ref="S16:V16" si="9">+O16*1.01</f>
+        <f t="shared" ref="S16:V16" si="8">+O16*1.01</f>
         <v>389.15300000000002</v>
       </c>
       <c r="T16" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>361.58</v>
       </c>
       <c r="U16" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>336.33</v>
       </c>
       <c r="V16" s="18">
-        <f t="shared" si="9"/>
-        <v>379.88523999999995</v>
+        <f t="shared" si="8"/>
+        <v>358.65100000000001</v>
       </c>
       <c r="AJ16" s="1">
         <f t="shared" si="2"/>
@@ -3479,16 +3871,16 @@
       </c>
       <c r="AL16" s="1">
         <f t="shared" si="4"/>
-        <v>1452.424</v>
+        <v>1431.4</v>
       </c>
       <c r="AM16" s="1">
         <f t="shared" si="5"/>
-        <v>1466.9482399999997</v>
+        <v>1445.7139999999999</v>
       </c>
     </row>
     <row r="17" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C17" s="18">
         <v>0</v>
@@ -3536,24 +3928,23 @@
         <v>6</v>
       </c>
       <c r="R17" s="18">
-        <f t="shared" ref="R17:R18" si="10">+N17*1.1</f>
-        <v>0</v>
+        <v>396.4</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" ref="S17:V17" si="11">AVERAGE(O17:R17)</f>
-        <v>57.575000000000003</v>
+        <f t="shared" ref="S17:V17" si="9">AVERAGE(O17:R17)</f>
+        <v>156.67500000000001</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="11"/>
-        <v>17.893750000000001</v>
+        <f t="shared" si="9"/>
+        <v>141.76875000000001</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="11"/>
-        <v>20.3671875</v>
+        <f t="shared" si="9"/>
+        <v>175.2109375</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" si="11"/>
-        <v>23.958984375</v>
+        <f t="shared" si="9"/>
+        <v>217.513671875</v>
       </c>
       <c r="AJ17" s="1">
         <f t="shared" si="2"/>
@@ -3565,16 +3956,16 @@
       </c>
       <c r="AL17" s="1">
         <f t="shared" si="4"/>
-        <v>230.3</v>
+        <v>626.70000000000005</v>
       </c>
       <c r="AM17" s="1">
         <f t="shared" si="5"/>
-        <v>119.794921875</v>
+        <v>691.16835937500002</v>
       </c>
     </row>
     <row r="18" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C18" s="18">
         <v>22.2</v>
@@ -3614,24 +4005,23 @@
         <v>84</v>
       </c>
       <c r="R18" s="18">
-        <f t="shared" si="10"/>
-        <v>94.820000000000007</v>
+        <v>127.7</v>
       </c>
       <c r="S18" s="1">
         <f>AVERAGE(O18:R18)</f>
-        <v>82.954999999999998</v>
+        <v>91.174999999999997</v>
       </c>
       <c r="T18" s="1">
-        <f t="shared" ref="T18:V18" si="12">AVERAGE(P18:S18)</f>
-        <v>80.193749999999994</v>
+        <f t="shared" ref="T18:V18" si="10">AVERAGE(P18:S18)</f>
+        <v>90.46875</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="12"/>
-        <v>85.4921875</v>
+        <f t="shared" si="10"/>
+        <v>98.3359375</v>
       </c>
       <c r="V18" s="1">
-        <f t="shared" si="12"/>
-        <v>85.865234375</v>
+        <f t="shared" si="10"/>
+        <v>101.919921875</v>
       </c>
       <c r="AJ18" s="1">
         <f t="shared" si="2"/>
@@ -3643,49 +4033,49 @@
       </c>
       <c r="AL18" s="1">
         <f t="shared" si="4"/>
-        <v>331.82</v>
+        <v>364.7</v>
       </c>
       <c r="AM18" s="1">
         <f t="shared" si="5"/>
-        <v>334.50617187500001</v>
+        <v>381.89960937500001</v>
       </c>
     </row>
     <row r="19" spans="2:39" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C19" s="21">
-        <f t="shared" ref="C19:D19" si="13">SUM(C3:C9)+C16+C17+C18</f>
+        <f t="shared" ref="C19:D19" si="11">SUM(C3:C9)+C16+C17+C18</f>
         <v>1390.6</v>
       </c>
       <c r="D19" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1231.5</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21">
-        <f t="shared" ref="G19:J19" si="14">SUM(G3:G9)+G16+G17+G18</f>
+        <f t="shared" ref="G19:J19" si="12">SUM(G3:G9)+G16+G17+G18</f>
         <v>1828.2</v>
       </c>
       <c r="H19" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1952.3000000000002</v>
       </c>
       <c r="I19" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2293.7999999999997</v>
       </c>
       <c r="J19" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2299.6999999999998</v>
       </c>
       <c r="K19" s="21">
-        <f t="shared" ref="K19:P19" si="15">SUM(K3:K9)+K16+K17+K18</f>
+        <f t="shared" ref="K19:P19" si="13">SUM(K3:K9)+K16+K17+K18</f>
         <v>2529.4000000000005</v>
       </c>
       <c r="L19" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>5138.7</v>
       </c>
       <c r="M19" s="21">
@@ -3693,61 +4083,61 @@
         <v>3452.9</v>
       </c>
       <c r="N19" s="21">
+        <f t="shared" si="13"/>
+        <v>4951.4999999999991</v>
+      </c>
+      <c r="O19" s="21">
+        <f t="shared" si="13"/>
+        <v>2965.5000000000005</v>
+      </c>
+      <c r="P19" s="21">
+        <f t="shared" si="13"/>
+        <v>2856.5</v>
+      </c>
+      <c r="Q19" s="21">
+        <f t="shared" ref="Q19:V19" si="14">SUM(Q3:Q9)+Q16+Q17+Q18</f>
+        <v>2936.4</v>
+      </c>
+      <c r="R19" s="21">
+        <f t="shared" si="14"/>
+        <v>3414.1</v>
+      </c>
+      <c r="S19" s="21">
+        <f t="shared" si="14"/>
+        <v>3336.9730000000009</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" si="14"/>
+        <v>3474.6675000000005</v>
+      </c>
+      <c r="U19" s="21">
+        <f t="shared" si="14"/>
+        <v>3479.4568749999999</v>
+      </c>
+      <c r="V19" s="21">
+        <f t="shared" si="14"/>
+        <v>3557.7645937500001</v>
+      </c>
+      <c r="AJ19" s="21">
+        <f t="shared" ref="AJ19:AM19" si="15">SUM(AJ3:AJ9)+AJ16+AJ17+AJ18</f>
+        <v>8374</v>
+      </c>
+      <c r="AK19" s="21">
         <f t="shared" si="15"/>
-        <v>4951.4999999999991</v>
-      </c>
-      <c r="O19" s="21">
+        <v>16072.500000000002</v>
+      </c>
+      <c r="AL19" s="21">
         <f t="shared" si="15"/>
-        <v>2965.5000000000005</v>
-      </c>
-      <c r="P19" s="21">
+        <v>12172.500000000002</v>
+      </c>
+      <c r="AM19" s="21">
         <f t="shared" si="15"/>
-        <v>2856.5</v>
-      </c>
-      <c r="Q19" s="21">
-        <f t="shared" ref="Q19:V19" si="16">SUM(Q3:Q9)+Q16+Q17+Q18</f>
-        <v>2936.4</v>
-      </c>
-      <c r="R19" s="21">
-        <f t="shared" si="16"/>
-        <v>3091.7040000000002</v>
-      </c>
-      <c r="S19" s="21">
-        <f t="shared" si="16"/>
-        <v>3220.6530000000002</v>
-      </c>
-      <c r="T19" s="21">
-        <f t="shared" si="16"/>
-        <v>3331.5175000000004</v>
-      </c>
-      <c r="U19" s="21">
-        <f t="shared" si="16"/>
-        <v>3302.7693749999999</v>
-      </c>
-      <c r="V19" s="21">
-        <f t="shared" si="16"/>
-        <v>3453.6514587500001</v>
-      </c>
-      <c r="AJ19" s="21">
-        <f t="shared" ref="AJ19:AM19" si="17">SUM(AJ3:AJ9)+AJ16+AJ17+AJ18</f>
-        <v>8374</v>
-      </c>
-      <c r="AK19" s="21">
-        <f t="shared" si="17"/>
-        <v>16072.500000000002</v>
-      </c>
-      <c r="AL19" s="21">
-        <f t="shared" si="17"/>
-        <v>11850.103999999999</v>
-      </c>
-      <c r="AM19" s="21">
-        <f t="shared" si="17"/>
-        <v>13308.591333750001</v>
+        <v>13848.861968750001</v>
       </c>
     </row>
     <row r="20" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18">
@@ -3797,88 +4187,88 @@
         <v>109</v>
       </c>
       <c r="R20" s="18">
-        <f>+R19-R21</f>
-        <v>309.17039999999997</v>
+        <f>302.2+238.4-133.7-19.7</f>
+        <v>387.20000000000005</v>
       </c>
       <c r="S20" s="18">
-        <f t="shared" ref="S20:V20" si="18">+S19-S21</f>
-        <v>322.06529999999975</v>
+        <f t="shared" ref="S20:V20" si="16">+S19-S21</f>
+        <v>333.69729999999981</v>
       </c>
       <c r="T20" s="18">
-        <f t="shared" si="18"/>
-        <v>333.15174999999999</v>
+        <f t="shared" si="16"/>
+        <v>347.46675000000005</v>
       </c>
       <c r="U20" s="18">
-        <f t="shared" si="18"/>
-        <v>330.2769374999998</v>
+        <f t="shared" si="16"/>
+        <v>347.94568750000008</v>
       </c>
       <c r="V20" s="18">
-        <f t="shared" si="18"/>
-        <v>345.36514587500005</v>
+        <f t="shared" si="16"/>
+        <v>355.77645937499983</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" ref="AJ20" si="19">SUM(G20:J20)</f>
+        <f t="shared" ref="AJ20" si="17">SUM(G20:J20)</f>
         <v>945</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" ref="AK20" si="20">SUM(K20:N20)</f>
+        <f t="shared" ref="AK20" si="18">SUM(K20:N20)</f>
         <v>1955.6</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" ref="AL20" si="21">SUM(O20:R20)</f>
-        <v>1120.1704</v>
+        <f t="shared" ref="AL20" si="19">SUM(O20:R20)</f>
+        <v>1198.2</v>
       </c>
       <c r="AM20" s="1">
-        <f t="shared" ref="AM20" si="22">SUM(S20:V20)</f>
-        <v>1330.8591333749996</v>
+        <f t="shared" ref="AM20" si="20">SUM(S20:V20)</f>
+        <v>1384.8861968749998</v>
       </c>
     </row>
     <row r="21" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18">
-        <f t="shared" ref="G21" si="23">+G19-G20</f>
+        <f t="shared" ref="G21" si="21">+G19-G20</f>
         <v>1610.9</v>
       </c>
       <c r="H21" s="18">
-        <f t="shared" ref="H21:P21" si="24">+H19-H20</f>
+        <f t="shared" ref="H21:P21" si="22">+H19-H20</f>
         <v>1686.1000000000001</v>
       </c>
       <c r="I21" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>2171.7999999999997</v>
       </c>
       <c r="J21" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1960.1999999999998</v>
       </c>
       <c r="K21" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>2221.4000000000005</v>
       </c>
       <c r="L21" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>4445</v>
       </c>
       <c r="M21" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>3228.9</v>
       </c>
       <c r="N21" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>4221.5999999999995</v>
       </c>
       <c r="O21" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>2560.6000000000004</v>
       </c>
       <c r="P21" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>2559.4</v>
       </c>
       <c r="Q21" s="18">
@@ -3886,45 +4276,45 @@
         <v>2827.4</v>
       </c>
       <c r="R21" s="18">
-        <f>+R19*0.9</f>
-        <v>2782.5336000000002</v>
+        <f>+R19-R20</f>
+        <v>3026.8999999999996</v>
       </c>
       <c r="S21" s="18">
-        <f t="shared" ref="S21:V21" si="25">+S19*0.9</f>
-        <v>2898.5877000000005</v>
+        <f t="shared" ref="S21:V21" si="23">+S19*0.9</f>
+        <v>3003.2757000000011</v>
       </c>
       <c r="T21" s="18">
-        <f t="shared" si="25"/>
-        <v>2998.3657500000004</v>
+        <f t="shared" si="23"/>
+        <v>3127.2007500000004</v>
       </c>
       <c r="U21" s="18">
-        <f t="shared" si="25"/>
-        <v>2972.4924375000001</v>
+        <f t="shared" si="23"/>
+        <v>3131.5111874999998</v>
       </c>
       <c r="V21" s="18">
-        <f t="shared" si="25"/>
-        <v>3108.286312875</v>
+        <f t="shared" si="23"/>
+        <v>3201.9881343750003</v>
       </c>
       <c r="AJ21" s="1">
         <f>+AJ19-AJ20</f>
         <v>7429</v>
       </c>
       <c r="AK21" s="1">
-        <f t="shared" ref="AK21:AM21" si="26">+AK19-AK20</f>
+        <f t="shared" ref="AK21:AM21" si="24">+AK19-AK20</f>
         <v>14116.900000000001</v>
       </c>
       <c r="AL21" s="1">
-        <f t="shared" si="26"/>
-        <v>10729.9336</v>
+        <f t="shared" si="24"/>
+        <v>10974.300000000001</v>
       </c>
       <c r="AM21" s="1">
-        <f t="shared" si="26"/>
-        <v>11977.732200375001</v>
+        <f t="shared" si="24"/>
+        <v>12463.975771875001</v>
       </c>
     </row>
     <row r="22" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18">
@@ -3966,27 +4356,30 @@
       <c r="Q22" s="18">
         <v>817</v>
       </c>
-      <c r="R22" s="18"/>
+      <c r="R22" s="18">
+        <f>1043.1-1.4</f>
+        <v>1041.6999999999998</v>
+      </c>
       <c r="AJ22" s="1">
-        <f t="shared" ref="AJ22:AJ23" si="27">SUM(G22:J22)</f>
+        <f t="shared" ref="AJ22:AJ23" si="25">SUM(G22:J22)</f>
         <v>2468</v>
       </c>
       <c r="AK22" s="1">
-        <f t="shared" ref="AK22:AK23" si="28">SUM(K22:N22)</f>
+        <f t="shared" ref="AK22:AK23" si="26">SUM(K22:N22)</f>
         <v>2688.1</v>
       </c>
       <c r="AL22" s="1">
-        <f t="shared" ref="AL22:AL23" si="29">SUM(O22:R22)</f>
-        <v>2440.5</v>
+        <f t="shared" ref="AL22:AL23" si="27">SUM(O22:R22)</f>
+        <v>3482.2</v>
       </c>
       <c r="AM22" s="1">
-        <f t="shared" ref="AM22:AM23" si="30">SUM(S22:V22)</f>
+        <f t="shared" ref="AM22:AM23" si="28">SUM(S22:V22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18">
@@ -4030,52 +4423,52 @@
         <v>467</v>
       </c>
       <c r="R23" s="18">
-        <f>+N23</f>
-        <v>495</v>
+        <f>660.5-3.5</f>
+        <v>657</v>
       </c>
       <c r="S23" s="18">
-        <f t="shared" ref="S23:V23" si="31">+O23</f>
+        <f t="shared" ref="S23:V23" si="29">+O23</f>
         <v>450</v>
       </c>
       <c r="T23" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>475.2</v>
       </c>
       <c r="U23" s="18">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>467</v>
       </c>
       <c r="V23" s="18">
-        <f t="shared" si="31"/>
-        <v>495</v>
+        <f t="shared" si="29"/>
+        <v>657</v>
       </c>
       <c r="AJ23" s="1">
+        <f t="shared" si="25"/>
+        <v>1320.5</v>
+      </c>
+      <c r="AK23" s="1">
+        <f t="shared" si="26"/>
+        <v>1706.3</v>
+      </c>
+      <c r="AL23" s="1">
         <f t="shared" si="27"/>
-        <v>1320.5</v>
-      </c>
-      <c r="AK23" s="1">
+        <v>2049.1999999999998</v>
+      </c>
+      <c r="AM23" s="1">
         <f t="shared" si="28"/>
-        <v>1706.3</v>
-      </c>
-      <c r="AL23" s="1">
-        <f t="shared" si="29"/>
-        <v>1887.2</v>
-      </c>
-      <c r="AM23" s="1">
-        <f t="shared" si="30"/>
-        <v>1887.2</v>
+        <v>2049.1999999999998</v>
       </c>
     </row>
     <row r="24" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18">
-        <f t="shared" ref="G24" si="32">+G23+G22</f>
+        <f t="shared" ref="G24" si="30">+G23+G22</f>
         <v>931</v>
       </c>
       <c r="H24" s="18">
@@ -4083,23 +4476,23 @@
         <v>881.5</v>
       </c>
       <c r="I24" s="18">
-        <f t="shared" ref="I24:M24" si="33">+I23+I22</f>
+        <f t="shared" ref="I24:M24" si="31">+I23+I22</f>
         <v>920</v>
       </c>
       <c r="J24" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1056</v>
       </c>
       <c r="K24" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1148.5</v>
       </c>
       <c r="L24" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1128.9000000000001</v>
       </c>
       <c r="M24" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>983</v>
       </c>
       <c r="N24" s="18">
@@ -4119,45 +4512,45 @@
         <v>1284</v>
       </c>
       <c r="R24" s="18">
-        <f t="shared" ref="R24:V24" si="34">+R23+R22</f>
-        <v>495</v>
+        <f>+R23+R22</f>
+        <v>1698.6999999999998</v>
       </c>
       <c r="S24" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="R24:V24" si="32">+S23+S22</f>
         <v>450</v>
       </c>
       <c r="T24" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>475.2</v>
       </c>
       <c r="U24" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>467</v>
       </c>
       <c r="V24" s="18">
-        <f t="shared" si="34"/>
-        <v>495</v>
+        <f t="shared" si="32"/>
+        <v>657</v>
       </c>
       <c r="AJ24" s="1">
         <f>+AJ22+AJ23</f>
         <v>3788.5</v>
       </c>
       <c r="AK24" s="1">
-        <f t="shared" ref="AK24:AM24" si="35">+AK22+AK23</f>
+        <f t="shared" ref="AK24:AM24" si="33">+AK22+AK23</f>
         <v>4394.3999999999996</v>
       </c>
       <c r="AL24" s="1">
-        <f t="shared" si="35"/>
-        <v>4327.7</v>
+        <f t="shared" si="33"/>
+        <v>5531.4</v>
       </c>
       <c r="AM24" s="1">
-        <f t="shared" si="35"/>
-        <v>1887.2</v>
+        <f t="shared" si="33"/>
+        <v>2049.1999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
@@ -4172,23 +4565,23 @@
         <v>804.60000000000014</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" ref="I25:M25" si="36">+I21-I24</f>
+        <f t="shared" ref="I25:M25" si="34">+I21-I24</f>
         <v>1251.7999999999997</v>
       </c>
       <c r="J25" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>904.19999999999982</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>1072.9000000000005</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>3316.1</v>
       </c>
       <c r="M25" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>2245.9</v>
       </c>
       <c r="N25" s="18">
@@ -4208,45 +4601,45 @@
         <v>1543.4</v>
       </c>
       <c r="R25" s="18">
-        <f t="shared" ref="R25:V25" si="37">+R21-R24</f>
-        <v>2287.5336000000002</v>
+        <f>+R21-R24</f>
+        <v>1328.1999999999998</v>
       </c>
       <c r="S25" s="18">
-        <f t="shared" si="37"/>
-        <v>2448.5877000000005</v>
+        <f t="shared" ref="R25:V25" si="35">+S21-S24</f>
+        <v>2553.2757000000011</v>
       </c>
       <c r="T25" s="18">
-        <f t="shared" si="37"/>
-        <v>2523.1657500000006</v>
+        <f t="shared" si="35"/>
+        <v>2652.0007500000006</v>
       </c>
       <c r="U25" s="18">
-        <f t="shared" si="37"/>
-        <v>2505.4924375000001</v>
+        <f t="shared" si="35"/>
+        <v>2664.5111874999998</v>
       </c>
       <c r="V25" s="18">
-        <f t="shared" si="37"/>
-        <v>2613.286312875</v>
+        <f t="shared" si="35"/>
+        <v>2544.9881343750003</v>
       </c>
       <c r="AJ25" s="1">
         <f>+AJ21-AJ24</f>
         <v>3640.5</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" ref="AK25:AM25" si="38">+AK21-AK24</f>
+        <f t="shared" ref="AK25:AM25" si="36">+AK21-AK24</f>
         <v>9722.5000000000018</v>
       </c>
       <c r="AL25" s="1">
-        <f t="shared" si="38"/>
-        <v>6402.2336000000005</v>
+        <f t="shared" si="36"/>
+        <v>5442.9000000000015</v>
       </c>
       <c r="AM25" s="1">
-        <f t="shared" si="38"/>
-        <v>10090.532200375001</v>
+        <f t="shared" si="36"/>
+        <v>10414.775771875</v>
       </c>
     </row>
     <row r="26" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
@@ -4292,116 +4685,119 @@
       <c r="Q26" s="18">
         <v>32.6</v>
       </c>
-      <c r="R26" s="18"/>
+      <c r="R26" s="18">
+        <f>195.3-17.4-80.5</f>
+        <v>97.4</v>
+      </c>
       <c r="AJ26" s="1">
-        <f t="shared" ref="AJ26" si="39">SUM(G26:J26)</f>
+        <f t="shared" ref="AJ26" si="37">SUM(G26:J26)</f>
         <v>26.200000000000003</v>
       </c>
       <c r="AK26" s="1">
-        <f t="shared" ref="AK26" si="40">SUM(K26:N26)</f>
+        <f t="shared" ref="AK26" si="38">SUM(K26:N26)</f>
         <v>-170.90000000000003</v>
       </c>
       <c r="AL26" s="1">
-        <f t="shared" ref="AL26" si="41">SUM(O26:R26)</f>
-        <v>-308.7</v>
+        <f t="shared" ref="AL26" si="39">SUM(O26:R26)</f>
+        <v>-211.29999999999998</v>
       </c>
       <c r="AM26" s="1">
-        <f t="shared" ref="AM26" si="42">SUM(S26:V26)</f>
+        <f t="shared" ref="AM26" si="40">SUM(S26:V26)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18">
-        <f t="shared" ref="G27" si="43">G25+G26</f>
+        <f t="shared" ref="G27" si="41">G25+G26</f>
         <v>745.60000000000014</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" ref="H27:R27" si="44">H25+H26</f>
+        <f t="shared" ref="H27:R27" si="42">H25+H26</f>
         <v>762.30000000000018</v>
       </c>
       <c r="I27" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>1196.9999999999998</v>
       </c>
       <c r="J27" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>961.79999999999984</v>
       </c>
       <c r="K27" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>1098.8000000000006</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>3270.4</v>
       </c>
       <c r="M27" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>2215.3000000000002</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>2967.0999999999995</v>
       </c>
       <c r="O27" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>1089.6000000000004</v>
       </c>
       <c r="P27" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>1140.4000000000003</v>
       </c>
       <c r="Q27" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="42"/>
         <v>1576</v>
       </c>
       <c r="R27" s="18">
-        <f t="shared" si="44"/>
-        <v>2287.5336000000002</v>
+        <f t="shared" si="42"/>
+        <v>1425.6</v>
       </c>
       <c r="S27" s="18">
-        <f t="shared" ref="S27" si="45">S25+S26</f>
-        <v>2448.5877000000005</v>
+        <f t="shared" ref="S27" si="43">S25+S26</f>
+        <v>2553.2757000000011</v>
       </c>
       <c r="T27" s="18">
-        <f t="shared" ref="T27" si="46">T25+T26</f>
-        <v>2523.1657500000006</v>
+        <f t="shared" ref="T27" si="44">T25+T26</f>
+        <v>2652.0007500000006</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" ref="U27" si="47">U25+U26</f>
-        <v>2505.4924375000001</v>
+        <f t="shared" ref="U27" si="45">U25+U26</f>
+        <v>2664.5111874999998</v>
       </c>
       <c r="V27" s="18">
-        <f t="shared" ref="V27" si="48">V25+V26</f>
-        <v>2613.286312875</v>
+        <f t="shared" ref="V27" si="46">V25+V26</f>
+        <v>2544.9881343750003</v>
       </c>
       <c r="AJ27" s="1">
         <f>+AJ25+AJ26</f>
         <v>3666.7</v>
       </c>
       <c r="AK27" s="1">
-        <f t="shared" ref="AK27:AM27" si="49">+AK25+AK26</f>
+        <f t="shared" ref="AK27:AM27" si="47">+AK25+AK26</f>
         <v>9551.6000000000022</v>
       </c>
       <c r="AL27" s="1">
-        <f t="shared" si="49"/>
-        <v>6093.5336000000007</v>
+        <f t="shared" si="47"/>
+        <v>5231.6000000000013</v>
       </c>
       <c r="AM27" s="1">
-        <f t="shared" si="49"/>
-        <v>10090.532200375001</v>
+        <f t="shared" si="47"/>
+        <v>10414.775771875</v>
       </c>
     </row>
     <row r="28" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
@@ -4441,219 +4837,218 @@
         <v>194.1</v>
       </c>
       <c r="R28" s="18">
-        <f>+R27*0.15</f>
-        <v>343.13004000000001</v>
+        <v>127.6</v>
       </c>
       <c r="S28" s="18">
-        <f t="shared" ref="S28:V28" si="50">+S27*0.15</f>
-        <v>367.28815500000007</v>
+        <f t="shared" ref="S28:V28" si="48">+S27*0.15</f>
+        <v>382.99135500000017</v>
       </c>
       <c r="T28" s="18">
-        <f t="shared" si="50"/>
-        <v>378.47486250000009</v>
+        <f t="shared" si="48"/>
+        <v>397.80011250000007</v>
       </c>
       <c r="U28" s="18">
-        <f t="shared" si="50"/>
-        <v>375.823865625</v>
+        <f t="shared" si="48"/>
+        <v>399.67667812499997</v>
       </c>
       <c r="V28" s="18">
-        <f t="shared" si="50"/>
-        <v>391.99294693125</v>
+        <f t="shared" si="48"/>
+        <v>381.74822015625006</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" ref="AJ28" si="51">SUM(G28:J28)</f>
+        <f t="shared" ref="AJ28" si="49">SUM(G28:J28)</f>
         <v>297.2</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" ref="AK28" si="52">SUM(K28:N28)</f>
+        <f t="shared" ref="AK28" si="50">SUM(K28:N28)</f>
         <v>1250.5</v>
       </c>
       <c r="AL28" s="1">
-        <f t="shared" ref="AL28" si="53">SUM(O28:R28)</f>
-        <v>735.93003999999996</v>
+        <f t="shared" ref="AL28" si="51">SUM(O28:R28)</f>
+        <v>520.4</v>
       </c>
       <c r="AM28" s="1">
-        <f t="shared" ref="AM28" si="54">SUM(S28:V28)</f>
-        <v>1513.5798300562501</v>
+        <f t="shared" ref="AM28" si="52">SUM(S28:V28)</f>
+        <v>1562.21636578125</v>
       </c>
     </row>
     <row r="29" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18">
-        <f t="shared" ref="G29" si="55">+G27-G28</f>
+        <f t="shared" ref="G29" si="53">+G27-G28</f>
         <v>701.60000000000014</v>
       </c>
       <c r="H29" s="18">
-        <f t="shared" ref="H29:R29" si="56">+H27-H28</f>
+        <f t="shared" ref="H29:R29" si="54">+H27-H28</f>
         <v>740.70000000000016</v>
       </c>
       <c r="I29" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>1040.7999999999997</v>
       </c>
       <c r="J29" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>886.39999999999986</v>
       </c>
       <c r="K29" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>961.00000000000068</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>2616.5</v>
       </c>
       <c r="M29" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>2030.9</v>
       </c>
       <c r="N29" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>2692.6999999999994</v>
       </c>
       <c r="O29" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>1002.0000000000003</v>
       </c>
       <c r="P29" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>1029.3000000000004</v>
       </c>
       <c r="Q29" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>1381.9</v>
       </c>
       <c r="R29" s="18">
-        <f t="shared" si="56"/>
-        <v>1944.4035600000002</v>
+        <f t="shared" si="54"/>
+        <v>1298</v>
       </c>
       <c r="S29" s="18">
-        <f t="shared" ref="S29" si="57">+S27-S28</f>
-        <v>2081.2995450000003</v>
+        <f t="shared" ref="S29" si="55">+S27-S28</f>
+        <v>2170.2843450000009</v>
       </c>
       <c r="T29" s="18">
-        <f t="shared" ref="T29" si="58">+T27-T28</f>
-        <v>2144.6908875000004</v>
+        <f t="shared" ref="T29" si="56">+T27-T28</f>
+        <v>2254.2006375000005</v>
       </c>
       <c r="U29" s="18">
-        <f t="shared" ref="U29" si="59">+U27-U28</f>
-        <v>2129.668571875</v>
+        <f t="shared" ref="U29" si="57">+U27-U28</f>
+        <v>2264.8345093749999</v>
       </c>
       <c r="V29" s="18">
-        <f t="shared" ref="V29" si="60">+V27-V28</f>
-        <v>2221.2933659437499</v>
+        <f t="shared" ref="V29" si="58">+V27-V28</f>
+        <v>2163.2399142187501</v>
       </c>
       <c r="AJ29" s="1">
         <f>+AJ27-AJ28</f>
         <v>3369.5</v>
       </c>
       <c r="AK29" s="1">
-        <f t="shared" ref="AK29:AM29" si="61">+AK27-AK28</f>
+        <f t="shared" ref="AK29:AM29" si="59">+AK27-AK28</f>
         <v>8301.1000000000022</v>
       </c>
       <c r="AL29" s="1">
-        <f t="shared" si="61"/>
-        <v>5357.6035600000005</v>
+        <f t="shared" si="59"/>
+        <v>4711.2000000000016</v>
       </c>
       <c r="AM29" s="1">
-        <f t="shared" si="61"/>
-        <v>8576.9523703187515</v>
+        <f t="shared" si="59"/>
+        <v>8852.5594060937492</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G30" s="19">
-        <f t="shared" ref="G30" si="62">+G29/G31</f>
+        <f t="shared" ref="G30" si="60">+G29/G31</f>
         <v>6.0955690703735899</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" ref="H30:R30" si="63">+H29/H31</f>
+        <f t="shared" ref="H30:R30" si="61">+H29/H31</f>
         <v>6.2087175188600181</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>9.1378402107111469</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>7.900178253119428</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>8.5727029438001843</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>23.319964349376114</v>
       </c>
       <c r="M30" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>17.830553116769096</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>23.787102473498226</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>8.7358326068003507</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>8.9194107452339715</v>
       </c>
       <c r="Q30" s="19">
-        <f t="shared" si="63"/>
+        <f t="shared" si="61"/>
         <v>12.250886524822697</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" si="63"/>
-        <v>17.237620212765961</v>
+        <f t="shared" si="61"/>
+        <v>11.385964912280702</v>
       </c>
       <c r="S30" s="19">
-        <f t="shared" ref="S30" si="64">+S29/S31</f>
-        <v>18.451237101063832</v>
+        <f t="shared" ref="S30" si="62">+S29/S31</f>
+        <v>19.037581973684219</v>
       </c>
       <c r="T30" s="19">
-        <f t="shared" ref="T30" si="65">+T29/T31</f>
-        <v>19.013217087765963</v>
+        <f t="shared" ref="T30" si="63">+T29/T31</f>
+        <v>19.773689802631583</v>
       </c>
       <c r="U30" s="19">
-        <f t="shared" ref="U30" si="66">+U29/U31</f>
-        <v>18.880040530806738</v>
+        <f t="shared" ref="U30" si="64">+U29/U31</f>
+        <v>19.866969380482455</v>
       </c>
       <c r="V30" s="19">
-        <f t="shared" ref="V30" si="67">+V29/V31</f>
-        <v>19.692317073969413</v>
+        <f t="shared" ref="V30" si="65">+V29/V31</f>
+        <v>18.975788721217107</v>
       </c>
       <c r="AJ30" s="25">
         <f>+AJ29/AJ31</f>
         <v>29.268186753528777</v>
       </c>
       <c r="AK30" s="25">
-        <f t="shared" ref="AK30:AM30" si="68">+AK29/AK31</f>
+        <f t="shared" ref="AK30:AM30" si="66">+AK29/AK31</f>
         <v>73.558706247230845</v>
       </c>
       <c r="AL30" s="25">
-        <f t="shared" si="68"/>
-        <v>47.027461575597982</v>
+        <f t="shared" si="66"/>
+        <v>41.244911359159566</v>
       </c>
       <c r="AM30" s="25">
-        <f t="shared" si="68"/>
-        <v>76.036811793605949</v>
+        <f t="shared" si="66"/>
+        <v>77.654029878015351</v>
       </c>
     </row>
     <row r="31" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -4693,24 +5088,23 @@
         <v>112.8</v>
       </c>
       <c r="R31" s="18">
-        <f>+Q31</f>
-        <v>112.8</v>
+        <v>114</v>
       </c>
       <c r="S31" s="18">
-        <f t="shared" ref="S31:V31" si="69">+R31</f>
-        <v>112.8</v>
+        <f t="shared" ref="S31:V31" si="67">+R31</f>
+        <v>114</v>
       </c>
       <c r="T31" s="18">
-        <f t="shared" si="69"/>
-        <v>112.8</v>
+        <f t="shared" si="67"/>
+        <v>114</v>
       </c>
       <c r="U31" s="18">
-        <f t="shared" si="69"/>
-        <v>112.8</v>
+        <f t="shared" si="67"/>
+        <v>114</v>
       </c>
       <c r="V31" s="18">
-        <f t="shared" si="69"/>
-        <v>112.8</v>
+        <f t="shared" si="67"/>
+        <v>114</v>
       </c>
       <c r="AJ31" s="1">
         <f>AVERAGE(G31:J31)</f>
@@ -4722,16 +5116,16 @@
       </c>
       <c r="AL31" s="1">
         <f>AVERAGE(O31:R31)</f>
-        <v>113.92500000000001</v>
+        <v>114.22500000000001</v>
       </c>
       <c r="AM31" s="1">
         <f>AVERAGE(S31:V31)</f>
-        <v>112.8</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:22" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="20" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C33" s="50"/>
       <c r="D33" s="50"/>
@@ -4742,23 +5136,23 @@
       <c r="I33" s="50"/>
       <c r="J33" s="50"/>
       <c r="K33" s="51">
-        <f t="shared" ref="K33" si="70">K19/G19-1</f>
+        <f t="shared" ref="K33" si="68">K19/G19-1</f>
         <v>0.38354665791488918</v>
       </c>
       <c r="L33" s="51">
-        <f t="shared" ref="L33" si="71">L19/H19-1</f>
+        <f t="shared" ref="L33" si="69">L19/H19-1</f>
         <v>1.6321262101111507</v>
       </c>
       <c r="M33" s="51">
-        <f t="shared" ref="M33:O33" si="72">M19/I19-1</f>
+        <f t="shared" ref="M33:O33" si="70">M19/I19-1</f>
         <v>0.50531868515127765</v>
       </c>
       <c r="N33" s="51">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>1.153106926990477</v>
       </c>
       <c r="O33" s="51">
-        <f t="shared" si="72"/>
+        <f t="shared" si="70"/>
         <v>0.17241242982525495</v>
       </c>
       <c r="P33" s="51">
@@ -4766,33 +5160,33 @@
         <v>-0.44412010819857162</v>
       </c>
       <c r="Q33" s="51">
-        <f t="shared" ref="Q33:R33" si="73">Q19/M19-1</f>
+        <f t="shared" ref="Q33:R33" si="71">Q19/M19-1</f>
         <v>-0.14958440730979761</v>
       </c>
       <c r="R33" s="51">
-        <f t="shared" si="73"/>
-        <v>-0.37560254468342913</v>
+        <f>R19/N19-1</f>
+        <v>-0.31049177017065521</v>
       </c>
       <c r="S33" s="51">
-        <f t="shared" ref="S33" si="74">S19/O19-1</f>
-        <v>8.604046535154275E-2</v>
+        <f t="shared" ref="S33" si="72">S19/O19-1</f>
+        <v>0.12526487944697373</v>
       </c>
       <c r="T33" s="51">
-        <f t="shared" ref="T33" si="75">T19/P19-1</f>
-        <v>0.16629354104673566</v>
+        <f t="shared" ref="T33" si="73">T19/P19-1</f>
+        <v>0.21640731664624546</v>
       </c>
       <c r="U33" s="51">
-        <f t="shared" ref="U33" si="76">U19/Q19-1</f>
-        <v>0.12476821107478542</v>
+        <f t="shared" ref="U33" si="74">U19/Q19-1</f>
+        <v>0.18493967953957213</v>
       </c>
       <c r="V33" s="51">
-        <f t="shared" ref="V33" si="77">V19/R19-1</f>
-        <v>0.11707054063066846</v>
+        <f t="shared" ref="V33" si="75">V19/R19-1</f>
+        <v>4.2079784936000841E-2</v>
       </c>
     </row>
     <row r="34" spans="2:22" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C34" s="50"/>
       <c r="D34" s="50"/>
@@ -4802,65 +5196,65 @@
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
       <c r="J34" s="50"/>
-      <c r="K34" s="53">
-        <f t="shared" ref="K34" si="78">+K3/G3-1</f>
+      <c r="K34" s="49">
+        <f t="shared" ref="K34" si="76">+K3/G3-1</f>
         <v>0.14931740614334466</v>
       </c>
-      <c r="L34" s="53">
-        <f t="shared" ref="L34" si="79">+L3/H3-1</f>
+      <c r="L34" s="49">
+        <f t="shared" ref="L34" si="77">+L3/H3-1</f>
         <v>0.2791741472172351</v>
       </c>
-      <c r="M34" s="53">
+      <c r="M34" s="49">
         <f>+M3/I3-1</f>
         <v>0.11760242792109254</v>
       </c>
-      <c r="N34" s="53">
-        <f t="shared" ref="N34:V34" si="80">+N3/J3-1</f>
+      <c r="N34" s="49">
+        <f t="shared" ref="N34:V34" si="78">+N3/J3-1</f>
         <v>0.15189873417721511</v>
       </c>
-      <c r="O34" s="53">
-        <f t="shared" si="80"/>
+      <c r="O34" s="49">
+        <f t="shared" si="78"/>
         <v>0.12694877505567925</v>
       </c>
-      <c r="P34" s="53">
-        <f t="shared" si="80"/>
+      <c r="P34" s="49">
+        <f t="shared" si="78"/>
         <v>0.13754385964912275</v>
       </c>
-      <c r="Q34" s="53">
-        <f t="shared" si="80"/>
+      <c r="Q34" s="49">
+        <f t="shared" si="78"/>
         <v>0.10590631364562109</v>
       </c>
-      <c r="R34" s="53">
-        <f t="shared" si="80"/>
+      <c r="R34" s="49">
+        <f>+R3/N3-1</f>
+        <v>-3.2967032967032961E-2</v>
+      </c>
+      <c r="S34" s="49">
+        <f t="shared" si="78"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S34" s="53">
-        <f t="shared" si="80"/>
+      <c r="T34" s="49">
+        <f t="shared" si="78"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T34" s="53">
-        <f t="shared" si="80"/>
+      <c r="U34" s="49">
+        <f t="shared" si="78"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U34" s="53">
-        <f t="shared" si="80"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="V34" s="53">
-        <f t="shared" si="80"/>
+      <c r="V34" s="49">
+        <f t="shared" si="78"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K35" s="49">
-        <f t="shared" ref="K35" si="81">K9/G9-1</f>
+        <f t="shared" ref="K35" si="79">K9/G9-1</f>
         <v>0.47752126366950209</v>
       </c>
       <c r="L35" s="49">
-        <f t="shared" ref="L35" si="82">L9/H9-1</f>
+        <f t="shared" ref="L35" si="80">L9/H9-1</f>
         <v>0.6265328874024525</v>
       </c>
       <c r="M35" s="49">
@@ -4868,52 +5262,52 @@
         <v>0.64675912821964343</v>
       </c>
       <c r="N35" s="49">
-        <f t="shared" ref="N35:R35" si="83">N9/J9-1</f>
+        <f t="shared" ref="N35:R35" si="81">N9/J9-1</f>
         <v>0.63323872595395758</v>
       </c>
       <c r="O35" s="49">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>0.72944078947368385</v>
       </c>
       <c r="P35" s="49">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>0.54786383367603375</v>
       </c>
       <c r="Q35" s="49">
-        <f t="shared" si="83"/>
+        <f t="shared" si="81"/>
         <v>0.22275696115503596</v>
       </c>
       <c r="R35" s="49">
-        <f t="shared" si="83"/>
-        <v>0.39999999999999991</v>
+        <f>R9/N9-1</f>
+        <v>0.61401815022205053</v>
       </c>
       <c r="S35" s="49">
-        <f t="shared" ref="S35" si="84">S9/O9-1</f>
+        <f t="shared" ref="S35" si="82">S9/O9-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="T35" s="49">
-        <f t="shared" ref="T35" si="85">T9/P9-1</f>
+        <f t="shared" ref="T35" si="83">T9/P9-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="U35" s="49">
-        <f t="shared" ref="U35" si="86">U9/Q9-1</f>
+        <f t="shared" ref="U35" si="84">U9/Q9-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="V35" s="49">
-        <f t="shared" ref="V35" si="87">V9/R9-1</f>
+        <f t="shared" ref="V35" si="85">V9/R9-1</f>
         <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="K36" s="49">
-        <f t="shared" ref="K36" si="88">K13/G13-1</f>
+        <f t="shared" ref="K36" si="86">K13/G13-1</f>
         <v>0.47707602339181299</v>
       </c>
       <c r="L36" s="49">
-        <f t="shared" ref="L36" si="89">L13/H13-1</f>
+        <f t="shared" ref="L36" si="87">L13/H13-1</f>
         <v>0.58624338624338623</v>
       </c>
       <c r="M36" s="49">
@@ -4921,80 +5315,80 @@
         <v>0.55034495618124213</v>
       </c>
       <c r="N36" s="49">
-        <f t="shared" ref="N36:R36" si="90">N13/J13-1</f>
+        <f t="shared" ref="N36:R36" si="88">N13/J13-1</f>
         <v>0.51348122866894186</v>
       </c>
       <c r="O36" s="49">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>0.43352601156069359</v>
       </c>
       <c r="P36" s="49">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>0.39546364242828558</v>
       </c>
       <c r="Q36" s="49">
-        <f t="shared" si="90"/>
+        <f t="shared" si="88"/>
         <v>0.40122677250586314</v>
       </c>
       <c r="R36" s="49">
-        <f t="shared" si="90"/>
+        <f>R13/N13-1</f>
+        <v>0.38059533205547424</v>
+      </c>
+      <c r="S36" s="49">
+        <f t="shared" ref="S36" si="89">S13/O13-1</f>
         <v>-1</v>
       </c>
-      <c r="S36" s="49">
-        <f t="shared" ref="S36" si="91">S13/O13-1</f>
+      <c r="T36" s="49">
+        <f t="shared" ref="T36" si="90">T13/P13-1</f>
         <v>-1</v>
       </c>
-      <c r="T36" s="49">
-        <f t="shared" ref="T36" si="92">T13/P13-1</f>
+      <c r="U36" s="49">
+        <f t="shared" ref="U36" si="91">U13/Q13-1</f>
         <v>-1</v>
       </c>
-      <c r="U36" s="49">
-        <f t="shared" ref="U36" si="93">U13/Q13-1</f>
+      <c r="V36" s="49">
+        <f t="shared" ref="V36" si="92">V13/R13-1</f>
         <v>-1</v>
-      </c>
-      <c r="V36" s="49" t="e">
-        <f t="shared" ref="V36" si="94">V13/R13-1</f>
-        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G38" s="49">
-        <f t="shared" ref="G38:H38" si="95">+G21/G19</f>
+        <f t="shared" ref="G38" si="93">+G21/G19</f>
         <v>0.88113991904605626</v>
       </c>
       <c r="H38" s="49">
-        <f t="shared" ref="H38:O38" si="96">+H21/H19</f>
+        <f t="shared" ref="H38:O38" si="94">+H21/H19</f>
         <v>0.863648004917277</v>
       </c>
       <c r="I38" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.94681314848722642</v>
       </c>
       <c r="J38" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.85237204852806892</v>
       </c>
       <c r="K38" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.87823199177670597</v>
       </c>
       <c r="L38" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.86500476774281432</v>
       </c>
       <c r="M38" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.93512699470010718</v>
       </c>
       <c r="N38" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.85259012420478653</v>
       </c>
       <c r="O38" s="49">
-        <f t="shared" si="96"/>
+        <f t="shared" si="94"/>
         <v>0.86346315966953291</v>
       </c>
       <c r="P38" s="49">
@@ -5002,12 +5396,303 @@
         <v>0.89599159810957474</v>
       </c>
       <c r="Q38" s="49">
-        <f t="shared" ref="Q38:R38" si="97">+Q21/Q19</f>
+        <f t="shared" ref="Q38:R38" si="95">+Q21/Q19</f>
         <v>0.96287971665985561</v>
       </c>
       <c r="R38" s="49">
-        <f t="shared" si="97"/>
+        <f>+R21/R19</f>
+        <v>0.88658797340441109</v>
+      </c>
+      <c r="S38" s="49">
+        <f>+S21/S19</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="T38" s="49">
+        <f>+T21/T19</f>
         <v>0.9</v>
+      </c>
+      <c r="U38" s="49">
+        <f>+U21/U19</f>
+        <v>0.9</v>
+      </c>
+      <c r="V38" s="49">
+        <f>+V21/V19</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18">
+        <f>3105.9+4636.4+6591.8</f>
+        <v>14334.099999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18">
+        <v>5328.7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18">
+        <v>2401.9</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18">
+        <v>411.2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18">
+        <v>915.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18">
+        <v>1723.7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18">
+        <v>336.4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18">
+        <f>SUM(R45:R52)</f>
+        <v>29214.500000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="R55" s="18">
+        <v>589.20000000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="R56" s="18">
+        <v>2074.1999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="R57" s="18">
+        <f>477.9+69.8</f>
+        <v>547.69999999999993</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="R58" s="18">
+        <v>1981.4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="R59" s="18">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="R60" s="18">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="R61" s="18">
+        <v>22664</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>324</v>
+      </c>
+      <c r="R62" s="18">
+        <f>SUM(R55:R61)</f>
+        <v>29214.5</v>
       </c>
     </row>
   </sheetData>
@@ -5035,69 +5720,69 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5131,124 +5816,124 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E17" s="11">
         <v>0.93</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H17" s="9">
         <v>304</v>
@@ -5265,13 +5950,13 @@
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E18" s="11">
         <v>0.96</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H18" s="9">
         <v>78</v>
@@ -5288,13 +5973,13 @@
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E19" s="11">
         <v>0.91</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H19" s="9">
         <v>57</v>
@@ -5311,13 +5996,13 @@
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E20" s="11">
         <v>0.91</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H20" s="9">
         <v>54</v>
@@ -5334,7 +6019,7 @@
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G21" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H21" s="10">
         <v>0.94</v>
@@ -5351,7 +6036,7 @@
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G22" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H22" s="9">
         <v>8.1</v>
@@ -5360,18 +6045,18 @@
         <v>10.9</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G23" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H23" s="9">
         <v>31</v>
@@ -5394,63 +6079,63 @@
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E31" s="11">
         <v>0.91</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E32" s="11">
         <v>0.9</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H32" s="9">
         <v>291</v>
@@ -5467,13 +6152,13 @@
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E33" s="11">
         <v>0.88</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H33" s="9">
         <v>73</v>
@@ -5490,13 +6175,13 @@
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E34" s="11">
         <v>0.91</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H34" s="9">
         <v>58</v>
@@ -5513,7 +6198,7 @@
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G35" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H35" s="9">
         <v>54</v>
@@ -5530,7 +6215,7 @@
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G36" s="4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H36" s="10">
         <v>0.94</v>
@@ -5547,27 +6232,27 @@
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G37" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="H37" s="9">
         <v>9.4</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G38" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H38" s="9">
         <v>34</v>
@@ -5591,7 +6276,7 @@
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="9"/>
@@ -5601,7 +6286,7 @@
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="9"/>
@@ -5611,7 +6296,7 @@
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="9"/>
@@ -5621,7 +6306,7 @@
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="9"/>
@@ -5638,7 +6323,7 @@
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C45" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="9"/>
@@ -5648,7 +6333,7 @@
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="9"/>
@@ -5658,7 +6343,7 @@
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="9"/>
@@ -5668,7 +6353,7 @@
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="9"/>
@@ -5678,7 +6363,7 @@
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="9"/>
@@ -5688,7 +6373,7 @@
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="9"/>
@@ -5698,7 +6383,7 @@
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="9"/>
@@ -5708,7 +6393,7 @@
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="9"/>
@@ -5718,7 +6403,7 @@
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="9"/>
@@ -5728,7 +6413,7 @@
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="9"/>
@@ -5738,57 +6423,57 @@
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C56" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C59" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -5818,136 +6503,136 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19" s="6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D23" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3">
         <v>1.23</v>
@@ -5961,17 +6646,17 @@
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5988,13 +6673,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4463CDFA-6D13-4032-9792-01B88E364A31}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="12"/>
     <col min="4" max="4" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
@@ -6003,7 +6686,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6012,47 +6695,47 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -6060,61 +6743,61 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="12" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" s="12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C14" s="12">
         <v>292</v>
@@ -6131,7 +6814,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C15" s="14">
         <v>8.5999999999999993E-2</v>
@@ -6148,7 +6831,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C16" s="12">
         <v>4.5</v>
@@ -6165,7 +6848,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C17" s="12">
         <v>10.8</v>
@@ -6182,27 +6865,27 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C19" s="12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C20" s="12" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="13" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23" s="12" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24" s="12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6230,62 +6913,62 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6293,7 +6976,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6301,57 +6984,57 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="5" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6367,123 +7050,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C99AEC-5D41-41E2-A738-1BC200DF53F7}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="12" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="12" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="12" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="12" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="12" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="12" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6498,95 +7182,96 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49300FF4-2FBC-49A7-B526-7ABB67AE6974}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
+    <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>86</v>
+        <v>78</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="13" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/REGN.xlsx
+++ b/REGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83990343-7E39-40A1-965E-0F6F197CF395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A292AAC9-8A5E-014D-AA19-32D0D0AE4A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="135" windowWidth="41355" windowHeight="20745" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20640" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <author>tc={E621A5CA-53E8-48F9-80F2-12D076620DD9}</author>
   </authors>
   <commentList>
-    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
+    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +57,7 @@
     NGNI 1080.2</t>
       </text>
     </comment>
-    <comment ref="N29" authorId="1" shapeId="0" xr:uid="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
+    <comment ref="N30" authorId="1" shapeId="0" xr:uid="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="337">
   <si>
     <t>Nov. 11:  Eylea approved. Priced at $1,700/injection.</t>
   </si>
@@ -1190,6 +1190,36 @@
   </si>
   <si>
     <t>ONCL</t>
+  </si>
+  <si>
+    <t>CFO: Chris Fenimore</t>
+  </si>
+  <si>
+    <t>Eylea HD</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1439,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
@@ -1519,12 +1549,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1560,7 +1584,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>18393</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>98535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1602,15 +1626,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>24962</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>43</xdr:col>
       <xdr:colOff>24962</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1660,9 +1684,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1700,7 +1724,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1806,7 +1830,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1948,7 +1972,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1956,10 +1980,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J29" dT="2022-09-16T10:03:00.58" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
+  <threadedComment ref="J30" dT="2022-09-16T10:03:00.58" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
     <text>NGNI 1080.2</text>
   </threadedComment>
-  <threadedComment ref="N29" dT="2022-09-16T10:02:53.72" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
+  <threadedComment ref="N30" dT="2022-09-16T10:02:53.72" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
     <text>NGNI 2711.5</text>
   </threadedComment>
 </ThreadedComments>
@@ -1969,20 +1993,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD5CF22-E8A9-4919-AD75-F071CE6857D9}">
   <dimension ref="B2:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="137" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" s="22" t="s">
         <v>49</v>
       </c>
@@ -2005,11 +2029,11 @@
         <v>42</v>
       </c>
       <c r="J2" s="25">
-        <v>790</v>
+        <v>1199</v>
       </c>
       <c r="K2" s="26"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="27" t="s">
         <v>41</v>
       </c>
@@ -2032,14 +2056,13 @@
         <v>38</v>
       </c>
       <c r="J3" s="33">
-        <f>107.507386+1.818146</f>
-        <v>109.325532</v>
+        <v>115.4</v>
       </c>
       <c r="K3" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="34" t="s">
         <v>281</v>
       </c>
@@ -2059,11 +2082,11 @@
       </c>
       <c r="J4" s="1">
         <f>J2*J3</f>
-        <v>86367.170279999991</v>
+        <v>138364.6</v>
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="34" t="s">
         <v>34</v>
       </c>
@@ -2082,13 +2105,13 @@
         <v>33</v>
       </c>
       <c r="J5" s="1">
-        <v>14334</v>
+        <v>17531</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="34" t="s">
         <v>244</v>
       </c>
@@ -2107,27 +2130,27 @@
         <v>29</v>
       </c>
       <c r="J6" s="1">
-        <v>1980.7</v>
+        <v>1984</v>
       </c>
       <c r="K6" s="26" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="53" t="s">
         <v>30</v>
       </c>
       <c r="I7" s="41" t="s">
@@ -2135,44 +2158,44 @@
       </c>
       <c r="J7" s="1">
         <f>J4-J5+J6</f>
-        <v>74013.870279999988</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+        <v>122817.60000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="53" t="s">
         <v>30</v>
       </c>
       <c r="I8" s="41"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="44" t="s">
         <v>289</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="42" t="s">
         <v>263</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="G9" s="55"/>
+      <c r="G9" s="53"/>
       <c r="I9" s="41"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="37" t="s">
         <v>262</v>
       </c>
@@ -2189,10 +2212,12 @@
       <c r="G10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="41"/>
+      <c r="I10" s="41" t="s">
+        <v>327</v>
+      </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
@@ -2204,7 +2229,7 @@
       <c r="I11" s="41"/>
       <c r="J11" s="43"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="44" t="s">
         <v>274</v>
       </c>
@@ -2220,7 +2245,7 @@
       </c>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" s="44" t="s">
         <v>278</v>
       </c>
@@ -2234,7 +2259,7 @@
       </c>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" s="44" t="s">
         <v>297</v>
       </c>
@@ -2250,7 +2275,7 @@
       </c>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" s="44" t="s">
         <v>248</v>
       </c>
@@ -2266,7 +2291,7 @@
       </c>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" s="44" t="s">
         <v>24</v>
       </c>
@@ -2282,7 +2307,7 @@
       </c>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="44" t="s">
         <v>301</v>
       </c>
@@ -2296,7 +2321,7 @@
       </c>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="44" t="s">
         <v>273</v>
       </c>
@@ -2306,7 +2331,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="44" t="s">
         <v>286</v>
       </c>
@@ -2320,7 +2345,7 @@
       </c>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="44" t="s">
         <v>304</v>
       </c>
@@ -2334,7 +2359,7 @@
       </c>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="44" t="s">
         <v>294</v>
       </c>
@@ -2348,7 +2373,7 @@
       </c>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="44" t="s">
         <v>306</v>
       </c>
@@ -2360,7 +2385,7 @@
       </c>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="44" t="s">
         <v>308</v>
       </c>
@@ -2372,7 +2397,7 @@
       </c>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="44" t="s">
         <v>310</v>
       </c>
@@ -2386,7 +2411,7 @@
       </c>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="44" t="s">
         <v>291</v>
       </c>
@@ -2400,8 +2425,8 @@
       </c>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B26" s="56" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="54" t="s">
         <v>283</v>
       </c>
       <c r="C26" s="39" t="s">
@@ -2414,14 +2439,14 @@
       </c>
       <c r="G26" s="45"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -2431,7 +2456,7 @@
       </c>
       <c r="G28" s="42"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
@@ -2441,7 +2466,7 @@
       </c>
       <c r="G29" s="42"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -2451,7 +2476,7 @@
       </c>
       <c r="G30" s="42"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -2461,7 +2486,7 @@
       </c>
       <c r="G31" s="42"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
@@ -2470,7 +2495,7 @@
       </c>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
       <c r="E33" s="42"/>
@@ -2479,7 +2504,7 @@
       </c>
       <c r="G33" s="42"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
       <c r="E34" s="42"/>
@@ -2488,7 +2513,7 @@
       </c>
       <c r="G34" s="42"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -2497,7 +2522,7 @@
       </c>
       <c r="G35" s="42"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
@@ -2506,7 +2531,7 @@
       </c>
       <c r="G36" s="42"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
@@ -2515,7 +2540,7 @@
       </c>
       <c r="G37" s="42"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
@@ -2524,7 +2549,7 @@
       </c>
       <c r="G38" s="42"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
@@ -2533,7 +2558,7 @@
       </c>
       <c r="G39" s="42"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
@@ -2542,7 +2567,7 @@
       </c>
       <c r="G40" s="42"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
@@ -2551,7 +2576,7 @@
       </c>
       <c r="G41" s="42"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
@@ -2560,7 +2585,7 @@
       </c>
       <c r="G42" s="42"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
@@ -2569,7 +2594,7 @@
       </c>
       <c r="G43" s="42"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
       <c r="E44" s="42"/>
@@ -2578,7 +2603,7 @@
       </c>
       <c r="G44" s="42"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C45" s="42"/>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
@@ -2587,7 +2612,7 @@
       </c>
       <c r="G45" s="42"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C46" s="42"/>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
@@ -2596,7 +2621,7 @@
       </c>
       <c r="G46" s="42"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C47" s="42"/>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
@@ -2620,28 +2645,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BECB6-C670-4D66-9069-7BDB54779CF7}">
-  <dimension ref="A1:BH62"/>
+  <dimension ref="A1:BN63"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="236" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R53" sqref="R53"/>
+      <selection pane="bottomRight" activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="17"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="9.1640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>258</v>
       </c>
@@ -2702,147 +2727,171 @@
       <c r="V2" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="Z2">
+      <c r="W2" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF2">
         <v>2010</v>
       </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
+      <c r="AG2">
+        <f>+AF2+1</f>
         <v>2011</v>
       </c>
-      <c r="AB2">
-        <f t="shared" ref="AB2:BH2" si="0">+AA2+1</f>
+      <c r="AH2">
+        <f t="shared" ref="AH2:BN2" si="0">+AG2+1</f>
         <v>2012</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="AD2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="AE2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="AF2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="AG2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="AH2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AI2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AJ2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AK2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AL2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AM2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AN2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AO2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AP2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AQ2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AR2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AS2">
+      <c r="AY2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AT2">
+      <c r="AZ2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AU2">
+      <c r="BA2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AV2">
+      <c r="BB2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AW2">
+      <c r="BC2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AX2">
+      <c r="BD2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AY2">
+      <c r="BE2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="AZ2">
+      <c r="BF2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="BA2">
+      <c r="BG2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="BB2">
+      <c r="BH2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="BC2">
+      <c r="BI2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="BD2">
+      <c r="BJ2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="BE2">
+      <c r="BK2">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="BF2">
+      <c r="BL2">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="BG2">
+      <c r="BM2">
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
-      <c r="BH2">
+      <c r="BN2">
         <f t="shared" si="0"/>
         <v>2044</v>
       </c>
     </row>
-    <row r="3" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,211 +2940,181 @@
         <v>1496</v>
       </c>
       <c r="S3" s="18">
-        <f t="shared" ref="S3:V3" si="1">+O3*1.1</f>
-        <v>1669.8000000000002</v>
+        <v>1434</v>
       </c>
       <c r="T3" s="18">
-        <f t="shared" si="1"/>
-        <v>1783.1000000000001</v>
+        <v>1500</v>
       </c>
       <c r="U3" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S3:V3" si="1">+Q3*1.1</f>
         <v>1791.9</v>
       </c>
       <c r="V3" s="18">
         <f t="shared" si="1"/>
         <v>1645.6000000000001</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="W3" s="18">
+        <v>1202</v>
+      </c>
+      <c r="X3" s="18">
+        <v>1231</v>
+      </c>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AP3" s="1">
         <f>SUM(G3:J3)</f>
         <v>4947</v>
       </c>
-      <c r="AK3" s="1">
+      <c r="AQ3" s="1">
         <f>SUM(K3:N3)</f>
         <v>5792</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AR3" s="1">
         <f>SUM(O3:R3)</f>
         <v>6264</v>
       </c>
-      <c r="AM3" s="1">
+      <c r="AS3" s="1">
         <f>SUM(S3:V3)</f>
-        <v>6890.4000000000015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>6371.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="18">
-        <v>26.8</v>
-      </c>
-      <c r="D4" s="18">
-        <v>40.799999999999997</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
-      <c r="G4" s="18">
-        <v>61.7</v>
-      </c>
-      <c r="H4" s="18">
-        <v>63.3</v>
-      </c>
-      <c r="I4" s="18">
-        <v>72</v>
-      </c>
-      <c r="J4" s="18">
-        <v>74</v>
-      </c>
-      <c r="K4" s="18">
-        <v>69</v>
-      </c>
-      <c r="L4" s="18">
-        <v>78</v>
-      </c>
-      <c r="M4" s="18">
-        <v>78</v>
-      </c>
-      <c r="N4" s="18">
-        <v>81</v>
-      </c>
-      <c r="O4" s="18">
-        <v>79</v>
-      </c>
-      <c r="P4" s="18">
-        <v>91</v>
-      </c>
-      <c r="Q4" s="18">
-        <f>95+31</f>
-        <v>126</v>
-      </c>
-      <c r="R4" s="18">
-        <f>110+42</f>
-        <v>152</v>
-      </c>
-      <c r="S4" s="1">
-        <f>+R4+5</f>
-        <v>157</v>
-      </c>
-      <c r="T4" s="1">
-        <f>+S4+5</f>
-        <v>162</v>
-      </c>
-      <c r="U4" s="1">
-        <f>+T4+5</f>
-        <v>167</v>
-      </c>
-      <c r="V4" s="1">
-        <f>+U4+5</f>
-        <v>172</v>
-      </c>
-      <c r="AJ4" s="1">
-        <f t="shared" ref="AJ4:AJ18" si="2">SUM(G4:J4)</f>
-        <v>271</v>
-      </c>
-      <c r="AK4" s="1">
-        <f t="shared" ref="AK4:AK18" si="3">SUM(K4:N4)</f>
-        <v>306</v>
-      </c>
-      <c r="AL4" s="1">
-        <f t="shared" ref="AL4:AL18" si="4">SUM(O4:R4)</f>
-        <v>448</v>
-      </c>
-      <c r="AM4" s="1">
-        <f t="shared" ref="AM4:AM18" si="5">SUM(S4:V4)</f>
-        <v>658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18">
+        <v>0</v>
+      </c>
+      <c r="T4" s="18">
+        <v>0</v>
+      </c>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18">
+        <v>200</v>
+      </c>
+      <c r="X4" s="18">
+        <v>304</v>
+      </c>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+    </row>
+    <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="18">
-        <v>0</v>
+        <v>26.8</v>
       </c>
       <c r="D5" s="18">
-        <v>26.5</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18">
-        <v>0</v>
+        <v>61.7</v>
       </c>
       <c r="H5" s="18">
-        <v>47.2</v>
+        <v>63.3</v>
       </c>
       <c r="I5" s="18">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="J5" s="18">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="K5" s="18">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="L5" s="18">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="M5" s="18">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="N5" s="18">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="O5" s="18">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="P5" s="18">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="18">
-        <v>30</v>
+        <f>95+31</f>
+        <v>126</v>
       </c>
       <c r="R5" s="18">
-        <v>36</v>
+        <f>110+42</f>
+        <v>152</v>
       </c>
       <c r="S5" s="1">
-        <f>+R5+1</f>
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="T5" s="1">
-        <f>+S5+1</f>
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="U5" s="1">
-        <f>+T5+1</f>
-        <v>39</v>
+        <f>+T5+5</f>
+        <v>215</v>
       </c>
       <c r="V5" s="1">
-        <f>+U5+1</f>
-        <v>40</v>
-      </c>
-      <c r="AJ5" s="1">
-        <f t="shared" si="2"/>
-        <v>151.19999999999999</v>
-      </c>
-      <c r="AK5" s="1">
-        <f t="shared" si="3"/>
-        <v>170</v>
-      </c>
-      <c r="AL5" s="1">
-        <f t="shared" si="4"/>
-        <v>131</v>
-      </c>
-      <c r="AM5" s="1">
-        <f t="shared" si="5"/>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+U5+5</f>
+        <v>220</v>
+      </c>
+      <c r="W5" s="1">
+        <v>264</v>
+      </c>
+      <c r="X5" s="1">
+        <v>297</v>
+      </c>
+      <c r="AP5" s="1">
+        <f t="shared" ref="AP5:AP19" si="2">SUM(G5:J5)</f>
+        <v>271</v>
+      </c>
+      <c r="AQ5" s="1">
+        <f t="shared" ref="AQ5:AQ19" si="3">SUM(K5:N5)</f>
+        <v>306</v>
+      </c>
+      <c r="AR5" s="1">
+        <f t="shared" ref="AR5:AR19" si="4">SUM(O5:R5)</f>
+        <v>448</v>
+      </c>
+      <c r="AS5" s="1">
+        <f t="shared" ref="AS5:AS19" si="5">SUM(S5:V5)</f>
+        <v>822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="C6" s="18">
         <v>0</v>
       </c>
       <c r="D6" s="18">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -3103,74 +3122,78 @@
         <v>0</v>
       </c>
       <c r="H6" s="18">
-        <v>0</v>
+        <v>47.2</v>
       </c>
       <c r="I6" s="18">
+        <v>49</v>
+      </c>
+      <c r="J6" s="18">
+        <v>55</v>
+      </c>
+      <c r="K6" s="18">
+        <v>43</v>
+      </c>
+      <c r="L6" s="18">
+        <v>42</v>
+      </c>
+      <c r="M6" s="18">
+        <v>45</v>
+      </c>
+      <c r="N6" s="18">
         <v>40</v>
       </c>
-      <c r="J6" s="18">
-        <v>146</v>
-      </c>
-      <c r="K6" s="18">
-        <v>262</v>
-      </c>
-      <c r="L6" s="18">
-        <v>2591</v>
-      </c>
-      <c r="M6" s="18">
-        <v>677</v>
-      </c>
-      <c r="N6" s="18">
-        <v>2298</v>
-      </c>
       <c r="O6" s="18">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="P6" s="18">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="18">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="R6" s="18">
-        <v>0</v>
-      </c>
-      <c r="S6" s="18">
-        <f>+R6</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="18">
-        <f>+S6</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="18">
-        <f>+T6</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="18">
-        <f>+U6</f>
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
+        <v>36</v>
+      </c>
+      <c r="S6" s="1">
+        <v>40</v>
+      </c>
+      <c r="T6" s="1">
+        <v>41</v>
+      </c>
+      <c r="U6" s="1">
+        <f>+T6+1</f>
+        <v>42</v>
+      </c>
+      <c r="V6" s="1">
+        <f>+U6+1</f>
+        <v>43</v>
+      </c>
+      <c r="W6" s="1">
+        <v>70</v>
+      </c>
+      <c r="X6" s="1">
+        <v>56</v>
+      </c>
+      <c r="AP6" s="1">
         <f t="shared" si="2"/>
-        <v>186</v>
-      </c>
-      <c r="AK6" s="1">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="AQ6" s="1">
         <f t="shared" si="3"/>
-        <v>5828</v>
-      </c>
-      <c r="AL6" s="1">
+        <v>170</v>
+      </c>
+      <c r="AR6" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AM6" s="1">
+        <v>131</v>
+      </c>
+      <c r="AS6" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="C7" s="18">
         <v>0</v>
@@ -3187,2006 +3210,2210 @@
         <v>0</v>
       </c>
       <c r="I7" s="18">
+        <v>40</v>
+      </c>
+      <c r="J7" s="18">
+        <v>146</v>
+      </c>
+      <c r="K7" s="18">
+        <v>262</v>
+      </c>
+      <c r="L7" s="18">
+        <v>2591</v>
+      </c>
+      <c r="M7" s="18">
+        <v>677</v>
+      </c>
+      <c r="N7" s="18">
+        <v>2298</v>
+      </c>
+      <c r="O7" s="18">
         <v>0</v>
       </c>
-      <c r="J7" s="18">
+      <c r="P7" s="18">
         <v>0</v>
       </c>
-      <c r="K7" s="18">
+      <c r="Q7" s="18">
+        <v>3</v>
+      </c>
+      <c r="R7" s="18">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
+        <v>2</v>
+      </c>
+      <c r="T7" s="18">
+        <v>2</v>
+      </c>
+      <c r="U7" s="18">
+        <f>+T7</f>
+        <v>2</v>
+      </c>
+      <c r="V7" s="18">
+        <f>+U7</f>
+        <v>2</v>
+      </c>
+      <c r="W7" s="18">
         <v>1</v>
       </c>
-      <c r="L7" s="18">
-        <v>2</v>
-      </c>
-      <c r="M7" s="18">
-        <v>7</v>
-      </c>
-      <c r="N7" s="18">
-        <v>9</v>
-      </c>
-      <c r="O7" s="18">
+      <c r="X7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AP7" s="1">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="AQ7" s="1">
+        <f t="shared" si="3"/>
+        <v>5828</v>
+      </c>
+      <c r="AR7" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AS7" s="1">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="P7" s="18">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>14</v>
-      </c>
-      <c r="R7" s="18">
-        <v>15</v>
-      </c>
-      <c r="S7" s="1">
-        <f>+R7+1</f>
-        <v>16</v>
-      </c>
-      <c r="T7" s="1">
-        <f>+S7+1</f>
-        <v>17</v>
-      </c>
-      <c r="U7" s="1">
-        <f>+T7+1</f>
-        <v>18</v>
-      </c>
-      <c r="V7" s="1">
-        <f>+U7+1</f>
-        <v>19</v>
-      </c>
-      <c r="AJ7" s="1">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="18">
         <v>0</v>
       </c>
-      <c r="AK7" s="1">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="AL7" s="1">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="AM7" s="1">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="18">
-        <v>3.5</v>
-      </c>
       <c r="D8" s="18">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="18">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K8" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" s="18">
+        <v>2</v>
+      </c>
+      <c r="M8" s="18">
+        <v>7</v>
+      </c>
+      <c r="N8" s="18">
+        <v>9</v>
+      </c>
+      <c r="O8" s="18">
+        <v>8</v>
+      </c>
+      <c r="P8" s="18">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>14</v>
+      </c>
+      <c r="R8" s="18">
+        <v>15</v>
+      </c>
+      <c r="S8" s="1">
+        <v>15</v>
+      </c>
+      <c r="T8" s="1">
+        <v>19</v>
+      </c>
+      <c r="U8" s="1">
+        <f>+T8+1</f>
+        <v>20</v>
+      </c>
+      <c r="V8" s="1">
+        <f>+U8+1</f>
+        <v>21</v>
+      </c>
+      <c r="W8" s="1">
+        <v>24</v>
+      </c>
+      <c r="X8" s="1">
+        <v>31</v>
+      </c>
+      <c r="AP8" s="1">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M8" s="18">
-        <v>0</v>
-      </c>
-      <c r="N8" s="18">
-        <v>0</v>
-      </c>
-      <c r="O8" s="18">
-        <v>0</v>
-      </c>
-      <c r="P8" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="18">
-        <v>0</v>
-      </c>
-      <c r="R8" s="18">
-        <v>0</v>
-      </c>
-      <c r="S8" s="18">
-        <v>0</v>
-      </c>
-      <c r="T8" s="18">
-        <v>0</v>
-      </c>
-      <c r="U8" s="18">
-        <v>0</v>
-      </c>
-      <c r="V8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1">
-        <f t="shared" si="2"/>
-        <v>12.7</v>
-      </c>
-      <c r="AK8" s="1">
+      <c r="AQ8" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AL8" s="1">
+        <v>19</v>
+      </c>
+      <c r="AR8" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1">
+        <v>48</v>
+      </c>
+      <c r="AS8" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>239</v>
       </c>
       <c r="C9" s="18">
-        <f t="shared" ref="C9:D9" si="6">SUM(C10:C12)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D9" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18">
-        <f t="shared" ref="G9:M9" si="7">SUM(G10:G12)</f>
-        <v>246.9</v>
+        <v>3</v>
       </c>
       <c r="H9" s="18">
-        <f t="shared" si="7"/>
-        <v>269.10000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="I9" s="18">
-        <f t="shared" si="7"/>
-        <v>353.3</v>
+        <v>3</v>
       </c>
       <c r="J9" s="18">
-        <f t="shared" si="7"/>
-        <v>317.10000000000002</v>
+        <v>4</v>
       </c>
       <c r="K9" s="18">
-        <f t="shared" si="7"/>
-        <v>364.80000000000007</v>
+        <v>3</v>
       </c>
       <c r="L9" s="18">
-        <f t="shared" si="7"/>
-        <v>437.7</v>
+        <v>0</v>
       </c>
       <c r="M9" s="18">
-        <f t="shared" si="7"/>
-        <v>581.80000000000007</v>
+        <v>0</v>
       </c>
       <c r="N9" s="18">
-        <f>SUM(N10:N12)</f>
-        <v>517.9</v>
+        <v>0</v>
       </c>
       <c r="O9" s="18">
-        <f>SUM(O10:O12)</f>
-        <v>630.9</v>
+        <v>0</v>
       </c>
       <c r="P9" s="18">
-        <f>SUM(P10:P12)</f>
-        <v>677.5</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="18">
-        <f>SUM(Q10:Q12)</f>
-        <v>711.4</v>
+        <v>0</v>
       </c>
       <c r="R9" s="18">
-        <f>SUM(R10:R12)</f>
-        <v>835.9</v>
+        <v>0</v>
       </c>
       <c r="S9" s="18">
-        <f>+O9*1.3</f>
-        <v>820.17</v>
+        <v>0</v>
       </c>
       <c r="T9" s="18">
-        <f>+P9*1.3</f>
-        <v>880.75</v>
+        <v>0</v>
       </c>
       <c r="U9" s="18">
-        <f>+Q9*1.2</f>
-        <v>853.68</v>
+        <v>0</v>
       </c>
       <c r="V9" s="18">
-        <f>+R9*1.2</f>
-        <v>1003.0799999999999</v>
-      </c>
-      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="18">
+        <v>0</v>
+      </c>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AP9" s="1">
         <f t="shared" si="2"/>
-        <v>1186.4000000000001</v>
-      </c>
-      <c r="AK9" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="AQ9" s="1">
         <f t="shared" si="3"/>
-        <v>1902.2000000000003</v>
-      </c>
-      <c r="AL9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR9" s="1">
         <f t="shared" si="4"/>
-        <v>2855.7000000000003</v>
-      </c>
-      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
         <f t="shared" si="5"/>
-        <v>3557.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="shared" ref="C10:D10" si="6">SUM(C11:C13)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18">
-        <v>170.9</v>
+        <f t="shared" ref="G10:M10" si="7">SUM(G11:G13)</f>
+        <v>246.9</v>
       </c>
       <c r="H10" s="18">
-        <v>171.9</v>
+        <f t="shared" si="7"/>
+        <v>269.10000000000002</v>
       </c>
       <c r="I10" s="18">
-        <v>212.8</v>
+        <f t="shared" si="7"/>
+        <v>353.3</v>
       </c>
       <c r="J10" s="18">
-        <v>229.6</v>
+        <f t="shared" si="7"/>
+        <v>317.10000000000002</v>
       </c>
       <c r="K10" s="18">
-        <v>260.60000000000002</v>
+        <f t="shared" si="7"/>
+        <v>364.80000000000007</v>
       </c>
       <c r="L10" s="18">
-        <v>327.60000000000002</v>
+        <f t="shared" si="7"/>
+        <v>437.7</v>
       </c>
       <c r="M10" s="18">
-        <v>387</v>
+        <f t="shared" si="7"/>
+        <v>581.80000000000007</v>
       </c>
       <c r="N10" s="18">
-        <v>387.8</v>
+        <f>SUM(N11:N13)</f>
+        <v>517.9</v>
       </c>
       <c r="O10" s="18">
-        <v>415.3</v>
+        <f>SUM(O11:O13)</f>
+        <v>630.9</v>
       </c>
       <c r="P10" s="18">
-        <v>496.6</v>
+        <f>SUM(P11:P13)</f>
+        <v>677.5</v>
       </c>
       <c r="Q10" s="18">
-        <v>551.1</v>
+        <f>SUM(Q11:Q13)</f>
+        <v>711.4</v>
       </c>
       <c r="R10" s="18">
-        <v>619</v>
-      </c>
-      <c r="AJ10" s="1">
+        <f>SUM(R11:R13)</f>
+        <v>835.9</v>
+      </c>
+      <c r="S10" s="18">
+        <v>798</v>
+      </c>
+      <c r="T10" s="18">
+        <v>944</v>
+      </c>
+      <c r="U10" s="18">
+        <f>+Q10*1.2</f>
+        <v>853.68</v>
+      </c>
+      <c r="V10" s="18">
+        <f>+R10*1.2</f>
+        <v>1003.0799999999999</v>
+      </c>
+      <c r="W10" s="18">
+        <v>910</v>
+      </c>
+      <c r="X10" s="18">
+        <v>1146</v>
+      </c>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AP10" s="1">
         <f t="shared" si="2"/>
-        <v>785.2</v>
-      </c>
-      <c r="AK10" s="1">
+        <v>1186.4000000000001</v>
+      </c>
+      <c r="AQ10" s="1">
         <f t="shared" si="3"/>
-        <v>1363</v>
-      </c>
-      <c r="AL10" s="1">
+        <v>1902.2000000000003</v>
+      </c>
+      <c r="AR10" s="1">
         <f t="shared" si="4"/>
-        <v>2082</v>
-      </c>
-      <c r="AM10" s="1">
+        <v>2855.7000000000003</v>
+      </c>
+      <c r="AS10" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3598.7599999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18">
-        <v>80.099999999999994</v>
+        <v>170.9</v>
       </c>
       <c r="H11" s="18">
-        <v>100.6</v>
+        <v>171.9</v>
       </c>
       <c r="I11" s="18">
-        <v>94.3</v>
+        <v>212.8</v>
       </c>
       <c r="J11" s="18">
-        <v>93</v>
+        <v>229.6</v>
       </c>
       <c r="K11" s="18">
-        <v>105.6</v>
+        <v>260.60000000000002</v>
       </c>
       <c r="L11" s="18">
-        <v>110.9</v>
+        <v>327.60000000000002</v>
       </c>
       <c r="M11" s="18">
-        <v>144.69999999999999</v>
+        <v>387</v>
       </c>
       <c r="N11" s="18">
-        <v>127.6</v>
+        <v>387.8</v>
       </c>
       <c r="O11" s="18">
-        <v>160.80000000000001</v>
+        <v>415.3</v>
       </c>
       <c r="P11" s="18">
-        <v>145.5</v>
+        <v>496.6</v>
       </c>
       <c r="Q11" s="18">
-        <v>160.5</v>
+        <v>551.1</v>
       </c>
       <c r="R11" s="18">
-        <v>166.9</v>
-      </c>
-      <c r="AJ11" s="1">
+        <v>619</v>
+      </c>
+      <c r="AP11" s="1">
         <f t="shared" si="2"/>
-        <v>368</v>
-      </c>
-      <c r="AK11" s="1">
+        <v>785.2</v>
+      </c>
+      <c r="AQ11" s="1">
         <f t="shared" si="3"/>
-        <v>488.79999999999995</v>
-      </c>
-      <c r="AL11" s="1">
+        <v>1363</v>
+      </c>
+      <c r="AR11" s="1">
         <f t="shared" si="4"/>
-        <v>633.70000000000005</v>
-      </c>
-      <c r="AM11" s="1">
+        <v>2082</v>
+      </c>
+      <c r="AS11" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18">
-        <f>-6.2+2.1</f>
-        <v>-4.0999999999999996</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="H12" s="18">
-        <f>-6.4+3</f>
-        <v>-3.4000000000000004</v>
+        <v>100.6</v>
       </c>
       <c r="I12" s="18">
-        <f>50-4.7+0.9</f>
-        <v>46.199999999999996</v>
+        <v>94.3</v>
       </c>
       <c r="J12" s="18">
-        <f>-8.4+2.9</f>
-        <v>-5.5</v>
+        <v>93</v>
       </c>
       <c r="K12" s="18">
-        <f>-6.1+4.7</f>
-        <v>-1.3999999999999995</v>
+        <v>105.6</v>
       </c>
       <c r="L12" s="18">
-        <f>-3.5+2.7</f>
-        <v>-0.79999999999999982</v>
+        <v>110.9</v>
       </c>
       <c r="M12" s="18">
-        <f>50+3.1-3</f>
-        <v>50.1</v>
+        <v>144.69999999999999</v>
       </c>
       <c r="N12" s="18">
-        <f>-1+3.5</f>
-        <v>2.5</v>
+        <v>127.6</v>
       </c>
       <c r="O12" s="18">
-        <f>50+2.8+2</f>
-        <v>54.8</v>
+        <v>160.80000000000001</v>
       </c>
       <c r="P12" s="18">
-        <f>28.9+3.9+2.6</f>
-        <v>35.4</v>
+        <v>145.5</v>
       </c>
       <c r="Q12" s="18">
-        <v>-0.2</v>
+        <v>160.5</v>
       </c>
       <c r="R12" s="18">
-        <v>50</v>
-      </c>
-      <c r="AJ12" s="1">
+        <v>166.9</v>
+      </c>
+      <c r="AP12" s="1">
         <f t="shared" si="2"/>
-        <v>33.199999999999996</v>
-      </c>
-      <c r="AK12" s="1">
+        <v>368</v>
+      </c>
+      <c r="AQ12" s="1">
         <f t="shared" si="3"/>
-        <v>50.400000000000006</v>
-      </c>
-      <c r="AL12" s="1">
+        <v>488.79999999999995</v>
+      </c>
+      <c r="AR12" s="1">
         <f t="shared" si="4"/>
-        <v>140</v>
-      </c>
-      <c r="AM12" s="1">
+        <v>633.70000000000005</v>
+      </c>
+      <c r="AS12" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" s="18"/>
-      <c r="D13" s="18">
-        <v>557.29999999999995</v>
-      </c>
+      <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18">
+        <f>-6.2+2.1</f>
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="H13" s="18">
+        <f>-6.4+3</f>
+        <v>-3.4000000000000004</v>
+      </c>
+      <c r="I13" s="18">
+        <f>50-4.7+0.9</f>
+        <v>46.199999999999996</v>
+      </c>
+      <c r="J13" s="18">
+        <f>-8.4+2.9</f>
+        <v>-5.5</v>
+      </c>
+      <c r="K13" s="18">
+        <f>-6.1+4.7</f>
+        <v>-1.3999999999999995</v>
+      </c>
+      <c r="L13" s="18">
+        <f>-3.5+2.7</f>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="M13" s="18">
+        <f>50+3.1-3</f>
+        <v>50.1</v>
+      </c>
+      <c r="N13" s="18">
+        <f>-1+3.5</f>
+        <v>2.5</v>
+      </c>
+      <c r="O13" s="18">
+        <f>50+2.8+2</f>
+        <v>54.8</v>
+      </c>
+      <c r="P13" s="18">
+        <f>28.9+3.9+2.6</f>
+        <v>35.4</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>-0.2</v>
+      </c>
+      <c r="R13" s="18">
+        <v>50</v>
+      </c>
+      <c r="AP13" s="1">
+        <f t="shared" si="2"/>
+        <v>33.199999999999996</v>
+      </c>
+      <c r="AQ13" s="1">
+        <f t="shared" si="3"/>
+        <v>50.400000000000006</v>
+      </c>
+      <c r="AR13" s="1">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="AS13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18">
+        <v>557.29999999999995</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18">
         <v>855</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H14" s="18">
         <v>945</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I14" s="18">
         <v>1072.5999999999999</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J14" s="18">
         <v>1172</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K14" s="18">
         <v>1262.9000000000001</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L14" s="18">
         <v>1499</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M14" s="18">
         <v>1662.9</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N14" s="18">
         <v>1773.8</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O14" s="18">
         <v>1810.4</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P14" s="18">
         <v>2091.8000000000002</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q14" s="18">
         <v>2330.1</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R14" s="18">
         <v>2448.9</v>
       </c>
-      <c r="AJ13" s="1">
+      <c r="T14" s="1">
+        <v>2789.4</v>
+      </c>
+      <c r="X14" s="1">
+        <v>3556.4</v>
+      </c>
+      <c r="AP14" s="1">
         <f t="shared" si="2"/>
         <v>4044.6</v>
       </c>
-      <c r="AK13" s="1">
+      <c r="AQ14" s="1">
         <f t="shared" si="3"/>
         <v>6198.6</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AR14" s="1">
         <f t="shared" si="4"/>
         <v>8681.2000000000007</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AS14" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+        <v>2789.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18">
-        <v>73.7</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18">
-        <v>86.6</v>
-      </c>
-      <c r="I14" s="18">
-        <v>91.5</v>
-      </c>
-      <c r="J14" s="18">
-        <v>100.9</v>
-      </c>
-      <c r="K14" s="18">
-        <v>104.6</v>
-      </c>
-      <c r="L14" s="18">
-        <v>99.4</v>
-      </c>
-      <c r="M14" s="18">
-        <v>114.5</v>
-      </c>
-      <c r="N14" s="18">
-        <v>102.6</v>
-      </c>
-      <c r="O14" s="18">
-        <v>111.4</v>
-      </c>
-      <c r="P14" s="18">
-        <v>108.9</v>
-      </c>
-      <c r="Q14" s="18">
-        <v>113.7</v>
-      </c>
-      <c r="R14" s="18">
-        <v>133.4</v>
-      </c>
-      <c r="AJ14" s="1">
-        <f t="shared" si="2"/>
-        <v>279</v>
-      </c>
-      <c r="AK14" s="1">
-        <f t="shared" si="3"/>
-        <v>421.1</v>
-      </c>
-      <c r="AL14" s="1">
-        <f t="shared" si="4"/>
-        <v>467.4</v>
-      </c>
-      <c r="AM14" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18">
-        <v>58.5</v>
+        <v>73.7</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18">
+        <v>86.6</v>
+      </c>
+      <c r="I15" s="18">
+        <v>91.5</v>
+      </c>
+      <c r="J15" s="18">
+        <v>100.9</v>
+      </c>
+      <c r="K15" s="18">
+        <v>104.6</v>
+      </c>
+      <c r="L15" s="18">
+        <v>99.4</v>
+      </c>
+      <c r="M15" s="18">
+        <v>114.5</v>
+      </c>
+      <c r="N15" s="18">
+        <v>102.6</v>
+      </c>
+      <c r="O15" s="18">
+        <v>111.4</v>
+      </c>
+      <c r="P15" s="18">
+        <v>108.9</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>113.7</v>
+      </c>
+      <c r="R15" s="18">
+        <v>133.4</v>
+      </c>
+      <c r="T15" s="1">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="X15" s="1">
+        <v>191.9</v>
+      </c>
+      <c r="AP15" s="1">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+      <c r="AQ15" s="1">
+        <f t="shared" si="3"/>
+        <v>421.1</v>
+      </c>
+      <c r="AR15" s="1">
+        <f t="shared" si="4"/>
+        <v>467.4</v>
+      </c>
+      <c r="AS15" s="1">
+        <f t="shared" si="5"/>
+        <v>140.30000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18">
+        <v>58.5</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18">
         <v>68.3</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I16" s="18">
         <v>70</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J16" s="18">
         <v>71.5</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K16" s="18">
         <v>69.099999999999994</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L16" s="18">
         <v>66.7</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M16" s="18">
         <v>97.8</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N16" s="18">
         <v>103.9</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O16" s="18">
         <v>106.4</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P16" s="18">
         <v>82.3</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="Q16" s="18">
         <v>88.1</v>
       </c>
-      <c r="R15" s="18">
+      <c r="R16" s="18">
         <v>81.2</v>
       </c>
-      <c r="AJ15" s="1">
+      <c r="T16" s="1">
+        <v>99.5</v>
+      </c>
+      <c r="X16" s="1">
+        <v>109.7</v>
+      </c>
+      <c r="AP16" s="1">
         <f t="shared" si="2"/>
         <v>209.8</v>
       </c>
-      <c r="AK15" s="1">
+      <c r="AQ16" s="1">
         <f t="shared" si="3"/>
         <v>337.5</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AR16" s="1">
         <f t="shared" si="4"/>
         <v>357.99999999999994</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AS16" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:60" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C17" s="18">
         <v>264</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18">
         <v>281.39999999999998</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H17" s="18">
         <v>244.2</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I17" s="18">
         <v>299.89999999999998</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J17" s="18">
         <v>360.6</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K17" s="18">
         <v>322.8</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L17" s="18">
         <v>349</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M17" s="18">
         <v>365</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N17" s="18">
         <v>372.4</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O17" s="18">
         <v>385.3</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P17" s="18">
         <v>358</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q17" s="18">
         <v>333</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R17" s="18">
         <v>355.1</v>
       </c>
-      <c r="S16" s="18">
-        <f t="shared" ref="S16:V16" si="8">+O16*1.01</f>
-        <v>389.15300000000002</v>
-      </c>
-      <c r="T16" s="18">
-        <f t="shared" si="8"/>
-        <v>361.58</v>
-      </c>
-      <c r="U16" s="18">
-        <f t="shared" si="8"/>
+      <c r="S17" s="18">
+        <v>357</v>
+      </c>
+      <c r="T17" s="18">
+        <v>377</v>
+      </c>
+      <c r="U17" s="18">
+        <f t="shared" ref="S17:V17" si="8">+Q17*1.01</f>
         <v>336.33</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V17" s="18">
         <f t="shared" si="8"/>
         <v>358.65100000000001</v>
       </c>
-      <c r="AJ16" s="1">
+      <c r="W17" s="18">
+        <v>356</v>
+      </c>
+      <c r="X17" s="18">
+        <v>375</v>
+      </c>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AP17" s="1">
         <f t="shared" si="2"/>
         <v>1186.0999999999999</v>
       </c>
-      <c r="AK16" s="1">
+      <c r="AQ17" s="1">
         <f t="shared" si="3"/>
         <v>1409.1999999999998</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AR17" s="1">
         <f t="shared" si="4"/>
         <v>1431.4</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AS17" s="1">
         <f t="shared" si="5"/>
-        <v>1445.7139999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+        <v>1428.981</v>
+      </c>
+    </row>
+    <row r="18" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C18" s="18">
         <v>0</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D18" s="18">
         <v>0</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E18" s="18">
         <v>0</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F18" s="18">
         <v>0</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G18" s="18">
         <v>0</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H18" s="18">
         <v>0</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I18" s="18">
         <v>0</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J18" s="18">
         <v>0</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K18" s="18">
         <v>66.8</v>
       </c>
-      <c r="L17" s="18">
+      <c r="L18" s="18">
         <v>168</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M18" s="18">
         <v>127.1</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N18" s="18">
         <v>0</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O18" s="18">
         <v>216.3</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P18" s="18">
         <v>8</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q18" s="18">
         <v>6</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R18" s="18">
         <v>396.4</v>
       </c>
-      <c r="S17" s="1">
-        <f t="shared" ref="S17:V17" si="9">AVERAGE(O17:R17)</f>
-        <v>156.67500000000001</v>
-      </c>
-      <c r="T17" s="1">
-        <f t="shared" si="9"/>
-        <v>141.76875000000001</v>
-      </c>
-      <c r="U17" s="1">
-        <f t="shared" si="9"/>
-        <v>175.2109375</v>
-      </c>
-      <c r="V17" s="1">
-        <f t="shared" si="9"/>
-        <v>217.513671875</v>
-      </c>
-      <c r="AJ17" s="1">
+      <c r="S18" s="1">
+        <v>223</v>
+      </c>
+      <c r="T18" s="1">
+        <v>-4</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="X18" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="1">
+      <c r="AQ18" s="1">
         <f t="shared" si="3"/>
         <v>361.9</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AR18" s="1">
         <f t="shared" si="4"/>
         <v>626.70000000000005</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AS18" s="1">
         <f t="shared" si="5"/>
-        <v>691.16835937500002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C19" s="18">
         <v>22.2</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18">
         <v>63.2</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H19" s="18">
         <v>211.8</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I19" s="18">
         <v>158.6</v>
       </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18">
+      <c r="J19" s="18"/>
+      <c r="K19" s="18">
         <v>50</v>
       </c>
-      <c r="L18" s="18">
+      <c r="L19" s="18">
         <v>46</v>
       </c>
-      <c r="M18" s="18">
+      <c r="M19" s="18">
         <v>99</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N19" s="18">
         <v>86.2</v>
       </c>
-      <c r="O18" s="18">
+      <c r="O19" s="18">
         <v>94</v>
       </c>
-      <c r="P18" s="18">
+      <c r="P19" s="18">
         <v>59</v>
       </c>
-      <c r="Q18" s="18">
+      <c r="Q19" s="18">
         <v>84</v>
       </c>
-      <c r="R18" s="18">
+      <c r="R19" s="18">
         <v>127.7</v>
       </c>
-      <c r="S18" s="1">
-        <f>AVERAGE(O18:R18)</f>
-        <v>91.174999999999997</v>
-      </c>
-      <c r="T18" s="1">
-        <f t="shared" ref="T18:V18" si="10">AVERAGE(P18:S18)</f>
-        <v>90.46875</v>
-      </c>
-      <c r="U18" s="1">
-        <f t="shared" si="10"/>
-        <v>98.3359375</v>
-      </c>
-      <c r="V18" s="1">
-        <f t="shared" si="10"/>
-        <v>101.919921875</v>
-      </c>
-      <c r="AJ18" s="1">
+      <c r="S19" s="1">
+        <v>116</v>
+      </c>
+      <c r="T19" s="1">
+        <v>69</v>
+      </c>
+      <c r="U19" s="1">
+        <f t="shared" ref="T19:V19" si="9">AVERAGE(Q19:T19)</f>
+        <v>99.174999999999997</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="9"/>
+        <v>102.96875</v>
+      </c>
+      <c r="W19" s="1">
+        <v>117</v>
+      </c>
+      <c r="X19" s="1">
+        <v>104</v>
+      </c>
+      <c r="AP19" s="1">
         <f t="shared" si="2"/>
         <v>433.6</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AQ19" s="1">
         <f t="shared" si="3"/>
         <v>281.2</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AR19" s="1">
         <f t="shared" si="4"/>
         <v>364.7</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AS19" s="1">
         <f t="shared" si="5"/>
-        <v>381.89960937500001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:39" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="20" t="s">
+        <v>387.14375000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C19" s="21">
-        <f t="shared" ref="C19:D19" si="11">SUM(C3:C9)+C16+C17+C18</f>
+      <c r="C20" s="21">
+        <f t="shared" ref="C20:D20" si="10">SUM(C3:C10)+C17+C18+C19</f>
         <v>1390.6</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D20" s="21">
+        <f t="shared" si="10"/>
+        <v>1231.5</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
+        <f t="shared" ref="G20:J20" si="11">SUM(G3:G10)+G17+G18+G19</f>
+        <v>1828.2</v>
+      </c>
+      <c r="H20" s="21">
         <f t="shared" si="11"/>
-        <v>1231.5</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21">
-        <f t="shared" ref="G19:J19" si="12">SUM(G3:G9)+G16+G17+G18</f>
-        <v>1828.2</v>
-      </c>
-      <c r="H19" s="21">
+        <v>1952.3000000000002</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="11"/>
+        <v>2293.7999999999997</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="11"/>
+        <v>2299.6999999999998</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" ref="K20:P20" si="12">SUM(K3:K10)+K17+K18+K19</f>
+        <v>2529.4000000000005</v>
+      </c>
+      <c r="L20" s="21">
         <f t="shared" si="12"/>
-        <v>1952.3000000000002</v>
-      </c>
-      <c r="I19" s="21">
+        <v>5138.7</v>
+      </c>
+      <c r="M20" s="21">
+        <f>SUM(M3:M10)+M17+M18+M19</f>
+        <v>3452.9</v>
+      </c>
+      <c r="N20" s="21">
         <f t="shared" si="12"/>
-        <v>2293.7999999999997</v>
-      </c>
-      <c r="J19" s="21">
+        <v>4951.4999999999991</v>
+      </c>
+      <c r="O20" s="21">
         <f t="shared" si="12"/>
-        <v>2299.6999999999998</v>
-      </c>
-      <c r="K19" s="21">
-        <f t="shared" ref="K19:P19" si="13">SUM(K3:K9)+K16+K17+K18</f>
-        <v>2529.4000000000005</v>
-      </c>
-      <c r="L19" s="21">
+        <v>2965.5000000000005</v>
+      </c>
+      <c r="P20" s="21">
+        <f t="shared" si="12"/>
+        <v>2856.5</v>
+      </c>
+      <c r="Q20" s="21">
+        <f t="shared" ref="Q20:X20" si="13">SUM(Q3:Q10)+Q17+Q18+Q19</f>
+        <v>2936.4</v>
+      </c>
+      <c r="R20" s="21">
         <f t="shared" si="13"/>
-        <v>5138.7</v>
-      </c>
-      <c r="M19" s="21">
-        <f>SUM(M3:M9)+M16+M17+M18</f>
-        <v>3452.9</v>
-      </c>
-      <c r="N19" s="21">
+        <v>3414.1</v>
+      </c>
+      <c r="S20" s="21">
         <f t="shared" si="13"/>
-        <v>4951.4999999999991</v>
-      </c>
-      <c r="O19" s="21">
+        <v>3162</v>
+      </c>
+      <c r="T20" s="21">
         <f t="shared" si="13"/>
-        <v>2965.5000000000005</v>
-      </c>
-      <c r="P19" s="21">
+        <v>3158</v>
+      </c>
+      <c r="U20" s="21">
         <f t="shared" si="13"/>
-        <v>2856.5</v>
-      </c>
-      <c r="Q19" s="21">
-        <f t="shared" ref="Q19:V19" si="14">SUM(Q3:Q9)+Q16+Q17+Q18</f>
-        <v>2936.4</v>
-      </c>
-      <c r="R19" s="21">
+        <v>3360.085</v>
+      </c>
+      <c r="V20" s="21">
+        <f t="shared" si="13"/>
+        <v>3396.2997500000001</v>
+      </c>
+      <c r="W20" s="21">
+        <f t="shared" si="13"/>
+        <v>3145</v>
+      </c>
+      <c r="X20" s="21">
+        <f t="shared" si="13"/>
+        <v>3547</v>
+      </c>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AP20" s="21">
+        <f t="shared" ref="AP20:AS20" si="14">SUM(AP3:AP10)+AP17+AP18+AP19</f>
+        <v>8374</v>
+      </c>
+      <c r="AQ20" s="21">
         <f t="shared" si="14"/>
-        <v>3414.1</v>
-      </c>
-      <c r="S19" s="21">
+        <v>16072.500000000002</v>
+      </c>
+      <c r="AR20" s="21">
         <f t="shared" si="14"/>
-        <v>3336.9730000000009</v>
-      </c>
-      <c r="T19" s="21">
+        <v>12172.500000000002</v>
+      </c>
+      <c r="AS20" s="21">
         <f t="shared" si="14"/>
-        <v>3474.6675000000005</v>
-      </c>
-      <c r="U19" s="21">
-        <f t="shared" si="14"/>
-        <v>3479.4568749999999</v>
-      </c>
-      <c r="V19" s="21">
-        <f t="shared" si="14"/>
-        <v>3557.7645937500001</v>
-      </c>
-      <c r="AJ19" s="21">
-        <f t="shared" ref="AJ19:AM19" si="15">SUM(AJ3:AJ9)+AJ16+AJ17+AJ18</f>
-        <v>8374</v>
-      </c>
-      <c r="AK19" s="21">
-        <f t="shared" si="15"/>
-        <v>16072.500000000002</v>
-      </c>
-      <c r="AL19" s="21">
-        <f t="shared" si="15"/>
-        <v>12172.500000000002</v>
-      </c>
-      <c r="AM19" s="21">
-        <f t="shared" si="15"/>
-        <v>13848.861968750001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
+        <v>13076.384749999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18">
         <v>58.2</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18">
-        <f>78.8+138.5</f>
-        <v>217.3</v>
-      </c>
-      <c r="H20" s="18">
-        <f>93.2+173</f>
-        <v>266.2</v>
-      </c>
-      <c r="I20" s="18">
-        <v>122</v>
-      </c>
-      <c r="J20" s="18">
-        <f>166+173.5</f>
-        <v>339.5</v>
-      </c>
-      <c r="K20" s="18">
-        <f>183.2+124.8</f>
-        <v>308</v>
-      </c>
-      <c r="L20" s="18">
-        <f>539.4+154.3</f>
-        <v>693.7</v>
-      </c>
-      <c r="M20" s="18">
-        <v>224</v>
-      </c>
-      <c r="N20" s="18">
-        <f>559+170.9</f>
-        <v>729.9</v>
-      </c>
-      <c r="O20" s="18">
-        <f>207.3+197.6</f>
-        <v>404.9</v>
-      </c>
-      <c r="P20" s="18">
-        <f>149.2+147.9</f>
-        <v>297.10000000000002</v>
-      </c>
-      <c r="Q20" s="18">
-        <v>109</v>
-      </c>
-      <c r="R20" s="18">
-        <f>302.2+238.4-133.7-19.7</f>
-        <v>387.20000000000005</v>
-      </c>
-      <c r="S20" s="18">
-        <f t="shared" ref="S20:V20" si="16">+S19-S21</f>
-        <v>333.69729999999981</v>
-      </c>
-      <c r="T20" s="18">
-        <f t="shared" si="16"/>
-        <v>347.46675000000005</v>
-      </c>
-      <c r="U20" s="18">
-        <f t="shared" si="16"/>
-        <v>347.94568750000008</v>
-      </c>
-      <c r="V20" s="18">
-        <f t="shared" si="16"/>
-        <v>355.77645937499983</v>
-      </c>
-      <c r="AJ20" s="1">
-        <f t="shared" ref="AJ20" si="17">SUM(G20:J20)</f>
-        <v>945</v>
-      </c>
-      <c r="AK20" s="1">
-        <f t="shared" ref="AK20" si="18">SUM(K20:N20)</f>
-        <v>1955.6</v>
-      </c>
-      <c r="AL20" s="1">
-        <f t="shared" ref="AL20" si="19">SUM(O20:R20)</f>
-        <v>1198.2</v>
-      </c>
-      <c r="AM20" s="1">
-        <f t="shared" ref="AM20" si="20">SUM(S20:V20)</f>
-        <v>1384.8861968749998</v>
-      </c>
-    </row>
-    <row r="21" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
       <c r="G21" s="18">
-        <f t="shared" ref="G21" si="21">+G19-G20</f>
-        <v>1610.9</v>
+        <f>78.8+138.5</f>
+        <v>217.3</v>
       </c>
       <c r="H21" s="18">
-        <f t="shared" ref="H21:P21" si="22">+H19-H20</f>
-        <v>1686.1000000000001</v>
+        <f>93.2+173</f>
+        <v>266.2</v>
       </c>
       <c r="I21" s="18">
-        <f t="shared" si="22"/>
-        <v>2171.7999999999997</v>
+        <v>122</v>
       </c>
       <c r="J21" s="18">
-        <f t="shared" si="22"/>
-        <v>1960.1999999999998</v>
+        <f>166+173.5</f>
+        <v>339.5</v>
       </c>
       <c r="K21" s="18">
-        <f t="shared" si="22"/>
-        <v>2221.4000000000005</v>
+        <f>183.2+124.8</f>
+        <v>308</v>
       </c>
       <c r="L21" s="18">
-        <f t="shared" si="22"/>
-        <v>4445</v>
+        <f>539.4+154.3</f>
+        <v>693.7</v>
       </c>
       <c r="M21" s="18">
-        <f t="shared" si="22"/>
-        <v>3228.9</v>
+        <v>224</v>
       </c>
       <c r="N21" s="18">
-        <f t="shared" si="22"/>
-        <v>4221.5999999999995</v>
+        <f>559+170.9</f>
+        <v>729.9</v>
       </c>
       <c r="O21" s="18">
-        <f t="shared" si="22"/>
-        <v>2560.6000000000004</v>
+        <f>207.3+197.6</f>
+        <v>404.9</v>
       </c>
       <c r="P21" s="18">
-        <f t="shared" si="22"/>
-        <v>2559.4</v>
+        <f>149.2+147.9</f>
+        <v>297.10000000000002</v>
       </c>
       <c r="Q21" s="18">
-        <f>+Q19-Q20</f>
-        <v>2827.4</v>
+        <v>109</v>
       </c>
       <c r="R21" s="18">
-        <f>+R19-R20</f>
-        <v>3026.8999999999996</v>
+        <f>302.2+238.4-133.7-19.7</f>
+        <v>387.20000000000005</v>
       </c>
       <c r="S21" s="18">
-        <f t="shared" ref="S21:V21" si="23">+S19*0.9</f>
-        <v>3003.2757000000011</v>
+        <v>168</v>
       </c>
       <c r="T21" s="18">
-        <f t="shared" si="23"/>
-        <v>3127.2007500000004</v>
+        <v>163</v>
       </c>
       <c r="U21" s="18">
-        <f t="shared" si="23"/>
-        <v>3131.5111874999998</v>
+        <f t="shared" ref="S21:V21" si="15">+U20-U22</f>
+        <v>336.00849999999991</v>
       </c>
       <c r="V21" s="18">
-        <f t="shared" si="23"/>
-        <v>3201.9881343750003</v>
-      </c>
-      <c r="AJ21" s="1">
-        <f>+AJ19-AJ20</f>
-        <v>7429</v>
-      </c>
-      <c r="AK21" s="1">
-        <f t="shared" ref="AK21:AM21" si="24">+AK19-AK20</f>
-        <v>14116.900000000001</v>
-      </c>
-      <c r="AL21" s="1">
-        <f t="shared" si="24"/>
-        <v>10974.300000000001</v>
-      </c>
-      <c r="AM21" s="1">
-        <f t="shared" si="24"/>
-        <v>12463.975771875001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="15"/>
+        <v>339.62997499999983</v>
+      </c>
+      <c r="W21" s="18">
+        <v>196</v>
+      </c>
+      <c r="X21" s="18">
+        <v>214</v>
+      </c>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AP21" s="1">
+        <f t="shared" ref="AP21" si="16">SUM(G21:J21)</f>
+        <v>945</v>
+      </c>
+      <c r="AQ21" s="1">
+        <f t="shared" ref="AQ21" si="17">SUM(K21:N21)</f>
+        <v>1955.6</v>
+      </c>
+      <c r="AR21" s="1">
+        <f t="shared" ref="AR21" si="18">SUM(O21:R21)</f>
+        <v>1198.2</v>
+      </c>
+      <c r="AS21" s="1">
+        <f t="shared" ref="AS21" si="19">SUM(S21:V21)</f>
+        <v>1006.6384749999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C22" s="18"/>
-      <c r="D22" s="18">
-        <v>426.2</v>
-      </c>
+      <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
       <c r="G22" s="18">
-        <v>583.9</v>
+        <f t="shared" ref="G22" si="20">+G20-G21</f>
+        <v>1610.9</v>
       </c>
       <c r="H22" s="18">
-        <v>580.1</v>
+        <f t="shared" ref="H22:P22" si="21">+H20-H21</f>
+        <v>1686.1000000000001</v>
       </c>
       <c r="I22" s="18">
-        <v>629</v>
+        <f t="shared" si="21"/>
+        <v>2171.7999999999997</v>
       </c>
       <c r="J22" s="18">
-        <v>675</v>
+        <f t="shared" si="21"/>
+        <v>1960.1999999999998</v>
       </c>
       <c r="K22" s="18">
-        <v>742.9</v>
+        <f t="shared" si="21"/>
+        <v>2221.4000000000005</v>
       </c>
       <c r="L22" s="18">
-        <v>714.2</v>
+        <f t="shared" si="21"/>
+        <v>4445</v>
       </c>
       <c r="M22" s="18">
-        <v>592</v>
+        <f t="shared" si="21"/>
+        <v>3228.9</v>
       </c>
       <c r="N22" s="18">
-        <v>639</v>
+        <f t="shared" si="21"/>
+        <v>4221.5999999999995</v>
       </c>
       <c r="O22" s="18">
-        <v>843.8</v>
+        <f t="shared" si="21"/>
+        <v>2560.6000000000004</v>
       </c>
       <c r="P22" s="18">
-        <f>794.3-14.6</f>
-        <v>779.69999999999993</v>
+        <f t="shared" si="21"/>
+        <v>2559.4</v>
       </c>
       <c r="Q22" s="18">
-        <v>817</v>
+        <f>+Q20-Q21</f>
+        <v>2827.4</v>
       </c>
       <c r="R22" s="18">
-        <f>1043.1-1.4</f>
-        <v>1041.6999999999998</v>
-      </c>
-      <c r="AJ22" s="1">
-        <f t="shared" ref="AJ22:AJ23" si="25">SUM(G22:J22)</f>
-        <v>2468</v>
-      </c>
-      <c r="AK22" s="1">
-        <f t="shared" ref="AK22:AK23" si="26">SUM(K22:N22)</f>
-        <v>2688.1</v>
-      </c>
-      <c r="AL22" s="1">
-        <f t="shared" ref="AL22:AL23" si="27">SUM(O22:R22)</f>
-        <v>3482.2</v>
-      </c>
-      <c r="AM22" s="1">
-        <f t="shared" ref="AM22:AM23" si="28">SUM(S22:V22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+R20-R21</f>
+        <v>3026.8999999999996</v>
+      </c>
+      <c r="S22" s="18">
+        <f>S20-S21</f>
+        <v>2994</v>
+      </c>
+      <c r="T22" s="18">
+        <f>T20-T21</f>
+        <v>2995</v>
+      </c>
+      <c r="U22" s="18">
+        <f t="shared" ref="S22:V22" si="22">+U20*0.9</f>
+        <v>3024.0765000000001</v>
+      </c>
+      <c r="V22" s="18">
+        <f t="shared" si="22"/>
+        <v>3056.6697750000003</v>
+      </c>
+      <c r="W22" s="18">
+        <f>W20-W21</f>
+        <v>2949</v>
+      </c>
+      <c r="X22" s="18">
+        <f>X20-X21</f>
+        <v>3333</v>
+      </c>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AP22" s="1">
+        <f>+AP20-AP21</f>
+        <v>7429</v>
+      </c>
+      <c r="AQ22" s="1">
+        <f t="shared" ref="AQ22:AS22" si="23">+AQ20-AQ21</f>
+        <v>14116.900000000001</v>
+      </c>
+      <c r="AR22" s="1">
+        <f t="shared" si="23"/>
+        <v>10974.300000000001</v>
+      </c>
+      <c r="AS22" s="1">
+        <f t="shared" si="23"/>
+        <v>12069.746275</v>
+      </c>
+    </row>
+    <row r="23" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18">
-        <v>251.9</v>
+        <v>426.2</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
       <c r="G23" s="18">
-        <f>367.3-20.2</f>
-        <v>347.1</v>
+        <v>583.9</v>
       </c>
       <c r="H23" s="18">
-        <v>301.39999999999998</v>
+        <v>580.1</v>
       </c>
       <c r="I23" s="18">
-        <v>291</v>
+        <v>629</v>
       </c>
       <c r="J23" s="18">
-        <v>381</v>
+        <v>675</v>
       </c>
       <c r="K23" s="18">
-        <v>405.6</v>
+        <v>742.9</v>
       </c>
       <c r="L23" s="18">
-        <v>414.7</v>
+        <v>714.2</v>
       </c>
       <c r="M23" s="18">
-        <v>391</v>
+        <v>592</v>
       </c>
       <c r="N23" s="18">
-        <v>495</v>
+        <v>639</v>
       </c>
       <c r="O23" s="18">
-        <v>450</v>
+        <v>843.8</v>
       </c>
       <c r="P23" s="18">
-        <f>476.3-1.1</f>
-        <v>475.2</v>
+        <f>794.3-14.6</f>
+        <v>779.69999999999993</v>
       </c>
       <c r="Q23" s="18">
-        <v>467</v>
+        <v>817</v>
       </c>
       <c r="R23" s="18">
-        <f>660.5-3.5</f>
-        <v>657</v>
-      </c>
-      <c r="S23" s="18">
-        <f t="shared" ref="S23:V23" si="29">+O23</f>
-        <v>450</v>
-      </c>
-      <c r="T23" s="18">
-        <f t="shared" si="29"/>
-        <v>475.2</v>
-      </c>
-      <c r="U23" s="18">
-        <f t="shared" si="29"/>
-        <v>467</v>
-      </c>
-      <c r="V23" s="18">
-        <f t="shared" si="29"/>
-        <v>657</v>
-      </c>
-      <c r="AJ23" s="1">
-        <f t="shared" si="25"/>
-        <v>1320.5</v>
-      </c>
-      <c r="AK23" s="1">
-        <f t="shared" si="26"/>
-        <v>1706.3</v>
-      </c>
-      <c r="AL23" s="1">
-        <f t="shared" si="27"/>
-        <v>2049.1999999999998</v>
-      </c>
-      <c r="AM23" s="1">
-        <f t="shared" si="28"/>
-        <v>2049.1999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>1043.1-1.4</f>
+        <v>1041.6999999999998</v>
+      </c>
+      <c r="S23" s="1">
+        <v>960</v>
+      </c>
+      <c r="T23" s="1">
+        <v>974</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1122</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1072</v>
+      </c>
+      <c r="AP23" s="1">
+        <f t="shared" ref="AP23:AP24" si="24">SUM(G23:J23)</f>
+        <v>2468</v>
+      </c>
+      <c r="AQ23" s="1">
+        <f t="shared" ref="AQ23:AQ24" si="25">SUM(K23:N23)</f>
+        <v>2688.1</v>
+      </c>
+      <c r="AR23" s="1">
+        <f t="shared" ref="AR23:AR24" si="26">SUM(O23:R23)</f>
+        <v>3482.2</v>
+      </c>
+      <c r="AS23" s="1">
+        <f t="shared" ref="AS23:AS24" si="27">SUM(S23:V23)</f>
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="24" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="D24" s="18">
+        <v>251.9</v>
+      </c>
       <c r="E24" s="18"/>
       <c r="F24" s="18"/>
       <c r="G24" s="18">
-        <f t="shared" ref="G24" si="30">+G23+G22</f>
-        <v>931</v>
+        <f>367.3-20.2</f>
+        <v>347.1</v>
       </c>
       <c r="H24" s="18">
-        <f>+H23+H22</f>
-        <v>881.5</v>
+        <v>301.39999999999998</v>
       </c>
       <c r="I24" s="18">
-        <f t="shared" ref="I24:M24" si="31">+I23+I22</f>
-        <v>920</v>
+        <v>291</v>
       </c>
       <c r="J24" s="18">
-        <f t="shared" si="31"/>
-        <v>1056</v>
+        <v>381</v>
       </c>
       <c r="K24" s="18">
-        <f t="shared" si="31"/>
-        <v>1148.5</v>
+        <v>405.6</v>
       </c>
       <c r="L24" s="18">
-        <f t="shared" si="31"/>
-        <v>1128.9000000000001</v>
+        <v>414.7</v>
       </c>
       <c r="M24" s="18">
-        <f t="shared" si="31"/>
-        <v>983</v>
+        <v>391</v>
       </c>
       <c r="N24" s="18">
-        <f>+N23+N22</f>
-        <v>1134</v>
+        <v>495</v>
       </c>
       <c r="O24" s="18">
-        <f>+O23+O22</f>
-        <v>1293.8</v>
+        <v>450</v>
       </c>
       <c r="P24" s="18">
-        <f>+P23+P22</f>
-        <v>1254.8999999999999</v>
+        <f>476.3-1.1</f>
+        <v>475.2</v>
       </c>
       <c r="Q24" s="18">
-        <f>+Q23+Q22</f>
-        <v>1284</v>
+        <v>467</v>
       </c>
       <c r="R24" s="18">
-        <f>+R23+R22</f>
-        <v>1698.6999999999998</v>
+        <f>660.5-3.5</f>
+        <v>657</v>
       </c>
       <c r="S24" s="18">
-        <f t="shared" ref="R24:V24" si="32">+S23+S22</f>
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="T24" s="18">
-        <f t="shared" si="32"/>
-        <v>475.2</v>
+        <v>562</v>
       </c>
       <c r="U24" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="S24:V24" si="28">+Q24</f>
         <v>467</v>
       </c>
       <c r="V24" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>657</v>
       </c>
-      <c r="AJ24" s="1">
-        <f>+AJ22+AJ23</f>
-        <v>3788.5</v>
-      </c>
-      <c r="AK24" s="1">
-        <f t="shared" ref="AK24:AM24" si="33">+AK22+AK23</f>
-        <v>4394.3999999999996</v>
-      </c>
-      <c r="AL24" s="1">
-        <f t="shared" si="33"/>
-        <v>5531.4</v>
-      </c>
-      <c r="AM24" s="1">
-        <f t="shared" si="33"/>
+      <c r="W24" s="18">
+        <v>584</v>
+      </c>
+      <c r="X24" s="18">
+        <v>667</v>
+      </c>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AP24" s="1">
+        <f t="shared" si="24"/>
+        <v>1320.5</v>
+      </c>
+      <c r="AQ24" s="1">
+        <f t="shared" si="25"/>
+        <v>1706.3</v>
+      </c>
+      <c r="AR24" s="1">
+        <f t="shared" si="26"/>
         <v>2049.1999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AS24" s="1">
+        <f t="shared" si="27"/>
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18">
-        <f>+G21-G24</f>
-        <v>679.90000000000009</v>
+        <f t="shared" ref="G25" si="29">+G24+G23</f>
+        <v>931</v>
       </c>
       <c r="H25" s="18">
-        <f>+H21-H24</f>
-        <v>804.60000000000014</v>
+        <f>+H24+H23</f>
+        <v>881.5</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" ref="I25:M25" si="34">+I21-I24</f>
-        <v>1251.7999999999997</v>
+        <f t="shared" ref="I25:M25" si="30">+I24+I23</f>
+        <v>920</v>
       </c>
       <c r="J25" s="18">
-        <f t="shared" si="34"/>
-        <v>904.19999999999982</v>
+        <f t="shared" si="30"/>
+        <v>1056</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" si="34"/>
-        <v>1072.9000000000005</v>
+        <f t="shared" si="30"/>
+        <v>1148.5</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" si="34"/>
-        <v>3316.1</v>
+        <f t="shared" si="30"/>
+        <v>1128.9000000000001</v>
       </c>
       <c r="M25" s="18">
-        <f t="shared" si="34"/>
-        <v>2245.9</v>
+        <f t="shared" si="30"/>
+        <v>983</v>
       </c>
       <c r="N25" s="18">
-        <f>+N21-N24</f>
-        <v>3087.5999999999995</v>
+        <f>+N24+N23</f>
+        <v>1134</v>
       </c>
       <c r="O25" s="18">
-        <f>+O21-O24</f>
-        <v>1266.8000000000004</v>
+        <f>+O24+O23</f>
+        <v>1293.8</v>
       </c>
       <c r="P25" s="18">
-        <f>+P21-P24</f>
-        <v>1304.5000000000002</v>
+        <f>+P24+P23</f>
+        <v>1254.8999999999999</v>
       </c>
       <c r="Q25" s="18">
-        <f>+Q21-Q24</f>
-        <v>1543.4</v>
+        <f>+Q24+Q23</f>
+        <v>1284</v>
       </c>
       <c r="R25" s="18">
-        <f>+R21-R24</f>
-        <v>1328.1999999999998</v>
+        <f>+R24+R23</f>
+        <v>1698.6999999999998</v>
       </c>
       <c r="S25" s="18">
-        <f t="shared" ref="R25:V25" si="35">+S21-S24</f>
-        <v>2553.2757000000011</v>
+        <f t="shared" ref="S25:V25" si="31">+S24+S23</f>
+        <v>1475</v>
       </c>
       <c r="T25" s="18">
-        <f t="shared" si="35"/>
-        <v>2652.0007500000006</v>
+        <f t="shared" si="31"/>
+        <v>1536</v>
       </c>
       <c r="U25" s="18">
-        <f t="shared" si="35"/>
-        <v>2664.5111874999998</v>
+        <f t="shared" si="31"/>
+        <v>467</v>
       </c>
       <c r="V25" s="18">
-        <f t="shared" si="35"/>
-        <v>2544.9881343750003</v>
-      </c>
-      <c r="AJ25" s="1">
-        <f>+AJ21-AJ24</f>
-        <v>3640.5</v>
-      </c>
-      <c r="AK25" s="1">
-        <f t="shared" ref="AK25:AM25" si="36">+AK21-AK24</f>
-        <v>9722.5000000000018</v>
-      </c>
-      <c r="AL25" s="1">
-        <f t="shared" si="36"/>
-        <v>5442.9000000000015</v>
-      </c>
-      <c r="AM25" s="1">
-        <f t="shared" si="36"/>
-        <v>10414.775771875</v>
-      </c>
-    </row>
-    <row r="26" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="31"/>
+        <v>657</v>
+      </c>
+      <c r="W25" s="18">
+        <f t="shared" ref="W25:X25" si="32">+W24+W23</f>
+        <v>1706</v>
+      </c>
+      <c r="X25" s="18">
+        <f t="shared" si="32"/>
+        <v>1739</v>
+      </c>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AP25" s="1">
+        <f>+AP23+AP24</f>
+        <v>3788.5</v>
+      </c>
+      <c r="AQ25" s="1">
+        <f t="shared" ref="AQ25:AS25" si="33">+AQ23+AQ24</f>
+        <v>4394.3999999999996</v>
+      </c>
+      <c r="AR25" s="1">
+        <f t="shared" si="33"/>
+        <v>5531.4</v>
+      </c>
+      <c r="AS25" s="1">
+        <f t="shared" si="33"/>
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18">
-        <f>40.4+25.3</f>
-        <v>65.7</v>
+        <f>+G22-G25</f>
+        <v>679.90000000000009</v>
       </c>
       <c r="H26" s="18">
-        <f>-50.2+7.9</f>
-        <v>-42.300000000000004</v>
+        <f>+H22-H25</f>
+        <v>804.60000000000014</v>
       </c>
       <c r="I26" s="18">
-        <v>-54.8</v>
+        <f t="shared" ref="I26:M26" si="34">+I22-I25</f>
+        <v>1251.7999999999997</v>
       </c>
       <c r="J26" s="18">
-        <v>57.6</v>
+        <f t="shared" si="34"/>
+        <v>904.19999999999982</v>
       </c>
       <c r="K26" s="18">
-        <f>40.5-14.6</f>
-        <v>25.9</v>
+        <f t="shared" si="34"/>
+        <v>1072.9000000000005</v>
       </c>
       <c r="L26" s="18">
-        <f>-14.4-31.3</f>
-        <v>-45.7</v>
+        <f t="shared" si="34"/>
+        <v>3316.1</v>
       </c>
       <c r="M26" s="18">
-        <v>-30.6</v>
+        <f t="shared" si="34"/>
+        <v>2245.9</v>
       </c>
       <c r="N26" s="18">
-        <f>15.8-136.3</f>
-        <v>-120.50000000000001</v>
+        <f>+N22-N25</f>
+        <v>3087.5999999999995</v>
       </c>
       <c r="O26" s="18">
-        <f>20.2-197.4</f>
-        <v>-177.20000000000002</v>
+        <f>+O22-O25</f>
+        <v>1266.8000000000004</v>
       </c>
       <c r="P26" s="18">
-        <f>-133.6-13.1-17.4</f>
-        <v>-164.1</v>
+        <f>+P22-P25</f>
+        <v>1304.5000000000002</v>
       </c>
       <c r="Q26" s="18">
-        <v>32.6</v>
+        <f>+Q22-Q25</f>
+        <v>1543.4</v>
       </c>
       <c r="R26" s="18">
-        <f>195.3-17.4-80.5</f>
-        <v>97.4</v>
-      </c>
-      <c r="AJ26" s="1">
-        <f t="shared" ref="AJ26" si="37">SUM(G26:J26)</f>
-        <v>26.200000000000003</v>
-      </c>
-      <c r="AK26" s="1">
-        <f t="shared" ref="AK26" si="38">SUM(K26:N26)</f>
-        <v>-170.90000000000003</v>
-      </c>
-      <c r="AL26" s="1">
-        <f t="shared" ref="AL26" si="39">SUM(O26:R26)</f>
-        <v>-211.29999999999998</v>
-      </c>
-      <c r="AM26" s="1">
-        <f t="shared" ref="AM26" si="40">SUM(S26:V26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+R22-R25</f>
+        <v>1328.1999999999998</v>
+      </c>
+      <c r="S26" s="18">
+        <f t="shared" ref="S26:V26" si="35">+S22-S25</f>
+        <v>1519</v>
+      </c>
+      <c r="T26" s="18">
+        <f t="shared" si="35"/>
+        <v>1459</v>
+      </c>
+      <c r="U26" s="18">
+        <f t="shared" si="35"/>
+        <v>2557.0765000000001</v>
+      </c>
+      <c r="V26" s="18">
+        <f t="shared" si="35"/>
+        <v>2399.6697750000003</v>
+      </c>
+      <c r="W26" s="18">
+        <f t="shared" ref="W26:X26" si="36">+W22-W25</f>
+        <v>1243</v>
+      </c>
+      <c r="X26" s="18">
+        <f t="shared" si="36"/>
+        <v>1594</v>
+      </c>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="18"/>
+      <c r="AB26" s="18"/>
+      <c r="AP26" s="1">
+        <f>+AP22-AP25</f>
+        <v>3640.5</v>
+      </c>
+      <c r="AQ26" s="1">
+        <f t="shared" ref="AQ26:AS26" si="37">+AQ22-AQ25</f>
+        <v>9722.5000000000018</v>
+      </c>
+      <c r="AR26" s="1">
+        <f t="shared" si="37"/>
+        <v>5442.9000000000015</v>
+      </c>
+      <c r="AS26" s="1">
+        <f t="shared" si="37"/>
+        <v>7934.7462749999995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18">
-        <f t="shared" ref="G27" si="41">G25+G26</f>
-        <v>745.60000000000014</v>
+        <f>40.4+25.3</f>
+        <v>65.7</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" ref="H27:R27" si="42">H25+H26</f>
-        <v>762.30000000000018</v>
+        <f>-50.2+7.9</f>
+        <v>-42.300000000000004</v>
       </c>
       <c r="I27" s="18">
-        <f t="shared" si="42"/>
-        <v>1196.9999999999998</v>
+        <v>-54.8</v>
       </c>
       <c r="J27" s="18">
-        <f t="shared" si="42"/>
-        <v>961.79999999999984</v>
+        <v>57.6</v>
       </c>
       <c r="K27" s="18">
-        <f t="shared" si="42"/>
-        <v>1098.8000000000006</v>
+        <f>40.5-14.6</f>
+        <v>25.9</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" si="42"/>
-        <v>3270.4</v>
+        <f>-14.4-31.3</f>
+        <v>-45.7</v>
       </c>
       <c r="M27" s="18">
-        <f t="shared" si="42"/>
-        <v>2215.3000000000002</v>
+        <v>-30.6</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="42"/>
-        <v>2967.0999999999995</v>
+        <f>15.8-136.3</f>
+        <v>-120.50000000000001</v>
       </c>
       <c r="O27" s="18">
-        <f t="shared" si="42"/>
-        <v>1089.6000000000004</v>
+        <f>20.2-197.4</f>
+        <v>-177.20000000000002</v>
       </c>
       <c r="P27" s="18">
-        <f t="shared" si="42"/>
-        <v>1140.4000000000003</v>
+        <f>-133.6-13.1-17.4</f>
+        <v>-164.1</v>
       </c>
       <c r="Q27" s="18">
-        <f t="shared" si="42"/>
-        <v>1576</v>
+        <v>32.6</v>
       </c>
       <c r="R27" s="18">
-        <f t="shared" si="42"/>
-        <v>1425.6</v>
-      </c>
-      <c r="S27" s="18">
-        <f t="shared" ref="S27" si="43">S25+S26</f>
-        <v>2553.2757000000011</v>
-      </c>
-      <c r="T27" s="18">
-        <f t="shared" ref="T27" si="44">T25+T26</f>
-        <v>2652.0007500000006</v>
-      </c>
-      <c r="U27" s="18">
-        <f t="shared" ref="U27" si="45">U25+U26</f>
-        <v>2664.5111874999998</v>
-      </c>
-      <c r="V27" s="18">
-        <f t="shared" ref="V27" si="46">V25+V26</f>
-        <v>2544.9881343750003</v>
-      </c>
-      <c r="AJ27" s="1">
-        <f>+AJ25+AJ26</f>
-        <v>3666.7</v>
-      </c>
-      <c r="AK27" s="1">
-        <f t="shared" ref="AK27:AM27" si="47">+AK25+AK26</f>
-        <v>9551.6000000000022</v>
-      </c>
-      <c r="AL27" s="1">
-        <f t="shared" si="47"/>
-        <v>5231.6000000000013</v>
-      </c>
-      <c r="AM27" s="1">
-        <f t="shared" si="47"/>
-        <v>10414.775771875</v>
-      </c>
-    </row>
-    <row r="28" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>195.3-17.4-80.5</f>
+        <v>97.4</v>
+      </c>
+      <c r="AP27" s="1">
+        <f t="shared" ref="AP27" si="38">SUM(G27:J27)</f>
+        <v>26.200000000000003</v>
+      </c>
+      <c r="AQ27" s="1">
+        <f t="shared" ref="AQ27" si="39">SUM(K27:N27)</f>
+        <v>-170.90000000000003</v>
+      </c>
+      <c r="AR27" s="1">
+        <f t="shared" ref="AR27" si="40">SUM(O27:R27)</f>
+        <v>-211.29999999999998</v>
+      </c>
+      <c r="AS27" s="1">
+        <f t="shared" ref="AS27" si="41">SUM(S27:V27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18">
-        <v>44</v>
+        <f t="shared" ref="G28" si="42">G26+G27</f>
+        <v>745.60000000000014</v>
       </c>
       <c r="H28" s="18">
-        <v>21.6</v>
+        <f t="shared" ref="H28:R28" si="43">H26+H27</f>
+        <v>762.30000000000018</v>
       </c>
       <c r="I28" s="18">
-        <v>156.19999999999999</v>
+        <f t="shared" si="43"/>
+        <v>1196.9999999999998</v>
       </c>
       <c r="J28" s="18">
-        <v>75.400000000000006</v>
+        <f t="shared" si="43"/>
+        <v>961.79999999999984</v>
       </c>
       <c r="K28" s="18">
-        <v>137.80000000000001</v>
+        <f t="shared" si="43"/>
+        <v>1098.8000000000006</v>
       </c>
       <c r="L28" s="18">
-        <v>653.9</v>
+        <f t="shared" si="43"/>
+        <v>3270.4</v>
       </c>
       <c r="M28" s="18">
-        <v>184.4</v>
+        <f t="shared" si="43"/>
+        <v>2215.3000000000002</v>
       </c>
       <c r="N28" s="18">
-        <v>274.39999999999998</v>
+        <f t="shared" si="43"/>
+        <v>2967.0999999999995</v>
       </c>
       <c r="O28" s="18">
-        <v>87.6</v>
+        <f t="shared" si="43"/>
+        <v>1089.6000000000004</v>
       </c>
       <c r="P28" s="18">
-        <v>111.1</v>
+        <f t="shared" si="43"/>
+        <v>1140.4000000000003</v>
       </c>
       <c r="Q28" s="18">
-        <v>194.1</v>
+        <f t="shared" si="43"/>
+        <v>1576</v>
       </c>
       <c r="R28" s="18">
-        <v>127.6</v>
+        <f t="shared" si="43"/>
+        <v>1425.6</v>
       </c>
       <c r="S28" s="18">
-        <f t="shared" ref="S28:V28" si="48">+S27*0.15</f>
-        <v>382.99135500000017</v>
+        <f t="shared" ref="S28" si="44">S26+S27</f>
+        <v>1519</v>
       </c>
       <c r="T28" s="18">
+        <f t="shared" ref="T28" si="45">T26+T27</f>
+        <v>1459</v>
+      </c>
+      <c r="U28" s="18">
+        <f t="shared" ref="U28" si="46">U26+U27</f>
+        <v>2557.0765000000001</v>
+      </c>
+      <c r="V28" s="18">
+        <f t="shared" ref="V28:X28" si="47">V26+V27</f>
+        <v>2399.6697750000003</v>
+      </c>
+      <c r="W28" s="18">
+        <f t="shared" si="47"/>
+        <v>1243</v>
+      </c>
+      <c r="X28" s="18">
+        <f t="shared" si="47"/>
+        <v>1594</v>
+      </c>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AP28" s="1">
+        <f>+AP26+AP27</f>
+        <v>3666.7</v>
+      </c>
+      <c r="AQ28" s="1">
+        <f t="shared" ref="AQ28:AS28" si="48">+AQ26+AQ27</f>
+        <v>9551.6000000000022</v>
+      </c>
+      <c r="AR28" s="1">
         <f t="shared" si="48"/>
-        <v>397.80011250000007</v>
-      </c>
-      <c r="U28" s="18">
+        <v>5231.6000000000013</v>
+      </c>
+      <c r="AS28" s="1">
         <f t="shared" si="48"/>
-        <v>399.67667812499997</v>
-      </c>
-      <c r="V28" s="18">
-        <f t="shared" si="48"/>
-        <v>381.74822015625006</v>
-      </c>
-      <c r="AJ28" s="1">
-        <f t="shared" ref="AJ28" si="49">SUM(G28:J28)</f>
-        <v>297.2</v>
-      </c>
-      <c r="AK28" s="1">
-        <f t="shared" ref="AK28" si="50">SUM(K28:N28)</f>
-        <v>1250.5</v>
-      </c>
-      <c r="AL28" s="1">
-        <f t="shared" ref="AL28" si="51">SUM(O28:R28)</f>
-        <v>520.4</v>
-      </c>
-      <c r="AM28" s="1">
-        <f t="shared" ref="AM28" si="52">SUM(S28:V28)</f>
-        <v>1562.21636578125</v>
-      </c>
-    </row>
-    <row r="29" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7934.7462749999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18">
-        <f t="shared" ref="G29" si="53">+G27-G28</f>
+        <v>44</v>
+      </c>
+      <c r="H29" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="I29" s="18">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="J29" s="18">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="K29" s="18">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="L29" s="18">
+        <v>653.9</v>
+      </c>
+      <c r="M29" s="18">
+        <v>184.4</v>
+      </c>
+      <c r="N29" s="18">
+        <v>274.39999999999998</v>
+      </c>
+      <c r="O29" s="18">
+        <v>87.6</v>
+      </c>
+      <c r="P29" s="18">
+        <v>111.1</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>194.1</v>
+      </c>
+      <c r="R29" s="18">
+        <v>127.6</v>
+      </c>
+      <c r="S29" s="18">
+        <f t="shared" ref="S29:V29" si="49">+S28*0.15</f>
+        <v>227.85</v>
+      </c>
+      <c r="T29" s="18">
+        <f t="shared" si="49"/>
+        <v>218.85</v>
+      </c>
+      <c r="U29" s="18">
+        <f t="shared" si="49"/>
+        <v>383.56147500000003</v>
+      </c>
+      <c r="V29" s="18">
+        <f t="shared" si="49"/>
+        <v>359.95046625000003</v>
+      </c>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AP29" s="1">
+        <f t="shared" ref="AP29" si="50">SUM(G29:J29)</f>
+        <v>297.2</v>
+      </c>
+      <c r="AQ29" s="1">
+        <f t="shared" ref="AQ29" si="51">SUM(K29:N29)</f>
+        <v>1250.5</v>
+      </c>
+      <c r="AR29" s="1">
+        <f t="shared" ref="AR29" si="52">SUM(O29:R29)</f>
+        <v>520.4</v>
+      </c>
+      <c r="AS29" s="1">
+        <f t="shared" ref="AS29" si="53">SUM(S29:V29)</f>
+        <v>1190.2119412500001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18">
+        <f t="shared" ref="G30" si="54">+G28-G29</f>
         <v>701.60000000000014</v>
       </c>
-      <c r="H29" s="18">
-        <f t="shared" ref="H29:R29" si="54">+H27-H28</f>
+      <c r="H30" s="18">
+        <f t="shared" ref="H30:R30" si="55">+H28-H29</f>
         <v>740.70000000000016</v>
       </c>
-      <c r="I29" s="18">
-        <f t="shared" si="54"/>
+      <c r="I30" s="18">
+        <f t="shared" si="55"/>
         <v>1040.7999999999997</v>
       </c>
-      <c r="J29" s="18">
-        <f t="shared" si="54"/>
+      <c r="J30" s="18">
+        <f t="shared" si="55"/>
         <v>886.39999999999986</v>
       </c>
-      <c r="K29" s="18">
-        <f t="shared" si="54"/>
+      <c r="K30" s="18">
+        <f t="shared" si="55"/>
         <v>961.00000000000068</v>
       </c>
-      <c r="L29" s="18">
-        <f t="shared" si="54"/>
+      <c r="L30" s="18">
+        <f t="shared" si="55"/>
         <v>2616.5</v>
       </c>
-      <c r="M29" s="18">
-        <f t="shared" si="54"/>
+      <c r="M30" s="18">
+        <f t="shared" si="55"/>
         <v>2030.9</v>
       </c>
-      <c r="N29" s="18">
-        <f t="shared" si="54"/>
+      <c r="N30" s="18">
+        <f t="shared" si="55"/>
         <v>2692.6999999999994</v>
       </c>
-      <c r="O29" s="18">
-        <f t="shared" si="54"/>
+      <c r="O30" s="18">
+        <f t="shared" si="55"/>
         <v>1002.0000000000003</v>
       </c>
-      <c r="P29" s="18">
-        <f t="shared" si="54"/>
+      <c r="P30" s="18">
+        <f t="shared" si="55"/>
         <v>1029.3000000000004</v>
       </c>
-      <c r="Q29" s="18">
-        <f t="shared" si="54"/>
+      <c r="Q30" s="18">
+        <f t="shared" si="55"/>
         <v>1381.9</v>
       </c>
-      <c r="R29" s="18">
-        <f t="shared" si="54"/>
+      <c r="R30" s="18">
+        <f t="shared" si="55"/>
         <v>1298</v>
       </c>
-      <c r="S29" s="18">
-        <f t="shared" ref="S29" si="55">+S27-S28</f>
-        <v>2170.2843450000009</v>
-      </c>
-      <c r="T29" s="18">
-        <f t="shared" ref="T29" si="56">+T27-T28</f>
-        <v>2254.2006375000005</v>
-      </c>
-      <c r="U29" s="18">
-        <f t="shared" ref="U29" si="57">+U27-U28</f>
-        <v>2264.8345093749999</v>
-      </c>
-      <c r="V29" s="18">
-        <f t="shared" ref="V29" si="58">+V27-V28</f>
-        <v>2163.2399142187501</v>
-      </c>
-      <c r="AJ29" s="1">
-        <f>+AJ27-AJ28</f>
+      <c r="S30" s="18">
+        <f t="shared" ref="S30" si="56">+S28-S29</f>
+        <v>1291.1500000000001</v>
+      </c>
+      <c r="T30" s="18">
+        <f t="shared" ref="T30" si="57">+T28-T29</f>
+        <v>1240.1500000000001</v>
+      </c>
+      <c r="U30" s="18">
+        <f t="shared" ref="U30" si="58">+U28-U29</f>
+        <v>2173.5150250000002</v>
+      </c>
+      <c r="V30" s="18">
+        <f t="shared" ref="V30:X30" si="59">+V28-V29</f>
+        <v>2039.7193087500002</v>
+      </c>
+      <c r="W30" s="18">
+        <f t="shared" si="59"/>
+        <v>1243</v>
+      </c>
+      <c r="X30" s="18">
+        <f t="shared" si="59"/>
+        <v>1594</v>
+      </c>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="18"/>
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AP30" s="1">
+        <f>+AP28-AP29</f>
         <v>3369.5</v>
       </c>
-      <c r="AK29" s="1">
-        <f t="shared" ref="AK29:AM29" si="59">+AK27-AK28</f>
+      <c r="AQ30" s="1">
+        <f t="shared" ref="AQ30:AS30" si="60">+AQ28-AQ29</f>
         <v>8301.1000000000022</v>
       </c>
-      <c r="AL29" s="1">
-        <f t="shared" si="59"/>
+      <c r="AR30" s="1">
+        <f t="shared" si="60"/>
         <v>4711.2000000000016</v>
       </c>
-      <c r="AM29" s="1">
-        <f t="shared" si="59"/>
-        <v>8852.5594060937492</v>
-      </c>
-    </row>
-    <row r="30" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+      <c r="AS30" s="1">
+        <f t="shared" si="60"/>
+        <v>6744.5343337499999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:45" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G30" s="19">
-        <f t="shared" ref="G30" si="60">+G29/G31</f>
+      <c r="G31" s="19">
+        <f t="shared" ref="G31" si="61">+G30/G32</f>
         <v>6.0955690703735899</v>
       </c>
-      <c r="H30" s="19">
-        <f t="shared" ref="H30:R30" si="61">+H29/H31</f>
+      <c r="H31" s="19">
+        <f t="shared" ref="H31:R31" si="62">+H30/H32</f>
         <v>6.2087175188600181</v>
       </c>
-      <c r="I30" s="19">
-        <f t="shared" si="61"/>
+      <c r="I31" s="19">
+        <f t="shared" si="62"/>
         <v>9.1378402107111469</v>
       </c>
-      <c r="J30" s="19">
-        <f t="shared" si="61"/>
+      <c r="J31" s="19">
+        <f t="shared" si="62"/>
         <v>7.900178253119428</v>
       </c>
-      <c r="K30" s="19">
-        <f t="shared" si="61"/>
+      <c r="K31" s="19">
+        <f t="shared" si="62"/>
         <v>8.5727029438001843</v>
       </c>
-      <c r="L30" s="19">
-        <f t="shared" si="61"/>
+      <c r="L31" s="19">
+        <f t="shared" si="62"/>
         <v>23.319964349376114</v>
       </c>
-      <c r="M30" s="19">
-        <f t="shared" si="61"/>
+      <c r="M31" s="19">
+        <f t="shared" si="62"/>
         <v>17.830553116769096</v>
       </c>
-      <c r="N30" s="19">
-        <f t="shared" si="61"/>
+      <c r="N31" s="19">
+        <f t="shared" si="62"/>
         <v>23.787102473498226</v>
       </c>
-      <c r="O30" s="19">
-        <f t="shared" si="61"/>
+      <c r="O31" s="19">
+        <f t="shared" si="62"/>
         <v>8.7358326068003507</v>
       </c>
-      <c r="P30" s="19">
-        <f t="shared" si="61"/>
+      <c r="P31" s="19">
+        <f t="shared" si="62"/>
         <v>8.9194107452339715</v>
       </c>
-      <c r="Q30" s="19">
-        <f t="shared" si="61"/>
+      <c r="Q31" s="19">
+        <f t="shared" si="62"/>
         <v>12.250886524822697</v>
       </c>
-      <c r="R30" s="19">
-        <f t="shared" si="61"/>
+      <c r="R31" s="19">
+        <f t="shared" si="62"/>
         <v>11.385964912280702</v>
       </c>
-      <c r="S30" s="19">
-        <f t="shared" ref="S30" si="62">+S29/S31</f>
-        <v>19.037581973684219</v>
-      </c>
-      <c r="T30" s="19">
-        <f t="shared" ref="T30" si="63">+T29/T31</f>
-        <v>19.773689802631583</v>
-      </c>
-      <c r="U30" s="19">
-        <f t="shared" ref="U30" si="64">+U29/U31</f>
-        <v>19.866969380482455</v>
-      </c>
-      <c r="V30" s="19">
-        <f t="shared" ref="V30" si="65">+V29/V31</f>
-        <v>18.975788721217107</v>
-      </c>
-      <c r="AJ30" s="25">
-        <f>+AJ29/AJ31</f>
+      <c r="S31" s="19">
+        <f t="shared" ref="S31" si="63">+S30/S32</f>
+        <v>11.325877192982457</v>
+      </c>
+      <c r="T31" s="19">
+        <f t="shared" ref="T31" si="64">+T30/T32</f>
+        <v>10.878508771929825</v>
+      </c>
+      <c r="U31" s="19">
+        <f t="shared" ref="U31" si="65">+U30/U32</f>
+        <v>19.065921271929827</v>
+      </c>
+      <c r="V31" s="19">
+        <f t="shared" ref="V31:X31" si="66">+V30/V32</f>
+        <v>17.892274638157897</v>
+      </c>
+      <c r="W31" s="19">
+        <f t="shared" si="66"/>
+        <v>10.903508771929825</v>
+      </c>
+      <c r="X31" s="19">
+        <f t="shared" si="66"/>
+        <v>13.982456140350877</v>
+      </c>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AP31" s="25">
+        <f>+AP30/AP32</f>
         <v>29.268186753528777</v>
       </c>
-      <c r="AK30" s="25">
-        <f t="shared" ref="AK30:AM30" si="66">+AK29/AK31</f>
+      <c r="AQ31" s="25">
+        <f t="shared" ref="AQ31:AS31" si="67">+AQ30/AQ32</f>
         <v>73.558706247230845</v>
       </c>
-      <c r="AL30" s="25">
-        <f t="shared" si="66"/>
+      <c r="AR31" s="25">
+        <f t="shared" si="67"/>
         <v>41.244911359159566</v>
       </c>
-      <c r="AM30" s="25">
-        <f t="shared" si="66"/>
-        <v>77.654029878015351</v>
-      </c>
-    </row>
-    <row r="31" spans="2:39" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+      <c r="AS31" s="25">
+        <f t="shared" si="67"/>
+        <v>59.162581875000001</v>
+      </c>
+    </row>
+    <row r="32" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18">
         <v>115.1</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H32" s="18">
         <v>119.3</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I32" s="18">
         <v>113.9</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J32" s="18">
         <v>112.2</v>
       </c>
-      <c r="K31" s="18">
+      <c r="K32" s="18">
         <v>112.1</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L32" s="18">
         <v>112.2</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M32" s="18">
         <v>113.9</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N32" s="18">
         <v>113.2</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O32" s="18">
         <v>114.7</v>
       </c>
-      <c r="P31" s="18">
+      <c r="P32" s="18">
         <v>115.4</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q32" s="18">
         <v>112.8</v>
       </c>
-      <c r="R31" s="18">
+      <c r="R32" s="18">
         <v>114</v>
       </c>
-      <c r="S31" s="18">
-        <f t="shared" ref="S31:V31" si="67">+R31</f>
+      <c r="S32" s="18">
+        <f t="shared" ref="S32:X32" si="68">+R32</f>
         <v>114</v>
       </c>
-      <c r="T31" s="18">
-        <f t="shared" si="67"/>
+      <c r="T32" s="18">
+        <f t="shared" si="68"/>
         <v>114</v>
       </c>
-      <c r="U31" s="18">
-        <f t="shared" si="67"/>
+      <c r="U32" s="18">
+        <f t="shared" si="68"/>
         <v>114</v>
       </c>
-      <c r="V31" s="18">
-        <f t="shared" si="67"/>
+      <c r="V32" s="18">
+        <f t="shared" si="68"/>
         <v>114</v>
       </c>
-      <c r="AJ31" s="1">
-        <f>AVERAGE(G31:J31)</f>
+      <c r="W32" s="18">
+        <f t="shared" si="68"/>
+        <v>114</v>
+      </c>
+      <c r="X32" s="18">
+        <f t="shared" si="68"/>
+        <v>114</v>
+      </c>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="18"/>
+      <c r="AA32" s="18"/>
+      <c r="AB32" s="18"/>
+      <c r="AP32" s="1">
+        <f>AVERAGE(G32:J32)</f>
         <v>115.12499999999999</v>
       </c>
-      <c r="AK31" s="1">
-        <f>AVERAGE(K31:N31)</f>
+      <c r="AQ32" s="1">
+        <f>AVERAGE(K32:N32)</f>
         <v>112.85000000000001</v>
       </c>
-      <c r="AL31" s="1">
-        <f>AVERAGE(O31:R31)</f>
+      <c r="AR32" s="1">
+        <f>AVERAGE(O32:R32)</f>
         <v>114.22500000000001</v>
       </c>
-      <c r="AM31" s="1">
-        <f>AVERAGE(S31:V31)</f>
+      <c r="AS32" s="1">
+        <f>AVERAGE(S32:V32)</f>
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="2:22" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="20" t="s">
+    <row r="34" spans="2:28" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="20" t="s">
         <v>249</v>
-      </c>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="51">
-        <f t="shared" ref="K33" si="68">K19/G19-1</f>
-        <v>0.38354665791488918</v>
-      </c>
-      <c r="L33" s="51">
-        <f t="shared" ref="L33" si="69">L19/H19-1</f>
-        <v>1.6321262101111507</v>
-      </c>
-      <c r="M33" s="51">
-        <f t="shared" ref="M33:O33" si="70">M19/I19-1</f>
-        <v>0.50531868515127765</v>
-      </c>
-      <c r="N33" s="51">
-        <f t="shared" si="70"/>
-        <v>1.153106926990477</v>
-      </c>
-      <c r="O33" s="51">
-        <f t="shared" si="70"/>
-        <v>0.17241242982525495</v>
-      </c>
-      <c r="P33" s="51">
-        <f>P19/L19-1</f>
-        <v>-0.44412010819857162</v>
-      </c>
-      <c r="Q33" s="51">
-        <f t="shared" ref="Q33:R33" si="71">Q19/M19-1</f>
-        <v>-0.14958440730979761</v>
-      </c>
-      <c r="R33" s="51">
-        <f>R19/N19-1</f>
-        <v>-0.31049177017065521</v>
-      </c>
-      <c r="S33" s="51">
-        <f t="shared" ref="S33" si="72">S19/O19-1</f>
-        <v>0.12526487944697373</v>
-      </c>
-      <c r="T33" s="51">
-        <f t="shared" ref="T33" si="73">T19/P19-1</f>
-        <v>0.21640731664624546</v>
-      </c>
-      <c r="U33" s="51">
-        <f t="shared" ref="U33" si="74">U19/Q19-1</f>
-        <v>0.18493967953957213</v>
-      </c>
-      <c r="V33" s="51">
-        <f t="shared" ref="V33" si="75">V19/R19-1</f>
-        <v>4.2079784936000841E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" s="52" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="20" t="s">
-        <v>257</v>
       </c>
       <c r="C34" s="50"/>
       <c r="D34" s="50"/>
@@ -5196,257 +5423,354 @@
       <c r="H34" s="50"/>
       <c r="I34" s="50"/>
       <c r="J34" s="50"/>
-      <c r="K34" s="49">
-        <f t="shared" ref="K34" si="76">+K3/G3-1</f>
+      <c r="K34" s="51">
+        <f t="shared" ref="K34" si="69">K20/G20-1</f>
+        <v>0.38354665791488918</v>
+      </c>
+      <c r="L34" s="51">
+        <f t="shared" ref="L34" si="70">L20/H20-1</f>
+        <v>1.6321262101111507</v>
+      </c>
+      <c r="M34" s="51">
+        <f t="shared" ref="M34:O34" si="71">M20/I20-1</f>
+        <v>0.50531868515127765</v>
+      </c>
+      <c r="N34" s="51">
+        <f t="shared" si="71"/>
+        <v>1.153106926990477</v>
+      </c>
+      <c r="O34" s="51">
+        <f t="shared" si="71"/>
+        <v>0.17241242982525495</v>
+      </c>
+      <c r="P34" s="51">
+        <f>P20/L20-1</f>
+        <v>-0.44412010819857162</v>
+      </c>
+      <c r="Q34" s="51">
+        <f t="shared" ref="Q34" si="72">Q20/M20-1</f>
+        <v>-0.14958440730979761</v>
+      </c>
+      <c r="R34" s="51">
+        <f>R20/N20-1</f>
+        <v>-0.31049177017065521</v>
+      </c>
+      <c r="S34" s="51">
+        <f t="shared" ref="S34" si="73">S20/O20-1</f>
+        <v>6.626201315123903E-2</v>
+      </c>
+      <c r="T34" s="51">
+        <f t="shared" ref="T34" si="74">T20/P20-1</f>
+        <v>0.10554874846840545</v>
+      </c>
+      <c r="U34" s="51">
+        <f t="shared" ref="U34" si="75">U20/Q20-1</f>
+        <v>0.14428722244925751</v>
+      </c>
+      <c r="V34" s="51">
+        <f t="shared" ref="V34:X34" si="76">V20/R20-1</f>
+        <v>-5.2137459359713478E-3</v>
+      </c>
+      <c r="W34" s="51">
+        <f t="shared" si="76"/>
+        <v>-5.3763440860215006E-3</v>
+      </c>
+      <c r="X34" s="51">
+        <f t="shared" si="76"/>
+        <v>0.12317922735908793</v>
+      </c>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+    </row>
+    <row r="35" spans="2:28" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="49">
+        <f t="shared" ref="K35" si="77">+K3/G3-1</f>
         <v>0.14931740614334466</v>
       </c>
-      <c r="L34" s="49">
-        <f t="shared" ref="L34" si="77">+L3/H3-1</f>
+      <c r="L35" s="49">
+        <f t="shared" ref="L35" si="78">+L3/H3-1</f>
         <v>0.2791741472172351</v>
       </c>
-      <c r="M34" s="49">
+      <c r="M35" s="49">
         <f>+M3/I3-1</f>
         <v>0.11760242792109254</v>
       </c>
-      <c r="N34" s="49">
-        <f t="shared" ref="N34:V34" si="78">+N3/J3-1</f>
+      <c r="N35" s="49">
+        <f t="shared" ref="N35:X35" si="79">+N3/J3-1</f>
         <v>0.15189873417721511</v>
       </c>
-      <c r="O34" s="49">
-        <f t="shared" si="78"/>
+      <c r="O35" s="49">
+        <f t="shared" si="79"/>
         <v>0.12694877505567925</v>
       </c>
-      <c r="P34" s="49">
-        <f t="shared" si="78"/>
+      <c r="P35" s="49">
+        <f t="shared" si="79"/>
         <v>0.13754385964912275</v>
       </c>
-      <c r="Q34" s="49">
-        <f t="shared" si="78"/>
+      <c r="Q35" s="49">
+        <f t="shared" si="79"/>
         <v>0.10590631364562109</v>
       </c>
-      <c r="R34" s="49">
+      <c r="R35" s="49">
         <f>+R3/N3-1</f>
         <v>-3.2967032967032961E-2</v>
       </c>
-      <c r="S34" s="49">
-        <f t="shared" si="78"/>
+      <c r="S35" s="49">
+        <f t="shared" si="79"/>
+        <v>-5.5335968379446654E-2</v>
+      </c>
+      <c r="T35" s="49">
+        <f t="shared" si="79"/>
+        <v>-7.464528069093157E-2</v>
+      </c>
+      <c r="U35" s="49">
+        <f t="shared" si="79"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T34" s="49">
-        <f t="shared" si="78"/>
+      <c r="V35" s="49">
+        <f t="shared" si="79"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="U34" s="49">
-        <f t="shared" si="78"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="V34" s="49">
-        <f t="shared" si="78"/>
-        <v>0.10000000000000009</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+      <c r="W35" s="49">
+        <f t="shared" si="79"/>
+        <v>-0.1617852161785216</v>
+      </c>
+      <c r="X35" s="49">
+        <f t="shared" si="79"/>
+        <v>-0.17933333333333334</v>
+      </c>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K35" s="49">
-        <f t="shared" ref="K35" si="79">K9/G9-1</f>
+      <c r="K36" s="49">
+        <f t="shared" ref="K36" si="80">K10/G10-1</f>
         <v>0.47752126366950209</v>
       </c>
-      <c r="L35" s="49">
-        <f t="shared" ref="L35" si="80">L9/H9-1</f>
+      <c r="L36" s="49">
+        <f t="shared" ref="L36" si="81">L10/H10-1</f>
         <v>0.6265328874024525</v>
       </c>
-      <c r="M35" s="49">
-        <f>M9/I9-1</f>
+      <c r="M36" s="49">
+        <f>M10/I10-1</f>
         <v>0.64675912821964343</v>
       </c>
-      <c r="N35" s="49">
-        <f t="shared" ref="N35:R35" si="81">N9/J9-1</f>
+      <c r="N36" s="49">
+        <f t="shared" ref="N36:Q36" si="82">N10/J10-1</f>
         <v>0.63323872595395758</v>
       </c>
-      <c r="O35" s="49">
-        <f t="shared" si="81"/>
+      <c r="O36" s="49">
+        <f t="shared" si="82"/>
         <v>0.72944078947368385</v>
       </c>
-      <c r="P35" s="49">
-        <f t="shared" si="81"/>
+      <c r="P36" s="49">
+        <f t="shared" si="82"/>
         <v>0.54786383367603375</v>
       </c>
-      <c r="Q35" s="49">
-        <f t="shared" si="81"/>
+      <c r="Q36" s="49">
+        <f t="shared" si="82"/>
         <v>0.22275696115503596</v>
       </c>
-      <c r="R35" s="49">
-        <f>R9/N9-1</f>
+      <c r="R36" s="49">
+        <f>R10/N10-1</f>
         <v>0.61401815022205053</v>
       </c>
-      <c r="S35" s="49">
-        <f t="shared" ref="S35" si="82">S9/O9-1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="T35" s="49">
-        <f t="shared" ref="T35" si="83">T9/P9-1</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="U35" s="49">
-        <f t="shared" ref="U35" si="84">U9/Q9-1</f>
+      <c r="S36" s="49">
+        <f t="shared" ref="S36" si="83">S10/O10-1</f>
+        <v>0.26485972420351889</v>
+      </c>
+      <c r="T36" s="49">
+        <f t="shared" ref="T36" si="84">T10/P10-1</f>
+        <v>0.39335793357933579</v>
+      </c>
+      <c r="U36" s="49">
+        <f t="shared" ref="U36" si="85">U10/Q10-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="V35" s="49">
-        <f t="shared" ref="V35" si="85">V9/R9-1</f>
+      <c r="V36" s="49">
+        <f t="shared" ref="V36:X36" si="86">V10/R10-1</f>
         <v>0.19999999999999996</v>
       </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+      <c r="W36" s="49">
+        <f t="shared" si="86"/>
+        <v>0.14035087719298245</v>
+      </c>
+      <c r="X36" s="49">
+        <f t="shared" si="86"/>
+        <v>0.21398305084745761</v>
+      </c>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B37" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K36" s="49">
-        <f t="shared" ref="K36" si="86">K13/G13-1</f>
+      <c r="K37" s="49">
+        <f t="shared" ref="K37" si="87">K14/G14-1</f>
         <v>0.47707602339181299</v>
       </c>
-      <c r="L36" s="49">
-        <f t="shared" ref="L36" si="87">L13/H13-1</f>
+      <c r="L37" s="49">
+        <f t="shared" ref="L37" si="88">L14/H14-1</f>
         <v>0.58624338624338623</v>
       </c>
-      <c r="M36" s="49">
-        <f>M13/I13-1</f>
+      <c r="M37" s="49">
+        <f>M14/I14-1</f>
         <v>0.55034495618124213</v>
       </c>
-      <c r="N36" s="49">
-        <f t="shared" ref="N36:R36" si="88">N13/J13-1</f>
+      <c r="N37" s="49">
+        <f t="shared" ref="N37:Q37" si="89">N14/J14-1</f>
         <v>0.51348122866894186</v>
       </c>
-      <c r="O36" s="49">
-        <f t="shared" si="88"/>
+      <c r="O37" s="49">
+        <f t="shared" si="89"/>
         <v>0.43352601156069359</v>
       </c>
-      <c r="P36" s="49">
-        <f t="shared" si="88"/>
+      <c r="P37" s="49">
+        <f t="shared" si="89"/>
         <v>0.39546364242828558</v>
       </c>
-      <c r="Q36" s="49">
-        <f t="shared" si="88"/>
+      <c r="Q37" s="49">
+        <f t="shared" si="89"/>
         <v>0.40122677250586314</v>
       </c>
-      <c r="R36" s="49">
-        <f>R13/N13-1</f>
+      <c r="R37" s="49">
+        <f>R14/N14-1</f>
         <v>0.38059533205547424</v>
       </c>
-      <c r="S36" s="49">
-        <f t="shared" ref="S36" si="89">S13/O13-1</f>
+      <c r="S37" s="49">
+        <f t="shared" ref="S37" si="90">S14/O14-1</f>
         <v>-1</v>
       </c>
-      <c r="T36" s="49">
-        <f t="shared" ref="T36" si="90">T13/P13-1</f>
+      <c r="T37" s="49">
+        <f t="shared" ref="T37" si="91">T14/P14-1</f>
+        <v>0.33349268572521273</v>
+      </c>
+      <c r="U37" s="49">
+        <f t="shared" ref="U37" si="92">U14/Q14-1</f>
         <v>-1</v>
       </c>
-      <c r="U36" s="49">
-        <f t="shared" ref="U36" si="91">U13/Q13-1</f>
+      <c r="V37" s="49">
+        <f t="shared" ref="V37:X37" si="93">V14/R14-1</f>
         <v>-1</v>
       </c>
-      <c r="V36" s="49">
-        <f t="shared" ref="V36" si="92">V13/R13-1</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+      <c r="W37" s="49" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X37" s="49">
+        <f t="shared" si="93"/>
+        <v>0.2749695274969528</v>
+      </c>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G38" s="49">
-        <f t="shared" ref="G38" si="93">+G21/G19</f>
+      <c r="G39" s="49">
+        <f t="shared" ref="G39" si="94">+G22/G20</f>
         <v>0.88113991904605626</v>
       </c>
-      <c r="H38" s="49">
-        <f t="shared" ref="H38:O38" si="94">+H21/H19</f>
+      <c r="H39" s="49">
+        <f t="shared" ref="H39:O39" si="95">+H22/H20</f>
         <v>0.863648004917277</v>
       </c>
-      <c r="I38" s="49">
-        <f t="shared" si="94"/>
+      <c r="I39" s="49">
+        <f t="shared" si="95"/>
         <v>0.94681314848722642</v>
       </c>
-      <c r="J38" s="49">
-        <f t="shared" si="94"/>
+      <c r="J39" s="49">
+        <f t="shared" si="95"/>
         <v>0.85237204852806892</v>
       </c>
-      <c r="K38" s="49">
-        <f t="shared" si="94"/>
+      <c r="K39" s="49">
+        <f t="shared" si="95"/>
         <v>0.87823199177670597</v>
       </c>
-      <c r="L38" s="49">
-        <f t="shared" si="94"/>
+      <c r="L39" s="49">
+        <f t="shared" si="95"/>
         <v>0.86500476774281432</v>
       </c>
-      <c r="M38" s="49">
-        <f t="shared" si="94"/>
+      <c r="M39" s="49">
+        <f t="shared" si="95"/>
         <v>0.93512699470010718</v>
       </c>
-      <c r="N38" s="49">
-        <f t="shared" si="94"/>
+      <c r="N39" s="49">
+        <f t="shared" si="95"/>
         <v>0.85259012420478653</v>
       </c>
-      <c r="O38" s="49">
-        <f t="shared" si="94"/>
+      <c r="O39" s="49">
+        <f t="shared" si="95"/>
         <v>0.86346315966953291</v>
       </c>
-      <c r="P38" s="49">
-        <f>+P21/P19</f>
+      <c r="P39" s="49">
+        <f>+P22/P20</f>
         <v>0.89599159810957474</v>
       </c>
-      <c r="Q38" s="49">
-        <f t="shared" ref="Q38:R38" si="95">+Q21/Q19</f>
+      <c r="Q39" s="49">
+        <f t="shared" ref="Q39" si="96">+Q22/Q20</f>
         <v>0.96287971665985561</v>
       </c>
-      <c r="R38" s="49">
-        <f>+R21/R19</f>
+      <c r="R39" s="49">
+        <f>+R22/R20</f>
         <v>0.88658797340441109</v>
       </c>
-      <c r="S38" s="49">
-        <f>+S21/S19</f>
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="T38" s="49">
-        <f>+T21/T19</f>
+      <c r="S39" s="49">
+        <f>+S22/S20</f>
+        <v>0.94686907020872868</v>
+      </c>
+      <c r="T39" s="49">
+        <f>+T22/T20</f>
+        <v>0.94838505383153893</v>
+      </c>
+      <c r="U39" s="49">
+        <f>+U22/U20</f>
         <v>0.9</v>
       </c>
-      <c r="U38" s="49">
-        <f>+U21/U19</f>
+      <c r="V39" s="49">
+        <f>+V22/V20</f>
         <v>0.9</v>
       </c>
-      <c r="V38" s="49">
-        <f>+V21/V19</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="45" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+      <c r="W39" s="49">
+        <f>+W22/W20</f>
+        <v>0.93767885532591411</v>
+      </c>
+      <c r="X39" s="49">
+        <f>+X22/X20</f>
+        <v>0.93966732449957713</v>
+      </c>
+      <c r="Y39" s="49"/>
+      <c r="Z39" s="49"/>
+      <c r="AA39" s="49"/>
+      <c r="AB39" s="49"/>
+    </row>
+    <row r="46" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18">
-        <f>3105.9+4636.4+6591.8</f>
-        <v>14334.099999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -5464,12 +5788,16 @@
       <c r="P46" s="18"/>
       <c r="Q46" s="18"/>
       <c r="R46" s="18">
-        <v>5328.7</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f>3105.9+4636.4+6591.8</f>
+        <v>14334.099999999999</v>
+      </c>
+      <c r="X46" s="1">
+        <v>17531</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -5487,12 +5815,12 @@
       <c r="P47" s="18"/>
       <c r="Q47" s="18"/>
       <c r="R47" s="18">
-        <v>2401.9</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>5328.7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -5510,12 +5838,12 @@
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
       <c r="R48" s="18">
-        <v>411.2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>2401.9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -5533,12 +5861,12 @@
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
       <c r="R49" s="18">
-        <v>3763</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>411.2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -5556,12 +5884,12 @@
       <c r="P50" s="18"/>
       <c r="Q50" s="18"/>
       <c r="R50" s="18">
-        <v>915.5</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -5579,12 +5907,12 @@
       <c r="P51" s="18"/>
       <c r="Q51" s="18"/>
       <c r="R51" s="18">
-        <v>1723.7</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>915.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -5602,12 +5930,12 @@
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
       <c r="R52" s="18">
-        <v>336.4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1723.7</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -5625,73 +5953,106 @@
       <c r="P53" s="18"/>
       <c r="Q53" s="18"/>
       <c r="R53" s="18">
-        <f>SUM(R45:R52)</f>
+        <v>336.4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18">
+        <f>SUM(R46:R53)</f>
         <v>29214.500000000004</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="X55" s="1"/>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="R55" s="18">
+      <c r="R56" s="18">
         <v>589.20000000000005</v>
       </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
+      <c r="X56" s="1"/>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B57" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="R56" s="18">
+      <c r="R57" s="18">
         <v>2074.1999999999998</v>
       </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
+      <c r="X57" s="1"/>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B58" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="R57" s="18">
+      <c r="R58" s="18">
         <f>477.9+69.8</f>
         <v>547.69999999999993</v>
       </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+      <c r="X58" s="1"/>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
         <v>29</v>
       </c>
-      <c r="R58" s="18">
+      <c r="R59" s="18">
         <v>1981.4</v>
       </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+      <c r="X59" s="1">
+        <v>1983.6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="R59" s="18">
+      <c r="R60" s="18">
         <v>720</v>
       </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="X60" s="1"/>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="R60" s="18">
+      <c r="R61" s="18">
         <v>638</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B62" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="R61" s="18">
+      <c r="R62" s="18">
         <v>22664</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
         <v>324</v>
       </c>
-      <c r="R62" s="18">
-        <f>SUM(R55:R61)</f>
+      <c r="R63" s="18">
+        <f>SUM(R56:R62)</f>
         <v>29214.5</v>
       </c>
     </row>
@@ -5711,19 +6072,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -5731,7 +6092,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -5739,7 +6100,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -5747,7 +6108,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -5755,32 +6116,32 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="13" t="s">
         <v>198</v>
       </c>
@@ -5801,25 +6162,25 @@
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="13.1640625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="9.1640625" style="2"/>
+    <col min="7" max="7" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="2"/>
+    <col min="9" max="9" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
@@ -5827,7 +6188,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -5835,7 +6196,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
@@ -5843,7 +6204,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
@@ -5851,7 +6212,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -5859,7 +6220,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
@@ -5867,7 +6228,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>134</v>
       </c>
@@ -5875,7 +6236,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
@@ -5883,32 +6244,32 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C11" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C16" s="2" t="s">
         <v>121</v>
       </c>
@@ -5925,7 +6286,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C17" s="2" t="s">
         <v>120</v>
       </c>
@@ -5948,7 +6309,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
         <v>118</v>
       </c>
@@ -5971,7 +6332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C19" s="2" t="s">
         <v>116</v>
       </c>
@@ -5994,7 +6355,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C20" s="2" t="s">
         <v>114</v>
       </c>
@@ -6017,7 +6378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G21" s="4" t="s">
         <v>111</v>
       </c>
@@ -6034,7 +6395,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G22" s="4" t="s">
         <v>110</v>
       </c>
@@ -6054,7 +6415,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G23" s="4" t="s">
         <v>105</v>
       </c>
@@ -6071,43 +6432,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C25" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C31" s="2" t="s">
         <v>120</v>
       </c>
@@ -6127,7 +6488,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C32" s="2" t="s">
         <v>118</v>
       </c>
@@ -6150,7 +6511,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C33" s="2" t="s">
         <v>116</v>
       </c>
@@ -6173,7 +6534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
@@ -6196,7 +6557,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G35" s="2" t="s">
         <v>112</v>
       </c>
@@ -6213,7 +6574,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G36" s="4" t="s">
         <v>111</v>
       </c>
@@ -6230,7 +6591,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G37" s="4" t="s">
         <v>110</v>
       </c>
@@ -6250,7 +6611,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G38" s="4" t="s">
         <v>105</v>
       </c>
@@ -6267,14 +6628,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G39" s="4"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C40" s="5" t="s">
         <v>104</v>
       </c>
@@ -6284,7 +6645,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
@@ -6294,7 +6655,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C42" s="2" t="s">
         <v>102</v>
       </c>
@@ -6304,7 +6665,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C43" s="2" t="s">
         <v>101</v>
       </c>
@@ -6314,14 +6675,14 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G44" s="4"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C45" s="5" t="s">
         <v>100</v>
       </c>
@@ -6331,7 +6692,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C46" s="2" t="s">
         <v>99</v>
       </c>
@@ -6341,7 +6702,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C47" s="2" t="s">
         <v>98</v>
       </c>
@@ -6351,7 +6712,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C48" s="2" t="s">
         <v>97</v>
       </c>
@@ -6361,7 +6722,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C49" s="2" t="s">
         <v>96</v>
       </c>
@@ -6371,7 +6732,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C50" s="2" t="s">
         <v>95</v>
       </c>
@@ -6381,7 +6742,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C51" s="2" t="s">
         <v>94</v>
       </c>
@@ -6391,7 +6752,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C52" s="2" t="s">
         <v>93</v>
       </c>
@@ -6401,7 +6762,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C53" s="2" t="s">
         <v>92</v>
       </c>
@@ -6411,7 +6772,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C54" s="2" t="s">
         <v>91</v>
       </c>
@@ -6421,57 +6782,57 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C56" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C57" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C59" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C60" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C61" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C62" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C64" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C65" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C66" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C68" s="2" t="s">
         <v>80</v>
       </c>
@@ -6492,21 +6853,21 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="2"/>
+    <col min="5" max="5" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
@@ -6514,7 +6875,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -6522,7 +6883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
@@ -6530,12 +6891,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
@@ -6543,83 +6904,83 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C13" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D19" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D23" s="2" t="s">
         <v>56</v>
       </c>
@@ -6630,7 +6991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C24" s="4" t="s">
         <v>53</v>
       </c>
@@ -6644,17 +7005,17 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
         <v>50</v>
       </c>
@@ -6675,16 +7036,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="12"/>
-    <col min="4" max="4" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="17.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="12"/>
+    <col min="4" max="4" width="10.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -6692,7 +7053,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>78</v>
@@ -6702,7 +7063,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>76</v>
@@ -6712,7 +7073,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>44</v>
@@ -6722,7 +7083,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>48</v>
@@ -6732,7 +7093,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
@@ -6740,7 +7101,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>45</v>
@@ -6750,7 +7111,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>134</v>
@@ -6760,7 +7121,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>66</v>
@@ -6768,12 +7129,12 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C11" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C12" s="12" t="s">
         <v>152</v>
       </c>
@@ -6781,7 +7142,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C13" s="12" t="s">
         <v>150</v>
       </c>
@@ -6795,7 +7156,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="12" t="s">
         <v>117</v>
       </c>
@@ -6812,7 +7173,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="12" t="s">
         <v>146</v>
       </c>
@@ -6829,7 +7190,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
         <v>145</v>
       </c>
@@ -6846,7 +7207,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>144</v>
       </c>
@@ -6863,27 +7224,27 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C19" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C20" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C22" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C23" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C24" s="12" t="s">
         <v>139</v>
       </c>
@@ -6904,19 +7265,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
@@ -6924,7 +7285,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -6932,7 +7293,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
@@ -6940,7 +7301,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
@@ -6948,7 +7309,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
@@ -6956,83 +7317,83 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C24" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C28" s="15" t="s">
         <v>157</v>
       </c>
@@ -7052,19 +7413,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -7072,7 +7433,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -7080,7 +7441,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -7088,7 +7449,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -7096,7 +7457,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
@@ -7104,7 +7465,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
@@ -7112,7 +7473,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
@@ -7120,52 +7481,52 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" s="12" t="s">
         <v>176</v>
       </c>
@@ -7184,19 +7545,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -7204,7 +7565,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -7212,7 +7573,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -7220,7 +7581,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -7228,7 +7589,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
@@ -7236,7 +7597,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
@@ -7244,32 +7605,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="12" t="s">
         <v>190</v>
       </c>

--- a/REGN.xlsx
+++ b/REGN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A292AAC9-8A5E-014D-AA19-32D0D0AE4A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9463ADE-66E8-7641-A86A-75643F6D7520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20640" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
+    <workbookView xWindow="3920" yWindow="-21100" windowWidth="31240" windowHeight="20640" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1576,14 +1576,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>18393</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>69193</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>18393</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>69193</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>98535</xdr:rowOff>
     </xdr:to>
@@ -1600,8 +1600,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11146221" y="0"/>
-          <a:ext cx="0" cy="14550259"/>
+          <a:off x="16833193" y="0"/>
+          <a:ext cx="0" cy="14792435"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1993,7 +1993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD5CF22-E8A9-4919-AD75-F071CE6857D9}">
   <dimension ref="B2:K47"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -2647,11 +2647,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BECB6-C670-4D66-9069-7BDB54779CF7}">
   <dimension ref="A1:BN63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="236" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O19" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="O42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W26" sqref="W26"/>
+      <selection pane="bottomRight" activeCell="X59" sqref="X59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2946,7 +2946,7 @@
         <v>1500</v>
       </c>
       <c r="U3" s="18">
-        <f t="shared" ref="S3:V3" si="1">+Q3*1.1</f>
+        <f t="shared" ref="U3:V3" si="1">+Q3*1.1</f>
         <v>1791.9</v>
       </c>
       <c r="V3" s="18">
@@ -4002,7 +4002,7 @@
         <v>377</v>
       </c>
       <c r="U17" s="18">
-        <f t="shared" ref="S17:V17" si="8">+Q17*1.01</f>
+        <f t="shared" ref="U17:V17" si="8">+Q17*1.01</f>
         <v>336.33</v>
       </c>
       <c r="V17" s="18">
@@ -4168,7 +4168,7 @@
         <v>69</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" ref="T19:V19" si="9">AVERAGE(Q19:T19)</f>
+        <f t="shared" ref="U19:V19" si="9">AVERAGE(Q19:T19)</f>
         <v>99.174999999999997</v>
       </c>
       <c r="V19" s="1">
@@ -4367,7 +4367,7 @@
         <v>163</v>
       </c>
       <c r="U21" s="18">
-        <f t="shared" ref="S21:V21" si="15">+U20-U22</f>
+        <f t="shared" ref="U21:V21" si="15">+U20-U22</f>
         <v>336.00849999999991</v>
       </c>
       <c r="V21" s="18">
@@ -4466,7 +4466,7 @@
         <v>2995</v>
       </c>
       <c r="U22" s="18">
-        <f t="shared" ref="S22:V22" si="22">+U20*0.9</f>
+        <f t="shared" ref="U22:V22" si="22">+U20*0.9</f>
         <v>3024.0765000000001</v>
       </c>
       <c r="V22" s="18">
@@ -4635,7 +4635,7 @@
         <v>562</v>
       </c>
       <c r="U24" s="18">
-        <f t="shared" ref="S24:V24" si="28">+Q24</f>
+        <f t="shared" ref="U24:V24" si="28">+Q24</f>
         <v>467</v>
       </c>
       <c r="V24" s="18">
@@ -5736,31 +5736,31 @@
         <v>0.96287971665985561</v>
       </c>
       <c r="R39" s="49">
-        <f>+R22/R20</f>
+        <f t="shared" ref="R39:X39" si="97">+R22/R20</f>
         <v>0.88658797340441109</v>
       </c>
       <c r="S39" s="49">
-        <f>+S22/S20</f>
+        <f t="shared" si="97"/>
         <v>0.94686907020872868</v>
       </c>
       <c r="T39" s="49">
-        <f>+T22/T20</f>
+        <f t="shared" si="97"/>
         <v>0.94838505383153893</v>
       </c>
       <c r="U39" s="49">
-        <f>+U22/U20</f>
+        <f t="shared" si="97"/>
         <v>0.9</v>
       </c>
       <c r="V39" s="49">
-        <f>+V22/V20</f>
+        <f t="shared" si="97"/>
         <v>0.9</v>
       </c>
       <c r="W39" s="49">
-        <f>+W22/W20</f>
+        <f t="shared" si="97"/>
         <v>0.93767885532591411</v>
       </c>
       <c r="X39" s="49">
-        <f>+X22/X20</f>
+        <f t="shared" si="97"/>
         <v>0.93966732449957713</v>
       </c>
       <c r="Y39" s="49"/>

--- a/REGN.xlsx
+++ b/REGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9463ADE-66E8-7641-A86A-75643F6D7520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0472CA17-B440-44EE-AB33-A98FA8276240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="-21100" windowWidth="31240" windowHeight="20640" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
+    <workbookView xWindow="-25665" yWindow="495" windowWidth="23865" windowHeight="19950" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <author>tc={E621A5CA-53E8-48F9-80F2-12D076620DD9}</author>
   </authors>
   <commentList>
-    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
+    <comment ref="AP31" authorId="0" shapeId="0" xr:uid="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -57,7 +57,7 @@
     NGNI 1080.2</t>
       </text>
     </comment>
-    <comment ref="N30" authorId="1" shapeId="0" xr:uid="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
+    <comment ref="AT31" authorId="1" shapeId="0" xr:uid="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="374">
   <si>
     <t>Nov. 11:  Eylea approved. Priced at $1,700/injection.</t>
   </si>
@@ -1221,11 +1221,122 @@
   <si>
     <t>Q425</t>
   </si>
+  <si>
+    <t>Q118</t>
+  </si>
+  <si>
+    <t>Q218</t>
+  </si>
+  <si>
+    <t>Q318</t>
+  </si>
+  <si>
+    <t>Q418</t>
+  </si>
+  <si>
+    <t>Q117</t>
+  </si>
+  <si>
+    <t>Q217</t>
+  </si>
+  <si>
+    <t>Q317</t>
+  </si>
+  <si>
+    <t>Q417</t>
+  </si>
+  <si>
+    <t>Q116</t>
+  </si>
+  <si>
+    <t>Q216</t>
+  </si>
+  <si>
+    <t>Q316</t>
+  </si>
+  <si>
+    <t>Q416</t>
+  </si>
+  <si>
+    <t>Q115</t>
+  </si>
+  <si>
+    <t>Q215</t>
+  </si>
+  <si>
+    <t>Q315</t>
+  </si>
+  <si>
+    <t>Q415</t>
+  </si>
+  <si>
+    <t>Q114</t>
+  </si>
+  <si>
+    <t>Q214</t>
+  </si>
+  <si>
+    <t>Q314</t>
+  </si>
+  <si>
+    <t>Q414</t>
+  </si>
+  <si>
+    <t>Q113</t>
+  </si>
+  <si>
+    <t>Q213</t>
+  </si>
+  <si>
+    <t>Q313</t>
+  </si>
+  <si>
+    <t>Q413</t>
+  </si>
+  <si>
+    <t>Q112</t>
+  </si>
+  <si>
+    <t>Q212</t>
+  </si>
+  <si>
+    <t>Q312</t>
+  </si>
+  <si>
+    <t>Q412</t>
+  </si>
+  <si>
+    <t>Q111</t>
+  </si>
+  <si>
+    <t>Q211</t>
+  </si>
+  <si>
+    <t>Q311</t>
+  </si>
+  <si>
+    <t>Q411</t>
+  </si>
+  <si>
+    <t>Founded: 1988</t>
+  </si>
+  <si>
+    <t>IPO: 1991</t>
+  </si>
+  <si>
+    <t>Eylea ROW</t>
+  </si>
+  <si>
+    <t>2,689</t>
+  </si>
+  <si>
+    <t>2,897</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -1291,7 +1402,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1301,6 +1412,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,7 +1556,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
@@ -1553,6 +1670,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1560,7 +1683,9 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{E14D3674-039E-4586-B983-DD274F8F7112}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0B1FE2AF-6D72-413E-A096-49C7B60FF58C}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1576,15 +1701,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>69193</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>69193</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>98535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1626,15 +1751,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>24962</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>24962</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1980,10 +2105,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J30" dT="2022-09-16T10:03:00.58" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
+  <threadedComment ref="AP31" dT="2022-09-16T10:03:00.58" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{CFF3BC2E-892D-4995-B558-D2A9395BF1AF}">
     <text>NGNI 1080.2</text>
   </threadedComment>
-  <threadedComment ref="N30" dT="2022-09-16T10:02:53.72" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
+  <threadedComment ref="AT31" dT="2022-09-16T10:02:53.72" personId="{6AE02F28-EECC-4040-93BD-26CB9CF8932E}" id="{E621A5CA-53E8-48F9-80F2-12D076620DD9}">
     <text>NGNI 2711.5</text>
   </threadedComment>
 </ThreadedComments>
@@ -1993,20 +2118,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD5CF22-E8A9-4919-AD75-F071CE6857D9}">
   <dimension ref="B2:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
-    </sheetView>
+    <sheetView zoomScale="137" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>49</v>
       </c>
@@ -2033,7 +2156,7 @@
       </c>
       <c r="K2" s="26"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
         <v>41</v>
       </c>
@@ -2062,7 +2185,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="34" t="s">
         <v>281</v>
       </c>
@@ -2086,7 +2209,7 @@
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
         <v>34</v>
       </c>
@@ -2111,7 +2234,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>244</v>
       </c>
@@ -2136,7 +2259,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="34" t="s">
         <v>282</v>
       </c>
@@ -2161,7 +2284,7 @@
         <v>122817.60000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
         <v>265</v>
       </c>
@@ -2179,7 +2302,7 @@
       <c r="I8" s="41"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
         <v>289</v>
       </c>
@@ -2195,7 +2318,7 @@
       <c r="I9" s="41"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
         <v>262</v>
       </c>
@@ -2217,7 +2340,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
@@ -2226,10 +2349,12 @@
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="24"/>
-      <c r="I11" s="41"/>
+      <c r="I11" s="41" t="s">
+        <v>369</v>
+      </c>
       <c r="J11" s="43"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
         <v>274</v>
       </c>
@@ -2244,8 +2369,11 @@
         <v>275</v>
       </c>
       <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="I12" s="41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
         <v>278</v>
       </c>
@@ -2259,7 +2387,7 @@
       </c>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
         <v>297</v>
       </c>
@@ -2275,7 +2403,7 @@
       </c>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
         <v>248</v>
       </c>
@@ -2291,7 +2419,7 @@
       </c>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="44" t="s">
         <v>24</v>
       </c>
@@ -2307,7 +2435,7 @@
       </c>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="44" t="s">
         <v>301</v>
       </c>
@@ -2321,7 +2449,7 @@
       </c>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="44" t="s">
         <v>273</v>
       </c>
@@ -2331,7 +2459,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="44" t="s">
         <v>286</v>
       </c>
@@ -2345,7 +2473,7 @@
       </c>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="44" t="s">
         <v>304</v>
       </c>
@@ -2359,7 +2487,7 @@
       </c>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="44" t="s">
         <v>294</v>
       </c>
@@ -2373,7 +2501,7 @@
       </c>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="44" t="s">
         <v>306</v>
       </c>
@@ -2385,7 +2513,7 @@
       </c>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="44" t="s">
         <v>308</v>
       </c>
@@ -2397,7 +2525,7 @@
       </c>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="44" t="s">
         <v>310</v>
       </c>
@@ -2411,7 +2539,7 @@
       </c>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="44" t="s">
         <v>291</v>
       </c>
@@ -2425,7 +2553,7 @@
       </c>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="54" t="s">
         <v>283</v>
       </c>
@@ -2439,14 +2567,14 @@
       </c>
       <c r="G26" s="45"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -2456,7 +2584,7 @@
       </c>
       <c r="G28" s="42"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
@@ -2466,7 +2594,7 @@
       </c>
       <c r="G29" s="42"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -2476,7 +2604,7 @@
       </c>
       <c r="G30" s="42"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -2486,7 +2614,7 @@
       </c>
       <c r="G31" s="42"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
@@ -2495,7 +2623,7 @@
       </c>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
       <c r="E33" s="42"/>
@@ -2504,7 +2632,7 @@
       </c>
       <c r="G33" s="42"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
       <c r="E34" s="42"/>
@@ -2513,7 +2641,7 @@
       </c>
       <c r="G34" s="42"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -2522,7 +2650,7 @@
       </c>
       <c r="G35" s="42"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
@@ -2531,7 +2659,7 @@
       </c>
       <c r="G36" s="42"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
@@ -2540,7 +2668,7 @@
       </c>
       <c r="G37" s="42"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
@@ -2549,7 +2677,7 @@
       </c>
       <c r="G38" s="42"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
@@ -2558,7 +2686,7 @@
       </c>
       <c r="G39" s="42"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
@@ -2567,7 +2695,7 @@
       </c>
       <c r="G40" s="42"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
@@ -2576,7 +2704,7 @@
       </c>
       <c r="G41" s="42"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
@@ -2585,7 +2713,7 @@
       </c>
       <c r="G42" s="42"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
@@ -2594,7 +2722,7 @@
       </c>
       <c r="G43" s="42"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
       <c r="E44" s="42"/>
@@ -2603,7 +2731,7 @@
       </c>
       <c r="G44" s="42"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C45" s="42"/>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
@@ -2612,7 +2740,7 @@
       </c>
       <c r="G45" s="42"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C46" s="42"/>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
@@ -2621,7 +2749,7 @@
       </c>
       <c r="G46" s="42"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C47" s="42"/>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
@@ -2645,342 +2773,520 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BECB6-C670-4D66-9069-7BDB54779CF7}">
-  <dimension ref="A1:BN63"/>
+  <dimension ref="A1:CT64"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O42" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X59" sqref="X59"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.1640625" style="17"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="8.85546875" style="17"/>
+    <col min="35" max="50" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
       <c r="C2" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="U2" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB2" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC2" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE2" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="AF2" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="AG2" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="AH2" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="AI2" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="AK2" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="AL2" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="AM2" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="AN2" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="AO2" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="AP2" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="AQ2" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="AR2" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="AS2" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="AT2" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="AU2" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="AV2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="AW2" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="AX2" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="AY2" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="AZ2" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="BA2" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="BB2" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="BC2" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="BD2" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="BE2" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="BF2" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="AA2" s="17" t="s">
+      <c r="BG2" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="BH2" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="AC2" s="17" t="s">
+      <c r="BI2" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="AD2" s="17" t="s">
+      <c r="BJ2" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AF2">
+      <c r="BL2">
         <v>2010</v>
       </c>
-      <c r="AG2">
-        <f>+AF2+1</f>
+      <c r="BM2">
+        <f>+BL2+1</f>
         <v>2011</v>
       </c>
-      <c r="AH2">
-        <f t="shared" ref="AH2:BN2" si="0">+AG2+1</f>
+      <c r="BN2">
+        <f t="shared" ref="BN2:CT2" si="0">+BM2+1</f>
         <v>2012</v>
       </c>
-      <c r="AI2">
+      <c r="BO2">
         <f t="shared" si="0"/>
         <v>2013</v>
       </c>
-      <c r="AJ2">
+      <c r="BP2">
         <f t="shared" si="0"/>
         <v>2014</v>
       </c>
-      <c r="AK2">
+      <c r="BQ2">
         <f t="shared" si="0"/>
         <v>2015</v>
       </c>
-      <c r="AL2">
+      <c r="BR2">
         <f t="shared" si="0"/>
         <v>2016</v>
       </c>
-      <c r="AM2">
+      <c r="BS2">
         <f t="shared" si="0"/>
         <v>2017</v>
       </c>
-      <c r="AN2">
+      <c r="BT2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AO2">
+      <c r="BU2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AP2">
+      <c r="BV2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AQ2">
+      <c r="BW2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AR2">
+      <c r="BX2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AS2">
+      <c r="BY2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AT2">
+      <c r="BZ2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AU2">
+      <c r="CA2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AV2">
+      <c r="CB2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AW2">
+      <c r="CC2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AX2">
+      <c r="CD2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AY2">
+      <c r="CE2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AZ2">
+      <c r="CF2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="BA2">
+      <c r="CG2">
         <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="BB2">
+      <c r="CH2">
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="BC2">
+      <c r="CI2">
         <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="BD2">
+      <c r="CJ2">
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="BE2">
+      <c r="CK2">
         <f t="shared" si="0"/>
         <v>2035</v>
       </c>
-      <c r="BF2">
+      <c r="CL2">
         <f t="shared" si="0"/>
         <v>2036</v>
       </c>
-      <c r="BG2">
+      <c r="CM2">
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-      <c r="BH2">
+      <c r="CN2">
         <f t="shared" si="0"/>
         <v>2038</v>
       </c>
-      <c r="BI2">
+      <c r="CO2">
         <f t="shared" si="0"/>
         <v>2039</v>
       </c>
-      <c r="BJ2">
+      <c r="CP2">
         <f t="shared" si="0"/>
         <v>2040</v>
       </c>
-      <c r="BK2">
+      <c r="CQ2">
         <f t="shared" si="0"/>
         <v>2041</v>
       </c>
-      <c r="BL2">
+      <c r="CR2">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
-      <c r="BM2">
+      <c r="CS2">
         <f t="shared" si="0"/>
         <v>2043</v>
       </c>
-      <c r="BN2">
+      <c r="CT2">
         <f t="shared" si="0"/>
         <v>2044</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="18">
-        <v>1074.0999999999999</v>
+        <v>0</v>
       </c>
       <c r="D3" s="18">
-        <v>1160</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>24.8</v>
+      </c>
       <c r="G3" s="18">
-        <v>1172</v>
+        <v>123.5</v>
       </c>
       <c r="H3" s="18">
-        <v>1114</v>
+        <v>194</v>
       </c>
       <c r="I3" s="18">
-        <v>1318</v>
+        <v>244.4</v>
       </c>
       <c r="J3" s="18">
-        <v>1343</v>
+        <f>837.9-I3-H3-G3</f>
+        <v>276</v>
       </c>
       <c r="K3" s="18">
-        <v>1347</v>
+        <v>313.89999999999998</v>
       </c>
       <c r="L3" s="18">
-        <v>1425</v>
+        <v>329.8</v>
       </c>
       <c r="M3" s="18">
-        <v>1473</v>
+        <v>363.1</v>
       </c>
       <c r="N3" s="18">
-        <v>1547</v>
-      </c>
-      <c r="O3" s="18">
-        <v>1518</v>
-      </c>
-      <c r="P3" s="18">
-        <v>1621</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>1629</v>
-      </c>
-      <c r="R3" s="18">
-        <v>1496</v>
-      </c>
-      <c r="S3" s="18">
-        <v>1434</v>
-      </c>
-      <c r="T3" s="18">
-        <v>1500</v>
-      </c>
-      <c r="U3" s="18">
-        <f t="shared" ref="U3:V3" si="1">+Q3*1.1</f>
-        <v>1791.9</v>
-      </c>
-      <c r="V3" s="18">
-        <f t="shared" si="1"/>
-        <v>1645.6000000000001</v>
-      </c>
-      <c r="W3" s="18">
-        <v>1202</v>
-      </c>
-      <c r="X3" s="18">
-        <v>1231</v>
-      </c>
+        <f>+BO3-M3-L3-K3</f>
+        <v>401.9</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
       <c r="AA3" s="18"/>
       <c r="AB3" s="18"/>
-      <c r="AP3" s="1">
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18">
+        <v>1074.0999999999999</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>1160</v>
+      </c>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18">
+        <v>1172</v>
+      </c>
+      <c r="AN3" s="18">
+        <v>1114</v>
+      </c>
+      <c r="AO3" s="18">
+        <v>1318</v>
+      </c>
+      <c r="AP3" s="18">
+        <v>1343</v>
+      </c>
+      <c r="AQ3" s="18">
+        <v>1347</v>
+      </c>
+      <c r="AR3" s="18">
+        <v>1425</v>
+      </c>
+      <c r="AS3" s="18">
+        <v>1473</v>
+      </c>
+      <c r="AT3" s="18">
+        <v>1547</v>
+      </c>
+      <c r="AU3" s="18">
+        <v>1518</v>
+      </c>
+      <c r="AV3" s="18">
+        <v>1621</v>
+      </c>
+      <c r="AW3" s="18">
+        <v>1629</v>
+      </c>
+      <c r="AX3" s="18">
+        <v>1496</v>
+      </c>
+      <c r="AY3" s="18">
+        <v>1434</v>
+      </c>
+      <c r="AZ3" s="18">
+        <v>1500</v>
+      </c>
+      <c r="BA3" s="18">
+        <f t="shared" ref="BA3:BB3" si="1">+AW3*1.1</f>
+        <v>1791.9</v>
+      </c>
+      <c r="BB3" s="18">
+        <f t="shared" si="1"/>
+        <v>1645.6000000000001</v>
+      </c>
+      <c r="BC3" s="18">
+        <v>1202</v>
+      </c>
+      <c r="BD3" s="18">
+        <v>1231</v>
+      </c>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="18"/>
+      <c r="BM3" s="1">
+        <f>SUM(C3:F3)</f>
+        <v>24.8</v>
+      </c>
+      <c r="BN3" s="1">
         <f>SUM(G3:J3)</f>
+        <v>837.9</v>
+      </c>
+      <c r="BO3" s="1">
+        <v>1408.7</v>
+      </c>
+      <c r="BP3" s="1">
+        <v>1736.4</v>
+      </c>
+      <c r="BQ3" s="1">
+        <v>2676</v>
+      </c>
+      <c r="BT3" s="1">
+        <v>4076.7</v>
+      </c>
+      <c r="BU3" s="1">
+        <v>4644.2</v>
+      </c>
+      <c r="BV3" s="1">
+        <f>SUM(AM3:AP3)</f>
         <v>4947</v>
       </c>
-      <c r="AQ3" s="1">
-        <f>SUM(K3:N3)</f>
+      <c r="BW3" s="1">
+        <f>SUM(AQ3:AT3)</f>
         <v>5792</v>
       </c>
-      <c r="AR3" s="1">
-        <f>SUM(O3:R3)</f>
+      <c r="BX3" s="1">
+        <f>SUM(AU3:AX3)</f>
         <v>6264</v>
       </c>
-      <c r="AS3" s="1">
-        <f>SUM(S3:V3)</f>
+      <c r="BY3" s="1">
+        <f>SUM(AY3:BB3)</f>
         <v>6371.5</v>
       </c>
     </row>
-    <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>328</v>
       </c>
@@ -3000,560 +3306,908 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
-      <c r="S4" s="18">
-        <v>0</v>
-      </c>
-      <c r="T4" s="18">
-        <v>0</v>
-      </c>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
-      <c r="W4" s="18">
-        <v>200</v>
-      </c>
-      <c r="X4" s="18">
-        <v>304</v>
-      </c>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
       <c r="Y4" s="18"/>
       <c r="Z4" s="18"/>
       <c r="AA4" s="18"/>
       <c r="AB4" s="18"/>
-    </row>
-    <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18">
+        <v>200</v>
+      </c>
+      <c r="BD4" s="18">
+        <v>304</v>
+      </c>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="18"/>
+    </row>
+    <row r="5" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="18">
-        <v>26.8</v>
-      </c>
-      <c r="D5" s="18">
-        <v>40.799999999999997</v>
-      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="18">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18">
+        <v>26.8</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="18">
         <v>61.7</v>
       </c>
-      <c r="H5" s="18">
+      <c r="AN5" s="18">
         <v>63.3</v>
       </c>
-      <c r="I5" s="18">
+      <c r="AO5" s="18">
         <v>72</v>
       </c>
-      <c r="J5" s="18">
+      <c r="AP5" s="18">
         <v>74</v>
       </c>
-      <c r="K5" s="18">
+      <c r="AQ5" s="18">
         <v>69</v>
       </c>
-      <c r="L5" s="18">
+      <c r="AR5" s="18">
         <v>78</v>
       </c>
-      <c r="M5" s="18">
+      <c r="AS5" s="18">
         <v>78</v>
       </c>
-      <c r="N5" s="18">
+      <c r="AT5" s="18">
         <v>81</v>
       </c>
-      <c r="O5" s="18">
+      <c r="AU5" s="18">
         <v>79</v>
       </c>
-      <c r="P5" s="18">
+      <c r="AV5" s="18">
         <v>91</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="AW5" s="18">
         <f>95+31</f>
         <v>126</v>
       </c>
-      <c r="R5" s="18">
+      <c r="AX5" s="18">
         <f>110+42</f>
         <v>152</v>
       </c>
-      <c r="S5" s="1">
+      <c r="AY5" s="1">
         <v>177</v>
       </c>
-      <c r="T5" s="1">
+      <c r="AZ5" s="1">
         <v>210</v>
       </c>
-      <c r="U5" s="1">
-        <f>+T5+5</f>
+      <c r="BA5" s="1">
+        <f>+AZ5+5</f>
         <v>215</v>
       </c>
-      <c r="V5" s="1">
-        <f>+U5+5</f>
+      <c r="BB5" s="1">
+        <f>+BA5+5</f>
         <v>220</v>
       </c>
-      <c r="W5" s="1">
+      <c r="BC5" s="1">
         <v>264</v>
       </c>
-      <c r="X5" s="1">
+      <c r="BD5" s="1">
         <v>297</v>
       </c>
-      <c r="AP5" s="1">
-        <f t="shared" ref="AP5:AP19" si="2">SUM(G5:J5)</f>
+      <c r="BT5" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>175.7</v>
+      </c>
+      <c r="BV5" s="1">
+        <f t="shared" ref="BV5:BV20" si="2">SUM(AM5:AP5)</f>
         <v>271</v>
       </c>
-      <c r="AQ5" s="1">
-        <f t="shared" ref="AQ5:AQ19" si="3">SUM(K5:N5)</f>
+      <c r="BW5" s="1">
+        <f t="shared" ref="BW5:BW20" si="3">SUM(AQ5:AT5)</f>
         <v>306</v>
       </c>
-      <c r="AR5" s="1">
-        <f t="shared" ref="AR5:AR19" si="4">SUM(O5:R5)</f>
+      <c r="BX5" s="1">
+        <f t="shared" ref="BX5:BX20" si="4">SUM(AU5:AX5)</f>
         <v>448</v>
       </c>
-      <c r="AS5" s="1">
-        <f t="shared" ref="AS5:AS19" si="5">SUM(S5:V5)</f>
+      <c r="BY5" s="1">
+        <f t="shared" ref="BY5:BY20" si="5">SUM(AY5:BB5)</f>
         <v>822</v>
       </c>
     </row>
-    <row r="6" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="18">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18">
-        <v>26.5</v>
-      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="18">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18">
         <v>0</v>
       </c>
-      <c r="H6" s="18">
+      <c r="AJ6" s="18">
+        <v>26.5</v>
+      </c>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="18">
         <v>47.2</v>
       </c>
-      <c r="I6" s="18">
+      <c r="AO6" s="18">
         <v>49</v>
       </c>
-      <c r="J6" s="18">
+      <c r="AP6" s="18">
         <v>55</v>
       </c>
-      <c r="K6" s="18">
+      <c r="AQ6" s="18">
         <v>43</v>
       </c>
-      <c r="L6" s="18">
+      <c r="AR6" s="18">
         <v>42</v>
       </c>
-      <c r="M6" s="18">
+      <c r="AS6" s="18">
         <v>45</v>
       </c>
-      <c r="N6" s="18">
+      <c r="AT6" s="18">
         <v>40</v>
       </c>
-      <c r="O6" s="18">
+      <c r="AU6" s="18">
         <v>34</v>
       </c>
-      <c r="P6" s="18">
+      <c r="AV6" s="18">
         <v>31</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="AW6" s="18">
         <v>30</v>
       </c>
-      <c r="R6" s="18">
+      <c r="AX6" s="18">
         <v>36</v>
       </c>
-      <c r="S6" s="1">
+      <c r="AY6" s="1">
         <v>40</v>
       </c>
-      <c r="T6" s="1">
+      <c r="AZ6" s="1">
         <v>41</v>
       </c>
-      <c r="U6" s="1">
-        <f>+T6+1</f>
+      <c r="BA6" s="1">
+        <f>+AZ6+1</f>
         <v>42</v>
       </c>
-      <c r="V6" s="1">
-        <f>+U6+1</f>
+      <c r="BB6" s="1">
+        <f>+BA6+1</f>
         <v>43</v>
       </c>
-      <c r="W6" s="1">
+      <c r="BC6" s="1">
         <v>70</v>
       </c>
-      <c r="X6" s="1">
+      <c r="BD6" s="1">
         <v>56</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="BT6" s="1">
+        <v>181.3</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>126</v>
+      </c>
+      <c r="BV6" s="1">
         <f t="shared" si="2"/>
         <v>151.19999999999999</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="BW6" s="1">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="AR6" s="1">
+      <c r="BX6" s="1">
         <f t="shared" si="4"/>
         <v>131</v>
       </c>
-      <c r="AS6" s="1">
+      <c r="BY6" s="1">
         <f t="shared" si="5"/>
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="18">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0</v>
-      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
-        <v>40</v>
-      </c>
-      <c r="J7" s="18">
-        <v>146</v>
-      </c>
-      <c r="K7" s="18">
-        <v>262</v>
-      </c>
-      <c r="L7" s="18">
-        <v>2591</v>
-      </c>
-      <c r="M7" s="18">
-        <v>677</v>
-      </c>
-      <c r="N7" s="18">
-        <v>2298</v>
-      </c>
-      <c r="O7" s="18">
-        <v>0</v>
-      </c>
-      <c r="P7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18">
-        <v>3</v>
-      </c>
-      <c r="R7" s="18">
-        <v>0</v>
-      </c>
-      <c r="S7" s="18">
-        <v>2</v>
-      </c>
-      <c r="T7" s="18">
-        <v>2</v>
-      </c>
-      <c r="U7" s="18">
-        <f>+T7</f>
-        <v>2</v>
-      </c>
-      <c r="V7" s="18">
-        <f>+U7</f>
-        <v>2</v>
-      </c>
-      <c r="W7" s="18">
-        <v>1</v>
-      </c>
-      <c r="X7" s="18">
-        <v>0</v>
-      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18"/>
-      <c r="AP7" s="1">
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AI7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="18">
+        <v>40</v>
+      </c>
+      <c r="AP7" s="18">
+        <v>146</v>
+      </c>
+      <c r="AQ7" s="18">
+        <v>262</v>
+      </c>
+      <c r="AR7" s="18">
+        <v>2591</v>
+      </c>
+      <c r="AS7" s="18">
+        <v>677</v>
+      </c>
+      <c r="AT7" s="18">
+        <v>2298</v>
+      </c>
+      <c r="AU7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="18">
+        <v>3</v>
+      </c>
+      <c r="AX7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="18">
+        <v>2</v>
+      </c>
+      <c r="AZ7" s="18">
+        <v>2</v>
+      </c>
+      <c r="BA7" s="18">
+        <f>+AZ7</f>
+        <v>2</v>
+      </c>
+      <c r="BB7" s="18">
+        <f>+BA7</f>
+        <v>2</v>
+      </c>
+      <c r="BC7" s="18">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="18"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
+      <c r="BT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="1">
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="BW7" s="1">
         <f t="shared" si="3"/>
         <v>5828</v>
       </c>
-      <c r="AR7" s="1">
+      <c r="BX7" s="1">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="AS7" s="1">
+      <c r="BY7" s="1">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="18">
-        <v>0</v>
-      </c>
-      <c r="D8" s="18">
-        <v>0</v>
-      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="18">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="18"/>
+      <c r="AB8" s="18"/>
+      <c r="AC8" s="18"/>
+      <c r="AD8" s="18"/>
+      <c r="AE8" s="18"/>
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18">
         <v>0</v>
       </c>
-      <c r="H8" s="18">
+      <c r="AJ8" s="18">
         <v>0</v>
       </c>
-      <c r="I8" s="18">
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18">
         <v>0</v>
       </c>
-      <c r="J8" s="18">
+      <c r="AN8" s="18">
         <v>0</v>
       </c>
-      <c r="K8" s="18">
+      <c r="AO8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="18">
         <v>1</v>
       </c>
-      <c r="L8" s="18">
+      <c r="AR8" s="18">
         <v>2</v>
       </c>
-      <c r="M8" s="18">
+      <c r="AS8" s="18">
         <v>7</v>
       </c>
-      <c r="N8" s="18">
+      <c r="AT8" s="18">
         <v>9</v>
       </c>
-      <c r="O8" s="18">
+      <c r="AU8" s="18">
         <v>8</v>
       </c>
-      <c r="P8" s="18">
+      <c r="AV8" s="18">
         <v>11</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="AW8" s="18">
         <v>14</v>
       </c>
-      <c r="R8" s="18">
+      <c r="AX8" s="18">
         <v>15</v>
       </c>
-      <c r="S8" s="1">
+      <c r="AY8" s="1">
         <v>15</v>
       </c>
-      <c r="T8" s="1">
+      <c r="AZ8" s="1">
         <v>19</v>
       </c>
-      <c r="U8" s="1">
-        <f>+T8+1</f>
+      <c r="BA8" s="1">
+        <f>+AZ8+1</f>
         <v>20</v>
       </c>
-      <c r="V8" s="1">
-        <f>+U8+1</f>
+      <c r="BB8" s="1">
+        <f>+BA8+1</f>
         <v>21</v>
       </c>
-      <c r="W8" s="1">
+      <c r="BC8" s="1">
         <v>24</v>
       </c>
-      <c r="X8" s="1">
+      <c r="BD8" s="1">
         <v>31</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="BT8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="BW8" s="1">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="AR8" s="1">
+      <c r="BX8" s="1">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="BY8" s="1">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>239</v>
       </c>
       <c r="C9" s="18">
-        <v>3.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D9" s="18">
-        <v>4.2</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="E9" s="18">
+        <v>5.5</v>
+      </c>
+      <c r="F9" s="18">
+        <f>19.9-E9-D9-C9</f>
+        <v>4.9609999999999985</v>
+      </c>
       <c r="G9" s="18">
-        <v>3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H9" s="18">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="I9" s="18">
-        <v>3</v>
+        <v>4.8</v>
       </c>
       <c r="J9" s="18">
+        <f>20.2-I9-H9-G9</f>
+        <v>5.4999999999999982</v>
+      </c>
+      <c r="K9" s="18">
+        <v>4.8</v>
+      </c>
+      <c r="L9" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M9" s="18">
         <v>4</v>
       </c>
-      <c r="K9" s="18">
-        <v>3</v>
-      </c>
-      <c r="L9" s="18">
-        <v>0</v>
-      </c>
-      <c r="M9" s="18">
-        <v>0</v>
-      </c>
       <c r="N9" s="18">
-        <v>0</v>
-      </c>
-      <c r="O9" s="18">
-        <v>0</v>
-      </c>
-      <c r="P9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="18">
-        <v>0</v>
-      </c>
-      <c r="R9" s="18">
-        <v>0</v>
-      </c>
-      <c r="S9" s="18">
-        <v>0</v>
-      </c>
-      <c r="T9" s="18">
-        <v>0</v>
-      </c>
-      <c r="U9" s="18">
-        <v>0</v>
-      </c>
-      <c r="V9" s="18">
-        <v>0</v>
-      </c>
-      <c r="W9" s="18">
-        <v>0</v>
-      </c>
+        <f t="shared" ref="N9:N10" si="6">+BO9-M9-L9-K9</f>
+        <v>4.200000000000002</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
       <c r="X9" s="18"/>
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
-      <c r="AP9" s="1">
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18"/>
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18"/>
+      <c r="AI9" s="18">
+        <v>3.5</v>
+      </c>
+      <c r="AJ9" s="18">
+        <v>4.2</v>
+      </c>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="18">
+        <v>3</v>
+      </c>
+      <c r="AN9" s="18">
+        <v>2.7</v>
+      </c>
+      <c r="AO9" s="18">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="18">
+        <v>4</v>
+      </c>
+      <c r="AQ9" s="18">
+        <v>3</v>
+      </c>
+      <c r="AR9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="18">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18"/>
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BL9" s="1">
+        <v>25.254000000000001</v>
+      </c>
+      <c r="BM9" s="1">
+        <f>SUM(C9:F9)</f>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="BN9" s="1">
+        <f>SUM(G9:J9)</f>
+        <v>20.199999999999996</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="BV9" s="1">
         <f t="shared" si="2"/>
         <v>12.7</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="BW9" s="1">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="AR9" s="1">
+      <c r="BX9" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AS9" s="1">
+      <c r="BY9" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="18">
-        <f t="shared" ref="C10:D10" si="6">SUM(C11:C13)</f>
-        <v>0</v>
+        <v>85.328999999999994</v>
       </c>
       <c r="D10" s="18">
+        <v>84.445999999999998</v>
+      </c>
+      <c r="E10" s="18">
+        <v>79.8</v>
+      </c>
+      <c r="F10" s="18">
+        <f>326.6-E10-D10-C10</f>
+        <v>77.02500000000002</v>
+      </c>
+      <c r="G10" s="18">
+        <v>85.004999999999995</v>
+      </c>
+      <c r="H10" s="18">
+        <v>88.988</v>
+      </c>
+      <c r="I10" s="18">
+        <v>145</v>
+      </c>
+      <c r="J10" s="18">
+        <f>423.8-I10-H10-G10</f>
+        <v>104.80700000000002</v>
+      </c>
+      <c r="K10" s="18">
+        <v>99.272999999999996</v>
+      </c>
+      <c r="L10" s="18">
+        <v>85.528999999999996</v>
+      </c>
+      <c r="M10" s="18">
+        <v>134.35900000000001</v>
+      </c>
+      <c r="N10" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18">
-        <f t="shared" ref="G10:M10" si="7">SUM(G11:G13)</f>
-        <v>246.9</v>
-      </c>
-      <c r="H10" s="18">
-        <f t="shared" si="7"/>
-        <v>269.10000000000002</v>
-      </c>
-      <c r="I10" s="18">
-        <f t="shared" si="7"/>
-        <v>353.3</v>
-      </c>
-      <c r="J10" s="18">
-        <f t="shared" si="7"/>
-        <v>317.10000000000002</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="7"/>
-        <v>364.80000000000007</v>
-      </c>
-      <c r="L10" s="18">
-        <f t="shared" si="7"/>
-        <v>437.7</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" si="7"/>
-        <v>581.80000000000007</v>
-      </c>
-      <c r="N10" s="18">
-        <f>SUM(N11:N13)</f>
-        <v>517.9</v>
-      </c>
-      <c r="O10" s="18">
-        <f>SUM(O11:O13)</f>
-        <v>630.9</v>
-      </c>
-      <c r="P10" s="18">
-        <f>SUM(P11:P13)</f>
-        <v>677.5</v>
-      </c>
-      <c r="Q10" s="18">
-        <f>SUM(Q11:Q13)</f>
-        <v>711.4</v>
-      </c>
-      <c r="R10" s="18">
-        <f>SUM(R11:R13)</f>
-        <v>835.9</v>
-      </c>
-      <c r="S10" s="18">
-        <v>798</v>
-      </c>
-      <c r="T10" s="18">
-        <v>944</v>
-      </c>
-      <c r="U10" s="18">
-        <f>+Q10*1.2</f>
-        <v>853.68</v>
-      </c>
-      <c r="V10" s="18">
-        <f>+R10*1.2</f>
-        <v>1003.0799999999999</v>
-      </c>
-      <c r="W10" s="18">
-        <v>910</v>
-      </c>
-      <c r="X10" s="18">
-        <v>1146</v>
-      </c>
+        <v>110.93899999999999</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
-      <c r="AP10" s="1">
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+      <c r="AI10" s="18">
+        <f t="shared" ref="AI10:AJ10" si="7">SUM(AI11:AI13)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18">
+        <f t="shared" ref="AM10:AS10" si="8">SUM(AM11:AM13)</f>
+        <v>246.9</v>
+      </c>
+      <c r="AN10" s="18">
+        <f t="shared" si="8"/>
+        <v>269.10000000000002</v>
+      </c>
+      <c r="AO10" s="18">
+        <f t="shared" si="8"/>
+        <v>353.3</v>
+      </c>
+      <c r="AP10" s="18">
+        <f t="shared" si="8"/>
+        <v>317.10000000000002</v>
+      </c>
+      <c r="AQ10" s="18">
+        <f t="shared" si="8"/>
+        <v>364.80000000000007</v>
+      </c>
+      <c r="AR10" s="18">
+        <f t="shared" si="8"/>
+        <v>437.7</v>
+      </c>
+      <c r="AS10" s="18">
+        <f t="shared" si="8"/>
+        <v>581.80000000000007</v>
+      </c>
+      <c r="AT10" s="18">
+        <f>SUM(AT11:AT13)</f>
+        <v>517.9</v>
+      </c>
+      <c r="AU10" s="18">
+        <f>SUM(AU11:AU13)</f>
+        <v>630.9</v>
+      </c>
+      <c r="AV10" s="18">
+        <f>SUM(AV11:AV13)</f>
+        <v>677.5</v>
+      </c>
+      <c r="AW10" s="18">
+        <f>SUM(AW11:AW13)</f>
+        <v>711.4</v>
+      </c>
+      <c r="AX10" s="18">
+        <f>SUM(AX11:AX13)</f>
+        <v>835.9</v>
+      </c>
+      <c r="AY10" s="18">
+        <v>798</v>
+      </c>
+      <c r="AZ10" s="18">
+        <v>944</v>
+      </c>
+      <c r="BA10" s="18">
+        <f>+AW10*1.2</f>
+        <v>853.68</v>
+      </c>
+      <c r="BB10" s="18">
+        <f>+AX10*1.2</f>
+        <v>1003.0799999999999</v>
+      </c>
+      <c r="BC10" s="18">
+        <v>910</v>
+      </c>
+      <c r="BD10" s="18">
+        <v>1146</v>
+      </c>
+      <c r="BE10" s="18"/>
+      <c r="BF10" s="18"/>
+      <c r="BG10" s="18"/>
+      <c r="BH10" s="18"/>
+      <c r="BL10" s="1">
+        <v>311.33199999999999</v>
+      </c>
+      <c r="BM10" s="1">
+        <f>SUM(C10:F10)</f>
+        <v>326.60000000000002</v>
+      </c>
+      <c r="BN10" s="1">
+        <f>SUM(G10:J10)</f>
+        <v>423.8</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>430.1</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>541.29999999999995</v>
+      </c>
+      <c r="BQ10" s="1">
+        <v>758.9</v>
+      </c>
+      <c r="BV10" s="1">
         <f t="shared" si="2"/>
         <v>1186.4000000000001</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="BW10" s="1">
         <f t="shared" si="3"/>
         <v>1902.2000000000003</v>
       </c>
-      <c r="AR10" s="1">
+      <c r="BX10" s="1">
         <f t="shared" si="4"/>
         <v>2855.7000000000003</v>
       </c>
-      <c r="AS10" s="1">
+      <c r="BY10" s="1">
         <f t="shared" si="5"/>
         <v>3598.7599999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>233</v>
       </c>
@@ -3561,60 +4215,92 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="18">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18">
         <v>170.9</v>
       </c>
-      <c r="H11" s="18">
+      <c r="AN11" s="18">
         <v>171.9</v>
       </c>
-      <c r="I11" s="18">
+      <c r="AO11" s="18">
         <v>212.8</v>
       </c>
-      <c r="J11" s="18">
+      <c r="AP11" s="18">
         <v>229.6</v>
       </c>
-      <c r="K11" s="18">
+      <c r="AQ11" s="18">
         <v>260.60000000000002</v>
       </c>
-      <c r="L11" s="18">
+      <c r="AR11" s="18">
         <v>327.60000000000002</v>
       </c>
-      <c r="M11" s="18">
+      <c r="AS11" s="18">
         <v>387</v>
       </c>
-      <c r="N11" s="18">
+      <c r="AT11" s="18">
         <v>387.8</v>
       </c>
-      <c r="O11" s="18">
+      <c r="AU11" s="18">
         <v>415.3</v>
       </c>
-      <c r="P11" s="18">
+      <c r="AV11" s="18">
         <v>496.6</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="AW11" s="18">
         <v>551.1</v>
       </c>
-      <c r="R11" s="18">
+      <c r="AX11" s="18">
         <v>619</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="BV11" s="1">
         <f t="shared" si="2"/>
         <v>785.2</v>
       </c>
-      <c r="AQ11" s="1">
+      <c r="BW11" s="1">
         <f t="shared" si="3"/>
         <v>1363</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="BX11" s="1">
         <f t="shared" si="4"/>
         <v>2082</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="BY11" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>234</v>
       </c>
@@ -3622,60 +4308,92 @@
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="18">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="18"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+      <c r="AI12" s="18"/>
+      <c r="AJ12" s="18"/>
+      <c r="AK12" s="18"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="18">
         <v>80.099999999999994</v>
       </c>
-      <c r="H12" s="18">
+      <c r="AN12" s="18">
         <v>100.6</v>
       </c>
-      <c r="I12" s="18">
+      <c r="AO12" s="18">
         <v>94.3</v>
       </c>
-      <c r="J12" s="18">
+      <c r="AP12" s="18">
         <v>93</v>
       </c>
-      <c r="K12" s="18">
+      <c r="AQ12" s="18">
         <v>105.6</v>
       </c>
-      <c r="L12" s="18">
+      <c r="AR12" s="18">
         <v>110.9</v>
       </c>
-      <c r="M12" s="18">
+      <c r="AS12" s="18">
         <v>144.69999999999999</v>
       </c>
-      <c r="N12" s="18">
+      <c r="AT12" s="18">
         <v>127.6</v>
       </c>
-      <c r="O12" s="18">
+      <c r="AU12" s="18">
         <v>160.80000000000001</v>
       </c>
-      <c r="P12" s="18">
+      <c r="AV12" s="18">
         <v>145.5</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="AW12" s="18">
         <v>160.5</v>
       </c>
-      <c r="R12" s="18">
+      <c r="AX12" s="18">
         <v>166.9</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="BV12" s="1">
         <f t="shared" si="2"/>
         <v>368</v>
       </c>
-      <c r="AQ12" s="1">
+      <c r="BW12" s="1">
         <f t="shared" si="3"/>
         <v>488.79999999999995</v>
       </c>
-      <c r="AR12" s="1">
+      <c r="BX12" s="1">
         <f t="shared" si="4"/>
         <v>633.70000000000005</v>
       </c>
-      <c r="AS12" s="1">
+      <c r="BY12" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>235</v>
       </c>
@@ -3683,1810 +4401,3205 @@
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="18">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="X13" s="18"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18"/>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+      <c r="AI13" s="18"/>
+      <c r="AJ13" s="18"/>
+      <c r="AK13" s="18"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="18">
         <f>-6.2+2.1</f>
         <v>-4.0999999999999996</v>
       </c>
-      <c r="H13" s="18">
+      <c r="AN13" s="18">
         <f>-6.4+3</f>
         <v>-3.4000000000000004</v>
       </c>
-      <c r="I13" s="18">
+      <c r="AO13" s="18">
         <f>50-4.7+0.9</f>
         <v>46.199999999999996</v>
       </c>
-      <c r="J13" s="18">
+      <c r="AP13" s="18">
         <f>-8.4+2.9</f>
         <v>-5.5</v>
       </c>
-      <c r="K13" s="18">
+      <c r="AQ13" s="18">
         <f>-6.1+4.7</f>
         <v>-1.3999999999999995</v>
       </c>
-      <c r="L13" s="18">
+      <c r="AR13" s="18">
         <f>-3.5+2.7</f>
         <v>-0.79999999999999982</v>
       </c>
-      <c r="M13" s="18">
+      <c r="AS13" s="18">
         <f>50+3.1-3</f>
         <v>50.1</v>
       </c>
-      <c r="N13" s="18">
+      <c r="AT13" s="18">
         <f>-1+3.5</f>
         <v>2.5</v>
       </c>
-      <c r="O13" s="18">
+      <c r="AU13" s="18">
         <f>50+2.8+2</f>
         <v>54.8</v>
       </c>
-      <c r="P13" s="18">
+      <c r="AV13" s="18">
         <f>28.9+3.9+2.6</f>
         <v>35.4</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="AW13" s="18">
         <v>-0.2</v>
       </c>
-      <c r="R13" s="18">
+      <c r="AX13" s="18">
         <v>50</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="BV13" s="1">
         <f t="shared" si="2"/>
         <v>33.199999999999996</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="BW13" s="1">
         <f t="shared" si="3"/>
         <v>50.400000000000006</v>
       </c>
-      <c r="AR13" s="1">
+      <c r="BX13" s="1">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="AS13" s="1">
+      <c r="BY13" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>236</v>
       </c>
       <c r="C14" s="18"/>
-      <c r="D14" s="18">
-        <v>557.29999999999995</v>
-      </c>
+      <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="18">
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
+      <c r="AI14" s="18"/>
+      <c r="AJ14" s="18">
+        <v>557.29999999999995</v>
+      </c>
+      <c r="AK14" s="18"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="18">
         <v>855</v>
       </c>
-      <c r="H14" s="18">
+      <c r="AN14" s="18">
         <v>945</v>
       </c>
-      <c r="I14" s="18">
+      <c r="AO14" s="18">
         <v>1072.5999999999999</v>
       </c>
-      <c r="J14" s="18">
+      <c r="AP14" s="18">
         <v>1172</v>
       </c>
-      <c r="K14" s="18">
+      <c r="AQ14" s="18">
         <v>1262.9000000000001</v>
       </c>
-      <c r="L14" s="18">
+      <c r="AR14" s="18">
         <v>1499</v>
       </c>
-      <c r="M14" s="18">
+      <c r="AS14" s="18">
         <v>1662.9</v>
       </c>
-      <c r="N14" s="18">
+      <c r="AT14" s="18">
         <v>1773.8</v>
       </c>
-      <c r="O14" s="18">
+      <c r="AU14" s="18">
         <v>1810.4</v>
       </c>
-      <c r="P14" s="18">
+      <c r="AV14" s="18">
         <v>2091.8000000000002</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="AW14" s="18">
         <v>2330.1</v>
       </c>
-      <c r="R14" s="18">
+      <c r="AX14" s="18">
         <v>2448.9</v>
       </c>
-      <c r="T14" s="1">
+      <c r="AZ14" s="1">
         <v>2789.4</v>
       </c>
-      <c r="X14" s="1">
+      <c r="BD14" s="1">
         <v>3556.4</v>
       </c>
-      <c r="AP14" s="1">
+      <c r="BT14" s="1">
+        <v>922</v>
+      </c>
+      <c r="BU14" s="1">
+        <v>2315.6</v>
+      </c>
+      <c r="BV14" s="1">
         <f t="shared" si="2"/>
         <v>4044.6</v>
       </c>
-      <c r="AQ14" s="1">
+      <c r="BW14" s="1">
         <f t="shared" si="3"/>
         <v>6198.6</v>
       </c>
-      <c r="AR14" s="1">
+      <c r="BX14" s="1">
         <f t="shared" si="4"/>
         <v>8681.2000000000007</v>
       </c>
-      <c r="AS14" s="1">
+      <c r="BY14" s="1">
         <f t="shared" si="5"/>
         <v>2789.4</v>
       </c>
     </row>
-    <row r="15" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>237</v>
       </c>
       <c r="C15" s="18"/>
-      <c r="D15" s="18">
-        <v>73.7</v>
-      </c>
+      <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
-      <c r="H15" s="18">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="18"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18">
+        <v>73.7</v>
+      </c>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="18"/>
+      <c r="AN15" s="18">
         <v>86.6</v>
       </c>
-      <c r="I15" s="18">
+      <c r="AO15" s="18">
         <v>91.5</v>
       </c>
-      <c r="J15" s="18">
+      <c r="AP15" s="18">
         <v>100.9</v>
       </c>
-      <c r="K15" s="18">
+      <c r="AQ15" s="18">
         <v>104.6</v>
       </c>
-      <c r="L15" s="18">
+      <c r="AR15" s="18">
         <v>99.4</v>
       </c>
-      <c r="M15" s="18">
+      <c r="AS15" s="18">
         <v>114.5</v>
       </c>
-      <c r="N15" s="18">
+      <c r="AT15" s="18">
         <v>102.6</v>
       </c>
-      <c r="O15" s="18">
+      <c r="AU15" s="18">
         <v>111.4</v>
       </c>
-      <c r="P15" s="18">
+      <c r="AV15" s="18">
         <v>108.9</v>
       </c>
-      <c r="Q15" s="18">
+      <c r="AW15" s="18">
         <v>113.7</v>
       </c>
-      <c r="R15" s="18">
+      <c r="AX15" s="18">
         <v>133.4</v>
       </c>
-      <c r="T15" s="1">
+      <c r="AZ15" s="1">
         <v>140.30000000000001</v>
       </c>
-      <c r="X15" s="1">
+      <c r="BD15" s="1">
         <v>191.9</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="BV15" s="1">
         <f t="shared" si="2"/>
         <v>279</v>
       </c>
-      <c r="AQ15" s="1">
+      <c r="BW15" s="1">
         <f t="shared" si="3"/>
         <v>421.1</v>
       </c>
-      <c r="AR15" s="1">
+      <c r="BX15" s="1">
         <f t="shared" si="4"/>
         <v>467.4</v>
       </c>
-      <c r="AS15" s="1">
+      <c r="BY15" s="1">
         <f t="shared" si="5"/>
         <v>140.30000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>238</v>
       </c>
       <c r="C16" s="18"/>
-      <c r="D16" s="18">
-        <v>58.5</v>
-      </c>
+      <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
-      <c r="H16" s="18">
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
+      <c r="AH16" s="18"/>
+      <c r="AI16" s="18"/>
+      <c r="AJ16" s="18">
+        <v>58.5</v>
+      </c>
+      <c r="AK16" s="18"/>
+      <c r="AL16" s="18"/>
+      <c r="AM16" s="18"/>
+      <c r="AN16" s="18">
         <v>68.3</v>
       </c>
-      <c r="I16" s="18">
+      <c r="AO16" s="18">
         <v>70</v>
       </c>
-      <c r="J16" s="18">
+      <c r="AP16" s="18">
         <v>71.5</v>
       </c>
-      <c r="K16" s="18">
+      <c r="AQ16" s="18">
         <v>69.099999999999994</v>
       </c>
-      <c r="L16" s="18">
+      <c r="AR16" s="18">
         <v>66.7</v>
       </c>
-      <c r="M16" s="18">
+      <c r="AS16" s="18">
         <v>97.8</v>
       </c>
-      <c r="N16" s="18">
+      <c r="AT16" s="18">
         <v>103.9</v>
       </c>
-      <c r="O16" s="18">
+      <c r="AU16" s="18">
         <v>106.4</v>
       </c>
-      <c r="P16" s="18">
+      <c r="AV16" s="18">
         <v>82.3</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="AW16" s="18">
         <v>88.1</v>
       </c>
-      <c r="R16" s="18">
+      <c r="AX16" s="18">
         <v>81.2</v>
       </c>
-      <c r="T16" s="1">
+      <c r="AZ16" s="1">
         <v>99.5</v>
       </c>
-      <c r="X16" s="1">
+      <c r="BD16" s="1">
         <v>109.7</v>
       </c>
-      <c r="AP16" s="1">
+      <c r="BV16" s="1">
         <f t="shared" si="2"/>
         <v>209.8</v>
       </c>
-      <c r="AQ16" s="1">
+      <c r="BW16" s="1">
         <f t="shared" si="3"/>
         <v>337.5</v>
       </c>
-      <c r="AR16" s="1">
+      <c r="BX16" s="1">
         <f t="shared" si="4"/>
         <v>357.99999999999994</v>
       </c>
-      <c r="AS16" s="1">
+      <c r="BY16" s="1">
         <f t="shared" si="5"/>
         <v>99.5</v>
       </c>
     </row>
-    <row r="17" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C17" s="18">
-        <v>264</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="18">
-        <v>281.39999999999998</v>
-      </c>
-      <c r="H17" s="18">
-        <v>244.2</v>
-      </c>
-      <c r="I17" s="18">
-        <v>299.89999999999998</v>
-      </c>
-      <c r="J17" s="18">
-        <v>360.6</v>
-      </c>
-      <c r="K17" s="18">
-        <v>322.8</v>
-      </c>
-      <c r="L17" s="18">
-        <v>349</v>
-      </c>
-      <c r="M17" s="18">
-        <v>365</v>
-      </c>
-      <c r="N17" s="18">
-        <v>372.4</v>
-      </c>
-      <c r="O17" s="18">
-        <v>385.3</v>
-      </c>
-      <c r="P17" s="18">
-        <v>358</v>
-      </c>
-      <c r="Q17" s="18">
-        <v>333</v>
-      </c>
-      <c r="R17" s="18">
-        <v>355.1</v>
-      </c>
-      <c r="S17" s="18">
-        <v>357</v>
-      </c>
-      <c r="T17" s="18">
-        <v>377</v>
-      </c>
-      <c r="U17" s="18">
-        <f t="shared" ref="U17:V17" si="8">+Q17*1.01</f>
-        <v>336.33</v>
-      </c>
-      <c r="V17" s="18">
-        <f t="shared" si="8"/>
-        <v>358.65100000000001</v>
-      </c>
-      <c r="W17" s="18">
-        <v>356</v>
-      </c>
-      <c r="X17" s="18">
-        <v>375</v>
-      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
       <c r="AB17" s="18"/>
-      <c r="AP17" s="1">
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="18"/>
+      <c r="AG17" s="18"/>
+      <c r="AH17" s="18"/>
+      <c r="AI17" s="18"/>
+      <c r="AJ17" s="18"/>
+      <c r="AK17" s="18"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="18"/>
+      <c r="AN17" s="18"/>
+      <c r="AO17" s="18"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="18"/>
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="18"/>
+      <c r="AV17" s="18"/>
+      <c r="AW17" s="18"/>
+      <c r="AX17" s="18"/>
+      <c r="BT17" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="BU17" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="BV17" s="55">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="18" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="18">
+        <v>12.481</v>
+      </c>
+      <c r="D18" s="18">
+        <v>11.122999999999999</v>
+      </c>
+      <c r="E18" s="18">
+        <v>10.1</v>
+      </c>
+      <c r="F18" s="18">
+        <f>43.1-E18-D18-C18</f>
+        <v>9.3960000000000026</v>
+      </c>
+      <c r="G18" s="18">
+        <v>12.483000000000001</v>
+      </c>
+      <c r="H18" s="18">
+        <v>9.1240000000000006</v>
+      </c>
+      <c r="I18" s="18">
+        <v>26.7</v>
+      </c>
+      <c r="J18" s="18">
+        <f>70.1-I18-H18-G18</f>
+        <v>21.792999999999989</v>
+      </c>
+      <c r="K18" s="18">
+        <v>14.907</v>
+      </c>
+      <c r="L18" s="18">
+        <v>31.103999999999999</v>
+      </c>
+      <c r="M18" s="18">
+        <v>88.582999999999998</v>
+      </c>
+      <c r="N18" s="18">
+        <f>+BO18-M18-L18-K18</f>
+        <v>85.706000000000017</v>
+      </c>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18">
+        <v>264</v>
+      </c>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="AN18" s="18">
+        <v>244.2</v>
+      </c>
+      <c r="AO18" s="18">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="AP18" s="18">
+        <v>360.6</v>
+      </c>
+      <c r="AQ18" s="18">
+        <v>322.8</v>
+      </c>
+      <c r="AR18" s="18">
+        <v>349</v>
+      </c>
+      <c r="AS18" s="18">
+        <v>365</v>
+      </c>
+      <c r="AT18" s="18">
+        <v>372.4</v>
+      </c>
+      <c r="AU18" s="18">
+        <v>385.3</v>
+      </c>
+      <c r="AV18" s="18">
+        <v>358</v>
+      </c>
+      <c r="AW18" s="18">
+        <v>333</v>
+      </c>
+      <c r="AX18" s="18">
+        <v>355.1</v>
+      </c>
+      <c r="AY18" s="18">
+        <v>357</v>
+      </c>
+      <c r="AZ18" s="18">
+        <v>377</v>
+      </c>
+      <c r="BA18" s="18">
+        <f t="shared" ref="BA18:BB18" si="9">+AW18*1.01</f>
+        <v>336.33</v>
+      </c>
+      <c r="BB18" s="18">
+        <f t="shared" si="9"/>
+        <v>358.65100000000001</v>
+      </c>
+      <c r="BC18" s="18">
+        <v>356</v>
+      </c>
+      <c r="BD18" s="18">
+        <v>375</v>
+      </c>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BM18" s="1">
+        <f>SUM(C18:F18)</f>
+        <v>43.1</v>
+      </c>
+      <c r="BN18" s="1">
+        <f>SUM(G18:J18)</f>
+        <v>70.099999999999994</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>220.3</v>
+      </c>
+      <c r="BP18" s="1">
+        <v>495.6</v>
+      </c>
+      <c r="BQ18" s="1">
+        <v>580.5</v>
+      </c>
+      <c r="BV18" s="1">
         <f t="shared" si="2"/>
         <v>1186.0999999999999</v>
       </c>
-      <c r="AQ17" s="1">
+      <c r="BW18" s="1">
         <f t="shared" si="3"/>
         <v>1409.1999999999998</v>
       </c>
-      <c r="AR17" s="1">
+      <c r="BX18" s="1">
         <f t="shared" si="4"/>
         <v>1431.4</v>
       </c>
-      <c r="AS17" s="1">
+      <c r="BY18" s="1">
         <f t="shared" si="5"/>
         <v>1428.981</v>
       </c>
     </row>
-    <row r="18" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C18" s="18">
-        <v>0</v>
-      </c>
-      <c r="D18" s="18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="18">
-        <v>0</v>
-      </c>
-      <c r="J18" s="18">
-        <v>0</v>
-      </c>
-      <c r="K18" s="18">
-        <v>66.8</v>
-      </c>
-      <c r="L18" s="18">
-        <v>168</v>
-      </c>
-      <c r="M18" s="18">
-        <v>127.1</v>
-      </c>
-      <c r="N18" s="18">
-        <v>0</v>
-      </c>
-      <c r="O18" s="18">
-        <v>216.3</v>
-      </c>
-      <c r="P18" s="18">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="18">
-        <v>6</v>
-      </c>
-      <c r="R18" s="18">
-        <v>396.4</v>
-      </c>
-      <c r="S18" s="1">
-        <v>223</v>
-      </c>
-      <c r="T18" s="1">
-        <v>-4</v>
-      </c>
-      <c r="W18" s="1">
-        <v>1</v>
-      </c>
-      <c r="X18" s="1">
-        <v>3</v>
-      </c>
-      <c r="AP18" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="1">
-        <f t="shared" si="3"/>
-        <v>361.9</v>
-      </c>
-      <c r="AR18" s="1">
-        <f t="shared" si="4"/>
-        <v>626.70000000000005</v>
-      </c>
-      <c r="AS18" s="1">
-        <f t="shared" si="5"/>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C19" s="18">
-        <v>22.2</v>
-      </c>
+      <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="18"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="18">
+        <v>66.8</v>
+      </c>
+      <c r="AR19" s="18">
+        <v>168</v>
+      </c>
+      <c r="AS19" s="18">
+        <v>127.1</v>
+      </c>
+      <c r="AT19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="18">
+        <v>216.3</v>
+      </c>
+      <c r="AV19" s="18">
+        <v>8</v>
+      </c>
+      <c r="AW19" s="18">
+        <v>6</v>
+      </c>
+      <c r="AX19" s="18">
+        <v>396.4</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>223</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>-4</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>3</v>
+      </c>
+      <c r="BV19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BW19" s="1">
+        <f t="shared" si="3"/>
+        <v>361.9</v>
+      </c>
+      <c r="BX19" s="1">
+        <f t="shared" si="4"/>
+        <v>626.70000000000005</v>
+      </c>
+      <c r="BY19" s="1">
+        <f t="shared" si="5"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" ref="C20:D20" si="10">7.845+2.122</f>
+        <v>9.9669999999999987</v>
+      </c>
+      <c r="D20" s="18">
+        <f>5.228+1.974</f>
+        <v>7.202</v>
+      </c>
+      <c r="E20" s="18">
+        <f>5.9+1.5</f>
+        <v>7.4</v>
+      </c>
+      <c r="F20" s="18">
+        <f>24.8+6.6-E20-D20-C20</f>
+        <v>6.8310000000000031</v>
+      </c>
+      <c r="G20" s="18">
+        <f>5.893+0.477</f>
+        <v>6.37</v>
+      </c>
+      <c r="H20" s="18">
+        <f>5.893+0.875</f>
+        <v>6.7679999999999998</v>
+      </c>
+      <c r="I20" s="18">
+        <f>5.9+0.9</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="J20" s="18">
+        <f>23.6+2.9-I20-H20-G20</f>
+        <v>6.5619999999999985</v>
+      </c>
+      <c r="K20" s="18">
+        <f>5.893+0.851</f>
+        <v>6.7439999999999998</v>
+      </c>
+      <c r="L20" s="18">
+        <f>5.893+1.223</f>
+        <v>7.1159999999999997</v>
+      </c>
+      <c r="M20" s="18">
+        <f>5.893+1.074</f>
+        <v>6.9669999999999996</v>
+      </c>
+      <c r="N20" s="18">
+        <f>+BO20-M20-L20-K20</f>
+        <v>7.6730000000000018</v>
+      </c>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18">
+        <v>22.2</v>
+      </c>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18">
         <v>63.2</v>
       </c>
-      <c r="H19" s="18">
+      <c r="AN20" s="18">
         <v>211.8</v>
       </c>
-      <c r="I19" s="18">
+      <c r="AO20" s="18">
         <v>158.6</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18">
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18">
         <v>50</v>
       </c>
-      <c r="L19" s="18">
+      <c r="AR20" s="18">
         <v>46</v>
       </c>
-      <c r="M19" s="18">
+      <c r="AS20" s="18">
         <v>99</v>
       </c>
-      <c r="N19" s="18">
+      <c r="AT20" s="18">
         <v>86.2</v>
       </c>
-      <c r="O19" s="18">
+      <c r="AU20" s="18">
         <v>94</v>
       </c>
-      <c r="P19" s="18">
+      <c r="AV20" s="18">
         <v>59</v>
       </c>
-      <c r="Q19" s="18">
+      <c r="AW20" s="18">
         <v>84</v>
       </c>
-      <c r="R19" s="18">
+      <c r="AX20" s="18">
         <v>127.7</v>
       </c>
-      <c r="S19" s="1">
+      <c r="AY20" s="1">
         <v>116</v>
       </c>
-      <c r="T19" s="1">
+      <c r="AZ20" s="1">
         <v>69</v>
       </c>
-      <c r="U19" s="1">
-        <f t="shared" ref="U19:V19" si="9">AVERAGE(Q19:T19)</f>
+      <c r="BA20" s="1">
+        <f t="shared" ref="BA20:BB20" si="11">AVERAGE(AW20:AZ20)</f>
         <v>99.174999999999997</v>
       </c>
-      <c r="V19" s="1">
-        <f t="shared" si="9"/>
+      <c r="BB20" s="1">
+        <f t="shared" si="11"/>
         <v>102.96875</v>
       </c>
-      <c r="W19" s="1">
+      <c r="BC20" s="1">
         <v>117</v>
       </c>
-      <c r="X19" s="1">
+      <c r="BD20" s="1">
         <v>104</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="BM20" s="1">
+        <f>SUM(C20:F20)</f>
+        <v>31.4</v>
+      </c>
+      <c r="BN20" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="BO20" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="BP20" s="1">
+        <v>31.9</v>
+      </c>
+      <c r="BQ20" s="1">
+        <v>74.8</v>
+      </c>
+      <c r="BV20" s="1">
         <f t="shared" si="2"/>
         <v>433.6</v>
       </c>
-      <c r="AQ19" s="1">
+      <c r="BW20" s="1">
         <f t="shared" si="3"/>
         <v>281.2</v>
       </c>
-      <c r="AR19" s="1">
+      <c r="BX20" s="1">
         <f t="shared" si="4"/>
         <v>364.7</v>
       </c>
-      <c r="AS19" s="1">
+      <c r="BY20" s="1">
         <f t="shared" si="5"/>
         <v>387.14375000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:45" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="20" t="s">
+    <row r="21" spans="2:77" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="21">
-        <f t="shared" ref="C20:D20" si="10">SUM(C3:C10)+C17+C18+C19</f>
+      <c r="C21" s="21">
+        <f t="shared" ref="C21:F21" si="12">+C20+C18+C10+C3+C9</f>
+        <v>112.17699999999999</v>
+      </c>
+      <c r="D21" s="21">
+        <f t="shared" si="12"/>
+        <v>107.81</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="12"/>
+        <v>102.8</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="12"/>
+        <v>123.01300000000002</v>
+      </c>
+      <c r="G21" s="21">
+        <f>+G20+G18+G10+G3+G9</f>
+        <v>231.75800000000001</v>
+      </c>
+      <c r="H21" s="21">
+        <f t="shared" ref="H21:N21" si="13">+H20+H18+H10+H3+H9</f>
+        <v>304.38</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="13"/>
+        <v>427.7</v>
+      </c>
+      <c r="J21" s="21">
+        <f t="shared" si="13"/>
+        <v>414.66200000000003</v>
+      </c>
+      <c r="K21" s="21">
+        <f t="shared" si="13"/>
+        <v>439.62399999999997</v>
+      </c>
+      <c r="L21" s="21">
+        <f t="shared" si="13"/>
+        <v>457.649</v>
+      </c>
+      <c r="M21" s="21">
+        <f t="shared" si="13"/>
+        <v>597.00900000000001</v>
+      </c>
+      <c r="N21" s="21">
+        <f t="shared" si="13"/>
+        <v>610.41800000000001</v>
+      </c>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21">
+        <f t="shared" ref="AI21:AJ21" si="14">SUM(AI3:AI10)+AI18+AI19+AI20</f>
         <v>1390.6</v>
       </c>
-      <c r="D20" s="21">
-        <f t="shared" si="10"/>
+      <c r="AJ21" s="21">
+        <f t="shared" si="14"/>
         <v>1231.5</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21">
-        <f t="shared" ref="G20:J20" si="11">SUM(G3:G10)+G17+G18+G19</f>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21"/>
+      <c r="AM21" s="21">
+        <f t="shared" ref="AM21:AP21" si="15">SUM(AM3:AM10)+AM18+AM19+AM20</f>
         <v>1828.2</v>
       </c>
-      <c r="H20" s="21">
-        <f t="shared" si="11"/>
+      <c r="AN21" s="21">
+        <f t="shared" si="15"/>
         <v>1952.3000000000002</v>
       </c>
-      <c r="I20" s="21">
-        <f t="shared" si="11"/>
+      <c r="AO21" s="21">
+        <f t="shared" si="15"/>
         <v>2293.7999999999997</v>
       </c>
-      <c r="J20" s="21">
-        <f t="shared" si="11"/>
+      <c r="AP21" s="21">
+        <f t="shared" si="15"/>
         <v>2299.6999999999998</v>
       </c>
-      <c r="K20" s="21">
-        <f t="shared" ref="K20:P20" si="12">SUM(K3:K10)+K17+K18+K19</f>
+      <c r="AQ21" s="21">
+        <f t="shared" ref="AQ21:AV21" si="16">SUM(AQ3:AQ10)+AQ18+AQ19+AQ20</f>
         <v>2529.4000000000005</v>
       </c>
-      <c r="L20" s="21">
-        <f t="shared" si="12"/>
+      <c r="AR21" s="21">
+        <f t="shared" si="16"/>
         <v>5138.7</v>
       </c>
-      <c r="M20" s="21">
-        <f>SUM(M3:M10)+M17+M18+M19</f>
+      <c r="AS21" s="21">
+        <f>SUM(AS3:AS10)+AS18+AS19+AS20</f>
         <v>3452.9</v>
       </c>
-      <c r="N20" s="21">
-        <f t="shared" si="12"/>
+      <c r="AT21" s="21">
+        <f t="shared" si="16"/>
         <v>4951.4999999999991</v>
       </c>
-      <c r="O20" s="21">
-        <f t="shared" si="12"/>
+      <c r="AU21" s="21">
+        <f t="shared" si="16"/>
         <v>2965.5000000000005</v>
       </c>
-      <c r="P20" s="21">
-        <f t="shared" si="12"/>
+      <c r="AV21" s="21">
+        <f t="shared" si="16"/>
         <v>2856.5</v>
       </c>
-      <c r="Q20" s="21">
-        <f t="shared" ref="Q20:X20" si="13">SUM(Q3:Q10)+Q17+Q18+Q19</f>
+      <c r="AW21" s="21">
+        <f t="shared" ref="AW21:BD21" si="17">SUM(AW3:AW10)+AW18+AW19+AW20</f>
         <v>2936.4</v>
       </c>
-      <c r="R20" s="21">
-        <f t="shared" si="13"/>
+      <c r="AX21" s="21">
+        <f t="shared" si="17"/>
         <v>3414.1</v>
       </c>
-      <c r="S20" s="21">
-        <f t="shared" si="13"/>
+      <c r="AY21" s="21">
+        <f t="shared" si="17"/>
         <v>3162</v>
       </c>
-      <c r="T20" s="21">
-        <f t="shared" si="13"/>
+      <c r="AZ21" s="21">
+        <f t="shared" si="17"/>
         <v>3158</v>
       </c>
-      <c r="U20" s="21">
-        <f t="shared" si="13"/>
+      <c r="BA21" s="21">
+        <f t="shared" si="17"/>
         <v>3360.085</v>
       </c>
-      <c r="V20" s="21">
-        <f t="shared" si="13"/>
+      <c r="BB21" s="21">
+        <f t="shared" si="17"/>
         <v>3396.2997500000001</v>
       </c>
-      <c r="W20" s="21">
-        <f t="shared" si="13"/>
+      <c r="BC21" s="21">
+        <f t="shared" si="17"/>
         <v>3145</v>
       </c>
-      <c r="X20" s="21">
-        <f t="shared" si="13"/>
+      <c r="BD21" s="21">
+        <f t="shared" si="17"/>
         <v>3547</v>
       </c>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-      <c r="AP20" s="21">
-        <f t="shared" ref="AP20:AS20" si="14">SUM(AP3:AP10)+AP17+AP18+AP19</f>
+      <c r="BE21" s="21"/>
+      <c r="BF21" s="21"/>
+      <c r="BG21" s="21"/>
+      <c r="BH21" s="21"/>
+      <c r="BL21" s="21">
+        <f t="shared" ref="BL21:BU21" si="18">SUM(BL3:BL10)+BL18+BL19+BL20</f>
+        <v>336.58600000000001</v>
+      </c>
+      <c r="BM21" s="21">
+        <f>SUM(BM3:BM10)+BM18+BM19+BM20</f>
+        <v>445.8</v>
+      </c>
+      <c r="BN21" s="21">
+        <f t="shared" si="18"/>
+        <v>1378.5</v>
+      </c>
+      <c r="BO21" s="21">
+        <f t="shared" si="18"/>
+        <v>2104.7000000000003</v>
+      </c>
+      <c r="BP21" s="21">
+        <f t="shared" si="18"/>
+        <v>2819.6000000000004</v>
+      </c>
+      <c r="BQ21" s="21">
+        <f t="shared" si="18"/>
+        <v>4103.7</v>
+      </c>
+      <c r="BR21" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BS21" s="21">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BT21" s="21">
+        <f t="shared" si="18"/>
+        <v>4287.5</v>
+      </c>
+      <c r="BU21" s="21">
+        <f t="shared" si="18"/>
+        <v>4960.3999999999996</v>
+      </c>
+      <c r="BV21" s="21">
+        <f>SUM(BV3:BV10)+BV18+BV19+BV20</f>
         <v>8374</v>
       </c>
-      <c r="AQ20" s="21">
-        <f t="shared" si="14"/>
+      <c r="BW21" s="21">
+        <f>SUM(BW3:BW10)+BW18+BW19+BW20</f>
         <v>16072.500000000002</v>
       </c>
-      <c r="AR20" s="21">
-        <f t="shared" si="14"/>
+      <c r="BX21" s="21">
+        <f>SUM(BX3:BX10)+BX18+BX19+BX20</f>
         <v>12172.500000000002</v>
       </c>
-      <c r="AS20" s="21">
-        <f t="shared" si="14"/>
+      <c r="BY21" s="21">
+        <f>SUM(BY3:BY10)+BY18+BY19+BY20</f>
         <v>13076.384749999999</v>
       </c>
     </row>
-    <row r="21" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="1" t="s">
+    <row r="22" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18">
-        <v>58.2</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <f>78.8+138.5</f>
-        <v>217.3</v>
-      </c>
-      <c r="H21" s="18">
-        <f>93.2+173</f>
-        <v>266.2</v>
-      </c>
-      <c r="I21" s="18">
-        <v>122</v>
-      </c>
-      <c r="J21" s="18">
-        <f>166+173.5</f>
-        <v>339.5</v>
-      </c>
-      <c r="K21" s="18">
-        <f>183.2+124.8</f>
-        <v>308</v>
-      </c>
-      <c r="L21" s="18">
-        <f>539.4+154.3</f>
-        <v>693.7</v>
-      </c>
-      <c r="M21" s="18">
-        <v>224</v>
-      </c>
-      <c r="N21" s="18">
-        <f>559+170.9</f>
-        <v>729.9</v>
-      </c>
-      <c r="O21" s="18">
-        <f>207.3+197.6</f>
-        <v>404.9</v>
-      </c>
-      <c r="P21" s="18">
-        <f>149.2+147.9</f>
-        <v>297.10000000000002</v>
-      </c>
-      <c r="Q21" s="18">
-        <v>109</v>
-      </c>
-      <c r="R21" s="18">
-        <f>302.2+238.4-133.7-19.7</f>
-        <v>387.20000000000005</v>
-      </c>
-      <c r="S21" s="18">
-        <v>168</v>
-      </c>
-      <c r="T21" s="18">
-        <v>163</v>
-      </c>
-      <c r="U21" s="18">
-        <f t="shared" ref="U21:V21" si="15">+U20-U22</f>
-        <v>336.00849999999991</v>
-      </c>
-      <c r="V21" s="18">
-        <f t="shared" si="15"/>
-        <v>339.62997499999983</v>
-      </c>
-      <c r="W21" s="18">
-        <v>196</v>
-      </c>
-      <c r="X21" s="18">
-        <v>214</v>
-      </c>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="18"/>
-      <c r="AB21" s="18"/>
-      <c r="AP21" s="1">
-        <f t="shared" ref="AP21" si="16">SUM(G21:J21)</f>
-        <v>945</v>
-      </c>
-      <c r="AQ21" s="1">
-        <f t="shared" ref="AQ21" si="17">SUM(K21:N21)</f>
-        <v>1955.6</v>
-      </c>
-      <c r="AR21" s="1">
-        <f t="shared" ref="AR21" si="18">SUM(O21:R21)</f>
-        <v>1198.2</v>
-      </c>
-      <c r="AS21" s="1">
-        <f t="shared" ref="AS21" si="19">SUM(S21:V21)</f>
-        <v>1006.6384749999997</v>
-      </c>
-    </row>
-    <row r="22" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="C22" s="18">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.45</v>
+      </c>
+      <c r="F22" s="18">
+        <f>BM22-E22-D22-C22</f>
+        <v>2.9889999999999999</v>
+      </c>
       <c r="G22" s="18">
-        <f t="shared" ref="G22" si="20">+G20-G21</f>
-        <v>1610.9</v>
+        <v>12.298</v>
       </c>
       <c r="H22" s="18">
-        <f t="shared" ref="H22:P22" si="21">+H20-H21</f>
-        <v>1686.1000000000001</v>
+        <v>21.843</v>
       </c>
       <c r="I22" s="18">
-        <f t="shared" si="21"/>
-        <v>2171.7999999999997</v>
+        <v>20.145</v>
       </c>
       <c r="J22" s="18">
-        <f t="shared" si="21"/>
-        <v>1960.1999999999998</v>
+        <f>+BN22-I22-H22-G22</f>
+        <v>30.168999999999997</v>
       </c>
       <c r="K22" s="18">
-        <f t="shared" si="21"/>
-        <v>2221.4000000000005</v>
+        <v>29.055</v>
       </c>
       <c r="L22" s="18">
-        <f t="shared" si="21"/>
-        <v>4445</v>
+        <f>27.283+12.33</f>
+        <v>39.613</v>
       </c>
       <c r="M22" s="18">
-        <f t="shared" si="21"/>
-        <v>3228.9</v>
+        <f>28.253+10.32</f>
+        <v>38.573</v>
       </c>
       <c r="N22" s="18">
-        <f t="shared" si="21"/>
-        <v>4221.5999999999995</v>
-      </c>
-      <c r="O22" s="18">
-        <f t="shared" si="21"/>
-        <v>2560.6000000000004</v>
-      </c>
-      <c r="P22" s="18">
-        <f t="shared" si="21"/>
-        <v>2559.4</v>
-      </c>
-      <c r="Q22" s="18">
-        <f>+Q20-Q21</f>
-        <v>2827.4</v>
-      </c>
-      <c r="R22" s="18">
-        <f>+R20-R21</f>
-        <v>3026.8999999999996</v>
-      </c>
-      <c r="S22" s="18">
-        <f>S20-S21</f>
-        <v>2994</v>
-      </c>
-      <c r="T22" s="18">
-        <f>T20-T21</f>
-        <v>2995</v>
-      </c>
-      <c r="U22" s="18">
-        <f t="shared" ref="U22:V22" si="22">+U20*0.9</f>
-        <v>3024.0765000000001</v>
-      </c>
-      <c r="V22" s="18">
-        <f t="shared" si="22"/>
-        <v>3056.6697750000003</v>
-      </c>
-      <c r="W22" s="18">
-        <f>W20-W21</f>
-        <v>2949</v>
-      </c>
-      <c r="X22" s="18">
-        <f>X20-X21</f>
-        <v>3333</v>
-      </c>
+        <f>+BO22-M22-L22-K22</f>
+        <v>48.114000000000011</v>
+      </c>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
       <c r="Y22" s="18"/>
       <c r="Z22" s="18"/>
       <c r="AA22" s="18"/>
       <c r="AB22" s="18"/>
-      <c r="AP22" s="1">
-        <f>+AP20-AP21</f>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
+      <c r="AH22" s="18"/>
+      <c r="AI22" s="18"/>
+      <c r="AJ22" s="18">
+        <v>58.2</v>
+      </c>
+      <c r="AK22" s="18"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="18">
+        <f>78.8+138.5</f>
+        <v>217.3</v>
+      </c>
+      <c r="AN22" s="18">
+        <f>93.2+173</f>
+        <v>266.2</v>
+      </c>
+      <c r="AO22" s="18">
+        <v>122</v>
+      </c>
+      <c r="AP22" s="18">
+        <f>166+173.5</f>
+        <v>339.5</v>
+      </c>
+      <c r="AQ22" s="18">
+        <f>183.2+124.8</f>
+        <v>308</v>
+      </c>
+      <c r="AR22" s="18">
+        <f>539.4+154.3</f>
+        <v>693.7</v>
+      </c>
+      <c r="AS22" s="18">
+        <v>224</v>
+      </c>
+      <c r="AT22" s="18">
+        <f>559+170.9</f>
+        <v>729.9</v>
+      </c>
+      <c r="AU22" s="18">
+        <f>207.3+197.6</f>
+        <v>404.9</v>
+      </c>
+      <c r="AV22" s="18">
+        <f>149.2+147.9</f>
+        <v>297.10000000000002</v>
+      </c>
+      <c r="AW22" s="18">
+        <v>109</v>
+      </c>
+      <c r="AX22" s="18">
+        <f>302.2+238.4-133.7-19.7</f>
+        <v>387.20000000000005</v>
+      </c>
+      <c r="AY22" s="18">
+        <v>168</v>
+      </c>
+      <c r="AZ22" s="18">
+        <v>163</v>
+      </c>
+      <c r="BA22" s="18">
+        <f t="shared" ref="BA22:BB22" si="19">+BA21-BA23</f>
+        <v>336.00849999999991</v>
+      </c>
+      <c r="BB22" s="18">
+        <f t="shared" si="19"/>
+        <v>339.62997499999983</v>
+      </c>
+      <c r="BC22" s="18">
+        <v>196</v>
+      </c>
+      <c r="BD22" s="18">
+        <v>214</v>
+      </c>
+      <c r="BE22" s="18"/>
+      <c r="BF22" s="18"/>
+      <c r="BG22" s="18"/>
+      <c r="BH22" s="18"/>
+      <c r="BM22" s="1">
+        <v>4.2160000000000002</v>
+      </c>
+      <c r="BN22" s="1">
+        <v>84.454999999999998</v>
+      </c>
+      <c r="BO22" s="1">
+        <f>118.048+37.307</f>
+        <v>155.35500000000002</v>
+      </c>
+      <c r="BP22" s="1">
+        <f>129.03+75.988</f>
+        <v>205.018</v>
+      </c>
+      <c r="BQ22" s="1">
+        <f>151.007+241.702</f>
+        <v>392.709</v>
+      </c>
+      <c r="BV22" s="1">
+        <f t="shared" ref="BV22" si="20">SUM(AM22:AP22)</f>
+        <v>945</v>
+      </c>
+      <c r="BW22" s="1">
+        <f t="shared" ref="BW22" si="21">SUM(AQ22:AT22)</f>
+        <v>1955.6</v>
+      </c>
+      <c r="BX22" s="1">
+        <f t="shared" ref="BX22" si="22">SUM(AU22:AX22)</f>
+        <v>1198.2</v>
+      </c>
+      <c r="BY22" s="1">
+        <f t="shared" ref="BY22" si="23">SUM(AY22:BB22)</f>
+        <v>1006.6384749999997</v>
+      </c>
+    </row>
+    <row r="23" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="18">
+        <f t="shared" ref="C23:F23" si="24">+C21-C22</f>
+        <v>111.79499999999999</v>
+      </c>
+      <c r="D23" s="18">
+        <f t="shared" si="24"/>
+        <v>107.41500000000001</v>
+      </c>
+      <c r="E23" s="18">
+        <f t="shared" si="24"/>
+        <v>102.35</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="24"/>
+        <v>120.02400000000002</v>
+      </c>
+      <c r="G23" s="18">
+        <f>+G21-G22</f>
+        <v>219.46</v>
+      </c>
+      <c r="H23" s="18">
+        <f>+H21-H22</f>
+        <v>282.53699999999998</v>
+      </c>
+      <c r="I23" s="18">
+        <f>+I21-I22</f>
+        <v>407.55500000000001</v>
+      </c>
+      <c r="J23" s="18">
+        <f>+J21-J22</f>
+        <v>384.49300000000005</v>
+      </c>
+      <c r="K23" s="18">
+        <f>+K21-K22</f>
+        <v>410.56899999999996</v>
+      </c>
+      <c r="L23" s="18">
+        <f>+L21-L22</f>
+        <v>418.036</v>
+      </c>
+      <c r="M23" s="18">
+        <f>+M21-M22</f>
+        <v>558.43600000000004</v>
+      </c>
+      <c r="N23" s="18">
+        <f>+N21-N22</f>
+        <v>562.30399999999997</v>
+      </c>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="18"/>
+      <c r="AI23" s="18"/>
+      <c r="AJ23" s="18"/>
+      <c r="AK23" s="18"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="18">
+        <f t="shared" ref="AM23" si="25">+AM21-AM22</f>
+        <v>1610.9</v>
+      </c>
+      <c r="AN23" s="18">
+        <f t="shared" ref="AN23:AV23" si="26">+AN21-AN22</f>
+        <v>1686.1000000000001</v>
+      </c>
+      <c r="AO23" s="18">
+        <f t="shared" si="26"/>
+        <v>2171.7999999999997</v>
+      </c>
+      <c r="AP23" s="18">
+        <f t="shared" si="26"/>
+        <v>1960.1999999999998</v>
+      </c>
+      <c r="AQ23" s="18">
+        <f t="shared" si="26"/>
+        <v>2221.4000000000005</v>
+      </c>
+      <c r="AR23" s="18">
+        <f t="shared" si="26"/>
+        <v>4445</v>
+      </c>
+      <c r="AS23" s="18">
+        <f t="shared" si="26"/>
+        <v>3228.9</v>
+      </c>
+      <c r="AT23" s="18">
+        <f t="shared" si="26"/>
+        <v>4221.5999999999995</v>
+      </c>
+      <c r="AU23" s="18">
+        <f t="shared" si="26"/>
+        <v>2560.6000000000004</v>
+      </c>
+      <c r="AV23" s="18">
+        <f t="shared" si="26"/>
+        <v>2559.4</v>
+      </c>
+      <c r="AW23" s="18">
+        <f>+AW21-AW22</f>
+        <v>2827.4</v>
+      </c>
+      <c r="AX23" s="18">
+        <f>+AX21-AX22</f>
+        <v>3026.8999999999996</v>
+      </c>
+      <c r="AY23" s="18">
+        <f>AY21-AY22</f>
+        <v>2994</v>
+      </c>
+      <c r="AZ23" s="18">
+        <f>AZ21-AZ22</f>
+        <v>2995</v>
+      </c>
+      <c r="BA23" s="18">
+        <f t="shared" ref="BA23:BB23" si="27">+BA21*0.9</f>
+        <v>3024.0765000000001</v>
+      </c>
+      <c r="BB23" s="18">
+        <f t="shared" si="27"/>
+        <v>3056.6697750000003</v>
+      </c>
+      <c r="BC23" s="18">
+        <f>BC21-BC22</f>
+        <v>2949</v>
+      </c>
+      <c r="BD23" s="18">
+        <f>BD21-BD22</f>
+        <v>3333</v>
+      </c>
+      <c r="BE23" s="18"/>
+      <c r="BF23" s="18"/>
+      <c r="BG23" s="18"/>
+      <c r="BH23" s="18"/>
+      <c r="BM23" s="1">
+        <f>+BM21-BM22</f>
+        <v>441.584</v>
+      </c>
+      <c r="BN23" s="1">
+        <f>+BN21-BN22</f>
+        <v>1294.0450000000001</v>
+      </c>
+      <c r="BO23" s="1">
+        <f>+BO21-BO22</f>
+        <v>1949.3450000000003</v>
+      </c>
+      <c r="BP23" s="1">
+        <f>+BP21-BP22</f>
+        <v>2614.5820000000003</v>
+      </c>
+      <c r="BQ23" s="1">
+        <f>+BQ21-BQ22</f>
+        <v>3710.991</v>
+      </c>
+      <c r="BV23" s="1">
+        <f>+BV21-BV22</f>
         <v>7429</v>
       </c>
-      <c r="AQ22" s="1">
-        <f t="shared" ref="AQ22:AS22" si="23">+AQ20-AQ21</f>
+      <c r="BW23" s="1">
+        <f t="shared" ref="BW23:BY23" si="28">+BW21-BW22</f>
         <v>14116.900000000001</v>
       </c>
-      <c r="AR22" s="1">
-        <f t="shared" si="23"/>
+      <c r="BX23" s="1">
+        <f t="shared" si="28"/>
         <v>10974.300000000001</v>
       </c>
-      <c r="AS22" s="1">
-        <f t="shared" si="23"/>
+      <c r="BY23" s="1">
+        <f t="shared" si="28"/>
         <v>12069.746275</v>
       </c>
     </row>
-    <row r="23" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="1" t="s">
+    <row r="24" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18">
-        <v>426.2</v>
-      </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18">
-        <v>583.9</v>
-      </c>
-      <c r="H23" s="18">
-        <v>580.1</v>
-      </c>
-      <c r="I23" s="18">
-        <v>629</v>
-      </c>
-      <c r="J23" s="18">
-        <v>675</v>
-      </c>
-      <c r="K23" s="18">
-        <v>742.9</v>
-      </c>
-      <c r="L23" s="18">
-        <v>714.2</v>
-      </c>
-      <c r="M23" s="18">
-        <v>592</v>
-      </c>
-      <c r="N23" s="18">
-        <v>639</v>
-      </c>
-      <c r="O23" s="18">
-        <v>843.8</v>
-      </c>
-      <c r="P23" s="18">
-        <f>794.3-14.6</f>
-        <v>779.69999999999993</v>
-      </c>
-      <c r="Q23" s="18">
-        <v>817</v>
-      </c>
-      <c r="R23" s="18">
-        <f>1043.1-1.4</f>
-        <v>1041.6999999999998</v>
-      </c>
-      <c r="S23" s="1">
-        <v>960</v>
-      </c>
-      <c r="T23" s="1">
-        <v>974</v>
-      </c>
-      <c r="W23" s="1">
-        <v>1122</v>
-      </c>
-      <c r="X23" s="1">
-        <v>1072</v>
-      </c>
-      <c r="AP23" s="1">
-        <f t="shared" ref="AP23:AP24" si="24">SUM(G23:J23)</f>
-        <v>2468</v>
-      </c>
-      <c r="AQ23" s="1">
-        <f t="shared" ref="AQ23:AQ24" si="25">SUM(K23:N23)</f>
-        <v>2688.1</v>
-      </c>
-      <c r="AR23" s="1">
-        <f t="shared" ref="AR23:AR24" si="26">SUM(O23:R23)</f>
-        <v>3482.2</v>
-      </c>
-      <c r="AS23" s="1">
-        <f t="shared" ref="AS23:AS24" si="27">SUM(S23:V23)</f>
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="24" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="18">
+        <v>129.392</v>
+      </c>
       <c r="D24" s="18">
-        <v>251.9</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+        <v>143.149</v>
+      </c>
+      <c r="E24" s="18">
+        <v>127.92400000000001</v>
+      </c>
+      <c r="F24" s="18">
+        <f>BM24-E24-D24-C24</f>
+        <v>129.041</v>
+      </c>
       <c r="G24" s="18">
-        <f>367.3-20.2</f>
-        <v>347.1</v>
+        <v>138.86199999999999</v>
       </c>
       <c r="H24" s="18">
-        <v>301.39999999999998</v>
+        <v>147.37299999999999</v>
       </c>
       <c r="I24" s="18">
-        <v>291</v>
+        <v>158.29499999999999</v>
       </c>
       <c r="J24" s="18">
-        <v>381</v>
+        <f>+BN24-I24-H24-G24</f>
+        <v>181.02400000000003</v>
       </c>
       <c r="K24" s="18">
-        <v>405.6</v>
+        <v>180.29900000000001</v>
       </c>
       <c r="L24" s="18">
-        <v>414.7</v>
+        <v>187.46299999999999</v>
       </c>
       <c r="M24" s="18">
-        <v>391</v>
+        <v>224.04499999999999</v>
       </c>
       <c r="N24" s="18">
-        <v>495</v>
-      </c>
-      <c r="O24" s="18">
-        <v>450</v>
-      </c>
-      <c r="P24" s="18">
-        <f>476.3-1.1</f>
-        <v>475.2</v>
-      </c>
-      <c r="Q24" s="18">
-        <v>467</v>
-      </c>
-      <c r="R24" s="18">
-        <f>660.5-3.5</f>
-        <v>657</v>
-      </c>
-      <c r="S24" s="18">
-        <v>515</v>
-      </c>
-      <c r="T24" s="18">
-        <v>562</v>
-      </c>
-      <c r="U24" s="18">
-        <f t="shared" ref="U24:V24" si="28">+Q24</f>
-        <v>467</v>
-      </c>
-      <c r="V24" s="18">
-        <f t="shared" si="28"/>
-        <v>657</v>
-      </c>
-      <c r="W24" s="18">
-        <v>584</v>
-      </c>
-      <c r="X24" s="18">
-        <v>667</v>
-      </c>
+        <f>+BO24-M24-L24-K24</f>
+        <v>268.1400000000001</v>
+      </c>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
       <c r="Y24" s="18"/>
       <c r="Z24" s="18"/>
       <c r="AA24" s="18"/>
       <c r="AB24" s="18"/>
-      <c r="AP24" s="1">
-        <f t="shared" si="24"/>
-        <v>1320.5</v>
-      </c>
-      <c r="AQ24" s="1">
-        <f t="shared" si="25"/>
-        <v>1706.3</v>
-      </c>
-      <c r="AR24" s="1">
-        <f t="shared" si="26"/>
-        <v>2049.1999999999998</v>
-      </c>
-      <c r="AS24" s="1">
-        <f t="shared" si="27"/>
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="25" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="18"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="18"/>
+      <c r="AI24" s="18"/>
+      <c r="AJ24" s="18">
+        <v>426.2</v>
+      </c>
+      <c r="AK24" s="18"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="18">
+        <v>583.9</v>
+      </c>
+      <c r="AN24" s="18">
+        <v>580.1</v>
+      </c>
+      <c r="AO24" s="18">
+        <v>629</v>
+      </c>
+      <c r="AP24" s="18">
+        <v>675</v>
+      </c>
+      <c r="AQ24" s="18">
+        <v>742.9</v>
+      </c>
+      <c r="AR24" s="18">
+        <v>714.2</v>
+      </c>
+      <c r="AS24" s="18">
+        <v>592</v>
+      </c>
+      <c r="AT24" s="18">
+        <v>639</v>
+      </c>
+      <c r="AU24" s="18">
+        <v>843.8</v>
+      </c>
+      <c r="AV24" s="18">
+        <f>794.3-14.6</f>
+        <v>779.69999999999993</v>
+      </c>
+      <c r="AW24" s="18">
+        <v>817</v>
+      </c>
+      <c r="AX24" s="18">
+        <f>1043.1-1.4</f>
+        <v>1041.6999999999998</v>
+      </c>
+      <c r="AY24" s="1">
+        <v>960</v>
+      </c>
+      <c r="AZ24" s="1">
+        <v>974</v>
+      </c>
+      <c r="BC24" s="1">
+        <v>1122</v>
+      </c>
+      <c r="BD24" s="1">
+        <v>1072</v>
+      </c>
+      <c r="BM24" s="1">
+        <v>529.50599999999997</v>
+      </c>
+      <c r="BN24" s="1">
+        <v>625.55399999999997</v>
+      </c>
+      <c r="BO24" s="1">
+        <v>859.947</v>
+      </c>
+      <c r="BP24" s="1">
+        <v>1271.3530000000001</v>
+      </c>
+      <c r="BQ24" s="1">
+        <v>1620.577</v>
+      </c>
+      <c r="BV24" s="1">
+        <f t="shared" ref="BV24:BV25" si="29">SUM(AM24:AP24)</f>
+        <v>2468</v>
+      </c>
+      <c r="BW24" s="1">
+        <f t="shared" ref="BW24:BW25" si="30">SUM(AQ24:AT24)</f>
+        <v>2688.1</v>
+      </c>
+      <c r="BX24" s="1">
+        <f t="shared" ref="BX24:BX25" si="31">SUM(AU24:AX24)</f>
+        <v>3482.2</v>
+      </c>
+      <c r="BY24" s="1">
+        <f t="shared" ref="BY24:BY25" si="32">SUM(AY24:BB24)</f>
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="25" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+        <v>225</v>
+      </c>
+      <c r="C25" s="18">
+        <v>23.411000000000001</v>
+      </c>
+      <c r="D25" s="18">
+        <v>24.585000000000001</v>
+      </c>
+      <c r="E25" s="18">
+        <v>32.915999999999997</v>
+      </c>
+      <c r="F25" s="18">
+        <f>BM25-E25-D25-C25</f>
+        <v>36.348999999999997</v>
+      </c>
       <c r="G25" s="18">
-        <f t="shared" ref="G25" si="29">+G24+G23</f>
-        <v>931</v>
+        <v>58.427999999999997</v>
       </c>
       <c r="H25" s="18">
-        <f>+H24+H23</f>
-        <v>881.5</v>
+        <v>47.704999999999998</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" ref="I25:M25" si="30">+I24+I23</f>
-        <v>920</v>
+        <v>46.883000000000003</v>
       </c>
       <c r="J25" s="18">
-        <f t="shared" si="30"/>
-        <v>1056</v>
+        <f>+BN25-I25-H25-G25</f>
+        <v>57.73899999999999</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" si="30"/>
-        <v>1148.5</v>
+        <v>77.260000000000005</v>
       </c>
       <c r="L25" s="18">
-        <f t="shared" si="30"/>
-        <v>1128.9000000000001</v>
+        <v>72.462999999999994</v>
       </c>
       <c r="M25" s="18">
-        <f t="shared" si="30"/>
-        <v>983</v>
+        <v>97.606999999999999</v>
       </c>
       <c r="N25" s="18">
-        <f>+N24+N23</f>
-        <v>1134</v>
-      </c>
-      <c r="O25" s="18">
-        <f>+O24+O23</f>
-        <v>1293.8</v>
-      </c>
-      <c r="P25" s="18">
-        <f>+P24+P23</f>
-        <v>1254.8999999999999</v>
-      </c>
-      <c r="Q25" s="18">
-        <f>+Q24+Q23</f>
-        <v>1284</v>
-      </c>
-      <c r="R25" s="18">
-        <f>+R24+R23</f>
-        <v>1698.6999999999998</v>
-      </c>
-      <c r="S25" s="18">
-        <f t="shared" ref="S25:V25" si="31">+S24+S23</f>
-        <v>1475</v>
-      </c>
-      <c r="T25" s="18">
-        <f t="shared" si="31"/>
-        <v>1536</v>
-      </c>
-      <c r="U25" s="18">
-        <f t="shared" si="31"/>
-        <v>467</v>
-      </c>
-      <c r="V25" s="18">
-        <f t="shared" si="31"/>
-        <v>657</v>
-      </c>
-      <c r="W25" s="18">
-        <f t="shared" ref="W25:X25" si="32">+W24+W23</f>
-        <v>1706</v>
-      </c>
-      <c r="X25" s="18">
-        <f t="shared" si="32"/>
-        <v>1739</v>
-      </c>
+        <f>+BO25-M25-L25-K25</f>
+        <v>82.085000000000022</v>
+      </c>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
       <c r="AA25" s="18"/>
       <c r="AB25" s="18"/>
-      <c r="AP25" s="1">
-        <f>+AP23+AP24</f>
-        <v>3788.5</v>
-      </c>
-      <c r="AQ25" s="1">
-        <f t="shared" ref="AQ25:AS25" si="33">+AQ23+AQ24</f>
-        <v>4394.3999999999996</v>
-      </c>
-      <c r="AR25" s="1">
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
+      <c r="AH25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="18">
+        <v>251.9</v>
+      </c>
+      <c r="AK25" s="18"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="18">
+        <f>367.3-20.2</f>
+        <v>347.1</v>
+      </c>
+      <c r="AN25" s="18">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="AO25" s="18">
+        <v>291</v>
+      </c>
+      <c r="AP25" s="18">
+        <v>381</v>
+      </c>
+      <c r="AQ25" s="18">
+        <v>405.6</v>
+      </c>
+      <c r="AR25" s="18">
+        <v>414.7</v>
+      </c>
+      <c r="AS25" s="18">
+        <v>391</v>
+      </c>
+      <c r="AT25" s="18">
+        <v>495</v>
+      </c>
+      <c r="AU25" s="18">
+        <v>450</v>
+      </c>
+      <c r="AV25" s="18">
+        <f>476.3-1.1</f>
+        <v>475.2</v>
+      </c>
+      <c r="AW25" s="18">
+        <v>467</v>
+      </c>
+      <c r="AX25" s="18">
+        <f>660.5-3.5</f>
+        <v>657</v>
+      </c>
+      <c r="AY25" s="18">
+        <v>515</v>
+      </c>
+      <c r="AZ25" s="18">
+        <v>562</v>
+      </c>
+      <c r="BA25" s="18">
+        <f t="shared" ref="BA25:BB25" si="33">+AW25</f>
+        <v>467</v>
+      </c>
+      <c r="BB25" s="18">
         <f t="shared" si="33"/>
-        <v>5531.4</v>
-      </c>
-      <c r="AS25" s="1">
-        <f t="shared" si="33"/>
-        <v>4135</v>
-      </c>
-    </row>
-    <row r="26" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>657</v>
+      </c>
+      <c r="BC25" s="18">
+        <v>584</v>
+      </c>
+      <c r="BD25" s="18">
+        <v>667</v>
+      </c>
+      <c r="BE25" s="18"/>
+      <c r="BF25" s="18"/>
+      <c r="BG25" s="18"/>
+      <c r="BH25" s="18"/>
+      <c r="BM25" s="1">
+        <v>117.261</v>
+      </c>
+      <c r="BN25" s="1">
+        <v>210.755</v>
+      </c>
+      <c r="BO25" s="1">
+        <v>329.41500000000002</v>
+      </c>
+      <c r="BP25" s="1">
+        <v>504.755</v>
+      </c>
+      <c r="BQ25" s="1">
+        <v>838.52599999999995</v>
+      </c>
+      <c r="BV25" s="1">
+        <f t="shared" si="29"/>
+        <v>1320.5</v>
+      </c>
+      <c r="BW25" s="1">
+        <f t="shared" si="30"/>
+        <v>1706.3</v>
+      </c>
+      <c r="BX25" s="1">
+        <f t="shared" si="31"/>
+        <v>2049.1999999999998</v>
+      </c>
+      <c r="BY25" s="1">
+        <f t="shared" si="32"/>
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="26" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+        <v>226</v>
+      </c>
+      <c r="C26" s="18">
+        <f t="shared" ref="C26" si="34">+C25+C24</f>
+        <v>152.803</v>
+      </c>
+      <c r="D26" s="18">
+        <f t="shared" ref="D26:G26" si="35">+D25+D24</f>
+        <v>167.73400000000001</v>
+      </c>
+      <c r="E26" s="18">
+        <f t="shared" si="35"/>
+        <v>160.84</v>
+      </c>
+      <c r="F26" s="18">
+        <f t="shared" si="35"/>
+        <v>165.39</v>
+      </c>
       <c r="G26" s="18">
-        <f>+G22-G25</f>
-        <v>679.90000000000009</v>
+        <f t="shared" si="35"/>
+        <v>197.29</v>
       </c>
       <c r="H26" s="18">
-        <f>+H22-H25</f>
-        <v>804.60000000000014</v>
+        <f>+H25+H24</f>
+        <v>195.07799999999997</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" ref="I26:M26" si="34">+I22-I25</f>
-        <v>1251.7999999999997</v>
+        <f>+I25+I24</f>
+        <v>205.178</v>
       </c>
       <c r="J26" s="18">
-        <f t="shared" si="34"/>
-        <v>904.19999999999982</v>
+        <f>+J25+J24</f>
+        <v>238.76300000000003</v>
       </c>
       <c r="K26" s="18">
-        <f t="shared" si="34"/>
-        <v>1072.9000000000005</v>
+        <f>+K25+K24</f>
+        <v>257.55900000000003</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" si="34"/>
-        <v>3316.1</v>
+        <f>+L25+L24</f>
+        <v>259.92599999999999</v>
       </c>
       <c r="M26" s="18">
-        <f t="shared" si="34"/>
-        <v>2245.9</v>
+        <f>+M25+M24</f>
+        <v>321.65199999999999</v>
       </c>
       <c r="N26" s="18">
-        <f>+N22-N25</f>
-        <v>3087.5999999999995</v>
-      </c>
-      <c r="O26" s="18">
-        <f>+O22-O25</f>
-        <v>1266.8000000000004</v>
-      </c>
-      <c r="P26" s="18">
-        <f>+P22-P25</f>
-        <v>1304.5000000000002</v>
-      </c>
-      <c r="Q26" s="18">
-        <f>+Q22-Q25</f>
-        <v>1543.4</v>
-      </c>
-      <c r="R26" s="18">
-        <f>+R22-R25</f>
-        <v>1328.1999999999998</v>
-      </c>
-      <c r="S26" s="18">
-        <f t="shared" ref="S26:V26" si="35">+S22-S25</f>
-        <v>1519</v>
-      </c>
-      <c r="T26" s="18">
-        <f t="shared" si="35"/>
-        <v>1459</v>
-      </c>
-      <c r="U26" s="18">
-        <f t="shared" si="35"/>
-        <v>2557.0765000000001</v>
-      </c>
-      <c r="V26" s="18">
-        <f t="shared" si="35"/>
-        <v>2399.6697750000003</v>
-      </c>
-      <c r="W26" s="18">
-        <f t="shared" ref="W26:X26" si="36">+W22-W25</f>
-        <v>1243</v>
-      </c>
-      <c r="X26" s="18">
-        <f t="shared" si="36"/>
-        <v>1594</v>
-      </c>
+        <f>+N25+N24</f>
+        <v>350.22500000000014</v>
+      </c>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
       <c r="AB26" s="18"/>
-      <c r="AP26" s="1">
-        <f>+AP22-AP25</f>
+      <c r="AC26" s="18"/>
+      <c r="AD26" s="18"/>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="18"/>
+      <c r="AG26" s="18"/>
+      <c r="AH26" s="18"/>
+      <c r="AI26" s="18"/>
+      <c r="AJ26" s="18"/>
+      <c r="AK26" s="18"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="18">
+        <f t="shared" ref="AM26" si="36">+AM25+AM24</f>
+        <v>931</v>
+      </c>
+      <c r="AN26" s="18">
+        <f>+AN25+AN24</f>
+        <v>881.5</v>
+      </c>
+      <c r="AO26" s="18">
+        <f t="shared" ref="AO26:AS26" si="37">+AO25+AO24</f>
+        <v>920</v>
+      </c>
+      <c r="AP26" s="18">
+        <f t="shared" si="37"/>
+        <v>1056</v>
+      </c>
+      <c r="AQ26" s="18">
+        <f t="shared" si="37"/>
+        <v>1148.5</v>
+      </c>
+      <c r="AR26" s="18">
+        <f t="shared" si="37"/>
+        <v>1128.9000000000001</v>
+      </c>
+      <c r="AS26" s="18">
+        <f t="shared" si="37"/>
+        <v>983</v>
+      </c>
+      <c r="AT26" s="18">
+        <f>+AT25+AT24</f>
+        <v>1134</v>
+      </c>
+      <c r="AU26" s="18">
+        <f>+AU25+AU24</f>
+        <v>1293.8</v>
+      </c>
+      <c r="AV26" s="18">
+        <f>+AV25+AV24</f>
+        <v>1254.8999999999999</v>
+      </c>
+      <c r="AW26" s="18">
+        <f>+AW25+AW24</f>
+        <v>1284</v>
+      </c>
+      <c r="AX26" s="18">
+        <f>+AX25+AX24</f>
+        <v>1698.6999999999998</v>
+      </c>
+      <c r="AY26" s="18">
+        <f t="shared" ref="AY26:BB26" si="38">+AY25+AY24</f>
+        <v>1475</v>
+      </c>
+      <c r="AZ26" s="18">
+        <f t="shared" si="38"/>
+        <v>1536</v>
+      </c>
+      <c r="BA26" s="18">
+        <f t="shared" si="38"/>
+        <v>467</v>
+      </c>
+      <c r="BB26" s="18">
+        <f t="shared" si="38"/>
+        <v>657</v>
+      </c>
+      <c r="BC26" s="18">
+        <f t="shared" ref="BC26:BD26" si="39">+BC25+BC24</f>
+        <v>1706</v>
+      </c>
+      <c r="BD26" s="18">
+        <f t="shared" si="39"/>
+        <v>1739</v>
+      </c>
+      <c r="BE26" s="18"/>
+      <c r="BF26" s="18"/>
+      <c r="BG26" s="18"/>
+      <c r="BH26" s="18"/>
+      <c r="BM26" s="1">
+        <f>+BM25+BM24</f>
+        <v>646.76699999999994</v>
+      </c>
+      <c r="BN26" s="1">
+        <f>+BN25+BN24</f>
+        <v>836.30899999999997</v>
+      </c>
+      <c r="BO26" s="1">
+        <f>+BO25+BO24</f>
+        <v>1189.3620000000001</v>
+      </c>
+      <c r="BP26" s="1">
+        <f>+BP25+BP24</f>
+        <v>1776.1080000000002</v>
+      </c>
+      <c r="BQ26" s="1">
+        <f>+BQ25+BQ24</f>
+        <v>2459.1030000000001</v>
+      </c>
+      <c r="BV26" s="1">
+        <f>+BV24+BV25</f>
+        <v>3788.5</v>
+      </c>
+      <c r="BW26" s="1">
+        <f t="shared" ref="BW26:BY26" si="40">+BW24+BW25</f>
+        <v>4394.3999999999996</v>
+      </c>
+      <c r="BX26" s="1">
+        <f t="shared" si="40"/>
+        <v>5531.4</v>
+      </c>
+      <c r="BY26" s="1">
+        <f t="shared" si="40"/>
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="18">
+        <f t="shared" ref="C27" si="41">+C23-C26</f>
+        <v>-41.00800000000001</v>
+      </c>
+      <c r="D27" s="18">
+        <f t="shared" ref="D27:G27" si="42">+D23-D26</f>
+        <v>-60.319000000000003</v>
+      </c>
+      <c r="E27" s="18">
+        <f t="shared" si="42"/>
+        <v>-58.490000000000009</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" si="42"/>
+        <v>-45.365999999999971</v>
+      </c>
+      <c r="G27" s="18">
+        <f t="shared" si="42"/>
+        <v>22.170000000000016</v>
+      </c>
+      <c r="H27" s="18">
+        <f>+H23-H26</f>
+        <v>87.459000000000003</v>
+      </c>
+      <c r="I27" s="18">
+        <f>+I23-I26</f>
+        <v>202.37700000000001</v>
+      </c>
+      <c r="J27" s="18">
+        <f>+J23-J26</f>
+        <v>145.73000000000002</v>
+      </c>
+      <c r="K27" s="18">
+        <f>+K23-K26</f>
+        <v>153.00999999999993</v>
+      </c>
+      <c r="L27" s="18">
+        <f>+L23-L26</f>
+        <v>158.11000000000001</v>
+      </c>
+      <c r="M27" s="18">
+        <f>+M23-M26</f>
+        <v>236.78400000000005</v>
+      </c>
+      <c r="N27" s="18">
+        <f>+N23-N26</f>
+        <v>212.07899999999984</v>
+      </c>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="18"/>
+      <c r="AC27" s="18"/>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="18"/>
+      <c r="AG27" s="18"/>
+      <c r="AH27" s="18"/>
+      <c r="AI27" s="18"/>
+      <c r="AJ27" s="18"/>
+      <c r="AK27" s="18"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="18">
+        <f>+AM23-AM26</f>
+        <v>679.90000000000009</v>
+      </c>
+      <c r="AN27" s="18">
+        <f>+AN23-AN26</f>
+        <v>804.60000000000014</v>
+      </c>
+      <c r="AO27" s="18">
+        <f t="shared" ref="AO27:AS27" si="43">+AO23-AO26</f>
+        <v>1251.7999999999997</v>
+      </c>
+      <c r="AP27" s="18">
+        <f t="shared" si="43"/>
+        <v>904.19999999999982</v>
+      </c>
+      <c r="AQ27" s="18">
+        <f t="shared" si="43"/>
+        <v>1072.9000000000005</v>
+      </c>
+      <c r="AR27" s="18">
+        <f t="shared" si="43"/>
+        <v>3316.1</v>
+      </c>
+      <c r="AS27" s="18">
+        <f t="shared" si="43"/>
+        <v>2245.9</v>
+      </c>
+      <c r="AT27" s="18">
+        <f>+AT23-AT26</f>
+        <v>3087.5999999999995</v>
+      </c>
+      <c r="AU27" s="18">
+        <f>+AU23-AU26</f>
+        <v>1266.8000000000004</v>
+      </c>
+      <c r="AV27" s="18">
+        <f>+AV23-AV26</f>
+        <v>1304.5000000000002</v>
+      </c>
+      <c r="AW27" s="18">
+        <f>+AW23-AW26</f>
+        <v>1543.4</v>
+      </c>
+      <c r="AX27" s="18">
+        <f>+AX23-AX26</f>
+        <v>1328.1999999999998</v>
+      </c>
+      <c r="AY27" s="18">
+        <f t="shared" ref="AY27:BB27" si="44">+AY23-AY26</f>
+        <v>1519</v>
+      </c>
+      <c r="AZ27" s="18">
+        <f t="shared" si="44"/>
+        <v>1459</v>
+      </c>
+      <c r="BA27" s="18">
+        <f t="shared" si="44"/>
+        <v>2557.0765000000001</v>
+      </c>
+      <c r="BB27" s="18">
+        <f t="shared" si="44"/>
+        <v>2399.6697750000003</v>
+      </c>
+      <c r="BC27" s="18">
+        <f t="shared" ref="BC27:BD27" si="45">+BC23-BC26</f>
+        <v>1243</v>
+      </c>
+      <c r="BD27" s="18">
+        <f t="shared" si="45"/>
+        <v>1594</v>
+      </c>
+      <c r="BE27" s="18"/>
+      <c r="BF27" s="18"/>
+      <c r="BG27" s="18"/>
+      <c r="BH27" s="18"/>
+      <c r="BM27" s="1">
+        <f>+BM23-BM26</f>
+        <v>-205.18299999999994</v>
+      </c>
+      <c r="BN27" s="1">
+        <f>+BN23-BN26</f>
+        <v>457.7360000000001</v>
+      </c>
+      <c r="BO27" s="1">
+        <f>+BO23-BO26</f>
+        <v>759.98300000000017</v>
+      </c>
+      <c r="BP27" s="1">
+        <f>+BP23-BP26</f>
+        <v>838.47400000000016</v>
+      </c>
+      <c r="BQ27" s="1">
+        <f>+BQ23-BQ26</f>
+        <v>1251.8879999999999</v>
+      </c>
+      <c r="BV27" s="1">
+        <f>+BV23-BV26</f>
         <v>3640.5</v>
       </c>
-      <c r="AQ26" s="1">
-        <f t="shared" ref="AQ26:AS26" si="37">+AQ22-AQ25</f>
+      <c r="BW27" s="1">
+        <f t="shared" ref="BW27:BY27" si="46">+BW23-BW26</f>
         <v>9722.5000000000018</v>
       </c>
-      <c r="AR26" s="1">
-        <f t="shared" si="37"/>
+      <c r="BX27" s="1">
+        <f t="shared" si="46"/>
         <v>5442.9000000000015</v>
       </c>
-      <c r="AS26" s="1">
-        <f t="shared" si="37"/>
+      <c r="BY27" s="1">
+        <f t="shared" si="46"/>
         <v>7934.7462749999995</v>
       </c>
     </row>
-    <row r="27" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="1" t="s">
+    <row r="28" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18">
-        <f>40.4+25.3</f>
-        <v>65.7</v>
-      </c>
-      <c r="H27" s="18">
-        <f>-50.2+7.9</f>
-        <v>-42.300000000000004</v>
-      </c>
-      <c r="I27" s="18">
-        <v>-54.8</v>
-      </c>
-      <c r="J27" s="18">
-        <v>57.6</v>
-      </c>
-      <c r="K27" s="18">
-        <f>40.5-14.6</f>
-        <v>25.9</v>
-      </c>
-      <c r="L27" s="18">
-        <f>-14.4-31.3</f>
-        <v>-45.7</v>
-      </c>
-      <c r="M27" s="18">
-        <v>-30.6</v>
-      </c>
-      <c r="N27" s="18">
-        <f>15.8-136.3</f>
-        <v>-120.50000000000001</v>
-      </c>
-      <c r="O27" s="18">
-        <f>20.2-197.4</f>
-        <v>-177.20000000000002</v>
-      </c>
-      <c r="P27" s="18">
-        <f>-133.6-13.1-17.4</f>
-        <v>-164.1</v>
-      </c>
-      <c r="Q27" s="18">
-        <v>32.6</v>
-      </c>
-      <c r="R27" s="18">
-        <f>195.3-17.4-80.5</f>
-        <v>97.4</v>
-      </c>
-      <c r="AP27" s="1">
-        <f t="shared" ref="AP27" si="38">SUM(G27:J27)</f>
-        <v>26.200000000000003</v>
-      </c>
-      <c r="AQ27" s="1">
-        <f t="shared" ref="AQ27" si="39">SUM(K27:N27)</f>
-        <v>-170.90000000000003</v>
-      </c>
-      <c r="AR27" s="1">
-        <f t="shared" ref="AR27" si="40">SUM(O27:R27)</f>
-        <v>-211.29999999999998</v>
-      </c>
-      <c r="AS27" s="1">
-        <f t="shared" ref="AS27" si="41">SUM(S27:V27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="C28" s="18">
+        <v>-2.6819999999999999</v>
+      </c>
+      <c r="D28" s="18">
+        <f>-4.047+0.998</f>
+        <v>-3.0489999999999995</v>
+      </c>
+      <c r="E28" s="18">
+        <v>-3.3460000000000001</v>
+      </c>
+      <c r="F28" s="18">
+        <f>BM28-E28-D28-C28</f>
+        <v>-8.6560000000000006</v>
+      </c>
       <c r="G28" s="18">
-        <f t="shared" ref="G28" si="42">G26+G27</f>
-        <v>745.60000000000014</v>
+        <v>-10.55</v>
       </c>
       <c r="H28" s="18">
-        <f t="shared" ref="H28:R28" si="43">H26+H27</f>
-        <v>762.30000000000018</v>
+        <v>-10.734999999999999</v>
       </c>
       <c r="I28" s="18">
-        <f t="shared" si="43"/>
-        <v>1196.9999999999998</v>
+        <v>-10.896000000000001</v>
       </c>
       <c r="J28" s="18">
-        <f t="shared" si="43"/>
-        <v>961.79999999999984</v>
+        <f>+BN28-I28-H28-G28</f>
+        <v>-11.111000000000001</v>
       </c>
       <c r="K28" s="18">
-        <f t="shared" si="43"/>
-        <v>1098.8000000000006</v>
+        <v>-11.218999999999999</v>
       </c>
       <c r="L28" s="18">
-        <f t="shared" si="43"/>
-        <v>3270.4</v>
+        <v>-10.411</v>
       </c>
       <c r="M28" s="18">
-        <f t="shared" si="43"/>
-        <v>2215.3000000000002</v>
+        <v>-11.118</v>
       </c>
       <c r="N28" s="18">
-        <f t="shared" si="43"/>
-        <v>2967.0999999999995</v>
-      </c>
-      <c r="O28" s="18">
-        <f t="shared" si="43"/>
-        <v>1089.6000000000004</v>
-      </c>
-      <c r="P28" s="18">
-        <f t="shared" si="43"/>
-        <v>1140.4000000000003</v>
-      </c>
-      <c r="Q28" s="18">
-        <f t="shared" si="43"/>
-        <v>1576</v>
-      </c>
-      <c r="R28" s="18">
-        <f t="shared" si="43"/>
-        <v>1425.6</v>
-      </c>
-      <c r="S28" s="18">
-        <f t="shared" ref="S28" si="44">S26+S27</f>
-        <v>1519</v>
-      </c>
-      <c r="T28" s="18">
-        <f t="shared" ref="T28" si="45">T26+T27</f>
-        <v>1459</v>
-      </c>
-      <c r="U28" s="18">
-        <f t="shared" ref="U28" si="46">U26+U27</f>
-        <v>2557.0765000000001</v>
-      </c>
-      <c r="V28" s="18">
-        <f t="shared" ref="V28:X28" si="47">V26+V27</f>
-        <v>2399.6697750000003</v>
-      </c>
-      <c r="W28" s="18">
-        <f t="shared" si="47"/>
-        <v>1243</v>
-      </c>
-      <c r="X28" s="18">
-        <f t="shared" si="47"/>
-        <v>1594</v>
-      </c>
+        <f>+BO28-M28-L28-K28</f>
+        <v>-13.919999999999996</v>
+      </c>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
       <c r="Y28" s="18"/>
       <c r="Z28" s="18"/>
       <c r="AA28" s="18"/>
       <c r="AB28" s="18"/>
-      <c r="AP28" s="1">
-        <f>+AP26+AP27</f>
-        <v>3666.7</v>
-      </c>
-      <c r="AQ28" s="1">
-        <f t="shared" ref="AQ28:AS28" si="48">+AQ26+AQ27</f>
-        <v>9551.6000000000022</v>
-      </c>
-      <c r="AR28" s="1">
-        <f t="shared" si="48"/>
-        <v>5231.6000000000013</v>
-      </c>
-      <c r="AS28" s="1">
-        <f t="shared" si="48"/>
-        <v>7934.7462749999995</v>
-      </c>
-    </row>
-    <row r="29" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
+      <c r="AH28" s="18"/>
+      <c r="AI28" s="18"/>
+      <c r="AJ28" s="18"/>
+      <c r="AK28" s="18"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="18">
+        <f>40.4+25.3</f>
+        <v>65.7</v>
+      </c>
+      <c r="AN28" s="18">
+        <f>-50.2+7.9</f>
+        <v>-42.300000000000004</v>
+      </c>
+      <c r="AO28" s="18">
+        <v>-54.8</v>
+      </c>
+      <c r="AP28" s="18">
+        <v>57.6</v>
+      </c>
+      <c r="AQ28" s="18">
+        <f>40.5-14.6</f>
+        <v>25.9</v>
+      </c>
+      <c r="AR28" s="18">
+        <f>-14.4-31.3</f>
+        <v>-45.7</v>
+      </c>
+      <c r="AS28" s="18">
+        <v>-30.6</v>
+      </c>
+      <c r="AT28" s="18">
+        <f>15.8-136.3</f>
+        <v>-120.50000000000001</v>
+      </c>
+      <c r="AU28" s="18">
+        <f>20.2-197.4</f>
+        <v>-177.20000000000002</v>
+      </c>
+      <c r="AV28" s="18">
+        <f>-133.6-13.1-17.4</f>
+        <v>-164.1</v>
+      </c>
+      <c r="AW28" s="18">
+        <v>32.6</v>
+      </c>
+      <c r="AX28" s="18">
+        <f>195.3-17.4-80.5</f>
+        <v>97.4</v>
+      </c>
+      <c r="BM28" s="1">
+        <v>-17.733000000000001</v>
+      </c>
+      <c r="BN28" s="1">
+        <v>-43.292000000000002</v>
+      </c>
+      <c r="BO28" s="1">
+        <f>-46.437-0.231</f>
+        <v>-46.667999999999999</v>
+      </c>
+      <c r="BP28" s="1">
+        <f>8.157-37.372</f>
+        <v>-29.215</v>
+      </c>
+      <c r="BQ28" s="1">
+        <f>-14.241+6.283</f>
+        <v>-7.9579999999999993</v>
+      </c>
+      <c r="BV28" s="1">
+        <f t="shared" ref="BV28" si="47">SUM(AM28:AP28)</f>
+        <v>26.200000000000003</v>
+      </c>
+      <c r="BW28" s="1">
+        <f t="shared" ref="BW28" si="48">SUM(AQ28:AT28)</f>
+        <v>-170.90000000000003</v>
+      </c>
+      <c r="BX28" s="1">
+        <f t="shared" ref="BX28" si="49">SUM(AU28:AX28)</f>
+        <v>-211.29999999999998</v>
+      </c>
+      <c r="BY28" s="1">
+        <f t="shared" ref="BY28" si="50">SUM(AY28:BB28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+        <v>229</v>
+      </c>
+      <c r="C29" s="18">
+        <f t="shared" ref="C29:F29" si="51">+C27+C28</f>
+        <v>-43.690000000000012</v>
+      </c>
+      <c r="D29" s="18">
+        <f t="shared" si="51"/>
+        <v>-63.368000000000002</v>
+      </c>
+      <c r="E29" s="18">
+        <f t="shared" si="51"/>
+        <v>-61.836000000000013</v>
+      </c>
+      <c r="F29" s="18">
+        <f t="shared" si="51"/>
+        <v>-54.02199999999997</v>
+      </c>
       <c r="G29" s="18">
-        <v>44</v>
+        <f>+G27+G28</f>
+        <v>11.620000000000015</v>
       </c>
       <c r="H29" s="18">
-        <v>21.6</v>
+        <f>+H27+H28</f>
+        <v>76.724000000000004</v>
       </c>
       <c r="I29" s="18">
-        <v>156.19999999999999</v>
+        <f>+I27+I28</f>
+        <v>191.48099999999999</v>
       </c>
       <c r="J29" s="18">
-        <v>75.400000000000006</v>
+        <f>+J27+J28</f>
+        <v>134.61900000000003</v>
       </c>
       <c r="K29" s="18">
-        <v>137.80000000000001</v>
+        <f>+K27+K28</f>
+        <v>141.79099999999994</v>
       </c>
       <c r="L29" s="18">
-        <v>653.9</v>
+        <f>+L27+L28</f>
+        <v>147.69900000000001</v>
       </c>
       <c r="M29" s="18">
-        <v>184.4</v>
+        <f>+M27+M28</f>
+        <v>225.66600000000005</v>
       </c>
       <c r="N29" s="18">
-        <v>274.39999999999998</v>
-      </c>
-      <c r="O29" s="18">
-        <v>87.6</v>
-      </c>
-      <c r="P29" s="18">
-        <v>111.1</v>
-      </c>
-      <c r="Q29" s="18">
-        <v>194.1</v>
-      </c>
-      <c r="R29" s="18">
-        <v>127.6</v>
-      </c>
-      <c r="S29" s="18">
-        <f t="shared" ref="S29:V29" si="49">+S28*0.15</f>
-        <v>227.85</v>
-      </c>
-      <c r="T29" s="18">
-        <f t="shared" si="49"/>
-        <v>218.85</v>
-      </c>
-      <c r="U29" s="18">
-        <f t="shared" si="49"/>
-        <v>383.56147500000003</v>
-      </c>
-      <c r="V29" s="18">
-        <f t="shared" si="49"/>
-        <v>359.95046625000003</v>
-      </c>
+        <f>+N27+N28</f>
+        <v>198.15899999999985</v>
+      </c>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
       <c r="W29" s="18"/>
       <c r="X29" s="18"/>
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
       <c r="AA29" s="18"/>
       <c r="AB29" s="18"/>
-      <c r="AP29" s="1">
-        <f t="shared" ref="AP29" si="50">SUM(G29:J29)</f>
-        <v>297.2</v>
-      </c>
-      <c r="AQ29" s="1">
-        <f t="shared" ref="AQ29" si="51">SUM(K29:N29)</f>
-        <v>1250.5</v>
-      </c>
-      <c r="AR29" s="1">
-        <f t="shared" ref="AR29" si="52">SUM(O29:R29)</f>
-        <v>520.4</v>
-      </c>
-      <c r="AS29" s="1">
-        <f t="shared" ref="AS29" si="53">SUM(S29:V29)</f>
-        <v>1190.2119412500001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18">
+        <f t="shared" ref="AM29" si="52">AM27+AM28</f>
+        <v>745.60000000000014</v>
+      </c>
+      <c r="AN29" s="18">
+        <f t="shared" ref="AN29:AX29" si="53">AN27+AN28</f>
+        <v>762.30000000000018</v>
+      </c>
+      <c r="AO29" s="18">
+        <f t="shared" si="53"/>
+        <v>1196.9999999999998</v>
+      </c>
+      <c r="AP29" s="18">
+        <f t="shared" si="53"/>
+        <v>961.79999999999984</v>
+      </c>
+      <c r="AQ29" s="18">
+        <f t="shared" si="53"/>
+        <v>1098.8000000000006</v>
+      </c>
+      <c r="AR29" s="18">
+        <f t="shared" si="53"/>
+        <v>3270.4</v>
+      </c>
+      <c r="AS29" s="18">
+        <f t="shared" si="53"/>
+        <v>2215.3000000000002</v>
+      </c>
+      <c r="AT29" s="18">
+        <f t="shared" si="53"/>
+        <v>2967.0999999999995</v>
+      </c>
+      <c r="AU29" s="18">
+        <f t="shared" si="53"/>
+        <v>1089.6000000000004</v>
+      </c>
+      <c r="AV29" s="18">
+        <f t="shared" si="53"/>
+        <v>1140.4000000000003</v>
+      </c>
+      <c r="AW29" s="18">
+        <f t="shared" si="53"/>
+        <v>1576</v>
+      </c>
+      <c r="AX29" s="18">
+        <f t="shared" si="53"/>
+        <v>1425.6</v>
+      </c>
+      <c r="AY29" s="18">
+        <f t="shared" ref="AY29" si="54">AY27+AY28</f>
+        <v>1519</v>
+      </c>
+      <c r="AZ29" s="18">
+        <f t="shared" ref="AZ29" si="55">AZ27+AZ28</f>
+        <v>1459</v>
+      </c>
+      <c r="BA29" s="18">
+        <f t="shared" ref="BA29" si="56">BA27+BA28</f>
+        <v>2557.0765000000001</v>
+      </c>
+      <c r="BB29" s="18">
+        <f t="shared" ref="BB29:BD29" si="57">BB27+BB28</f>
+        <v>2399.6697750000003</v>
+      </c>
+      <c r="BC29" s="18">
+        <f t="shared" si="57"/>
+        <v>1243</v>
+      </c>
+      <c r="BD29" s="18">
+        <f t="shared" si="57"/>
+        <v>1594</v>
+      </c>
+      <c r="BE29" s="18"/>
+      <c r="BF29" s="18"/>
+      <c r="BG29" s="18"/>
+      <c r="BH29" s="18"/>
+      <c r="BM29" s="1">
+        <f>+BM27+BM28</f>
+        <v>-222.91599999999994</v>
+      </c>
+      <c r="BN29" s="1">
+        <f>+BN27+BN28</f>
+        <v>414.44400000000007</v>
+      </c>
+      <c r="BO29" s="1">
+        <f>+BO27+BO28</f>
+        <v>713.31500000000017</v>
+      </c>
+      <c r="BP29" s="1">
+        <f>+BP27+BP28</f>
+        <v>809.25900000000013</v>
+      </c>
+      <c r="BQ29" s="1">
+        <f>+BQ27+BQ28</f>
+        <v>1243.9299999999998</v>
+      </c>
+      <c r="BV29" s="1">
+        <f>+BV27+BV28</f>
+        <v>3666.7</v>
+      </c>
+      <c r="BW29" s="1">
+        <f t="shared" ref="BW29:BY29" si="58">+BW27+BW28</f>
+        <v>9551.6000000000022</v>
+      </c>
+      <c r="BX29" s="1">
+        <f t="shared" si="58"/>
+        <v>5231.6000000000013</v>
+      </c>
+      <c r="BY29" s="1">
+        <f t="shared" si="58"/>
+        <v>7934.7462749999995</v>
+      </c>
+    </row>
+    <row r="30" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+        <v>230</v>
+      </c>
+      <c r="C30" s="18">
+        <v>-0.216</v>
+      </c>
+      <c r="D30" s="18">
+        <v>-0.86299999999999999</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="F30" s="18">
+        <f>BM30-E30-D30-C30</f>
+        <v>-0.61499999999999999</v>
+      </c>
       <c r="G30" s="18">
-        <f t="shared" ref="G30" si="54">+G28-G29</f>
-        <v>701.60000000000014</v>
+        <v>0</v>
       </c>
       <c r="H30" s="18">
-        <f t="shared" ref="H30:R30" si="55">+H28-H29</f>
-        <v>740.70000000000016</v>
+        <v>0</v>
       </c>
       <c r="I30" s="18">
-        <f t="shared" si="55"/>
-        <v>1040.7999999999997</v>
+        <v>0</v>
       </c>
       <c r="J30" s="18">
-        <f t="shared" si="55"/>
-        <v>886.39999999999986</v>
+        <f>+BN30-I30-H30-G30</f>
+        <v>0</v>
       </c>
       <c r="K30" s="18">
-        <f t="shared" si="55"/>
-        <v>961.00000000000068</v>
+        <v>42.957000000000001</v>
       </c>
       <c r="L30" s="18">
-        <f t="shared" si="55"/>
-        <v>2616.5</v>
+        <v>60.316000000000003</v>
       </c>
       <c r="M30" s="18">
-        <f t="shared" si="55"/>
-        <v>2030.9</v>
+        <v>84.378</v>
       </c>
       <c r="N30" s="18">
-        <f t="shared" si="55"/>
-        <v>2692.6999999999994</v>
-      </c>
-      <c r="O30" s="18">
-        <f t="shared" si="55"/>
-        <v>1002.0000000000003</v>
-      </c>
-      <c r="P30" s="18">
-        <f t="shared" si="55"/>
-        <v>1029.3000000000004</v>
-      </c>
-      <c r="Q30" s="18">
-        <f t="shared" si="55"/>
-        <v>1381.9</v>
-      </c>
-      <c r="R30" s="18">
-        <f t="shared" si="55"/>
-        <v>1298</v>
-      </c>
-      <c r="S30" s="18">
-        <f t="shared" ref="S30" si="56">+S28-S29</f>
-        <v>1291.1500000000001</v>
-      </c>
-      <c r="T30" s="18">
-        <f t="shared" ref="T30" si="57">+T28-T29</f>
-        <v>1240.1500000000001</v>
-      </c>
-      <c r="U30" s="18">
-        <f t="shared" ref="U30" si="58">+U28-U29</f>
-        <v>2173.5150250000002</v>
-      </c>
-      <c r="V30" s="18">
-        <f t="shared" ref="V30:X30" si="59">+V28-V29</f>
-        <v>2039.7193087500002</v>
-      </c>
-      <c r="W30" s="18">
-        <f t="shared" si="59"/>
-        <v>1243</v>
-      </c>
-      <c r="X30" s="18">
-        <f t="shared" si="59"/>
-        <v>1594</v>
-      </c>
+        <f>+BO30-M30-L30-K30</f>
+        <v>101.34700000000001</v>
+      </c>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
       <c r="AA30" s="18"/>
       <c r="AB30" s="18"/>
-      <c r="AP30" s="1">
-        <f>+AP28-AP29</f>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="18"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="18"/>
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="18"/>
+      <c r="AM30" s="18">
+        <v>44</v>
+      </c>
+      <c r="AN30" s="18">
+        <v>21.6</v>
+      </c>
+      <c r="AO30" s="18">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="AP30" s="18">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="AQ30" s="18">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="AR30" s="18">
+        <v>653.9</v>
+      </c>
+      <c r="AS30" s="18">
+        <v>184.4</v>
+      </c>
+      <c r="AT30" s="18">
+        <v>274.39999999999998</v>
+      </c>
+      <c r="AU30" s="18">
+        <v>87.6</v>
+      </c>
+      <c r="AV30" s="18">
+        <v>111.1</v>
+      </c>
+      <c r="AW30" s="18">
+        <v>194.1</v>
+      </c>
+      <c r="AX30" s="18">
+        <v>127.6</v>
+      </c>
+      <c r="AY30" s="18">
+        <f t="shared" ref="AY30:BB30" si="59">+AY29*0.15</f>
+        <v>227.85</v>
+      </c>
+      <c r="AZ30" s="18">
+        <f t="shared" si="59"/>
+        <v>218.85</v>
+      </c>
+      <c r="BA30" s="18">
+        <f t="shared" si="59"/>
+        <v>383.56147500000003</v>
+      </c>
+      <c r="BB30" s="18">
+        <f t="shared" si="59"/>
+        <v>359.95046625000003</v>
+      </c>
+      <c r="BC30" s="18"/>
+      <c r="BD30" s="18"/>
+      <c r="BE30" s="18"/>
+      <c r="BF30" s="18"/>
+      <c r="BG30" s="18"/>
+      <c r="BH30" s="18"/>
+      <c r="BM30" s="1">
+        <v>-1.1319999999999999</v>
+      </c>
+      <c r="BN30" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO30" s="1">
+        <v>288.99799999999999</v>
+      </c>
+      <c r="BP30" s="1">
+        <v>427.673</v>
+      </c>
+      <c r="BQ30" s="1">
+        <v>589.04100000000005</v>
+      </c>
+      <c r="BV30" s="1">
+        <f t="shared" ref="BV30" si="60">SUM(AM30:AP30)</f>
+        <v>297.2</v>
+      </c>
+      <c r="BW30" s="1">
+        <f t="shared" ref="BW30" si="61">SUM(AQ30:AT30)</f>
+        <v>1250.5</v>
+      </c>
+      <c r="BX30" s="1">
+        <f t="shared" ref="BX30" si="62">SUM(AU30:AX30)</f>
+        <v>520.4</v>
+      </c>
+      <c r="BY30" s="1">
+        <f t="shared" ref="BY30" si="63">SUM(AY30:BB30)</f>
+        <v>1190.2119412500001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C31" s="18">
+        <f t="shared" ref="C31" si="64">+C29-C30</f>
+        <v>-43.474000000000011</v>
+      </c>
+      <c r="D31" s="18">
+        <f>+D29-D30</f>
+        <v>-62.505000000000003</v>
+      </c>
+      <c r="E31" s="18">
+        <f>+E29-E30</f>
+        <v>-62.39800000000001</v>
+      </c>
+      <c r="F31" s="18">
+        <f>+F29-F30</f>
+        <v>-53.406999999999968</v>
+      </c>
+      <c r="G31" s="18">
+        <f>+G29-G30</f>
+        <v>11.620000000000015</v>
+      </c>
+      <c r="H31" s="18">
+        <f>+H29-H30</f>
+        <v>76.724000000000004</v>
+      </c>
+      <c r="I31" s="18">
+        <f>+I29-I30</f>
+        <v>191.48099999999999</v>
+      </c>
+      <c r="J31" s="18">
+        <f>+J29-J30</f>
+        <v>134.61900000000003</v>
+      </c>
+      <c r="K31" s="18">
+        <f>+K29-K30</f>
+        <v>98.833999999999946</v>
+      </c>
+      <c r="L31" s="18">
+        <f>+L29-L30</f>
+        <v>87.38300000000001</v>
+      </c>
+      <c r="M31" s="18">
+        <f>+M29-M30</f>
+        <v>141.28800000000007</v>
+      </c>
+      <c r="N31" s="18">
+        <f>+N29-N30</f>
+        <v>96.811999999999841</v>
+      </c>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="18"/>
+      <c r="AA31" s="18"/>
+      <c r="AB31" s="18"/>
+      <c r="AC31" s="18"/>
+      <c r="AD31" s="18"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
+      <c r="AH31" s="18"/>
+      <c r="AI31" s="18"/>
+      <c r="AJ31" s="18"/>
+      <c r="AK31" s="18"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="18">
+        <f t="shared" ref="AM31" si="65">+AM29-AM30</f>
+        <v>701.60000000000014</v>
+      </c>
+      <c r="AN31" s="18">
+        <f t="shared" ref="AN31:AX31" si="66">+AN29-AN30</f>
+        <v>740.70000000000016</v>
+      </c>
+      <c r="AO31" s="18">
+        <f t="shared" si="66"/>
+        <v>1040.7999999999997</v>
+      </c>
+      <c r="AP31" s="18">
+        <f t="shared" si="66"/>
+        <v>886.39999999999986</v>
+      </c>
+      <c r="AQ31" s="18">
+        <f t="shared" si="66"/>
+        <v>961.00000000000068</v>
+      </c>
+      <c r="AR31" s="18">
+        <f t="shared" si="66"/>
+        <v>2616.5</v>
+      </c>
+      <c r="AS31" s="18">
+        <f t="shared" si="66"/>
+        <v>2030.9</v>
+      </c>
+      <c r="AT31" s="18">
+        <f t="shared" si="66"/>
+        <v>2692.6999999999994</v>
+      </c>
+      <c r="AU31" s="18">
+        <f t="shared" si="66"/>
+        <v>1002.0000000000003</v>
+      </c>
+      <c r="AV31" s="18">
+        <f t="shared" si="66"/>
+        <v>1029.3000000000004</v>
+      </c>
+      <c r="AW31" s="18">
+        <f t="shared" si="66"/>
+        <v>1381.9</v>
+      </c>
+      <c r="AX31" s="18">
+        <f t="shared" si="66"/>
+        <v>1298</v>
+      </c>
+      <c r="AY31" s="18">
+        <f t="shared" ref="AY31" si="67">+AY29-AY30</f>
+        <v>1291.1500000000001</v>
+      </c>
+      <c r="AZ31" s="18">
+        <f t="shared" ref="AZ31" si="68">+AZ29-AZ30</f>
+        <v>1240.1500000000001</v>
+      </c>
+      <c r="BA31" s="18">
+        <f t="shared" ref="BA31" si="69">+BA29-BA30</f>
+        <v>2173.5150250000002</v>
+      </c>
+      <c r="BB31" s="18">
+        <f t="shared" ref="BB31:BD31" si="70">+BB29-BB30</f>
+        <v>2039.7193087500002</v>
+      </c>
+      <c r="BC31" s="18">
+        <f t="shared" si="70"/>
+        <v>1243</v>
+      </c>
+      <c r="BD31" s="18">
+        <f t="shared" si="70"/>
+        <v>1594</v>
+      </c>
+      <c r="BE31" s="18"/>
+      <c r="BF31" s="18"/>
+      <c r="BG31" s="18"/>
+      <c r="BH31" s="18"/>
+      <c r="BL31" s="1">
+        <f>+BL29-BL30</f>
+        <v>0</v>
+      </c>
+      <c r="BM31" s="1">
+        <f>+BM29-BM30</f>
+        <v>-221.78399999999993</v>
+      </c>
+      <c r="BN31" s="1">
+        <f>+BN29-BN30</f>
+        <v>414.44400000000007</v>
+      </c>
+      <c r="BO31" s="1">
+        <f>+BO29-BO30</f>
+        <v>424.31700000000018</v>
+      </c>
+      <c r="BP31" s="1">
+        <f>+BP29-BP30</f>
+        <v>381.58600000000013</v>
+      </c>
+      <c r="BQ31" s="1">
+        <f>+BQ29-BQ30</f>
+        <v>654.88899999999978</v>
+      </c>
+      <c r="BV31" s="1">
+        <f>+BV29-BV30</f>
         <v>3369.5</v>
       </c>
-      <c r="AQ30" s="1">
-        <f t="shared" ref="AQ30:AS30" si="60">+AQ28-AQ29</f>
+      <c r="BW31" s="1">
+        <f t="shared" ref="BW31:BY31" si="71">+BW29-BW30</f>
         <v>8301.1000000000022</v>
       </c>
-      <c r="AR30" s="1">
-        <f t="shared" si="60"/>
+      <c r="BX31" s="1">
+        <f t="shared" si="71"/>
         <v>4711.2000000000016</v>
       </c>
-      <c r="AS30" s="1">
-        <f t="shared" si="60"/>
+      <c r="BY31" s="1">
+        <f t="shared" si="71"/>
         <v>6744.5343337499999</v>
       </c>
     </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.15">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G31" s="19">
-        <f t="shared" ref="G31" si="61">+G30/G32</f>
+      <c r="C32" s="19">
+        <f>+C31/C33</f>
+        <v>-0.48758439694040073</v>
+      </c>
+      <c r="D32" s="19">
+        <f>+D31/D33</f>
+        <v>-0.69115175372639215</v>
+      </c>
+      <c r="E32" s="19">
+        <f>+E31/E33</f>
+        <v>-0.68534586912110373</v>
+      </c>
+      <c r="F32" s="19">
+        <f>+F31/F33</f>
+        <v>-0.58659359005337919</v>
+      </c>
+      <c r="G32" s="19">
+        <f>+G31/G33</f>
+        <v>0.10785824345146394</v>
+      </c>
+      <c r="H32" s="19">
+        <f>+H31/H33</f>
+        <v>0.6964335962674848</v>
+      </c>
+      <c r="I32" s="19">
+        <f>+I31/I33</f>
+        <v>1.6531209531209532</v>
+      </c>
+      <c r="J32" s="19">
+        <f>+J31/J33</f>
+        <v>1.1622118622118625</v>
+      </c>
+      <c r="K32" s="19">
+        <f>+K31/K33</f>
+        <v>0.90367471587012727</v>
+      </c>
+      <c r="L32" s="19">
+        <f>+L31/L33</f>
+        <v>0.78680893210877012</v>
+      </c>
+      <c r="M32" s="19">
+        <f>+M31/M33</f>
+        <v>1.2105592350466536</v>
+      </c>
+      <c r="N32" s="19">
+        <f>+N31/N33</f>
+        <v>0.82948771773495533</v>
+      </c>
+      <c r="AM32" s="19">
+        <f t="shared" ref="AM32" si="72">+AM31/AM33</f>
         <v>6.0955690703735899</v>
       </c>
-      <c r="H31" s="19">
-        <f t="shared" ref="H31:R31" si="62">+H30/H32</f>
+      <c r="AN32" s="19">
+        <f t="shared" ref="AN32:AX32" si="73">+AN31/AN33</f>
         <v>6.2087175188600181</v>
       </c>
-      <c r="I31" s="19">
-        <f t="shared" si="62"/>
+      <c r="AO32" s="19">
+        <f t="shared" si="73"/>
         <v>9.1378402107111469</v>
       </c>
-      <c r="J31" s="19">
-        <f t="shared" si="62"/>
+      <c r="AP32" s="19">
+        <f t="shared" si="73"/>
         <v>7.900178253119428</v>
       </c>
-      <c r="K31" s="19">
-        <f t="shared" si="62"/>
+      <c r="AQ32" s="19">
+        <f t="shared" si="73"/>
         <v>8.5727029438001843</v>
       </c>
-      <c r="L31" s="19">
-        <f t="shared" si="62"/>
+      <c r="AR32" s="19">
+        <f t="shared" si="73"/>
         <v>23.319964349376114</v>
       </c>
-      <c r="M31" s="19">
-        <f t="shared" si="62"/>
+      <c r="AS32" s="19">
+        <f t="shared" si="73"/>
         <v>17.830553116769096</v>
       </c>
-      <c r="N31" s="19">
-        <f t="shared" si="62"/>
+      <c r="AT32" s="19">
+        <f t="shared" si="73"/>
         <v>23.787102473498226</v>
       </c>
-      <c r="O31" s="19">
-        <f t="shared" si="62"/>
+      <c r="AU32" s="19">
+        <f t="shared" si="73"/>
         <v>8.7358326068003507</v>
       </c>
-      <c r="P31" s="19">
-        <f t="shared" si="62"/>
+      <c r="AV32" s="19">
+        <f t="shared" si="73"/>
         <v>8.9194107452339715</v>
       </c>
-      <c r="Q31" s="19">
-        <f t="shared" si="62"/>
+      <c r="AW32" s="19">
+        <f t="shared" si="73"/>
         <v>12.250886524822697</v>
       </c>
-      <c r="R31" s="19">
-        <f t="shared" si="62"/>
+      <c r="AX32" s="19">
+        <f t="shared" si="73"/>
         <v>11.385964912280702</v>
       </c>
-      <c r="S31" s="19">
-        <f t="shared" ref="S31" si="63">+S30/S32</f>
+      <c r="AY32" s="19">
+        <f t="shared" ref="AY32" si="74">+AY31/AY33</f>
         <v>11.325877192982457</v>
       </c>
-      <c r="T31" s="19">
-        <f t="shared" ref="T31" si="64">+T30/T32</f>
+      <c r="AZ32" s="19">
+        <f t="shared" ref="AZ32" si="75">+AZ31/AZ33</f>
         <v>10.878508771929825</v>
       </c>
-      <c r="U31" s="19">
-        <f t="shared" ref="U31" si="65">+U30/U32</f>
+      <c r="BA32" s="19">
+        <f t="shared" ref="BA32" si="76">+BA31/BA33</f>
         <v>19.065921271929827</v>
       </c>
-      <c r="V31" s="19">
-        <f t="shared" ref="V31:X31" si="66">+V30/V32</f>
+      <c r="BB32" s="19">
+        <f t="shared" ref="BB32:BD32" si="77">+BB31/BB33</f>
         <v>17.892274638157897</v>
       </c>
-      <c r="W31" s="19">
-        <f t="shared" si="66"/>
+      <c r="BC32" s="19">
+        <f t="shared" si="77"/>
         <v>10.903508771929825</v>
       </c>
-      <c r="X31" s="19">
-        <f t="shared" si="66"/>
+      <c r="BD32" s="19">
+        <f t="shared" si="77"/>
         <v>13.982456140350877</v>
       </c>
-      <c r="Y31" s="19"/>
-      <c r="Z31" s="19"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AP31" s="25">
-        <f>+AP30/AP32</f>
+      <c r="BE32" s="19"/>
+      <c r="BF32" s="19"/>
+      <c r="BG32" s="19"/>
+      <c r="BH32" s="19"/>
+      <c r="BL32" s="25">
+        <f>+BL31/BL33</f>
+        <v>0</v>
+      </c>
+      <c r="BM32" s="25">
+        <f>+BM31/BM33</f>
+        <v>-2.4476768568590654</v>
+      </c>
+      <c r="BN32" s="25">
+        <f>+BN31/BN33</f>
+        <v>3.5919294170667873</v>
+      </c>
+      <c r="BO32" s="25">
+        <f>+BO31/BO33</f>
+        <v>3.8127145296073337</v>
+      </c>
+      <c r="BP32" s="25">
+        <f>+BP31/BP33</f>
+        <v>3.3645701991835164</v>
+      </c>
+      <c r="BQ32" s="25">
+        <f>+BQ31/BQ33</f>
+        <v>5.683320315889957</v>
+      </c>
+      <c r="BV32" s="25">
+        <f>+BV31/BV33</f>
         <v>29.268186753528777</v>
       </c>
-      <c r="AQ31" s="25">
-        <f t="shared" ref="AQ31:AS31" si="67">+AQ30/AQ32</f>
+      <c r="BW32" s="25">
+        <f t="shared" ref="BW32:BY32" si="78">+BW31/BW33</f>
         <v>73.558706247230845</v>
       </c>
-      <c r="AR31" s="25">
-        <f t="shared" si="67"/>
+      <c r="BX32" s="25">
+        <f t="shared" si="78"/>
         <v>41.244911359159566</v>
       </c>
-      <c r="AS31" s="25">
-        <f t="shared" si="67"/>
+      <c r="BY32" s="25">
+        <f t="shared" si="78"/>
         <v>59.162581875000001</v>
       </c>
     </row>
-    <row r="32" spans="2:45" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="1" t="s">
+    <row r="33" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18">
+      <c r="C33" s="18">
+        <v>89.162000000000006</v>
+      </c>
+      <c r="D33" s="18">
+        <v>90.436000000000007</v>
+      </c>
+      <c r="E33" s="18">
+        <v>91.046000000000006</v>
+      </c>
+      <c r="F33" s="56">
+        <f>+E33</f>
+        <v>91.046000000000006</v>
+      </c>
+      <c r="G33" s="18">
+        <v>107.73399999999999</v>
+      </c>
+      <c r="H33" s="18">
+        <v>110.167</v>
+      </c>
+      <c r="I33" s="18">
+        <v>115.83</v>
+      </c>
+      <c r="J33" s="56">
+        <f>+I33</f>
+        <v>115.83</v>
+      </c>
+      <c r="K33" s="18">
+        <v>109.369</v>
+      </c>
+      <c r="L33" s="18">
+        <v>111.06</v>
+      </c>
+      <c r="M33" s="18">
+        <v>116.71299999999999</v>
+      </c>
+      <c r="N33" s="56">
+        <f>+M33</f>
+        <v>116.71299999999999</v>
+      </c>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" s="18"/>
+      <c r="AI33" s="18"/>
+      <c r="AJ33" s="18"/>
+      <c r="AK33" s="18"/>
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="18">
         <v>115.1</v>
       </c>
-      <c r="H32" s="18">
+      <c r="AN33" s="18">
         <v>119.3</v>
       </c>
-      <c r="I32" s="18">
+      <c r="AO33" s="18">
         <v>113.9</v>
       </c>
-      <c r="J32" s="18">
+      <c r="AP33" s="18">
         <v>112.2</v>
       </c>
-      <c r="K32" s="18">
+      <c r="AQ33" s="18">
         <v>112.1</v>
       </c>
-      <c r="L32" s="18">
+      <c r="AR33" s="18">
         <v>112.2</v>
       </c>
-      <c r="M32" s="18">
+      <c r="AS33" s="18">
         <v>113.9</v>
       </c>
-      <c r="N32" s="18">
+      <c r="AT33" s="18">
         <v>113.2</v>
       </c>
-      <c r="O32" s="18">
+      <c r="AU33" s="18">
         <v>114.7</v>
       </c>
-      <c r="P32" s="18">
+      <c r="AV33" s="18">
         <v>115.4</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="AW33" s="18">
         <v>112.8</v>
       </c>
-      <c r="R32" s="18">
+      <c r="AX33" s="18">
         <v>114</v>
       </c>
-      <c r="S32" s="18">
-        <f t="shared" ref="S32:X32" si="68">+R32</f>
+      <c r="AY33" s="18">
+        <f t="shared" ref="AY33:BD33" si="79">+AX33</f>
         <v>114</v>
       </c>
-      <c r="T32" s="18">
-        <f t="shared" si="68"/>
+      <c r="AZ33" s="18">
+        <f t="shared" si="79"/>
         <v>114</v>
       </c>
-      <c r="U32" s="18">
-        <f t="shared" si="68"/>
+      <c r="BA33" s="18">
+        <f t="shared" si="79"/>
         <v>114</v>
       </c>
-      <c r="V32" s="18">
-        <f t="shared" si="68"/>
+      <c r="BB33" s="18">
+        <f t="shared" si="79"/>
         <v>114</v>
       </c>
-      <c r="W32" s="18">
-        <f t="shared" si="68"/>
+      <c r="BC33" s="18">
+        <f t="shared" si="79"/>
         <v>114</v>
       </c>
-      <c r="X32" s="18">
-        <f t="shared" si="68"/>
+      <c r="BD33" s="18">
+        <f t="shared" si="79"/>
         <v>114</v>
       </c>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AP32" s="1">
-        <f>AVERAGE(G32:J32)</f>
+      <c r="BE33" s="18"/>
+      <c r="BF33" s="18"/>
+      <c r="BG33" s="18"/>
+      <c r="BH33" s="18"/>
+      <c r="BL33" s="1">
+        <v>82.926000000000002</v>
+      </c>
+      <c r="BM33" s="1">
+        <v>90.61</v>
+      </c>
+      <c r="BN33" s="1">
+        <v>115.38200000000001</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>111.29</v>
+      </c>
+      <c r="BP33" s="1">
+        <v>113.413</v>
+      </c>
+      <c r="BQ33" s="1">
+        <v>115.23</v>
+      </c>
+      <c r="BV33" s="1">
+        <f>AVERAGE(AM33:AP33)</f>
         <v>115.12499999999999</v>
       </c>
-      <c r="AQ32" s="1">
-        <f>AVERAGE(K32:N32)</f>
+      <c r="BW33" s="1">
+        <f>AVERAGE(AQ33:AT33)</f>
         <v>112.85000000000001</v>
       </c>
-      <c r="AR32" s="1">
-        <f>AVERAGE(O32:R32)</f>
+      <c r="BX33" s="1">
+        <f>AVERAGE(AU33:AX33)</f>
         <v>114.22500000000001</v>
       </c>
-      <c r="AS32" s="1">
-        <f>AVERAGE(S32:V32)</f>
+      <c r="BY33" s="1">
+        <f>AVERAGE(AY33:BB33)</f>
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="2:28" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="20" t="s">
+    <row r="35" spans="2:77" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="20" t="s">
         <v>249</v>
-      </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="51">
-        <f t="shared" ref="K34" si="69">K20/G20-1</f>
-        <v>0.38354665791488918</v>
-      </c>
-      <c r="L34" s="51">
-        <f t="shared" ref="L34" si="70">L20/H20-1</f>
-        <v>1.6321262101111507</v>
-      </c>
-      <c r="M34" s="51">
-        <f t="shared" ref="M34:O34" si="71">M20/I20-1</f>
-        <v>0.50531868515127765</v>
-      </c>
-      <c r="N34" s="51">
-        <f t="shared" si="71"/>
-        <v>1.153106926990477</v>
-      </c>
-      <c r="O34" s="51">
-        <f t="shared" si="71"/>
-        <v>0.17241242982525495</v>
-      </c>
-      <c r="P34" s="51">
-        <f>P20/L20-1</f>
-        <v>-0.44412010819857162</v>
-      </c>
-      <c r="Q34" s="51">
-        <f t="shared" ref="Q34" si="72">Q20/M20-1</f>
-        <v>-0.14958440730979761</v>
-      </c>
-      <c r="R34" s="51">
-        <f>R20/N20-1</f>
-        <v>-0.31049177017065521</v>
-      </c>
-      <c r="S34" s="51">
-        <f t="shared" ref="S34" si="73">S20/O20-1</f>
-        <v>6.626201315123903E-2</v>
-      </c>
-      <c r="T34" s="51">
-        <f t="shared" ref="T34" si="74">T20/P20-1</f>
-        <v>0.10554874846840545</v>
-      </c>
-      <c r="U34" s="51">
-        <f t="shared" ref="U34" si="75">U20/Q20-1</f>
-        <v>0.14428722244925751</v>
-      </c>
-      <c r="V34" s="51">
-        <f t="shared" ref="V34:X34" si="76">V20/R20-1</f>
-        <v>-5.2137459359713478E-3</v>
-      </c>
-      <c r="W34" s="51">
-        <f t="shared" si="76"/>
-        <v>-5.3763440860215006E-3</v>
-      </c>
-      <c r="X34" s="51">
-        <f t="shared" si="76"/>
-        <v>0.12317922735908793</v>
-      </c>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51"/>
-    </row>
-    <row r="35" spans="2:28" s="52" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="20" t="s">
-        <v>257</v>
       </c>
       <c r="C35" s="50"/>
       <c r="D35" s="50"/>
@@ -5496,308 +7609,418 @@
       <c r="H35" s="50"/>
       <c r="I35" s="50"/>
       <c r="J35" s="50"/>
-      <c r="K35" s="49">
-        <f t="shared" ref="K35" si="77">+K3/G3-1</f>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="50"/>
+      <c r="V35" s="50"/>
+      <c r="W35" s="50"/>
+      <c r="X35" s="50"/>
+      <c r="Y35" s="50"/>
+      <c r="Z35" s="50"/>
+      <c r="AA35" s="50"/>
+      <c r="AB35" s="50"/>
+      <c r="AC35" s="50"/>
+      <c r="AD35" s="50"/>
+      <c r="AE35" s="50"/>
+      <c r="AF35" s="50"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="50"/>
+      <c r="AI35" s="50"/>
+      <c r="AJ35" s="50"/>
+      <c r="AK35" s="50"/>
+      <c r="AL35" s="50"/>
+      <c r="AM35" s="50"/>
+      <c r="AN35" s="50"/>
+      <c r="AO35" s="50"/>
+      <c r="AP35" s="50"/>
+      <c r="AQ35" s="51">
+        <f t="shared" ref="AQ35" si="80">AQ21/AM21-1</f>
+        <v>0.38354665791488918</v>
+      </c>
+      <c r="AR35" s="51">
+        <f t="shared" ref="AR35" si="81">AR21/AN21-1</f>
+        <v>1.6321262101111507</v>
+      </c>
+      <c r="AS35" s="51">
+        <f t="shared" ref="AS35:AU35" si="82">AS21/AO21-1</f>
+        <v>0.50531868515127765</v>
+      </c>
+      <c r="AT35" s="51">
+        <f t="shared" si="82"/>
+        <v>1.153106926990477</v>
+      </c>
+      <c r="AU35" s="51">
+        <f t="shared" si="82"/>
+        <v>0.17241242982525495</v>
+      </c>
+      <c r="AV35" s="51">
+        <f>AV21/AR21-1</f>
+        <v>-0.44412010819857162</v>
+      </c>
+      <c r="AW35" s="51">
+        <f t="shared" ref="AW35" si="83">AW21/AS21-1</f>
+        <v>-0.14958440730979761</v>
+      </c>
+      <c r="AX35" s="51">
+        <f>AX21/AT21-1</f>
+        <v>-0.31049177017065521</v>
+      </c>
+      <c r="AY35" s="51">
+        <f t="shared" ref="AY35" si="84">AY21/AU21-1</f>
+        <v>6.626201315123903E-2</v>
+      </c>
+      <c r="AZ35" s="51">
+        <f t="shared" ref="AZ35" si="85">AZ21/AV21-1</f>
+        <v>0.10554874846840545</v>
+      </c>
+      <c r="BA35" s="51">
+        <f t="shared" ref="BA35" si="86">BA21/AW21-1</f>
+        <v>0.14428722244925751</v>
+      </c>
+      <c r="BB35" s="51">
+        <f t="shared" ref="BB35:BD35" si="87">BB21/AX21-1</f>
+        <v>-5.2137459359713478E-3</v>
+      </c>
+      <c r="BC35" s="51">
+        <f t="shared" si="87"/>
+        <v>-5.3763440860215006E-3</v>
+      </c>
+      <c r="BD35" s="51">
+        <f t="shared" si="87"/>
+        <v>0.12317922735908793</v>
+      </c>
+      <c r="BE35" s="51"/>
+      <c r="BF35" s="51"/>
+      <c r="BG35" s="51"/>
+      <c r="BH35" s="51"/>
+    </row>
+    <row r="36" spans="2:77" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="50"/>
+      <c r="V36" s="50"/>
+      <c r="W36" s="50"/>
+      <c r="X36" s="50"/>
+      <c r="Y36" s="50"/>
+      <c r="Z36" s="50"/>
+      <c r="AA36" s="50"/>
+      <c r="AB36" s="50"/>
+      <c r="AC36" s="50"/>
+      <c r="AD36" s="50"/>
+      <c r="AE36" s="50"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+      <c r="AH36" s="50"/>
+      <c r="AI36" s="50"/>
+      <c r="AJ36" s="50"/>
+      <c r="AK36" s="50"/>
+      <c r="AL36" s="50"/>
+      <c r="AM36" s="50"/>
+      <c r="AN36" s="50"/>
+      <c r="AO36" s="50"/>
+      <c r="AP36" s="50"/>
+      <c r="AQ36" s="49">
+        <f t="shared" ref="AQ36" si="88">+AQ3/AM3-1</f>
         <v>0.14931740614334466</v>
       </c>
-      <c r="L35" s="49">
-        <f t="shared" ref="L35" si="78">+L3/H3-1</f>
+      <c r="AR36" s="49">
+        <f t="shared" ref="AR36" si="89">+AR3/AN3-1</f>
         <v>0.2791741472172351</v>
       </c>
-      <c r="M35" s="49">
-        <f>+M3/I3-1</f>
+      <c r="AS36" s="49">
+        <f>+AS3/AO3-1</f>
         <v>0.11760242792109254</v>
       </c>
-      <c r="N35" s="49">
-        <f t="shared" ref="N35:X35" si="79">+N3/J3-1</f>
+      <c r="AT36" s="49">
+        <f t="shared" ref="AT36:BD36" si="90">+AT3/AP3-1</f>
         <v>0.15189873417721511</v>
       </c>
-      <c r="O35" s="49">
-        <f t="shared" si="79"/>
+      <c r="AU36" s="49">
+        <f t="shared" si="90"/>
         <v>0.12694877505567925</v>
       </c>
-      <c r="P35" s="49">
-        <f t="shared" si="79"/>
+      <c r="AV36" s="49">
+        <f t="shared" si="90"/>
         <v>0.13754385964912275</v>
       </c>
-      <c r="Q35" s="49">
-        <f t="shared" si="79"/>
+      <c r="AW36" s="49">
+        <f t="shared" si="90"/>
         <v>0.10590631364562109</v>
       </c>
-      <c r="R35" s="49">
-        <f>+R3/N3-1</f>
+      <c r="AX36" s="49">
+        <f>+AX3/AT3-1</f>
         <v>-3.2967032967032961E-2</v>
       </c>
-      <c r="S35" s="49">
-        <f t="shared" si="79"/>
+      <c r="AY36" s="49">
+        <f t="shared" si="90"/>
         <v>-5.5335968379446654E-2</v>
       </c>
-      <c r="T35" s="49">
-        <f t="shared" si="79"/>
+      <c r="AZ36" s="49">
+        <f t="shared" si="90"/>
         <v>-7.464528069093157E-2</v>
       </c>
-      <c r="U35" s="49">
-        <f t="shared" si="79"/>
+      <c r="BA36" s="49">
+        <f t="shared" si="90"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="V35" s="49">
-        <f t="shared" si="79"/>
+      <c r="BB36" s="49">
+        <f t="shared" si="90"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="W35" s="49">
-        <f t="shared" si="79"/>
+      <c r="BC36" s="49">
+        <f t="shared" si="90"/>
         <v>-0.1617852161785216</v>
       </c>
-      <c r="X35" s="49">
-        <f t="shared" si="79"/>
+      <c r="BD36" s="49">
+        <f t="shared" si="90"/>
         <v>-0.17933333333333334</v>
       </c>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
-      <c r="AB35" s="49"/>
-    </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
+      <c r="BE36" s="49"/>
+      <c r="BF36" s="49"/>
+      <c r="BG36" s="49"/>
+      <c r="BH36" s="49"/>
+    </row>
+    <row r="37" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="K36" s="49">
-        <f t="shared" ref="K36" si="80">K10/G10-1</f>
+      <c r="AQ37" s="49">
+        <f t="shared" ref="AQ37" si="91">AQ10/AM10-1</f>
         <v>0.47752126366950209</v>
       </c>
-      <c r="L36" s="49">
-        <f t="shared" ref="L36" si="81">L10/H10-1</f>
+      <c r="AR37" s="49">
+        <f t="shared" ref="AR37" si="92">AR10/AN10-1</f>
         <v>0.6265328874024525</v>
       </c>
-      <c r="M36" s="49">
-        <f>M10/I10-1</f>
+      <c r="AS37" s="49">
+        <f>AS10/AO10-1</f>
         <v>0.64675912821964343</v>
       </c>
-      <c r="N36" s="49">
-        <f t="shared" ref="N36:Q36" si="82">N10/J10-1</f>
+      <c r="AT37" s="49">
+        <f t="shared" ref="AT37:AW37" si="93">AT10/AP10-1</f>
         <v>0.63323872595395758</v>
       </c>
-      <c r="O36" s="49">
-        <f t="shared" si="82"/>
+      <c r="AU37" s="49">
+        <f t="shared" si="93"/>
         <v>0.72944078947368385</v>
       </c>
-      <c r="P36" s="49">
-        <f t="shared" si="82"/>
+      <c r="AV37" s="49">
+        <f t="shared" si="93"/>
         <v>0.54786383367603375</v>
       </c>
-      <c r="Q36" s="49">
-        <f t="shared" si="82"/>
+      <c r="AW37" s="49">
+        <f t="shared" si="93"/>
         <v>0.22275696115503596</v>
       </c>
-      <c r="R36" s="49">
-        <f>R10/N10-1</f>
+      <c r="AX37" s="49">
+        <f>AX10/AT10-1</f>
         <v>0.61401815022205053</v>
       </c>
-      <c r="S36" s="49">
-        <f t="shared" ref="S36" si="83">S10/O10-1</f>
+      <c r="AY37" s="49">
+        <f t="shared" ref="AY37" si="94">AY10/AU10-1</f>
         <v>0.26485972420351889</v>
       </c>
-      <c r="T36" s="49">
-        <f t="shared" ref="T36" si="84">T10/P10-1</f>
+      <c r="AZ37" s="49">
+        <f t="shared" ref="AZ37" si="95">AZ10/AV10-1</f>
         <v>0.39335793357933579</v>
       </c>
-      <c r="U36" s="49">
-        <f t="shared" ref="U36" si="85">U10/Q10-1</f>
+      <c r="BA37" s="49">
+        <f t="shared" ref="BA37" si="96">BA10/AW10-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="V36" s="49">
-        <f t="shared" ref="V36:X36" si="86">V10/R10-1</f>
+      <c r="BB37" s="49">
+        <f t="shared" ref="BB37:BD37" si="97">BB10/AX10-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="W36" s="49">
-        <f t="shared" si="86"/>
+      <c r="BC37" s="49">
+        <f t="shared" si="97"/>
         <v>0.14035087719298245</v>
       </c>
-      <c r="X36" s="49">
-        <f t="shared" si="86"/>
+      <c r="BD37" s="49">
+        <f t="shared" si="97"/>
         <v>0.21398305084745761</v>
       </c>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="49"/>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B37" s="1" t="s">
+      <c r="BE37" s="49"/>
+      <c r="BF37" s="49"/>
+      <c r="BG37" s="49"/>
+      <c r="BH37" s="49"/>
+    </row>
+    <row r="38" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="K37" s="49">
-        <f t="shared" ref="K37" si="87">K14/G14-1</f>
+      <c r="AQ38" s="49">
+        <f t="shared" ref="AQ38" si="98">AQ14/AM14-1</f>
         <v>0.47707602339181299</v>
       </c>
-      <c r="L37" s="49">
-        <f t="shared" ref="L37" si="88">L14/H14-1</f>
+      <c r="AR38" s="49">
+        <f t="shared" ref="AR38" si="99">AR14/AN14-1</f>
         <v>0.58624338624338623</v>
       </c>
-      <c r="M37" s="49">
-        <f>M14/I14-1</f>
+      <c r="AS38" s="49">
+        <f>AS14/AO14-1</f>
         <v>0.55034495618124213</v>
       </c>
-      <c r="N37" s="49">
-        <f t="shared" ref="N37:Q37" si="89">N14/J14-1</f>
+      <c r="AT38" s="49">
+        <f t="shared" ref="AT38:AW38" si="100">AT14/AP14-1</f>
         <v>0.51348122866894186</v>
       </c>
-      <c r="O37" s="49">
-        <f t="shared" si="89"/>
+      <c r="AU38" s="49">
+        <f t="shared" si="100"/>
         <v>0.43352601156069359</v>
       </c>
-      <c r="P37" s="49">
-        <f t="shared" si="89"/>
+      <c r="AV38" s="49">
+        <f t="shared" si="100"/>
         <v>0.39546364242828558</v>
       </c>
-      <c r="Q37" s="49">
-        <f t="shared" si="89"/>
+      <c r="AW38" s="49">
+        <f t="shared" si="100"/>
         <v>0.40122677250586314</v>
       </c>
-      <c r="R37" s="49">
-        <f>R14/N14-1</f>
+      <c r="AX38" s="49">
+        <f>AX14/AT14-1</f>
         <v>0.38059533205547424</v>
       </c>
-      <c r="S37" s="49">
-        <f t="shared" ref="S37" si="90">S14/O14-1</f>
+      <c r="AY38" s="49">
+        <f t="shared" ref="AY38" si="101">AY14/AU14-1</f>
         <v>-1</v>
       </c>
-      <c r="T37" s="49">
-        <f t="shared" ref="T37" si="91">T14/P14-1</f>
+      <c r="AZ38" s="49">
+        <f t="shared" ref="AZ38" si="102">AZ14/AV14-1</f>
         <v>0.33349268572521273</v>
       </c>
-      <c r="U37" s="49">
-        <f t="shared" ref="U37" si="92">U14/Q14-1</f>
+      <c r="BA38" s="49">
+        <f t="shared" ref="BA38" si="103">BA14/AW14-1</f>
         <v>-1</v>
       </c>
-      <c r="V37" s="49">
-        <f t="shared" ref="V37:X37" si="93">V14/R14-1</f>
+      <c r="BB38" s="49">
+        <f t="shared" ref="BB38:BD38" si="104">BB14/AX14-1</f>
         <v>-1</v>
       </c>
-      <c r="W37" s="49" t="e">
-        <f t="shared" si="93"/>
+      <c r="BC38" s="49" t="e">
+        <f t="shared" si="104"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X37" s="49">
-        <f t="shared" si="93"/>
+      <c r="BD38" s="49">
+        <f t="shared" si="104"/>
         <v>0.2749695274969528</v>
       </c>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="49"/>
-      <c r="AB37" s="49"/>
-    </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
+      <c r="BE38" s="49"/>
+      <c r="BF38" s="49"/>
+      <c r="BG38" s="49"/>
+      <c r="BH38" s="49"/>
+    </row>
+    <row r="40" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="G39" s="49">
-        <f t="shared" ref="G39" si="94">+G22/G20</f>
+      <c r="AM40" s="49">
+        <f t="shared" ref="AM40" si="105">+AM23/AM21</f>
         <v>0.88113991904605626</v>
       </c>
-      <c r="H39" s="49">
-        <f t="shared" ref="H39:O39" si="95">+H22/H20</f>
+      <c r="AN40" s="49">
+        <f t="shared" ref="AN40:AU40" si="106">+AN23/AN21</f>
         <v>0.863648004917277</v>
       </c>
-      <c r="I39" s="49">
-        <f t="shared" si="95"/>
+      <c r="AO40" s="49">
+        <f t="shared" si="106"/>
         <v>0.94681314848722642</v>
       </c>
-      <c r="J39" s="49">
-        <f t="shared" si="95"/>
+      <c r="AP40" s="49">
+        <f t="shared" si="106"/>
         <v>0.85237204852806892</v>
       </c>
-      <c r="K39" s="49">
-        <f t="shared" si="95"/>
+      <c r="AQ40" s="49">
+        <f t="shared" si="106"/>
         <v>0.87823199177670597</v>
       </c>
-      <c r="L39" s="49">
-        <f t="shared" si="95"/>
+      <c r="AR40" s="49">
+        <f t="shared" si="106"/>
         <v>0.86500476774281432</v>
       </c>
-      <c r="M39" s="49">
-        <f t="shared" si="95"/>
+      <c r="AS40" s="49">
+        <f t="shared" si="106"/>
         <v>0.93512699470010718</v>
       </c>
-      <c r="N39" s="49">
-        <f t="shared" si="95"/>
+      <c r="AT40" s="49">
+        <f t="shared" si="106"/>
         <v>0.85259012420478653</v>
       </c>
-      <c r="O39" s="49">
-        <f t="shared" si="95"/>
+      <c r="AU40" s="49">
+        <f t="shared" si="106"/>
         <v>0.86346315966953291</v>
       </c>
-      <c r="P39" s="49">
-        <f>+P22/P20</f>
+      <c r="AV40" s="49">
+        <f>+AV23/AV21</f>
         <v>0.89599159810957474</v>
       </c>
-      <c r="Q39" s="49">
-        <f t="shared" ref="Q39" si="96">+Q22/Q20</f>
+      <c r="AW40" s="49">
+        <f t="shared" ref="AW40" si="107">+AW23/AW21</f>
         <v>0.96287971665985561</v>
       </c>
-      <c r="R39" s="49">
-        <f t="shared" ref="R39:X39" si="97">+R22/R20</f>
+      <c r="AX40" s="49">
+        <f t="shared" ref="AX40:BD40" si="108">+AX23/AX21</f>
         <v>0.88658797340441109</v>
       </c>
-      <c r="S39" s="49">
-        <f t="shared" si="97"/>
+      <c r="AY40" s="49">
+        <f t="shared" si="108"/>
         <v>0.94686907020872868</v>
       </c>
-      <c r="T39" s="49">
-        <f t="shared" si="97"/>
+      <c r="AZ40" s="49">
+        <f t="shared" si="108"/>
         <v>0.94838505383153893</v>
       </c>
-      <c r="U39" s="49">
-        <f t="shared" si="97"/>
+      <c r="BA40" s="49">
+        <f t="shared" si="108"/>
         <v>0.9</v>
       </c>
-      <c r="V39" s="49">
-        <f t="shared" si="97"/>
+      <c r="BB40" s="49">
+        <f t="shared" si="108"/>
         <v>0.9</v>
       </c>
-      <c r="W39" s="49">
-        <f t="shared" si="97"/>
+      <c r="BC40" s="49">
+        <f t="shared" si="108"/>
         <v>0.93767885532591411</v>
       </c>
-      <c r="X39" s="49">
-        <f t="shared" si="97"/>
+      <c r="BD40" s="49">
+        <f t="shared" si="108"/>
         <v>0.93966732449957713</v>
       </c>
-      <c r="Y39" s="49"/>
-      <c r="Z39" s="49"/>
-      <c r="AA39" s="49"/>
-      <c r="AB39" s="49"/>
-    </row>
-    <row r="46" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="1" t="s">
+      <c r="BE40" s="49"/>
+      <c r="BF40" s="49"/>
+      <c r="BG40" s="49"/>
+      <c r="BH40" s="49"/>
+    </row>
+    <row r="47" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18">
-        <f>3105.9+4636.4+6591.8</f>
-        <v>14334.099999999999</v>
-      </c>
-      <c r="X46" s="1">
-        <v>17531</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -5814,13 +8037,49 @@
       <c r="O47" s="18"/>
       <c r="P47" s="18"/>
       <c r="Q47" s="18"/>
-      <c r="R47" s="18">
-        <v>5328.7</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18"/>
+      <c r="AA47" s="18"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18"/>
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="18"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="18"/>
+      <c r="AI47" s="18"/>
+      <c r="AJ47" s="18"/>
+      <c r="AK47" s="18"/>
+      <c r="AL47" s="18"/>
+      <c r="AM47" s="18"/>
+      <c r="AN47" s="18"/>
+      <c r="AO47" s="18"/>
+      <c r="AP47" s="18"/>
+      <c r="AQ47" s="18"/>
+      <c r="AR47" s="18"/>
+      <c r="AS47" s="18"/>
+      <c r="AT47" s="18"/>
+      <c r="AU47" s="18"/>
+      <c r="AV47" s="18"/>
+      <c r="AW47" s="18"/>
+      <c r="AX47" s="18">
+        <f>3105.9+4636.4+6591.8</f>
+        <v>14334.099999999999</v>
+      </c>
+      <c r="BD47" s="1">
+        <v>17531</v>
+      </c>
+    </row>
+    <row r="48" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -5837,13 +8096,45 @@
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
-      <c r="R48" s="18">
-        <v>2401.9</v>
-      </c>
-    </row>
-    <row r="49" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+      <c r="X48" s="18"/>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="18"/>
+      <c r="AA48" s="18"/>
+      <c r="AB48" s="18"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="18"/>
+      <c r="AE48" s="18"/>
+      <c r="AF48" s="18"/>
+      <c r="AG48" s="18"/>
+      <c r="AH48" s="18"/>
+      <c r="AI48" s="18"/>
+      <c r="AJ48" s="18"/>
+      <c r="AK48" s="18"/>
+      <c r="AL48" s="18"/>
+      <c r="AM48" s="18"/>
+      <c r="AN48" s="18"/>
+      <c r="AO48" s="18"/>
+      <c r="AP48" s="18"/>
+      <c r="AQ48" s="18"/>
+      <c r="AR48" s="18"/>
+      <c r="AS48" s="18"/>
+      <c r="AT48" s="18"/>
+      <c r="AU48" s="18"/>
+      <c r="AV48" s="18"/>
+      <c r="AW48" s="18"/>
+      <c r="AX48" s="18">
+        <v>5328.7</v>
+      </c>
+    </row>
+    <row r="49" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -5860,13 +8151,45 @@
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
       <c r="Q49" s="18"/>
-      <c r="R49" s="18">
-        <v>411.2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="18"/>
+      <c r="Y49" s="18"/>
+      <c r="Z49" s="18"/>
+      <c r="AA49" s="18"/>
+      <c r="AB49" s="18"/>
+      <c r="AC49" s="18"/>
+      <c r="AD49" s="18"/>
+      <c r="AE49" s="18"/>
+      <c r="AF49" s="18"/>
+      <c r="AG49" s="18"/>
+      <c r="AH49" s="18"/>
+      <c r="AI49" s="18"/>
+      <c r="AJ49" s="18"/>
+      <c r="AK49" s="18"/>
+      <c r="AL49" s="18"/>
+      <c r="AM49" s="18"/>
+      <c r="AN49" s="18"/>
+      <c r="AO49" s="18"/>
+      <c r="AP49" s="18"/>
+      <c r="AQ49" s="18"/>
+      <c r="AR49" s="18"/>
+      <c r="AS49" s="18"/>
+      <c r="AT49" s="18"/>
+      <c r="AU49" s="18"/>
+      <c r="AV49" s="18"/>
+      <c r="AW49" s="18"/>
+      <c r="AX49" s="18">
+        <v>2401.9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -5883,13 +8206,45 @@
       <c r="O50" s="18"/>
       <c r="P50" s="18"/>
       <c r="Q50" s="18"/>
-      <c r="R50" s="18">
-        <v>3763</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+      <c r="X50" s="18"/>
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="18"/>
+      <c r="AI50" s="18"/>
+      <c r="AJ50" s="18"/>
+      <c r="AK50" s="18"/>
+      <c r="AL50" s="18"/>
+      <c r="AM50" s="18"/>
+      <c r="AN50" s="18"/>
+      <c r="AO50" s="18"/>
+      <c r="AP50" s="18"/>
+      <c r="AQ50" s="18"/>
+      <c r="AR50" s="18"/>
+      <c r="AS50" s="18"/>
+      <c r="AT50" s="18"/>
+      <c r="AU50" s="18"/>
+      <c r="AV50" s="18"/>
+      <c r="AW50" s="18"/>
+      <c r="AX50" s="18">
+        <v>411.2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -5906,13 +8261,45 @@
       <c r="O51" s="18"/>
       <c r="P51" s="18"/>
       <c r="Q51" s="18"/>
-      <c r="R51" s="18">
-        <v>915.5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18"/>
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18"/>
+      <c r="AI51" s="18"/>
+      <c r="AJ51" s="18"/>
+      <c r="AK51" s="18"/>
+      <c r="AL51" s="18"/>
+      <c r="AM51" s="18"/>
+      <c r="AN51" s="18"/>
+      <c r="AO51" s="18"/>
+      <c r="AP51" s="18"/>
+      <c r="AQ51" s="18"/>
+      <c r="AR51" s="18"/>
+      <c r="AS51" s="18"/>
+      <c r="AT51" s="18"/>
+      <c r="AU51" s="18"/>
+      <c r="AV51" s="18"/>
+      <c r="AW51" s="18"/>
+      <c r="AX51" s="18">
+        <v>3763</v>
+      </c>
+    </row>
+    <row r="52" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>230</v>
+        <v>317</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -5929,13 +8316,45 @@
       <c r="O52" s="18"/>
       <c r="P52" s="18"/>
       <c r="Q52" s="18"/>
-      <c r="R52" s="18">
-        <v>1723.7</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+      <c r="X52" s="18"/>
+      <c r="Y52" s="18"/>
+      <c r="Z52" s="18"/>
+      <c r="AA52" s="18"/>
+      <c r="AB52" s="18"/>
+      <c r="AC52" s="18"/>
+      <c r="AD52" s="18"/>
+      <c r="AE52" s="18"/>
+      <c r="AF52" s="18"/>
+      <c r="AG52" s="18"/>
+      <c r="AH52" s="18"/>
+      <c r="AI52" s="18"/>
+      <c r="AJ52" s="18"/>
+      <c r="AK52" s="18"/>
+      <c r="AL52" s="18"/>
+      <c r="AM52" s="18"/>
+      <c r="AN52" s="18"/>
+      <c r="AO52" s="18"/>
+      <c r="AP52" s="18"/>
+      <c r="AQ52" s="18"/>
+      <c r="AR52" s="18"/>
+      <c r="AS52" s="18"/>
+      <c r="AT52" s="18"/>
+      <c r="AU52" s="18"/>
+      <c r="AV52" s="18"/>
+      <c r="AW52" s="18"/>
+      <c r="AX52" s="18">
+        <v>915.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -5952,13 +8371,45 @@
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
       <c r="Q53" s="18"/>
-      <c r="R53" s="18">
-        <v>336.4</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+      <c r="Y53" s="18"/>
+      <c r="Z53" s="18"/>
+      <c r="AA53" s="18"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="18"/>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
+      <c r="AG53" s="18"/>
+      <c r="AH53" s="18"/>
+      <c r="AI53" s="18"/>
+      <c r="AJ53" s="18"/>
+      <c r="AK53" s="18"/>
+      <c r="AL53" s="18"/>
+      <c r="AM53" s="18"/>
+      <c r="AN53" s="18"/>
+      <c r="AO53" s="18"/>
+      <c r="AP53" s="18"/>
+      <c r="AQ53" s="18"/>
+      <c r="AR53" s="18"/>
+      <c r="AS53" s="18"/>
+      <c r="AT53" s="18"/>
+      <c r="AU53" s="18"/>
+      <c r="AV53" s="18"/>
+      <c r="AW53" s="18"/>
+      <c r="AX53" s="18">
+        <v>1723.7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
@@ -5975,84 +8426,171 @@
       <c r="O54" s="18"/>
       <c r="P54" s="18"/>
       <c r="Q54" s="18"/>
-      <c r="R54" s="18">
-        <f>SUM(R46:R53)</f>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
+      <c r="AA54" s="18"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="18"/>
+      <c r="AE54" s="18"/>
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="18"/>
+      <c r="AH54" s="18"/>
+      <c r="AI54" s="18"/>
+      <c r="AJ54" s="18"/>
+      <c r="AK54" s="18"/>
+      <c r="AL54" s="18"/>
+      <c r="AM54" s="18"/>
+      <c r="AN54" s="18"/>
+      <c r="AO54" s="18"/>
+      <c r="AP54" s="18"/>
+      <c r="AQ54" s="18"/>
+      <c r="AR54" s="18"/>
+      <c r="AS54" s="18"/>
+      <c r="AT54" s="18"/>
+      <c r="AU54" s="18"/>
+      <c r="AV54" s="18"/>
+      <c r="AW54" s="18"/>
+      <c r="AX54" s="18">
+        <v>336.4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
+      <c r="AA55" s="18"/>
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="18"/>
+      <c r="AD55" s="18"/>
+      <c r="AE55" s="18"/>
+      <c r="AF55" s="18"/>
+      <c r="AG55" s="18"/>
+      <c r="AH55" s="18"/>
+      <c r="AI55" s="18"/>
+      <c r="AJ55" s="18"/>
+      <c r="AK55" s="18"/>
+      <c r="AL55" s="18"/>
+      <c r="AM55" s="18"/>
+      <c r="AN55" s="18"/>
+      <c r="AO55" s="18"/>
+      <c r="AP55" s="18"/>
+      <c r="AQ55" s="18"/>
+      <c r="AR55" s="18"/>
+      <c r="AS55" s="18"/>
+      <c r="AT55" s="18"/>
+      <c r="AU55" s="18"/>
+      <c r="AV55" s="18"/>
+      <c r="AW55" s="18"/>
+      <c r="AX55" s="18">
+        <f>SUM(AX47:AX54)</f>
         <v>29214.500000000004</v>
       </c>
     </row>
-    <row r="55" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="X55" s="1"/>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B56" s="1" t="s">
+    <row r="56" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="BD56" s="1"/>
+    </row>
+    <row r="57" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="R56" s="18">
+      <c r="AX57" s="18">
         <v>589.20000000000005</v>
       </c>
-      <c r="X56" s="1"/>
-    </row>
-    <row r="57" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B57" s="1" t="s">
+      <c r="BD57" s="1"/>
+    </row>
+    <row r="58" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="R57" s="18">
+      <c r="AX58" s="18">
         <v>2074.1999999999998</v>
       </c>
-      <c r="X57" s="1"/>
-    </row>
-    <row r="58" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B58" s="1" t="s">
+      <c r="BD58" s="1"/>
+    </row>
+    <row r="59" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="R58" s="18">
+      <c r="AX59" s="18">
         <f>477.9+69.8</f>
         <v>547.69999999999993</v>
       </c>
-      <c r="X58" s="1"/>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+      <c r="BD59" s="1"/>
+    </row>
+    <row r="60" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>29</v>
       </c>
-      <c r="R59" s="18">
+      <c r="AX60" s="18">
         <v>1981.4</v>
       </c>
-      <c r="X59" s="1">
+      <c r="BD60" s="1">
         <v>1983.6</v>
       </c>
     </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
+    <row r="61" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="R60" s="18">
+      <c r="AX61" s="18">
         <v>720</v>
       </c>
-      <c r="X60" s="1"/>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B61" s="1" t="s">
+      <c r="BD61" s="1"/>
+    </row>
+    <row r="62" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="R61" s="18">
+      <c r="AX62" s="18">
         <v>638</v>
       </c>
     </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B62" s="1" t="s">
+    <row r="63" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="R62" s="18">
+      <c r="AX63" s="18">
         <v>22664</v>
       </c>
     </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
+    <row r="64" spans="2:56" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>324</v>
       </c>
-      <c r="R63" s="18">
-        <f>SUM(R56:R62)</f>
+      <c r="AX64" s="18">
+        <f>SUM(AX57:AX63)</f>
         <v>29214.5</v>
       </c>
     </row>
@@ -6072,19 +8610,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="12"/>
+    <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -6092,7 +8630,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -6100,7 +8638,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -6108,7 +8646,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -6116,32 +8654,32 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="13" t="s">
         <v>198</v>
       </c>
@@ -6162,25 +8700,25 @@
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="9.1640625" style="2"/>
-    <col min="7" max="7" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="2"/>
-    <col min="9" max="9" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
@@ -6188,7 +8726,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -6196,7 +8734,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
@@ -6204,7 +8742,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
@@ -6212,7 +8750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -6220,7 +8758,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
@@ -6228,7 +8766,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>134</v>
       </c>
@@ -6236,7 +8774,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
@@ -6244,32 +8782,32 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
         <v>121</v>
       </c>
@@ -6286,7 +8824,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
         <v>120</v>
       </c>
@@ -6309,7 +8847,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>118</v>
       </c>
@@ -6332,7 +8870,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
         <v>116</v>
       </c>
@@ -6355,7 +8893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="2" t="s">
         <v>114</v>
       </c>
@@ -6378,7 +8916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G21" s="4" t="s">
         <v>111</v>
       </c>
@@ -6395,7 +8933,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G22" s="4" t="s">
         <v>110</v>
       </c>
@@ -6415,7 +8953,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G23" s="4" t="s">
         <v>105</v>
       </c>
@@ -6432,43 +8970,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
         <v>120</v>
       </c>
@@ -6488,7 +9026,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="2" t="s">
         <v>118</v>
       </c>
@@ -6511,7 +9049,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
         <v>116</v>
       </c>
@@ -6534,7 +9072,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
@@ -6557,7 +9095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G35" s="2" t="s">
         <v>112</v>
       </c>
@@ -6574,7 +9112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G36" s="4" t="s">
         <v>111</v>
       </c>
@@ -6591,7 +9129,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G37" s="4" t="s">
         <v>110</v>
       </c>
@@ -6611,7 +9149,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G38" s="4" t="s">
         <v>105</v>
       </c>
@@ -6628,14 +9166,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G39" s="4"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40" s="5" t="s">
         <v>104</v>
       </c>
@@ -6645,7 +9183,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
@@ -6655,7 +9193,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
         <v>102</v>
       </c>
@@ -6665,7 +9203,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
         <v>101</v>
       </c>
@@ -6675,14 +9213,14 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G44" s="4"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C45" s="5" t="s">
         <v>100</v>
       </c>
@@ -6692,7 +9230,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
         <v>99</v>
       </c>
@@ -6702,7 +9240,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
         <v>98</v>
       </c>
@@ -6712,7 +9250,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
         <v>97</v>
       </c>
@@ -6722,7 +9260,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
         <v>96</v>
       </c>
@@ -6732,7 +9270,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
         <v>95</v>
       </c>
@@ -6742,7 +9280,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
         <v>94</v>
       </c>
@@ -6752,7 +9290,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
         <v>93</v>
       </c>
@@ -6762,7 +9300,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
         <v>92</v>
       </c>
@@ -6772,7 +9310,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
         <v>91</v>
       </c>
@@ -6782,57 +9320,57 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C56" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C59" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C66" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C67" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C68" s="2" t="s">
         <v>80</v>
       </c>
@@ -6853,21 +9391,21 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="2"/>
-    <col min="5" max="5" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
@@ -6875,7 +9413,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -6883,7 +9421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
@@ -6891,12 +9429,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
@@ -6904,83 +9442,83 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D23" s="2" t="s">
         <v>56</v>
       </c>
@@ -6991,7 +9529,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
         <v>53</v>
       </c>
@@ -7005,17 +9543,17 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
         <v>50</v>
       </c>
@@ -7036,16 +9574,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="12"/>
-    <col min="4" max="4" width="10.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="12"/>
+    <col min="2" max="2" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12"/>
+    <col min="4" max="4" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -7053,7 +9591,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>78</v>
@@ -7063,7 +9601,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>76</v>
@@ -7073,7 +9611,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>44</v>
@@ -7083,7 +9621,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>48</v>
@@ -7093,7 +9631,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
@@ -7101,7 +9639,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>45</v>
@@ -7111,7 +9649,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>134</v>
@@ -7121,7 +9659,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>66</v>
@@ -7129,12 +9667,12 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="12" t="s">
         <v>152</v>
       </c>
@@ -7142,7 +9680,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" s="12" t="s">
         <v>150</v>
       </c>
@@ -7156,7 +9694,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>117</v>
       </c>
@@ -7173,7 +9711,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>146</v>
       </c>
@@ -7190,7 +9728,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>145</v>
       </c>
@@ -7207,7 +9745,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>144</v>
       </c>
@@ -7224,27 +9762,27 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C19" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C20" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24" s="12" t="s">
         <v>139</v>
       </c>
@@ -7265,19 +9803,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
@@ -7285,7 +9823,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -7293,7 +9831,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
@@ -7301,7 +9839,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
@@ -7309,7 +9847,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
@@ -7317,83 +9855,83 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="15" t="s">
         <v>157</v>
       </c>
@@ -7413,19 +9951,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="12"/>
+    <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -7433,7 +9971,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -7441,7 +9979,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -7449,7 +9987,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -7457,7 +9995,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
@@ -7465,7 +10003,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
@@ -7473,7 +10011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
@@ -7481,52 +10019,52 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="12" t="s">
         <v>176</v>
       </c>
@@ -7545,19 +10083,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="12"/>
+    <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -7565,7 +10103,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -7573,7 +10111,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -7581,7 +10119,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -7589,7 +10127,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
@@ -7597,7 +10135,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
@@ -7605,32 +10143,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="12" t="s">
         <v>190</v>
       </c>

--- a/REGN.xlsx
+++ b/REGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0472CA17-B440-44EE-AB33-A98FA8276240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547C3585-F8A6-494B-ADF0-1B4E63FA375C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25665" yWindow="495" windowWidth="23865" windowHeight="19950" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="377">
   <si>
     <t>Nov. 11:  Eylea approved. Priced at $1,700/injection.</t>
   </si>
@@ -1331,6 +1331,15 @@
   </si>
   <si>
     <t>2,897</t>
+  </si>
+  <si>
+    <t>Maturity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>NPV</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1565,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
@@ -1676,6 +1685,8 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2118,18 +2129,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD5CF22-E8A9-4919-AD75-F071CE6857D9}">
   <dimension ref="B2:K47"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="137" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" s="22" t="s">
         <v>49</v>
       </c>
@@ -2152,11 +2165,11 @@
         <v>42</v>
       </c>
       <c r="J2" s="25">
-        <v>1199</v>
+        <v>756</v>
       </c>
       <c r="K2" s="26"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3" s="27" t="s">
         <v>41</v>
       </c>
@@ -2185,7 +2198,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4" s="34" t="s">
         <v>281</v>
       </c>
@@ -2205,11 +2218,11 @@
       </c>
       <c r="J4" s="1">
         <f>J2*J3</f>
-        <v>138364.6</v>
+        <v>87242.400000000009</v>
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5" s="34" t="s">
         <v>34</v>
       </c>
@@ -2234,7 +2247,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6" s="34" t="s">
         <v>244</v>
       </c>
@@ -2259,7 +2272,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B7" s="34" t="s">
         <v>282</v>
       </c>
@@ -2281,10 +2294,10 @@
       </c>
       <c r="J7" s="1">
         <f>J4-J5+J6</f>
-        <v>122817.60000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+        <v>71695.400000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8" s="34" t="s">
         <v>265</v>
       </c>
@@ -2302,7 +2315,7 @@
       <c r="I8" s="41"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9" s="44" t="s">
         <v>289</v>
       </c>
@@ -2318,7 +2331,7 @@
       <c r="I9" s="41"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10" s="37" t="s">
         <v>262</v>
       </c>
@@ -2340,7 +2353,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
@@ -2354,7 +2367,7 @@
       </c>
       <c r="J11" s="43"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12" s="44" t="s">
         <v>274</v>
       </c>
@@ -2373,7 +2386,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13" s="44" t="s">
         <v>278</v>
       </c>
@@ -2387,7 +2400,7 @@
       </c>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14" s="44" t="s">
         <v>297</v>
       </c>
@@ -2403,7 +2416,7 @@
       </c>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15" s="44" t="s">
         <v>248</v>
       </c>
@@ -2419,7 +2432,7 @@
       </c>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16" s="44" t="s">
         <v>24</v>
       </c>
@@ -2435,7 +2448,7 @@
       </c>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="44" t="s">
         <v>301</v>
       </c>
@@ -2449,7 +2462,7 @@
       </c>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="44" t="s">
         <v>273</v>
       </c>
@@ -2459,7 +2472,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="44" t="s">
         <v>286</v>
       </c>
@@ -2473,7 +2486,7 @@
       </c>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="44" t="s">
         <v>304</v>
       </c>
@@ -2487,7 +2500,7 @@
       </c>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B21" s="44" t="s">
         <v>294</v>
       </c>
@@ -2501,7 +2514,7 @@
       </c>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B22" s="44" t="s">
         <v>306</v>
       </c>
@@ -2513,7 +2526,7 @@
       </c>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B23" s="44" t="s">
         <v>308</v>
       </c>
@@ -2525,7 +2538,7 @@
       </c>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B24" s="44" t="s">
         <v>310</v>
       </c>
@@ -2539,7 +2552,7 @@
       </c>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B25" s="44" t="s">
         <v>291</v>
       </c>
@@ -2553,7 +2566,7 @@
       </c>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B26" s="54" t="s">
         <v>283</v>
       </c>
@@ -2567,14 +2580,14 @@
       </c>
       <c r="G26" s="45"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -2584,7 +2597,7 @@
       </c>
       <c r="G28" s="42"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
@@ -2594,7 +2607,7 @@
       </c>
       <c r="G29" s="42"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -2604,7 +2617,7 @@
       </c>
       <c r="G30" s="42"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -2614,7 +2627,7 @@
       </c>
       <c r="G31" s="42"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
@@ -2623,7 +2636,7 @@
       </c>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
       <c r="E33" s="42"/>
@@ -2632,7 +2645,7 @@
       </c>
       <c r="G33" s="42"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
       <c r="E34" s="42"/>
@@ -2641,7 +2654,7 @@
       </c>
       <c r="G34" s="42"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -2650,7 +2663,7 @@
       </c>
       <c r="G35" s="42"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
@@ -2659,7 +2672,7 @@
       </c>
       <c r="G36" s="42"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
@@ -2668,7 +2681,7 @@
       </c>
       <c r="G37" s="42"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
@@ -2677,7 +2690,7 @@
       </c>
       <c r="G38" s="42"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
@@ -2686,7 +2699,7 @@
       </c>
       <c r="G39" s="42"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
@@ -2695,7 +2708,7 @@
       </c>
       <c r="G40" s="42"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
@@ -2704,7 +2717,7 @@
       </c>
       <c r="G41" s="42"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
@@ -2713,7 +2726,7 @@
       </c>
       <c r="G42" s="42"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
@@ -2722,7 +2735,7 @@
       </c>
       <c r="G43" s="42"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
       <c r="E44" s="42"/>
@@ -2731,7 +2744,7 @@
       </c>
       <c r="G44" s="42"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C45" s="42"/>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
@@ -2740,7 +2753,7 @@
       </c>
       <c r="G45" s="42"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C46" s="42"/>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
@@ -2749,7 +2762,7 @@
       </c>
       <c r="G46" s="42"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C47" s="42"/>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
@@ -2773,29 +2786,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BECB6-C670-4D66-9069-7BDB54779CF7}">
-  <dimension ref="A1:CT64"/>
+  <dimension ref="A1:DZ64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BV3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="CB6" sqref="CB6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="8.85546875" style="17"/>
-    <col min="35" max="50" width="9.140625" style="17"/>
+    <col min="3" max="34" width="8.83203125" style="17"/>
+    <col min="35" max="50" width="9.1640625" style="17"/>
+    <col min="91" max="91" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.15">
       <c r="C2" s="17" t="s">
         <v>365</v>
       </c>
@@ -3116,7 +3130,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
@@ -3242,8 +3256,14 @@
       <c r="BD3" s="18">
         <v>1231</v>
       </c>
-      <c r="BE3" s="18"/>
-      <c r="BF3" s="18"/>
+      <c r="BE3" s="18">
+        <f>BD3</f>
+        <v>1231</v>
+      </c>
+      <c r="BF3" s="18">
+        <f>BE3</f>
+        <v>1231</v>
+      </c>
       <c r="BG3" s="18"/>
       <c r="BH3" s="18"/>
       <c r="BM3" s="1">
@@ -3285,8 +3305,56 @@
         <f>SUM(AY3:BB3)</f>
         <v>6371.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ3" s="1">
+        <f>SUM(Model!BC3:BF3)</f>
+        <v>4895</v>
+      </c>
+      <c r="CA3" s="1">
+        <f>BZ3*0.8</f>
+        <v>3916</v>
+      </c>
+      <c r="CB3" s="1">
+        <f>CA3*0.8</f>
+        <v>3132.8</v>
+      </c>
+      <c r="CC3" s="1">
+        <f>CB3*0.8</f>
+        <v>2506.2400000000002</v>
+      </c>
+      <c r="CD3" s="1">
+        <f>CC3*0.8</f>
+        <v>2004.9920000000002</v>
+      </c>
+      <c r="CE3" s="1">
+        <f>CD3*0.8</f>
+        <v>1603.9936000000002</v>
+      </c>
+      <c r="CF3" s="1">
+        <f>CE3*0.8</f>
+        <v>1283.1948800000002</v>
+      </c>
+      <c r="CG3" s="1">
+        <f>CF3*0.8</f>
+        <v>1026.5559040000003</v>
+      </c>
+      <c r="CH3" s="1">
+        <f t="shared" ref="CB3:CK3" si="2">CG3*0.7</f>
+        <v>718.58913280000013</v>
+      </c>
+      <c r="CI3" s="1">
+        <f t="shared" si="2"/>
+        <v>503.01239296000006</v>
+      </c>
+      <c r="CJ3" s="1">
+        <f t="shared" si="2"/>
+        <v>352.10867507200004</v>
+      </c>
+      <c r="CK3" s="1">
+        <f t="shared" si="2"/>
+        <v>246.4760725504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>328</v>
       </c>
@@ -3352,12 +3420,66 @@
       <c r="BD4" s="18">
         <v>304</v>
       </c>
-      <c r="BE4" s="18"/>
-      <c r="BF4" s="18"/>
+      <c r="BE4" s="18">
+        <f>BD4</f>
+        <v>304</v>
+      </c>
+      <c r="BF4" s="18">
+        <f>BE4</f>
+        <v>304</v>
+      </c>
       <c r="BG4" s="18"/>
       <c r="BH4" s="18"/>
-    </row>
-    <row r="5" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ4" s="1">
+        <f>SUM(Model!BC4:BF4)</f>
+        <v>1112</v>
+      </c>
+      <c r="CA4" s="1">
+        <f>BZ4*0.9</f>
+        <v>1000.8000000000001</v>
+      </c>
+      <c r="CB4" s="1">
+        <f>CA4*0.9</f>
+        <v>900.72</v>
+      </c>
+      <c r="CC4" s="1">
+        <f>CB4*0.9</f>
+        <v>810.64800000000002</v>
+      </c>
+      <c r="CD4" s="1">
+        <f>CC4*0.9</f>
+        <v>729.58320000000003</v>
+      </c>
+      <c r="CE4" s="1">
+        <f>CD4*0.9</f>
+        <v>656.62488000000008</v>
+      </c>
+      <c r="CF4" s="1">
+        <f t="shared" ref="CA4:CK6" si="3">CE4*0.7</f>
+        <v>459.63741600000003</v>
+      </c>
+      <c r="CG4" s="1">
+        <f t="shared" si="3"/>
+        <v>321.7461912</v>
+      </c>
+      <c r="CH4" s="1">
+        <f t="shared" si="3"/>
+        <v>225.22233383999998</v>
+      </c>
+      <c r="CI4" s="1">
+        <f t="shared" si="3"/>
+        <v>157.65563368799997</v>
+      </c>
+      <c r="CJ4" s="1">
+        <f t="shared" si="3"/>
+        <v>110.35894358159997</v>
+      </c>
+      <c r="CK4" s="1">
+        <f t="shared" si="3"/>
+        <v>77.25126050711998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>215</v>
       </c>
@@ -3459,6 +3581,14 @@
       <c r="BD5" s="1">
         <v>297</v>
       </c>
+      <c r="BE5" s="1">
+        <f>BD5+5</f>
+        <v>302</v>
+      </c>
+      <c r="BF5" s="1">
+        <f>BE5+5</f>
+        <v>307</v>
+      </c>
       <c r="BT5" s="1">
         <v>14.8</v>
       </c>
@@ -3466,23 +3596,71 @@
         <v>175.7</v>
       </c>
       <c r="BV5" s="1">
-        <f t="shared" ref="BV5:BV20" si="2">SUM(AM5:AP5)</f>
+        <f t="shared" ref="BV5:BV20" si="4">SUM(AM5:AP5)</f>
         <v>271</v>
       </c>
       <c r="BW5" s="1">
-        <f t="shared" ref="BW5:BW20" si="3">SUM(AQ5:AT5)</f>
+        <f t="shared" ref="BW5:BW20" si="5">SUM(AQ5:AT5)</f>
         <v>306</v>
       </c>
       <c r="BX5" s="1">
-        <f t="shared" ref="BX5:BX20" si="4">SUM(AU5:AX5)</f>
+        <f t="shared" ref="BX5:BX20" si="6">SUM(AU5:AX5)</f>
         <v>448</v>
       </c>
       <c r="BY5" s="1">
-        <f t="shared" ref="BY5:BY20" si="5">SUM(AY5:BB5)</f>
+        <f t="shared" ref="BY5:BY20" si="7">SUM(AY5:BB5)</f>
         <v>822</v>
       </c>
-    </row>
-    <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ5" s="1">
+        <f>SUM(Model!BC5:BF5)</f>
+        <v>1170</v>
+      </c>
+      <c r="CA5" s="1">
+        <f t="shared" ref="CA5:CK5" si="8">BZ5*1.01</f>
+        <v>1181.7</v>
+      </c>
+      <c r="CB5" s="1">
+        <f t="shared" si="8"/>
+        <v>1193.5170000000001</v>
+      </c>
+      <c r="CC5" s="1">
+        <f t="shared" si="8"/>
+        <v>1205.45217</v>
+      </c>
+      <c r="CD5" s="1">
+        <f t="shared" si="8"/>
+        <v>1217.5066917000001</v>
+      </c>
+      <c r="CE5" s="1">
+        <f t="shared" si="8"/>
+        <v>1229.6817586170002</v>
+      </c>
+      <c r="CF5" s="1">
+        <f t="shared" si="8"/>
+        <v>1241.9785762031702</v>
+      </c>
+      <c r="CG5" s="1">
+        <f t="shared" si="8"/>
+        <v>1254.398361965202</v>
+      </c>
+      <c r="CH5" s="1">
+        <f t="shared" si="8"/>
+        <v>1266.9423455848539</v>
+      </c>
+      <c r="CI5" s="1">
+        <f t="shared" si="8"/>
+        <v>1279.6117690407025</v>
+      </c>
+      <c r="CJ5" s="1">
+        <f t="shared" si="8"/>
+        <v>1292.4078867311096</v>
+      </c>
+      <c r="CK5" s="1">
+        <f t="shared" si="8"/>
+        <v>1305.3319655984208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>216</v>
       </c>
@@ -3582,6 +3760,14 @@
       <c r="BD6" s="1">
         <v>56</v>
       </c>
+      <c r="BE6" s="1">
+        <f>BD6+5</f>
+        <v>61</v>
+      </c>
+      <c r="BF6" s="1">
+        <f>BE6+5</f>
+        <v>66</v>
+      </c>
       <c r="BT6" s="1">
         <v>181.3</v>
       </c>
@@ -3589,23 +3775,71 @@
         <v>126</v>
       </c>
       <c r="BV6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>151.19999999999999</v>
       </c>
       <c r="BW6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="BX6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>131</v>
       </c>
       <c r="BY6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>166</v>
       </c>
-    </row>
-    <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ6" s="1">
+        <f>SUM(Model!BC6:BF6)</f>
+        <v>253</v>
+      </c>
+      <c r="CA6" s="1">
+        <f>BZ6*1.01</f>
+        <v>255.53</v>
+      </c>
+      <c r="CB6" s="1">
+        <f t="shared" ref="CB6:CK8" si="9">CA6*1.01</f>
+        <v>258.08530000000002</v>
+      </c>
+      <c r="CC6" s="1">
+        <f t="shared" si="9"/>
+        <v>260.66615300000001</v>
+      </c>
+      <c r="CD6" s="1">
+        <f t="shared" si="9"/>
+        <v>263.27281453000001</v>
+      </c>
+      <c r="CE6" s="1">
+        <f t="shared" si="9"/>
+        <v>265.90554267530001</v>
+      </c>
+      <c r="CF6" s="1">
+        <f t="shared" si="9"/>
+        <v>268.56459810205303</v>
+      </c>
+      <c r="CG6" s="1">
+        <f t="shared" si="9"/>
+        <v>271.25024408307354</v>
+      </c>
+      <c r="CH6" s="1">
+        <f t="shared" si="9"/>
+        <v>273.96274652390429</v>
+      </c>
+      <c r="CI6" s="1">
+        <f t="shared" si="9"/>
+        <v>276.70237398914333</v>
+      </c>
+      <c r="CJ6" s="1">
+        <f t="shared" si="9"/>
+        <v>279.46939772903477</v>
+      </c>
+      <c r="CK6" s="1">
+        <f t="shared" si="9"/>
+        <v>282.26409170632513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>256</v>
       </c>
@@ -3705,8 +3939,12 @@
       <c r="BD7" s="18">
         <v>0</v>
       </c>
-      <c r="BE7" s="18"/>
-      <c r="BF7" s="18"/>
+      <c r="BE7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="18">
+        <v>0</v>
+      </c>
       <c r="BG7" s="18"/>
       <c r="BH7" s="18"/>
       <c r="BT7" s="1">
@@ -3716,23 +3954,27 @@
         <v>0</v>
       </c>
       <c r="BV7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>186</v>
       </c>
       <c r="BW7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5828</v>
       </c>
       <c r="BX7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="BY7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ7" s="1">
+        <f>SUM(Model!BC7:BF7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>217</v>
       </c>
@@ -3832,6 +4074,14 @@
       <c r="BD8" s="1">
         <v>31</v>
       </c>
+      <c r="BE8" s="1">
+        <f>BD8</f>
+        <v>31</v>
+      </c>
+      <c r="BF8" s="1">
+        <f>BE8</f>
+        <v>31</v>
+      </c>
       <c r="BT8" s="1">
         <v>0</v>
       </c>
@@ -3839,23 +4089,71 @@
         <v>0</v>
       </c>
       <c r="BV8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BW8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="BX8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="BY8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ8" s="1">
+        <f>SUM(Model!BC8:BF8)</f>
+        <v>117</v>
+      </c>
+      <c r="CA8" s="1">
+        <f>BZ8*1.01</f>
+        <v>118.17</v>
+      </c>
+      <c r="CB8" s="1">
+        <f t="shared" si="9"/>
+        <v>119.35170000000001</v>
+      </c>
+      <c r="CC8" s="1">
+        <f t="shared" si="9"/>
+        <v>120.54521700000001</v>
+      </c>
+      <c r="CD8" s="1">
+        <f t="shared" si="9"/>
+        <v>121.75066917000001</v>
+      </c>
+      <c r="CE8" s="1">
+        <f t="shared" si="9"/>
+        <v>122.9681758617</v>
+      </c>
+      <c r="CF8" s="1">
+        <f t="shared" si="9"/>
+        <v>124.19785762031701</v>
+      </c>
+      <c r="CG8" s="1">
+        <f t="shared" si="9"/>
+        <v>125.43983619652018</v>
+      </c>
+      <c r="CH8" s="1">
+        <f t="shared" si="9"/>
+        <v>126.69423455848538</v>
+      </c>
+      <c r="CI8" s="1">
+        <f t="shared" si="9"/>
+        <v>127.96117690407023</v>
+      </c>
+      <c r="CJ8" s="1">
+        <f t="shared" si="9"/>
+        <v>129.24078867311093</v>
+      </c>
+      <c r="CK8" s="1">
+        <f t="shared" si="9"/>
+        <v>130.53319655984203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>239</v>
       </c>
@@ -3895,7 +4193,7 @@
         <v>4</v>
       </c>
       <c r="N9" s="18">
-        <f t="shared" ref="N9:N10" si="6">+BO9-M9-L9-K9</f>
+        <f t="shared" ref="N9:N10" si="10">+BO9-M9-L9-K9</f>
         <v>4.200000000000002</v>
       </c>
       <c r="O9" s="18"/>
@@ -4009,23 +4307,27 @@
         <v>14.5</v>
       </c>
       <c r="BV9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12.7</v>
       </c>
       <c r="BW9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="BX9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BY9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ9" s="1">
+        <f>SUM(Model!BC9:BF9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4065,7 +4367,7 @@
         <v>134.35900000000001</v>
       </c>
       <c r="N10" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>110.93899999999999</v>
       </c>
       <c r="O10" s="18"/>
@@ -4089,41 +4391,41 @@
       <c r="AG10" s="18"/>
       <c r="AH10" s="18"/>
       <c r="AI10" s="18">
-        <f t="shared" ref="AI10:AJ10" si="7">SUM(AI11:AI13)</f>
+        <f t="shared" ref="AI10:AJ10" si="11">SUM(AI11:AI13)</f>
         <v>0</v>
       </c>
       <c r="AJ10" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AK10" s="18"/>
       <c r="AL10" s="18"/>
       <c r="AM10" s="18">
-        <f t="shared" ref="AM10:AS10" si="8">SUM(AM11:AM13)</f>
+        <f t="shared" ref="AM10:AS10" si="12">SUM(AM11:AM13)</f>
         <v>246.9</v>
       </c>
       <c r="AN10" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>269.10000000000002</v>
       </c>
       <c r="AO10" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>353.3</v>
       </c>
       <c r="AP10" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>317.10000000000002</v>
       </c>
       <c r="AQ10" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>364.80000000000007</v>
       </c>
       <c r="AR10" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>437.7</v>
       </c>
       <c r="AS10" s="18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>581.80000000000007</v>
       </c>
       <c r="AT10" s="18">
@@ -4166,8 +4468,14 @@
       <c r="BD10" s="18">
         <v>1146</v>
       </c>
-      <c r="BE10" s="18"/>
-      <c r="BF10" s="18"/>
+      <c r="BE10" s="18">
+        <f>BA10*1.3</f>
+        <v>1109.7839999999999</v>
+      </c>
+      <c r="BF10" s="18">
+        <f>BB10*1.3</f>
+        <v>1304.0039999999999</v>
+      </c>
       <c r="BG10" s="18"/>
       <c r="BH10" s="18"/>
       <c r="BL10" s="1">
@@ -4191,23 +4499,71 @@
         <v>758.9</v>
       </c>
       <c r="BV10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1186.4000000000001</v>
       </c>
       <c r="BW10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1902.2000000000003</v>
       </c>
       <c r="BX10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2855.7000000000003</v>
       </c>
       <c r="BY10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3598.7599999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ10" s="1">
+        <f>SUM(Model!BC10:BF10)</f>
+        <v>4469.7879999999996</v>
+      </c>
+      <c r="CA10" s="1">
+        <f>BZ10*1.1</f>
+        <v>4916.7668000000003</v>
+      </c>
+      <c r="CB10" s="1">
+        <f>CA10*1.1</f>
+        <v>5408.4434800000008</v>
+      </c>
+      <c r="CC10" s="1">
+        <f>CB10*1.1</f>
+        <v>5949.2878280000014</v>
+      </c>
+      <c r="CD10" s="1">
+        <f>CC10*1.05</f>
+        <v>6246.7522194000021</v>
+      </c>
+      <c r="CE10" s="1">
+        <f>CD10*1.05</f>
+        <v>6559.0898303700023</v>
+      </c>
+      <c r="CF10" s="1">
+        <f>CE10*1.05</f>
+        <v>6887.044321888503</v>
+      </c>
+      <c r="CG10" s="1">
+        <f>CF10*1.05</f>
+        <v>7231.3965379829287</v>
+      </c>
+      <c r="CH10" s="1">
+        <f>CG10*1.01</f>
+        <v>7303.7105033627577</v>
+      </c>
+      <c r="CI10" s="1">
+        <f>CH10*1.01</f>
+        <v>7376.7476083963857</v>
+      </c>
+      <c r="CJ10" s="1">
+        <f>CI10*1.01</f>
+        <v>7450.5150844803493</v>
+      </c>
+      <c r="CK10" s="1">
+        <f>CJ10*1.01</f>
+        <v>7525.0202353251525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>233</v>
       </c>
@@ -4284,23 +4640,23 @@
         <v>619</v>
       </c>
       <c r="BV11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>785.2</v>
       </c>
       <c r="BW11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1363</v>
       </c>
       <c r="BX11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2082</v>
       </c>
       <c r="BY11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>234</v>
       </c>
@@ -4377,23 +4733,23 @@
         <v>166.9</v>
       </c>
       <c r="BV12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>368</v>
       </c>
       <c r="BW12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>488.79999999999995</v>
       </c>
       <c r="BX12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>633.70000000000005</v>
       </c>
       <c r="BY12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>235</v>
       </c>
@@ -4480,23 +4836,23 @@
         <v>50</v>
       </c>
       <c r="BV13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>33.199999999999996</v>
       </c>
       <c r="BW13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50.400000000000006</v>
       </c>
       <c r="BX13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>140</v>
       </c>
       <c r="BY13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>236</v>
       </c>
@@ -4587,23 +4943,23 @@
         <v>2315.6</v>
       </c>
       <c r="BV14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4044.6</v>
       </c>
       <c r="BW14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6198.6</v>
       </c>
       <c r="BX14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8681.2000000000007</v>
       </c>
       <c r="BY14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2789.4</v>
       </c>
     </row>
-    <row r="15" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>237</v>
       </c>
@@ -4686,23 +5042,23 @@
         <v>191.9</v>
       </c>
       <c r="BV15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="BW15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>421.1</v>
       </c>
       <c r="BX15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>467.4</v>
       </c>
       <c r="BY15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>140.30000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>238</v>
       </c>
@@ -4785,23 +5141,23 @@
         <v>109.7</v>
       </c>
       <c r="BV16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>209.8</v>
       </c>
       <c r="BW16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>337.5</v>
       </c>
       <c r="BX16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>357.99999999999994</v>
       </c>
       <c r="BY16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>99.5</v>
       </c>
     </row>
-    <row r="17" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>371</v>
       </c>
@@ -4863,7 +5219,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="18" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>218</v>
       </c>
@@ -4975,11 +5331,11 @@
         <v>377</v>
       </c>
       <c r="BA18" s="18">
-        <f t="shared" ref="BA18:BB18" si="9">+AW18*1.01</f>
+        <f t="shared" ref="BA18:BB18" si="13">+AW18*1.01</f>
         <v>336.33</v>
       </c>
       <c r="BB18" s="18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>358.65100000000001</v>
       </c>
       <c r="BC18" s="18">
@@ -4988,8 +5344,14 @@
       <c r="BD18" s="18">
         <v>375</v>
       </c>
-      <c r="BE18" s="18"/>
-      <c r="BF18" s="18"/>
+      <c r="BE18" s="18">
+        <f>BD18</f>
+        <v>375</v>
+      </c>
+      <c r="BF18" s="18">
+        <f>BE18</f>
+        <v>375</v>
+      </c>
       <c r="BG18" s="18"/>
       <c r="BH18" s="18"/>
       <c r="BM18" s="1">
@@ -5010,23 +5372,71 @@
         <v>580.5</v>
       </c>
       <c r="BV18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1186.0999999999999</v>
       </c>
       <c r="BW18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1409.1999999999998</v>
       </c>
       <c r="BX18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1431.4</v>
       </c>
       <c r="BY18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1428.981</v>
       </c>
-    </row>
-    <row r="19" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ18" s="1">
+        <f>SUM(Model!BC18:BF18)</f>
+        <v>1481</v>
+      </c>
+      <c r="CA18" s="1">
+        <f>BZ18*0.8</f>
+        <v>1184.8</v>
+      </c>
+      <c r="CB18" s="1">
+        <f>CA18*0.8</f>
+        <v>947.84</v>
+      </c>
+      <c r="CC18" s="1">
+        <f>CB18*0.8</f>
+        <v>758.27200000000005</v>
+      </c>
+      <c r="CD18" s="1">
+        <f>CC18*0.8</f>
+        <v>606.61760000000004</v>
+      </c>
+      <c r="CE18" s="1">
+        <f>CD18*0.8</f>
+        <v>485.29408000000006</v>
+      </c>
+      <c r="CF18" s="1">
+        <f>CE18*0.8</f>
+        <v>388.23526400000009</v>
+      </c>
+      <c r="CG18" s="1">
+        <f>CF18*0.8</f>
+        <v>310.5882112000001</v>
+      </c>
+      <c r="CH18" s="1">
+        <f>CG18*0.8</f>
+        <v>248.47056896000009</v>
+      </c>
+      <c r="CI18" s="1">
+        <f>CH18*0.8</f>
+        <v>198.7764551680001</v>
+      </c>
+      <c r="CJ18" s="1">
+        <f>CI18*0.8</f>
+        <v>159.0211641344001</v>
+      </c>
+      <c r="CK18" s="1">
+        <f>CJ18*0.8</f>
+        <v>127.21693130752008</v>
+      </c>
+    </row>
+    <row r="19" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>219</v>
       </c>
@@ -5123,28 +5533,28 @@
         <v>3</v>
       </c>
       <c r="BV19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BW19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>361.9</v>
       </c>
       <c r="BX19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>626.70000000000005</v>
       </c>
       <c r="BY19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>220</v>
       </c>
       <c r="C20" s="18">
-        <f t="shared" ref="C20:D20" si="10">7.845+2.122</f>
+        <f t="shared" ref="C20" si="14">7.845+2.122</f>
         <v>9.9669999999999987</v>
       </c>
       <c r="D20" s="18">
@@ -5258,11 +5668,11 @@
         <v>69</v>
       </c>
       <c r="BA20" s="1">
-        <f t="shared" ref="BA20:BB20" si="11">AVERAGE(AW20:AZ20)</f>
+        <f t="shared" ref="BA20:BB20" si="15">AVERAGE(AW20:AZ20)</f>
         <v>99.174999999999997</v>
       </c>
       <c r="BB20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>102.96875</v>
       </c>
       <c r="BC20" s="1">
@@ -5288,40 +5698,40 @@
         <v>74.8</v>
       </c>
       <c r="BV20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>433.6</v>
       </c>
       <c r="BW20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>281.2</v>
       </c>
       <c r="BX20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>364.7</v>
       </c>
       <c r="BY20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>387.14375000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:77" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:130" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="20" t="s">
         <v>221</v>
       </c>
       <c r="C21" s="21">
-        <f t="shared" ref="C21:F21" si="12">+C20+C18+C10+C3+C9</f>
+        <f t="shared" ref="C21:F21" si="16">+C20+C18+C10+C3+C9</f>
         <v>112.17699999999999</v>
       </c>
       <c r="D21" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>107.81</v>
       </c>
       <c r="E21" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>102.8</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>123.01300000000002</v>
       </c>
       <c r="G21" s="21">
@@ -5329,31 +5739,31 @@
         <v>231.75800000000001</v>
       </c>
       <c r="H21" s="21">
-        <f t="shared" ref="H21:N21" si="13">+H20+H18+H10+H3+H9</f>
+        <f t="shared" ref="H21:N21" si="17">+H20+H18+H10+H3+H9</f>
         <v>304.38</v>
       </c>
       <c r="I21" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>427.7</v>
       </c>
       <c r="J21" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>414.66200000000003</v>
       </c>
       <c r="K21" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>439.62399999999997</v>
       </c>
       <c r="L21" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>457.649</v>
       </c>
       <c r="M21" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>597.00900000000001</v>
       </c>
       <c r="N21" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>610.41800000000001</v>
       </c>
       <c r="O21" s="21"/>
@@ -5377,37 +5787,37 @@
       <c r="AG21" s="21"/>
       <c r="AH21" s="21"/>
       <c r="AI21" s="21">
-        <f t="shared" ref="AI21:AJ21" si="14">SUM(AI3:AI10)+AI18+AI19+AI20</f>
+        <f t="shared" ref="AI21:AJ21" si="18">SUM(AI3:AI10)+AI18+AI19+AI20</f>
         <v>1390.6</v>
       </c>
       <c r="AJ21" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>1231.5</v>
       </c>
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
       <c r="AM21" s="21">
-        <f t="shared" ref="AM21:AP21" si="15">SUM(AM3:AM10)+AM18+AM19+AM20</f>
+        <f t="shared" ref="AM21:AP21" si="19">SUM(AM3:AM10)+AM18+AM19+AM20</f>
         <v>1828.2</v>
       </c>
       <c r="AN21" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>1952.3000000000002</v>
       </c>
       <c r="AO21" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2293.7999999999997</v>
       </c>
       <c r="AP21" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>2299.6999999999998</v>
       </c>
       <c r="AQ21" s="21">
-        <f t="shared" ref="AQ21:AV21" si="16">SUM(AQ3:AQ10)+AQ18+AQ19+AQ20</f>
+        <f t="shared" ref="AQ21:AV21" si="20">SUM(AQ3:AQ10)+AQ18+AQ19+AQ20</f>
         <v>2529.4000000000005</v>
       </c>
       <c r="AR21" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>5138.7</v>
       </c>
       <c r="AS21" s="21">
@@ -5415,55 +5825,61 @@
         <v>3452.9</v>
       </c>
       <c r="AT21" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>4951.4999999999991</v>
       </c>
       <c r="AU21" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2965.5000000000005</v>
       </c>
       <c r="AV21" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>2856.5</v>
       </c>
       <c r="AW21" s="21">
-        <f t="shared" ref="AW21:BD21" si="17">SUM(AW3:AW10)+AW18+AW19+AW20</f>
+        <f t="shared" ref="AW21:BF21" si="21">SUM(AW3:AW10)+AW18+AW19+AW20</f>
         <v>2936.4</v>
       </c>
       <c r="AX21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3414.1</v>
       </c>
       <c r="AY21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3162</v>
       </c>
       <c r="AZ21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3158</v>
       </c>
       <c r="BA21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3360.085</v>
       </c>
       <c r="BB21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3396.2997500000001</v>
       </c>
       <c r="BC21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3145</v>
       </c>
       <c r="BD21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>3547</v>
       </c>
-      <c r="BE21" s="21"/>
-      <c r="BF21" s="21"/>
+      <c r="BE21" s="21">
+        <f t="shared" si="21"/>
+        <v>3413.7839999999997</v>
+      </c>
+      <c r="BF21" s="21">
+        <f t="shared" si="21"/>
+        <v>3618.0039999999999</v>
+      </c>
       <c r="BG21" s="21"/>
       <c r="BH21" s="21"/>
       <c r="BL21" s="21">
-        <f t="shared" ref="BL21:BU21" si="18">SUM(BL3:BL10)+BL18+BL19+BL20</f>
+        <f t="shared" ref="BL21:BU21" si="22">SUM(BL3:BL10)+BL18+BL19+BL20</f>
         <v>336.58600000000001</v>
       </c>
       <c r="BM21" s="21">
@@ -5471,35 +5887,35 @@
         <v>445.8</v>
       </c>
       <c r="BN21" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>1378.5</v>
       </c>
       <c r="BO21" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2104.7000000000003</v>
       </c>
       <c r="BP21" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>2819.6000000000004</v>
       </c>
       <c r="BQ21" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4103.7</v>
       </c>
       <c r="BR21" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BS21" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="BT21" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4287.5</v>
       </c>
       <c r="BU21" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>4960.3999999999996</v>
       </c>
       <c r="BV21" s="21">
@@ -5518,8 +5934,56 @@
         <f>SUM(BY3:BY10)+BY18+BY19+BY20</f>
         <v>13076.384749999999</v>
       </c>
-    </row>
-    <row r="22" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ21" s="21">
+        <f>SUM(BZ3:BZ10)+BZ18+BZ19+BZ20</f>
+        <v>13498.788</v>
+      </c>
+      <c r="CA21" s="21">
+        <f>SUM(CA3:CA10)+CA18+CA19+CA20</f>
+        <v>12573.766799999999</v>
+      </c>
+      <c r="CB21" s="21">
+        <f t="shared" ref="CB21:CK21" si="23">SUM(CB3:CB10)+CB18+CB19+CB20</f>
+        <v>11960.75748</v>
+      </c>
+      <c r="CC21" s="21">
+        <f t="shared" si="23"/>
+        <v>11611.111368000002</v>
+      </c>
+      <c r="CD21" s="21">
+        <f t="shared" si="23"/>
+        <v>11190.475194800003</v>
+      </c>
+      <c r="CE21" s="21">
+        <f t="shared" si="23"/>
+        <v>10923.557867524003</v>
+      </c>
+      <c r="CF21" s="21">
+        <f t="shared" si="23"/>
+        <v>10652.852913814044</v>
+      </c>
+      <c r="CG21" s="21">
+        <f t="shared" si="23"/>
+        <v>10541.375286627725</v>
+      </c>
+      <c r="CH21" s="21">
+        <f t="shared" si="23"/>
+        <v>10163.59186563</v>
+      </c>
+      <c r="CI21" s="21">
+        <f t="shared" si="23"/>
+        <v>9920.4674101463006</v>
+      </c>
+      <c r="CJ21" s="21">
+        <f t="shared" si="23"/>
+        <v>9773.1219404016047</v>
+      </c>
+      <c r="CK21" s="21">
+        <f t="shared" si="23"/>
+        <v>9694.0937535547801</v>
+      </c>
+    </row>
+    <row r="22" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>222</v>
       </c>
@@ -5642,11 +6106,11 @@
         <v>163</v>
       </c>
       <c r="BA22" s="18">
-        <f t="shared" ref="BA22:BB22" si="19">+BA21-BA23</f>
+        <f t="shared" ref="BA22:BB22" si="24">+BA21-BA23</f>
         <v>336.00849999999991</v>
       </c>
       <c r="BB22" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>339.62997499999983</v>
       </c>
       <c r="BC22" s="18">
@@ -5655,8 +6119,14 @@
       <c r="BD22" s="18">
         <v>214</v>
       </c>
-      <c r="BE22" s="18"/>
-      <c r="BF22" s="18"/>
+      <c r="BE22" s="18">
+        <f>BE21*0.1</f>
+        <v>341.3784</v>
+      </c>
+      <c r="BF22" s="18">
+        <f>BF21*0.1</f>
+        <v>361.80040000000002</v>
+      </c>
       <c r="BG22" s="18"/>
       <c r="BH22" s="18"/>
       <c r="BM22" s="1">
@@ -5678,72 +6148,72 @@
         <v>392.709</v>
       </c>
       <c r="BV22" s="1">
-        <f t="shared" ref="BV22" si="20">SUM(AM22:AP22)</f>
+        <f t="shared" ref="BV22" si="25">SUM(AM22:AP22)</f>
         <v>945</v>
       </c>
       <c r="BW22" s="1">
-        <f t="shared" ref="BW22" si="21">SUM(AQ22:AT22)</f>
+        <f t="shared" ref="BW22" si="26">SUM(AQ22:AT22)</f>
         <v>1955.6</v>
       </c>
       <c r="BX22" s="1">
-        <f t="shared" ref="BX22" si="22">SUM(AU22:AX22)</f>
+        <f t="shared" ref="BX22" si="27">SUM(AU22:AX22)</f>
         <v>1198.2</v>
       </c>
       <c r="BY22" s="1">
-        <f t="shared" ref="BY22" si="23">SUM(AY22:BB22)</f>
+        <f t="shared" ref="BY22" si="28">SUM(AY22:BB22)</f>
         <v>1006.6384749999997</v>
       </c>
     </row>
-    <row r="23" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C23" s="18">
-        <f t="shared" ref="C23:F23" si="24">+C21-C22</f>
+        <f t="shared" ref="C23:F23" si="29">+C21-C22</f>
         <v>111.79499999999999</v>
       </c>
       <c r="D23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>107.41500000000001</v>
       </c>
       <c r="E23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>102.35</v>
       </c>
       <c r="F23" s="18">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>120.02400000000002</v>
       </c>
       <c r="G23" s="18">
-        <f>+G21-G22</f>
+        <f t="shared" ref="G23:N23" si="30">+G21-G22</f>
         <v>219.46</v>
       </c>
       <c r="H23" s="18">
-        <f>+H21-H22</f>
+        <f t="shared" si="30"/>
         <v>282.53699999999998</v>
       </c>
       <c r="I23" s="18">
-        <f>+I21-I22</f>
+        <f t="shared" si="30"/>
         <v>407.55500000000001</v>
       </c>
       <c r="J23" s="18">
-        <f>+J21-J22</f>
+        <f t="shared" si="30"/>
         <v>384.49300000000005</v>
       </c>
       <c r="K23" s="18">
-        <f>+K21-K22</f>
+        <f t="shared" si="30"/>
         <v>410.56899999999996</v>
       </c>
       <c r="L23" s="18">
-        <f>+L21-L22</f>
+        <f t="shared" si="30"/>
         <v>418.036</v>
       </c>
       <c r="M23" s="18">
-        <f>+M21-M22</f>
+        <f t="shared" si="30"/>
         <v>558.43600000000004</v>
       </c>
       <c r="N23" s="18">
-        <f>+N21-N22</f>
+        <f t="shared" si="30"/>
         <v>562.30399999999997</v>
       </c>
       <c r="O23" s="18"/>
@@ -5771,43 +6241,43 @@
       <c r="AK23" s="18"/>
       <c r="AL23" s="18"/>
       <c r="AM23" s="18">
-        <f t="shared" ref="AM23" si="25">+AM21-AM22</f>
+        <f t="shared" ref="AM23" si="31">+AM21-AM22</f>
         <v>1610.9</v>
       </c>
       <c r="AN23" s="18">
-        <f t="shared" ref="AN23:AV23" si="26">+AN21-AN22</f>
+        <f t="shared" ref="AN23:AV23" si="32">+AN21-AN22</f>
         <v>1686.1000000000001</v>
       </c>
       <c r="AO23" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2171.7999999999997</v>
       </c>
       <c r="AP23" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>1960.1999999999998</v>
       </c>
       <c r="AQ23" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2221.4000000000005</v>
       </c>
       <c r="AR23" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4445</v>
       </c>
       <c r="AS23" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>3228.9</v>
       </c>
       <c r="AT23" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4221.5999999999995</v>
       </c>
       <c r="AU23" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2560.6000000000004</v>
       </c>
       <c r="AV23" s="18">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>2559.4</v>
       </c>
       <c r="AW23" s="18">
@@ -5827,11 +6297,11 @@
         <v>2995</v>
       </c>
       <c r="BA23" s="18">
-        <f t="shared" ref="BA23:BB23" si="27">+BA21*0.9</f>
+        <f t="shared" ref="BA23:BB23" si="33">+BA21*0.9</f>
         <v>3024.0765000000001</v>
       </c>
       <c r="BB23" s="18">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>3056.6697750000003</v>
       </c>
       <c r="BC23" s="18">
@@ -5842,8 +6312,14 @@
         <f>BD21-BD22</f>
         <v>3333</v>
       </c>
-      <c r="BE23" s="18"/>
-      <c r="BF23" s="18"/>
+      <c r="BE23" s="18">
+        <f>BE21-BE22</f>
+        <v>3072.4055999999996</v>
+      </c>
+      <c r="BF23" s="18">
+        <f>BF21-BF22</f>
+        <v>3256.2035999999998</v>
+      </c>
       <c r="BG23" s="18"/>
       <c r="BH23" s="18"/>
       <c r="BM23" s="1">
@@ -5871,19 +6347,67 @@
         <v>7429</v>
       </c>
       <c r="BW23" s="1">
-        <f t="shared" ref="BW23:BY23" si="28">+BW21-BW22</f>
+        <f t="shared" ref="BW23:BY23" si="34">+BW21-BW22</f>
         <v>14116.900000000001</v>
       </c>
       <c r="BX23" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>10974.300000000001</v>
       </c>
       <c r="BY23" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>12069.746275</v>
       </c>
-    </row>
-    <row r="24" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ23" s="1">
+        <f>BZ21*0.9</f>
+        <v>12148.9092</v>
+      </c>
+      <c r="CA23" s="1">
+        <f>CA21*0.9</f>
+        <v>11316.39012</v>
+      </c>
+      <c r="CB23" s="1">
+        <f t="shared" ref="CB23:CK23" si="35">CB21*0.9</f>
+        <v>10764.681732000001</v>
+      </c>
+      <c r="CC23" s="1">
+        <f t="shared" si="35"/>
+        <v>10450.000231200002</v>
+      </c>
+      <c r="CD23" s="1">
+        <f t="shared" si="35"/>
+        <v>10071.427675320003</v>
+      </c>
+      <c r="CE23" s="1">
+        <f t="shared" si="35"/>
+        <v>9831.2020807716035</v>
+      </c>
+      <c r="CF23" s="1">
+        <f t="shared" si="35"/>
+        <v>9587.5676224326398</v>
+      </c>
+      <c r="CG23" s="1">
+        <f t="shared" si="35"/>
+        <v>9487.2377579649528</v>
+      </c>
+      <c r="CH23" s="1">
+        <f t="shared" si="35"/>
+        <v>9147.2326790669995</v>
+      </c>
+      <c r="CI23" s="1">
+        <f t="shared" si="35"/>
+        <v>8928.4206691316704</v>
+      </c>
+      <c r="CJ23" s="1">
+        <f t="shared" si="35"/>
+        <v>8795.8097463614449</v>
+      </c>
+      <c r="CK23" s="1">
+        <f t="shared" si="35"/>
+        <v>8724.684378199303</v>
+      </c>
+    </row>
+    <row r="24" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>224</v>
       </c>
@@ -6018,23 +6542,23 @@
         <v>1620.577</v>
       </c>
       <c r="BV24" s="1">
-        <f t="shared" ref="BV24:BV25" si="29">SUM(AM24:AP24)</f>
+        <f t="shared" ref="BV24:BV25" si="36">SUM(AM24:AP24)</f>
         <v>2468</v>
       </c>
       <c r="BW24" s="1">
-        <f t="shared" ref="BW24:BW25" si="30">SUM(AQ24:AT24)</f>
+        <f t="shared" ref="BW24:BW25" si="37">SUM(AQ24:AT24)</f>
         <v>2688.1</v>
       </c>
       <c r="BX24" s="1">
-        <f t="shared" ref="BX24:BX25" si="31">SUM(AU24:AX24)</f>
+        <f t="shared" ref="BX24:BX25" si="38">SUM(AU24:AX24)</f>
         <v>3482.2</v>
       </c>
       <c r="BY24" s="1">
-        <f t="shared" ref="BY24:BY25" si="32">SUM(AY24:BB24)</f>
+        <f t="shared" ref="BY24:BY25" si="39">SUM(AY24:BB24)</f>
         <v>1934</v>
       </c>
     </row>
-    <row r="25" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>225</v>
       </c>
@@ -6149,11 +6673,11 @@
         <v>562</v>
       </c>
       <c r="BA25" s="18">
-        <f t="shared" ref="BA25:BB25" si="33">+AW25</f>
+        <f t="shared" ref="BA25:BB25" si="40">+AW25</f>
         <v>467</v>
       </c>
       <c r="BB25" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="40"/>
         <v>657</v>
       </c>
       <c r="BC25" s="18">
@@ -6182,72 +6706,116 @@
         <v>838.52599999999995</v>
       </c>
       <c r="BV25" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="36"/>
         <v>1320.5</v>
       </c>
       <c r="BW25" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="37"/>
         <v>1706.3</v>
       </c>
       <c r="BX25" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="38"/>
         <v>2049.1999999999998</v>
       </c>
       <c r="BY25" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="39"/>
         <v>2201</v>
       </c>
-    </row>
-    <row r="26" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CA25" s="1">
+        <f>CA21*0.2</f>
+        <v>2514.7533600000002</v>
+      </c>
+      <c r="CB25" s="1">
+        <f>CB21*0.2</f>
+        <v>2392.151496</v>
+      </c>
+      <c r="CC25" s="1">
+        <f t="shared" ref="CC25:CK25" si="41">CC21*0.2</f>
+        <v>2322.2222736000003</v>
+      </c>
+      <c r="CD25" s="1">
+        <f t="shared" si="41"/>
+        <v>2238.0950389600007</v>
+      </c>
+      <c r="CE25" s="1">
+        <f t="shared" si="41"/>
+        <v>2184.7115735048005</v>
+      </c>
+      <c r="CF25" s="1">
+        <f t="shared" si="41"/>
+        <v>2130.570582762809</v>
+      </c>
+      <c r="CG25" s="1">
+        <f t="shared" si="41"/>
+        <v>2108.2750573255448</v>
+      </c>
+      <c r="CH25" s="1">
+        <f t="shared" si="41"/>
+        <v>2032.7183731260002</v>
+      </c>
+      <c r="CI25" s="1">
+        <f t="shared" si="41"/>
+        <v>1984.0934820292603</v>
+      </c>
+      <c r="CJ25" s="1">
+        <f t="shared" si="41"/>
+        <v>1954.6243880803211</v>
+      </c>
+      <c r="CK25" s="1">
+        <f t="shared" si="41"/>
+        <v>1938.818750710956</v>
+      </c>
+    </row>
+    <row r="26" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C26" s="18">
-        <f t="shared" ref="C26" si="34">+C25+C24</f>
+        <f t="shared" ref="C26" si="42">+C25+C24</f>
         <v>152.803</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" ref="D26:G26" si="35">+D25+D24</f>
+        <f t="shared" ref="D26:G26" si="43">+D25+D24</f>
         <v>167.73400000000001</v>
       </c>
       <c r="E26" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>160.84</v>
       </c>
       <c r="F26" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>165.39</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>197.29</v>
       </c>
       <c r="H26" s="18">
-        <f>+H25+H24</f>
+        <f t="shared" ref="H26:N26" si="44">+H25+H24</f>
         <v>195.07799999999997</v>
       </c>
       <c r="I26" s="18">
-        <f>+I25+I24</f>
+        <f t="shared" si="44"/>
         <v>205.178</v>
       </c>
       <c r="J26" s="18">
-        <f>+J25+J24</f>
+        <f t="shared" si="44"/>
         <v>238.76300000000003</v>
       </c>
       <c r="K26" s="18">
-        <f>+K25+K24</f>
+        <f t="shared" si="44"/>
         <v>257.55900000000003</v>
       </c>
       <c r="L26" s="18">
-        <f>+L25+L24</f>
+        <f t="shared" si="44"/>
         <v>259.92599999999999</v>
       </c>
       <c r="M26" s="18">
-        <f>+M25+M24</f>
+        <f t="shared" si="44"/>
         <v>321.65199999999999</v>
       </c>
       <c r="N26" s="18">
-        <f>+N25+N24</f>
+        <f t="shared" si="44"/>
         <v>350.22500000000014</v>
       </c>
       <c r="O26" s="18"/>
@@ -6275,7 +6843,7 @@
       <c r="AK26" s="18"/>
       <c r="AL26" s="18"/>
       <c r="AM26" s="18">
-        <f t="shared" ref="AM26" si="36">+AM25+AM24</f>
+        <f t="shared" ref="AM26" si="45">+AM25+AM24</f>
         <v>931</v>
       </c>
       <c r="AN26" s="18">
@@ -6283,23 +6851,23 @@
         <v>881.5</v>
       </c>
       <c r="AO26" s="18">
-        <f t="shared" ref="AO26:AS26" si="37">+AO25+AO24</f>
+        <f t="shared" ref="AO26:AS26" si="46">+AO25+AO24</f>
         <v>920</v>
       </c>
       <c r="AP26" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>1056</v>
       </c>
       <c r="AQ26" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>1148.5</v>
       </c>
       <c r="AR26" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>1128.9000000000001</v>
       </c>
       <c r="AS26" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="46"/>
         <v>983</v>
       </c>
       <c r="AT26" s="18">
@@ -6323,31 +6891,37 @@
         <v>1698.6999999999998</v>
       </c>
       <c r="AY26" s="18">
-        <f t="shared" ref="AY26:BB26" si="38">+AY25+AY24</f>
+        <f t="shared" ref="AY26:BB26" si="47">+AY25+AY24</f>
         <v>1475</v>
       </c>
       <c r="AZ26" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>1536</v>
       </c>
       <c r="BA26" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>467</v>
       </c>
       <c r="BB26" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>657</v>
       </c>
       <c r="BC26" s="18">
-        <f t="shared" ref="BC26:BD26" si="39">+BC25+BC24</f>
+        <f t="shared" ref="BC26:BD26" si="48">+BC25+BC24</f>
         <v>1706</v>
       </c>
       <c r="BD26" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>1739</v>
       </c>
-      <c r="BE26" s="18"/>
-      <c r="BF26" s="18"/>
+      <c r="BE26" s="18">
+        <f t="shared" ref="BE26:BF26" si="49">+BE25+BE24</f>
+        <v>0</v>
+      </c>
+      <c r="BF26" s="18">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
       <c r="BG26" s="18"/>
       <c r="BH26" s="18"/>
       <c r="BM26" s="1">
@@ -6375,68 +6949,116 @@
         <v>3788.5</v>
       </c>
       <c r="BW26" s="1">
-        <f t="shared" ref="BW26:BY26" si="40">+BW24+BW25</f>
+        <f t="shared" ref="BW26:BY26" si="50">+BW24+BW25</f>
         <v>4394.3999999999996</v>
       </c>
       <c r="BX26" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>5531.4</v>
       </c>
       <c r="BY26" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="50"/>
         <v>4135</v>
       </c>
-    </row>
-    <row r="27" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ26" s="1">
+        <f t="shared" ref="BZ26:CK26" si="51">+BZ24+BZ25</f>
+        <v>0</v>
+      </c>
+      <c r="CA26" s="1">
+        <f t="shared" si="51"/>
+        <v>2514.7533600000002</v>
+      </c>
+      <c r="CB26" s="1">
+        <f t="shared" si="51"/>
+        <v>2392.151496</v>
+      </c>
+      <c r="CC26" s="1">
+        <f t="shared" si="51"/>
+        <v>2322.2222736000003</v>
+      </c>
+      <c r="CD26" s="1">
+        <f t="shared" si="51"/>
+        <v>2238.0950389600007</v>
+      </c>
+      <c r="CE26" s="1">
+        <f t="shared" si="51"/>
+        <v>2184.7115735048005</v>
+      </c>
+      <c r="CF26" s="1">
+        <f t="shared" si="51"/>
+        <v>2130.570582762809</v>
+      </c>
+      <c r="CG26" s="1">
+        <f t="shared" si="51"/>
+        <v>2108.2750573255448</v>
+      </c>
+      <c r="CH26" s="1">
+        <f t="shared" si="51"/>
+        <v>2032.7183731260002</v>
+      </c>
+      <c r="CI26" s="1">
+        <f t="shared" si="51"/>
+        <v>1984.0934820292603</v>
+      </c>
+      <c r="CJ26" s="1">
+        <f t="shared" si="51"/>
+        <v>1954.6243880803211</v>
+      </c>
+      <c r="CK26" s="1">
+        <f t="shared" si="51"/>
+        <v>1938.818750710956</v>
+      </c>
+    </row>
+    <row r="27" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C27" s="18">
-        <f t="shared" ref="C27" si="41">+C23-C26</f>
+        <f t="shared" ref="C27" si="52">+C23-C26</f>
         <v>-41.00800000000001</v>
       </c>
       <c r="D27" s="18">
-        <f t="shared" ref="D27:G27" si="42">+D23-D26</f>
+        <f t="shared" ref="D27:G27" si="53">+D23-D26</f>
         <v>-60.319000000000003</v>
       </c>
       <c r="E27" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v>-58.490000000000009</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v>-45.365999999999971</v>
       </c>
       <c r="G27" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="53"/>
         <v>22.170000000000016</v>
       </c>
       <c r="H27" s="18">
-        <f>+H23-H26</f>
+        <f t="shared" ref="H27:N27" si="54">+H23-H26</f>
         <v>87.459000000000003</v>
       </c>
       <c r="I27" s="18">
-        <f>+I23-I26</f>
+        <f t="shared" si="54"/>
         <v>202.37700000000001</v>
       </c>
       <c r="J27" s="18">
-        <f>+J23-J26</f>
+        <f t="shared" si="54"/>
         <v>145.73000000000002</v>
       </c>
       <c r="K27" s="18">
-        <f>+K23-K26</f>
+        <f t="shared" si="54"/>
         <v>153.00999999999993</v>
       </c>
       <c r="L27" s="18">
-        <f>+L23-L26</f>
+        <f t="shared" si="54"/>
         <v>158.11000000000001</v>
       </c>
       <c r="M27" s="18">
-        <f>+M23-M26</f>
+        <f t="shared" si="54"/>
         <v>236.78400000000005</v>
       </c>
       <c r="N27" s="18">
-        <f>+N23-N26</f>
+        <f t="shared" si="54"/>
         <v>212.07899999999984</v>
       </c>
       <c r="O27" s="18"/>
@@ -6472,23 +7094,23 @@
         <v>804.60000000000014</v>
       </c>
       <c r="AO27" s="18">
-        <f t="shared" ref="AO27:AS27" si="43">+AO23-AO26</f>
+        <f t="shared" ref="AO27:AS27" si="55">+AO23-AO26</f>
         <v>1251.7999999999997</v>
       </c>
       <c r="AP27" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>904.19999999999982</v>
       </c>
       <c r="AQ27" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>1072.9000000000005</v>
       </c>
       <c r="AR27" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>3316.1</v>
       </c>
       <c r="AS27" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="55"/>
         <v>2245.9</v>
       </c>
       <c r="AT27" s="18">
@@ -6512,31 +7134,37 @@
         <v>1328.1999999999998</v>
       </c>
       <c r="AY27" s="18">
-        <f t="shared" ref="AY27:BB27" si="44">+AY23-AY26</f>
+        <f t="shared" ref="AY27:BB27" si="56">+AY23-AY26</f>
         <v>1519</v>
       </c>
       <c r="AZ27" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>1459</v>
       </c>
       <c r="BA27" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>2557.0765000000001</v>
       </c>
       <c r="BB27" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="56"/>
         <v>2399.6697750000003</v>
       </c>
       <c r="BC27" s="18">
-        <f t="shared" ref="BC27:BD27" si="45">+BC23-BC26</f>
+        <f t="shared" ref="BC27:BD27" si="57">+BC23-BC26</f>
         <v>1243</v>
       </c>
       <c r="BD27" s="18">
-        <f t="shared" si="45"/>
+        <f t="shared" si="57"/>
         <v>1594</v>
       </c>
-      <c r="BE27" s="18"/>
-      <c r="BF27" s="18"/>
+      <c r="BE27" s="18">
+        <f t="shared" ref="BE27:BF27" si="58">+BE23-BE26</f>
+        <v>3072.4055999999996</v>
+      </c>
+      <c r="BF27" s="18">
+        <f t="shared" si="58"/>
+        <v>3256.2035999999998</v>
+      </c>
       <c r="BG27" s="18"/>
       <c r="BH27" s="18"/>
       <c r="BM27" s="1">
@@ -6564,19 +7192,67 @@
         <v>3640.5</v>
       </c>
       <c r="BW27" s="1">
-        <f t="shared" ref="BW27:BY27" si="46">+BW23-BW26</f>
+        <f t="shared" ref="BW27:BY27" si="59">+BW23-BW26</f>
         <v>9722.5000000000018</v>
       </c>
       <c r="BX27" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>5442.9000000000015</v>
       </c>
       <c r="BY27" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="59"/>
         <v>7934.7462749999995</v>
       </c>
-    </row>
-    <row r="28" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ27" s="1">
+        <f t="shared" ref="BZ27:CK27" si="60">+BZ23-BZ26</f>
+        <v>12148.9092</v>
+      </c>
+      <c r="CA27" s="1">
+        <f t="shared" si="60"/>
+        <v>8801.6367599999994</v>
+      </c>
+      <c r="CB27" s="1">
+        <f t="shared" si="60"/>
+        <v>8372.5302360000005</v>
+      </c>
+      <c r="CC27" s="1">
+        <f t="shared" si="60"/>
+        <v>8127.7779576000012</v>
+      </c>
+      <c r="CD27" s="1">
+        <f t="shared" si="60"/>
+        <v>7833.3326363600027</v>
+      </c>
+      <c r="CE27" s="1">
+        <f t="shared" si="60"/>
+        <v>7646.4905072668025</v>
+      </c>
+      <c r="CF27" s="1">
+        <f t="shared" si="60"/>
+        <v>7456.9970396698309</v>
+      </c>
+      <c r="CG27" s="1">
+        <f t="shared" si="60"/>
+        <v>7378.9627006394076</v>
+      </c>
+      <c r="CH27" s="1">
+        <f t="shared" si="60"/>
+        <v>7114.5143059409993</v>
+      </c>
+      <c r="CI27" s="1">
+        <f t="shared" si="60"/>
+        <v>6944.3271871024099</v>
+      </c>
+      <c r="CJ27" s="1">
+        <f t="shared" si="60"/>
+        <v>6841.1853582811236</v>
+      </c>
+      <c r="CK27" s="1">
+        <f t="shared" si="60"/>
+        <v>6785.8656274883469</v>
+      </c>
+    </row>
+    <row r="28" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>228</v>
       </c>
@@ -6707,72 +7383,72 @@
         <v>-7.9579999999999993</v>
       </c>
       <c r="BV28" s="1">
-        <f t="shared" ref="BV28" si="47">SUM(AM28:AP28)</f>
+        <f t="shared" ref="BV28" si="61">SUM(AM28:AP28)</f>
         <v>26.200000000000003</v>
       </c>
       <c r="BW28" s="1">
-        <f t="shared" ref="BW28" si="48">SUM(AQ28:AT28)</f>
+        <f t="shared" ref="BW28" si="62">SUM(AQ28:AT28)</f>
         <v>-170.90000000000003</v>
       </c>
       <c r="BX28" s="1">
-        <f t="shared" ref="BX28" si="49">SUM(AU28:AX28)</f>
+        <f t="shared" ref="BX28" si="63">SUM(AU28:AX28)</f>
         <v>-211.29999999999998</v>
       </c>
       <c r="BY28" s="1">
-        <f t="shared" ref="BY28" si="50">SUM(AY28:BB28)</f>
+        <f t="shared" ref="BY28" si="64">SUM(AY28:BB28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C29" s="18">
-        <f t="shared" ref="C29:F29" si="51">+C27+C28</f>
+        <f t="shared" ref="C29:F29" si="65">+C27+C28</f>
         <v>-43.690000000000012</v>
       </c>
       <c r="D29" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="65"/>
         <v>-63.368000000000002</v>
       </c>
       <c r="E29" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="65"/>
         <v>-61.836000000000013</v>
       </c>
       <c r="F29" s="18">
-        <f t="shared" si="51"/>
+        <f t="shared" si="65"/>
         <v>-54.02199999999997</v>
       </c>
       <c r="G29" s="18">
-        <f>+G27+G28</f>
+        <f t="shared" ref="G29:N29" si="66">+G27+G28</f>
         <v>11.620000000000015</v>
       </c>
       <c r="H29" s="18">
-        <f>+H27+H28</f>
+        <f t="shared" si="66"/>
         <v>76.724000000000004</v>
       </c>
       <c r="I29" s="18">
-        <f>+I27+I28</f>
+        <f t="shared" si="66"/>
         <v>191.48099999999999</v>
       </c>
       <c r="J29" s="18">
-        <f>+J27+J28</f>
+        <f t="shared" si="66"/>
         <v>134.61900000000003</v>
       </c>
       <c r="K29" s="18">
-        <f>+K27+K28</f>
+        <f t="shared" si="66"/>
         <v>141.79099999999994</v>
       </c>
       <c r="L29" s="18">
-        <f>+L27+L28</f>
+        <f t="shared" si="66"/>
         <v>147.69900000000001</v>
       </c>
       <c r="M29" s="18">
-        <f>+M27+M28</f>
+        <f t="shared" si="66"/>
         <v>225.66600000000005</v>
       </c>
       <c r="N29" s="18">
-        <f>+N27+N28</f>
+        <f t="shared" si="66"/>
         <v>198.15899999999985</v>
       </c>
       <c r="O29" s="18"/>
@@ -6800,79 +7476,85 @@
       <c r="AK29" s="18"/>
       <c r="AL29" s="18"/>
       <c r="AM29" s="18">
-        <f t="shared" ref="AM29" si="52">AM27+AM28</f>
+        <f t="shared" ref="AM29" si="67">AM27+AM28</f>
         <v>745.60000000000014</v>
       </c>
       <c r="AN29" s="18">
-        <f t="shared" ref="AN29:AX29" si="53">AN27+AN28</f>
+        <f t="shared" ref="AN29:AX29" si="68">AN27+AN28</f>
         <v>762.30000000000018</v>
       </c>
       <c r="AO29" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1196.9999999999998</v>
       </c>
       <c r="AP29" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>961.79999999999984</v>
       </c>
       <c r="AQ29" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1098.8000000000006</v>
       </c>
       <c r="AR29" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>3270.4</v>
       </c>
       <c r="AS29" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>2215.3000000000002</v>
       </c>
       <c r="AT29" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>2967.0999999999995</v>
       </c>
       <c r="AU29" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1089.6000000000004</v>
       </c>
       <c r="AV29" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1140.4000000000003</v>
       </c>
       <c r="AW29" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1576</v>
       </c>
       <c r="AX29" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="68"/>
         <v>1425.6</v>
       </c>
       <c r="AY29" s="18">
-        <f t="shared" ref="AY29" si="54">AY27+AY28</f>
+        <f t="shared" ref="AY29" si="69">AY27+AY28</f>
         <v>1519</v>
       </c>
       <c r="AZ29" s="18">
-        <f t="shared" ref="AZ29" si="55">AZ27+AZ28</f>
+        <f t="shared" ref="AZ29" si="70">AZ27+AZ28</f>
         <v>1459</v>
       </c>
       <c r="BA29" s="18">
-        <f t="shared" ref="BA29" si="56">BA27+BA28</f>
+        <f t="shared" ref="BA29" si="71">BA27+BA28</f>
         <v>2557.0765000000001</v>
       </c>
       <c r="BB29" s="18">
-        <f t="shared" ref="BB29:BD29" si="57">BB27+BB28</f>
+        <f t="shared" ref="BB29:BF29" si="72">BB27+BB28</f>
         <v>2399.6697750000003</v>
       </c>
       <c r="BC29" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>1243</v>
       </c>
       <c r="BD29" s="18">
-        <f t="shared" si="57"/>
+        <f t="shared" si="72"/>
         <v>1594</v>
       </c>
-      <c r="BE29" s="18"/>
-      <c r="BF29" s="18"/>
+      <c r="BE29" s="18">
+        <f t="shared" si="72"/>
+        <v>3072.4055999999996</v>
+      </c>
+      <c r="BF29" s="18">
+        <f t="shared" si="72"/>
+        <v>3256.2035999999998</v>
+      </c>
       <c r="BG29" s="18"/>
       <c r="BH29" s="18"/>
       <c r="BM29" s="1">
@@ -6900,19 +7582,67 @@
         <v>3666.7</v>
       </c>
       <c r="BW29" s="1">
-        <f t="shared" ref="BW29:BY29" si="58">+BW27+BW28</f>
+        <f t="shared" ref="BW29:CK29" si="73">+BW27+BW28</f>
         <v>9551.6000000000022</v>
       </c>
       <c r="BX29" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>5231.6000000000013</v>
       </c>
       <c r="BY29" s="1">
-        <f t="shared" si="58"/>
+        <f t="shared" si="73"/>
         <v>7934.7462749999995</v>
       </c>
-    </row>
-    <row r="30" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ29" s="1">
+        <f t="shared" si="73"/>
+        <v>12148.9092</v>
+      </c>
+      <c r="CA29" s="1">
+        <f t="shared" si="73"/>
+        <v>8801.6367599999994</v>
+      </c>
+      <c r="CB29" s="1">
+        <f t="shared" si="73"/>
+        <v>8372.5302360000005</v>
+      </c>
+      <c r="CC29" s="1">
+        <f t="shared" si="73"/>
+        <v>8127.7779576000012</v>
+      </c>
+      <c r="CD29" s="1">
+        <f t="shared" si="73"/>
+        <v>7833.3326363600027</v>
+      </c>
+      <c r="CE29" s="1">
+        <f t="shared" si="73"/>
+        <v>7646.4905072668025</v>
+      </c>
+      <c r="CF29" s="1">
+        <f t="shared" si="73"/>
+        <v>7456.9970396698309</v>
+      </c>
+      <c r="CG29" s="1">
+        <f t="shared" si="73"/>
+        <v>7378.9627006394076</v>
+      </c>
+      <c r="CH29" s="1">
+        <f t="shared" si="73"/>
+        <v>7114.5143059409993</v>
+      </c>
+      <c r="CI29" s="1">
+        <f t="shared" si="73"/>
+        <v>6944.3271871024099</v>
+      </c>
+      <c r="CJ29" s="1">
+        <f t="shared" si="73"/>
+        <v>6841.1853582811236</v>
+      </c>
+      <c r="CK29" s="1">
+        <f t="shared" si="73"/>
+        <v>6785.8656274883469</v>
+      </c>
+    </row>
+    <row r="30" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>230</v>
       </c>
@@ -7016,19 +7746,19 @@
         <v>127.6</v>
       </c>
       <c r="AY30" s="18">
-        <f t="shared" ref="AY30:BB30" si="59">+AY29*0.15</f>
+        <f t="shared" ref="AY30:BB30" si="74">+AY29*0.15</f>
         <v>227.85</v>
       </c>
       <c r="AZ30" s="18">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>218.85</v>
       </c>
       <c r="BA30" s="18">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>383.56147500000003</v>
       </c>
       <c r="BB30" s="18">
-        <f t="shared" si="59"/>
+        <f t="shared" si="74"/>
         <v>359.95046625000003</v>
       </c>
       <c r="BC30" s="18"/>
@@ -7053,72 +7783,116 @@
         <v>589.04100000000005</v>
       </c>
       <c r="BV30" s="1">
-        <f t="shared" ref="BV30" si="60">SUM(AM30:AP30)</f>
+        <f t="shared" ref="BV30" si="75">SUM(AM30:AP30)</f>
         <v>297.2</v>
       </c>
       <c r="BW30" s="1">
-        <f t="shared" ref="BW30" si="61">SUM(AQ30:AT30)</f>
+        <f t="shared" ref="BW30" si="76">SUM(AQ30:AT30)</f>
         <v>1250.5</v>
       </c>
       <c r="BX30" s="1">
-        <f t="shared" ref="BX30" si="62">SUM(AU30:AX30)</f>
+        <f t="shared" ref="BX30" si="77">SUM(AU30:AX30)</f>
         <v>520.4</v>
       </c>
       <c r="BY30" s="1">
-        <f t="shared" ref="BY30" si="63">SUM(AY30:BB30)</f>
+        <f t="shared" ref="BY30" si="78">SUM(AY30:BB30)</f>
         <v>1190.2119412500001</v>
       </c>
-    </row>
-    <row r="31" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CA30" s="1">
+        <f>CA29*0.15</f>
+        <v>1320.245514</v>
+      </c>
+      <c r="CB30" s="1">
+        <f t="shared" ref="CB30:CK30" si="79">CB29*0.15</f>
+        <v>1255.8795354000001</v>
+      </c>
+      <c r="CC30" s="1">
+        <f t="shared" si="79"/>
+        <v>1219.1666936400002</v>
+      </c>
+      <c r="CD30" s="1">
+        <f t="shared" si="79"/>
+        <v>1174.9998954540004</v>
+      </c>
+      <c r="CE30" s="1">
+        <f t="shared" si="79"/>
+        <v>1146.9735760900203</v>
+      </c>
+      <c r="CF30" s="1">
+        <f t="shared" si="79"/>
+        <v>1118.5495559504745</v>
+      </c>
+      <c r="CG30" s="1">
+        <f t="shared" si="79"/>
+        <v>1106.844405095911</v>
+      </c>
+      <c r="CH30" s="1">
+        <f t="shared" si="79"/>
+        <v>1067.1771458911498</v>
+      </c>
+      <c r="CI30" s="1">
+        <f t="shared" si="79"/>
+        <v>1041.6490780653614</v>
+      </c>
+      <c r="CJ30" s="1">
+        <f t="shared" si="79"/>
+        <v>1026.1778037421684</v>
+      </c>
+      <c r="CK30" s="1">
+        <f t="shared" si="79"/>
+        <v>1017.879844123252</v>
+      </c>
+    </row>
+    <row r="31" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C31" s="18">
-        <f t="shared" ref="C31" si="64">+C29-C30</f>
+        <f t="shared" ref="C31" si="80">+C29-C30</f>
         <v>-43.474000000000011</v>
       </c>
       <c r="D31" s="18">
-        <f>+D29-D30</f>
+        <f t="shared" ref="D31:N31" si="81">+D29-D30</f>
         <v>-62.505000000000003</v>
       </c>
       <c r="E31" s="18">
-        <f>+E29-E30</f>
+        <f t="shared" si="81"/>
         <v>-62.39800000000001</v>
       </c>
       <c r="F31" s="18">
-        <f>+F29-F30</f>
+        <f t="shared" si="81"/>
         <v>-53.406999999999968</v>
       </c>
       <c r="G31" s="18">
-        <f>+G29-G30</f>
+        <f t="shared" si="81"/>
         <v>11.620000000000015</v>
       </c>
       <c r="H31" s="18">
-        <f>+H29-H30</f>
+        <f t="shared" si="81"/>
         <v>76.724000000000004</v>
       </c>
       <c r="I31" s="18">
-        <f>+I29-I30</f>
+        <f t="shared" si="81"/>
         <v>191.48099999999999</v>
       </c>
       <c r="J31" s="18">
-        <f>+J29-J30</f>
+        <f t="shared" si="81"/>
         <v>134.61900000000003</v>
       </c>
       <c r="K31" s="18">
-        <f>+K29-K30</f>
+        <f t="shared" si="81"/>
         <v>98.833999999999946</v>
       </c>
       <c r="L31" s="18">
-        <f>+L29-L30</f>
+        <f t="shared" si="81"/>
         <v>87.38300000000001</v>
       </c>
       <c r="M31" s="18">
-        <f>+M29-M30</f>
+        <f t="shared" si="81"/>
         <v>141.28800000000007</v>
       </c>
       <c r="N31" s="18">
-        <f>+N29-N30</f>
+        <f t="shared" si="81"/>
         <v>96.811999999999841</v>
       </c>
       <c r="O31" s="18"/>
@@ -7146,103 +7920,109 @@
       <c r="AK31" s="18"/>
       <c r="AL31" s="18"/>
       <c r="AM31" s="18">
-        <f t="shared" ref="AM31" si="65">+AM29-AM30</f>
+        <f t="shared" ref="AM31" si="82">+AM29-AM30</f>
         <v>701.60000000000014</v>
       </c>
       <c r="AN31" s="18">
-        <f t="shared" ref="AN31:AX31" si="66">+AN29-AN30</f>
+        <f t="shared" ref="AN31:AX31" si="83">+AN29-AN30</f>
         <v>740.70000000000016</v>
       </c>
       <c r="AO31" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>1040.7999999999997</v>
       </c>
       <c r="AP31" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>886.39999999999986</v>
       </c>
       <c r="AQ31" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>961.00000000000068</v>
       </c>
       <c r="AR31" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>2616.5</v>
       </c>
       <c r="AS31" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>2030.9</v>
       </c>
       <c r="AT31" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>2692.6999999999994</v>
       </c>
       <c r="AU31" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>1002.0000000000003</v>
       </c>
       <c r="AV31" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>1029.3000000000004</v>
       </c>
       <c r="AW31" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>1381.9</v>
       </c>
       <c r="AX31" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="83"/>
         <v>1298</v>
       </c>
       <c r="AY31" s="18">
-        <f t="shared" ref="AY31" si="67">+AY29-AY30</f>
+        <f t="shared" ref="AY31" si="84">+AY29-AY30</f>
         <v>1291.1500000000001</v>
       </c>
       <c r="AZ31" s="18">
-        <f t="shared" ref="AZ31" si="68">+AZ29-AZ30</f>
+        <f t="shared" ref="AZ31" si="85">+AZ29-AZ30</f>
         <v>1240.1500000000001</v>
       </c>
       <c r="BA31" s="18">
-        <f t="shared" ref="BA31" si="69">+BA29-BA30</f>
+        <f t="shared" ref="BA31" si="86">+BA29-BA30</f>
         <v>2173.5150250000002</v>
       </c>
       <c r="BB31" s="18">
-        <f t="shared" ref="BB31:BD31" si="70">+BB29-BB30</f>
+        <f t="shared" ref="BB31:BF31" si="87">+BB29-BB30</f>
         <v>2039.7193087500002</v>
       </c>
       <c r="BC31" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>1243</v>
       </c>
       <c r="BD31" s="18">
-        <f t="shared" si="70"/>
+        <f t="shared" si="87"/>
         <v>1594</v>
       </c>
-      <c r="BE31" s="18"/>
-      <c r="BF31" s="18"/>
+      <c r="BE31" s="18">
+        <f t="shared" si="87"/>
+        <v>3072.4055999999996</v>
+      </c>
+      <c r="BF31" s="18">
+        <f t="shared" si="87"/>
+        <v>3256.2035999999998</v>
+      </c>
       <c r="BG31" s="18"/>
       <c r="BH31" s="18"/>
       <c r="BL31" s="1">
-        <f>+BL29-BL30</f>
+        <f t="shared" ref="BL31:BQ31" si="88">+BL29-BL30</f>
         <v>0</v>
       </c>
       <c r="BM31" s="1">
-        <f>+BM29-BM30</f>
+        <f t="shared" si="88"/>
         <v>-221.78399999999993</v>
       </c>
       <c r="BN31" s="1">
-        <f>+BN29-BN30</f>
+        <f t="shared" si="88"/>
         <v>414.44400000000007</v>
       </c>
       <c r="BO31" s="1">
-        <f>+BO29-BO30</f>
+        <f t="shared" si="88"/>
         <v>424.31700000000018</v>
       </c>
       <c r="BP31" s="1">
-        <f>+BP29-BP30</f>
+        <f t="shared" si="88"/>
         <v>381.58600000000013</v>
       </c>
       <c r="BQ31" s="1">
-        <f>+BQ29-BQ30</f>
+        <f t="shared" si="88"/>
         <v>654.88899999999978</v>
       </c>
       <c r="BV31" s="1">
@@ -7250,168 +8030,386 @@
         <v>3369.5</v>
       </c>
       <c r="BW31" s="1">
-        <f t="shared" ref="BW31:BY31" si="71">+BW29-BW30</f>
+        <f t="shared" ref="BW31:CK31" si="89">+BW29-BW30</f>
         <v>8301.1000000000022</v>
       </c>
       <c r="BX31" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="89"/>
         <v>4711.2000000000016</v>
       </c>
       <c r="BY31" s="1">
-        <f t="shared" si="71"/>
+        <f t="shared" si="89"/>
         <v>6744.5343337499999</v>
       </c>
-    </row>
-    <row r="32" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="BZ31" s="1">
+        <f t="shared" si="89"/>
+        <v>12148.9092</v>
+      </c>
+      <c r="CA31" s="1">
+        <f t="shared" si="89"/>
+        <v>7481.3912459999992</v>
+      </c>
+      <c r="CB31" s="1">
+        <f t="shared" si="89"/>
+        <v>7116.6507006000002</v>
+      </c>
+      <c r="CC31" s="1">
+        <f t="shared" si="89"/>
+        <v>6908.6112639600015</v>
+      </c>
+      <c r="CD31" s="1">
+        <f t="shared" si="89"/>
+        <v>6658.3327409060021</v>
+      </c>
+      <c r="CE31" s="1">
+        <f t="shared" si="89"/>
+        <v>6499.5169311767822</v>
+      </c>
+      <c r="CF31" s="1">
+        <f t="shared" si="89"/>
+        <v>6338.4474837193566</v>
+      </c>
+      <c r="CG31" s="1">
+        <f t="shared" si="89"/>
+        <v>6272.1182955434961</v>
+      </c>
+      <c r="CH31" s="1">
+        <f t="shared" si="89"/>
+        <v>6047.3371600498494</v>
+      </c>
+      <c r="CI31" s="1">
+        <f t="shared" si="89"/>
+        <v>5902.6781090370487</v>
+      </c>
+      <c r="CJ31" s="1">
+        <f t="shared" si="89"/>
+        <v>5815.0075545389554</v>
+      </c>
+      <c r="CK31" s="1">
+        <f t="shared" si="89"/>
+        <v>5767.9857833650949</v>
+      </c>
+      <c r="CL31" s="1">
+        <f>CK31*(1+$CM$35)</f>
+        <v>5594.9462098641416</v>
+      </c>
+      <c r="CM31" s="1">
+        <f t="shared" ref="CM31:DZ31" si="90">CL31*(1+$CM$35)</f>
+        <v>5427.0978235682169</v>
+      </c>
+      <c r="CN31" s="1">
+        <f t="shared" si="90"/>
+        <v>5264.2848888611707</v>
+      </c>
+      <c r="CO31" s="1">
+        <f t="shared" si="90"/>
+        <v>5106.3563421953349</v>
+      </c>
+      <c r="CP31" s="1">
+        <f t="shared" si="90"/>
+        <v>4953.1656519294747</v>
+      </c>
+      <c r="CQ31" s="1">
+        <f t="shared" si="90"/>
+        <v>4804.57068237159</v>
+      </c>
+      <c r="CR31" s="1">
+        <f t="shared" si="90"/>
+        <v>4660.4335619004423</v>
+      </c>
+      <c r="CS31" s="1">
+        <f t="shared" si="90"/>
+        <v>4520.6205550434288</v>
+      </c>
+      <c r="CT31" s="1">
+        <f t="shared" si="90"/>
+        <v>4385.0019383921262</v>
+      </c>
+      <c r="CU31" s="1">
+        <f t="shared" si="90"/>
+        <v>4253.4518802403627</v>
+      </c>
+      <c r="CV31" s="1">
+        <f t="shared" si="90"/>
+        <v>4125.8483238331519</v>
+      </c>
+      <c r="CW31" s="1">
+        <f t="shared" si="90"/>
+        <v>4002.0728741181574</v>
+      </c>
+      <c r="CX31" s="1">
+        <f t="shared" si="90"/>
+        <v>3882.0106878946126</v>
+      </c>
+      <c r="CY31" s="1">
+        <f t="shared" si="90"/>
+        <v>3765.5503672577743</v>
+      </c>
+      <c r="CZ31" s="1">
+        <f t="shared" si="90"/>
+        <v>3652.5838562400409</v>
+      </c>
+      <c r="DA31" s="1">
+        <f t="shared" si="90"/>
+        <v>3543.0063405528394</v>
+      </c>
+      <c r="DB31" s="1">
+        <f t="shared" si="90"/>
+        <v>3436.716150336254</v>
+      </c>
+      <c r="DC31" s="1">
+        <f t="shared" si="90"/>
+        <v>3333.6146658261664</v>
+      </c>
+      <c r="DD31" s="1">
+        <f t="shared" si="90"/>
+        <v>3233.6062258513812</v>
+      </c>
+      <c r="DE31" s="1">
+        <f t="shared" si="90"/>
+        <v>3136.5980390758396</v>
+      </c>
+      <c r="DF31" s="1">
+        <f t="shared" si="90"/>
+        <v>3042.5000979035644</v>
+      </c>
+      <c r="DG31" s="1">
+        <f t="shared" si="90"/>
+        <v>2951.2250949664576</v>
+      </c>
+      <c r="DH31" s="1">
+        <f t="shared" si="90"/>
+        <v>2862.6883421174639</v>
+      </c>
+      <c r="DI31" s="1">
+        <f t="shared" si="90"/>
+        <v>2776.80769185394</v>
+      </c>
+      <c r="DJ31" s="1">
+        <f t="shared" si="90"/>
+        <v>2693.5034610983216</v>
+      </c>
+      <c r="DK31" s="1">
+        <f t="shared" si="90"/>
+        <v>2612.6983572653721</v>
+      </c>
+      <c r="DL31" s="1">
+        <f t="shared" si="90"/>
+        <v>2534.3174065474109</v>
+      </c>
+      <c r="DM31" s="1">
+        <f t="shared" si="90"/>
+        <v>2458.2878843509884</v>
+      </c>
+      <c r="DN31" s="1">
+        <f t="shared" si="90"/>
+        <v>2384.5392478204585</v>
+      </c>
+      <c r="DO31" s="1">
+        <f t="shared" si="90"/>
+        <v>2313.0030703858447</v>
+      </c>
+      <c r="DP31" s="1">
+        <f t="shared" si="90"/>
+        <v>2243.6129782742692</v>
+      </c>
+      <c r="DQ31" s="1">
+        <f t="shared" si="90"/>
+        <v>2176.3045889260411</v>
+      </c>
+      <c r="DR31" s="1">
+        <f t="shared" si="90"/>
+        <v>2111.0154512582599</v>
+      </c>
+      <c r="DS31" s="1">
+        <f t="shared" si="90"/>
+        <v>2047.684987720512</v>
+      </c>
+      <c r="DT31" s="1">
+        <f t="shared" si="90"/>
+        <v>1986.2544380888967</v>
+      </c>
+      <c r="DU31" s="1">
+        <f t="shared" si="90"/>
+        <v>1926.6668049462298</v>
+      </c>
+      <c r="DV31" s="1">
+        <f t="shared" si="90"/>
+        <v>1868.8668007978429</v>
+      </c>
+      <c r="DW31" s="1">
+        <f t="shared" si="90"/>
+        <v>1812.8007967739075</v>
+      </c>
+      <c r="DX31" s="1">
+        <f t="shared" si="90"/>
+        <v>1758.4167728706902</v>
+      </c>
+      <c r="DY31" s="1">
+        <f t="shared" si="90"/>
+        <v>1705.6642696845695</v>
+      </c>
+      <c r="DZ31" s="1">
+        <f t="shared" si="90"/>
+        <v>1654.4943415940324</v>
+      </c>
+    </row>
+    <row r="32" spans="2:130" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C32" s="19">
-        <f>+C31/C33</f>
+        <f t="shared" ref="C32:N32" si="91">+C31/C33</f>
         <v>-0.48758439694040073</v>
       </c>
       <c r="D32" s="19">
-        <f>+D31/D33</f>
+        <f t="shared" si="91"/>
         <v>-0.69115175372639215</v>
       </c>
       <c r="E32" s="19">
-        <f>+E31/E33</f>
+        <f t="shared" si="91"/>
         <v>-0.68534586912110373</v>
       </c>
       <c r="F32" s="19">
-        <f>+F31/F33</f>
+        <f t="shared" si="91"/>
         <v>-0.58659359005337919</v>
       </c>
       <c r="G32" s="19">
-        <f>+G31/G33</f>
+        <f t="shared" si="91"/>
         <v>0.10785824345146394</v>
       </c>
       <c r="H32" s="19">
-        <f>+H31/H33</f>
+        <f t="shared" si="91"/>
         <v>0.6964335962674848</v>
       </c>
       <c r="I32" s="19">
-        <f>+I31/I33</f>
+        <f t="shared" si="91"/>
         <v>1.6531209531209532</v>
       </c>
       <c r="J32" s="19">
-        <f>+J31/J33</f>
+        <f t="shared" si="91"/>
         <v>1.1622118622118625</v>
       </c>
       <c r="K32" s="19">
-        <f>+K31/K33</f>
+        <f t="shared" si="91"/>
         <v>0.90367471587012727</v>
       </c>
       <c r="L32" s="19">
-        <f>+L31/L33</f>
+        <f t="shared" si="91"/>
         <v>0.78680893210877012</v>
       </c>
       <c r="M32" s="19">
-        <f>+M31/M33</f>
+        <f t="shared" si="91"/>
         <v>1.2105592350466536</v>
       </c>
       <c r="N32" s="19">
-        <f>+N31/N33</f>
+        <f t="shared" si="91"/>
         <v>0.82948771773495533</v>
       </c>
       <c r="AM32" s="19">
-        <f t="shared" ref="AM32" si="72">+AM31/AM33</f>
+        <f t="shared" ref="AM32" si="92">+AM31/AM33</f>
         <v>6.0955690703735899</v>
       </c>
       <c r="AN32" s="19">
-        <f t="shared" ref="AN32:AX32" si="73">+AN31/AN33</f>
+        <f t="shared" ref="AN32:AX32" si="93">+AN31/AN33</f>
         <v>6.2087175188600181</v>
       </c>
       <c r="AO32" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>9.1378402107111469</v>
       </c>
       <c r="AP32" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>7.900178253119428</v>
       </c>
       <c r="AQ32" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>8.5727029438001843</v>
       </c>
       <c r="AR32" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>23.319964349376114</v>
       </c>
       <c r="AS32" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>17.830553116769096</v>
       </c>
       <c r="AT32" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>23.787102473498226</v>
       </c>
       <c r="AU32" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>8.7358326068003507</v>
       </c>
       <c r="AV32" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>8.9194107452339715</v>
       </c>
       <c r="AW32" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>12.250886524822697</v>
       </c>
       <c r="AX32" s="19">
-        <f t="shared" si="73"/>
+        <f t="shared" si="93"/>
         <v>11.385964912280702</v>
       </c>
       <c r="AY32" s="19">
-        <f t="shared" ref="AY32" si="74">+AY31/AY33</f>
+        <f t="shared" ref="AY32" si="94">+AY31/AY33</f>
         <v>11.325877192982457</v>
       </c>
       <c r="AZ32" s="19">
-        <f t="shared" ref="AZ32" si="75">+AZ31/AZ33</f>
+        <f t="shared" ref="AZ32" si="95">+AZ31/AZ33</f>
         <v>10.878508771929825</v>
       </c>
       <c r="BA32" s="19">
-        <f t="shared" ref="BA32" si="76">+BA31/BA33</f>
+        <f t="shared" ref="BA32" si="96">+BA31/BA33</f>
         <v>19.065921271929827</v>
       </c>
       <c r="BB32" s="19">
-        <f t="shared" ref="BB32:BD32" si="77">+BB31/BB33</f>
+        <f t="shared" ref="BB32:BF32" si="97">+BB31/BB33</f>
         <v>17.892274638157897</v>
       </c>
       <c r="BC32" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="97"/>
         <v>10.903508771929825</v>
       </c>
       <c r="BD32" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="97"/>
         <v>13.982456140350877</v>
       </c>
-      <c r="BE32" s="19"/>
-      <c r="BF32" s="19"/>
+      <c r="BE32" s="19">
+        <f t="shared" si="97"/>
+        <v>26.95092631578947</v>
+      </c>
+      <c r="BF32" s="19">
+        <f t="shared" si="97"/>
+        <v>28.563189473684208</v>
+      </c>
       <c r="BG32" s="19"/>
       <c r="BH32" s="19"/>
       <c r="BL32" s="25">
-        <f>+BL31/BL33</f>
+        <f t="shared" ref="BL32:BQ32" si="98">+BL31/BL33</f>
         <v>0</v>
       </c>
       <c r="BM32" s="25">
-        <f>+BM31/BM33</f>
+        <f t="shared" si="98"/>
         <v>-2.4476768568590654</v>
       </c>
       <c r="BN32" s="25">
-        <f>+BN31/BN33</f>
+        <f t="shared" si="98"/>
         <v>3.5919294170667873</v>
       </c>
       <c r="BO32" s="25">
-        <f>+BO31/BO33</f>
+        <f t="shared" si="98"/>
         <v>3.8127145296073337</v>
       </c>
       <c r="BP32" s="25">
-        <f>+BP31/BP33</f>
+        <f t="shared" si="98"/>
         <v>3.3645701991835164</v>
       </c>
       <c r="BQ32" s="25">
-        <f>+BQ31/BQ33</f>
+        <f t="shared" si="98"/>
         <v>5.683320315889957</v>
       </c>
       <c r="BV32" s="25">
@@ -7419,19 +8417,67 @@
         <v>29.268186753528777</v>
       </c>
       <c r="BW32" s="25">
-        <f t="shared" ref="BW32:BY32" si="78">+BW31/BW33</f>
+        <f t="shared" ref="BW32:CK32" si="99">+BW31/BW33</f>
         <v>73.558706247230845</v>
       </c>
       <c r="BX32" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="99"/>
         <v>41.244911359159566</v>
       </c>
       <c r="BY32" s="25">
-        <f t="shared" si="78"/>
+        <f t="shared" si="99"/>
         <v>59.162581875000001</v>
       </c>
-    </row>
-    <row r="33" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ32" s="25">
+        <f t="shared" si="99"/>
+        <v>106.56937894736842</v>
+      </c>
+      <c r="CA32" s="25">
+        <f t="shared" si="99"/>
+        <v>65.626238999999998</v>
+      </c>
+      <c r="CB32" s="25">
+        <f t="shared" si="99"/>
+        <v>62.42676053157895</v>
+      </c>
+      <c r="CC32" s="25">
+        <f t="shared" si="99"/>
+        <v>60.601853192631594</v>
+      </c>
+      <c r="CD32" s="25">
+        <f t="shared" si="99"/>
+        <v>58.406427551807035</v>
+      </c>
+      <c r="CE32" s="25">
+        <f t="shared" si="99"/>
+        <v>57.013306413831423</v>
+      </c>
+      <c r="CF32" s="25">
+        <f t="shared" si="99"/>
+        <v>55.600416523854008</v>
+      </c>
+      <c r="CG32" s="25">
+        <f t="shared" si="99"/>
+        <v>55.018581539855226</v>
+      </c>
+      <c r="CH32" s="25">
+        <f t="shared" si="99"/>
+        <v>53.046817193419734</v>
+      </c>
+      <c r="CI32" s="25">
+        <f t="shared" si="99"/>
+        <v>51.777878149447794</v>
+      </c>
+      <c r="CJ32" s="25">
+        <f t="shared" si="99"/>
+        <v>51.008838197710133</v>
+      </c>
+      <c r="CK32" s="25">
+        <f t="shared" si="99"/>
+        <v>50.596366520746443</v>
+      </c>
+    </row>
+    <row r="33" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
@@ -7535,31 +8581,37 @@
         <v>114</v>
       </c>
       <c r="AY33" s="18">
-        <f t="shared" ref="AY33:BD33" si="79">+AX33</f>
+        <f t="shared" ref="AY33:BD33" si="100">+AX33</f>
         <v>114</v>
       </c>
       <c r="AZ33" s="18">
-        <f t="shared" si="79"/>
+        <f t="shared" si="100"/>
         <v>114</v>
       </c>
       <c r="BA33" s="18">
-        <f t="shared" si="79"/>
+        <f t="shared" si="100"/>
         <v>114</v>
       </c>
       <c r="BB33" s="18">
-        <f t="shared" si="79"/>
+        <f t="shared" si="100"/>
         <v>114</v>
       </c>
       <c r="BC33" s="18">
-        <f t="shared" si="79"/>
+        <f t="shared" si="100"/>
         <v>114</v>
       </c>
       <c r="BD33" s="18">
-        <f t="shared" si="79"/>
+        <f t="shared" si="100"/>
         <v>114</v>
       </c>
-      <c r="BE33" s="18"/>
-      <c r="BF33" s="18"/>
+      <c r="BE33" s="18">
+        <f>BD33</f>
+        <v>114</v>
+      </c>
+      <c r="BF33" s="18">
+        <f>BE33</f>
+        <v>114</v>
+      </c>
       <c r="BG33" s="18"/>
       <c r="BH33" s="18"/>
       <c r="BL33" s="1">
@@ -7596,8 +8648,56 @@
         <f>AVERAGE(AY33:BB33)</f>
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="2:77" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ33" s="1">
+        <f>BY33</f>
+        <v>114</v>
+      </c>
+      <c r="CA33" s="1">
+        <f>BZ33</f>
+        <v>114</v>
+      </c>
+      <c r="CB33" s="1">
+        <f t="shared" ref="CB33:CK33" si="101">CA33</f>
+        <v>114</v>
+      </c>
+      <c r="CC33" s="1">
+        <f t="shared" si="101"/>
+        <v>114</v>
+      </c>
+      <c r="CD33" s="1">
+        <f t="shared" si="101"/>
+        <v>114</v>
+      </c>
+      <c r="CE33" s="1">
+        <f t="shared" si="101"/>
+        <v>114</v>
+      </c>
+      <c r="CF33" s="1">
+        <f t="shared" si="101"/>
+        <v>114</v>
+      </c>
+      <c r="CG33" s="1">
+        <f t="shared" si="101"/>
+        <v>114</v>
+      </c>
+      <c r="CH33" s="1">
+        <f t="shared" si="101"/>
+        <v>114</v>
+      </c>
+      <c r="CI33" s="1">
+        <f t="shared" si="101"/>
+        <v>114</v>
+      </c>
+      <c r="CJ33" s="1">
+        <f t="shared" si="101"/>
+        <v>114</v>
+      </c>
+      <c r="CK33" s="1">
+        <f t="shared" si="101"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="2:91" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="20" t="s">
         <v>249</v>
       </c>
@@ -7642,23 +8742,23 @@
       <c r="AO35" s="50"/>
       <c r="AP35" s="50"/>
       <c r="AQ35" s="51">
-        <f t="shared" ref="AQ35" si="80">AQ21/AM21-1</f>
+        <f t="shared" ref="AQ35" si="102">AQ21/AM21-1</f>
         <v>0.38354665791488918</v>
       </c>
       <c r="AR35" s="51">
-        <f t="shared" ref="AR35" si="81">AR21/AN21-1</f>
+        <f t="shared" ref="AR35" si="103">AR21/AN21-1</f>
         <v>1.6321262101111507</v>
       </c>
       <c r="AS35" s="51">
-        <f t="shared" ref="AS35:AU35" si="82">AS21/AO21-1</f>
+        <f t="shared" ref="AS35:AU35" si="104">AS21/AO21-1</f>
         <v>0.50531868515127765</v>
       </c>
       <c r="AT35" s="51">
-        <f t="shared" si="82"/>
+        <f t="shared" si="104"/>
         <v>1.153106926990477</v>
       </c>
       <c r="AU35" s="51">
-        <f t="shared" si="82"/>
+        <f t="shared" si="104"/>
         <v>0.17241242982525495</v>
       </c>
       <c r="AV35" s="51">
@@ -7666,7 +8766,7 @@
         <v>-0.44412010819857162</v>
       </c>
       <c r="AW35" s="51">
-        <f t="shared" ref="AW35" si="83">AW21/AS21-1</f>
+        <f t="shared" ref="AW35" si="105">AW21/AS21-1</f>
         <v>-0.14958440730979761</v>
       </c>
       <c r="AX35" s="51">
@@ -7674,35 +8774,47 @@
         <v>-0.31049177017065521</v>
       </c>
       <c r="AY35" s="51">
-        <f t="shared" ref="AY35" si="84">AY21/AU21-1</f>
+        <f t="shared" ref="AY35" si="106">AY21/AU21-1</f>
         <v>6.626201315123903E-2</v>
       </c>
       <c r="AZ35" s="51">
-        <f t="shared" ref="AZ35" si="85">AZ21/AV21-1</f>
+        <f t="shared" ref="AZ35" si="107">AZ21/AV21-1</f>
         <v>0.10554874846840545</v>
       </c>
       <c r="BA35" s="51">
-        <f t="shared" ref="BA35" si="86">BA21/AW21-1</f>
+        <f t="shared" ref="BA35" si="108">BA21/AW21-1</f>
         <v>0.14428722244925751</v>
       </c>
       <c r="BB35" s="51">
-        <f t="shared" ref="BB35:BD35" si="87">BB21/AX21-1</f>
+        <f t="shared" ref="BB35:BF35" si="109">BB21/AX21-1</f>
         <v>-5.2137459359713478E-3</v>
       </c>
       <c r="BC35" s="51">
-        <f t="shared" si="87"/>
+        <f t="shared" si="109"/>
         <v>-5.3763440860215006E-3</v>
       </c>
       <c r="BD35" s="51">
-        <f t="shared" si="87"/>
+        <f t="shared" si="109"/>
         <v>0.12317922735908793</v>
       </c>
-      <c r="BE35" s="51"/>
-      <c r="BF35" s="51"/>
+      <c r="BE35" s="51">
+        <f t="shared" si="109"/>
+        <v>1.5981440945690206E-2</v>
+      </c>
+      <c r="BF35" s="51">
+        <f t="shared" si="109"/>
+        <v>6.5278175166959107E-2</v>
+      </c>
       <c r="BG35" s="51"/>
       <c r="BH35" s="51"/>
-    </row>
-    <row r="36" spans="2:77" s="52" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="CL35" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="CM35" s="58">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="2:91" s="52" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="20" t="s">
         <v>257</v>
       </c>
@@ -7747,11 +8859,11 @@
       <c r="AO36" s="50"/>
       <c r="AP36" s="50"/>
       <c r="AQ36" s="49">
-        <f t="shared" ref="AQ36" si="88">+AQ3/AM3-1</f>
+        <f t="shared" ref="AQ36" si="110">+AQ3/AM3-1</f>
         <v>0.14931740614334466</v>
       </c>
       <c r="AR36" s="49">
-        <f t="shared" ref="AR36" si="89">+AR3/AN3-1</f>
+        <f t="shared" ref="AR36" si="111">+AR3/AN3-1</f>
         <v>0.2791741472172351</v>
       </c>
       <c r="AS36" s="49">
@@ -7759,19 +8871,19 @@
         <v>0.11760242792109254</v>
       </c>
       <c r="AT36" s="49">
-        <f t="shared" ref="AT36:BD36" si="90">+AT3/AP3-1</f>
+        <f t="shared" ref="AT36:BD36" si="112">+AT3/AP3-1</f>
         <v>0.15189873417721511</v>
       </c>
       <c r="AU36" s="49">
-        <f t="shared" si="90"/>
+        <f t="shared" si="112"/>
         <v>0.12694877505567925</v>
       </c>
       <c r="AV36" s="49">
-        <f t="shared" si="90"/>
+        <f t="shared" si="112"/>
         <v>0.13754385964912275</v>
       </c>
       <c r="AW36" s="49">
-        <f t="shared" si="90"/>
+        <f t="shared" si="112"/>
         <v>0.10590631364562109</v>
       </c>
       <c r="AX36" s="49">
@@ -7779,44 +8891,50 @@
         <v>-3.2967032967032961E-2</v>
       </c>
       <c r="AY36" s="49">
-        <f t="shared" si="90"/>
+        <f t="shared" si="112"/>
         <v>-5.5335968379446654E-2</v>
       </c>
       <c r="AZ36" s="49">
-        <f t="shared" si="90"/>
+        <f t="shared" si="112"/>
         <v>-7.464528069093157E-2</v>
       </c>
       <c r="BA36" s="49">
-        <f t="shared" si="90"/>
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BB36" s="49">
-        <f t="shared" si="90"/>
+        <f t="shared" si="112"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BC36" s="49">
-        <f t="shared" si="90"/>
+        <f t="shared" si="112"/>
         <v>-0.1617852161785216</v>
       </c>
       <c r="BD36" s="49">
-        <f t="shared" si="90"/>
+        <f t="shared" si="112"/>
         <v>-0.17933333333333334</v>
       </c>
       <c r="BE36" s="49"/>
       <c r="BF36" s="49"/>
       <c r="BG36" s="49"/>
       <c r="BH36" s="49"/>
-    </row>
-    <row r="37" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="CL36" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="CM36" s="58">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="37" spans="2:91" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>250</v>
       </c>
       <c r="AQ37" s="49">
-        <f t="shared" ref="AQ37" si="91">AQ10/AM10-1</f>
+        <f t="shared" ref="AQ37" si="113">AQ10/AM10-1</f>
         <v>0.47752126366950209</v>
       </c>
       <c r="AR37" s="49">
-        <f t="shared" ref="AR37" si="92">AR10/AN10-1</f>
+        <f t="shared" ref="AR37" si="114">AR10/AN10-1</f>
         <v>0.6265328874024525</v>
       </c>
       <c r="AS37" s="49">
@@ -7824,19 +8942,19 @@
         <v>0.64675912821964343</v>
       </c>
       <c r="AT37" s="49">
-        <f t="shared" ref="AT37:AW37" si="93">AT10/AP10-1</f>
+        <f t="shared" ref="AT37:AW37" si="115">AT10/AP10-1</f>
         <v>0.63323872595395758</v>
       </c>
       <c r="AU37" s="49">
-        <f t="shared" si="93"/>
+        <f t="shared" si="115"/>
         <v>0.72944078947368385</v>
       </c>
       <c r="AV37" s="49">
-        <f t="shared" si="93"/>
+        <f t="shared" si="115"/>
         <v>0.54786383367603375</v>
       </c>
       <c r="AW37" s="49">
-        <f t="shared" si="93"/>
+        <f t="shared" si="115"/>
         <v>0.22275696115503596</v>
       </c>
       <c r="AX37" s="49">
@@ -7844,44 +8962,51 @@
         <v>0.61401815022205053</v>
       </c>
       <c r="AY37" s="49">
-        <f t="shared" ref="AY37" si="94">AY10/AU10-1</f>
+        <f t="shared" ref="AY37" si="116">AY10/AU10-1</f>
         <v>0.26485972420351889</v>
       </c>
       <c r="AZ37" s="49">
-        <f t="shared" ref="AZ37" si="95">AZ10/AV10-1</f>
+        <f t="shared" ref="AZ37" si="117">AZ10/AV10-1</f>
         <v>0.39335793357933579</v>
       </c>
       <c r="BA37" s="49">
-        <f t="shared" ref="BA37" si="96">BA10/AW10-1</f>
+        <f t="shared" ref="BA37" si="118">BA10/AW10-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="BB37" s="49">
-        <f t="shared" ref="BB37:BD37" si="97">BB10/AX10-1</f>
+        <f t="shared" ref="BB37:BD37" si="119">BB10/AX10-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="BC37" s="49">
-        <f t="shared" si="97"/>
+        <f t="shared" si="119"/>
         <v>0.14035087719298245</v>
       </c>
       <c r="BD37" s="49">
-        <f t="shared" si="97"/>
+        <f t="shared" si="119"/>
         <v>0.21398305084745761</v>
       </c>
       <c r="BE37" s="49"/>
       <c r="BF37" s="49"/>
       <c r="BG37" s="49"/>
       <c r="BH37" s="49"/>
-    </row>
-    <row r="38" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="CL37" t="s">
+        <v>376</v>
+      </c>
+      <c r="CM37" s="1">
+        <f>NPV(8%,CA31:DZ31)+Main!J5-Main!J6</f>
+        <v>83966.327859398283</v>
+      </c>
+    </row>
+    <row r="38" spans="2:91" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>251</v>
       </c>
       <c r="AQ38" s="49">
-        <f t="shared" ref="AQ38" si="98">AQ14/AM14-1</f>
+        <f t="shared" ref="AQ38" si="120">AQ14/AM14-1</f>
         <v>0.47707602339181299</v>
       </c>
       <c r="AR38" s="49">
-        <f t="shared" ref="AR38" si="99">AR14/AN14-1</f>
+        <f t="shared" ref="AR38" si="121">AR14/AN14-1</f>
         <v>0.58624338624338623</v>
       </c>
       <c r="AS38" s="49">
@@ -7889,19 +9014,19 @@
         <v>0.55034495618124213</v>
       </c>
       <c r="AT38" s="49">
-        <f t="shared" ref="AT38:AW38" si="100">AT14/AP14-1</f>
+        <f t="shared" ref="AT38:AW38" si="122">AT14/AP14-1</f>
         <v>0.51348122866894186</v>
       </c>
       <c r="AU38" s="49">
-        <f t="shared" si="100"/>
+        <f t="shared" si="122"/>
         <v>0.43352601156069359</v>
       </c>
       <c r="AV38" s="49">
-        <f t="shared" si="100"/>
+        <f t="shared" si="122"/>
         <v>0.39546364242828558</v>
       </c>
       <c r="AW38" s="49">
-        <f t="shared" si="100"/>
+        <f t="shared" si="122"/>
         <v>0.40122677250586314</v>
       </c>
       <c r="AX38" s="49">
@@ -7909,27 +9034,27 @@
         <v>0.38059533205547424</v>
       </c>
       <c r="AY38" s="49">
-        <f t="shared" ref="AY38" si="101">AY14/AU14-1</f>
+        <f t="shared" ref="AY38" si="123">AY14/AU14-1</f>
         <v>-1</v>
       </c>
       <c r="AZ38" s="49">
-        <f t="shared" ref="AZ38" si="102">AZ14/AV14-1</f>
+        <f t="shared" ref="AZ38" si="124">AZ14/AV14-1</f>
         <v>0.33349268572521273</v>
       </c>
       <c r="BA38" s="49">
-        <f t="shared" ref="BA38" si="103">BA14/AW14-1</f>
+        <f t="shared" ref="BA38" si="125">BA14/AW14-1</f>
         <v>-1</v>
       </c>
       <c r="BB38" s="49">
-        <f t="shared" ref="BB38:BD38" si="104">BB14/AX14-1</f>
+        <f t="shared" ref="BB38:BD38" si="126">BB14/AX14-1</f>
         <v>-1</v>
       </c>
       <c r="BC38" s="49" t="e">
-        <f t="shared" si="104"/>
+        <f t="shared" si="126"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BD38" s="49">
-        <f t="shared" si="104"/>
+        <f t="shared" si="126"/>
         <v>0.2749695274969528</v>
       </c>
       <c r="BE38" s="49"/>
@@ -7937,44 +9062,44 @@
       <c r="BG38" s="49"/>
       <c r="BH38" s="49"/>
     </row>
-    <row r="40" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:91" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>223</v>
       </c>
       <c r="AM40" s="49">
-        <f t="shared" ref="AM40" si="105">+AM23/AM21</f>
+        <f t="shared" ref="AM40" si="127">+AM23/AM21</f>
         <v>0.88113991904605626</v>
       </c>
       <c r="AN40" s="49">
-        <f t="shared" ref="AN40:AU40" si="106">+AN23/AN21</f>
+        <f t="shared" ref="AN40:AU40" si="128">+AN23/AN21</f>
         <v>0.863648004917277</v>
       </c>
       <c r="AO40" s="49">
-        <f t="shared" si="106"/>
+        <f t="shared" si="128"/>
         <v>0.94681314848722642</v>
       </c>
       <c r="AP40" s="49">
-        <f t="shared" si="106"/>
+        <f t="shared" si="128"/>
         <v>0.85237204852806892</v>
       </c>
       <c r="AQ40" s="49">
-        <f t="shared" si="106"/>
+        <f t="shared" si="128"/>
         <v>0.87823199177670597</v>
       </c>
       <c r="AR40" s="49">
-        <f t="shared" si="106"/>
+        <f t="shared" si="128"/>
         <v>0.86500476774281432</v>
       </c>
       <c r="AS40" s="49">
-        <f t="shared" si="106"/>
+        <f t="shared" si="128"/>
         <v>0.93512699470010718</v>
       </c>
       <c r="AT40" s="49">
-        <f t="shared" si="106"/>
+        <f t="shared" si="128"/>
         <v>0.85259012420478653</v>
       </c>
       <c r="AU40" s="49">
-        <f t="shared" si="106"/>
+        <f t="shared" si="128"/>
         <v>0.86346315966953291</v>
       </c>
       <c r="AV40" s="49">
@@ -7982,35 +9107,35 @@
         <v>0.89599159810957474</v>
       </c>
       <c r="AW40" s="49">
-        <f t="shared" ref="AW40" si="107">+AW23/AW21</f>
+        <f t="shared" ref="AW40" si="129">+AW23/AW21</f>
         <v>0.96287971665985561</v>
       </c>
       <c r="AX40" s="49">
-        <f t="shared" ref="AX40:BD40" si="108">+AX23/AX21</f>
+        <f t="shared" ref="AX40:BD40" si="130">+AX23/AX21</f>
         <v>0.88658797340441109</v>
       </c>
       <c r="AY40" s="49">
-        <f t="shared" si="108"/>
+        <f t="shared" si="130"/>
         <v>0.94686907020872868</v>
       </c>
       <c r="AZ40" s="49">
-        <f t="shared" si="108"/>
+        <f t="shared" si="130"/>
         <v>0.94838505383153893</v>
       </c>
       <c r="BA40" s="49">
-        <f t="shared" si="108"/>
+        <f t="shared" si="130"/>
         <v>0.9</v>
       </c>
       <c r="BB40" s="49">
-        <f t="shared" si="108"/>
+        <f t="shared" si="130"/>
         <v>0.9</v>
       </c>
       <c r="BC40" s="49">
-        <f t="shared" si="108"/>
+        <f t="shared" si="130"/>
         <v>0.93767885532591411</v>
       </c>
       <c r="BD40" s="49">
-        <f t="shared" si="108"/>
+        <f t="shared" si="130"/>
         <v>0.93966732449957713</v>
       </c>
       <c r="BE40" s="49"/>
@@ -8018,7 +9143,7 @@
       <c r="BG40" s="49"/>
       <c r="BH40" s="49"/>
     </row>
-    <row r="47" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>33</v>
       </c>
@@ -8077,7 +9202,7 @@
         <v>17531</v>
       </c>
     </row>
-    <row r="48" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>313</v>
       </c>
@@ -8132,7 +9257,7 @@
         <v>5328.7</v>
       </c>
     </row>
-    <row r="49" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>314</v>
       </c>
@@ -8187,7 +9312,7 @@
         <v>2401.9</v>
       </c>
     </row>
-    <row r="50" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>315</v>
       </c>
@@ -8242,7 +9367,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="51" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>316</v>
       </c>
@@ -8297,7 +9422,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="52" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>317</v>
       </c>
@@ -8352,7 +9477,7 @@
         <v>915.5</v>
       </c>
     </row>
-    <row r="53" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>230</v>
       </c>
@@ -8407,7 +9532,7 @@
         <v>1723.7</v>
       </c>
     </row>
-    <row r="54" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>318</v>
       </c>
@@ -8462,7 +9587,7 @@
         <v>336.4</v>
       </c>
     </row>
-    <row r="55" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>319</v>
       </c>
@@ -8518,10 +9643,10 @@
         <v>29214.500000000004</v>
       </c>
     </row>
-    <row r="56" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:56" x14ac:dyDescent="0.15">
       <c r="BD56" s="1"/>
     </row>
-    <row r="57" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>320</v>
       </c>
@@ -8530,7 +9655,7 @@
       </c>
       <c r="BD57" s="1"/>
     </row>
-    <row r="58" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>321</v>
       </c>
@@ -8539,7 +9664,7 @@
       </c>
       <c r="BD58" s="1"/>
     </row>
-    <row r="59" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>322</v>
       </c>
@@ -8549,7 +9674,7 @@
       </c>
       <c r="BD59" s="1"/>
     </row>
-    <row r="60" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>29</v>
       </c>
@@ -8560,7 +9685,7 @@
         <v>1983.6</v>
       </c>
     </row>
-    <row r="61" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>323</v>
       </c>
@@ -8569,7 +9694,7 @@
       </c>
       <c r="BD61" s="1"/>
     </row>
-    <row r="62" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>326</v>
       </c>
@@ -8577,7 +9702,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="63" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>325</v>
       </c>
@@ -8585,7 +9710,7 @@
         <v>22664</v>
       </c>
     </row>
-    <row r="64" spans="2:56" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:56" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>324</v>
       </c>
@@ -8610,19 +9735,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -8630,7 +9755,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -8638,7 +9763,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -8646,7 +9771,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -8654,32 +9779,32 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="13" t="s">
         <v>198</v>
       </c>
@@ -8700,25 +9825,25 @@
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="13.1640625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="9.1640625" style="2"/>
+    <col min="7" max="7" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="2"/>
+    <col min="9" max="9" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
@@ -8726,7 +9851,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -8734,7 +9859,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
@@ -8742,7 +9867,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
@@ -8750,7 +9875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -8758,7 +9883,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
@@ -8766,7 +9891,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>134</v>
       </c>
@@ -8774,7 +9899,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
@@ -8782,32 +9907,32 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C11" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C12" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C13" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C15" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="C16" s="2" t="s">
         <v>121</v>
       </c>
@@ -8824,7 +9949,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C17" s="2" t="s">
         <v>120</v>
       </c>
@@ -8847,7 +9972,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
         <v>118</v>
       </c>
@@ -8870,7 +9995,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C19" s="2" t="s">
         <v>116</v>
       </c>
@@ -8893,7 +10018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C20" s="2" t="s">
         <v>114</v>
       </c>
@@ -8916,7 +10041,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G21" s="4" t="s">
         <v>111</v>
       </c>
@@ -8933,7 +10058,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G22" s="4" t="s">
         <v>110</v>
       </c>
@@ -8953,7 +10078,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G23" s="4" t="s">
         <v>105</v>
       </c>
@@ -8970,43 +10095,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C25" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C29" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C30" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C31" s="2" t="s">
         <v>120</v>
       </c>
@@ -9026,7 +10151,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C32" s="2" t="s">
         <v>118</v>
       </c>
@@ -9049,7 +10174,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C33" s="2" t="s">
         <v>116</v>
       </c>
@@ -9072,7 +10197,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C34" s="2" t="s">
         <v>114</v>
       </c>
@@ -9095,7 +10220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G35" s="2" t="s">
         <v>112</v>
       </c>
@@ -9112,7 +10237,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G36" s="4" t="s">
         <v>111</v>
       </c>
@@ -9129,7 +10254,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G37" s="4" t="s">
         <v>110</v>
       </c>
@@ -9149,7 +10274,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G38" s="4" t="s">
         <v>105</v>
       </c>
@@ -9166,14 +10291,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G39" s="4"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C40" s="5" t="s">
         <v>104</v>
       </c>
@@ -9183,7 +10308,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
@@ -9193,7 +10318,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C42" s="2" t="s">
         <v>102</v>
       </c>
@@ -9203,7 +10328,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C43" s="2" t="s">
         <v>101</v>
       </c>
@@ -9213,14 +10338,14 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
       <c r="G44" s="4"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C45" s="5" t="s">
         <v>100</v>
       </c>
@@ -9230,7 +10355,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C46" s="2" t="s">
         <v>99</v>
       </c>
@@ -9240,7 +10365,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C47" s="2" t="s">
         <v>98</v>
       </c>
@@ -9250,7 +10375,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C48" s="2" t="s">
         <v>97</v>
       </c>
@@ -9260,7 +10385,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C49" s="2" t="s">
         <v>96</v>
       </c>
@@ -9270,7 +10395,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C50" s="2" t="s">
         <v>95</v>
       </c>
@@ -9280,7 +10405,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C51" s="2" t="s">
         <v>94</v>
       </c>
@@ -9290,7 +10415,7 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C52" s="2" t="s">
         <v>93</v>
       </c>
@@ -9300,7 +10425,7 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C53" s="2" t="s">
         <v>92</v>
       </c>
@@ -9310,7 +10435,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C54" s="2" t="s">
         <v>91</v>
       </c>
@@ -9320,57 +10445,57 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C56" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C57" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C59" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C60" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C61" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C62" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.15">
       <c r="C64" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C65" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C66" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C68" s="2" t="s">
         <v>80</v>
       </c>
@@ -9391,21 +10516,21 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="2"/>
+    <col min="5" max="5" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
@@ -9413,7 +10538,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -9421,7 +10546,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
@@ -9429,12 +10554,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
@@ -9442,83 +10567,83 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C9" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C13" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C14" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D19" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D23" s="2" t="s">
         <v>56</v>
       </c>
@@ -9529,7 +10654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C24" s="4" t="s">
         <v>53</v>
       </c>
@@ -9543,17 +10668,17 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C28" s="2" t="s">
         <v>50</v>
       </c>
@@ -9574,16 +10699,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="12"/>
-    <col min="4" max="4" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="17.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="12"/>
+    <col min="4" max="4" width="10.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -9591,7 +10716,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>78</v>
@@ -9601,7 +10726,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>76</v>
@@ -9611,7 +10736,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>44</v>
@@ -9621,7 +10746,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>48</v>
@@ -9631,7 +10756,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
@@ -9639,7 +10764,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>45</v>
@@ -9649,7 +10774,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>134</v>
@@ -9659,7 +10784,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>66</v>
@@ -9667,12 +10792,12 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C11" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C12" s="12" t="s">
         <v>152</v>
       </c>
@@ -9680,7 +10805,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C13" s="12" t="s">
         <v>150</v>
       </c>
@@ -9694,7 +10819,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="12" t="s">
         <v>117</v>
       </c>
@@ -9711,7 +10836,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="12" t="s">
         <v>146</v>
       </c>
@@ -9728,7 +10853,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
         <v>145</v>
       </c>
@@ -9745,7 +10870,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>144</v>
       </c>
@@ -9762,27 +10887,27 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C19" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C20" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C22" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C23" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C24" s="12" t="s">
         <v>139</v>
       </c>
@@ -9803,19 +10928,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
@@ -9823,7 +10948,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -9831,7 +10956,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
@@ -9839,7 +10964,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
@@ -9847,7 +10972,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
@@ -9855,83 +10980,83 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C18" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C24" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C28" s="15" t="s">
         <v>157</v>
       </c>
@@ -9951,19 +11076,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -9971,7 +11096,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -9979,7 +11104,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -9987,7 +11112,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -9995,7 +11120,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
@@ -10003,7 +11128,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
@@ -10011,7 +11136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
@@ -10019,52 +11144,52 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C19" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" s="12" t="s">
         <v>176</v>
       </c>
@@ -10083,19 +11208,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="12"/>
+    <col min="2" max="2" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -10103,7 +11228,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -10111,7 +11236,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -10119,7 +11244,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -10127,7 +11252,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
@@ -10135,7 +11260,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
@@ -10143,32 +11268,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C17" s="12" t="s">
         <v>190</v>
       </c>

--- a/REGN.xlsx
+++ b/REGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547C3585-F8A6-494B-ADF0-1B4E63FA375C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B04AD7-6812-4DBF-8FE5-E1CD56BC5B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20500" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
+    <workbookView xWindow="-38610" yWindow="7605" windowWidth="16950" windowHeight="13530" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="382">
   <si>
     <t>Nov. 11:  Eylea approved. Priced at $1,700/injection.</t>
   </si>
@@ -1340,6 +1340,21 @@
   </si>
   <si>
     <t>NPV</t>
+  </si>
+  <si>
+    <t>CEO: Len Schleifer</t>
+  </si>
+  <si>
+    <t>Eylea, Eylea HD</t>
+  </si>
+  <si>
+    <t>Phase III "QUASAR" - Eylea HD in macular edema following RVO</t>
+  </si>
+  <si>
+    <t>monthly dosing followed by q8w were non-inferior to monthly Eylea</t>
+  </si>
+  <si>
+    <t>sBLA Q125, prefilled syringe PDUFA mid-2025</t>
   </si>
 </sst>
 </file>
@@ -1685,8 +1700,8 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1712,14 +1727,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>69193</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>104911</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>69193</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>104911</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>98535</xdr:rowOff>
     </xdr:to>
@@ -1736,8 +1751,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16833193" y="0"/>
-          <a:ext cx="0" cy="14792435"/>
+          <a:off x="35061661" y="0"/>
+          <a:ext cx="0" cy="14564629"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1762,14 +1777,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>24962</xdr:colOff>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>19008</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>24962</xdr:colOff>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>19008</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1786,8 +1801,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22760152" y="0"/>
-          <a:ext cx="0" cy="7273487"/>
+          <a:off x="46762946" y="0"/>
+          <a:ext cx="0" cy="7441406"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2129,20 +2144,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD5CF22-E8A9-4919-AD75-F071CE6857D9}">
   <dimension ref="B2:K47"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="22" t="s">
         <v>49</v>
       </c>
@@ -2165,11 +2180,11 @@
         <v>42</v>
       </c>
       <c r="J2" s="25">
-        <v>756</v>
+        <v>715</v>
       </c>
       <c r="K2" s="26"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="27" t="s">
         <v>41</v>
       </c>
@@ -2198,7 +2213,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="34" t="s">
         <v>281</v>
       </c>
@@ -2218,11 +2233,11 @@
       </c>
       <c r="J4" s="1">
         <f>J2*J3</f>
-        <v>87242.400000000009</v>
+        <v>82511</v>
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="34" t="s">
         <v>34</v>
       </c>
@@ -2247,7 +2262,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>244</v>
       </c>
@@ -2272,7 +2287,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="34" t="s">
         <v>282</v>
       </c>
@@ -2294,10 +2309,10 @@
       </c>
       <c r="J7" s="1">
         <f>J4-J5+J6</f>
-        <v>71695.400000000009</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+        <v>66964</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
         <v>265</v>
       </c>
@@ -2315,7 +2330,7 @@
       <c r="I8" s="41"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="44" t="s">
         <v>289</v>
       </c>
@@ -2328,10 +2343,12 @@
         <v>290</v>
       </c>
       <c r="G9" s="53"/>
-      <c r="I9" s="41"/>
+      <c r="I9" s="41" t="s">
+        <v>377</v>
+      </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
         <v>262</v>
       </c>
@@ -2353,7 +2370,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
@@ -2367,7 +2384,7 @@
       </c>
       <c r="J11" s="43"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="44" t="s">
         <v>274</v>
       </c>
@@ -2386,7 +2403,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="44" t="s">
         <v>278</v>
       </c>
@@ -2400,7 +2417,7 @@
       </c>
       <c r="G13" s="36"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="44" t="s">
         <v>297</v>
       </c>
@@ -2416,7 +2433,7 @@
       </c>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="44" t="s">
         <v>248</v>
       </c>
@@ -2432,7 +2449,7 @@
       </c>
       <c r="G15" s="36"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="44" t="s">
         <v>24</v>
       </c>
@@ -2448,7 +2465,7 @@
       </c>
       <c r="G16" s="36"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="44" t="s">
         <v>301</v>
       </c>
@@ -2462,7 +2479,7 @@
       </c>
       <c r="G17" s="36"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="44" t="s">
         <v>273</v>
       </c>
@@ -2472,7 +2489,7 @@
       <c r="F18" s="35"/>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="44" t="s">
         <v>286</v>
       </c>
@@ -2486,7 +2503,7 @@
       </c>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="44" t="s">
         <v>304</v>
       </c>
@@ -2500,7 +2517,7 @@
       </c>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="44" t="s">
         <v>294</v>
       </c>
@@ -2514,7 +2531,7 @@
       </c>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="44" t="s">
         <v>306</v>
       </c>
@@ -2526,7 +2543,7 @@
       </c>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="44" t="s">
         <v>308</v>
       </c>
@@ -2538,7 +2555,7 @@
       </c>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="44" t="s">
         <v>310</v>
       </c>
@@ -2552,7 +2569,7 @@
       </c>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="44" t="s">
         <v>291</v>
       </c>
@@ -2566,7 +2583,7 @@
       </c>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="54" t="s">
         <v>283</v>
       </c>
@@ -2580,14 +2597,14 @@
       </c>
       <c r="G26" s="45"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C27" s="42"/>
       <c r="D27" s="42"/>
       <c r="E27" s="42"/>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -2597,7 +2614,7 @@
       </c>
       <c r="G28" s="42"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
@@ -2607,7 +2624,7 @@
       </c>
       <c r="G29" s="42"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -2617,7 +2634,7 @@
       </c>
       <c r="G30" s="42"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -2627,7 +2644,7 @@
       </c>
       <c r="G31" s="42"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
@@ -2636,7 +2653,7 @@
       </c>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" s="42"/>
       <c r="D33" s="42"/>
       <c r="E33" s="42"/>
@@ -2645,7 +2662,7 @@
       </c>
       <c r="G33" s="42"/>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34" s="42"/>
       <c r="D34" s="42"/>
       <c r="E34" s="42"/>
@@ -2654,7 +2671,7 @@
       </c>
       <c r="G34" s="42"/>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C35" s="42"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
@@ -2663,7 +2680,7 @@
       </c>
       <c r="G35" s="42"/>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C36" s="42"/>
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
@@ -2672,7 +2689,7 @@
       </c>
       <c r="G36" s="42"/>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C37" s="42"/>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
@@ -2681,7 +2698,7 @@
       </c>
       <c r="G37" s="42"/>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C38" s="42"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
@@ -2690,7 +2707,7 @@
       </c>
       <c r="G38" s="42"/>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C39" s="42"/>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
@@ -2699,7 +2716,7 @@
       </c>
       <c r="G39" s="42"/>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
@@ -2708,7 +2725,7 @@
       </c>
       <c r="G40" s="42"/>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C41" s="42"/>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
@@ -2717,7 +2734,7 @@
       </c>
       <c r="G41" s="42"/>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C42" s="42"/>
       <c r="D42" s="42"/>
       <c r="E42" s="42"/>
@@ -2726,7 +2743,7 @@
       </c>
       <c r="G42" s="42"/>
     </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C43" s="42"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
@@ -2735,7 +2752,7 @@
       </c>
       <c r="G43" s="42"/>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C44" s="42"/>
       <c r="D44" s="42"/>
       <c r="E44" s="42"/>
@@ -2744,7 +2761,7 @@
       </c>
       <c r="G44" s="42"/>
     </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C45" s="42"/>
       <c r="D45" s="42"/>
       <c r="E45" s="42"/>
@@ -2753,7 +2770,7 @@
       </c>
       <c r="G45" s="42"/>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C46" s="42"/>
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
@@ -2762,7 +2779,7 @@
       </c>
       <c r="G46" s="42"/>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C47" s="42"/>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
@@ -2775,7 +2792,7 @@
   <hyperlinks>
     <hyperlink ref="B3" location="Arcalyst!A1" display="Arcalyst" xr:uid="{BDF22BBF-5632-43C4-825A-494559AE5BB9}"/>
     <hyperlink ref="B4" location="Zaltrap!A1" display="Zaltrap" xr:uid="{B1A779BE-0169-48CB-AB42-981661C5EA87}"/>
-    <hyperlink ref="B7" location="'VEGF Trap-Eye'!A1" display="VEGF Trap-Eye" xr:uid="{632465B5-10C7-43D8-A04F-89D049587F0F}"/>
+    <hyperlink ref="B7" location="Eylea!A1" display="Eylea (aflibercept)" xr:uid="{632465B5-10C7-43D8-A04F-89D049587F0F}"/>
     <hyperlink ref="B5" location="Dupixent!A1" display="Dupixent (dupilumab)" xr:uid="{4B303E05-22EB-4F26-B307-EFDE28905187}"/>
     <hyperlink ref="B10" location="Praluent!A1" display="Praluent (alirocumab)" xr:uid="{1FBBB777-8F0A-401F-910F-1D5972FED37A}"/>
     <hyperlink ref="B8" location="Kevzara!A1" display="Kevzara (sarilumab)" xr:uid="{87937E02-CEC4-452E-83BE-A472FFD8A1F3}"/>
@@ -2788,28 +2805,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BECB6-C670-4D66-9069-7BDB54779CF7}">
   <dimension ref="A1:DZ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BV3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BD9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CB6" sqref="CB6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="8.83203125" style="17"/>
-    <col min="35" max="50" width="9.1640625" style="17"/>
-    <col min="91" max="91" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="8.85546875" style="17"/>
+    <col min="35" max="50" width="9.140625" style="17"/>
+    <col min="91" max="91" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
       <c r="C2" s="17" t="s">
         <v>365</v>
       </c>
@@ -3130,7 +3147,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>32</v>
       </c>
@@ -3243,12 +3260,10 @@
         <v>1500</v>
       </c>
       <c r="BA3" s="18">
-        <f t="shared" ref="BA3:BB3" si="1">+AW3*1.1</f>
-        <v>1791.9</v>
+        <v>1448</v>
       </c>
       <c r="BB3" s="18">
-        <f t="shared" si="1"/>
-        <v>1645.6000000000001</v>
+        <v>1338</v>
       </c>
       <c r="BC3" s="18">
         <v>1202</v>
@@ -3257,12 +3272,10 @@
         <v>1231</v>
       </c>
       <c r="BE3" s="18">
-        <f>BD3</f>
-        <v>1231</v>
+        <v>1145</v>
       </c>
       <c r="BF3" s="18">
-        <f>BE3</f>
-        <v>1231</v>
+        <v>1190</v>
       </c>
       <c r="BG3" s="18"/>
       <c r="BH3" s="18"/>
@@ -3303,58 +3316,58 @@
       </c>
       <c r="BY3" s="1">
         <f>SUM(AY3:BB3)</f>
-        <v>6371.5</v>
+        <v>5720</v>
       </c>
       <c r="BZ3" s="1">
         <f>SUM(Model!BC3:BF3)</f>
-        <v>4895</v>
+        <v>4768</v>
       </c>
       <c r="CA3" s="1">
-        <f>BZ3*0.8</f>
-        <v>3916</v>
+        <f t="shared" ref="CA3:CG3" si="1">BZ3*0.8</f>
+        <v>3814.4</v>
       </c>
       <c r="CB3" s="1">
-        <f>CA3*0.8</f>
-        <v>3132.8</v>
+        <f t="shared" si="1"/>
+        <v>3051.5200000000004</v>
       </c>
       <c r="CC3" s="1">
-        <f>CB3*0.8</f>
-        <v>2506.2400000000002</v>
+        <f t="shared" si="1"/>
+        <v>2441.2160000000003</v>
       </c>
       <c r="CD3" s="1">
-        <f>CC3*0.8</f>
-        <v>2004.9920000000002</v>
+        <f t="shared" si="1"/>
+        <v>1952.9728000000005</v>
       </c>
       <c r="CE3" s="1">
-        <f>CD3*0.8</f>
-        <v>1603.9936000000002</v>
+        <f t="shared" si="1"/>
+        <v>1562.3782400000005</v>
       </c>
       <c r="CF3" s="1">
-        <f>CE3*0.8</f>
-        <v>1283.1948800000002</v>
+        <f t="shared" si="1"/>
+        <v>1249.9025920000004</v>
       </c>
       <c r="CG3" s="1">
-        <f>CF3*0.8</f>
-        <v>1026.5559040000003</v>
+        <f t="shared" si="1"/>
+        <v>999.92207360000032</v>
       </c>
       <c r="CH3" s="1">
-        <f t="shared" ref="CB3:CK3" si="2">CG3*0.7</f>
-        <v>718.58913280000013</v>
+        <f t="shared" ref="CH3:CK3" si="2">CG3*0.7</f>
+        <v>699.94545152000023</v>
       </c>
       <c r="CI3" s="1">
         <f t="shared" si="2"/>
-        <v>503.01239296000006</v>
+        <v>489.96181606400012</v>
       </c>
       <c r="CJ3" s="1">
         <f t="shared" si="2"/>
-        <v>352.10867507200004</v>
+        <v>342.97327124480006</v>
       </c>
       <c r="CK3" s="1">
         <f t="shared" si="2"/>
-        <v>246.4760725504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>240.08128987136001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>328</v>
       </c>
@@ -3412,8 +3425,12 @@
       <c r="AZ4" s="18">
         <v>0</v>
       </c>
-      <c r="BA4" s="18"/>
-      <c r="BB4" s="18"/>
+      <c r="BA4" s="18">
+        <v>43</v>
+      </c>
+      <c r="BB4" s="18">
+        <v>123</v>
+      </c>
       <c r="BC4" s="18">
         <v>200</v>
       </c>
@@ -3421,65 +3438,67 @@
         <v>304</v>
       </c>
       <c r="BE4" s="18">
-        <f>BD4</f>
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="BF4" s="18">
-        <f>BE4</f>
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BG4" s="18"/>
       <c r="BH4" s="18"/>
+      <c r="BY4" s="1">
+        <f>SUM(AY4:BB4)</f>
+        <v>166</v>
+      </c>
       <c r="BZ4" s="1">
         <f>SUM(Model!BC4:BF4)</f>
-        <v>1112</v>
+        <v>1201</v>
       </c>
       <c r="CA4" s="1">
         <f>BZ4*0.9</f>
-        <v>1000.8000000000001</v>
+        <v>1080.9000000000001</v>
       </c>
       <c r="CB4" s="1">
         <f>CA4*0.9</f>
-        <v>900.72</v>
+        <v>972.81000000000006</v>
       </c>
       <c r="CC4" s="1">
         <f>CB4*0.9</f>
-        <v>810.64800000000002</v>
+        <v>875.52900000000011</v>
       </c>
       <c r="CD4" s="1">
         <f>CC4*0.9</f>
-        <v>729.58320000000003</v>
+        <v>787.97610000000009</v>
       </c>
       <c r="CE4" s="1">
         <f>CD4*0.9</f>
-        <v>656.62488000000008</v>
+        <v>709.17849000000012</v>
       </c>
       <c r="CF4" s="1">
-        <f t="shared" ref="CA4:CK6" si="3">CE4*0.7</f>
-        <v>459.63741600000003</v>
+        <f t="shared" ref="CF4:CK4" si="3">CE4*0.7</f>
+        <v>496.42494300000004</v>
       </c>
       <c r="CG4" s="1">
         <f t="shared" si="3"/>
-        <v>321.7461912</v>
+        <v>347.49746010000001</v>
       </c>
       <c r="CH4" s="1">
         <f t="shared" si="3"/>
-        <v>225.22233383999998</v>
+        <v>243.24822207</v>
       </c>
       <c r="CI4" s="1">
         <f t="shared" si="3"/>
-        <v>157.65563368799997</v>
+        <v>170.27375544899999</v>
       </c>
       <c r="CJ4" s="1">
         <f t="shared" si="3"/>
-        <v>110.35894358159997</v>
+        <v>119.19162881429999</v>
       </c>
       <c r="CK4" s="1">
         <f t="shared" si="3"/>
-        <v>77.25126050711998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>83.434140170009982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>215</v>
       </c>
@@ -3568,12 +3587,10 @@
         <v>210</v>
       </c>
       <c r="BA5" s="1">
-        <f>+AZ5+5</f>
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="BB5" s="1">
-        <f>+BA5+5</f>
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="BC5" s="1">
         <v>264</v>
@@ -3582,12 +3599,10 @@
         <v>297</v>
       </c>
       <c r="BE5" s="1">
-        <f>BD5+5</f>
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="BF5" s="1">
-        <f>BE5+5</f>
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="BT5" s="1">
         <v>14.8</v>
@@ -3609,58 +3624,58 @@
       </c>
       <c r="BY5" s="1">
         <f t="shared" ref="BY5:BY20" si="7">SUM(AY5:BB5)</f>
-        <v>822</v>
+        <v>863</v>
       </c>
       <c r="BZ5" s="1">
         <f>SUM(Model!BC5:BF5)</f>
-        <v>1170</v>
+        <v>1217</v>
       </c>
       <c r="CA5" s="1">
         <f t="shared" ref="CA5:CK5" si="8">BZ5*1.01</f>
-        <v>1181.7</v>
+        <v>1229.17</v>
       </c>
       <c r="CB5" s="1">
         <f t="shared" si="8"/>
-        <v>1193.5170000000001</v>
+        <v>1241.4617000000001</v>
       </c>
       <c r="CC5" s="1">
         <f t="shared" si="8"/>
-        <v>1205.45217</v>
+        <v>1253.876317</v>
       </c>
       <c r="CD5" s="1">
         <f t="shared" si="8"/>
-        <v>1217.5066917000001</v>
+        <v>1266.41508017</v>
       </c>
       <c r="CE5" s="1">
         <f t="shared" si="8"/>
-        <v>1229.6817586170002</v>
+        <v>1279.0792309717001</v>
       </c>
       <c r="CF5" s="1">
         <f t="shared" si="8"/>
-        <v>1241.9785762031702</v>
+        <v>1291.8700232814172</v>
       </c>
       <c r="CG5" s="1">
         <f t="shared" si="8"/>
-        <v>1254.398361965202</v>
+        <v>1304.7887235142314</v>
       </c>
       <c r="CH5" s="1">
         <f t="shared" si="8"/>
-        <v>1266.9423455848539</v>
+        <v>1317.8366107493737</v>
       </c>
       <c r="CI5" s="1">
         <f t="shared" si="8"/>
-        <v>1279.6117690407025</v>
+        <v>1331.0149768568674</v>
       </c>
       <c r="CJ5" s="1">
         <f t="shared" si="8"/>
-        <v>1292.4078867311096</v>
+        <v>1344.325126625436</v>
       </c>
       <c r="CK5" s="1">
         <f t="shared" si="8"/>
-        <v>1305.3319655984208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1357.7683778916903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>216</v>
       </c>
@@ -3747,12 +3762,10 @@
         <v>41</v>
       </c>
       <c r="BA6" s="1">
-        <f>+AZ6+1</f>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BB6" s="1">
-        <f>+BA6+1</f>
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="BC6" s="1">
         <v>70</v>
@@ -3761,12 +3774,10 @@
         <v>56</v>
       </c>
       <c r="BE6" s="1">
-        <f>BD6+5</f>
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="BF6" s="1">
-        <f>BE6+5</f>
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BT6" s="1">
         <v>181.3</v>
@@ -3788,58 +3799,58 @@
       </c>
       <c r="BY6" s="1">
         <f t="shared" si="7"/>
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="BZ6" s="1">
         <f>SUM(Model!BC6:BF6)</f>
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="CA6" s="1">
         <f>BZ6*1.01</f>
-        <v>255.53</v>
+        <v>244.42000000000002</v>
       </c>
       <c r="CB6" s="1">
         <f t="shared" ref="CB6:CK8" si="9">CA6*1.01</f>
-        <v>258.08530000000002</v>
+        <v>246.86420000000001</v>
       </c>
       <c r="CC6" s="1">
         <f t="shared" si="9"/>
-        <v>260.66615300000001</v>
+        <v>249.332842</v>
       </c>
       <c r="CD6" s="1">
         <f t="shared" si="9"/>
-        <v>263.27281453000001</v>
+        <v>251.82617042000001</v>
       </c>
       <c r="CE6" s="1">
         <f t="shared" si="9"/>
-        <v>265.90554267530001</v>
+        <v>254.34443212420001</v>
       </c>
       <c r="CF6" s="1">
         <f t="shared" si="9"/>
-        <v>268.56459810205303</v>
+        <v>256.88787644544203</v>
       </c>
       <c r="CG6" s="1">
         <f t="shared" si="9"/>
-        <v>271.25024408307354</v>
+        <v>259.45675520989647</v>
       </c>
       <c r="CH6" s="1">
         <f t="shared" si="9"/>
-        <v>273.96274652390429</v>
+        <v>262.05132276199544</v>
       </c>
       <c r="CI6" s="1">
         <f t="shared" si="9"/>
-        <v>276.70237398914333</v>
+        <v>264.67183598961537</v>
       </c>
       <c r="CJ6" s="1">
         <f t="shared" si="9"/>
-        <v>279.46939772903477</v>
+        <v>267.31855434951154</v>
       </c>
       <c r="CK6" s="1">
         <f t="shared" si="9"/>
-        <v>282.26409170632513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>269.99173989300664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>256</v>
       </c>
@@ -3926,12 +3937,10 @@
         <v>2</v>
       </c>
       <c r="BA7" s="18">
-        <f>+AZ7</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB7" s="18">
-        <f>+BA7</f>
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="BC7" s="18">
         <v>1</v>
@@ -3940,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="BE7" s="18">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="BF7" s="18">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="BG7" s="18"/>
       <c r="BH7" s="18"/>
@@ -3967,14 +3976,14 @@
       </c>
       <c r="BY7" s="1">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="BZ7" s="1">
         <f>SUM(Model!BC7:BF7)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>217</v>
       </c>
@@ -4061,12 +4070,10 @@
         <v>19</v>
       </c>
       <c r="BA8" s="1">
-        <f>+AZ8+1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB8" s="1">
-        <f>+BA8+1</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BC8" s="1">
         <v>24</v>
@@ -4075,12 +4082,10 @@
         <v>31</v>
       </c>
       <c r="BE8" s="1">
-        <f>BD8</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BF8" s="1">
-        <f>BE8</f>
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="BT8" s="1">
         <v>0</v>
@@ -4102,58 +4107,58 @@
       </c>
       <c r="BY8" s="1">
         <f t="shared" si="7"/>
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BZ8" s="1">
         <f>SUM(Model!BC8:BF8)</f>
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="CA8" s="1">
         <f>BZ8*1.01</f>
-        <v>118.17</v>
+        <v>126.25</v>
       </c>
       <c r="CB8" s="1">
         <f t="shared" si="9"/>
-        <v>119.35170000000001</v>
+        <v>127.5125</v>
       </c>
       <c r="CC8" s="1">
         <f t="shared" si="9"/>
-        <v>120.54521700000001</v>
+        <v>128.78762499999999</v>
       </c>
       <c r="CD8" s="1">
         <f t="shared" si="9"/>
-        <v>121.75066917000001</v>
+        <v>130.07550125</v>
       </c>
       <c r="CE8" s="1">
         <f t="shared" si="9"/>
-        <v>122.9681758617</v>
+        <v>131.37625626249999</v>
       </c>
       <c r="CF8" s="1">
         <f t="shared" si="9"/>
-        <v>124.19785762031701</v>
+        <v>132.69001882512498</v>
       </c>
       <c r="CG8" s="1">
         <f t="shared" si="9"/>
-        <v>125.43983619652018</v>
+        <v>134.01691901337622</v>
       </c>
       <c r="CH8" s="1">
         <f t="shared" si="9"/>
-        <v>126.69423455848538</v>
+        <v>135.35708820350999</v>
       </c>
       <c r="CI8" s="1">
         <f t="shared" si="9"/>
-        <v>127.96117690407023</v>
+        <v>136.7106590855451</v>
       </c>
       <c r="CJ8" s="1">
         <f t="shared" si="9"/>
-        <v>129.24078867311093</v>
+        <v>138.07776567640056</v>
       </c>
       <c r="CK8" s="1">
         <f t="shared" si="9"/>
-        <v>130.53319655984203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>139.45854333316456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>239</v>
       </c>
@@ -4269,12 +4274,8 @@
       <c r="BA9" s="18">
         <v>0</v>
       </c>
-      <c r="BB9" s="18">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="18">
-        <v>0</v>
-      </c>
+      <c r="BB9" s="18"/>
+      <c r="BC9" s="18"/>
       <c r="BD9" s="18"/>
       <c r="BE9" s="18"/>
       <c r="BF9" s="18"/>
@@ -4327,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
@@ -4455,12 +4456,10 @@
         <v>944</v>
       </c>
       <c r="BA10" s="18">
-        <f>+AW10*1.2</f>
-        <v>853.68</v>
+        <v>1065</v>
       </c>
       <c r="BB10" s="18">
-        <f>+AX10*1.2</f>
-        <v>1003.0799999999999</v>
+        <v>993</v>
       </c>
       <c r="BC10" s="18">
         <v>910</v>
@@ -4469,12 +4468,10 @@
         <v>1146</v>
       </c>
       <c r="BE10" s="18">
-        <f>BA10*1.3</f>
-        <v>1109.7839999999999</v>
+        <v>1263</v>
       </c>
       <c r="BF10" s="18">
-        <f>BB10*1.3</f>
-        <v>1304.0039999999999</v>
+        <v>1213</v>
       </c>
       <c r="BG10" s="18"/>
       <c r="BH10" s="18"/>
@@ -4512,58 +4509,58 @@
       </c>
       <c r="BY10" s="1">
         <f t="shared" si="7"/>
-        <v>3598.7599999999998</v>
+        <v>3800</v>
       </c>
       <c r="BZ10" s="1">
         <f>SUM(Model!BC10:BF10)</f>
-        <v>4469.7879999999996</v>
+        <v>4532</v>
       </c>
       <c r="CA10" s="1">
         <f>BZ10*1.1</f>
-        <v>4916.7668000000003</v>
+        <v>4985.2000000000007</v>
       </c>
       <c r="CB10" s="1">
         <f>CA10*1.1</f>
-        <v>5408.4434800000008</v>
+        <v>5483.7200000000012</v>
       </c>
       <c r="CC10" s="1">
         <f>CB10*1.1</f>
-        <v>5949.2878280000014</v>
+        <v>6032.0920000000015</v>
       </c>
       <c r="CD10" s="1">
         <f>CC10*1.05</f>
-        <v>6246.7522194000021</v>
+        <v>6333.696600000002</v>
       </c>
       <c r="CE10" s="1">
         <f>CD10*1.05</f>
-        <v>6559.0898303700023</v>
+        <v>6650.3814300000022</v>
       </c>
       <c r="CF10" s="1">
         <f>CE10*1.05</f>
-        <v>6887.044321888503</v>
+        <v>6982.900501500003</v>
       </c>
       <c r="CG10" s="1">
         <f>CF10*1.05</f>
-        <v>7231.3965379829287</v>
+        <v>7332.0455265750034</v>
       </c>
       <c r="CH10" s="1">
         <f>CG10*1.01</f>
-        <v>7303.7105033627577</v>
+        <v>7405.3659818407532</v>
       </c>
       <c r="CI10" s="1">
         <f>CH10*1.01</f>
-        <v>7376.7476083963857</v>
+        <v>7479.4196416591612</v>
       </c>
       <c r="CJ10" s="1">
         <f>CI10*1.01</f>
-        <v>7450.5150844803493</v>
+        <v>7554.2138380757533</v>
       </c>
       <c r="CK10" s="1">
         <f>CJ10*1.01</f>
-        <v>7525.0202353251525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>7629.7559764565112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>233</v>
       </c>
@@ -4656,7 +4653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>234</v>
       </c>
@@ -4749,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>235</v>
       </c>
@@ -4852,7 +4849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>236</v>
       </c>
@@ -4930,11 +4927,29 @@
       <c r="AX14" s="18">
         <v>2448.9</v>
       </c>
+      <c r="AY14" s="1">
+        <v>2485</v>
+      </c>
       <c r="AZ14" s="1">
         <v>2789.4</v>
       </c>
+      <c r="BA14" s="1">
+        <v>3097.6</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>3216.1</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>3076.8</v>
+      </c>
       <c r="BD14" s="1">
         <v>3556.4</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>3817.2</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>3697.6</v>
       </c>
       <c r="BT14" s="1">
         <v>922</v>
@@ -4956,10 +4971,14 @@
       </c>
       <c r="BY14" s="1">
         <f t="shared" si="7"/>
-        <v>2789.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>11588.1</v>
+      </c>
+      <c r="BZ14" s="1">
+        <f>SUM(BC14:BF14)</f>
+        <v>14148.000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>237</v>
       </c>
@@ -5035,11 +5054,29 @@
       <c r="AX15" s="18">
         <v>133.4</v>
       </c>
+      <c r="AY15" s="1">
+        <v>145.9</v>
+      </c>
       <c r="AZ15" s="1">
         <v>140.30000000000001</v>
       </c>
+      <c r="BA15" s="1">
+        <v>165.5</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>187.2</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>201.3</v>
+      </c>
       <c r="BD15" s="1">
         <v>191.9</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>191.4</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>180.4</v>
       </c>
       <c r="BV15" s="1">
         <f t="shared" si="4"/>
@@ -5055,10 +5092,14 @@
       </c>
       <c r="BY15" s="1">
         <f t="shared" si="7"/>
-        <v>140.30000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>638.90000000000009</v>
+      </c>
+      <c r="BZ15" s="1">
+        <f>SUM(BC15:BF15)</f>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>238</v>
       </c>
@@ -5134,11 +5175,29 @@
       <c r="AX16" s="18">
         <v>81.2</v>
       </c>
+      <c r="AY16" s="1">
+        <v>78.5</v>
+      </c>
       <c r="AZ16" s="1">
         <v>99.5</v>
       </c>
+      <c r="BA16" s="1">
+        <v>95.7</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>112.2</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>94.1</v>
+      </c>
       <c r="BD16" s="1">
         <v>109.7</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>120.1</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>134.80000000000001</v>
       </c>
       <c r="BV16" s="1">
         <f t="shared" si="4"/>
@@ -5154,10 +5213,14 @@
       </c>
       <c r="BY16" s="1">
         <f t="shared" si="7"/>
-        <v>99.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>385.9</v>
+      </c>
+      <c r="BZ16" s="1">
+        <f>SUM(BC16:BF16)</f>
+        <v>458.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>371</v>
       </c>
@@ -5219,7 +5282,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="18" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>218</v>
       </c>
@@ -5331,12 +5394,10 @@
         <v>377</v>
       </c>
       <c r="BA18" s="18">
-        <f t="shared" ref="BA18:BB18" si="13">+AW18*1.01</f>
-        <v>336.33</v>
+        <v>377</v>
       </c>
       <c r="BB18" s="18">
-        <f t="shared" si="13"/>
-        <v>358.65100000000001</v>
+        <v>377</v>
       </c>
       <c r="BC18" s="18">
         <v>356</v>
@@ -5345,12 +5406,10 @@
         <v>375</v>
       </c>
       <c r="BE18" s="18">
-        <f>BD18</f>
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="BF18" s="18">
-        <f>BE18</f>
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="BG18" s="18"/>
       <c r="BH18" s="18"/>
@@ -5385,58 +5444,58 @@
       </c>
       <c r="BY18" s="1">
         <f t="shared" si="7"/>
-        <v>1428.981</v>
+        <v>1488</v>
       </c>
       <c r="BZ18" s="1">
         <f>SUM(Model!BC18:BF18)</f>
-        <v>1481</v>
+        <v>1499</v>
       </c>
       <c r="CA18" s="1">
-        <f>BZ18*0.8</f>
-        <v>1184.8</v>
+        <f t="shared" ref="CA18:CK18" si="13">BZ18*0.8</f>
+        <v>1199.2</v>
       </c>
       <c r="CB18" s="1">
-        <f>CA18*0.8</f>
-        <v>947.84</v>
+        <f t="shared" si="13"/>
+        <v>959.36000000000013</v>
       </c>
       <c r="CC18" s="1">
-        <f>CB18*0.8</f>
-        <v>758.27200000000005</v>
+        <f t="shared" si="13"/>
+        <v>767.48800000000017</v>
       </c>
       <c r="CD18" s="1">
-        <f>CC18*0.8</f>
-        <v>606.61760000000004</v>
+        <f t="shared" si="13"/>
+        <v>613.99040000000014</v>
       </c>
       <c r="CE18" s="1">
-        <f>CD18*0.8</f>
-        <v>485.29408000000006</v>
+        <f t="shared" si="13"/>
+        <v>491.19232000000011</v>
       </c>
       <c r="CF18" s="1">
-        <f>CE18*0.8</f>
-        <v>388.23526400000009</v>
+        <f t="shared" si="13"/>
+        <v>392.95385600000009</v>
       </c>
       <c r="CG18" s="1">
-        <f>CF18*0.8</f>
-        <v>310.5882112000001</v>
+        <f t="shared" si="13"/>
+        <v>314.36308480000008</v>
       </c>
       <c r="CH18" s="1">
-        <f>CG18*0.8</f>
-        <v>248.47056896000009</v>
+        <f t="shared" si="13"/>
+        <v>251.49046784000006</v>
       </c>
       <c r="CI18" s="1">
-        <f>CH18*0.8</f>
-        <v>198.7764551680001</v>
+        <f t="shared" si="13"/>
+        <v>201.19237427200005</v>
       </c>
       <c r="CJ18" s="1">
-        <f>CI18*0.8</f>
-        <v>159.0211641344001</v>
+        <f t="shared" si="13"/>
+        <v>160.95389941760004</v>
       </c>
       <c r="CK18" s="1">
-        <f>CJ18*0.8</f>
-        <v>127.21693130752008</v>
-      </c>
-    </row>
-    <row r="19" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="13"/>
+        <v>128.76311953408003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>219</v>
       </c>
@@ -5548,8 +5607,12 @@
         <f t="shared" si="7"/>
         <v>219</v>
       </c>
-    </row>
-    <row r="20" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BZ19" s="1">
+        <f>SUM(BC19:BF19)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>220</v>
       </c>
@@ -5668,18 +5731,25 @@
         <v>69</v>
       </c>
       <c r="BA20" s="1">
-        <f t="shared" ref="BA20:BB20" si="15">AVERAGE(AW20:AZ20)</f>
-        <v>99.174999999999997</v>
+        <f>138-3</f>
+        <v>135</v>
       </c>
       <c r="BB20" s="1">
-        <f t="shared" si="15"/>
-        <v>102.96875</v>
+        <v>212</v>
       </c>
       <c r="BC20" s="1">
         <v>117</v>
       </c>
       <c r="BD20" s="1">
         <v>104</v>
+      </c>
+      <c r="BE20" s="1">
+        <f>114+6</f>
+        <v>120</v>
+      </c>
+      <c r="BF20" s="1">
+        <f>17+179</f>
+        <v>196</v>
       </c>
       <c r="BM20" s="1">
         <f>SUM(C20:F20)</f>
@@ -5711,27 +5781,31 @@
       </c>
       <c r="BY20" s="1">
         <f t="shared" si="7"/>
-        <v>387.14375000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:130" s="20" customFormat="1" x14ac:dyDescent="0.15">
+        <v>532</v>
+      </c>
+      <c r="BZ20" s="1">
+        <f>SUM(BC20:BF20)</f>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="21" spans="2:130" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="20" t="s">
         <v>221</v>
       </c>
       <c r="C21" s="21">
-        <f t="shared" ref="C21:F21" si="16">+C20+C18+C10+C3+C9</f>
+        <f t="shared" ref="C21:F21" si="15">+C20+C18+C10+C3+C9</f>
         <v>112.17699999999999</v>
       </c>
       <c r="D21" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>107.81</v>
       </c>
       <c r="E21" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>102.8</v>
       </c>
       <c r="F21" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>123.01300000000002</v>
       </c>
       <c r="G21" s="21">
@@ -5739,31 +5813,31 @@
         <v>231.75800000000001</v>
       </c>
       <c r="H21" s="21">
-        <f t="shared" ref="H21:N21" si="17">+H20+H18+H10+H3+H9</f>
+        <f t="shared" ref="H21:N21" si="16">+H20+H18+H10+H3+H9</f>
         <v>304.38</v>
       </c>
       <c r="I21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>427.7</v>
       </c>
       <c r="J21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>414.66200000000003</v>
       </c>
       <c r="K21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>439.62399999999997</v>
       </c>
       <c r="L21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>457.649</v>
       </c>
       <c r="M21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>597.00900000000001</v>
       </c>
       <c r="N21" s="21">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>610.41800000000001</v>
       </c>
       <c r="O21" s="21"/>
@@ -5787,37 +5861,37 @@
       <c r="AG21" s="21"/>
       <c r="AH21" s="21"/>
       <c r="AI21" s="21">
-        <f t="shared" ref="AI21:AJ21" si="18">SUM(AI3:AI10)+AI18+AI19+AI20</f>
+        <f t="shared" ref="AI21:AJ21" si="17">SUM(AI3:AI10)+AI18+AI19+AI20</f>
         <v>1390.6</v>
       </c>
       <c r="AJ21" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>1231.5</v>
       </c>
       <c r="AK21" s="21"/>
       <c r="AL21" s="21"/>
       <c r="AM21" s="21">
-        <f t="shared" ref="AM21:AP21" si="19">SUM(AM3:AM10)+AM18+AM19+AM20</f>
+        <f t="shared" ref="AM21:AP21" si="18">SUM(AM3:AM10)+AM18+AM19+AM20</f>
         <v>1828.2</v>
       </c>
       <c r="AN21" s="21">
+        <f t="shared" si="18"/>
+        <v>1952.3000000000002</v>
+      </c>
+      <c r="AO21" s="21">
+        <f t="shared" si="18"/>
+        <v>2293.7999999999997</v>
+      </c>
+      <c r="AP21" s="21">
+        <f t="shared" si="18"/>
+        <v>2299.6999999999998</v>
+      </c>
+      <c r="AQ21" s="21">
+        <f t="shared" ref="AQ21:AV21" si="19">SUM(AQ3:AQ10)+AQ18+AQ19+AQ20</f>
+        <v>2529.4000000000005</v>
+      </c>
+      <c r="AR21" s="21">
         <f t="shared" si="19"/>
-        <v>1952.3000000000002</v>
-      </c>
-      <c r="AO21" s="21">
-        <f t="shared" si="19"/>
-        <v>2293.7999999999997</v>
-      </c>
-      <c r="AP21" s="21">
-        <f t="shared" si="19"/>
-        <v>2299.6999999999998</v>
-      </c>
-      <c r="AQ21" s="21">
-        <f t="shared" ref="AQ21:AV21" si="20">SUM(AQ3:AQ10)+AQ18+AQ19+AQ20</f>
-        <v>2529.4000000000005</v>
-      </c>
-      <c r="AR21" s="21">
-        <f t="shared" si="20"/>
         <v>5138.7</v>
       </c>
       <c r="AS21" s="21">
@@ -5825,61 +5899,75 @@
         <v>3452.9</v>
       </c>
       <c r="AT21" s="21">
+        <f t="shared" si="19"/>
+        <v>4951.4999999999991</v>
+      </c>
+      <c r="AU21" s="21">
+        <f t="shared" si="19"/>
+        <v>2965.5000000000005</v>
+      </c>
+      <c r="AV21" s="21">
+        <f t="shared" si="19"/>
+        <v>2856.5</v>
+      </c>
+      <c r="AW21" s="21">
+        <f t="shared" ref="AW21:BJ21" si="20">SUM(AW3:AW10)+AW18+AW19+AW20</f>
+        <v>2936.4</v>
+      </c>
+      <c r="AX21" s="21">
         <f t="shared" si="20"/>
-        <v>4951.4999999999991</v>
-      </c>
-      <c r="AU21" s="21">
+        <v>3414.1</v>
+      </c>
+      <c r="AY21" s="21">
         <f t="shared" si="20"/>
-        <v>2965.5000000000005</v>
-      </c>
-      <c r="AV21" s="21">
+        <v>3162</v>
+      </c>
+      <c r="AZ21" s="21">
         <f t="shared" si="20"/>
-        <v>2856.5</v>
-      </c>
-      <c r="AW21" s="21">
-        <f t="shared" ref="AW21:BF21" si="21">SUM(AW3:AW10)+AW18+AW19+AW20</f>
-        <v>2936.4</v>
-      </c>
-      <c r="AX21" s="21">
-        <f t="shared" si="21"/>
-        <v>3414.1</v>
-      </c>
-      <c r="AY21" s="21">
-        <f t="shared" si="21"/>
-        <v>3162</v>
-      </c>
-      <c r="AZ21" s="21">
-        <f t="shared" si="21"/>
         <v>3158</v>
       </c>
       <c r="BA21" s="21">
-        <f t="shared" si="21"/>
-        <v>3360.085</v>
+        <f t="shared" si="20"/>
+        <v>3363</v>
       </c>
       <c r="BB21" s="21">
-        <f t="shared" si="21"/>
-        <v>3396.2997500000001</v>
+        <f t="shared" si="20"/>
+        <v>3434</v>
       </c>
       <c r="BC21" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3145</v>
       </c>
       <c r="BD21" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>3547</v>
       </c>
       <c r="BE21" s="21">
-        <f t="shared" si="21"/>
-        <v>3413.7839999999997</v>
+        <f t="shared" si="20"/>
+        <v>3720</v>
       </c>
       <c r="BF21" s="21">
-        <f t="shared" si="21"/>
-        <v>3618.0039999999999</v>
-      </c>
-      <c r="BG21" s="21"/>
-      <c r="BH21" s="21"/>
+        <f t="shared" si="20"/>
+        <v>3789</v>
+      </c>
+      <c r="BG21" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BH21" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BI21" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="21">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="BL21" s="21">
-        <f t="shared" ref="BL21:BU21" si="22">SUM(BL3:BL10)+BL18+BL19+BL20</f>
+        <f t="shared" ref="BL21:BU21" si="21">SUM(BL3:BL10)+BL18+BL19+BL20</f>
         <v>336.58600000000001</v>
       </c>
       <c r="BM21" s="21">
@@ -5887,103 +5975,103 @@
         <v>445.8</v>
       </c>
       <c r="BN21" s="21">
+        <f t="shared" si="21"/>
+        <v>1378.5</v>
+      </c>
+      <c r="BO21" s="21">
+        <f t="shared" si="21"/>
+        <v>2104.7000000000003</v>
+      </c>
+      <c r="BP21" s="21">
+        <f t="shared" si="21"/>
+        <v>2819.6000000000004</v>
+      </c>
+      <c r="BQ21" s="21">
+        <f t="shared" si="21"/>
+        <v>4103.7</v>
+      </c>
+      <c r="BR21" s="21">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BS21" s="21">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BT21" s="21">
+        <f t="shared" si="21"/>
+        <v>4287.5</v>
+      </c>
+      <c r="BU21" s="21">
+        <f t="shared" si="21"/>
+        <v>4960.3999999999996</v>
+      </c>
+      <c r="BV21" s="21">
+        <f t="shared" ref="BV21:CA21" si="22">SUM(BV3:BV10)+BV18+BV19+BV20</f>
+        <v>8374</v>
+      </c>
+      <c r="BW21" s="21">
         <f t="shared" si="22"/>
-        <v>1378.5</v>
-      </c>
-      <c r="BO21" s="21">
+        <v>16072.500000000002</v>
+      </c>
+      <c r="BX21" s="21">
         <f t="shared" si="22"/>
-        <v>2104.7000000000003</v>
-      </c>
-      <c r="BP21" s="21">
+        <v>12172.500000000002</v>
+      </c>
+      <c r="BY21" s="21">
         <f t="shared" si="22"/>
-        <v>2819.6000000000004</v>
-      </c>
-      <c r="BQ21" s="21">
+        <v>13117</v>
+      </c>
+      <c r="BZ21" s="21">
         <f t="shared" si="22"/>
-        <v>4103.7</v>
-      </c>
-      <c r="BR21" s="21">
+        <v>14201</v>
+      </c>
+      <c r="CA21" s="21">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BS21" s="21">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="BT21" s="21">
-        <f t="shared" si="22"/>
-        <v>4287.5</v>
-      </c>
-      <c r="BU21" s="21">
-        <f t="shared" si="22"/>
-        <v>4960.3999999999996</v>
-      </c>
-      <c r="BV21" s="21">
-        <f>SUM(BV3:BV10)+BV18+BV19+BV20</f>
-        <v>8374</v>
-      </c>
-      <c r="BW21" s="21">
-        <f>SUM(BW3:BW10)+BW18+BW19+BW20</f>
-        <v>16072.500000000002</v>
-      </c>
-      <c r="BX21" s="21">
-        <f>SUM(BX3:BX10)+BX18+BX19+BX20</f>
-        <v>12172.500000000002</v>
-      </c>
-      <c r="BY21" s="21">
-        <f>SUM(BY3:BY10)+BY18+BY19+BY20</f>
-        <v>13076.384749999999</v>
-      </c>
-      <c r="BZ21" s="21">
-        <f>SUM(BZ3:BZ10)+BZ18+BZ19+BZ20</f>
-        <v>13498.788</v>
-      </c>
-      <c r="CA21" s="21">
-        <f>SUM(CA3:CA10)+CA18+CA19+CA20</f>
-        <v>12573.766799999999</v>
+        <v>12679.54</v>
       </c>
       <c r="CB21" s="21">
         <f t="shared" ref="CB21:CK21" si="23">SUM(CB3:CB10)+CB18+CB19+CB20</f>
-        <v>11960.75748</v>
+        <v>12083.248400000002</v>
       </c>
       <c r="CC21" s="21">
         <f t="shared" si="23"/>
-        <v>11611.111368000002</v>
+        <v>11748.321784000002</v>
       </c>
       <c r="CD21" s="21">
         <f t="shared" si="23"/>
-        <v>11190.475194800003</v>
+        <v>11336.952651840003</v>
       </c>
       <c r="CE21" s="21">
         <f t="shared" si="23"/>
-        <v>10923.557867524003</v>
+        <v>11077.930399358404</v>
       </c>
       <c r="CF21" s="21">
         <f t="shared" si="23"/>
-        <v>10652.852913814044</v>
+        <v>10803.629811051987</v>
       </c>
       <c r="CG21" s="21">
         <f t="shared" si="23"/>
-        <v>10541.375286627725</v>
+        <v>10692.090542812508</v>
       </c>
       <c r="CH21" s="21">
         <f t="shared" si="23"/>
-        <v>10163.59186563</v>
+        <v>10315.295144985632</v>
       </c>
       <c r="CI21" s="21">
         <f t="shared" si="23"/>
-        <v>9920.4674101463006</v>
+        <v>10073.24505937619</v>
       </c>
       <c r="CJ21" s="21">
         <f t="shared" si="23"/>
-        <v>9773.1219404016047</v>
+        <v>9927.0540842038026</v>
       </c>
       <c r="CK21" s="21">
         <f t="shared" si="23"/>
-        <v>9694.0937535547801</v>
-      </c>
-    </row>
-    <row r="22" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>9849.2531871498231</v>
+      </c>
+    </row>
+    <row r="22" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>222</v>
       </c>
@@ -6106,12 +6194,10 @@
         <v>163</v>
       </c>
       <c r="BA22" s="18">
-        <f t="shared" ref="BA22:BB22" si="24">+BA21-BA23</f>
-        <v>336.00849999999991</v>
+        <v>180.8</v>
       </c>
       <c r="BB22" s="18">
-        <f t="shared" si="24"/>
-        <v>339.62997499999983</v>
+        <v>259</v>
       </c>
       <c r="BC22" s="18">
         <v>196</v>
@@ -6120,12 +6206,10 @@
         <v>214</v>
       </c>
       <c r="BE22" s="18">
-        <f>BE21*0.1</f>
-        <v>341.3784</v>
+        <v>217.4</v>
       </c>
       <c r="BF22" s="18">
-        <f>BF21*0.1</f>
-        <v>361.80040000000002</v>
+        <v>271</v>
       </c>
       <c r="BG22" s="18"/>
       <c r="BH22" s="18"/>
@@ -6148,72 +6232,76 @@
         <v>392.709</v>
       </c>
       <c r="BV22" s="1">
-        <f t="shared" ref="BV22" si="25">SUM(AM22:AP22)</f>
+        <f t="shared" ref="BV22" si="24">SUM(AM22:AP22)</f>
         <v>945</v>
       </c>
       <c r="BW22" s="1">
-        <f t="shared" ref="BW22" si="26">SUM(AQ22:AT22)</f>
+        <f t="shared" ref="BW22" si="25">SUM(AQ22:AT22)</f>
         <v>1955.6</v>
       </c>
       <c r="BX22" s="1">
-        <f t="shared" ref="BX22" si="27">SUM(AU22:AX22)</f>
+        <f t="shared" ref="BX22" si="26">SUM(AU22:AX22)</f>
         <v>1198.2</v>
       </c>
       <c r="BY22" s="1">
-        <f t="shared" ref="BY22" si="28">SUM(AY22:BB22)</f>
-        <v>1006.6384749999997</v>
-      </c>
-    </row>
-    <row r="23" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="BY22" si="27">SUM(AY22:BB22)</f>
+        <v>770.8</v>
+      </c>
+      <c r="BZ22" s="1">
+        <f>SUM(BC22:BF22)</f>
+        <v>898.4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C23" s="18">
-        <f t="shared" ref="C23:F23" si="29">+C21-C22</f>
+        <f t="shared" ref="C23:F23" si="28">+C21-C22</f>
         <v>111.79499999999999</v>
       </c>
       <c r="D23" s="18">
+        <f t="shared" si="28"/>
+        <v>107.41500000000001</v>
+      </c>
+      <c r="E23" s="18">
+        <f t="shared" si="28"/>
+        <v>102.35</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="shared" si="28"/>
+        <v>120.02400000000002</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" ref="G23:N23" si="29">+G21-G22</f>
+        <v>219.46</v>
+      </c>
+      <c r="H23" s="18">
         <f t="shared" si="29"/>
-        <v>107.41500000000001</v>
-      </c>
-      <c r="E23" s="18">
+        <v>282.53699999999998</v>
+      </c>
+      <c r="I23" s="18">
         <f t="shared" si="29"/>
-        <v>102.35</v>
-      </c>
-      <c r="F23" s="18">
+        <v>407.55500000000001</v>
+      </c>
+      <c r="J23" s="18">
         <f t="shared" si="29"/>
-        <v>120.02400000000002</v>
-      </c>
-      <c r="G23" s="18">
-        <f t="shared" ref="G23:N23" si="30">+G21-G22</f>
-        <v>219.46</v>
-      </c>
-      <c r="H23" s="18">
-        <f t="shared" si="30"/>
-        <v>282.53699999999998</v>
-      </c>
-      <c r="I23" s="18">
-        <f t="shared" si="30"/>
-        <v>407.55500000000001</v>
-      </c>
-      <c r="J23" s="18">
-        <f t="shared" si="30"/>
         <v>384.49300000000005</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>410.56899999999996</v>
       </c>
       <c r="L23" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>418.036</v>
       </c>
       <c r="M23" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>558.43600000000004</v>
       </c>
       <c r="N23" s="18">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>562.30399999999997</v>
       </c>
       <c r="O23" s="18"/>
@@ -6241,43 +6329,43 @@
       <c r="AK23" s="18"/>
       <c r="AL23" s="18"/>
       <c r="AM23" s="18">
-        <f t="shared" ref="AM23" si="31">+AM21-AM22</f>
+        <f t="shared" ref="AM23" si="30">+AM21-AM22</f>
         <v>1610.9</v>
       </c>
       <c r="AN23" s="18">
-        <f t="shared" ref="AN23:AV23" si="32">+AN21-AN22</f>
+        <f t="shared" ref="AN23:AV23" si="31">+AN21-AN22</f>
         <v>1686.1000000000001</v>
       </c>
       <c r="AO23" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2171.7999999999997</v>
       </c>
       <c r="AP23" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>1960.1999999999998</v>
       </c>
       <c r="AQ23" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2221.4000000000005</v>
       </c>
       <c r="AR23" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>4445</v>
       </c>
       <c r="AS23" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>3228.9</v>
       </c>
       <c r="AT23" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>4221.5999999999995</v>
       </c>
       <c r="AU23" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2560.6000000000004</v>
       </c>
       <c r="AV23" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="31"/>
         <v>2559.4</v>
       </c>
       <c r="AW23" s="18">
@@ -6297,12 +6385,12 @@
         <v>2995</v>
       </c>
       <c r="BA23" s="18">
-        <f t="shared" ref="BA23:BB23" si="33">+BA21*0.9</f>
-        <v>3024.0765000000001</v>
+        <f>+BA21-BA22</f>
+        <v>3182.2</v>
       </c>
       <c r="BB23" s="18">
-        <f t="shared" si="33"/>
-        <v>3056.6697750000003</v>
+        <f>+BB21-BB22</f>
+        <v>3175</v>
       </c>
       <c r="BC23" s="18">
         <f>BC21-BC22</f>
@@ -6313,12 +6401,12 @@
         <v>3333</v>
       </c>
       <c r="BE23" s="18">
-        <f>BE21-BE22</f>
-        <v>3072.4055999999996</v>
+        <f>+BE21-BE22</f>
+        <v>3502.6</v>
       </c>
       <c r="BF23" s="18">
-        <f>BF21-BF22</f>
-        <v>3256.2035999999998</v>
+        <f>+BF21-BF22</f>
+        <v>3518</v>
       </c>
       <c r="BG23" s="18"/>
       <c r="BH23" s="18"/>
@@ -6347,67 +6435,67 @@
         <v>7429</v>
       </c>
       <c r="BW23" s="1">
-        <f t="shared" ref="BW23:BY23" si="34">+BW21-BW22</f>
+        <f t="shared" ref="BW23:BY23" si="32">+BW21-BW22</f>
         <v>14116.900000000001</v>
       </c>
       <c r="BX23" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>10974.300000000001</v>
       </c>
       <c r="BY23" s="1">
-        <f t="shared" si="34"/>
-        <v>12069.746275</v>
+        <f t="shared" si="32"/>
+        <v>12346.2</v>
       </c>
       <c r="BZ23" s="1">
-        <f>BZ21*0.9</f>
-        <v>12148.9092</v>
+        <f>+BZ21-BZ22</f>
+        <v>13302.6</v>
       </c>
       <c r="CA23" s="1">
         <f>CA21*0.9</f>
-        <v>11316.39012</v>
+        <v>11411.586000000001</v>
       </c>
       <c r="CB23" s="1">
-        <f t="shared" ref="CB23:CK23" si="35">CB21*0.9</f>
-        <v>10764.681732000001</v>
+        <f t="shared" ref="CB23:CK23" si="33">CB21*0.9</f>
+        <v>10874.923560000003</v>
       </c>
       <c r="CC23" s="1">
-        <f t="shared" si="35"/>
-        <v>10450.000231200002</v>
+        <f t="shared" si="33"/>
+        <v>10573.489605600002</v>
       </c>
       <c r="CD23" s="1">
-        <f t="shared" si="35"/>
-        <v>10071.427675320003</v>
+        <f t="shared" si="33"/>
+        <v>10203.257386656003</v>
       </c>
       <c r="CE23" s="1">
-        <f t="shared" si="35"/>
-        <v>9831.2020807716035</v>
+        <f t="shared" si="33"/>
+        <v>9970.1373594225643</v>
       </c>
       <c r="CF23" s="1">
-        <f t="shared" si="35"/>
-        <v>9587.5676224326398</v>
+        <f t="shared" si="33"/>
+        <v>9723.2668299467896</v>
       </c>
       <c r="CG23" s="1">
-        <f t="shared" si="35"/>
-        <v>9487.2377579649528</v>
+        <f t="shared" si="33"/>
+        <v>9622.8814885312568</v>
       </c>
       <c r="CH23" s="1">
-        <f t="shared" si="35"/>
-        <v>9147.2326790669995</v>
+        <f t="shared" si="33"/>
+        <v>9283.7656304870688</v>
       </c>
       <c r="CI23" s="1">
-        <f t="shared" si="35"/>
-        <v>8928.4206691316704</v>
+        <f t="shared" si="33"/>
+        <v>9065.920553438571</v>
       </c>
       <c r="CJ23" s="1">
-        <f t="shared" si="35"/>
-        <v>8795.8097463614449</v>
+        <f t="shared" si="33"/>
+        <v>8934.3486757834235</v>
       </c>
       <c r="CK23" s="1">
-        <f t="shared" si="35"/>
-        <v>8724.684378199303</v>
-      </c>
-    </row>
-    <row r="24" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="33"/>
+        <v>8864.3278684348406</v>
+      </c>
+    </row>
+    <row r="24" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>224</v>
       </c>
@@ -6520,12 +6608,24 @@
       <c r="AZ24" s="1">
         <v>974</v>
       </c>
+      <c r="BA24" s="1">
+        <v>954.4</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>1031</v>
+      </c>
       <c r="BC24" s="1">
         <v>1122</v>
       </c>
       <c r="BD24" s="1">
         <v>1072</v>
       </c>
+      <c r="BE24" s="18">
+        <v>1145.8</v>
+      </c>
+      <c r="BF24" s="1">
+        <v>1224</v>
+      </c>
       <c r="BM24" s="1">
         <v>529.50599999999997</v>
       </c>
@@ -6542,23 +6642,27 @@
         <v>1620.577</v>
       </c>
       <c r="BV24" s="1">
-        <f t="shared" ref="BV24:BV25" si="36">SUM(AM24:AP24)</f>
+        <f t="shared" ref="BV24:BV25" si="34">SUM(AM24:AP24)</f>
         <v>2468</v>
       </c>
       <c r="BW24" s="1">
-        <f t="shared" ref="BW24:BW25" si="37">SUM(AQ24:AT24)</f>
+        <f t="shared" ref="BW24:BW25" si="35">SUM(AQ24:AT24)</f>
         <v>2688.1</v>
       </c>
       <c r="BX24" s="1">
-        <f t="shared" ref="BX24:BX25" si="38">SUM(AU24:AX24)</f>
+        <f t="shared" ref="BX24:BX25" si="36">SUM(AU24:AX24)</f>
         <v>3482.2</v>
       </c>
       <c r="BY24" s="1">
-        <f t="shared" ref="BY24:BY25" si="39">SUM(AY24:BB24)</f>
-        <v>1934</v>
-      </c>
-    </row>
-    <row r="25" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="BY24:BY25" si="37">SUM(AY24:BB24)</f>
+        <v>3919.4</v>
+      </c>
+      <c r="BZ24" s="1">
+        <f>SUM(BC24:BF24)</f>
+        <v>4563.8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>225</v>
       </c>
@@ -6673,12 +6777,10 @@
         <v>562</v>
       </c>
       <c r="BA25" s="18">
-        <f t="shared" ref="BA25:BB25" si="40">+AW25</f>
-        <v>467</v>
+        <v>533.70000000000005</v>
       </c>
       <c r="BB25" s="18">
-        <f t="shared" si="40"/>
-        <v>657</v>
+        <v>622</v>
       </c>
       <c r="BC25" s="18">
         <v>584</v>
@@ -6686,8 +6788,12 @@
       <c r="BD25" s="18">
         <v>667</v>
       </c>
-      <c r="BE25" s="18"/>
-      <c r="BF25" s="18"/>
+      <c r="BE25" s="18">
+        <v>613.1</v>
+      </c>
+      <c r="BF25" s="18">
+        <v>681</v>
+      </c>
       <c r="BG25" s="18"/>
       <c r="BH25" s="18"/>
       <c r="BM25" s="1">
@@ -6706,116 +6812,120 @@
         <v>838.52599999999995</v>
       </c>
       <c r="BV25" s="1">
+        <f t="shared" si="34"/>
+        <v>1320.5</v>
+      </c>
+      <c r="BW25" s="1">
+        <f t="shared" si="35"/>
+        <v>1706.3</v>
+      </c>
+      <c r="BX25" s="1">
         <f t="shared" si="36"/>
-        <v>1320.5</v>
-      </c>
-      <c r="BW25" s="1">
+        <v>2049.1999999999998</v>
+      </c>
+      <c r="BY25" s="1">
         <f t="shared" si="37"/>
-        <v>1706.3</v>
-      </c>
-      <c r="BX25" s="1">
-        <f t="shared" si="38"/>
-        <v>2049.1999999999998</v>
-      </c>
-      <c r="BY25" s="1">
-        <f t="shared" si="39"/>
-        <v>2201</v>
+        <v>2232.6999999999998</v>
+      </c>
+      <c r="BZ25" s="1">
+        <f>SUM(BC25:BF25)</f>
+        <v>2545.1</v>
       </c>
       <c r="CA25" s="1">
         <f>CA21*0.2</f>
-        <v>2514.7533600000002</v>
+        <v>2535.9080000000004</v>
       </c>
       <c r="CB25" s="1">
         <f>CB21*0.2</f>
-        <v>2392.151496</v>
+        <v>2416.6496800000004</v>
       </c>
       <c r="CC25" s="1">
-        <f t="shared" ref="CC25:CK25" si="41">CC21*0.2</f>
-        <v>2322.2222736000003</v>
+        <f t="shared" ref="CC25:CK25" si="38">CC21*0.2</f>
+        <v>2349.6643568000004</v>
       </c>
       <c r="CD25" s="1">
-        <f t="shared" si="41"/>
-        <v>2238.0950389600007</v>
+        <f t="shared" si="38"/>
+        <v>2267.3905303680008</v>
       </c>
       <c r="CE25" s="1">
-        <f t="shared" si="41"/>
-        <v>2184.7115735048005</v>
+        <f t="shared" si="38"/>
+        <v>2215.5860798716808</v>
       </c>
       <c r="CF25" s="1">
-        <f t="shared" si="41"/>
-        <v>2130.570582762809</v>
+        <f t="shared" si="38"/>
+        <v>2160.7259622103975</v>
       </c>
       <c r="CG25" s="1">
-        <f t="shared" si="41"/>
-        <v>2108.2750573255448</v>
+        <f t="shared" si="38"/>
+        <v>2138.4181085625019</v>
       </c>
       <c r="CH25" s="1">
-        <f t="shared" si="41"/>
-        <v>2032.7183731260002</v>
+        <f t="shared" si="38"/>
+        <v>2063.0590289971265</v>
       </c>
       <c r="CI25" s="1">
-        <f t="shared" si="41"/>
-        <v>1984.0934820292603</v>
+        <f t="shared" si="38"/>
+        <v>2014.6490118752381</v>
       </c>
       <c r="CJ25" s="1">
-        <f t="shared" si="41"/>
-        <v>1954.6243880803211</v>
+        <f t="shared" si="38"/>
+        <v>1985.4108168407606</v>
       </c>
       <c r="CK25" s="1">
-        <f t="shared" si="41"/>
-        <v>1938.818750710956</v>
-      </c>
-    </row>
-    <row r="26" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="38"/>
+        <v>1969.8506374299648</v>
+      </c>
+    </row>
+    <row r="26" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C26" s="18">
-        <f t="shared" ref="C26" si="42">+C25+C24</f>
+        <f t="shared" ref="C26" si="39">+C25+C24</f>
         <v>152.803</v>
       </c>
       <c r="D26" s="18">
-        <f t="shared" ref="D26:G26" si="43">+D25+D24</f>
+        <f t="shared" ref="D26:G26" si="40">+D25+D24</f>
         <v>167.73400000000001</v>
       </c>
       <c r="E26" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>160.84</v>
       </c>
       <c r="F26" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>165.39</v>
       </c>
       <c r="G26" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>197.29</v>
       </c>
       <c r="H26" s="18">
-        <f t="shared" ref="H26:N26" si="44">+H25+H24</f>
+        <f t="shared" ref="H26:N26" si="41">+H25+H24</f>
         <v>195.07799999999997</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>205.178</v>
       </c>
       <c r="J26" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>238.76300000000003</v>
       </c>
       <c r="K26" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>257.55900000000003</v>
       </c>
       <c r="L26" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>259.92599999999999</v>
       </c>
       <c r="M26" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>321.65199999999999</v>
       </c>
       <c r="N26" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>350.22500000000014</v>
       </c>
       <c r="O26" s="18"/>
@@ -6843,7 +6953,7 @@
       <c r="AK26" s="18"/>
       <c r="AL26" s="18"/>
       <c r="AM26" s="18">
-        <f t="shared" ref="AM26" si="45">+AM25+AM24</f>
+        <f t="shared" ref="AM26" si="42">+AM25+AM24</f>
         <v>931</v>
       </c>
       <c r="AN26" s="18">
@@ -6851,23 +6961,23 @@
         <v>881.5</v>
       </c>
       <c r="AO26" s="18">
-        <f t="shared" ref="AO26:AS26" si="46">+AO25+AO24</f>
+        <f t="shared" ref="AO26:AS26" si="43">+AO25+AO24</f>
         <v>920</v>
       </c>
       <c r="AP26" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>1056</v>
       </c>
       <c r="AQ26" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>1148.5</v>
       </c>
       <c r="AR26" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>1128.9000000000001</v>
       </c>
       <c r="AS26" s="18">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>983</v>
       </c>
       <c r="AT26" s="18">
@@ -6891,39 +7001,53 @@
         <v>1698.6999999999998</v>
       </c>
       <c r="AY26" s="18">
-        <f t="shared" ref="AY26:BB26" si="47">+AY25+AY24</f>
+        <f t="shared" ref="AY26:BB26" si="44">+AY25+AY24</f>
         <v>1475</v>
       </c>
       <c r="AZ26" s="18">
+        <f t="shared" si="44"/>
+        <v>1536</v>
+      </c>
+      <c r="BA26" s="18">
+        <f t="shared" si="44"/>
+        <v>1488.1</v>
+      </c>
+      <c r="BB26" s="18">
+        <f t="shared" si="44"/>
+        <v>1653</v>
+      </c>
+      <c r="BC26" s="18">
+        <f t="shared" ref="BC26:BD26" si="45">+BC25+BC24</f>
+        <v>1706</v>
+      </c>
+      <c r="BD26" s="18">
+        <f t="shared" si="45"/>
+        <v>1739</v>
+      </c>
+      <c r="BE26" s="18">
+        <f t="shared" ref="BE26:BF26" si="46">+BE25+BE24</f>
+        <v>1758.9</v>
+      </c>
+      <c r="BF26" s="18">
+        <f t="shared" si="46"/>
+        <v>1905</v>
+      </c>
+      <c r="BG26" s="18">
+        <f t="shared" ref="BG26:BJ26" si="47">+BG25+BG24</f>
+        <v>0</v>
+      </c>
+      <c r="BH26" s="18">
         <f t="shared" si="47"/>
-        <v>1536</v>
-      </c>
-      <c r="BA26" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI26" s="18">
         <f t="shared" si="47"/>
-        <v>467</v>
-      </c>
-      <c r="BB26" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="18">
         <f t="shared" si="47"/>
-        <v>657</v>
-      </c>
-      <c r="BC26" s="18">
-        <f t="shared" ref="BC26:BD26" si="48">+BC25+BC24</f>
-        <v>1706</v>
-      </c>
-      <c r="BD26" s="18">
-        <f t="shared" si="48"/>
-        <v>1739</v>
-      </c>
-      <c r="BE26" s="18">
-        <f t="shared" ref="BE26:BF26" si="49">+BE25+BE24</f>
         <v>0</v>
       </c>
-      <c r="BF26" s="18">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="BG26" s="18"/>
-      <c r="BH26" s="18"/>
       <c r="BM26" s="1">
         <f>+BM25+BM24</f>
         <v>646.76699999999994</v>
@@ -6949,116 +7073,116 @@
         <v>3788.5</v>
       </c>
       <c r="BW26" s="1">
-        <f t="shared" ref="BW26:BY26" si="50">+BW24+BW25</f>
+        <f t="shared" ref="BW26:BY26" si="48">+BW24+BW25</f>
         <v>4394.3999999999996</v>
       </c>
       <c r="BX26" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>5531.4</v>
       </c>
       <c r="BY26" s="1">
-        <f t="shared" si="50"/>
-        <v>4135</v>
+        <f t="shared" si="48"/>
+        <v>6152.1</v>
       </c>
       <c r="BZ26" s="1">
-        <f t="shared" ref="BZ26:CK26" si="51">+BZ24+BZ25</f>
-        <v>0</v>
+        <f t="shared" ref="BZ26:CK26" si="49">+BZ24+BZ25</f>
+        <v>7108.9</v>
       </c>
       <c r="CA26" s="1">
-        <f t="shared" si="51"/>
-        <v>2514.7533600000002</v>
+        <f t="shared" si="49"/>
+        <v>2535.9080000000004</v>
       </c>
       <c r="CB26" s="1">
-        <f t="shared" si="51"/>
-        <v>2392.151496</v>
+        <f t="shared" si="49"/>
+        <v>2416.6496800000004</v>
       </c>
       <c r="CC26" s="1">
-        <f t="shared" si="51"/>
-        <v>2322.2222736000003</v>
+        <f t="shared" si="49"/>
+        <v>2349.6643568000004</v>
       </c>
       <c r="CD26" s="1">
-        <f t="shared" si="51"/>
-        <v>2238.0950389600007</v>
+        <f t="shared" si="49"/>
+        <v>2267.3905303680008</v>
       </c>
       <c r="CE26" s="1">
-        <f t="shared" si="51"/>
-        <v>2184.7115735048005</v>
+        <f t="shared" si="49"/>
+        <v>2215.5860798716808</v>
       </c>
       <c r="CF26" s="1">
-        <f t="shared" si="51"/>
-        <v>2130.570582762809</v>
+        <f t="shared" si="49"/>
+        <v>2160.7259622103975</v>
       </c>
       <c r="CG26" s="1">
-        <f t="shared" si="51"/>
-        <v>2108.2750573255448</v>
+        <f t="shared" si="49"/>
+        <v>2138.4181085625019</v>
       </c>
       <c r="CH26" s="1">
-        <f t="shared" si="51"/>
-        <v>2032.7183731260002</v>
+        <f t="shared" si="49"/>
+        <v>2063.0590289971265</v>
       </c>
       <c r="CI26" s="1">
-        <f t="shared" si="51"/>
-        <v>1984.0934820292603</v>
+        <f t="shared" si="49"/>
+        <v>2014.6490118752381</v>
       </c>
       <c r="CJ26" s="1">
-        <f t="shared" si="51"/>
-        <v>1954.6243880803211</v>
+        <f t="shared" si="49"/>
+        <v>1985.4108168407606</v>
       </c>
       <c r="CK26" s="1">
-        <f t="shared" si="51"/>
-        <v>1938.818750710956</v>
-      </c>
-    </row>
-    <row r="27" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="49"/>
+        <v>1969.8506374299648</v>
+      </c>
+    </row>
+    <row r="27" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C27" s="18">
-        <f t="shared" ref="C27" si="52">+C23-C26</f>
+        <f t="shared" ref="C27" si="50">+C23-C26</f>
         <v>-41.00800000000001</v>
       </c>
       <c r="D27" s="18">
-        <f t="shared" ref="D27:G27" si="53">+D23-D26</f>
+        <f t="shared" ref="D27:G27" si="51">+D23-D26</f>
         <v>-60.319000000000003</v>
       </c>
       <c r="E27" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>-58.490000000000009</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>-45.365999999999971</v>
       </c>
       <c r="G27" s="18">
-        <f t="shared" si="53"/>
+        <f t="shared" si="51"/>
         <v>22.170000000000016</v>
       </c>
       <c r="H27" s="18">
-        <f t="shared" ref="H27:N27" si="54">+H23-H26</f>
+        <f t="shared" ref="H27:N27" si="52">+H23-H26</f>
         <v>87.459000000000003</v>
       </c>
       <c r="I27" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>202.37700000000001</v>
       </c>
       <c r="J27" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>145.73000000000002</v>
       </c>
       <c r="K27" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>153.00999999999993</v>
       </c>
       <c r="L27" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>158.11000000000001</v>
       </c>
       <c r="M27" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>236.78400000000005</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="52"/>
         <v>212.07899999999984</v>
       </c>
       <c r="O27" s="18"/>
@@ -7094,23 +7218,23 @@
         <v>804.60000000000014</v>
       </c>
       <c r="AO27" s="18">
-        <f t="shared" ref="AO27:AS27" si="55">+AO23-AO26</f>
+        <f t="shared" ref="AO27:AS27" si="53">+AO23-AO26</f>
         <v>1251.7999999999997</v>
       </c>
       <c r="AP27" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>904.19999999999982</v>
       </c>
       <c r="AQ27" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>1072.9000000000005</v>
       </c>
       <c r="AR27" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>3316.1</v>
       </c>
       <c r="AS27" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="53"/>
         <v>2245.9</v>
       </c>
       <c r="AT27" s="18">
@@ -7134,39 +7258,53 @@
         <v>1328.1999999999998</v>
       </c>
       <c r="AY27" s="18">
-        <f t="shared" ref="AY27:BB27" si="56">+AY23-AY26</f>
+        <f t="shared" ref="AY27:BB27" si="54">+AY23-AY26</f>
         <v>1519</v>
       </c>
       <c r="AZ27" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="54"/>
         <v>1459</v>
       </c>
       <c r="BA27" s="18">
-        <f t="shared" si="56"/>
-        <v>2557.0765000000001</v>
+        <f t="shared" si="54"/>
+        <v>1694.1</v>
       </c>
       <c r="BB27" s="18">
-        <f t="shared" si="56"/>
-        <v>2399.6697750000003</v>
+        <f t="shared" si="54"/>
+        <v>1522</v>
       </c>
       <c r="BC27" s="18">
-        <f t="shared" ref="BC27:BD27" si="57">+BC23-BC26</f>
+        <f t="shared" ref="BC27:BD27" si="55">+BC23-BC26</f>
         <v>1243</v>
       </c>
       <c r="BD27" s="18">
+        <f t="shared" si="55"/>
+        <v>1594</v>
+      </c>
+      <c r="BE27" s="18">
+        <f t="shared" ref="BE27:BF27" si="56">+BE23-BE26</f>
+        <v>1743.6999999999998</v>
+      </c>
+      <c r="BF27" s="18">
+        <f>+BF23-BF26</f>
+        <v>1613</v>
+      </c>
+      <c r="BG27" s="18">
+        <f t="shared" ref="BG27:BJ27" si="57">+BG23-BG26</f>
+        <v>0</v>
+      </c>
+      <c r="BH27" s="18">
         <f t="shared" si="57"/>
-        <v>1594</v>
-      </c>
-      <c r="BE27" s="18">
-        <f t="shared" ref="BE27:BF27" si="58">+BE23-BE26</f>
-        <v>3072.4055999999996</v>
-      </c>
-      <c r="BF27" s="18">
-        <f t="shared" si="58"/>
-        <v>3256.2035999999998</v>
-      </c>
-      <c r="BG27" s="18"/>
-      <c r="BH27" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="BI27" s="18">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="18">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
       <c r="BM27" s="1">
         <f>+BM23-BM26</f>
         <v>-205.18299999999994</v>
@@ -7192,67 +7330,67 @@
         <v>3640.5</v>
       </c>
       <c r="BW27" s="1">
-        <f t="shared" ref="BW27:BY27" si="59">+BW23-BW26</f>
+        <f t="shared" ref="BW27:BY27" si="58">+BW23-BW26</f>
         <v>9722.5000000000018</v>
       </c>
       <c r="BX27" s="1">
+        <f t="shared" si="58"/>
+        <v>5442.9000000000015</v>
+      </c>
+      <c r="BY27" s="1">
+        <f t="shared" si="58"/>
+        <v>6194.1</v>
+      </c>
+      <c r="BZ27" s="1">
+        <f t="shared" ref="BZ27:CK27" si="59">+BZ23-BZ26</f>
+        <v>6193.7000000000007</v>
+      </c>
+      <c r="CA27" s="1">
         <f t="shared" si="59"/>
-        <v>5442.9000000000015</v>
-      </c>
-      <c r="BY27" s="1">
+        <v>8875.6779999999999</v>
+      </c>
+      <c r="CB27" s="1">
         <f t="shared" si="59"/>
-        <v>7934.7462749999995</v>
-      </c>
-      <c r="BZ27" s="1">
-        <f t="shared" ref="BZ27:CK27" si="60">+BZ23-BZ26</f>
-        <v>12148.9092</v>
-      </c>
-      <c r="CA27" s="1">
-        <f t="shared" si="60"/>
-        <v>8801.6367599999994</v>
-      </c>
-      <c r="CB27" s="1">
-        <f t="shared" si="60"/>
-        <v>8372.5302360000005</v>
+        <v>8458.2738800000025</v>
       </c>
       <c r="CC27" s="1">
-        <f t="shared" si="60"/>
-        <v>8127.7779576000012</v>
+        <f t="shared" si="59"/>
+        <v>8223.8252488000016</v>
       </c>
       <c r="CD27" s="1">
-        <f t="shared" si="60"/>
-        <v>7833.3326363600027</v>
+        <f t="shared" si="59"/>
+        <v>7935.866856288003</v>
       </c>
       <c r="CE27" s="1">
-        <f t="shared" si="60"/>
-        <v>7646.4905072668025</v>
+        <f t="shared" si="59"/>
+        <v>7754.5512795508839</v>
       </c>
       <c r="CF27" s="1">
-        <f t="shared" si="60"/>
-        <v>7456.9970396698309</v>
+        <f t="shared" si="59"/>
+        <v>7562.5408677363921</v>
       </c>
       <c r="CG27" s="1">
-        <f t="shared" si="60"/>
-        <v>7378.9627006394076</v>
+        <f t="shared" si="59"/>
+        <v>7484.4633799687545</v>
       </c>
       <c r="CH27" s="1">
-        <f t="shared" si="60"/>
-        <v>7114.5143059409993</v>
+        <f t="shared" si="59"/>
+        <v>7220.7066014899428</v>
       </c>
       <c r="CI27" s="1">
-        <f t="shared" si="60"/>
-        <v>6944.3271871024099</v>
+        <f t="shared" si="59"/>
+        <v>7051.2715415633329</v>
       </c>
       <c r="CJ27" s="1">
-        <f t="shared" si="60"/>
-        <v>6841.1853582811236</v>
+        <f t="shared" si="59"/>
+        <v>6948.9378589426633</v>
       </c>
       <c r="CK27" s="1">
-        <f t="shared" si="60"/>
-        <v>6785.8656274883469</v>
-      </c>
-    </row>
-    <row r="28" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="59"/>
+        <v>6894.4772310048756</v>
+      </c>
+    </row>
+    <row r="28" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>228</v>
       </c>
@@ -7383,72 +7521,76 @@
         <v>-7.9579999999999993</v>
       </c>
       <c r="BV28" s="1">
-        <f t="shared" ref="BV28" si="61">SUM(AM28:AP28)</f>
+        <f t="shared" ref="BV28" si="60">SUM(AM28:AP28)</f>
         <v>26.200000000000003</v>
       </c>
       <c r="BW28" s="1">
-        <f t="shared" ref="BW28" si="62">SUM(AQ28:AT28)</f>
+        <f t="shared" ref="BW28" si="61">SUM(AQ28:AT28)</f>
         <v>-170.90000000000003</v>
       </c>
       <c r="BX28" s="1">
-        <f t="shared" ref="BX28" si="63">SUM(AU28:AX28)</f>
+        <f t="shared" ref="BX28" si="62">SUM(AU28:AX28)</f>
         <v>-211.29999999999998</v>
       </c>
       <c r="BY28" s="1">
-        <f t="shared" ref="BY28" si="64">SUM(AY28:BB28)</f>
+        <f t="shared" ref="BY28" si="63">SUM(AY28:BB28)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="BZ28" s="1">
+        <f>SUM(BC28:BF28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>229</v>
       </c>
       <c r="C29" s="18">
-        <f t="shared" ref="C29:F29" si="65">+C27+C28</f>
+        <f t="shared" ref="C29:F29" si="64">+C27+C28</f>
         <v>-43.690000000000012</v>
       </c>
       <c r="D29" s="18">
+        <f t="shared" si="64"/>
+        <v>-63.368000000000002</v>
+      </c>
+      <c r="E29" s="18">
+        <f t="shared" si="64"/>
+        <v>-61.836000000000013</v>
+      </c>
+      <c r="F29" s="18">
+        <f t="shared" si="64"/>
+        <v>-54.02199999999997</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" ref="G29:N29" si="65">+G27+G28</f>
+        <v>11.620000000000015</v>
+      </c>
+      <c r="H29" s="18">
         <f t="shared" si="65"/>
-        <v>-63.368000000000002</v>
-      </c>
-      <c r="E29" s="18">
+        <v>76.724000000000004</v>
+      </c>
+      <c r="I29" s="18">
         <f t="shared" si="65"/>
-        <v>-61.836000000000013</v>
-      </c>
-      <c r="F29" s="18">
+        <v>191.48099999999999</v>
+      </c>
+      <c r="J29" s="18">
         <f t="shared" si="65"/>
-        <v>-54.02199999999997</v>
-      </c>
-      <c r="G29" s="18">
-        <f t="shared" ref="G29:N29" si="66">+G27+G28</f>
-        <v>11.620000000000015</v>
-      </c>
-      <c r="H29" s="18">
-        <f t="shared" si="66"/>
-        <v>76.724000000000004</v>
-      </c>
-      <c r="I29" s="18">
-        <f t="shared" si="66"/>
-        <v>191.48099999999999</v>
-      </c>
-      <c r="J29" s="18">
-        <f t="shared" si="66"/>
         <v>134.61900000000003</v>
       </c>
       <c r="K29" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>141.79099999999994</v>
       </c>
       <c r="L29" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>147.69900000000001</v>
       </c>
       <c r="M29" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>225.66600000000005</v>
       </c>
       <c r="N29" s="18">
-        <f t="shared" si="66"/>
+        <f t="shared" si="65"/>
         <v>198.15899999999985</v>
       </c>
       <c r="O29" s="18"/>
@@ -7476,87 +7618,101 @@
       <c r="AK29" s="18"/>
       <c r="AL29" s="18"/>
       <c r="AM29" s="18">
-        <f t="shared" ref="AM29" si="67">AM27+AM28</f>
+        <f t="shared" ref="AM29" si="66">AM27+AM28</f>
         <v>745.60000000000014</v>
       </c>
       <c r="AN29" s="18">
-        <f t="shared" ref="AN29:AX29" si="68">AN27+AN28</f>
+        <f t="shared" ref="AN29:AX29" si="67">AN27+AN28</f>
         <v>762.30000000000018</v>
       </c>
       <c r="AO29" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>1196.9999999999998</v>
       </c>
       <c r="AP29" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>961.79999999999984</v>
       </c>
       <c r="AQ29" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>1098.8000000000006</v>
       </c>
       <c r="AR29" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>3270.4</v>
       </c>
       <c r="AS29" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>2215.3000000000002</v>
       </c>
       <c r="AT29" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>2967.0999999999995</v>
       </c>
       <c r="AU29" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>1089.6000000000004</v>
       </c>
       <c r="AV29" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>1140.4000000000003</v>
       </c>
       <c r="AW29" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>1576</v>
       </c>
       <c r="AX29" s="18">
-        <f t="shared" si="68"/>
+        <f t="shared" si="67"/>
         <v>1425.6</v>
       </c>
       <c r="AY29" s="18">
-        <f t="shared" ref="AY29" si="69">AY27+AY28</f>
+        <f t="shared" ref="AY29" si="68">AY27+AY28</f>
         <v>1519</v>
       </c>
       <c r="AZ29" s="18">
-        <f t="shared" ref="AZ29" si="70">AZ27+AZ28</f>
+        <f t="shared" ref="AZ29" si="69">AZ27+AZ28</f>
         <v>1459</v>
       </c>
       <c r="BA29" s="18">
-        <f t="shared" ref="BA29" si="71">BA27+BA28</f>
-        <v>2557.0765000000001</v>
+        <f t="shared" ref="BA29" si="70">BA27+BA28</f>
+        <v>1694.1</v>
       </c>
       <c r="BB29" s="18">
-        <f t="shared" ref="BB29:BF29" si="72">BB27+BB28</f>
-        <v>2399.6697750000003</v>
+        <f t="shared" ref="BB29:BF29" si="71">BB27+BB28</f>
+        <v>1522</v>
       </c>
       <c r="BC29" s="18">
+        <f t="shared" si="71"/>
+        <v>1243</v>
+      </c>
+      <c r="BD29" s="18">
+        <f t="shared" si="71"/>
+        <v>1594</v>
+      </c>
+      <c r="BE29" s="18">
+        <f t="shared" si="71"/>
+        <v>1743.6999999999998</v>
+      </c>
+      <c r="BF29" s="18">
+        <f t="shared" si="71"/>
+        <v>1613</v>
+      </c>
+      <c r="BG29" s="18">
+        <f t="shared" ref="BG29:BJ29" si="72">BG27+BG28</f>
+        <v>0</v>
+      </c>
+      <c r="BH29" s="18">
         <f t="shared" si="72"/>
-        <v>1243</v>
-      </c>
-      <c r="BD29" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI29" s="18">
         <f t="shared" si="72"/>
-        <v>1594</v>
-      </c>
-      <c r="BE29" s="18">
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="18">
         <f t="shared" si="72"/>
-        <v>3072.4055999999996</v>
-      </c>
-      <c r="BF29" s="18">
-        <f t="shared" si="72"/>
-        <v>3256.2035999999998</v>
-      </c>
-      <c r="BG29" s="18"/>
-      <c r="BH29" s="18"/>
+        <v>0</v>
+      </c>
       <c r="BM29" s="1">
         <f>+BM27+BM28</f>
         <v>-222.91599999999994</v>
@@ -7591,58 +7747,58 @@
       </c>
       <c r="BY29" s="1">
         <f t="shared" si="73"/>
-        <v>7934.7462749999995</v>
+        <v>6194.1</v>
       </c>
       <c r="BZ29" s="1">
         <f t="shared" si="73"/>
-        <v>12148.9092</v>
+        <v>6193.7000000000007</v>
       </c>
       <c r="CA29" s="1">
         <f t="shared" si="73"/>
-        <v>8801.6367599999994</v>
+        <v>8875.6779999999999</v>
       </c>
       <c r="CB29" s="1">
         <f t="shared" si="73"/>
-        <v>8372.5302360000005</v>
+        <v>8458.2738800000025</v>
       </c>
       <c r="CC29" s="1">
         <f t="shared" si="73"/>
-        <v>8127.7779576000012</v>
+        <v>8223.8252488000016</v>
       </c>
       <c r="CD29" s="1">
         <f t="shared" si="73"/>
-        <v>7833.3326363600027</v>
+        <v>7935.866856288003</v>
       </c>
       <c r="CE29" s="1">
         <f t="shared" si="73"/>
-        <v>7646.4905072668025</v>
+        <v>7754.5512795508839</v>
       </c>
       <c r="CF29" s="1">
         <f t="shared" si="73"/>
-        <v>7456.9970396698309</v>
+        <v>7562.5408677363921</v>
       </c>
       <c r="CG29" s="1">
         <f t="shared" si="73"/>
-        <v>7378.9627006394076</v>
+        <v>7484.4633799687545</v>
       </c>
       <c r="CH29" s="1">
         <f t="shared" si="73"/>
-        <v>7114.5143059409993</v>
+        <v>7220.7066014899428</v>
       </c>
       <c r="CI29" s="1">
         <f t="shared" si="73"/>
-        <v>6944.3271871024099</v>
+        <v>7051.2715415633329</v>
       </c>
       <c r="CJ29" s="1">
         <f t="shared" si="73"/>
-        <v>6841.1853582811236</v>
+        <v>6948.9378589426633</v>
       </c>
       <c r="CK29" s="1">
         <f t="shared" si="73"/>
-        <v>6785.8656274883469</v>
-      </c>
-    </row>
-    <row r="30" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>6894.4772310048756</v>
+      </c>
+    </row>
+    <row r="30" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>230</v>
       </c>
@@ -7755,11 +7911,11 @@
       </c>
       <c r="BA30" s="18">
         <f t="shared" si="74"/>
-        <v>383.56147500000003</v>
+        <v>254.11499999999998</v>
       </c>
       <c r="BB30" s="18">
         <f t="shared" si="74"/>
-        <v>359.95046625000003</v>
+        <v>228.29999999999998</v>
       </c>
       <c r="BC30" s="18"/>
       <c r="BD30" s="18"/>
@@ -7767,6 +7923,8 @@
       <c r="BF30" s="18"/>
       <c r="BG30" s="18"/>
       <c r="BH30" s="18"/>
+      <c r="BI30" s="18"/>
+      <c r="BJ30" s="18"/>
       <c r="BM30" s="1">
         <v>-1.1319999999999999</v>
       </c>
@@ -7796,54 +7954,58 @@
       </c>
       <c r="BY30" s="1">
         <f t="shared" ref="BY30" si="78">SUM(AY30:BB30)</f>
-        <v>1190.2119412500001</v>
+        <v>929.1149999999999</v>
+      </c>
+      <c r="BZ30" s="1">
+        <f>SUM(BC30:BF30)</f>
+        <v>0</v>
       </c>
       <c r="CA30" s="1">
         <f>CA29*0.15</f>
-        <v>1320.245514</v>
+        <v>1331.3516999999999</v>
       </c>
       <c r="CB30" s="1">
         <f t="shared" ref="CB30:CK30" si="79">CB29*0.15</f>
-        <v>1255.8795354000001</v>
+        <v>1268.7410820000002</v>
       </c>
       <c r="CC30" s="1">
         <f t="shared" si="79"/>
-        <v>1219.1666936400002</v>
+        <v>1233.5737873200003</v>
       </c>
       <c r="CD30" s="1">
         <f t="shared" si="79"/>
-        <v>1174.9998954540004</v>
+        <v>1190.3800284432004</v>
       </c>
       <c r="CE30" s="1">
         <f t="shared" si="79"/>
-        <v>1146.9735760900203</v>
+        <v>1163.1826919326325</v>
       </c>
       <c r="CF30" s="1">
         <f t="shared" si="79"/>
-        <v>1118.5495559504745</v>
+        <v>1134.3811301604587</v>
       </c>
       <c r="CG30" s="1">
         <f t="shared" si="79"/>
-        <v>1106.844405095911</v>
+        <v>1122.6695069953132</v>
       </c>
       <c r="CH30" s="1">
         <f t="shared" si="79"/>
-        <v>1067.1771458911498</v>
+        <v>1083.1059902234913</v>
       </c>
       <c r="CI30" s="1">
         <f t="shared" si="79"/>
-        <v>1041.6490780653614</v>
+        <v>1057.6907312344999</v>
       </c>
       <c r="CJ30" s="1">
         <f t="shared" si="79"/>
-        <v>1026.1778037421684</v>
+        <v>1042.3406788413995</v>
       </c>
       <c r="CK30" s="1">
         <f t="shared" si="79"/>
-        <v>1017.879844123252</v>
-      </c>
-    </row>
-    <row r="31" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>1034.1715846507313</v>
+      </c>
+    </row>
+    <row r="31" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>231</v>
       </c>
@@ -7977,11 +8139,11 @@
       </c>
       <c r="BA31" s="18">
         <f t="shared" ref="BA31" si="86">+BA29-BA30</f>
-        <v>2173.5150250000002</v>
+        <v>1439.9849999999999</v>
       </c>
       <c r="BB31" s="18">
         <f t="shared" ref="BB31:BF31" si="87">+BB29-BB30</f>
-        <v>2039.7193087500002</v>
+        <v>1293.7</v>
       </c>
       <c r="BC31" s="18">
         <f t="shared" si="87"/>
@@ -7993,36 +8155,50 @@
       </c>
       <c r="BE31" s="18">
         <f t="shared" si="87"/>
-        <v>3072.4055999999996</v>
+        <v>1743.6999999999998</v>
       </c>
       <c r="BF31" s="18">
         <f t="shared" si="87"/>
-        <v>3256.2035999999998</v>
-      </c>
-      <c r="BG31" s="18"/>
-      <c r="BH31" s="18"/>
+        <v>1613</v>
+      </c>
+      <c r="BG31" s="18">
+        <f t="shared" ref="BG31:BJ31" si="88">+BG29-BG30</f>
+        <v>0</v>
+      </c>
+      <c r="BH31" s="18">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="BI31" s="18">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="18">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
       <c r="BL31" s="1">
-        <f t="shared" ref="BL31:BQ31" si="88">+BL29-BL30</f>
+        <f t="shared" ref="BL31:BQ31" si="89">+BL29-BL30</f>
         <v>0</v>
       </c>
       <c r="BM31" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>-221.78399999999993</v>
       </c>
       <c r="BN31" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>414.44400000000007</v>
       </c>
       <c r="BO31" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>424.31700000000018</v>
       </c>
       <c r="BP31" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>381.58600000000013</v>
       </c>
       <c r="BQ31" s="1">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>654.88899999999978</v>
       </c>
       <c r="BV31" s="1">
@@ -8030,386 +8206,400 @@
         <v>3369.5</v>
       </c>
       <c r="BW31" s="1">
-        <f t="shared" ref="BW31:CK31" si="89">+BW29-BW30</f>
+        <f t="shared" ref="BW31:CK31" si="90">+BW29-BW30</f>
         <v>8301.1000000000022</v>
       </c>
       <c r="BX31" s="1">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>4711.2000000000016</v>
       </c>
       <c r="BY31" s="1">
-        <f t="shared" si="89"/>
-        <v>6744.5343337499999</v>
+        <f t="shared" si="90"/>
+        <v>5264.9850000000006</v>
       </c>
       <c r="BZ31" s="1">
-        <f t="shared" si="89"/>
-        <v>12148.9092</v>
+        <f t="shared" si="90"/>
+        <v>6193.7000000000007</v>
       </c>
       <c r="CA31" s="1">
-        <f t="shared" si="89"/>
-        <v>7481.3912459999992</v>
+        <f t="shared" si="90"/>
+        <v>7544.3262999999997</v>
       </c>
       <c r="CB31" s="1">
-        <f t="shared" si="89"/>
-        <v>7116.6507006000002</v>
+        <f t="shared" si="90"/>
+        <v>7189.532798000002</v>
       </c>
       <c r="CC31" s="1">
-        <f t="shared" si="89"/>
-        <v>6908.6112639600015</v>
+        <f t="shared" si="90"/>
+        <v>6990.2514614800011</v>
       </c>
       <c r="CD31" s="1">
-        <f t="shared" si="89"/>
-        <v>6658.3327409060021</v>
+        <f t="shared" si="90"/>
+        <v>6745.486827844803</v>
       </c>
       <c r="CE31" s="1">
-        <f t="shared" si="89"/>
-        <v>6499.5169311767822</v>
+        <f t="shared" si="90"/>
+        <v>6591.3685876182517</v>
       </c>
       <c r="CF31" s="1">
-        <f t="shared" si="89"/>
-        <v>6338.4474837193566</v>
+        <f t="shared" si="90"/>
+        <v>6428.1597375759338</v>
       </c>
       <c r="CG31" s="1">
-        <f t="shared" si="89"/>
-        <v>6272.1182955434961</v>
+        <f t="shared" si="90"/>
+        <v>6361.7938729734415</v>
       </c>
       <c r="CH31" s="1">
-        <f t="shared" si="89"/>
-        <v>6047.3371600498494</v>
+        <f t="shared" si="90"/>
+        <v>6137.6006112664518</v>
       </c>
       <c r="CI31" s="1">
-        <f t="shared" si="89"/>
-        <v>5902.6781090370487</v>
+        <f t="shared" si="90"/>
+        <v>5993.5808103288327</v>
       </c>
       <c r="CJ31" s="1">
-        <f t="shared" si="89"/>
-        <v>5815.0075545389554</v>
+        <f t="shared" si="90"/>
+        <v>5906.5971801012638</v>
       </c>
       <c r="CK31" s="1">
-        <f t="shared" si="89"/>
-        <v>5767.9857833650949</v>
+        <f t="shared" si="90"/>
+        <v>5860.3056463541443</v>
       </c>
       <c r="CL31" s="1">
         <f>CK31*(1+$CM$35)</f>
-        <v>5594.9462098641416</v>
+        <v>5684.4964769635199</v>
       </c>
       <c r="CM31" s="1">
-        <f t="shared" ref="CM31:DZ31" si="90">CL31*(1+$CM$35)</f>
-        <v>5427.0978235682169</v>
+        <f t="shared" ref="CM31:DZ31" si="91">CL31*(1+$CM$35)</f>
+        <v>5513.9615826546142</v>
       </c>
       <c r="CN31" s="1">
-        <f t="shared" si="90"/>
-        <v>5264.2848888611707</v>
+        <f t="shared" si="91"/>
+        <v>5348.5427351749759</v>
       </c>
       <c r="CO31" s="1">
-        <f t="shared" si="90"/>
-        <v>5106.3563421953349</v>
+        <f t="shared" si="91"/>
+        <v>5188.0864531197267</v>
       </c>
       <c r="CP31" s="1">
-        <f t="shared" si="90"/>
-        <v>4953.1656519294747</v>
+        <f t="shared" si="91"/>
+        <v>5032.4438595261345</v>
       </c>
       <c r="CQ31" s="1">
-        <f t="shared" si="90"/>
-        <v>4804.57068237159</v>
+        <f t="shared" si="91"/>
+        <v>4881.47054374035</v>
       </c>
       <c r="CR31" s="1">
-        <f t="shared" si="90"/>
-        <v>4660.4335619004423</v>
+        <f t="shared" si="91"/>
+        <v>4735.026427428139</v>
       </c>
       <c r="CS31" s="1">
-        <f t="shared" si="90"/>
-        <v>4520.6205550434288</v>
+        <f t="shared" si="91"/>
+        <v>4592.9756346052945</v>
       </c>
       <c r="CT31" s="1">
-        <f t="shared" si="90"/>
-        <v>4385.0019383921262</v>
+        <f t="shared" si="91"/>
+        <v>4455.1863655671359</v>
       </c>
       <c r="CU31" s="1">
-        <f t="shared" si="90"/>
-        <v>4253.4518802403627</v>
+        <f t="shared" si="91"/>
+        <v>4321.5307746001217</v>
       </c>
       <c r="CV31" s="1">
-        <f t="shared" si="90"/>
-        <v>4125.8483238331519</v>
+        <f t="shared" si="91"/>
+        <v>4191.8848513621178</v>
       </c>
       <c r="CW31" s="1">
-        <f t="shared" si="90"/>
-        <v>4002.0728741181574</v>
+        <f t="shared" si="91"/>
+        <v>4066.1283058212543</v>
       </c>
       <c r="CX31" s="1">
-        <f t="shared" si="90"/>
-        <v>3882.0106878946126</v>
+        <f t="shared" si="91"/>
+        <v>3944.1444566466166</v>
       </c>
       <c r="CY31" s="1">
-        <f t="shared" si="90"/>
-        <v>3765.5503672577743</v>
+        <f t="shared" si="91"/>
+        <v>3825.8201229472179</v>
       </c>
       <c r="CZ31" s="1">
-        <f t="shared" si="90"/>
-        <v>3652.5838562400409</v>
+        <f t="shared" si="91"/>
+        <v>3711.0455192588011</v>
       </c>
       <c r="DA31" s="1">
-        <f t="shared" si="90"/>
-        <v>3543.0063405528394</v>
+        <f t="shared" si="91"/>
+        <v>3599.7141536810368</v>
       </c>
       <c r="DB31" s="1">
-        <f t="shared" si="90"/>
-        <v>3436.716150336254</v>
+        <f t="shared" si="91"/>
+        <v>3491.7227290706055</v>
       </c>
       <c r="DC31" s="1">
-        <f t="shared" si="90"/>
-        <v>3333.6146658261664</v>
+        <f t="shared" si="91"/>
+        <v>3386.9710471984872</v>
       </c>
       <c r="DD31" s="1">
-        <f t="shared" si="90"/>
-        <v>3233.6062258513812</v>
+        <f t="shared" si="91"/>
+        <v>3285.3619157825324</v>
       </c>
       <c r="DE31" s="1">
-        <f t="shared" si="90"/>
-        <v>3136.5980390758396</v>
+        <f t="shared" si="91"/>
+        <v>3186.8010583090563</v>
       </c>
       <c r="DF31" s="1">
-        <f t="shared" si="90"/>
-        <v>3042.5000979035644</v>
+        <f t="shared" si="91"/>
+        <v>3091.1970265597847</v>
       </c>
       <c r="DG31" s="1">
-        <f t="shared" si="90"/>
-        <v>2951.2250949664576</v>
+        <f t="shared" si="91"/>
+        <v>2998.4611157629911</v>
       </c>
       <c r="DH31" s="1">
-        <f t="shared" si="90"/>
-        <v>2862.6883421174639</v>
+        <f t="shared" si="91"/>
+        <v>2908.5072822901011</v>
       </c>
       <c r="DI31" s="1">
-        <f t="shared" si="90"/>
-        <v>2776.80769185394</v>
+        <f t="shared" si="91"/>
+        <v>2821.2520638213978</v>
       </c>
       <c r="DJ31" s="1">
-        <f t="shared" si="90"/>
-        <v>2693.5034610983216</v>
+        <f t="shared" si="91"/>
+        <v>2736.6145019067558</v>
       </c>
       <c r="DK31" s="1">
-        <f t="shared" si="90"/>
-        <v>2612.6983572653721</v>
+        <f t="shared" si="91"/>
+        <v>2654.5160668495532</v>
       </c>
       <c r="DL31" s="1">
-        <f t="shared" si="90"/>
-        <v>2534.3174065474109</v>
+        <f t="shared" si="91"/>
+        <v>2574.8805848440666</v>
       </c>
       <c r="DM31" s="1">
-        <f t="shared" si="90"/>
-        <v>2458.2878843509884</v>
+        <f t="shared" si="91"/>
+        <v>2497.6341672987446</v>
       </c>
       <c r="DN31" s="1">
-        <f t="shared" si="90"/>
-        <v>2384.5392478204585</v>
+        <f t="shared" si="91"/>
+        <v>2422.7051422797822</v>
       </c>
       <c r="DO31" s="1">
-        <f t="shared" si="90"/>
-        <v>2313.0030703858447</v>
+        <f t="shared" si="91"/>
+        <v>2350.0239880113886</v>
       </c>
       <c r="DP31" s="1">
-        <f t="shared" si="90"/>
-        <v>2243.6129782742692</v>
+        <f t="shared" si="91"/>
+        <v>2279.5232683710469</v>
       </c>
       <c r="DQ31" s="1">
-        <f t="shared" si="90"/>
-        <v>2176.3045889260411</v>
+        <f t="shared" si="91"/>
+        <v>2211.1375703199155</v>
       </c>
       <c r="DR31" s="1">
-        <f t="shared" si="90"/>
-        <v>2111.0154512582599</v>
+        <f t="shared" si="91"/>
+        <v>2144.8034432103182</v>
       </c>
       <c r="DS31" s="1">
-        <f t="shared" si="90"/>
-        <v>2047.684987720512</v>
+        <f t="shared" si="91"/>
+        <v>2080.4593399140085</v>
       </c>
       <c r="DT31" s="1">
-        <f t="shared" si="90"/>
-        <v>1986.2544380888967</v>
+        <f t="shared" si="91"/>
+        <v>2018.0455597165883</v>
       </c>
       <c r="DU31" s="1">
-        <f t="shared" si="90"/>
-        <v>1926.6668049462298</v>
+        <f t="shared" si="91"/>
+        <v>1957.5041929250906</v>
       </c>
       <c r="DV31" s="1">
-        <f t="shared" si="90"/>
-        <v>1868.8668007978429</v>
+        <f t="shared" si="91"/>
+        <v>1898.7790671373377</v>
       </c>
       <c r="DW31" s="1">
-        <f t="shared" si="90"/>
-        <v>1812.8007967739075</v>
+        <f t="shared" si="91"/>
+        <v>1841.8156951232174</v>
       </c>
       <c r="DX31" s="1">
-        <f t="shared" si="90"/>
-        <v>1758.4167728706902</v>
+        <f t="shared" si="91"/>
+        <v>1786.5612242695208</v>
       </c>
       <c r="DY31" s="1">
-        <f t="shared" si="90"/>
-        <v>1705.6642696845695</v>
+        <f t="shared" si="91"/>
+        <v>1732.9643875414351</v>
       </c>
       <c r="DZ31" s="1">
-        <f t="shared" si="90"/>
-        <v>1654.4943415940324</v>
-      </c>
-    </row>
-    <row r="32" spans="2:130" x14ac:dyDescent="0.15">
+        <f t="shared" si="91"/>
+        <v>1680.975455915192</v>
+      </c>
+    </row>
+    <row r="32" spans="2:130" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C32" s="19">
-        <f t="shared" ref="C32:N32" si="91">+C31/C33</f>
+        <f t="shared" ref="C32:N32" si="92">+C31/C33</f>
         <v>-0.48758439694040073</v>
       </c>
       <c r="D32" s="19">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.69115175372639215</v>
       </c>
       <c r="E32" s="19">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.68534586912110373</v>
       </c>
       <c r="F32" s="19">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>-0.58659359005337919</v>
       </c>
       <c r="G32" s="19">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.10785824345146394</v>
       </c>
       <c r="H32" s="19">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.6964335962674848</v>
       </c>
       <c r="I32" s="19">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1.6531209531209532</v>
       </c>
       <c r="J32" s="19">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1.1622118622118625</v>
       </c>
       <c r="K32" s="19">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.90367471587012727</v>
       </c>
       <c r="L32" s="19">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.78680893210877012</v>
       </c>
       <c r="M32" s="19">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>1.2105592350466536</v>
       </c>
       <c r="N32" s="19">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.82948771773495533</v>
       </c>
       <c r="AM32" s="19">
-        <f t="shared" ref="AM32" si="92">+AM31/AM33</f>
+        <f t="shared" ref="AM32" si="93">+AM31/AM33</f>
         <v>6.0955690703735899</v>
       </c>
       <c r="AN32" s="19">
-        <f t="shared" ref="AN32:AX32" si="93">+AN31/AN33</f>
+        <f t="shared" ref="AN32:AX32" si="94">+AN31/AN33</f>
         <v>6.2087175188600181</v>
       </c>
       <c r="AO32" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>9.1378402107111469</v>
       </c>
       <c r="AP32" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>7.900178253119428</v>
       </c>
       <c r="AQ32" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>8.5727029438001843</v>
       </c>
       <c r="AR32" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>23.319964349376114</v>
       </c>
       <c r="AS32" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>17.830553116769096</v>
       </c>
       <c r="AT32" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>23.787102473498226</v>
       </c>
       <c r="AU32" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>8.7358326068003507</v>
       </c>
       <c r="AV32" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>8.9194107452339715</v>
       </c>
       <c r="AW32" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>12.250886524822697</v>
       </c>
       <c r="AX32" s="19">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>11.385964912280702</v>
       </c>
       <c r="AY32" s="19">
-        <f t="shared" ref="AY32" si="94">+AY31/AY33</f>
+        <f t="shared" ref="AY32" si="95">+AY31/AY33</f>
         <v>11.325877192982457</v>
       </c>
       <c r="AZ32" s="19">
-        <f t="shared" ref="AZ32" si="95">+AZ31/AZ33</f>
+        <f t="shared" ref="AZ32" si="96">+AZ31/AZ33</f>
         <v>10.878508771929825</v>
       </c>
       <c r="BA32" s="19">
-        <f t="shared" ref="BA32" si="96">+BA31/BA33</f>
-        <v>19.065921271929827</v>
+        <f t="shared" ref="BA32" si="97">+BA31/BA33</f>
+        <v>12.554359197907583</v>
       </c>
       <c r="BB32" s="19">
-        <f t="shared" ref="BB32:BF32" si="97">+BB31/BB33</f>
-        <v>17.892274638157897</v>
+        <f t="shared" ref="BB32:BJ32" si="98">+BB31/BB33</f>
+        <v>11.278988666085441</v>
       </c>
       <c r="BC32" s="19">
-        <f t="shared" si="97"/>
-        <v>10.903508771929825</v>
+        <f t="shared" si="98"/>
+        <v>10.836965998256321</v>
       </c>
       <c r="BD32" s="19">
-        <f t="shared" si="97"/>
-        <v>13.982456140350877</v>
+        <f t="shared" si="98"/>
+        <v>13.897122929380993</v>
       </c>
       <c r="BE32" s="19">
-        <f t="shared" si="97"/>
-        <v>26.95092631578947</v>
+        <f t="shared" si="98"/>
+        <v>14.852640545144801</v>
       </c>
       <c r="BF32" s="19">
-        <f t="shared" si="97"/>
-        <v>28.563189473684208</v>
-      </c>
-      <c r="BG32" s="19"/>
-      <c r="BH32" s="19"/>
+        <f t="shared" si="98"/>
+        <v>13.739352640545144</v>
+      </c>
+      <c r="BG32" s="19">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="BH32" s="19">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="BI32" s="19">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="BJ32" s="19">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
       <c r="BL32" s="25">
-        <f t="shared" ref="BL32:BQ32" si="98">+BL31/BL33</f>
+        <f t="shared" ref="BL32:BQ32" si="99">+BL31/BL33</f>
         <v>0</v>
       </c>
       <c r="BM32" s="25">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>-2.4476768568590654</v>
       </c>
       <c r="BN32" s="25">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.5919294170667873</v>
       </c>
       <c r="BO32" s="25">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.8127145296073337</v>
       </c>
       <c r="BP32" s="25">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.3645701991835164</v>
       </c>
       <c r="BQ32" s="25">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>5.683320315889957</v>
       </c>
       <c r="BV32" s="25">
@@ -8417,67 +8607,67 @@
         <v>29.268186753528777</v>
       </c>
       <c r="BW32" s="25">
-        <f t="shared" ref="BW32:CK32" si="99">+BW31/BW33</f>
+        <f t="shared" ref="BW32:CK32" si="100">+BW31/BW33</f>
         <v>73.558706247230845</v>
       </c>
       <c r="BX32" s="25">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>41.244911359159566</v>
       </c>
       <c r="BY32" s="25">
-        <f t="shared" si="99"/>
-        <v>59.162581875000001</v>
+        <f t="shared" si="100"/>
+        <v>46.042719720157422</v>
       </c>
       <c r="BZ32" s="25">
-        <f t="shared" si="99"/>
-        <v>106.56937894736842</v>
+        <f t="shared" si="100"/>
+        <v>53.370960792761743</v>
       </c>
       <c r="CA32" s="25">
-        <f t="shared" si="99"/>
-        <v>65.626238999999998</v>
+        <f t="shared" si="100"/>
+        <v>65.009274450667803</v>
       </c>
       <c r="CB32" s="25">
-        <f t="shared" si="99"/>
-        <v>62.42676053157895</v>
+        <f t="shared" si="100"/>
+        <v>61.952027557087476</v>
       </c>
       <c r="CC32" s="25">
-        <f t="shared" si="99"/>
-        <v>60.601853192631594</v>
+        <f t="shared" si="100"/>
+        <v>60.234825174321415</v>
       </c>
       <c r="CD32" s="25">
-        <f t="shared" si="99"/>
-        <v>58.406427551807035</v>
+        <f t="shared" si="100"/>
+        <v>58.125694337309803</v>
       </c>
       <c r="CE32" s="25">
-        <f t="shared" si="99"/>
-        <v>57.013306413831423</v>
+        <f t="shared" si="100"/>
+        <v>56.79766124617192</v>
       </c>
       <c r="CF32" s="25">
-        <f t="shared" si="99"/>
-        <v>55.600416523854008</v>
+        <f t="shared" si="100"/>
+        <v>55.391294593502224</v>
       </c>
       <c r="CG32" s="25">
-        <f t="shared" si="99"/>
-        <v>55.018581539855226</v>
+        <f t="shared" si="100"/>
+        <v>54.819421568060669</v>
       </c>
       <c r="CH32" s="25">
-        <f t="shared" si="99"/>
-        <v>53.046817193419734</v>
+        <f t="shared" si="100"/>
+        <v>52.887553737754857</v>
       </c>
       <c r="CI32" s="25">
-        <f t="shared" si="99"/>
-        <v>51.777878149447794</v>
+        <f t="shared" si="100"/>
+        <v>51.646538649968392</v>
       </c>
       <c r="CJ32" s="25">
-        <f t="shared" si="99"/>
-        <v>51.008838197710133</v>
+        <f t="shared" si="100"/>
+        <v>50.897002844474478</v>
       </c>
       <c r="CK32" s="25">
-        <f t="shared" si="99"/>
-        <v>50.596366520746443</v>
-      </c>
-    </row>
-    <row r="33" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="100"/>
+        <v>50.498109835020628</v>
+      </c>
+    </row>
+    <row r="33" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
@@ -8581,39 +8771,51 @@
         <v>114</v>
       </c>
       <c r="AY33" s="18">
-        <f t="shared" ref="AY33:BD33" si="100">+AX33</f>
+        <f t="shared" ref="AY33:BD33" si="101">+AX33</f>
         <v>114</v>
       </c>
       <c r="AZ33" s="18">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>114</v>
       </c>
       <c r="BA33" s="18">
-        <f t="shared" si="100"/>
-        <v>114</v>
+        <v>114.7</v>
       </c>
       <c r="BB33" s="18">
-        <f t="shared" si="100"/>
-        <v>114</v>
+        <f t="shared" si="101"/>
+        <v>114.7</v>
       </c>
       <c r="BC33" s="18">
-        <f t="shared" si="100"/>
-        <v>114</v>
+        <f t="shared" si="101"/>
+        <v>114.7</v>
       </c>
       <c r="BD33" s="18">
-        <f t="shared" si="100"/>
-        <v>114</v>
+        <f t="shared" si="101"/>
+        <v>114.7</v>
       </c>
       <c r="BE33" s="18">
-        <f>BD33</f>
-        <v>114</v>
+        <v>117.4</v>
       </c>
       <c r="BF33" s="18">
         <f>BE33</f>
-        <v>114</v>
-      </c>
-      <c r="BG33" s="18"/>
-      <c r="BH33" s="18"/>
+        <v>117.4</v>
+      </c>
+      <c r="BG33" s="18">
+        <f>+BF33</f>
+        <v>117.4</v>
+      </c>
+      <c r="BH33" s="18">
+        <f t="shared" ref="BH33:BJ33" si="102">+BG33</f>
+        <v>117.4</v>
+      </c>
+      <c r="BI33" s="18">
+        <f t="shared" si="102"/>
+        <v>117.4</v>
+      </c>
+      <c r="BJ33" s="18">
+        <f t="shared" si="102"/>
+        <v>117.4</v>
+      </c>
       <c r="BL33" s="1">
         <v>82.926000000000002</v>
       </c>
@@ -8646,58 +8848,58 @@
       </c>
       <c r="BY33" s="1">
         <f>AVERAGE(AY33:BB33)</f>
-        <v>114</v>
+        <v>114.35</v>
       </c>
       <c r="BZ33" s="1">
-        <f>BY33</f>
-        <v>114</v>
+        <f>AVERAGE(BC33:BF33)</f>
+        <v>116.05000000000001</v>
       </c>
       <c r="CA33" s="1">
         <f>BZ33</f>
-        <v>114</v>
+        <v>116.05000000000001</v>
       </c>
       <c r="CB33" s="1">
-        <f t="shared" ref="CB33:CK33" si="101">CA33</f>
-        <v>114</v>
+        <f t="shared" ref="CB33:CK33" si="103">CA33</f>
+        <v>116.05000000000001</v>
       </c>
       <c r="CC33" s="1">
-        <f t="shared" si="101"/>
-        <v>114</v>
+        <f t="shared" si="103"/>
+        <v>116.05000000000001</v>
       </c>
       <c r="CD33" s="1">
-        <f t="shared" si="101"/>
-        <v>114</v>
+        <f t="shared" si="103"/>
+        <v>116.05000000000001</v>
       </c>
       <c r="CE33" s="1">
-        <f t="shared" si="101"/>
-        <v>114</v>
+        <f t="shared" si="103"/>
+        <v>116.05000000000001</v>
       </c>
       <c r="CF33" s="1">
-        <f t="shared" si="101"/>
-        <v>114</v>
+        <f t="shared" si="103"/>
+        <v>116.05000000000001</v>
       </c>
       <c r="CG33" s="1">
-        <f t="shared" si="101"/>
-        <v>114</v>
+        <f t="shared" si="103"/>
+        <v>116.05000000000001</v>
       </c>
       <c r="CH33" s="1">
-        <f t="shared" si="101"/>
-        <v>114</v>
+        <f t="shared" si="103"/>
+        <v>116.05000000000001</v>
       </c>
       <c r="CI33" s="1">
-        <f t="shared" si="101"/>
-        <v>114</v>
+        <f t="shared" si="103"/>
+        <v>116.05000000000001</v>
       </c>
       <c r="CJ33" s="1">
-        <f t="shared" si="101"/>
-        <v>114</v>
+        <f t="shared" si="103"/>
+        <v>116.05000000000001</v>
       </c>
       <c r="CK33" s="1">
-        <f t="shared" si="101"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="2:91" s="52" customFormat="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="103"/>
+        <v>116.05000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:91" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="20" t="s">
         <v>249</v>
       </c>
@@ -8742,23 +8944,23 @@
       <c r="AO35" s="50"/>
       <c r="AP35" s="50"/>
       <c r="AQ35" s="51">
-        <f t="shared" ref="AQ35" si="102">AQ21/AM21-1</f>
+        <f t="shared" ref="AQ35" si="104">AQ21/AM21-1</f>
         <v>0.38354665791488918</v>
       </c>
       <c r="AR35" s="51">
-        <f t="shared" ref="AR35" si="103">AR21/AN21-1</f>
+        <f t="shared" ref="AR35" si="105">AR21/AN21-1</f>
         <v>1.6321262101111507</v>
       </c>
       <c r="AS35" s="51">
-        <f t="shared" ref="AS35:AU35" si="104">AS21/AO21-1</f>
+        <f t="shared" ref="AS35:AU35" si="106">AS21/AO21-1</f>
         <v>0.50531868515127765</v>
       </c>
       <c r="AT35" s="51">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>1.153106926990477</v>
       </c>
       <c r="AU35" s="51">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>0.17241242982525495</v>
       </c>
       <c r="AV35" s="51">
@@ -8766,7 +8968,7 @@
         <v>-0.44412010819857162</v>
       </c>
       <c r="AW35" s="51">
-        <f t="shared" ref="AW35" si="105">AW21/AS21-1</f>
+        <f t="shared" ref="AW35" si="107">AW21/AS21-1</f>
         <v>-0.14958440730979761</v>
       </c>
       <c r="AX35" s="51">
@@ -8774,47 +8976,65 @@
         <v>-0.31049177017065521</v>
       </c>
       <c r="AY35" s="51">
-        <f t="shared" ref="AY35" si="106">AY21/AU21-1</f>
+        <f t="shared" ref="AY35" si="108">AY21/AU21-1</f>
         <v>6.626201315123903E-2</v>
       </c>
       <c r="AZ35" s="51">
-        <f t="shared" ref="AZ35" si="107">AZ21/AV21-1</f>
+        <f t="shared" ref="AZ35" si="109">AZ21/AV21-1</f>
         <v>0.10554874846840545</v>
       </c>
       <c r="BA35" s="51">
-        <f t="shared" ref="BA35" si="108">BA21/AW21-1</f>
-        <v>0.14428722244925751</v>
+        <f t="shared" ref="BA35" si="110">BA21/AW21-1</f>
+        <v>0.14527993461381272</v>
       </c>
       <c r="BB35" s="51">
-        <f t="shared" ref="BB35:BF35" si="109">BB21/AX21-1</f>
-        <v>-5.2137459359713478E-3</v>
+        <f t="shared" ref="BB35:BJ35" si="111">BB21/AX21-1</f>
+        <v>5.8287689288538669E-3</v>
       </c>
       <c r="BC35" s="51">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>-5.3763440860215006E-3</v>
       </c>
       <c r="BD35" s="51">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0.12317922735908793</v>
       </c>
       <c r="BE35" s="51">
-        <f t="shared" si="109"/>
-        <v>1.5981440945690206E-2</v>
+        <f t="shared" si="111"/>
+        <v>0.10615521855486176</v>
       </c>
       <c r="BF35" s="51">
-        <f t="shared" si="109"/>
-        <v>6.5278175166959107E-2</v>
-      </c>
-      <c r="BG35" s="51"/>
-      <c r="BH35" s="51"/>
-      <c r="CL35" s="57" t="s">
+        <f t="shared" si="111"/>
+        <v>0.10337798485730931</v>
+      </c>
+      <c r="BG35" s="51">
+        <f t="shared" si="111"/>
+        <v>-1</v>
+      </c>
+      <c r="BH35" s="51">
+        <f t="shared" si="111"/>
+        <v>-1</v>
+      </c>
+      <c r="BI35" s="51">
+        <f t="shared" si="111"/>
+        <v>-1</v>
+      </c>
+      <c r="BJ35" s="51">
+        <f t="shared" si="111"/>
+        <v>-1</v>
+      </c>
+      <c r="BZ35" s="58">
+        <f>+BZ21/BY21-1</f>
+        <v>8.2640847754821944E-2</v>
+      </c>
+      <c r="CL35" t="s">
         <v>374</v>
       </c>
-      <c r="CM35" s="58">
+      <c r="CM35" s="57">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="36" spans="2:91" s="52" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:91" s="52" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="20" t="s">
         <v>257</v>
       </c>
@@ -8859,11 +9079,11 @@
       <c r="AO36" s="50"/>
       <c r="AP36" s="50"/>
       <c r="AQ36" s="49">
-        <f t="shared" ref="AQ36" si="110">+AQ3/AM3-1</f>
+        <f t="shared" ref="AQ36" si="112">+AQ3/AM3-1</f>
         <v>0.14931740614334466</v>
       </c>
       <c r="AR36" s="49">
-        <f t="shared" ref="AR36" si="111">+AR3/AN3-1</f>
+        <f t="shared" ref="AR36" si="113">+AR3/AN3-1</f>
         <v>0.2791741472172351</v>
       </c>
       <c r="AS36" s="49">
@@ -8871,19 +9091,19 @@
         <v>0.11760242792109254</v>
       </c>
       <c r="AT36" s="49">
-        <f t="shared" ref="AT36:BD36" si="112">+AT3/AP3-1</f>
+        <f t="shared" ref="AT36:BD36" si="114">+AT3/AP3-1</f>
         <v>0.15189873417721511</v>
       </c>
       <c r="AU36" s="49">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0.12694877505567925</v>
       </c>
       <c r="AV36" s="49">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0.13754385964912275</v>
       </c>
       <c r="AW36" s="49">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0.10590631364562109</v>
       </c>
       <c r="AX36" s="49">
@@ -8891,50 +9111,74 @@
         <v>-3.2967032967032961E-2</v>
       </c>
       <c r="AY36" s="49">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>-5.5335968379446654E-2</v>
       </c>
       <c r="AZ36" s="49">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>-7.464528069093157E-2</v>
       </c>
       <c r="BA36" s="49">
-        <f t="shared" si="112"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="114"/>
+        <v>-0.11111111111111116</v>
       </c>
       <c r="BB36" s="49">
-        <f t="shared" si="112"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="114"/>
+        <v>-0.10561497326203206</v>
       </c>
       <c r="BC36" s="49">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>-0.1617852161785216</v>
       </c>
       <c r="BD36" s="49">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>-0.17933333333333334</v>
       </c>
-      <c r="BE36" s="49"/>
-      <c r="BF36" s="49"/>
-      <c r="BG36" s="49"/>
-      <c r="BH36" s="49"/>
-      <c r="CL36" s="57" t="s">
+      <c r="BE36" s="49">
+        <f t="shared" ref="BE36" si="115">+BE3/BA3-1</f>
+        <v>-0.20925414364640882</v>
+      </c>
+      <c r="BF36" s="49">
+        <f t="shared" ref="BF36" si="116">+BF3/BB3-1</f>
+        <v>-0.11061285500747386</v>
+      </c>
+      <c r="BG36" s="49">
+        <f t="shared" ref="BG36" si="117">+BG3/BC3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="BH36" s="49">
+        <f t="shared" ref="BH36" si="118">+BH3/BD3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="BI36" s="49">
+        <f t="shared" ref="BI36" si="119">+BI3/BE3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="BJ36" s="49">
+        <f t="shared" ref="BJ36" si="120">+BJ3/BF3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="BZ36" s="58">
+        <f>SUM(BZ3:BZ4)/SUM(BY3:BY4)-1</f>
+        <v>1.4101257220523244E-2</v>
+      </c>
+      <c r="CL36" t="s">
         <v>375</v>
       </c>
-      <c r="CM36" s="58">
+      <c r="CM36" s="57">
         <v>0.08</v>
       </c>
     </row>
-    <row r="37" spans="2:91" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>250</v>
       </c>
       <c r="AQ37" s="49">
-        <f t="shared" ref="AQ37" si="113">AQ10/AM10-1</f>
+        <f t="shared" ref="AQ37" si="121">AQ10/AM10-1</f>
         <v>0.47752126366950209</v>
       </c>
       <c r="AR37" s="49">
-        <f t="shared" ref="AR37" si="114">AR10/AN10-1</f>
+        <f t="shared" ref="AR37" si="122">AR10/AN10-1</f>
         <v>0.6265328874024525</v>
       </c>
       <c r="AS37" s="49">
@@ -8942,19 +9186,19 @@
         <v>0.64675912821964343</v>
       </c>
       <c r="AT37" s="49">
-        <f t="shared" ref="AT37:AW37" si="115">AT10/AP10-1</f>
+        <f t="shared" ref="AT37:AW37" si="123">AT10/AP10-1</f>
         <v>0.63323872595395758</v>
       </c>
       <c r="AU37" s="49">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>0.72944078947368385</v>
       </c>
       <c r="AV37" s="49">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>0.54786383367603375</v>
       </c>
       <c r="AW37" s="49">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>0.22275696115503596</v>
       </c>
       <c r="AX37" s="49">
@@ -8962,51 +9206,71 @@
         <v>0.61401815022205053</v>
       </c>
       <c r="AY37" s="49">
-        <f t="shared" ref="AY37" si="116">AY10/AU10-1</f>
+        <f t="shared" ref="AY37" si="124">AY10/AU10-1</f>
         <v>0.26485972420351889</v>
       </c>
       <c r="AZ37" s="49">
-        <f t="shared" ref="AZ37" si="117">AZ10/AV10-1</f>
+        <f t="shared" ref="AZ37" si="125">AZ10/AV10-1</f>
         <v>0.39335793357933579</v>
       </c>
       <c r="BA37" s="49">
-        <f t="shared" ref="BA37" si="118">BA10/AW10-1</f>
-        <v>0.19999999999999996</v>
+        <f t="shared" ref="BA37" si="126">BA10/AW10-1</f>
+        <v>0.4970480742198482</v>
       </c>
       <c r="BB37" s="49">
-        <f t="shared" ref="BB37:BD37" si="119">BB10/AX10-1</f>
-        <v>0.19999999999999996</v>
+        <f t="shared" ref="BB37:BD37" si="127">BB10/AX10-1</f>
+        <v>0.18794114128484263</v>
       </c>
       <c r="BC37" s="49">
-        <f t="shared" si="119"/>
+        <f t="shared" si="127"/>
         <v>0.14035087719298245</v>
       </c>
       <c r="BD37" s="49">
-        <f t="shared" si="119"/>
+        <f t="shared" si="127"/>
         <v>0.21398305084745761</v>
       </c>
-      <c r="BE37" s="49"/>
-      <c r="BF37" s="49"/>
-      <c r="BG37" s="49"/>
-      <c r="BH37" s="49"/>
+      <c r="BE37" s="49">
+        <f t="shared" ref="BE37" si="128">BE10/BA10-1</f>
+        <v>0.18591549295774645</v>
+      </c>
+      <c r="BF37" s="49">
+        <f t="shared" ref="BF37" si="129">BF10/BB10-1</f>
+        <v>0.22155085599194368</v>
+      </c>
+      <c r="BG37" s="49">
+        <f t="shared" ref="BG37" si="130">BG10/BC10-1</f>
+        <v>-1</v>
+      </c>
+      <c r="BH37" s="49">
+        <f t="shared" ref="BH37" si="131">BH10/BD10-1</f>
+        <v>-1</v>
+      </c>
+      <c r="BI37" s="49">
+        <f t="shared" ref="BI37" si="132">BI10/BE10-1</f>
+        <v>-1</v>
+      </c>
+      <c r="BJ37" s="49">
+        <f t="shared" ref="BJ37" si="133">BJ10/BF10-1</f>
+        <v>-1</v>
+      </c>
       <c r="CL37" t="s">
         <v>376</v>
       </c>
       <c r="CM37" s="1">
         <f>NPV(8%,CA31:DZ31)+Main!J5-Main!J6</f>
-        <v>83966.327859398283</v>
-      </c>
-    </row>
-    <row r="38" spans="2:91" x14ac:dyDescent="0.15">
+        <v>84908.467428457341</v>
+      </c>
+    </row>
+    <row r="38" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>251</v>
       </c>
       <c r="AQ38" s="49">
-        <f t="shared" ref="AQ38" si="120">AQ14/AM14-1</f>
+        <f t="shared" ref="AQ38" si="134">AQ14/AM14-1</f>
         <v>0.47707602339181299</v>
       </c>
       <c r="AR38" s="49">
-        <f t="shared" ref="AR38" si="121">AR14/AN14-1</f>
+        <f t="shared" ref="AR38" si="135">AR14/AN14-1</f>
         <v>0.58624338624338623</v>
       </c>
       <c r="AS38" s="49">
@@ -9014,19 +9278,19 @@
         <v>0.55034495618124213</v>
       </c>
       <c r="AT38" s="49">
-        <f t="shared" ref="AT38:AW38" si="122">AT14/AP14-1</f>
+        <f t="shared" ref="AT38:AW38" si="136">AT14/AP14-1</f>
         <v>0.51348122866894186</v>
       </c>
       <c r="AU38" s="49">
-        <f t="shared" si="122"/>
+        <f t="shared" si="136"/>
         <v>0.43352601156069359</v>
       </c>
       <c r="AV38" s="49">
-        <f t="shared" si="122"/>
+        <f t="shared" si="136"/>
         <v>0.39546364242828558</v>
       </c>
       <c r="AW38" s="49">
-        <f t="shared" si="122"/>
+        <f t="shared" si="136"/>
         <v>0.40122677250586314</v>
       </c>
       <c r="AX38" s="49">
@@ -9034,72 +9298,108 @@
         <v>0.38059533205547424</v>
       </c>
       <c r="AY38" s="49">
-        <f t="shared" ref="AY38" si="123">AY14/AU14-1</f>
+        <f t="shared" ref="AY38" si="137">AY14/AU14-1</f>
+        <v>0.37262483429076432</v>
+      </c>
+      <c r="AZ38" s="49">
+        <f t="shared" ref="AZ38" si="138">AZ14/AV14-1</f>
+        <v>0.33349268572521273</v>
+      </c>
+      <c r="BA38" s="49">
+        <f t="shared" ref="BA38" si="139">BA14/AW14-1</f>
+        <v>0.32938500493541056</v>
+      </c>
+      <c r="BB38" s="49">
+        <f t="shared" ref="BB38:BD38" si="140">BB14/AX14-1</f>
+        <v>0.31328351504757235</v>
+      </c>
+      <c r="BC38" s="49">
+        <f t="shared" si="140"/>
+        <v>0.23814889336016098</v>
+      </c>
+      <c r="BD38" s="49">
+        <f t="shared" si="140"/>
+        <v>0.2749695274969528</v>
+      </c>
+      <c r="BE38" s="49">
+        <f t="shared" ref="BE38" si="141">BE14/BA14-1</f>
+        <v>0.23230888429752072</v>
+      </c>
+      <c r="BF38" s="49">
+        <f t="shared" ref="BF38" si="142">BF14/BB14-1</f>
+        <v>0.14971549392120886</v>
+      </c>
+      <c r="BG38" s="49">
+        <f t="shared" ref="BG38" si="143">BG14/BC14-1</f>
         <v>-1</v>
       </c>
-      <c r="AZ38" s="49">
-        <f t="shared" ref="AZ38" si="124">AZ14/AV14-1</f>
-        <v>0.33349268572521273</v>
-      </c>
-      <c r="BA38" s="49">
-        <f t="shared" ref="BA38" si="125">BA14/AW14-1</f>
+      <c r="BH38" s="49">
+        <f t="shared" ref="BH38" si="144">BH14/BD14-1</f>
         <v>-1</v>
       </c>
-      <c r="BB38" s="49">
-        <f t="shared" ref="BB38:BD38" si="126">BB14/AX14-1</f>
+      <c r="BI38" s="49">
+        <f t="shared" ref="BI38" si="145">BI14/BE14-1</f>
         <v>-1</v>
       </c>
-      <c r="BC38" s="49" t="e">
-        <f t="shared" si="126"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="BD38" s="49">
-        <f t="shared" si="126"/>
-        <v>0.2749695274969528</v>
-      </c>
-      <c r="BE38" s="49"/>
-      <c r="BF38" s="49"/>
-      <c r="BG38" s="49"/>
-      <c r="BH38" s="49"/>
-    </row>
-    <row r="40" spans="2:91" x14ac:dyDescent="0.15">
+      <c r="BJ38" s="49">
+        <f t="shared" ref="BJ38" si="146">BJ14/BF14-1</f>
+        <v>-1</v>
+      </c>
+      <c r="BW38" s="57">
+        <f t="shared" ref="BW38:BZ38" si="147">+BW14/BV14-1</f>
+        <v>0.53256193443109345</v>
+      </c>
+      <c r="BX38" s="57">
+        <f t="shared" si="147"/>
+        <v>0.40050979253379793</v>
+      </c>
+      <c r="BY38" s="57">
+        <f t="shared" si="147"/>
+        <v>0.33485002073446068</v>
+      </c>
+      <c r="BZ38" s="57">
+        <f>+BZ14/BY14-1</f>
+        <v>0.22090765526704126</v>
+      </c>
+    </row>
+    <row r="40" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>223</v>
       </c>
       <c r="AM40" s="49">
-        <f t="shared" ref="AM40" si="127">+AM23/AM21</f>
+        <f t="shared" ref="AM40" si="148">+AM23/AM21</f>
         <v>0.88113991904605626</v>
       </c>
       <c r="AN40" s="49">
-        <f t="shared" ref="AN40:AU40" si="128">+AN23/AN21</f>
+        <f t="shared" ref="AN40:AU40" si="149">+AN23/AN21</f>
         <v>0.863648004917277</v>
       </c>
       <c r="AO40" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="149"/>
         <v>0.94681314848722642</v>
       </c>
       <c r="AP40" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="149"/>
         <v>0.85237204852806892</v>
       </c>
       <c r="AQ40" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="149"/>
         <v>0.87823199177670597</v>
       </c>
       <c r="AR40" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="149"/>
         <v>0.86500476774281432</v>
       </c>
       <c r="AS40" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="149"/>
         <v>0.93512699470010718</v>
       </c>
       <c r="AT40" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="149"/>
         <v>0.85259012420478653</v>
       </c>
       <c r="AU40" s="49">
-        <f t="shared" si="128"/>
+        <f t="shared" si="149"/>
         <v>0.86346315966953291</v>
       </c>
       <c r="AV40" s="49">
@@ -9107,35 +9407,35 @@
         <v>0.89599159810957474</v>
       </c>
       <c r="AW40" s="49">
-        <f t="shared" ref="AW40" si="129">+AW23/AW21</f>
+        <f t="shared" ref="AW40" si="150">+AW23/AW21</f>
         <v>0.96287971665985561</v>
       </c>
       <c r="AX40" s="49">
-        <f t="shared" ref="AX40:BD40" si="130">+AX23/AX21</f>
+        <f t="shared" ref="AX40:BD40" si="151">+AX23/AX21</f>
         <v>0.88658797340441109</v>
       </c>
       <c r="AY40" s="49">
-        <f t="shared" si="130"/>
+        <f t="shared" si="151"/>
         <v>0.94686907020872868</v>
       </c>
       <c r="AZ40" s="49">
-        <f t="shared" si="130"/>
+        <f t="shared" si="151"/>
         <v>0.94838505383153893</v>
       </c>
       <c r="BA40" s="49">
-        <f t="shared" si="130"/>
-        <v>0.9</v>
+        <f t="shared" si="151"/>
+        <v>0.94623847754980661</v>
       </c>
       <c r="BB40" s="49">
-        <f t="shared" si="130"/>
-        <v>0.9</v>
+        <f t="shared" si="151"/>
+        <v>0.92457775189283631</v>
       </c>
       <c r="BC40" s="49">
-        <f t="shared" si="130"/>
+        <f t="shared" si="151"/>
         <v>0.93767885532591411</v>
       </c>
       <c r="BD40" s="49">
-        <f t="shared" si="130"/>
+        <f t="shared" si="151"/>
         <v>0.93966732449957713</v>
       </c>
       <c r="BE40" s="49"/>
@@ -9143,7 +9443,7 @@
       <c r="BG40" s="49"/>
       <c r="BH40" s="49"/>
     </row>
-    <row r="47" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>33</v>
       </c>
@@ -9202,7 +9502,7 @@
         <v>17531</v>
       </c>
     </row>
-    <row r="48" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>313</v>
       </c>
@@ -9257,7 +9557,7 @@
         <v>5328.7</v>
       </c>
     </row>
-    <row r="49" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>314</v>
       </c>
@@ -9312,7 +9612,7 @@
         <v>2401.9</v>
       </c>
     </row>
-    <row r="50" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>315</v>
       </c>
@@ -9367,7 +9667,7 @@
         <v>411.2</v>
       </c>
     </row>
-    <row r="51" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>316</v>
       </c>
@@ -9422,7 +9722,7 @@
         <v>3763</v>
       </c>
     </row>
-    <row r="52" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>317</v>
       </c>
@@ -9477,7 +9777,7 @@
         <v>915.5</v>
       </c>
     </row>
-    <row r="53" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>230</v>
       </c>
@@ -9532,7 +9832,7 @@
         <v>1723.7</v>
       </c>
     </row>
-    <row r="54" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>318</v>
       </c>
@@ -9587,7 +9887,7 @@
         <v>336.4</v>
       </c>
     </row>
-    <row r="55" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:56" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>319</v>
       </c>
@@ -9643,10 +9943,10 @@
         <v>29214.500000000004</v>
       </c>
     </row>
-    <row r="56" spans="2:56" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:56" x14ac:dyDescent="0.2">
       <c r="BD56" s="1"/>
     </row>
-    <row r="57" spans="2:56" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>320</v>
       </c>
@@ -9655,7 +9955,7 @@
       </c>
       <c r="BD57" s="1"/>
     </row>
-    <row r="58" spans="2:56" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>321</v>
       </c>
@@ -9664,7 +9964,7 @@
       </c>
       <c r="BD58" s="1"/>
     </row>
-    <row r="59" spans="2:56" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>322</v>
       </c>
@@ -9674,7 +9974,7 @@
       </c>
       <c r="BD59" s="1"/>
     </row>
-    <row r="60" spans="2:56" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>29</v>
       </c>
@@ -9685,7 +9985,7 @@
         <v>1983.6</v>
       </c>
     </row>
-    <row r="61" spans="2:56" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>323</v>
       </c>
@@ -9694,7 +9994,7 @@
       </c>
       <c r="BD61" s="1"/>
     </row>
-    <row r="62" spans="2:56" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>326</v>
       </c>
@@ -9702,7 +10002,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="63" spans="2:56" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>325</v>
       </c>
@@ -9710,7 +10010,7 @@
         <v>22664</v>
       </c>
     </row>
-    <row r="64" spans="2:56" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:56" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>324</v>
       </c>
@@ -9735,19 +10035,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="12"/>
+    <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -9755,7 +10055,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -9763,7 +10063,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -9771,7 +10071,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -9779,32 +10079,32 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="13" t="s">
         <v>198</v>
       </c>
@@ -9819,39 +10119,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D28E7-A294-46A1-850A-3A0B8CF7E06D}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="9.1640625" style="2"/>
-    <col min="7" max="7" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="2"/>
-    <col min="9" max="9" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="13.140625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -9859,7 +10157,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
@@ -9867,7 +10165,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>48</v>
       </c>
@@ -9875,7 +10173,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -9883,7 +10181,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
@@ -9891,7 +10189,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>134</v>
       </c>
@@ -9899,7 +10197,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>66</v>
       </c>
@@ -9907,447 +10205,415 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C12" s="2" t="s">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C13" s="2" t="s">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C14" s="2" t="s">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C15" s="2" t="s">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C16" s="2" t="s">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C17" s="2" t="s">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E22" s="11">
         <v>0.93</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H22" s="9">
         <v>304</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I22" s="9">
         <v>304</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J22" s="9">
         <v>301</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K22" s="9">
         <v>301</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C18" s="2" t="s">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E23" s="11">
         <v>0.96</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H23" s="9">
         <v>78</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I23" s="9">
         <v>78</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J23" s="9">
         <v>78</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K23" s="9">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C19" s="2" t="s">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C24" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E24" s="11">
         <v>0.91</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H24" s="9">
         <v>57</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I24" s="9">
         <v>64</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J24" s="9">
         <v>56</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K24" s="9">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C20" s="2" t="s">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E25" s="11">
         <v>0.91</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H25" s="9">
         <v>54</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I25" s="9">
         <v>55</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J25" s="9">
         <v>56</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K25" s="9">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G21" s="4" t="s">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G26" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H26" s="10">
         <v>0.94</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I26" s="10">
         <v>0.95</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J26" s="10">
         <v>0.96</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K26" s="10">
         <v>0.96</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G22" s="4" t="s">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H27" s="9">
         <v>8.1</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I27" s="9">
         <v>10.9</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J27" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K27" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G23" s="4" t="s">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H28" s="9">
         <v>31</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I28" s="9">
         <v>38</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J28" s="9">
         <v>25</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K28" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C25" s="5" t="s">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C30" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C26" s="2" t="s">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C31" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C27" s="2" t="s">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C28" s="2" t="s">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C29" s="2" t="s">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C30" s="2" t="s">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C31" s="2" t="s">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E36" s="11">
         <v>0.91</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C32" s="2" t="s">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E37" s="11">
         <v>0.9</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H37" s="9">
         <v>291</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I37" s="9">
         <v>309</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J37" s="9">
         <v>296</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K37" s="9">
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C33" s="2" t="s">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E38" s="11">
         <v>0.88</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H38" s="9">
         <v>73</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I38" s="9">
         <v>74</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J38" s="9">
         <v>75</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K38" s="9">
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C34" s="2" t="s">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E39" s="11">
         <v>0.91</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H39" s="9">
         <v>58</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I39" s="9">
         <v>57</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J39" s="9">
         <v>50</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K39" s="9">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G35" s="2" t="s">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H40" s="9">
         <v>54</v>
       </c>
-      <c r="I35" s="9">
+      <c r="I40" s="9">
         <v>53</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J40" s="9">
         <v>52</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K40" s="9">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G36" s="4" t="s">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G41" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H41" s="10">
         <v>0.94</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I41" s="10">
         <v>0.95</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J41" s="10">
         <v>0.96</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K41" s="10">
         <v>0.96</v>
       </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G37" s="4" t="s">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G42" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H42" s="9">
         <v>9.4</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I42" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J42" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K42" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G38" s="4" t="s">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G43" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H43" s="9">
         <v>34</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I43" s="9">
         <v>29</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J43" s="9">
         <v>35</v>
       </c>
-      <c r="K38" s="9">
+      <c r="K43" s="9">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="G39" s="4"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C40" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="G44" s="4"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C45" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="9"/>
@@ -10355,9 +10621,9 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="9"/>
@@ -10365,9 +10631,9 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="9"/>
@@ -10375,9 +10641,9 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="9"/>
@@ -10385,19 +10651,16 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C49" s="2" t="s">
-        <v>96</v>
-      </c>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="G49" s="4"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C50" s="2" t="s">
-        <v>95</v>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C50" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="9"/>
@@ -10405,9 +10668,9 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="9"/>
@@ -10415,9 +10678,9 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="9"/>
@@ -10425,9 +10688,9 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="9"/>
@@ -10435,9 +10698,9 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="9"/>
@@ -10445,58 +10708,108 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C56" s="5" t="s">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C61" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C57" s="2" t="s">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C62" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C59" s="5" t="s">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C64" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C60" s="2" t="s">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C61" s="2" t="s">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C66" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C62" s="2" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C64" s="2" t="s">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C69" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C65" s="2" t="s">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C66" s="2" t="s">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C67" s="2" t="s">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C72" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C68" s="2" t="s">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -10516,21 +10829,21 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="2"/>
-    <col min="5" max="5" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
@@ -10538,7 +10851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -10546,7 +10859,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
@@ -10554,12 +10867,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
@@ -10567,83 +10880,83 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C13" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D19" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D23" s="2" t="s">
         <v>56</v>
       </c>
@@ -10654,7 +10967,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
         <v>53</v>
       </c>
@@ -10668,17 +10981,17 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
         <v>50</v>
       </c>
@@ -10699,16 +11012,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="12"/>
-    <col min="4" max="4" width="10.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="12"/>
+    <col min="2" max="2" width="17.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="12"/>
+    <col min="4" max="4" width="10.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
@@ -10716,7 +11029,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>78</v>
@@ -10726,7 +11039,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>76</v>
@@ -10736,7 +11049,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>44</v>
@@ -10746,7 +11059,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>48</v>
@@ -10756,7 +11069,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
@@ -10764,7 +11077,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>45</v>
@@ -10774,7 +11087,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>134</v>
@@ -10784,7 +11097,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>66</v>
@@ -10792,12 +11105,12 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="12" t="s">
         <v>152</v>
       </c>
@@ -10805,7 +11118,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" s="12" t="s">
         <v>150</v>
       </c>
@@ -10819,7 +11132,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
         <v>117</v>
       </c>
@@ -10836,7 +11149,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>146</v>
       </c>
@@ -10853,7 +11166,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>145</v>
       </c>
@@ -10870,7 +11183,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>144</v>
       </c>
@@ -10887,27 +11200,27 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C19" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C20" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="13" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24" s="12" t="s">
         <v>139</v>
       </c>
@@ -10928,19 +11241,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>78</v>
       </c>
@@ -10948,7 +11261,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>76</v>
       </c>
@@ -10956,7 +11269,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
@@ -10964,7 +11277,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>44</v>
       </c>
@@ -10972,7 +11285,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>45</v>
       </c>
@@ -10980,83 +11293,83 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="15" t="s">
         <v>157</v>
       </c>
@@ -11076,19 +11389,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="12"/>
+    <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -11096,7 +11409,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -11104,7 +11417,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -11112,7 +11425,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -11120,7 +11433,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
@@ -11128,7 +11441,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
@@ -11136,7 +11449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
@@ -11144,52 +11457,52 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="12" t="s">
         <v>176</v>
       </c>
@@ -11208,19 +11521,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="12"/>
+    <col min="2" max="2" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>78</v>
       </c>
@@ -11228,7 +11541,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>76</v>
       </c>
@@ -11236,7 +11549,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>44</v>
       </c>
@@ -11244,7 +11557,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>48</v>
       </c>
@@ -11252,7 +11565,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>46</v>
       </c>
@@ -11260,7 +11573,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>45</v>
       </c>
@@ -11268,32 +11581,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="13" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="12" t="s">
         <v>190</v>
       </c>

--- a/REGN.xlsx
+++ b/REGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE74D17-A193-48B6-B0AB-2A699F98C25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E3B2B1-C486-4B96-A40C-5ABCB0FA2164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50415" yWindow="2565" windowWidth="21810" windowHeight="17145" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
+    <workbookView xWindow="-50745" yWindow="1200" windowWidth="21720" windowHeight="17280" activeTab="2" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="486">
   <si>
     <t>Nov. 11:  Eylea approved. Priced at $1,700/injection.</t>
   </si>
@@ -866,9 +866,6 @@
     <t>Phase 2 in eosinophilic asthma</t>
   </si>
   <si>
-    <t>IR-4R antibody</t>
-  </si>
-  <si>
     <t>Dupixent, fka REGN668</t>
   </si>
   <si>
@@ -1734,6 +1731,15 @@
   </si>
   <si>
     <t>1H25 results</t>
+  </si>
+  <si>
+    <t>IL-4R subunit antibody</t>
+  </si>
+  <si>
+    <t>Type II receptor: IL-4Ralpha + IL-13Ralpha1</t>
+  </si>
+  <si>
+    <t>Type I receptor: IL-4Ralpha + common gamma chain</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1986,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
@@ -2104,32 +2110,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2587,7 +2579,7 @@
   <dimension ref="B2:K54"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2649,12 +2641,12 @@
         <v>115.4</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>30</v>
@@ -2663,10 +2655,10 @@
         <v>40865</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G4" s="46"/>
       <c r="I4" t="s">
@@ -2680,19 +2672,19 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D5" s="52">
         <v>41124</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G5" s="31"/>
       <c r="I5" t="s">
@@ -2702,24 +2694,24 @@
         <v>17531</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>254</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>255</v>
       </c>
       <c r="D6" s="52">
         <v>42209</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G6" s="46"/>
       <c r="I6" t="s">
@@ -2729,7 +2721,7 @@
         <v>1984</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -2737,16 +2729,16 @@
         <v>33</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="52">
         <v>42822</v>
       </c>
       <c r="E7" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="30" t="s">
         <v>234</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>235</v>
       </c>
       <c r="G7" s="31"/>
       <c r="I7" s="34" t="s">
@@ -2759,7 +2751,7 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="29" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>25</v>
@@ -2768,10 +2760,10 @@
         <v>42969</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G8" s="46"/>
       <c r="I8" s="34"/>
@@ -2779,30 +2771,30 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D9" s="52">
         <v>43371</v>
       </c>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G9" s="31"/>
       <c r="I9" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D10" s="52">
         <v>45156</v>
@@ -2811,20 +2803,20 @@
         <v>1</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="31"/>
       <c r="I10" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D11" s="52">
         <v>44238</v>
@@ -2833,11 +2825,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="34" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J11" s="36"/>
     </row>
@@ -2851,323 +2843,323 @@
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="I12" s="34" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" s="25">
         <v>1</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="G13" s="63"/>
+        <v>266</v>
+      </c>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="D14" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="59">
+        <v>1</v>
+      </c>
+      <c r="F14" s="30" t="s">
         <v>276</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="E14" s="64">
-        <v>1</v>
-      </c>
-      <c r="F14" s="62" t="s">
-        <v>277</v>
       </c>
       <c r="G14" s="31"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="58">
+        <v>1</v>
+      </c>
+      <c r="F15" s="30" t="s">
         <v>270</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="E15" s="65">
-        <v>1</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>271</v>
       </c>
       <c r="G15" s="31"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C16" s="62" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="58">
+        <v>1</v>
+      </c>
+      <c r="F16" s="30" t="s">
         <v>388</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="E16" s="65">
-        <v>1</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>389</v>
       </c>
       <c r="G16" s="31"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
-        <v>417</v>
-      </c>
-      <c r="C17" s="62" t="s">
+        <v>416</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="30" t="s">
         <v>283</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>457</v>
-      </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62" t="s">
-        <v>284</v>
       </c>
       <c r="G17" s="31"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="D18" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="30" t="s">
         <v>283</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>457</v>
-      </c>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62" t="s">
-        <v>284</v>
       </c>
       <c r="G18" s="31"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="C19" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="61" t="s">
+      <c r="F19" s="30" t="s">
         <v>289</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>290</v>
       </c>
       <c r="G19" s="31"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="30" t="s">
         <v>293</v>
-      </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62" t="s">
-        <v>294</v>
       </c>
       <c r="G20" s="31"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E21" s="58">
+        <v>1</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>434</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>437</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="E21" s="65">
-        <v>1</v>
-      </c>
-      <c r="F21" s="62" t="s">
-        <v>435</v>
       </c>
       <c r="G21" s="31"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="37" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="D22" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="E22" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="E22" s="61" t="s">
-        <v>393</v>
-      </c>
-      <c r="F22" s="62"/>
+      <c r="F22" s="30"/>
       <c r="G22" s="31"/>
       <c r="I22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" s="58">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30" t="s">
         <v>278</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="E23" s="65">
-        <v>1</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>279</v>
       </c>
       <c r="G23" s="31"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="30" t="s">
         <v>295</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>260</v>
-      </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62" t="s">
-        <v>296</v>
       </c>
       <c r="G24" s="31"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="30" t="s">
         <v>438</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>445</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62" t="s">
-        <v>439</v>
       </c>
       <c r="G25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="30" t="s">
         <v>286</v>
-      </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62" t="s">
-        <v>287</v>
       </c>
       <c r="G26" s="31"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>458</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="30" t="s">
         <v>459</v>
-      </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62" t="s">
-        <v>460</v>
       </c>
       <c r="G27" s="31"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="30" t="s">
         <v>297</v>
-      </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62" t="s">
-        <v>298</v>
       </c>
       <c r="G28" s="31"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="D29" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="30" t="s">
         <v>462</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62" t="s">
-        <v>463</v>
       </c>
       <c r="G29" s="31"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B30" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="30" t="s">
         <v>299</v>
-      </c>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62" t="s">
-        <v>300</v>
       </c>
       <c r="G30" s="31"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B31" s="37" t="s">
+        <v>393</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="D31" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="30" t="s">
         <v>395</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62" t="s">
-        <v>396</v>
       </c>
       <c r="G31" s="31"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B32" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="30" t="s">
         <v>302</v>
-      </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62" t="s">
-        <v>303</v>
       </c>
       <c r="G32" s="31"/>
     </row>
@@ -3193,7 +3185,7 @@
       <c r="D34" s="30"/>
       <c r="E34" s="35"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="61"/>
+      <c r="G34" s="35"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="34"/>
@@ -3422,23 +3414,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3446,7 +3438,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3456,12 +3448,12 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="54" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -3493,15 +3485,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3509,15 +3501,15 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3527,22 +3519,22 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="54" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -3572,15 +3564,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3588,15 +3580,15 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3606,7 +3598,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="54" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -3636,23 +3628,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -3660,7 +3652,7 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3670,22 +3662,22 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="54" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -3715,10 +3707,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3728,15 +3720,15 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3746,17 +3738,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="54" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3788,10 +3780,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3801,15 +3793,15 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3819,17 +3811,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="54" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -4423,7 +4415,7 @@
         <v>77</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4536,11 +4528,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BECB6-C670-4D66-9069-7BDB54779CF7}">
   <dimension ref="A1:DZ69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BF4" sqref="BF4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4559,184 +4551,184 @@
     </row>
     <row r="2" spans="1:98" x14ac:dyDescent="0.2">
       <c r="C2" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>359</v>
-      </c>
       <c r="G2" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="J2" s="14" t="s">
-        <v>355</v>
-      </c>
       <c r="K2" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>351</v>
-      </c>
       <c r="O2" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>347</v>
-      </c>
       <c r="S2" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="T2" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="U2" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="V2" s="14" t="s">
-        <v>343</v>
-      </c>
       <c r="W2" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="X2" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="Y2" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="Z2" s="14" t="s">
-        <v>339</v>
-      </c>
       <c r="AA2" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB2" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AC2" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AD2" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="AD2" s="14" t="s">
-        <v>335</v>
-      </c>
       <c r="AE2" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="AF2" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AG2" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="AG2" s="14" t="s">
+      <c r="AH2" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="AH2" s="14" t="s">
-        <v>331</v>
-      </c>
       <c r="AI2" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="AJ2" s="14" t="s">
+      <c r="AK2" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AL2" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="AL2" s="14" t="s">
-        <v>253</v>
-      </c>
       <c r="AM2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN2" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AO2" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AP2" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="AP2" s="14" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="AQ2" s="14" t="s">
+      <c r="AR2" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AS2" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="AS2" s="14" t="s">
+      <c r="AT2" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="AT2" s="14" t="s">
+      <c r="AU2" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="AU2" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="AV2" s="14" t="s">
         <v>28</v>
       </c>
       <c r="AW2" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX2" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AX2" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="AY2" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ2" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="BA2" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BB2" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="BB2" s="14" t="s">
-        <v>247</v>
-      </c>
       <c r="BC2" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="BD2" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="BD2" s="14" t="s">
+      <c r="BE2" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="BE2" s="14" t="s">
+      <c r="BF2" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="BF2" s="14" t="s">
+      <c r="BG2" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="BG2" s="14" t="s">
+      <c r="BH2" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="BH2" s="14" t="s">
+      <c r="BI2" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="BI2" s="14" t="s">
+      <c r="BJ2" s="14" t="s">
         <v>326</v>
-      </c>
-      <c r="BJ2" s="14" t="s">
-        <v>327</v>
       </c>
       <c r="BL2">
         <v>2010</v>
@@ -5120,7 +5112,7 @@
     </row>
     <row r="4" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -5265,7 +5257,7 @@
     </row>
     <row r="5" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -5458,7 +5450,7 @@
     </row>
     <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -5633,7 +5625,7 @@
     </row>
     <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -5766,7 +5758,7 @@
     </row>
     <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -5941,7 +5933,7 @@
     </row>
     <row r="9" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" s="15">
         <v>4.4000000000000004</v>
@@ -6361,7 +6353,7 @@
     </row>
     <row r="11" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
@@ -6454,7 +6446,7 @@
     </row>
     <row r="12" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -6547,7 +6539,7 @@
     </row>
     <row r="13" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -6650,7 +6642,7 @@
     </row>
     <row r="14" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -6788,7 +6780,7 @@
     </row>
     <row r="15" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -6921,7 +6913,7 @@
     </row>
     <row r="16" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -6983,7 +6975,7 @@
     </row>
     <row r="17" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
@@ -7113,7 +7105,7 @@
     </row>
     <row r="18" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -7173,10 +7165,10 @@
         <v>2226.9</v>
       </c>
       <c r="BT18" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="BU18" s="48" t="s">
         <v>363</v>
-      </c>
-      <c r="BU18" s="48" t="s">
-        <v>364</v>
       </c>
       <c r="BV18" s="48">
         <v>2962</v>
@@ -7184,7 +7176,7 @@
     </row>
     <row r="19" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C19" s="15">
         <v>12.481</v>
@@ -7409,7 +7401,7 @@
     </row>
     <row r="20" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -7526,7 +7518,7 @@
     </row>
     <row r="21" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="15">
         <f t="shared" ref="C21" si="13">7.845+2.122</f>
@@ -7714,7 +7706,7 @@
     </row>
     <row r="22" spans="2:130" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" ref="C22:F22" si="14">+C21+C19+C10+C3+C9</f>
@@ -7997,7 +7989,7 @@
     </row>
     <row r="23" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="15">
         <v>0.38200000000000001</v>
@@ -8180,7 +8172,7 @@
     </row>
     <row r="24" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C24" s="15">
         <f t="shared" ref="C24:F24" si="27">+C22-C23</f>
@@ -8423,7 +8415,7 @@
     </row>
     <row r="25" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C25" s="15">
         <v>129.392</v>
@@ -8590,7 +8582,7 @@
     </row>
     <row r="26" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="15">
         <v>23.411000000000001</v>
@@ -8804,7 +8796,7 @@
     </row>
     <row r="27" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" s="15">
         <f t="shared" ref="C27" si="38">+C26+C25</f>
@@ -9061,7 +9053,7 @@
     </row>
     <row r="28" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C28" s="15">
         <f t="shared" ref="C28" si="49">+C24-C27</f>
@@ -9318,7 +9310,7 @@
     </row>
     <row r="29" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C29" s="15">
         <v>-2.6819999999999999</v>
@@ -9477,7 +9469,7 @@
     </row>
     <row r="30" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C30" s="15">
         <f t="shared" ref="C30:F30" si="63">+C28+C29</f>
@@ -9734,7 +9726,7 @@
     </row>
     <row r="31" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31" s="15">
         <v>-0.216</v>
@@ -9836,7 +9828,7 @@
         <v>127.6</v>
       </c>
       <c r="AY31" s="15">
-        <f t="shared" ref="AY31:BB31" si="73">+AY30*0.15</f>
+        <f t="shared" ref="AY31:BA31" si="73">+AY30*0.15</f>
         <v>227.85</v>
       </c>
       <c r="AZ31" s="15">
@@ -9944,7 +9936,7 @@
     </row>
     <row r="32" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="15">
         <f t="shared" ref="C32" si="79">+C30-C31</f>
@@ -10369,7 +10361,7 @@
     </row>
     <row r="33" spans="2:91" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="55">
         <f t="shared" ref="C33:N33" si="91">+C32/C34</f>
@@ -10860,7 +10852,7 @@
     </row>
     <row r="36" spans="2:91" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -11039,7 +11031,7 @@
         <v>8.2640847754821944E-2</v>
       </c>
       <c r="CL36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="CM36" s="50">
         <v>-0.03</v>
@@ -11047,7 +11039,7 @@
     </row>
     <row r="37" spans="2:91" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
@@ -11223,7 +11215,7 @@
         <v>-0.16643356643356644</v>
       </c>
       <c r="CL37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="CM37" s="50">
         <v>0.08</v>
@@ -11231,7 +11223,7 @@
     </row>
     <row r="38" spans="2:91" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C38" s="43"/>
       <c r="D38" s="43"/>
@@ -11313,7 +11305,7 @@
     </row>
     <row r="39" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AQ39" s="42">
         <f t="shared" ref="AQ39" si="121">AQ10/AM10-1</f>
@@ -11396,7 +11388,7 @@
         <v>-1</v>
       </c>
       <c r="CL39" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CM39" s="1">
         <f>NPV(8%,CA32:DZ32)+Main!J5-Main!J6</f>
@@ -11405,7 +11397,7 @@
     </row>
     <row r="40" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AQ40" s="42">
         <f t="shared" ref="AQ40" si="134">AQ14/AM14-1</f>
@@ -11506,7 +11498,7 @@
     </row>
     <row r="41" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AQ41" s="42"/>
       <c r="AR41" s="42"/>
@@ -11538,7 +11530,7 @@
     </row>
     <row r="43" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM43" s="42">
         <f t="shared" ref="AM43" si="148">+AM24/AM22</f>
@@ -11625,7 +11617,7 @@
     </row>
     <row r="45" spans="2:91" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BF45" s="1">
         <f>+BF46-BF59</f>
@@ -11699,7 +11691,7 @@
     </row>
     <row r="47" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -11760,7 +11752,7 @@
     </row>
     <row r="48" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
@@ -11821,7 +11813,7 @@
     </row>
     <row r="49" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -11882,7 +11874,7 @@
     </row>
     <row r="50" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
@@ -11943,7 +11935,7 @@
     </row>
     <row r="51" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
@@ -12004,7 +11996,7 @@
     </row>
     <row r="52" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -12065,7 +12057,7 @@
     </row>
     <row r="53" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
@@ -12126,7 +12118,7 @@
     </row>
     <row r="54" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
@@ -12193,7 +12185,7 @@
     </row>
     <row r="56" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AX56" s="15">
         <v>589.20000000000005</v>
@@ -12208,7 +12200,7 @@
     </row>
     <row r="57" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AX57" s="15">
         <v>2074.1999999999998</v>
@@ -12223,7 +12215,7 @@
     </row>
     <row r="58" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AX58" s="15">
         <f>477.9+69.8</f>
@@ -12256,7 +12248,7 @@
     </row>
     <row r="60" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AX60" s="15">
         <v>720</v>
@@ -12271,7 +12263,7 @@
     </row>
     <row r="61" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AX61" s="15">
         <v>638</v>
@@ -12285,7 +12277,7 @@
     </row>
     <row r="62" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AX62" s="15">
         <v>22664</v>
@@ -12299,7 +12291,7 @@
     </row>
     <row r="63" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AX63" s="15">
         <f>SUM(AX56:AX62)</f>
@@ -12323,7 +12315,7 @@
     </row>
     <row r="65" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BL65">
         <v>32.79</v>
@@ -12373,7 +12365,7 @@
     </row>
     <row r="66" spans="2:78" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C66" s="43"/>
       <c r="D66" s="43"/>
@@ -12547,7 +12539,7 @@
     </row>
     <row r="69" spans="2:78" s="45" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C69" s="43"/>
       <c r="D69" s="43"/>
@@ -12683,18 +12675,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" t="s">
         <v>379</v>
-      </c>
-      <c r="C3" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -12702,20 +12694,20 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -12725,17 +12717,17 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="54" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -12769,7 +12761,7 @@
         <v>77</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -12806,10 +12798,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -12832,12 +12824,12 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
@@ -12860,9 +12852,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC2A577-FE61-4AC6-8EA6-0BAD78F2F516}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -12871,98 +12865,108 @@
     <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="9" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="9" t="s">
+        <v>372</v>
+      </c>
       <c r="C8" s="9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="9" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="10" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="10" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C17" s="10" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="10" t="s">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="10" t="s">
         <v>192</v>
       </c>
     </row>
@@ -12982,726 +12986,726 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="67" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="67" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="67"/>
-    <col min="7" max="7" width="12.85546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="67"/>
-    <col min="9" max="9" width="12.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="67" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="67"/>
+    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="9" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="9"/>
+    <col min="9" max="9" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="67" t="s">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C19" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C20" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C23" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C24" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C26" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C27" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C28" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C29" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="63">
+        <v>0.93</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="64">
+        <v>304</v>
+      </c>
+      <c r="I29" s="64">
+        <v>304</v>
+      </c>
+      <c r="J29" s="64">
+        <v>301</v>
+      </c>
+      <c r="K29" s="64">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C30" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="63">
+        <v>0.96</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="64">
+        <v>78</v>
+      </c>
+      <c r="I30" s="64">
+        <v>78</v>
+      </c>
+      <c r="J30" s="64">
+        <v>78</v>
+      </c>
+      <c r="K30" s="64">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C31" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="63">
+        <v>0.91</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="64">
+        <v>57</v>
+      </c>
+      <c r="I31" s="64">
+        <v>64</v>
+      </c>
+      <c r="J31" s="64">
+        <v>56</v>
+      </c>
+      <c r="K31" s="64">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C32" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="63">
+        <v>0.91</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="64">
+        <v>54</v>
+      </c>
+      <c r="I32" s="64">
+        <v>55</v>
+      </c>
+      <c r="J32" s="64">
+        <v>56</v>
+      </c>
+      <c r="K32" s="64">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G33" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="66">
+        <v>0.94</v>
+      </c>
+      <c r="I33" s="66">
+        <v>0.95</v>
+      </c>
+      <c r="J33" s="66">
+        <v>0.96</v>
+      </c>
+      <c r="K33" s="66">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G34" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" s="64">
+        <v>8.1</v>
+      </c>
+      <c r="I34" s="64">
+        <v>10.9</v>
+      </c>
+      <c r="J34" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G35" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="64">
+        <v>31</v>
+      </c>
+      <c r="I35" s="64">
+        <v>38</v>
+      </c>
+      <c r="J35" s="64">
+        <v>25</v>
+      </c>
+      <c r="K35" s="64">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C37" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C38" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C39" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C40" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C41" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C42" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C43" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43" s="63">
+        <v>0.91</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C44" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="63">
+        <v>0.9</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" s="64">
+        <v>291</v>
+      </c>
+      <c r="I44" s="64">
+        <v>309</v>
+      </c>
+      <c r="J44" s="64">
+        <v>296</v>
+      </c>
+      <c r="K44" s="64">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C45" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="63">
+        <v>0.88</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" s="64">
+        <v>73</v>
+      </c>
+      <c r="I45" s="64">
+        <v>74</v>
+      </c>
+      <c r="J45" s="64">
         <v>75</v>
       </c>
-      <c r="C3" s="67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="67" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="67" t="s">
-        <v>373</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="67" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" s="67" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" s="67" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C10" s="67" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="67" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="67" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="67" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="67" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C18" s="68" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C19" s="67" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C20" s="67" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C23" s="68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C24" s="67" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C25" s="67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C26" s="67" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C27" s="67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C28" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="I28" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="K28" s="67" t="s">
+      <c r="K45" s="64">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C46" s="9" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C29" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="69">
-        <v>0.93</v>
-      </c>
-      <c r="G29" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="70">
-        <v>304</v>
-      </c>
-      <c r="I29" s="70">
-        <v>304</v>
-      </c>
-      <c r="J29" s="70">
-        <v>301</v>
-      </c>
-      <c r="K29" s="70">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C30" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="69">
+      <c r="E46" s="63">
+        <v>0.91</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="64">
+        <v>58</v>
+      </c>
+      <c r="I46" s="64">
+        <v>57</v>
+      </c>
+      <c r="J46" s="64">
+        <v>50</v>
+      </c>
+      <c r="K46" s="64">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G47" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="64">
+        <v>54</v>
+      </c>
+      <c r="I47" s="64">
+        <v>53</v>
+      </c>
+      <c r="J47" s="64">
+        <v>52</v>
+      </c>
+      <c r="K47" s="64">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G48" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="66">
+        <v>0.94</v>
+      </c>
+      <c r="I48" s="66">
+        <v>0.95</v>
+      </c>
+      <c r="J48" s="66">
         <v>0.96</v>
       </c>
-      <c r="G30" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" s="70">
-        <v>78</v>
-      </c>
-      <c r="I30" s="70">
-        <v>78</v>
-      </c>
-      <c r="J30" s="70">
-        <v>78</v>
-      </c>
-      <c r="K30" s="70">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C31" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E31" s="69">
-        <v>0.91</v>
-      </c>
-      <c r="G31" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="70">
-        <v>57</v>
-      </c>
-      <c r="I31" s="70">
-        <v>64</v>
-      </c>
-      <c r="J31" s="70">
-        <v>56</v>
-      </c>
-      <c r="K31" s="70">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C32" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="69">
-        <v>0.91</v>
-      </c>
-      <c r="G32" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" s="70">
-        <v>54</v>
-      </c>
-      <c r="I32" s="70">
-        <v>55</v>
-      </c>
-      <c r="J32" s="70">
-        <v>56</v>
-      </c>
-      <c r="K32" s="70">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="G33" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="H33" s="72">
-        <v>0.94</v>
-      </c>
-      <c r="I33" s="72">
-        <v>0.95</v>
-      </c>
-      <c r="J33" s="72">
+      <c r="K48" s="66">
         <v>0.96</v>
       </c>
-      <c r="K33" s="72">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="G34" s="71" t="s">
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G49" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="H34" s="70">
-        <v>8.1</v>
-      </c>
-      <c r="I34" s="70">
-        <v>10.9</v>
-      </c>
-      <c r="J34" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="K34" s="70" t="s">
-        <v>126</v>
-      </c>
-      <c r="L34" s="67" t="s">
+      <c r="H49" s="64">
+        <v>9.4</v>
+      </c>
+      <c r="I49" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="J49" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="K49" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="L49" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="G35" s="71" t="s">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="G50" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="70">
+      <c r="H50" s="64">
+        <v>34</v>
+      </c>
+      <c r="I50" s="64">
+        <v>29</v>
+      </c>
+      <c r="J50" s="64">
+        <v>35</v>
+      </c>
+      <c r="K50" s="64">
         <v>31</v>
       </c>
-      <c r="I35" s="70">
-        <v>38</v>
-      </c>
-      <c r="J35" s="70">
-        <v>25</v>
-      </c>
-      <c r="K35" s="70">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C37" s="68" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C38" s="67" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C39" s="67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C40" s="67" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C41" s="67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="67" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C43" s="67" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="69">
-        <v>0.91</v>
-      </c>
-      <c r="H43" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="I43" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="J43" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="K43" s="67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C44" s="67" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="69">
-        <v>0.9</v>
-      </c>
-      <c r="G44" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="H44" s="70">
-        <v>291</v>
-      </c>
-      <c r="I44" s="70">
-        <v>309</v>
-      </c>
-      <c r="J44" s="70">
-        <v>296</v>
-      </c>
-      <c r="K44" s="70">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C45" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="69">
-        <v>0.88</v>
-      </c>
-      <c r="G45" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="H45" s="70">
-        <v>73</v>
-      </c>
-      <c r="I45" s="70">
-        <v>74</v>
-      </c>
-      <c r="J45" s="70">
-        <v>75</v>
-      </c>
-      <c r="K45" s="70">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C46" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="69">
-        <v>0.91</v>
-      </c>
-      <c r="G46" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" s="70">
-        <v>58</v>
-      </c>
-      <c r="I46" s="70">
-        <v>57</v>
-      </c>
-      <c r="J46" s="70">
-        <v>50</v>
-      </c>
-      <c r="K46" s="70">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="G47" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="H47" s="70">
-        <v>54</v>
-      </c>
-      <c r="I47" s="70">
-        <v>53</v>
-      </c>
-      <c r="J47" s="70">
-        <v>52</v>
-      </c>
-      <c r="K47" s="70">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="G48" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="H48" s="72">
-        <v>0.94</v>
-      </c>
-      <c r="I48" s="72">
-        <v>0.95</v>
-      </c>
-      <c r="J48" s="72">
-        <v>0.96</v>
-      </c>
-      <c r="K48" s="72">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="G49" s="71" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="70">
-        <v>9.4</v>
-      </c>
-      <c r="I49" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="J49" s="70" t="s">
-        <v>107</v>
-      </c>
-      <c r="K49" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="L49" s="67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="G50" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="H50" s="70">
-        <v>34</v>
-      </c>
-      <c r="I50" s="70">
-        <v>29</v>
-      </c>
-      <c r="J50" s="70">
-        <v>35</v>
-      </c>
-      <c r="K50" s="70">
-        <v>31</v>
-      </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="G51" s="71"/>
-      <c r="H51" s="70"/>
-      <c r="I51" s="70"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="64"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C52" s="68" t="s">
+      <c r="C52" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G52" s="71"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="70"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="64"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C53" s="67" t="s">
+      <c r="C53" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G53" s="71"/>
-      <c r="H53" s="70"/>
-      <c r="I53" s="70"/>
-      <c r="J53" s="70"/>
-      <c r="K53" s="70"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="64"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="71"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70"/>
-      <c r="K54" s="70"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="64"/>
+      <c r="I54" s="64"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="64"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G55" s="71"/>
-      <c r="H55" s="70"/>
-      <c r="I55" s="70"/>
-      <c r="J55" s="70"/>
-      <c r="K55" s="70"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="64"/>
+      <c r="I55" s="64"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="64"/>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="G56" s="71"/>
-      <c r="H56" s="70"/>
-      <c r="I56" s="70"/>
-      <c r="J56" s="70"/>
-      <c r="K56" s="70"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="64"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C57" s="68" t="s">
+      <c r="C57" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G57" s="71"/>
-      <c r="H57" s="70"/>
-      <c r="I57" s="70"/>
-      <c r="J57" s="70"/>
-      <c r="K57" s="70"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="64"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C58" s="67" t="s">
+      <c r="C58" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G58" s="71"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="64"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C59" s="67" t="s">
+      <c r="C59" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="71"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
-      <c r="J59" s="70"/>
-      <c r="K59" s="70"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="64"/>
+      <c r="I59" s="64"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="64"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G60" s="71"/>
-      <c r="H60" s="70"/>
-      <c r="I60" s="70"/>
-      <c r="J60" s="70"/>
-      <c r="K60" s="70"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C61" s="67" t="s">
+      <c r="C61" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G61" s="71"/>
-      <c r="H61" s="70"/>
-      <c r="I61" s="70"/>
-      <c r="J61" s="70"/>
-      <c r="K61" s="70"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C62" s="67" t="s">
+      <c r="C62" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G62" s="71"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="G63" s="71"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="70"/>
-      <c r="J63" s="70"/>
-      <c r="K63" s="70"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C64" s="67" t="s">
+      <c r="C64" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G64" s="71"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-      <c r="J64" s="70"/>
-      <c r="K64" s="70"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C65" s="67" t="s">
+      <c r="C65" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="G65" s="71"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-      <c r="J65" s="70"/>
-      <c r="K65" s="70"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="64"/>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C66" s="67" t="s">
+      <c r="C66" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G66" s="71"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
-      <c r="J66" s="70"/>
-      <c r="K66" s="70"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C68" s="68" t="s">
+      <c r="C68" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C69" s="67" t="s">
+      <c r="C69" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C71" s="68" t="s">
+      <c r="C71" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C72" s="67" t="s">
+      <c r="C72" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C73" s="67" t="s">
+      <c r="C73" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C74" s="67" t="s">
+      <c r="C74" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C76" s="67" t="s">
+      <c r="C76" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C77" s="67" t="s">
+      <c r="C77" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C78" s="67" t="s">
+      <c r="C78" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C79" s="67" t="s">
+      <c r="C79" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C80" s="67" t="s">
+      <c r="C80" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -13734,15 +13738,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -13750,7 +13754,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -13758,15 +13762,15 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -13774,7 +13778,7 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -13784,17 +13788,17 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -13824,15 +13828,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -13840,23 +13844,23 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -13864,12 +13868,12 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -13904,15 +13908,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -13920,23 +13924,23 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -13946,22 +13950,22 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="54" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="54" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -13991,15 +13995,15 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -14007,15 +14011,15 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -14025,17 +14029,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="54" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" s="54" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -14066,10 +14070,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -14077,7 +14081,7 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -14087,12 +14091,12 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="54" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/REGN.xlsx
+++ b/REGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E3B2B1-C486-4B96-A40C-5ABCB0FA2164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEB9DAC-FE5D-4F85-8442-5DE43BA8B892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50745" yWindow="1200" windowWidth="21720" windowHeight="17280" activeTab="2" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
+    <workbookView xWindow="-26370" yWindow="1620" windowWidth="21600" windowHeight="16515" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="506">
   <si>
     <t>Nov. 11:  Eylea approved. Priced at $1,700/injection.</t>
   </si>
@@ -1740,6 +1740,66 @@
   </si>
   <si>
     <t>Type I receptor: IL-4Ralpha + common gamma chain</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Securities</t>
+  </si>
+  <si>
+    <t>Non-Cash</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>IPR&amp;D</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Acquisitions</t>
+  </si>
+  <si>
+    <t>Issuance</t>
+  </si>
+  <si>
+    <t>ESOP Tax</t>
+  </si>
+  <si>
+    <t>Buyback</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>FCF</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2217,7 @@
     <xdr:to>
       <xdr:col>58</xdr:col>
       <xdr:colOff>13991</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>98535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2207,7 +2267,7 @@
     <xdr:to>
       <xdr:col>78</xdr:col>
       <xdr:colOff>19008</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>136921</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2579,7 +2639,7 @@
   <dimension ref="B2:K54"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2615,7 +2675,7 @@
         <v>41</v>
       </c>
       <c r="J2" s="21">
-        <v>710</v>
+        <v>579</v>
       </c>
       <c r="K2" s="22"/>
     </row>
@@ -2638,10 +2698,11 @@
         <v>37</v>
       </c>
       <c r="J3" s="28">
-        <v>115.4</v>
+        <f>107.507536+1.817146</f>
+        <v>109.324682</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -2666,7 +2727,7 @@
       </c>
       <c r="J4" s="1">
         <f>J2*J3</f>
-        <v>81934</v>
+        <v>63298.990877999997</v>
       </c>
       <c r="K4" s="14"/>
     </row>
@@ -2746,7 +2807,7 @@
       </c>
       <c r="J7" s="1">
         <f>J4-J5+J6</f>
-        <v>66387</v>
+        <v>47751.990877999997</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -2862,7 +2923,10 @@
       <c r="F13" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="G13" s="61"/>
+      <c r="G13" s="61">
+        <f>129.4+96.3+66</f>
+        <v>291.7</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="29" t="s">
@@ -2898,7 +2962,10 @@
       <c r="F15" s="30" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="31"/>
+      <c r="G15" s="31">
+        <f>141.9+78.7+45.5</f>
+        <v>266.10000000000002</v>
+      </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
@@ -2916,7 +2983,10 @@
       <c r="F16" s="30" t="s">
         <v>388</v>
       </c>
-      <c r="G16" s="31"/>
+      <c r="G16" s="31">
+        <f>215.5+112.2+43.4</f>
+        <v>371.09999999999997</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
@@ -3063,7 +3133,10 @@
       <c r="F25" s="30" t="s">
         <v>438</v>
       </c>
-      <c r="G25" s="31"/>
+      <c r="G25" s="31">
+        <f>96.2+70.3+26.5</f>
+        <v>193</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="37" t="s">
@@ -4526,13 +4599,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BECB6-C670-4D66-9069-7BDB54779CF7}">
-  <dimension ref="A1:DZ69"/>
+  <dimension ref="A1:DZ94"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="BC57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="BD74" sqref="BD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4995,7 +5068,7 @@
         <v>1231</v>
       </c>
       <c r="BE3" s="15">
-        <v>1145</v>
+        <v>1144.5999999999999</v>
       </c>
       <c r="BF3" s="15">
         <v>1190</v>
@@ -5063,7 +5136,7 @@
       </c>
       <c r="BZ3" s="1">
         <f>SUM(Model!BC3:BF3)</f>
-        <v>4768</v>
+        <v>4767.6000000000004</v>
       </c>
       <c r="CA3" s="1">
         <f>SUM(BG3:BJ3)</f>
@@ -5181,7 +5254,7 @@
         <v>304</v>
       </c>
       <c r="BE4" s="15">
-        <v>392</v>
+        <v>392.3</v>
       </c>
       <c r="BF4" s="15">
         <v>305</v>
@@ -5208,7 +5281,7 @@
       </c>
       <c r="BZ4" s="1">
         <f>SUM(Model!BC4:BF4)</f>
-        <v>1201</v>
+        <v>1201.3</v>
       </c>
       <c r="CA4" s="1">
         <f>SUM(BG4:BJ4)</f>
@@ -5356,7 +5429,7 @@
         <v>297</v>
       </c>
       <c r="BE5" s="1">
-        <v>289</v>
+        <v>288.60000000000002</v>
       </c>
       <c r="BF5" s="1">
         <v>367</v>
@@ -5371,7 +5444,7 @@
       </c>
       <c r="BI5" s="1">
         <f>+BE5*1.2</f>
-        <v>346.8</v>
+        <v>346.32</v>
       </c>
       <c r="BJ5" s="1">
         <f>+BF5*1.2</f>
@@ -5401,51 +5474,51 @@
       </c>
       <c r="BZ5" s="1">
         <f>SUM(Model!BC5:BF5)</f>
-        <v>1217</v>
+        <v>1216.5999999999999</v>
       </c>
       <c r="CA5" s="1">
         <f>SUM(BG5:BJ5)</f>
-        <v>1460.4</v>
+        <v>1459.92</v>
       </c>
       <c r="CB5" s="1">
         <f t="shared" ref="CB5:CK5" si="7">CA5*1.01</f>
-        <v>1475.0040000000001</v>
+        <v>1474.5192000000002</v>
       </c>
       <c r="CC5" s="1">
         <f t="shared" si="7"/>
-        <v>1489.7540400000003</v>
+        <v>1489.2643920000003</v>
       </c>
       <c r="CD5" s="1">
         <f t="shared" si="7"/>
-        <v>1504.6515804000003</v>
+        <v>1504.1570359200002</v>
       </c>
       <c r="CE5" s="1">
         <f t="shared" si="7"/>
-        <v>1519.6980962040002</v>
+        <v>1519.1986062792002</v>
       </c>
       <c r="CF5" s="1">
         <f t="shared" si="7"/>
-        <v>1534.8950771660402</v>
+        <v>1534.3905923419923</v>
       </c>
       <c r="CG5" s="1">
         <f t="shared" si="7"/>
-        <v>1550.2440279377006</v>
+        <v>1549.7344982654122</v>
       </c>
       <c r="CH5" s="1">
         <f t="shared" si="7"/>
-        <v>1565.7464682170776</v>
+        <v>1565.2318432480663</v>
       </c>
       <c r="CI5" s="1">
         <f t="shared" si="7"/>
-        <v>1581.4039328992483</v>
+        <v>1580.8841616805469</v>
       </c>
       <c r="CJ5" s="1">
         <f t="shared" si="7"/>
-        <v>1597.2179722282408</v>
+        <v>1596.6930032973523</v>
       </c>
       <c r="CK5" s="1">
         <f t="shared" si="7"/>
-        <v>1613.1901519505232</v>
+        <v>1612.6599333303259</v>
       </c>
     </row>
     <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5547,7 +5620,7 @@
         <v>56</v>
       </c>
       <c r="BE6" s="1">
-        <v>53</v>
+        <v>52.9</v>
       </c>
       <c r="BF6" s="1">
         <v>63</v>
@@ -5576,51 +5649,51 @@
       </c>
       <c r="BZ6" s="1">
         <f>SUM(Model!BC6:BF6)</f>
-        <v>242</v>
+        <v>241.9</v>
       </c>
       <c r="CA6" s="1">
         <f>BZ6*1.01</f>
-        <v>244.42000000000002</v>
+        <v>244.31900000000002</v>
       </c>
       <c r="CB6" s="1">
         <f t="shared" ref="CB6:CK8" si="8">CA6*1.01</f>
-        <v>246.86420000000001</v>
+        <v>246.76219000000003</v>
       </c>
       <c r="CC6" s="1">
         <f t="shared" si="8"/>
-        <v>249.332842</v>
+        <v>249.22981190000004</v>
       </c>
       <c r="CD6" s="1">
         <f t="shared" si="8"/>
-        <v>251.82617042000001</v>
+        <v>251.72211001900004</v>
       </c>
       <c r="CE6" s="1">
         <f t="shared" si="8"/>
-        <v>254.34443212420001</v>
+        <v>254.23933111919004</v>
       </c>
       <c r="CF6" s="1">
         <f t="shared" si="8"/>
-        <v>256.88787644544203</v>
+        <v>256.78172443038193</v>
       </c>
       <c r="CG6" s="1">
         <f t="shared" si="8"/>
-        <v>259.45675520989647</v>
+        <v>259.34954167468572</v>
       </c>
       <c r="CH6" s="1">
         <f t="shared" si="8"/>
-        <v>262.05132276199544</v>
+        <v>261.94303709143259</v>
       </c>
       <c r="CI6" s="1">
         <f t="shared" si="8"/>
-        <v>264.67183598961537</v>
+        <v>264.56246746234689</v>
       </c>
       <c r="CJ6" s="1">
         <f t="shared" si="8"/>
-        <v>267.31855434951154</v>
+        <v>267.20809213697038</v>
       </c>
       <c r="CK6" s="1">
         <f t="shared" si="8"/>
-        <v>269.99173989300664</v>
+        <v>269.88017305834006</v>
       </c>
     </row>
     <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5722,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="15">
-        <v>35</v>
+        <v>35.6</v>
       </c>
       <c r="BF7" s="15">
         <v>40</v>
@@ -5753,7 +5826,7 @@
       </c>
       <c r="BZ7" s="1">
         <f>SUM(Model!BC7:BF7)</f>
-        <v>76</v>
+        <v>76.599999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5855,7 +5928,7 @@
         <v>31</v>
       </c>
       <c r="BE8" s="1">
-        <v>32</v>
+        <v>32.4</v>
       </c>
       <c r="BF8" s="1">
         <v>38</v>
@@ -5884,51 +5957,51 @@
       </c>
       <c r="BZ8" s="1">
         <f>SUM(Model!BC8:BF8)</f>
-        <v>125</v>
+        <v>125.4</v>
       </c>
       <c r="CA8" s="1">
         <f>BZ8*1.01</f>
-        <v>126.25</v>
+        <v>126.65400000000001</v>
       </c>
       <c r="CB8" s="1">
         <f t="shared" si="8"/>
-        <v>127.5125</v>
+        <v>127.92054000000002</v>
       </c>
       <c r="CC8" s="1">
         <f t="shared" si="8"/>
-        <v>128.78762499999999</v>
+        <v>129.19974540000001</v>
       </c>
       <c r="CD8" s="1">
         <f t="shared" si="8"/>
-        <v>130.07550125</v>
+        <v>130.49174285400002</v>
       </c>
       <c r="CE8" s="1">
         <f t="shared" si="8"/>
-        <v>131.37625626249999</v>
+        <v>131.79666028254002</v>
       </c>
       <c r="CF8" s="1">
         <f t="shared" si="8"/>
-        <v>132.69001882512498</v>
+        <v>133.11462688536542</v>
       </c>
       <c r="CG8" s="1">
         <f t="shared" si="8"/>
-        <v>134.01691901337622</v>
+        <v>134.44577315421907</v>
       </c>
       <c r="CH8" s="1">
         <f t="shared" si="8"/>
-        <v>135.35708820350999</v>
+        <v>135.79023088576125</v>
       </c>
       <c r="CI8" s="1">
         <f t="shared" si="8"/>
-        <v>136.7106590855451</v>
+        <v>137.14813319461885</v>
       </c>
       <c r="CJ8" s="1">
         <f t="shared" si="8"/>
-        <v>138.07776567640056</v>
+        <v>138.51961452656505</v>
       </c>
       <c r="CK8" s="1">
         <f t="shared" si="8"/>
-        <v>139.45854333316456</v>
+        <v>139.90481067183069</v>
       </c>
     </row>
     <row r="9" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6247,7 +6320,8 @@
         <v>1146</v>
       </c>
       <c r="BE10" s="15">
-        <v>1263</v>
+        <f>SUM(BE11:BE13)</f>
+        <v>1263.3999999999999</v>
       </c>
       <c r="BF10" s="15">
         <v>1213</v>
@@ -6304,51 +6378,51 @@
       </c>
       <c r="BZ10" s="1">
         <f>SUM(Model!BC10:BF10)</f>
-        <v>4532</v>
+        <v>4532.3999999999996</v>
       </c>
       <c r="CA10" s="1">
         <f>BZ10*1.1</f>
-        <v>4985.2000000000007</v>
+        <v>4985.6400000000003</v>
       </c>
       <c r="CB10" s="1">
         <f>CA10*1.1</f>
-        <v>5483.7200000000012</v>
+        <v>5484.2040000000006</v>
       </c>
       <c r="CC10" s="1">
         <f>CB10*1.1</f>
-        <v>6032.0920000000015</v>
+        <v>6032.6244000000015</v>
       </c>
       <c r="CD10" s="1">
         <f>CC10*1.05</f>
-        <v>6333.696600000002</v>
+        <v>6334.2556200000017</v>
       </c>
       <c r="CE10" s="1">
         <f>CD10*1.05</f>
-        <v>6650.3814300000022</v>
+        <v>6650.9684010000019</v>
       </c>
       <c r="CF10" s="1">
         <f>CE10*1.05</f>
-        <v>6982.900501500003</v>
+        <v>6983.5168210500024</v>
       </c>
       <c r="CG10" s="1">
         <f>CF10*1.05</f>
-        <v>7332.0455265750034</v>
+        <v>7332.6926621025032</v>
       </c>
       <c r="CH10" s="1">
         <f>CG10*1.01</f>
-        <v>7405.3659818407532</v>
+        <v>7406.0195887235286</v>
       </c>
       <c r="CI10" s="1">
         <f>CH10*1.01</f>
-        <v>7479.4196416591612</v>
+        <v>7480.0797846107644</v>
       </c>
       <c r="CJ10" s="1">
         <f>CI10*1.01</f>
-        <v>7554.2138380757533</v>
+        <v>7554.8805824568717</v>
       </c>
       <c r="CK10" s="1">
         <f>CJ10*1.01</f>
-        <v>7629.7559764565112</v>
+        <v>7630.4293882814409</v>
       </c>
     </row>
     <row r="11" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6427,6 +6501,9 @@
       <c r="AX11" s="15">
         <v>619</v>
       </c>
+      <c r="BE11" s="1">
+        <v>1088.3</v>
+      </c>
       <c r="BV11" s="1">
         <f t="shared" si="3"/>
         <v>785.2</v>
@@ -6440,8 +6517,10 @@
         <v>2082</v>
       </c>
       <c r="BY11" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3136.5</v>
+      </c>
+      <c r="BZ11" s="1">
+        <v>3923.5</v>
       </c>
     </row>
     <row r="12" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6520,6 +6599,9 @@
       <c r="AX12" s="15">
         <v>166.9</v>
       </c>
+      <c r="BE12" s="1">
+        <v>175.1</v>
+      </c>
       <c r="BV12" s="1">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -6533,8 +6615,10 @@
         <v>633.70000000000005</v>
       </c>
       <c r="BY12" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>613</v>
+      </c>
+      <c r="BZ12" s="1">
+        <v>607.9</v>
       </c>
     </row>
     <row r="13" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6636,8 +6720,7 @@
         <v>140</v>
       </c>
       <c r="BY13" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7298,7 +7381,8 @@
         <v>375</v>
       </c>
       <c r="BE19" s="15">
-        <v>391</v>
+        <f>367.6+23.2</f>
+        <v>390.8</v>
       </c>
       <c r="BF19" s="15">
         <v>377</v>
@@ -7352,51 +7436,51 @@
       </c>
       <c r="BZ19" s="1">
         <f>SUM(Model!BC19:BF19)</f>
-        <v>1499</v>
+        <v>1498.8</v>
       </c>
       <c r="CA19" s="1">
         <f t="shared" ref="CA19:CK19" si="12">BZ19*0.8</f>
-        <v>1199.2</v>
+        <v>1199.04</v>
       </c>
       <c r="CB19" s="1">
         <f t="shared" si="12"/>
-        <v>959.36000000000013</v>
+        <v>959.23199999999997</v>
       </c>
       <c r="CC19" s="1">
         <f t="shared" si="12"/>
-        <v>767.48800000000017</v>
+        <v>767.38560000000007</v>
       </c>
       <c r="CD19" s="1">
         <f t="shared" si="12"/>
-        <v>613.99040000000014</v>
+        <v>613.90848000000005</v>
       </c>
       <c r="CE19" s="1">
         <f t="shared" si="12"/>
-        <v>491.19232000000011</v>
+        <v>491.12678400000004</v>
       </c>
       <c r="CF19" s="1">
         <f t="shared" si="12"/>
-        <v>392.95385600000009</v>
+        <v>392.90142720000006</v>
       </c>
       <c r="CG19" s="1">
         <f t="shared" si="12"/>
-        <v>314.36308480000008</v>
+        <v>314.32114176000005</v>
       </c>
       <c r="CH19" s="1">
         <f t="shared" si="12"/>
-        <v>251.49046784000006</v>
+        <v>251.45691340800005</v>
       </c>
       <c r="CI19" s="1">
         <f t="shared" si="12"/>
-        <v>201.19237427200005</v>
+        <v>201.16553072640005</v>
       </c>
       <c r="CJ19" s="1">
         <f t="shared" si="12"/>
-        <v>160.95389941760004</v>
+        <v>160.93242458112005</v>
       </c>
       <c r="CK19" s="1">
         <f t="shared" si="12"/>
-        <v>128.76311953408003</v>
+        <v>128.74593966489604</v>
       </c>
     </row>
     <row r="20" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7495,6 +7579,9 @@
       <c r="BD20" s="1">
         <v>3</v>
       </c>
+      <c r="BE20" s="1">
+        <v>0.5</v>
+      </c>
       <c r="BV20" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -7513,7 +7600,7 @@
       </c>
       <c r="BZ20" s="1">
         <f>SUM(BC20:BF20)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="21" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -7648,8 +7735,8 @@
         <v>104</v>
       </c>
       <c r="BE21" s="1">
-        <f>114+6</f>
-        <v>120</v>
+        <f>114.2+6</f>
+        <v>120.2</v>
       </c>
       <c r="BF21" s="1">
         <f>17+179</f>
@@ -7701,7 +7788,7 @@
       </c>
       <c r="BZ21" s="1">
         <f>SUM(BC21:BF21)</f>
-        <v>537</v>
+        <v>537.20000000000005</v>
       </c>
     </row>
     <row r="22" spans="2:130" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -7860,7 +7947,7 @@
       </c>
       <c r="BE22" s="17">
         <f t="shared" si="19"/>
-        <v>3720</v>
+        <v>3721.3</v>
       </c>
       <c r="BF22" s="17">
         <f t="shared" si="19"/>
@@ -7876,7 +7963,7 @@
       </c>
       <c r="BI22" s="17">
         <f t="shared" si="19"/>
-        <v>1427.6087499999999</v>
+        <v>1427.1287499999999</v>
       </c>
       <c r="BJ22" s="17">
         <f t="shared" si="19"/>
@@ -7940,51 +8027,51 @@
       </c>
       <c r="BZ22" s="17">
         <f t="shared" si="21"/>
-        <v>14201</v>
+        <v>14202.3</v>
       </c>
       <c r="CA22" s="17">
         <f t="shared" si="21"/>
-        <v>12608.741187500002</v>
+        <v>12608.844187500003</v>
       </c>
       <c r="CB22" s="17">
         <f t="shared" ref="CB22:CK22" si="22">SUM(CB3:CB10)+CB19+CB20+CB21</f>
-        <v>12055.750531250002</v>
+        <v>12055.927761250001</v>
       </c>
       <c r="CC22" s="17">
         <f t="shared" si="22"/>
-        <v>11301.757388875001</v>
+        <v>11302.006831175002</v>
       </c>
       <c r="CD22" s="17">
         <f t="shared" si="22"/>
-        <v>10678.252269382503</v>
+        <v>10678.547006105502</v>
       </c>
       <c r="CE22" s="17">
         <f t="shared" si="22"/>
-        <v>10337.800946709453</v>
+        <v>10338.138194799682</v>
       </c>
       <c r="CF22" s="17">
         <f t="shared" si="22"/>
-        <v>10203.893218419735</v>
+        <v>10204.271080390867</v>
       </c>
       <c r="CG22" s="17">
         <f t="shared" si="22"/>
-        <v>10222.622435474164</v>
+        <v>10223.039738895008</v>
       </c>
       <c r="CH22" s="17">
         <f t="shared" si="22"/>
-        <v>10062.758614220067</v>
+        <v>10063.188898713519</v>
       </c>
       <c r="CI22" s="17">
         <f t="shared" si="22"/>
-        <v>9973.3215436552819</v>
+        <v>9973.7631774243891</v>
       </c>
       <c r="CJ22" s="17">
         <f t="shared" si="22"/>
-        <v>9934.7281995723042</v>
+        <v>9935.1798868236783</v>
       </c>
       <c r="CK22" s="17">
         <f t="shared" si="22"/>
-        <v>9933.0218500446445</v>
+        <v>9933.4825638841921</v>
       </c>
     </row>
     <row r="23" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8320,7 +8407,7 @@
       </c>
       <c r="BE24" s="15">
         <f>+BE22-BE23</f>
-        <v>3502.6</v>
+        <v>3503.9</v>
       </c>
       <c r="BF24" s="15">
         <f>+BF22-BF23</f>
@@ -8366,51 +8453,51 @@
       </c>
       <c r="BZ24" s="1">
         <f>+BZ22-BZ23</f>
-        <v>13064.2</v>
+        <v>13065.5</v>
       </c>
       <c r="CA24" s="1">
         <f>CA22*0.9</f>
-        <v>11347.867068750002</v>
+        <v>11347.959768750003</v>
       </c>
       <c r="CB24" s="1">
         <f t="shared" ref="CB24:CK24" si="32">CB22*0.9</f>
-        <v>10850.175478125002</v>
+        <v>10850.334985125</v>
       </c>
       <c r="CC24" s="1">
         <f t="shared" si="32"/>
-        <v>10171.581649987502</v>
+        <v>10171.806148057502</v>
       </c>
       <c r="CD24" s="1">
         <f t="shared" si="32"/>
-        <v>9610.4270424442529</v>
+        <v>9610.692305494953</v>
       </c>
       <c r="CE24" s="1">
         <f t="shared" si="32"/>
-        <v>9304.0208520385077</v>
+        <v>9304.324375319713</v>
       </c>
       <c r="CF24" s="1">
         <f t="shared" si="32"/>
-        <v>9183.5038965777621</v>
+        <v>9183.8439723517804</v>
       </c>
       <c r="CG24" s="1">
         <f t="shared" si="32"/>
-        <v>9200.3601919267476</v>
+        <v>9200.7357650055073</v>
       </c>
       <c r="CH24" s="1">
         <f t="shared" si="32"/>
-        <v>9056.4827527980615</v>
+        <v>9056.8700088421665</v>
       </c>
       <c r="CI24" s="1">
         <f t="shared" si="32"/>
-        <v>8975.9893892897544</v>
+        <v>8976.3868596819502</v>
       </c>
       <c r="CJ24" s="1">
         <f t="shared" si="32"/>
-        <v>8941.2553796150733</v>
+        <v>8941.6618981413103</v>
       </c>
       <c r="CK24" s="1">
         <f t="shared" si="32"/>
-        <v>8939.7196650401802</v>
+        <v>8940.1343074957731</v>
       </c>
     </row>
     <row r="25" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -8751,47 +8838,47 @@
       </c>
       <c r="CA26" s="1">
         <f>CA22*0.2</f>
-        <v>2521.7482375000004</v>
+        <v>2521.7688375000007</v>
       </c>
       <c r="CB26" s="1">
         <f>CB22*0.2</f>
-        <v>2411.1501062500006</v>
+        <v>2411.1855522500005</v>
       </c>
       <c r="CC26" s="1">
         <f t="shared" ref="CC26:CK26" si="37">CC22*0.2</f>
-        <v>2260.3514777750001</v>
+        <v>2260.4013662350003</v>
       </c>
       <c r="CD26" s="1">
         <f t="shared" si="37"/>
-        <v>2135.6504538765007</v>
+        <v>2135.7094012211005</v>
       </c>
       <c r="CE26" s="1">
         <f t="shared" si="37"/>
-        <v>2067.5601893418907</v>
+        <v>2067.6276389599366</v>
       </c>
       <c r="CF26" s="1">
         <f t="shared" si="37"/>
-        <v>2040.7786436839469</v>
+        <v>2040.8542160781735</v>
       </c>
       <c r="CG26" s="1">
         <f t="shared" si="37"/>
-        <v>2044.5244870948329</v>
+        <v>2044.6079477790017</v>
       </c>
       <c r="CH26" s="1">
         <f t="shared" si="37"/>
-        <v>2012.5517228440135</v>
+        <v>2012.637779742704</v>
       </c>
       <c r="CI26" s="1">
         <f t="shared" si="37"/>
-        <v>1994.6643087310565</v>
+        <v>1994.7526354848778</v>
       </c>
       <c r="CJ26" s="1">
         <f t="shared" si="37"/>
-        <v>1986.945639914461</v>
+        <v>1987.0359773647358</v>
       </c>
       <c r="CK26" s="1">
         <f t="shared" si="37"/>
-        <v>1986.604370008929</v>
+        <v>1986.6965127768385</v>
       </c>
     </row>
     <row r="27" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9008,47 +9095,47 @@
       </c>
       <c r="CA27" s="1">
         <f t="shared" si="48"/>
-        <v>2521.7482375000004</v>
+        <v>2521.7688375000007</v>
       </c>
       <c r="CB27" s="1">
         <f t="shared" si="48"/>
-        <v>2411.1501062500006</v>
+        <v>2411.1855522500005</v>
       </c>
       <c r="CC27" s="1">
         <f t="shared" si="48"/>
-        <v>2260.3514777750001</v>
+        <v>2260.4013662350003</v>
       </c>
       <c r="CD27" s="1">
         <f t="shared" si="48"/>
-        <v>2135.6504538765007</v>
+        <v>2135.7094012211005</v>
       </c>
       <c r="CE27" s="1">
         <f t="shared" si="48"/>
-        <v>2067.5601893418907</v>
+        <v>2067.6276389599366</v>
       </c>
       <c r="CF27" s="1">
         <f t="shared" si="48"/>
-        <v>2040.7786436839469</v>
+        <v>2040.8542160781735</v>
       </c>
       <c r="CG27" s="1">
         <f t="shared" si="48"/>
-        <v>2044.5244870948329</v>
+        <v>2044.6079477790017</v>
       </c>
       <c r="CH27" s="1">
         <f t="shared" si="48"/>
-        <v>2012.5517228440135</v>
+        <v>2012.637779742704</v>
       </c>
       <c r="CI27" s="1">
         <f t="shared" si="48"/>
-        <v>1994.6643087310565</v>
+        <v>1994.7526354848778</v>
       </c>
       <c r="CJ27" s="1">
         <f t="shared" si="48"/>
-        <v>1986.945639914461</v>
+        <v>1987.0359773647358</v>
       </c>
       <c r="CK27" s="1">
         <f t="shared" si="48"/>
-        <v>1986.604370008929</v>
+        <v>1986.6965127768385</v>
       </c>
     </row>
     <row r="28" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9201,7 +9288,7 @@
       </c>
       <c r="BE28" s="15">
         <f t="shared" ref="BE28" si="55">+BE24-BE27</f>
-        <v>1743.6999999999998</v>
+        <v>1745</v>
       </c>
       <c r="BF28" s="15">
         <f>+BF24-BF27</f>
@@ -9261,51 +9348,51 @@
       </c>
       <c r="BZ28" s="1">
         <f t="shared" ref="BZ28:CK28" si="58">+BZ24-BZ27</f>
-        <v>5956.1000000000013</v>
+        <v>5957.4000000000005</v>
       </c>
       <c r="CA28" s="1">
         <f t="shared" si="58"/>
-        <v>8826.1188312500017</v>
+        <v>8826.1909312500029</v>
       </c>
       <c r="CB28" s="1">
         <f t="shared" si="58"/>
-        <v>8439.0253718750009</v>
+        <v>8439.1494328749995</v>
       </c>
       <c r="CC28" s="1">
         <f t="shared" si="58"/>
-        <v>7911.2301722125012</v>
+        <v>7911.4047818225008</v>
       </c>
       <c r="CD28" s="1">
         <f t="shared" si="58"/>
-        <v>7474.7765885677527</v>
+        <v>7474.9829042738529</v>
       </c>
       <c r="CE28" s="1">
         <f t="shared" si="58"/>
-        <v>7236.460662696617</v>
+        <v>7236.696736359776</v>
       </c>
       <c r="CF28" s="1">
         <f t="shared" si="58"/>
-        <v>7142.7252528938152</v>
+        <v>7142.9897562736069</v>
       </c>
       <c r="CG28" s="1">
         <f t="shared" si="58"/>
-        <v>7155.8357048319149</v>
+        <v>7156.1278172265056</v>
       </c>
       <c r="CH28" s="1">
         <f t="shared" si="58"/>
-        <v>7043.9310299540484</v>
+        <v>7044.2322290994625</v>
       </c>
       <c r="CI28" s="1">
         <f t="shared" si="58"/>
-        <v>6981.3250805586977</v>
+        <v>6981.6342241970724</v>
       </c>
       <c r="CJ28" s="1">
         <f t="shared" si="58"/>
-        <v>6954.3097397006122</v>
+        <v>6954.6259207765743</v>
       </c>
       <c r="CK28" s="1">
         <f t="shared" si="58"/>
-        <v>6953.1152950312517</v>
+        <v>6953.437794718935</v>
       </c>
     </row>
     <row r="29" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9617,7 +9704,7 @@
       </c>
       <c r="BE30" s="15">
         <f t="shared" si="70"/>
-        <v>1743.6999999999998</v>
+        <v>1745</v>
       </c>
       <c r="BF30" s="15">
         <f t="shared" si="70"/>
@@ -9677,51 +9764,51 @@
       </c>
       <c r="BZ30" s="1">
         <f t="shared" si="72"/>
-        <v>6136.9000000000015</v>
+        <v>6138.2000000000007</v>
       </c>
       <c r="CA30" s="1">
         <f t="shared" si="72"/>
-        <v>8826.1188312500017</v>
+        <v>8826.1909312500029</v>
       </c>
       <c r="CB30" s="1">
         <f t="shared" si="72"/>
-        <v>8439.0253718750009</v>
+        <v>8439.1494328749995</v>
       </c>
       <c r="CC30" s="1">
         <f t="shared" si="72"/>
-        <v>7911.2301722125012</v>
+        <v>7911.4047818225008</v>
       </c>
       <c r="CD30" s="1">
         <f t="shared" si="72"/>
-        <v>7474.7765885677527</v>
+        <v>7474.9829042738529</v>
       </c>
       <c r="CE30" s="1">
         <f t="shared" si="72"/>
-        <v>7236.460662696617</v>
+        <v>7236.696736359776</v>
       </c>
       <c r="CF30" s="1">
         <f t="shared" si="72"/>
-        <v>7142.7252528938152</v>
+        <v>7142.9897562736069</v>
       </c>
       <c r="CG30" s="1">
         <f t="shared" si="72"/>
-        <v>7155.8357048319149</v>
+        <v>7156.1278172265056</v>
       </c>
       <c r="CH30" s="1">
         <f t="shared" si="72"/>
-        <v>7043.9310299540484</v>
+        <v>7044.2322290994625</v>
       </c>
       <c r="CI30" s="1">
         <f t="shared" si="72"/>
-        <v>6981.3250805586977</v>
+        <v>6981.6342241970724</v>
       </c>
       <c r="CJ30" s="1">
         <f t="shared" si="72"/>
-        <v>6954.3097397006122</v>
+        <v>6954.6259207765743</v>
       </c>
       <c r="CK30" s="1">
         <f t="shared" si="72"/>
-        <v>6953.1152950312517</v>
+        <v>6953.437794718935</v>
       </c>
     </row>
     <row r="31" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -9891,47 +9978,47 @@
       </c>
       <c r="CA31" s="1">
         <f>CA30*0.15</f>
-        <v>1323.9178246875001</v>
+        <v>1323.9286396875004</v>
       </c>
       <c r="CB31" s="1">
         <f t="shared" ref="CB31:CK31" si="78">CB30*0.15</f>
-        <v>1265.85380578125</v>
+        <v>1265.87241493125</v>
       </c>
       <c r="CC31" s="1">
         <f t="shared" si="78"/>
-        <v>1186.6845258318751</v>
+        <v>1186.7107172733752</v>
       </c>
       <c r="CD31" s="1">
         <f t="shared" si="78"/>
-        <v>1121.2164882851628</v>
+        <v>1121.2474356410778</v>
       </c>
       <c r="CE31" s="1">
         <f t="shared" si="78"/>
-        <v>1085.4690994044925</v>
+        <v>1085.5045104539663</v>
       </c>
       <c r="CF31" s="1">
         <f t="shared" si="78"/>
-        <v>1071.4087879340723</v>
+        <v>1071.448463441041</v>
       </c>
       <c r="CG31" s="1">
         <f t="shared" si="78"/>
-        <v>1073.3753557247871</v>
+        <v>1073.4191725839758</v>
       </c>
       <c r="CH31" s="1">
         <f t="shared" si="78"/>
-        <v>1056.5896544931072</v>
+        <v>1056.6348343649192</v>
       </c>
       <c r="CI31" s="1">
         <f t="shared" si="78"/>
-        <v>1047.1987620838047</v>
+        <v>1047.2451336295608</v>
       </c>
       <c r="CJ31" s="1">
         <f t="shared" si="78"/>
-        <v>1043.1464609550917</v>
+        <v>1043.1938881164861</v>
       </c>
       <c r="CK31" s="1">
         <f t="shared" si="78"/>
-        <v>1042.9672942546877</v>
+        <v>1043.0156692078401</v>
       </c>
     </row>
     <row r="32" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10084,7 +10171,7 @@
       </c>
       <c r="BE32" s="15">
         <f t="shared" si="86"/>
-        <v>1743.6999999999998</v>
+        <v>1745</v>
       </c>
       <c r="BF32" s="15">
         <f t="shared" si="86"/>
@@ -10148,215 +10235,215 @@
       </c>
       <c r="BZ32" s="1">
         <f t="shared" si="89"/>
-        <v>5984.0000000000018</v>
+        <v>5985.3000000000011</v>
       </c>
       <c r="CA32" s="1">
         <f t="shared" si="89"/>
-        <v>7502.2010065625018</v>
+        <v>7502.2622915625025</v>
       </c>
       <c r="CB32" s="1">
         <f t="shared" si="89"/>
-        <v>7173.1715660937507</v>
+        <v>7173.2770179437493</v>
       </c>
       <c r="CC32" s="1">
         <f t="shared" si="89"/>
-        <v>6724.5456463806258</v>
+        <v>6724.6940645491259</v>
       </c>
       <c r="CD32" s="1">
         <f t="shared" si="89"/>
-        <v>6353.5601002825897</v>
+        <v>6353.7354686327753</v>
       </c>
       <c r="CE32" s="1">
         <f t="shared" si="89"/>
-        <v>6150.9915632921247</v>
+        <v>6151.1922259058101</v>
       </c>
       <c r="CF32" s="1">
         <f t="shared" si="89"/>
-        <v>6071.3164649597429</v>
+        <v>6071.5412928325659</v>
       </c>
       <c r="CG32" s="1">
         <f t="shared" si="89"/>
-        <v>6082.4603491071275</v>
+        <v>6082.7086446425301</v>
       </c>
       <c r="CH32" s="1">
         <f t="shared" si="89"/>
-        <v>5987.341375460941</v>
+        <v>5987.5973947345428</v>
       </c>
       <c r="CI32" s="1">
         <f t="shared" si="89"/>
-        <v>5934.1263184748932</v>
+        <v>5934.3890905675116</v>
       </c>
       <c r="CJ32" s="1">
         <f t="shared" si="89"/>
-        <v>5911.1632787455201</v>
+        <v>5911.4320326600882</v>
       </c>
       <c r="CK32" s="1">
         <f t="shared" si="89"/>
-        <v>5910.148000776564</v>
+        <v>5910.4221255110951</v>
       </c>
       <c r="CL32" s="1">
         <f>CK32*(1+$CM$36)</f>
-        <v>5732.8435607532665</v>
+        <v>5733.109461745762</v>
       </c>
       <c r="CM32" s="1">
         <f t="shared" ref="CM32:DZ32" si="90">CL32*(1+$CM$36)</f>
-        <v>5560.8582539306681</v>
+        <v>5561.1161778933892</v>
       </c>
       <c r="CN32" s="1">
         <f t="shared" si="90"/>
-        <v>5394.0325063127475</v>
+        <v>5394.2826925565878</v>
       </c>
       <c r="CO32" s="1">
         <f t="shared" si="90"/>
-        <v>5232.2115311233647</v>
+        <v>5232.4542117798901</v>
       </c>
       <c r="CP32" s="1">
         <f t="shared" si="90"/>
-        <v>5075.245185189664</v>
+        <v>5075.4805854264932</v>
       </c>
       <c r="CQ32" s="1">
         <f t="shared" si="90"/>
-        <v>4922.9878296339739</v>
+        <v>4923.2161678636985</v>
       </c>
       <c r="CR32" s="1">
         <f t="shared" si="90"/>
-        <v>4775.2981947449543</v>
+        <v>4775.5196828277876</v>
       </c>
       <c r="CS32" s="1">
         <f t="shared" si="90"/>
-        <v>4632.0392489026053</v>
+        <v>4632.2540923429542</v>
       </c>
       <c r="CT32" s="1">
         <f t="shared" si="90"/>
-        <v>4493.0780714355269</v>
+        <v>4493.2864695726657</v>
       </c>
       <c r="CU32" s="1">
         <f t="shared" si="90"/>
-        <v>4358.2857292924609</v>
+        <v>4358.4878754854853</v>
       </c>
       <c r="CV32" s="1">
         <f t="shared" si="90"/>
-        <v>4227.5371574136871</v>
+        <v>4227.733239220921</v>
       </c>
       <c r="CW32" s="1">
         <f t="shared" si="90"/>
-        <v>4100.7110426912759</v>
+        <v>4100.9012420442932</v>
       </c>
       <c r="CX32" s="1">
         <f t="shared" si="90"/>
-        <v>3977.6897114105377</v>
+        <v>3977.8742047829642</v>
       </c>
       <c r="CY32" s="1">
         <f t="shared" si="90"/>
-        <v>3858.3590200682215</v>
+        <v>3858.5379786394751</v>
       </c>
       <c r="CZ32" s="1">
         <f t="shared" si="90"/>
-        <v>3742.6082494661746</v>
+        <v>3742.7818392802906</v>
       </c>
       <c r="DA32" s="1">
         <f t="shared" si="90"/>
-        <v>3630.3300019821891</v>
+        <v>3630.4983841018816</v>
       </c>
       <c r="DB32" s="1">
         <f t="shared" si="90"/>
-        <v>3521.4201019227235</v>
+        <v>3521.5834325788251</v>
       </c>
       <c r="DC32" s="1">
         <f t="shared" si="90"/>
-        <v>3415.7774988650417</v>
+        <v>3415.9359296014604</v>
       </c>
       <c r="DD32" s="1">
         <f t="shared" si="90"/>
-        <v>3313.3041738990905</v>
+        <v>3313.4578517134164</v>
       </c>
       <c r="DE32" s="1">
         <f t="shared" si="90"/>
-        <v>3213.9050486821179</v>
+        <v>3214.054116162014</v>
       </c>
       <c r="DF32" s="1">
         <f t="shared" si="90"/>
-        <v>3117.4878972216543</v>
+        <v>3117.6324926771536</v>
       </c>
       <c r="DG32" s="1">
         <f t="shared" si="90"/>
-        <v>3023.9632603050045</v>
+        <v>3024.1035178968386</v>
       </c>
       <c r="DH32" s="1">
         <f t="shared" si="90"/>
-        <v>2933.2443624958541</v>
+        <v>2933.3804123599334</v>
       </c>
       <c r="DI32" s="1">
         <f t="shared" si="90"/>
-        <v>2845.2470316209783</v>
+        <v>2845.3789999891355</v>
       </c>
       <c r="DJ32" s="1">
         <f t="shared" si="90"/>
-        <v>2759.8896206723489</v>
+        <v>2760.0176299894615</v>
       </c>
       <c r="DK32" s="1">
         <f t="shared" si="90"/>
-        <v>2677.0929320521782</v>
+        <v>2677.2171010897778</v>
       </c>
       <c r="DL32" s="1">
         <f t="shared" si="90"/>
-        <v>2596.7801440906128</v>
+        <v>2596.9005880570844</v>
       </c>
       <c r="DM32" s="1">
         <f t="shared" si="90"/>
-        <v>2518.8767397678944</v>
+        <v>2518.9935704153718</v>
       </c>
       <c r="DN32" s="1">
         <f t="shared" si="90"/>
-        <v>2443.3104375748576</v>
+        <v>2443.4237633029106</v>
       </c>
       <c r="DO32" s="1">
         <f t="shared" si="90"/>
-        <v>2370.011124447612</v>
+        <v>2370.1210504038231</v>
       </c>
       <c r="DP32" s="1">
         <f t="shared" si="90"/>
-        <v>2298.9107907141838</v>
+        <v>2299.0174188917085</v>
       </c>
       <c r="DQ32" s="1">
         <f t="shared" si="90"/>
-        <v>2229.9434669927582</v>
+        <v>2230.0468963249573</v>
       </c>
       <c r="DR32" s="1">
         <f t="shared" si="90"/>
-        <v>2163.0451629829754</v>
+        <v>2163.1454894352087</v>
       </c>
       <c r="DS32" s="1">
         <f t="shared" si="90"/>
-        <v>2098.1538080934861</v>
+        <v>2098.2511247521525</v>
       </c>
       <c r="DT32" s="1">
         <f t="shared" si="90"/>
-        <v>2035.2091938506815</v>
+        <v>2035.3035910095878</v>
       </c>
       <c r="DU32" s="1">
         <f t="shared" si="90"/>
-        <v>1974.1529180351611</v>
+        <v>1974.2444832793001</v>
       </c>
       <c r="DV32" s="1">
         <f t="shared" si="90"/>
-        <v>1914.9283304941061</v>
+        <v>1915.0171487809209</v>
       </c>
       <c r="DW32" s="1">
         <f t="shared" si="90"/>
-        <v>1857.4804805792828</v>
+        <v>1857.5666343174933</v>
       </c>
       <c r="DX32" s="1">
         <f t="shared" si="90"/>
-        <v>1801.7560661619043</v>
+        <v>1801.8396352879683</v>
       </c>
       <c r="DY32" s="1">
         <f t="shared" si="90"/>
-        <v>1747.7033841770472</v>
+        <v>1747.7844462293292</v>
       </c>
       <c r="DZ32" s="1">
         <f t="shared" si="90"/>
-        <v>1695.2722826517356</v>
+        <v>1695.3509128424494</v>
       </c>
     </row>
     <row r="33" spans="2:91" s="45" customFormat="1" x14ac:dyDescent="0.2">
@@ -10509,7 +10596,7 @@
       </c>
       <c r="BE33" s="55">
         <f t="shared" si="97"/>
-        <v>14.852640545144801</v>
+        <v>14.863713798977853</v>
       </c>
       <c r="BF33" s="55">
         <f t="shared" si="97"/>
@@ -10573,51 +10660,51 @@
       </c>
       <c r="BZ33" s="56">
         <f t="shared" si="99"/>
-        <v>51.70879239576584</v>
+        <v>51.720025923525611</v>
       </c>
       <c r="CA33" s="56">
         <f t="shared" si="99"/>
-        <v>64.827833282026376</v>
+        <v>64.828362856448507</v>
       </c>
       <c r="CB33" s="56">
         <f t="shared" si="99"/>
-        <v>61.984632241034788</v>
+        <v>61.985543468945771</v>
       </c>
       <c r="CC33" s="56">
         <f t="shared" si="99"/>
-        <v>58.107977069610079</v>
+        <v>58.109259577006924</v>
       </c>
       <c r="CD33" s="56">
         <f t="shared" si="99"/>
-        <v>54.902225969173386</v>
+        <v>54.903741357811846</v>
       </c>
       <c r="CE33" s="56">
         <f t="shared" si="99"/>
-        <v>53.151795751066103</v>
+        <v>53.153529711867016</v>
       </c>
       <c r="CF33" s="56">
         <f t="shared" si="99"/>
-        <v>52.463309267312539</v>
+        <v>52.465252044351402</v>
       </c>
       <c r="CG33" s="56">
         <f t="shared" si="99"/>
-        <v>52.559605522636666</v>
+        <v>52.561751087859413</v>
       </c>
       <c r="CH33" s="56">
         <f t="shared" si="99"/>
-        <v>51.73766580653222</v>
+        <v>51.739878113929947</v>
       </c>
       <c r="CI33" s="56">
         <f t="shared" si="99"/>
-        <v>51.277825175846992</v>
+        <v>51.280095835536933</v>
       </c>
       <c r="CJ33" s="56">
         <f t="shared" si="99"/>
-        <v>51.079397526424891</v>
+        <v>51.081719876086311</v>
       </c>
       <c r="CK33" s="56">
         <f t="shared" si="99"/>
-        <v>51.070624331618617</v>
+        <v>51.072993091476306</v>
       </c>
     </row>
     <row r="34" spans="2:91" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -10952,7 +11039,7 @@
       </c>
       <c r="BE36" s="44">
         <f t="shared" si="110"/>
-        <v>0.10615521855486176</v>
+        <v>0.10654177817424926</v>
       </c>
       <c r="BF36" s="44">
         <f t="shared" si="110"/>
@@ -10968,7 +11055,7 @@
       </c>
       <c r="BI36" s="44">
         <f t="shared" si="110"/>
-        <v>-0.61623420698924736</v>
+        <v>-0.61649725902238472</v>
       </c>
       <c r="BJ36" s="44">
         <f t="shared" si="110"/>
@@ -11028,7 +11115,7 @@
       </c>
       <c r="BZ36" s="51">
         <f>+BZ22/BY22-1</f>
-        <v>8.2640847754821944E-2</v>
+        <v>8.2739955782572094E-2</v>
       </c>
       <c r="CL36" t="s">
         <v>364</v>
@@ -11139,7 +11226,7 @@
       </c>
       <c r="BE37" s="42">
         <f t="shared" ref="BE37" si="115">+BE3/BA3-1</f>
-        <v>-0.20925414364640882</v>
+        <v>-0.20953038674033153</v>
       </c>
       <c r="BF37" s="42">
         <f>+BF3/BB3-1</f>
@@ -11155,7 +11242,7 @@
       </c>
       <c r="BI37" s="42">
         <f t="shared" ref="BI37" si="118">+BI3/BE3-1</f>
-        <v>-0.36173908296943236</v>
+        <v>-0.36151603180150271</v>
       </c>
       <c r="BJ37" s="42">
         <f t="shared" ref="BJ37" si="119">+BJ3/BF3-1</f>
@@ -11212,7 +11299,7 @@
       </c>
       <c r="BZ37" s="51">
         <f t="shared" si="120"/>
-        <v>-0.16643356643356644</v>
+        <v>-0.1665034965034965</v>
       </c>
       <c r="CL37" t="s">
         <v>365</v>
@@ -11298,7 +11385,7 @@
       </c>
       <c r="BZ38" s="51">
         <f>SUM(BZ3:BZ4)/SUM(BY3:BY4)-1</f>
-        <v>1.4101257220523244E-2</v>
+        <v>1.4084267753992519E-2</v>
       </c>
       <c r="CL38"/>
       <c r="CM38" s="50"/>
@@ -11365,7 +11452,7 @@
       </c>
       <c r="BE39" s="42">
         <f t="shared" ref="BE39" si="128">BE10/BA10-1</f>
-        <v>0.18591549295774645</v>
+        <v>0.18629107981220638</v>
       </c>
       <c r="BF39" s="42">
         <f t="shared" ref="BF39" si="129">BF10/BB10-1</f>
@@ -11392,7 +11479,7 @@
       </c>
       <c r="CM39" s="1">
         <f>NPV(8%,CA32:DZ32)+Main!J5-Main!J6</f>
-        <v>83767.624983460497</v>
+        <v>83769.977861576699</v>
       </c>
     </row>
     <row r="40" spans="2:91" x14ac:dyDescent="0.2">
@@ -11525,7 +11612,7 @@
       <c r="BY41" s="50"/>
       <c r="BZ41" s="50">
         <f>+BZ5/BY5-1</f>
-        <v>0.41019698725376585</v>
+        <v>0.40973348783314001</v>
       </c>
     </row>
     <row r="43" spans="2:91" x14ac:dyDescent="0.2">
@@ -11606,7 +11693,7 @@
       </c>
       <c r="BE43" s="42">
         <f t="shared" si="151"/>
-        <v>0.94155913978494621</v>
+        <v>0.94157955553166905</v>
       </c>
       <c r="BF43" s="42">
         <f t="shared" si="151"/>
@@ -11619,8 +11706,20 @@
       <c r="B45" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="BD45" s="1">
+        <f>+BD46-BD59</f>
+        <v>15547.800000000001</v>
+      </c>
+      <c r="BE45" s="1">
+        <f>+BE46-BE59</f>
+        <v>16303.400000000001</v>
+      </c>
       <c r="BF45" s="1">
         <f>+BF46-BF59</f>
+        <v>15928.199999999999</v>
+      </c>
+      <c r="BZ45" s="1">
+        <f>+BZ46-BZ59</f>
         <v>15928.199999999999</v>
       </c>
     </row>
@@ -11683,9 +11782,18 @@
         <v>16241.3</v>
       </c>
       <c r="BD46" s="1">
-        <v>17531</v>
+        <f>1920.7+7888.3+7722.4</f>
+        <v>17531.400000000001</v>
+      </c>
+      <c r="BE46" s="1">
+        <f>2011.8+7784.7+8490.9</f>
+        <v>18287.400000000001</v>
       </c>
       <c r="BF46" s="1">
+        <v>17912.599999999999</v>
+      </c>
+      <c r="BZ46" s="1">
+        <f>+BF46</f>
         <v>17912.599999999999</v>
       </c>
     </row>
@@ -11746,7 +11854,17 @@
       <c r="BB47" s="1">
         <v>5667.3</v>
       </c>
+      <c r="BD47" s="1">
+        <v>5717.1</v>
+      </c>
+      <c r="BE47" s="1">
+        <v>6107.1</v>
+      </c>
       <c r="BF47" s="1">
+        <v>6211.9</v>
+      </c>
+      <c r="BZ47" s="1">
+        <f t="shared" ref="BZ47:BZ53" si="152">+BF47</f>
         <v>6211.9</v>
       </c>
     </row>
@@ -11807,11 +11925,21 @@
       <c r="BB48" s="1">
         <v>2580.5</v>
       </c>
+      <c r="BD48" s="1">
+        <v>2873.6</v>
+      </c>
+      <c r="BE48" s="1">
+        <v>3018</v>
+      </c>
       <c r="BF48" s="1">
         <v>3087.3</v>
       </c>
-    </row>
-    <row r="49" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ48" s="1">
+        <f t="shared" si="152"/>
+        <v>3087.3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>305</v>
       </c>
@@ -11868,11 +11996,21 @@
       <c r="BB49" s="1">
         <v>0</v>
       </c>
+      <c r="BD49" s="1">
+        <v>681.9</v>
+      </c>
+      <c r="BE49" s="1">
+        <v>412</v>
+      </c>
       <c r="BF49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ49" s="1">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>306</v>
       </c>
@@ -11929,11 +12067,21 @@
       <c r="BB50" s="1">
         <v>4146.3999999999996</v>
       </c>
+      <c r="BD50" s="1">
+        <v>4305.8999999999996</v>
+      </c>
+      <c r="BE50" s="1">
+        <v>4439.2</v>
+      </c>
       <c r="BF50" s="1">
         <v>4599.7</v>
       </c>
-    </row>
-    <row r="51" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ50" s="1">
+        <f t="shared" si="152"/>
+        <v>4599.7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>307</v>
       </c>
@@ -11990,11 +12138,21 @@
       <c r="BB51" s="1">
         <v>1038.5999999999999</v>
       </c>
+      <c r="BD51" s="1">
+        <v>1102.2</v>
+      </c>
+      <c r="BE51" s="1">
+        <v>1120.0999999999999</v>
+      </c>
       <c r="BF51" s="1">
         <v>1148.5999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ51" s="1">
+        <f t="shared" si="152"/>
+        <v>1148.5999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>222</v>
       </c>
@@ -12051,11 +12209,21 @@
       <c r="BB52" s="1">
         <v>2575.4</v>
       </c>
+      <c r="BD52" s="1">
+        <v>2880.9</v>
+      </c>
+      <c r="BE52" s="1">
+        <v>3015.1</v>
+      </c>
       <c r="BF52" s="1">
         <v>3314.1</v>
       </c>
-    </row>
-    <row r="53" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ52" s="1">
+        <f t="shared" si="152"/>
+        <v>3314.1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>308</v>
       </c>
@@ -12112,11 +12280,21 @@
       <c r="BB53" s="1">
         <v>830.7</v>
       </c>
+      <c r="BD53" s="1">
+        <v>993.8</v>
+      </c>
+      <c r="BE53" s="1">
+        <v>1043</v>
+      </c>
       <c r="BF53" s="1">
         <v>1485.2</v>
       </c>
-    </row>
-    <row r="54" spans="2:77" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BZ53" s="1">
+        <f t="shared" si="152"/>
+        <v>1485.2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>309</v>
       </c>
@@ -12175,15 +12353,27 @@
         <f>SUM(BB46:BB53)</f>
         <v>33080.199999999997</v>
       </c>
+      <c r="BD54" s="1">
+        <f>SUM(BD46:BD53)</f>
+        <v>36086.800000000003</v>
+      </c>
+      <c r="BE54" s="1">
+        <f>SUM(BE46:BE53)</f>
+        <v>37441.9</v>
+      </c>
       <c r="BF54" s="1">
         <f>SUM(BF46:BF53)</f>
         <v>37759.399999999994</v>
       </c>
-    </row>
-    <row r="55" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="BZ54" s="1">
+        <f>SUM(BZ46:BZ53)</f>
+        <v>37759.399999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="2:78" x14ac:dyDescent="0.2">
       <c r="BD55" s="1"/>
     </row>
-    <row r="56" spans="2:77" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>310</v>
       </c>
@@ -12193,12 +12383,21 @@
       <c r="BB56" s="1">
         <v>3818.6</v>
       </c>
-      <c r="BD56" s="1"/>
+      <c r="BD56" s="1">
+        <v>561.70000000000005</v>
+      </c>
+      <c r="BE56" s="1">
+        <v>497.3</v>
+      </c>
       <c r="BF56" s="1">
         <v>4888</v>
       </c>
-    </row>
-    <row r="57" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="BZ56" s="1">
+        <f>+BF56</f>
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="57" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>311</v>
       </c>
@@ -12208,12 +12407,21 @@
       <c r="BB57" s="1">
         <v>0</v>
       </c>
-      <c r="BD57" s="1"/>
+      <c r="BD57" s="1">
+        <v>2360.9</v>
+      </c>
+      <c r="BE57" s="1">
+        <v>2536.5</v>
+      </c>
       <c r="BF57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="BZ57" s="1">
+        <f t="shared" ref="BZ57:BZ62" si="153">+BF57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>312</v>
       </c>
@@ -12224,12 +12432,23 @@
       <c r="BB58" s="1">
         <v>585.6</v>
       </c>
-      <c r="BD58" s="1"/>
+      <c r="BD58" s="1">
+        <f>586+205.6</f>
+        <v>791.6</v>
+      </c>
+      <c r="BE58" s="1">
+        <f>627.2+207.4</f>
+        <v>834.6</v>
+      </c>
       <c r="BF58" s="1">
         <v>813.4</v>
       </c>
-    </row>
-    <row r="59" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="BZ58" s="1">
+        <f t="shared" si="153"/>
+        <v>813.4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>29</v>
       </c>
@@ -12242,11 +12461,18 @@
       <c r="BD59" s="1">
         <v>1983.6</v>
       </c>
+      <c r="BE59" s="1">
+        <v>1984</v>
+      </c>
       <c r="BF59" s="1">
         <v>1984.4</v>
       </c>
-    </row>
-    <row r="60" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="BZ59" s="1">
+        <f t="shared" si="153"/>
+        <v>1984.4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>313</v>
       </c>
@@ -12256,26 +12482,92 @@
       <c r="BB60">
         <v>720</v>
       </c>
-      <c r="BD60" s="1"/>
+      <c r="BD60" s="1">
+        <v>720</v>
+      </c>
+      <c r="BE60" s="1">
+        <v>720</v>
+      </c>
       <c r="BF60">
         <v>720</v>
       </c>
-    </row>
-    <row r="61" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="BZ60" s="1">
+        <f t="shared" si="153"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="61" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>316</v>
       </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="15"/>
+      <c r="Q61" s="15"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
+      <c r="T61" s="15"/>
+      <c r="U61" s="15"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="15"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="15"/>
+      <c r="AD61" s="15"/>
+      <c r="AE61" s="15"/>
+      <c r="AF61" s="15"/>
+      <c r="AG61" s="15"/>
+      <c r="AH61" s="15"/>
+      <c r="AI61" s="15"/>
+      <c r="AJ61" s="15"/>
+      <c r="AK61" s="15"/>
+      <c r="AL61" s="15"/>
+      <c r="AM61" s="15"/>
+      <c r="AN61" s="15"/>
+      <c r="AO61" s="15"/>
+      <c r="AP61" s="15"/>
+      <c r="AQ61" s="15"/>
+      <c r="AR61" s="15"/>
+      <c r="AS61" s="15"/>
+      <c r="AT61" s="15"/>
+      <c r="AU61" s="15"/>
+      <c r="AV61" s="15"/>
+      <c r="AW61" s="15"/>
       <c r="AX61" s="15">
         <v>638</v>
       </c>
       <c r="BB61" s="1">
         <v>0</v>
       </c>
+      <c r="BD61" s="1">
+        <v>1463.2</v>
+      </c>
+      <c r="BE61" s="1">
+        <v>1543.6</v>
+      </c>
       <c r="BF61" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="BZ61" s="1">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>315</v>
       </c>
@@ -12285,11 +12577,21 @@
       <c r="BB62" s="1">
         <v>25973.1</v>
       </c>
+      <c r="BD62" s="1">
+        <v>28205.8</v>
+      </c>
+      <c r="BE62" s="1">
+        <v>29325.9</v>
+      </c>
       <c r="BF62" s="1">
         <v>29353.599999999999</v>
       </c>
-    </row>
-    <row r="63" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="BZ62" s="1">
+        <f t="shared" si="153"/>
+        <v>29353.599999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>314</v>
       </c>
@@ -12301,349 +12603,1943 @@
         <f>SUM(BB56:BB62)</f>
         <v>33080.199999999997</v>
       </c>
+      <c r="BD63" s="1">
+        <f>SUM(BD56:BD62)</f>
+        <v>36086.800000000003</v>
+      </c>
+      <c r="BE63" s="1">
+        <f>SUM(BE56:BE62)</f>
+        <v>37441.9</v>
+      </c>
       <c r="BF63" s="1">
         <f>SUM(BF56:BF62)</f>
         <v>37759.399999999994</v>
       </c>
-    </row>
-    <row r="64" spans="2:77" x14ac:dyDescent="0.2">
-      <c r="BU64" s="50"/>
-      <c r="BV64" s="50"/>
-      <c r="BW64" s="50"/>
-      <c r="BX64" s="50"/>
-      <c r="BY64" s="50"/>
+      <c r="BZ63" s="1">
+        <f>SUM(BZ56:BZ62)</f>
+        <v>37759.399999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="2:78" x14ac:dyDescent="0.2">
+      <c r="AX64" s="15"/>
+      <c r="BB64" s="1"/>
+      <c r="BF64" s="1"/>
     </row>
     <row r="65" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AX65" s="15"/>
+      <c r="BB65" s="1">
+        <f t="shared" ref="BB65:BF65" si="154">+BB32</f>
+        <v>1396</v>
+      </c>
+      <c r="BC65" s="1">
+        <f t="shared" si="154"/>
+        <v>1243</v>
+      </c>
+      <c r="BD65" s="1">
+        <f t="shared" si="154"/>
+        <v>1594</v>
+      </c>
+      <c r="BE65" s="1">
+        <f t="shared" si="154"/>
+        <v>1745</v>
+      </c>
+      <c r="BF65" s="1">
+        <f>+BF32</f>
+        <v>1403.3</v>
+      </c>
+      <c r="BX65" s="1">
+        <f t="shared" ref="BX65:BZ65" si="155">+BX32</f>
+        <v>4711.2000000000016</v>
+      </c>
+      <c r="BY65" s="1">
+        <f t="shared" si="155"/>
+        <v>5367.2850000000008</v>
+      </c>
+      <c r="BZ65" s="1">
+        <f t="shared" si="155"/>
+        <v>5985.3000000000011</v>
+      </c>
+    </row>
+    <row r="66" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="15"/>
+      <c r="R66" s="15"/>
+      <c r="S66" s="15"/>
+      <c r="T66" s="15"/>
+      <c r="U66" s="15"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="15"/>
+      <c r="Y66" s="15"/>
+      <c r="Z66" s="15"/>
+      <c r="AA66" s="15"/>
+      <c r="AB66" s="15"/>
+      <c r="AC66" s="15"/>
+      <c r="AD66" s="15"/>
+      <c r="AE66" s="15"/>
+      <c r="AF66" s="15"/>
+      <c r="AG66" s="15"/>
+      <c r="AH66" s="15"/>
+      <c r="AI66" s="15"/>
+      <c r="AJ66" s="15"/>
+      <c r="AK66" s="15"/>
+      <c r="AL66" s="15"/>
+      <c r="AM66" s="15"/>
+      <c r="AN66" s="15"/>
+      <c r="AO66" s="15"/>
+      <c r="AP66" s="15"/>
+      <c r="AQ66" s="15"/>
+      <c r="AR66" s="15"/>
+      <c r="AS66" s="15"/>
+      <c r="AT66" s="15"/>
+      <c r="AU66" s="15"/>
+      <c r="AV66" s="15"/>
+      <c r="AW66" s="15"/>
+      <c r="AX66" s="15"/>
+      <c r="BD66" s="1">
+        <f>2154.3-BC66</f>
+        <v>2154.3000000000002</v>
+      </c>
+      <c r="BE66" s="1">
+        <f>3494.9-BD66-BC66</f>
+        <v>1340.6</v>
+      </c>
+      <c r="BF66" s="1">
+        <f>+BZ66-BE66-BD66-BC66</f>
+        <v>917.70000000000027</v>
+      </c>
+      <c r="BX66" s="1">
+        <v>4338.3999999999996</v>
+      </c>
+      <c r="BY66" s="1">
+        <v>3953.6</v>
+      </c>
+      <c r="BZ66" s="1">
+        <v>4412.6000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="15"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="15"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
+      <c r="T67" s="15"/>
+      <c r="U67" s="15"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="15"/>
+      <c r="Y67" s="15"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
+      <c r="AE67" s="15"/>
+      <c r="AF67" s="15"/>
+      <c r="AG67" s="15"/>
+      <c r="AH67" s="15"/>
+      <c r="AI67" s="15"/>
+      <c r="AJ67" s="15"/>
+      <c r="AK67" s="15"/>
+      <c r="AL67" s="15"/>
+      <c r="AM67" s="15"/>
+      <c r="AN67" s="15"/>
+      <c r="AO67" s="15"/>
+      <c r="AP67" s="15"/>
+      <c r="AQ67" s="15"/>
+      <c r="AR67" s="15"/>
+      <c r="AS67" s="15"/>
+      <c r="AT67" s="15"/>
+      <c r="AU67" s="15"/>
+      <c r="AV67" s="15"/>
+      <c r="AW67" s="15"/>
+      <c r="AX67" s="15"/>
+      <c r="BD67" s="1">
+        <f>234.8-BC67</f>
+        <v>234.8</v>
+      </c>
+      <c r="BE67" s="1">
+        <f>356.5-BD67-BC67</f>
+        <v>121.69999999999999</v>
+      </c>
+      <c r="BF67" s="1">
+        <f t="shared" ref="BF67:BF73" si="156">+BZ67-BE67-BD67-BC67</f>
+        <v>126.39999999999998</v>
+      </c>
+      <c r="BX67" s="1">
+        <v>341.4</v>
+      </c>
+      <c r="BY67" s="1">
+        <v>421</v>
+      </c>
+      <c r="BZ67" s="1">
+        <v>482.9</v>
+      </c>
+    </row>
+    <row r="68" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="15"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="15"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="15"/>
+      <c r="R68" s="15"/>
+      <c r="S68" s="15"/>
+      <c r="T68" s="15"/>
+      <c r="U68" s="15"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="15"/>
+      <c r="Y68" s="15"/>
+      <c r="Z68" s="15"/>
+      <c r="AA68" s="15"/>
+      <c r="AB68" s="15"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="15"/>
+      <c r="AF68" s="15"/>
+      <c r="AG68" s="15"/>
+      <c r="AH68" s="15"/>
+      <c r="AI68" s="15"/>
+      <c r="AJ68" s="15"/>
+      <c r="AK68" s="15"/>
+      <c r="AL68" s="15"/>
+      <c r="AM68" s="15"/>
+      <c r="AN68" s="15"/>
+      <c r="AO68" s="15"/>
+      <c r="AP68" s="15"/>
+      <c r="AQ68" s="15"/>
+      <c r="AR68" s="15"/>
+      <c r="AS68" s="15"/>
+      <c r="AT68" s="15"/>
+      <c r="AU68" s="15"/>
+      <c r="AV68" s="15"/>
+      <c r="AW68" s="15"/>
+      <c r="AX68" s="15"/>
+      <c r="BD68" s="1">
+        <f>453.3-BC68</f>
+        <v>453.3</v>
+      </c>
+      <c r="BE68" s="1">
+        <f>678.4-BD68-BC68</f>
+        <v>225.09999999999997</v>
+      </c>
+      <c r="BF68" s="1">
+        <f t="shared" si="156"/>
+        <v>304.40000000000003</v>
+      </c>
+      <c r="BX68" s="1">
+        <v>725</v>
+      </c>
+      <c r="BY68" s="1">
+        <v>885</v>
+      </c>
+      <c r="BZ68" s="1">
+        <v>982.8</v>
+      </c>
+    </row>
+    <row r="69" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="15"/>
+      <c r="AH69" s="15"/>
+      <c r="AI69" s="15"/>
+      <c r="AJ69" s="15"/>
+      <c r="AK69" s="15"/>
+      <c r="AL69" s="15"/>
+      <c r="AM69" s="15"/>
+      <c r="AN69" s="15"/>
+      <c r="AO69" s="15"/>
+      <c r="AP69" s="15"/>
+      <c r="AQ69" s="15"/>
+      <c r="AR69" s="15"/>
+      <c r="AS69" s="15"/>
+      <c r="AT69" s="15"/>
+      <c r="AU69" s="15"/>
+      <c r="AV69" s="15"/>
+      <c r="AW69" s="15"/>
+      <c r="AX69" s="15"/>
+      <c r="BD69" s="1">
+        <f>-196.5-BC69</f>
+        <v>-196.5</v>
+      </c>
+      <c r="BE69" s="1">
+        <f>-331.2-BD69-BC69</f>
+        <v>-134.69999999999999</v>
+      </c>
+      <c r="BF69" s="1">
+        <f t="shared" si="156"/>
+        <v>212.89999999999998</v>
+      </c>
+      <c r="BX69" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="BY69" s="1">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="BZ69" s="1">
+        <v>-118.3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+      <c r="T70" s="15"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="15"/>
+      <c r="Y70" s="15"/>
+      <c r="Z70" s="15"/>
+      <c r="AA70" s="15"/>
+      <c r="AB70" s="15"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
+      <c r="AE70" s="15"/>
+      <c r="AF70" s="15"/>
+      <c r="AG70" s="15"/>
+      <c r="AH70" s="15"/>
+      <c r="AI70" s="15"/>
+      <c r="AJ70" s="15"/>
+      <c r="AK70" s="15"/>
+      <c r="AL70" s="15"/>
+      <c r="AM70" s="15"/>
+      <c r="AN70" s="15"/>
+      <c r="AO70" s="15"/>
+      <c r="AP70" s="15"/>
+      <c r="AQ70" s="15"/>
+      <c r="AR70" s="15"/>
+      <c r="AS70" s="15"/>
+      <c r="AT70" s="15"/>
+      <c r="AU70" s="15"/>
+      <c r="AV70" s="15"/>
+      <c r="AW70" s="15"/>
+      <c r="AX70" s="15"/>
+      <c r="BD70" s="1">
+        <f>-2.9-BC70</f>
+        <v>-2.9</v>
+      </c>
+      <c r="BE70" s="1">
+        <f>-31.9-BD70-BC70</f>
+        <v>-29</v>
+      </c>
+      <c r="BF70" s="1">
+        <f t="shared" si="156"/>
+        <v>55.4</v>
+      </c>
+      <c r="BX70" s="1">
+        <v>368</v>
+      </c>
+      <c r="BY70" s="1">
+        <v>-0.1</v>
+      </c>
+      <c r="BZ70" s="1">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+      <c r="T71" s="15"/>
+      <c r="U71" s="15"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="15"/>
+      <c r="Y71" s="15"/>
+      <c r="Z71" s="15"/>
+      <c r="AA71" s="15"/>
+      <c r="AB71" s="15"/>
+      <c r="AC71" s="15"/>
+      <c r="AD71" s="15"/>
+      <c r="AE71" s="15"/>
+      <c r="AF71" s="15"/>
+      <c r="AG71" s="15"/>
+      <c r="AH71" s="15"/>
+      <c r="AI71" s="15"/>
+      <c r="AJ71" s="15"/>
+      <c r="AK71" s="15"/>
+      <c r="AL71" s="15"/>
+      <c r="AM71" s="15"/>
+      <c r="AN71" s="15"/>
+      <c r="AO71" s="15"/>
+      <c r="AP71" s="15"/>
+      <c r="AQ71" s="15"/>
+      <c r="AR71" s="15"/>
+      <c r="AS71" s="15"/>
+      <c r="AT71" s="15"/>
+      <c r="AU71" s="15"/>
+      <c r="AV71" s="15"/>
+      <c r="AW71" s="15"/>
+      <c r="AX71" s="15"/>
+      <c r="BD71" s="1">
+        <f>-308.5-BC71</f>
+        <v>-308.5</v>
+      </c>
+      <c r="BE71" s="1">
+        <f>-477.1-BD71-BC71</f>
+        <v>-168.60000000000002</v>
+      </c>
+      <c r="BF71" s="1">
+        <f t="shared" si="156"/>
+        <v>-280.19999999999993</v>
+      </c>
+      <c r="BX71" s="1">
+        <v>-746.4</v>
+      </c>
+      <c r="BY71" s="1">
+        <v>-837.8</v>
+      </c>
+      <c r="BZ71" s="1">
+        <v>-757.3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+      <c r="T72" s="15"/>
+      <c r="U72" s="15"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="15"/>
+      <c r="Y72" s="15"/>
+      <c r="Z72" s="15"/>
+      <c r="AA72" s="15"/>
+      <c r="AB72" s="15"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="15"/>
+      <c r="AH72" s="15"/>
+      <c r="AI72" s="15"/>
+      <c r="AJ72" s="15"/>
+      <c r="AK72" s="15"/>
+      <c r="AL72" s="15"/>
+      <c r="AM72" s="15"/>
+      <c r="AN72" s="15"/>
+      <c r="AO72" s="15"/>
+      <c r="AP72" s="15"/>
+      <c r="AQ72" s="15"/>
+      <c r="AR72" s="15"/>
+      <c r="AS72" s="15"/>
+      <c r="AT72" s="15"/>
+      <c r="AU72" s="15"/>
+      <c r="AV72" s="15"/>
+      <c r="AW72" s="15"/>
+      <c r="AX72" s="15"/>
+      <c r="BD72" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE72" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF72" s="1">
+        <f t="shared" si="156"/>
+        <v>12.6</v>
+      </c>
+      <c r="BX72" s="1">
+        <v>195</v>
+      </c>
+      <c r="BY72" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ72" s="1">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+      <c r="T73" s="15"/>
+      <c r="U73" s="15"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="15"/>
+      <c r="Y73" s="15"/>
+      <c r="Z73" s="15"/>
+      <c r="AA73" s="15"/>
+      <c r="AB73" s="15"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="15"/>
+      <c r="AH73" s="15"/>
+      <c r="AI73" s="15"/>
+      <c r="AJ73" s="15"/>
+      <c r="AK73" s="15"/>
+      <c r="AL73" s="15"/>
+      <c r="AM73" s="15"/>
+      <c r="AN73" s="15"/>
+      <c r="AO73" s="15"/>
+      <c r="AP73" s="15"/>
+      <c r="AQ73" s="15"/>
+      <c r="AR73" s="15"/>
+      <c r="AS73" s="15"/>
+      <c r="AT73" s="15"/>
+      <c r="AU73" s="15"/>
+      <c r="AV73" s="15"/>
+      <c r="AW73" s="15"/>
+      <c r="AX73" s="15"/>
+      <c r="BD73" s="1">
+        <f>-47.3-337.6-604.2+206+315.1</f>
+        <v>-468.00000000000011</v>
+      </c>
+      <c r="BE73" s="1">
+        <f>-436.2-502-352.2+249+509.5-BD73-BC73</f>
+        <v>-63.899999999999977</v>
+      </c>
+      <c r="BF73" s="1">
+        <f t="shared" si="156"/>
+        <v>-86.399999999999977</v>
+      </c>
+      <c r="BX73" s="1">
+        <f>707.8-696.5-148.6+32.4-138.4</f>
+        <v>-243.30000000000004</v>
+      </c>
+      <c r="BY73" s="1">
+        <f>-338.8-271.7-120.1+37.9+598.6</f>
+        <v>-94.100000000000023</v>
+      </c>
+      <c r="BZ73" s="1">
+        <f>-554-619.7-407.5+227.8+735.1</f>
+        <v>-618.30000000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+      <c r="T74" s="15"/>
+      <c r="U74" s="15"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="15"/>
+      <c r="Y74" s="15"/>
+      <c r="Z74" s="15"/>
+      <c r="AA74" s="15"/>
+      <c r="AB74" s="15"/>
+      <c r="AC74" s="15"/>
+      <c r="AD74" s="15"/>
+      <c r="AE74" s="15"/>
+      <c r="AF74" s="15"/>
+      <c r="AG74" s="15"/>
+      <c r="AH74" s="15"/>
+      <c r="AI74" s="15"/>
+      <c r="AJ74" s="15"/>
+      <c r="AK74" s="15"/>
+      <c r="AL74" s="15"/>
+      <c r="AM74" s="15"/>
+      <c r="AN74" s="15"/>
+      <c r="AO74" s="15"/>
+      <c r="AP74" s="15"/>
+      <c r="AQ74" s="15"/>
+      <c r="AR74" s="15"/>
+      <c r="AS74" s="15"/>
+      <c r="AT74" s="15"/>
+      <c r="AU74" s="15"/>
+      <c r="AV74" s="15"/>
+      <c r="AW74" s="15"/>
+      <c r="AX74" s="15"/>
+      <c r="BC74" s="1">
+        <f t="shared" ref="BC74:BE74" si="157">SUM(BC66:BC73)</f>
+        <v>0</v>
+      </c>
+      <c r="BD74" s="1">
+        <f>SUM(BD66:BD73)</f>
+        <v>1866.5000000000005</v>
+      </c>
+      <c r="BE74" s="1">
+        <f>SUM(BE66:BE73)</f>
+        <v>1291.1999999999998</v>
+      </c>
+      <c r="BF74" s="1">
+        <f>SUM(BF66:BF73)</f>
+        <v>1262.8000000000006</v>
+      </c>
+      <c r="BX74" s="1">
+        <f>SUM(BX66:BX73)</f>
+        <v>5014.8999999999996</v>
+      </c>
+      <c r="BY74" s="1">
+        <f>SUM(BY66:BY73)</f>
+        <v>4593.9999999999991</v>
+      </c>
+      <c r="BZ74" s="1">
+        <f>SUM(BZ66:BZ73)</f>
+        <v>4420.5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:78" x14ac:dyDescent="0.2">
+      <c r="BU75" s="50"/>
+      <c r="BV75" s="50"/>
+      <c r="BW75" s="50"/>
+      <c r="BX75" s="50"/>
+      <c r="BY75" s="50"/>
+    </row>
+    <row r="76" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+      <c r="T76" s="15"/>
+      <c r="U76" s="15"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="15"/>
+      <c r="Y76" s="15"/>
+      <c r="Z76" s="15"/>
+      <c r="AA76" s="15"/>
+      <c r="AB76" s="15"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
+      <c r="AE76" s="15"/>
+      <c r="AF76" s="15"/>
+      <c r="AG76" s="15"/>
+      <c r="AH76" s="15"/>
+      <c r="AI76" s="15"/>
+      <c r="AJ76" s="15"/>
+      <c r="AK76" s="15"/>
+      <c r="AL76" s="15"/>
+      <c r="AM76" s="15"/>
+      <c r="AN76" s="15"/>
+      <c r="AO76" s="15"/>
+      <c r="AP76" s="15"/>
+      <c r="AQ76" s="15"/>
+      <c r="AR76" s="15"/>
+      <c r="AS76" s="15"/>
+      <c r="AT76" s="15"/>
+      <c r="AU76" s="15"/>
+      <c r="AV76" s="15"/>
+      <c r="AW76" s="15"/>
+      <c r="AX76" s="15"/>
+      <c r="BE76" s="1">
+        <f>-14664.5+12445.3-BD76-BC76</f>
+        <v>-2219.2000000000007</v>
+      </c>
+      <c r="BF76" s="1">
+        <f t="shared" ref="BF76:BF79" si="158">+BZ76-BE76-BD76-BC76</f>
+        <v>629.09999999999854</v>
+      </c>
+      <c r="BX76" s="1">
+        <f>-7487.9+5550.5</f>
+        <v>-1937.3999999999996</v>
+      </c>
+      <c r="BY76" s="1">
+        <f>-11646+9442.2</f>
+        <v>-2203.7999999999993</v>
+      </c>
+      <c r="BZ76" s="1">
+        <f>-16617.4+15027.3</f>
+        <v>-1590.1000000000022</v>
+      </c>
+    </row>
+    <row r="77" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="15"/>
+      <c r="AH77" s="15"/>
+      <c r="AI77" s="15"/>
+      <c r="AJ77" s="15"/>
+      <c r="AK77" s="15"/>
+      <c r="AL77" s="15"/>
+      <c r="AM77" s="15"/>
+      <c r="AN77" s="15"/>
+      <c r="AO77" s="15"/>
+      <c r="AP77" s="15"/>
+      <c r="AQ77" s="15"/>
+      <c r="AR77" s="15"/>
+      <c r="AS77" s="15"/>
+      <c r="AT77" s="15"/>
+      <c r="AU77" s="15"/>
+      <c r="AV77" s="15"/>
+      <c r="AW77" s="15"/>
+      <c r="AX77" s="15"/>
+      <c r="BE77" s="1">
+        <f>-556.3-BD77-BC77+20.1</f>
+        <v>-536.19999999999993</v>
+      </c>
+      <c r="BF77" s="1">
+        <f t="shared" si="158"/>
+        <v>-199.60000000000002</v>
+      </c>
+      <c r="BX77" s="1">
+        <v>-590.1</v>
+      </c>
+      <c r="BY77" s="1">
+        <v>-718.6</v>
+      </c>
+      <c r="BZ77" s="1">
+        <f>-755.9+20.1</f>
+        <v>-735.8</v>
+      </c>
+    </row>
+    <row r="78" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="15"/>
+      <c r="U78" s="15"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="15"/>
+      <c r="Y78" s="15"/>
+      <c r="Z78" s="15"/>
+      <c r="AA78" s="15"/>
+      <c r="AB78" s="15"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="15"/>
+      <c r="AH78" s="15"/>
+      <c r="AI78" s="15"/>
+      <c r="AJ78" s="15"/>
+      <c r="AK78" s="15"/>
+      <c r="AL78" s="15"/>
+      <c r="AM78" s="15"/>
+      <c r="AN78" s="15"/>
+      <c r="AO78" s="15"/>
+      <c r="AP78" s="15"/>
+      <c r="AQ78" s="15"/>
+      <c r="AR78" s="15"/>
+      <c r="AS78" s="15"/>
+      <c r="AT78" s="15"/>
+      <c r="AU78" s="15"/>
+      <c r="AV78" s="15"/>
+      <c r="AW78" s="15"/>
+      <c r="AX78" s="15"/>
+      <c r="BE78" s="1">
+        <f>-58.3-BD78-BC78</f>
+        <v>-58.3</v>
+      </c>
+      <c r="BF78" s="1">
+        <f t="shared" si="158"/>
+        <v>-67.400000000000006</v>
+      </c>
+      <c r="BX78" s="1">
+        <v>-1026.8</v>
+      </c>
+      <c r="BY78" s="1">
+        <v>-207.8</v>
+      </c>
+      <c r="BZ78" s="1">
+        <v>-125.7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+      <c r="T79" s="15"/>
+      <c r="U79" s="15"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="15"/>
+      <c r="Y79" s="15"/>
+      <c r="Z79" s="15"/>
+      <c r="AA79" s="15"/>
+      <c r="AB79" s="15"/>
+      <c r="AC79" s="15"/>
+      <c r="AD79" s="15"/>
+      <c r="AE79" s="15"/>
+      <c r="AF79" s="15"/>
+      <c r="AG79" s="15"/>
+      <c r="AH79" s="15"/>
+      <c r="AI79" s="15"/>
+      <c r="AJ79" s="15"/>
+      <c r="AK79" s="15"/>
+      <c r="AL79" s="15"/>
+      <c r="AM79" s="15"/>
+      <c r="AN79" s="15"/>
+      <c r="AO79" s="15"/>
+      <c r="AP79" s="15"/>
+      <c r="AQ79" s="15"/>
+      <c r="AR79" s="15"/>
+      <c r="AS79" s="15"/>
+      <c r="AT79" s="15"/>
+      <c r="AU79" s="15"/>
+      <c r="AV79" s="15"/>
+      <c r="AW79" s="15"/>
+      <c r="AX79" s="15"/>
+      <c r="BE79" s="1">
+        <f>-5-BD79-BC79</f>
+        <v>-5</v>
+      </c>
+      <c r="BF79" s="1">
+        <f t="shared" si="158"/>
+        <v>-11.5</v>
+      </c>
+      <c r="BX79" s="1">
+        <v>-230.3</v>
+      </c>
+      <c r="BY79" s="1">
+        <v>-54.9</v>
+      </c>
+      <c r="BZ79" s="1">
+        <v>-16.5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
+      <c r="T80" s="15"/>
+      <c r="U80" s="15"/>
+      <c r="V80" s="15"/>
+      <c r="W80" s="15"/>
+      <c r="X80" s="15"/>
+      <c r="Y80" s="15"/>
+      <c r="Z80" s="15"/>
+      <c r="AA80" s="15"/>
+      <c r="AB80" s="15"/>
+      <c r="AC80" s="15"/>
+      <c r="AD80" s="15"/>
+      <c r="AE80" s="15"/>
+      <c r="AF80" s="15"/>
+      <c r="AG80" s="15"/>
+      <c r="AH80" s="15"/>
+      <c r="AI80" s="15"/>
+      <c r="AJ80" s="15"/>
+      <c r="AK80" s="15"/>
+      <c r="AL80" s="15"/>
+      <c r="AM80" s="15"/>
+      <c r="AN80" s="15"/>
+      <c r="AO80" s="15"/>
+      <c r="AP80" s="15"/>
+      <c r="AQ80" s="15"/>
+      <c r="AR80" s="15"/>
+      <c r="AS80" s="15"/>
+      <c r="AT80" s="15"/>
+      <c r="AU80" s="15"/>
+      <c r="AV80" s="15"/>
+      <c r="AW80" s="15"/>
+      <c r="AX80" s="15"/>
+      <c r="BE80" s="1">
+        <f>SUM(BE76:BE79)</f>
+        <v>-2818.7000000000007</v>
+      </c>
+      <c r="BF80" s="1">
+        <f>SUM(BF76:BF79)</f>
+        <v>350.59999999999854</v>
+      </c>
+      <c r="BX80" s="1">
+        <f>SUM(BX76:BX79)</f>
+        <v>-3784.5999999999995</v>
+      </c>
+      <c r="BY80" s="1">
+        <f>SUM(BY76:BY79)</f>
+        <v>-3185.0999999999995</v>
+      </c>
+      <c r="BZ80" s="1">
+        <f>SUM(BZ76:BZ79)</f>
+        <v>-2468.1000000000022</v>
+      </c>
+    </row>
+    <row r="81" spans="2:78" x14ac:dyDescent="0.2">
+      <c r="BU81" s="50"/>
+      <c r="BV81" s="50"/>
+      <c r="BW81" s="50"/>
+      <c r="BX81" s="50"/>
+      <c r="BY81" s="50"/>
+    </row>
+    <row r="82" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="15"/>
+      <c r="S82" s="15"/>
+      <c r="T82" s="15"/>
+      <c r="U82" s="15"/>
+      <c r="V82" s="15"/>
+      <c r="W82" s="15"/>
+      <c r="X82" s="15"/>
+      <c r="Y82" s="15"/>
+      <c r="Z82" s="15"/>
+      <c r="AA82" s="15"/>
+      <c r="AB82" s="15"/>
+      <c r="AC82" s="15"/>
+      <c r="AD82" s="15"/>
+      <c r="AE82" s="15"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="15"/>
+      <c r="AH82" s="15"/>
+      <c r="AI82" s="15"/>
+      <c r="AJ82" s="15"/>
+      <c r="AK82" s="15"/>
+      <c r="AL82" s="15"/>
+      <c r="AM82" s="15"/>
+      <c r="AN82" s="15"/>
+      <c r="AO82" s="15"/>
+      <c r="AP82" s="15"/>
+      <c r="AQ82" s="15"/>
+      <c r="AR82" s="15"/>
+      <c r="AS82" s="15"/>
+      <c r="AT82" s="15"/>
+      <c r="AU82" s="15"/>
+      <c r="AV82" s="15"/>
+      <c r="AW82" s="15"/>
+      <c r="AX82" s="15"/>
+      <c r="BE82" s="1">
+        <f>1374.4-BD82-BC82</f>
+        <v>1374.4</v>
+      </c>
+      <c r="BF82" s="1">
+        <f t="shared" ref="BF82:BF85" si="159">+BZ82-BE82-BD82-BC82</f>
+        <v>90.899999999999864</v>
+      </c>
+      <c r="BX82" s="1">
+        <v>1519.5</v>
+      </c>
+      <c r="BY82" s="1">
+        <v>1145.5</v>
+      </c>
+      <c r="BZ82" s="1">
+        <v>1465.3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="15"/>
+      <c r="R83" s="15"/>
+      <c r="S83" s="15"/>
+      <c r="T83" s="15"/>
+      <c r="U83" s="15"/>
+      <c r="V83" s="15"/>
+      <c r="W83" s="15"/>
+      <c r="X83" s="15"/>
+      <c r="Y83" s="15"/>
+      <c r="Z83" s="15"/>
+      <c r="AA83" s="15"/>
+      <c r="AB83" s="15"/>
+      <c r="AC83" s="15"/>
+      <c r="AD83" s="15"/>
+      <c r="AE83" s="15"/>
+      <c r="AF83" s="15"/>
+      <c r="AG83" s="15"/>
+      <c r="AH83" s="15"/>
+      <c r="AI83" s="15"/>
+      <c r="AJ83" s="15"/>
+      <c r="AK83" s="15"/>
+      <c r="AL83" s="15"/>
+      <c r="AM83" s="15"/>
+      <c r="AN83" s="15"/>
+      <c r="AO83" s="15"/>
+      <c r="AP83" s="15"/>
+      <c r="AQ83" s="15"/>
+      <c r="AR83" s="15"/>
+      <c r="AS83" s="15"/>
+      <c r="AT83" s="15"/>
+      <c r="AU83" s="15"/>
+      <c r="AV83" s="15"/>
+      <c r="AW83" s="15"/>
+      <c r="AX83" s="15"/>
+      <c r="BE83" s="1">
+        <f>-775.7-BD83-BC83</f>
+        <v>-775.7</v>
+      </c>
+      <c r="BF83" s="1">
+        <f t="shared" si="159"/>
+        <v>-253.39999999999986</v>
+      </c>
+      <c r="BX83" s="1">
+        <v>-445.7</v>
+      </c>
+      <c r="BY83" s="1">
+        <v>-700.6</v>
+      </c>
+      <c r="BZ83" s="1">
+        <v>-1029.0999999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="15"/>
+      <c r="AA84" s="15"/>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+      <c r="AH84" s="15"/>
+      <c r="AI84" s="15"/>
+      <c r="AJ84" s="15"/>
+      <c r="AK84" s="15"/>
+      <c r="AL84" s="15"/>
+      <c r="AM84" s="15"/>
+      <c r="AN84" s="15"/>
+      <c r="AO84" s="15"/>
+      <c r="AP84" s="15"/>
+      <c r="AQ84" s="15"/>
+      <c r="AR84" s="15"/>
+      <c r="AS84" s="15"/>
+      <c r="AT84" s="15"/>
+      <c r="AU84" s="15"/>
+      <c r="AV84" s="15"/>
+      <c r="AW84" s="15"/>
+      <c r="AX84" s="15"/>
+      <c r="BE84" s="1">
+        <f>-1630.3-BD84-BC84</f>
+        <v>-1630.3</v>
+      </c>
+      <c r="BF84" s="1">
+        <f t="shared" si="159"/>
+        <v>-973.00000000000023</v>
+      </c>
+      <c r="BX84" s="1">
+        <v>-2082.8000000000002</v>
+      </c>
+      <c r="BY84" s="1">
+        <v>-2235</v>
+      </c>
+      <c r="BZ84" s="1">
+        <v>-2603.3000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="15"/>
+      <c r="S85" s="15"/>
+      <c r="T85" s="15"/>
+      <c r="U85" s="15"/>
+      <c r="V85" s="15"/>
+      <c r="W85" s="15"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="15"/>
+      <c r="AA85" s="15"/>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="15"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
+      <c r="AH85" s="15"/>
+      <c r="AI85" s="15"/>
+      <c r="AJ85" s="15"/>
+      <c r="AK85" s="15"/>
+      <c r="AL85" s="15"/>
+      <c r="AM85" s="15"/>
+      <c r="AN85" s="15"/>
+      <c r="AO85" s="15"/>
+      <c r="AP85" s="15"/>
+      <c r="AQ85" s="15"/>
+      <c r="AR85" s="15"/>
+      <c r="AS85" s="15"/>
+      <c r="AT85" s="15"/>
+      <c r="AU85" s="15"/>
+      <c r="AV85" s="15"/>
+      <c r="AW85" s="15"/>
+      <c r="AX85" s="15"/>
+      <c r="BE85" s="1">
+        <f>-33.4-BD85-BC85</f>
+        <v>-33.4</v>
+      </c>
+      <c r="BF85" s="1">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+      <c r="BX85" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY85" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ85" s="1">
+        <v>-33.4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="15"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="15"/>
+      <c r="S86" s="15"/>
+      <c r="T86" s="15"/>
+      <c r="U86" s="15"/>
+      <c r="V86" s="15"/>
+      <c r="W86" s="15"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="15"/>
+      <c r="AA86" s="15"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="15"/>
+      <c r="AD86" s="15"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="15"/>
+      <c r="AH86" s="15"/>
+      <c r="AI86" s="15"/>
+      <c r="AJ86" s="15"/>
+      <c r="AK86" s="15"/>
+      <c r="AL86" s="15"/>
+      <c r="AM86" s="15"/>
+      <c r="AN86" s="15"/>
+      <c r="AO86" s="15"/>
+      <c r="AP86" s="15"/>
+      <c r="AQ86" s="15"/>
+      <c r="AR86" s="15"/>
+      <c r="AS86" s="15"/>
+      <c r="AT86" s="15"/>
+      <c r="AU86" s="15"/>
+      <c r="AV86" s="15"/>
+      <c r="AW86" s="15"/>
+      <c r="AX86" s="15"/>
+      <c r="BE86" s="1">
+        <f t="shared" ref="BE86:BF86" si="160">SUM(BE82:BE85)</f>
+        <v>-1065</v>
+      </c>
+      <c r="BF86" s="1">
+        <f t="shared" si="160"/>
+        <v>-1135.5000000000002</v>
+      </c>
+      <c r="BX86" s="1">
+        <f t="shared" ref="BX86:BY86" si="161">SUM(BX82:BX85)</f>
+        <v>-1009.0000000000002</v>
+      </c>
+      <c r="BY86" s="1">
+        <f t="shared" si="161"/>
+        <v>-1790.1</v>
+      </c>
+      <c r="BZ86" s="1">
+        <f>SUM(BZ82:BZ85)</f>
+        <v>-2200.5000000000005</v>
+      </c>
+    </row>
+    <row r="87" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15"/>
+      <c r="S87" s="15"/>
+      <c r="T87" s="15"/>
+      <c r="U87" s="15"/>
+      <c r="V87" s="15"/>
+      <c r="W87" s="15"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="15"/>
+      <c r="AA87" s="15"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+      <c r="AH87" s="15"/>
+      <c r="AI87" s="15"/>
+      <c r="AJ87" s="15"/>
+      <c r="AK87" s="15"/>
+      <c r="AL87" s="15"/>
+      <c r="AM87" s="15"/>
+      <c r="AN87" s="15"/>
+      <c r="AO87" s="15"/>
+      <c r="AP87" s="15"/>
+      <c r="AQ87" s="15"/>
+      <c r="AR87" s="15"/>
+      <c r="AS87" s="15"/>
+      <c r="AT87" s="15"/>
+      <c r="AU87" s="15"/>
+      <c r="AV87" s="15"/>
+      <c r="AW87" s="15"/>
+      <c r="AX87" s="15"/>
+      <c r="BE87" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF87" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX87" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY87" s="1">
+        <v>-0.4</v>
+      </c>
+      <c r="BZ87" s="1">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="15"/>
+      <c r="AA88" s="15"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="15"/>
+      <c r="AI88" s="15"/>
+      <c r="AJ88" s="15"/>
+      <c r="AK88" s="15"/>
+      <c r="AL88" s="15"/>
+      <c r="AM88" s="15"/>
+      <c r="AN88" s="15"/>
+      <c r="AO88" s="15"/>
+      <c r="AP88" s="15"/>
+      <c r="AQ88" s="15"/>
+      <c r="AR88" s="15"/>
+      <c r="AS88" s="15"/>
+      <c r="AT88" s="15"/>
+      <c r="AU88" s="15"/>
+      <c r="AV88" s="15"/>
+      <c r="AW88" s="15"/>
+      <c r="AX88" s="15"/>
+      <c r="BE88" s="1">
+        <f>+BE87+BE86+BE80+BE74</f>
+        <v>-2592.5000000000009</v>
+      </c>
+      <c r="BF88" s="1">
+        <f>+BF87+BF86+BF80+BF74</f>
+        <v>477.89999999999895</v>
+      </c>
+      <c r="BX88" s="1">
+        <f>+BX87+BX86+BX80+BX74</f>
+        <v>221.30000000000018</v>
+      </c>
+      <c r="BY88" s="1">
+        <f>+BY87+BY86+BY80+BY74</f>
+        <v>-381.60000000000036</v>
+      </c>
+      <c r="BZ88" s="1">
+        <f>+BZ87+BZ86+BZ80+BZ74</f>
+        <v>-248.80000000000291</v>
+      </c>
+    </row>
+    <row r="89" spans="2:78" x14ac:dyDescent="0.2">
+      <c r="BU89" s="50"/>
+      <c r="BV89" s="50"/>
+      <c r="BW89" s="50"/>
+      <c r="BX89" s="50"/>
+      <c r="BY89" s="50"/>
+    </row>
+    <row r="90" spans="2:78" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="BL65">
+      <c r="BL90">
         <v>32.79</v>
       </c>
-      <c r="BM65">
+      <c r="BM90">
         <v>55.36</v>
       </c>
-      <c r="BN65">
+      <c r="BN90">
         <v>170.85</v>
       </c>
-      <c r="BO65">
+      <c r="BO90">
         <v>274.89</v>
       </c>
-      <c r="BP65">
+      <c r="BP90">
         <v>409.72</v>
       </c>
-      <c r="BQ65">
+      <c r="BQ90">
         <v>542.16999999999996</v>
       </c>
-      <c r="BR65">
+      <c r="BR90">
         <v>366.62</v>
       </c>
-      <c r="BS65">
+      <c r="BS90">
         <v>375.48</v>
       </c>
-      <c r="BT65">
+      <c r="BT90">
         <v>373.02</v>
       </c>
-      <c r="BU65" s="21">
+      <c r="BU90" s="21">
         <v>375</v>
       </c>
-      <c r="BV65">
+      <c r="BV90">
         <v>482.49</v>
       </c>
-      <c r="BW65">
+      <c r="BW90">
         <v>630.71</v>
       </c>
-      <c r="BX65">
+      <c r="BX90">
         <v>720.56</v>
       </c>
-      <c r="BY65">
+      <c r="BY90">
         <v>877.16</v>
       </c>
-      <c r="BZ65">
+      <c r="BZ90">
         <v>711.42</v>
       </c>
     </row>
-    <row r="66" spans="2:78" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="16" t="s">
+    <row r="91" spans="2:78" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43"/>
-      <c r="W66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="43"/>
-      <c r="Z66" s="43"/>
-      <c r="AA66" s="43"/>
-      <c r="AB66" s="43"/>
-      <c r="AC66" s="43"/>
-      <c r="AD66" s="43"/>
-      <c r="AE66" s="43"/>
-      <c r="AF66" s="43"/>
-      <c r="AG66" s="43"/>
-      <c r="AH66" s="43"/>
-      <c r="AI66" s="43"/>
-      <c r="AJ66" s="43"/>
-      <c r="AK66" s="43"/>
-      <c r="AL66" s="43"/>
-      <c r="AM66" s="43"/>
-      <c r="AN66" s="43"/>
-      <c r="AO66" s="43"/>
-      <c r="AP66" s="43"/>
-      <c r="AQ66" s="43"/>
-      <c r="AR66" s="43"/>
-      <c r="AS66" s="43"/>
-      <c r="AT66" s="43"/>
-      <c r="AU66" s="43"/>
-      <c r="AV66" s="43"/>
-      <c r="AW66" s="43"/>
-      <c r="AX66" s="43"/>
-      <c r="BM66" s="51">
-        <f t="shared" ref="BM66:BZ66" si="152">+BM65/BL65-1</f>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="L91" s="43"/>
+      <c r="M91" s="43"/>
+      <c r="N91" s="43"/>
+      <c r="O91" s="43"/>
+      <c r="P91" s="43"/>
+      <c r="Q91" s="43"/>
+      <c r="R91" s="43"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="43"/>
+      <c r="U91" s="43"/>
+      <c r="V91" s="43"/>
+      <c r="W91" s="43"/>
+      <c r="X91" s="43"/>
+      <c r="Y91" s="43"/>
+      <c r="Z91" s="43"/>
+      <c r="AA91" s="43"/>
+      <c r="AB91" s="43"/>
+      <c r="AC91" s="43"/>
+      <c r="AD91" s="43"/>
+      <c r="AE91" s="43"/>
+      <c r="AF91" s="43"/>
+      <c r="AG91" s="43"/>
+      <c r="AH91" s="43"/>
+      <c r="AI91" s="43"/>
+      <c r="AJ91" s="43"/>
+      <c r="AK91" s="43"/>
+      <c r="AL91" s="43"/>
+      <c r="AM91" s="43"/>
+      <c r="AN91" s="43"/>
+      <c r="AO91" s="43"/>
+      <c r="AP91" s="43"/>
+      <c r="AQ91" s="43"/>
+      <c r="AR91" s="43"/>
+      <c r="AS91" s="43"/>
+      <c r="AT91" s="43"/>
+      <c r="AU91" s="43"/>
+      <c r="AV91" s="43"/>
+      <c r="AW91" s="43"/>
+      <c r="AX91" s="43"/>
+      <c r="BM91" s="51">
+        <f t="shared" ref="BM91:BZ91" si="162">+BM90/BL90-1</f>
         <v>0.6883196096370845</v>
       </c>
-      <c r="BN66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BN91" s="51">
+        <f t="shared" si="162"/>
         <v>2.0861632947976876</v>
       </c>
-      <c r="BO66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BO91" s="51">
+        <f t="shared" si="162"/>
         <v>0.60895522388059709</v>
       </c>
-      <c r="BP66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BP91" s="51">
+        <f t="shared" si="162"/>
         <v>0.49048710393248229</v>
       </c>
-      <c r="BQ66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BQ91" s="51">
+        <f t="shared" si="162"/>
         <v>0.32326954993654189</v>
       </c>
-      <c r="BR66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BR91" s="51">
+        <f t="shared" si="162"/>
         <v>-0.32379143073205818</v>
       </c>
-      <c r="BS66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BS91" s="51">
+        <f t="shared" si="162"/>
         <v>2.4166712126997947E-2</v>
       </c>
-      <c r="BT66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BT91" s="51">
+        <f t="shared" si="162"/>
         <v>-6.5516139341643687E-3</v>
       </c>
-      <c r="BU66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BU91" s="51">
+        <f t="shared" si="162"/>
         <v>5.3080263792826266E-3</v>
       </c>
-      <c r="BV66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BV91" s="51">
+        <f t="shared" si="162"/>
         <v>0.28664000000000001</v>
       </c>
-      <c r="BW66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BW91" s="51">
+        <f t="shared" si="162"/>
         <v>0.30719807664407561</v>
       </c>
-      <c r="BX66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BX91" s="51">
+        <f t="shared" si="162"/>
         <v>0.14245849915174946</v>
       </c>
-      <c r="BY66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BY91" s="51">
+        <f t="shared" si="162"/>
         <v>0.21733096480515157</v>
       </c>
-      <c r="BZ66" s="51">
-        <f t="shared" si="152"/>
+      <c r="BZ91" s="51">
+        <f t="shared" si="162"/>
         <v>-0.18895070454649099</v>
       </c>
     </row>
-    <row r="67" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B67" s="1"/>
-      <c r="BM67" s="1">
-        <f t="shared" ref="BM67:BZ67" si="153">+BM65/$BL$65</f>
+    <row r="92" spans="2:78" x14ac:dyDescent="0.2">
+      <c r="B92" s="1"/>
+      <c r="BM92" s="1">
+        <f t="shared" ref="BM92:BZ92" si="163">+BM90/$BL$90</f>
         <v>1.6883196096370845</v>
       </c>
-      <c r="BN67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BN92" s="1">
+        <f t="shared" si="163"/>
         <v>5.2104300091491309</v>
       </c>
-      <c r="BO67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BO92" s="1">
+        <f t="shared" si="163"/>
         <v>8.3833485818847215</v>
       </c>
-      <c r="BP67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BP92" s="1">
+        <f t="shared" si="163"/>
         <v>12.49527294906984</v>
       </c>
-      <c r="BQ67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BQ92" s="1">
+        <f t="shared" si="163"/>
         <v>16.534614211649892</v>
       </c>
-      <c r="BR67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BR92" s="1">
+        <f t="shared" si="163"/>
         <v>11.180847819457153</v>
       </c>
-      <c r="BS67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BS92" s="1">
+        <f t="shared" si="163"/>
         <v>11.451052150045747</v>
       </c>
-      <c r="BT67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BT92" s="1">
+        <f t="shared" si="163"/>
         <v>11.376029277218663</v>
       </c>
-      <c r="BU67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BU92" s="1">
+        <f t="shared" si="163"/>
         <v>11.436413540713632</v>
       </c>
-      <c r="BV67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BV92" s="1">
+        <f t="shared" si="163"/>
         <v>14.714547118023788</v>
       </c>
-      <c r="BW67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BW92" s="1">
+        <f t="shared" si="163"/>
         <v>19.234827691369322</v>
       </c>
-      <c r="BX67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BX92" s="1">
+        <f t="shared" si="163"/>
         <v>21.974992375724305</v>
       </c>
-      <c r="BY67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BY92" s="1">
+        <f t="shared" si="163"/>
         <v>26.750838670326317</v>
       </c>
-      <c r="BZ67" s="1">
-        <f t="shared" si="153"/>
+      <c r="BZ92" s="1">
+        <f t="shared" si="163"/>
         <v>21.696248856358647</v>
       </c>
     </row>
-    <row r="68" spans="2:78" x14ac:dyDescent="0.2">
-      <c r="B68" s="1"/>
-      <c r="BM68" s="1"/>
-      <c r="BN68" s="1"/>
-      <c r="BO68" s="1"/>
-    </row>
-    <row r="69" spans="2:78" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="16" t="s">
+    <row r="93" spans="2:78" x14ac:dyDescent="0.2">
+      <c r="B93" s="1"/>
+      <c r="BM93" s="1"/>
+      <c r="BN93" s="1"/>
+      <c r="BO93" s="1"/>
+    </row>
+    <row r="94" spans="2:78" s="45" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
-      <c r="W69" s="43"/>
-      <c r="X69" s="43"/>
-      <c r="Y69" s="43"/>
-      <c r="Z69" s="43"/>
-      <c r="AA69" s="43"/>
-      <c r="AB69" s="43"/>
-      <c r="AC69" s="43"/>
-      <c r="AD69" s="43"/>
-      <c r="AE69" s="43"/>
-      <c r="AF69" s="43"/>
-      <c r="AG69" s="43"/>
-      <c r="AH69" s="43"/>
-      <c r="AI69" s="43"/>
-      <c r="AJ69" s="43"/>
-      <c r="AK69" s="43"/>
-      <c r="AL69" s="43"/>
-      <c r="AM69" s="43"/>
-      <c r="AN69" s="43"/>
-      <c r="AO69" s="43"/>
-      <c r="AP69" s="43"/>
-      <c r="AQ69" s="43"/>
-      <c r="AR69" s="43"/>
-      <c r="AS69" s="43"/>
-      <c r="AT69" s="43"/>
-      <c r="AU69" s="43"/>
-      <c r="AV69" s="43"/>
-      <c r="AW69" s="43"/>
-      <c r="AX69" s="43"/>
-      <c r="BM69" s="51">
-        <f t="shared" ref="BM69:BZ69" si="154">BM22/BL22-1</f>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="43"/>
+      <c r="P94" s="43"/>
+      <c r="Q94" s="43"/>
+      <c r="R94" s="43"/>
+      <c r="S94" s="43"/>
+      <c r="T94" s="43"/>
+      <c r="U94" s="43"/>
+      <c r="V94" s="43"/>
+      <c r="W94" s="43"/>
+      <c r="X94" s="43"/>
+      <c r="Y94" s="43"/>
+      <c r="Z94" s="43"/>
+      <c r="AA94" s="43"/>
+      <c r="AB94" s="43"/>
+      <c r="AC94" s="43"/>
+      <c r="AD94" s="43"/>
+      <c r="AE94" s="43"/>
+      <c r="AF94" s="43"/>
+      <c r="AG94" s="43"/>
+      <c r="AH94" s="43"/>
+      <c r="AI94" s="43"/>
+      <c r="AJ94" s="43"/>
+      <c r="AK94" s="43"/>
+      <c r="AL94" s="43"/>
+      <c r="AM94" s="43"/>
+      <c r="AN94" s="43"/>
+      <c r="AO94" s="43"/>
+      <c r="AP94" s="43"/>
+      <c r="AQ94" s="43"/>
+      <c r="AR94" s="43"/>
+      <c r="AS94" s="43"/>
+      <c r="AT94" s="43"/>
+      <c r="AU94" s="43"/>
+      <c r="AV94" s="43"/>
+      <c r="AW94" s="43"/>
+      <c r="AX94" s="43"/>
+      <c r="BM94" s="51">
+        <f t="shared" ref="BM94:BZ94" si="164">BM22/BL22-1</f>
         <v>0.32447576548044177</v>
       </c>
-      <c r="BN69" s="51">
-        <f t="shared" si="154"/>
+      <c r="BN94" s="51">
+        <f t="shared" si="164"/>
         <v>2.0921938088829068</v>
       </c>
-      <c r="BO69" s="51">
-        <f t="shared" si="154"/>
+      <c r="BO94" s="51">
+        <f t="shared" si="164"/>
         <v>0.52680449764236514</v>
       </c>
-      <c r="BP69" s="51">
-        <f t="shared" si="154"/>
+      <c r="BP94" s="51">
+        <f t="shared" si="164"/>
         <v>0.33966836128664424</v>
       </c>
-      <c r="BQ69" s="51">
-        <f t="shared" si="154"/>
+      <c r="BQ94" s="51">
+        <f t="shared" si="164"/>
         <v>0.45541920839835415</v>
       </c>
-      <c r="BR69" s="51">
-        <f t="shared" si="154"/>
+      <c r="BR94" s="51">
+        <f t="shared" si="164"/>
         <v>0.18439457075322285</v>
       </c>
-      <c r="BS69" s="51">
-        <f t="shared" si="154"/>
+      <c r="BS94" s="51">
+        <f t="shared" si="164"/>
         <v>0.20817216689984375</v>
       </c>
-      <c r="BT69" s="51">
-        <f t="shared" si="154"/>
+      <c r="BT94" s="51">
+        <f t="shared" si="164"/>
         <v>0.17368277647219088</v>
       </c>
-      <c r="BU69" s="51">
-        <f t="shared" si="154"/>
+      <c r="BU94" s="51">
+        <f t="shared" si="164"/>
         <v>0.15921127087534992</v>
       </c>
-      <c r="BV69" s="51">
-        <f t="shared" si="154"/>
+      <c r="BV94" s="51">
+        <f t="shared" si="164"/>
         <v>4.8138783888652448E-2</v>
       </c>
-      <c r="BW69" s="51">
-        <f t="shared" si="154"/>
+      <c r="BW94" s="51">
+        <f t="shared" si="164"/>
         <v>0.91933365177931714</v>
       </c>
-      <c r="BX69" s="51">
-        <f t="shared" si="154"/>
+      <c r="BX94" s="51">
+        <f t="shared" si="164"/>
         <v>-0.24265048996733551</v>
       </c>
-      <c r="BY69" s="51">
-        <f t="shared" si="154"/>
+      <c r="BY94" s="51">
+        <f t="shared" si="164"/>
         <v>7.7592934894228582E-2</v>
       </c>
-      <c r="BZ69" s="51">
-        <f t="shared" si="154"/>
-        <v>8.2640847754821944E-2</v>
+      <c r="BZ94" s="51">
+        <f t="shared" si="164"/>
+        <v>8.2739955782572094E-2</v>
       </c>
     </row>
   </sheetData>
@@ -12854,9 +14750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC2A577-FE61-4AC6-8EA6-0BAD78F2F516}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/REGN.xlsx
+++ b/REGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF0B07D-7B96-4D58-8890-FA368B6DC056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B8AE12-7BC5-4DAD-83F9-A75A83014F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49275" yWindow="1560" windowWidth="22485" windowHeight="14175" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
+    <workbookView xWindow="-51585" yWindow="255" windowWidth="21465" windowHeight="19395" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2678,20 +2678,20 @@
   <dimension ref="B2:K55"/>
   <sheetViews>
     <sheetView zoomScale="137" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>48</v>
       </c>
@@ -2714,11 +2714,11 @@
         <v>41</v>
       </c>
       <c r="J2" s="21">
-        <v>565</v>
+        <v>603</v>
       </c>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
         <v>40</v>
       </c>
@@ -2737,14 +2737,13 @@
         <v>37</v>
       </c>
       <c r="J3" s="28">
-        <f>107.507536+1.817146</f>
-        <v>109.324682</v>
+        <v>111.2</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
         <v>273</v>
       </c>
@@ -2766,11 +2765,11 @@
       </c>
       <c r="J4" s="1">
         <f>J2*J3</f>
-        <v>61768.445329999995</v>
+        <v>67053.600000000006</v>
       </c>
       <c r="K4" s="14"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
         <v>272</v>
       </c>
@@ -2791,13 +2790,13 @@
         <v>32</v>
       </c>
       <c r="J5" s="1">
-        <v>17531</v>
+        <v>17626</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>253</v>
       </c>
@@ -2818,13 +2817,13 @@
         <v>29</v>
       </c>
       <c r="J6" s="1">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="29" t="s">
         <v>33</v>
       </c>
@@ -2846,10 +2845,10 @@
       </c>
       <c r="J7" s="1">
         <f>J4-J5+J6</f>
-        <v>46221.445329999995</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+        <v>51412.600000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="29" t="s">
         <v>256</v>
       </c>
@@ -2869,7 +2868,7 @@
       <c r="I8" s="34"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="29" t="s">
         <v>236</v>
       </c>
@@ -2889,7 +2888,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
         <v>446</v>
       </c>
@@ -2911,7 +2910,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
         <v>279</v>
       </c>
@@ -2933,7 +2932,7 @@
       </c>
       <c r="J11" s="36"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19" t="s">
@@ -2946,7 +2945,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
         <v>449</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>291.7</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
         <v>274</v>
       </c>
@@ -2985,7 +2984,7 @@
       </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
         <v>503</v>
       </c>
@@ -3006,7 +3005,7 @@
         <v>266.10000000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
         <v>264</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>371.09999999999997</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="67" t="s">
         <v>434</v>
       </c>
@@ -3046,7 +3045,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
         <v>413</v>
       </c>
@@ -3062,7 +3061,7 @@
       </c>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
         <v>281</v>
       </c>
@@ -3078,7 +3077,7 @@
       </c>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
         <v>510</v>
       </c>
@@ -3096,7 +3095,7 @@
       </c>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
         <v>290</v>
       </c>
@@ -3110,7 +3109,7 @@
       </c>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
         <v>430</v>
       </c>
@@ -3128,7 +3127,7 @@
       </c>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="37" t="s">
         <v>388</v>
       </c>
@@ -3147,7 +3146,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>277</v>
       </c>
@@ -3165,7 +3164,7 @@
       </c>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
         <v>293</v>
       </c>
@@ -3179,7 +3178,7 @@
       </c>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
         <v>284</v>
       </c>
@@ -3193,7 +3192,7 @@
       </c>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="37" t="s">
         <v>454</v>
       </c>
@@ -3207,7 +3206,7 @@
       </c>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="s">
         <v>295</v>
       </c>
@@ -3219,7 +3218,7 @@
       </c>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
         <v>457</v>
       </c>
@@ -3235,7 +3234,7 @@
       </c>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="37" t="s">
         <v>297</v>
       </c>
@@ -3247,7 +3246,7 @@
       </c>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
         <v>506</v>
       </c>
@@ -3263,7 +3262,7 @@
       </c>
       <c r="G31" s="31"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="37" t="s">
         <v>392</v>
       </c>
@@ -3279,7 +3278,7 @@
       </c>
       <c r="G32" s="31"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="37" t="s">
         <v>299</v>
       </c>
@@ -3293,7 +3292,7 @@
       </c>
       <c r="G33" s="31"/>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="47" t="s">
         <v>24</v>
       </c>
@@ -3309,7 +3308,7 @@
       </c>
       <c r="G34" s="38"/>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="60"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
@@ -3317,7 +3316,7 @@
       <c r="F35" s="30"/>
       <c r="G35" s="35"/>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="34" t="s">
         <v>509</v>
       </c>
@@ -3329,7 +3328,7 @@
       </c>
       <c r="G36" s="35"/>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="34"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -3339,7 +3338,7 @@
       </c>
       <c r="G37" s="35"/>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B38" s="34"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -3349,7 +3348,7 @@
       </c>
       <c r="G38" s="35"/>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="34"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -3359,7 +3358,7 @@
       </c>
       <c r="G39" s="35"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -3368,7 +3367,7 @@
       </c>
       <c r="G40" s="35"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -3377,7 +3376,7 @@
       </c>
       <c r="G41" s="35"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -3386,7 +3385,7 @@
       </c>
       <c r="G42" s="35"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -3395,7 +3394,7 @@
       </c>
       <c r="G43" s="35"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -3404,7 +3403,7 @@
       </c>
       <c r="G44" s="35"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -3413,7 +3412,7 @@
       </c>
       <c r="G45" s="35"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -3422,7 +3421,7 @@
       </c>
       <c r="G46" s="35"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -3431,7 +3430,7 @@
       </c>
       <c r="G47" s="35"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -3440,7 +3439,7 @@
       </c>
       <c r="G48" s="35"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -3449,7 +3448,7 @@
       </c>
       <c r="G49" s="35"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -3458,7 +3457,7 @@
       </c>
       <c r="G50" s="35"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -3467,7 +3466,7 @@
       </c>
       <c r="G51" s="35"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -3476,7 +3475,7 @@
       </c>
       <c r="G52" s="35"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -3485,7 +3484,7 @@
       </c>
       <c r="G53" s="35"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -3494,7 +3493,7 @@
       </c>
       <c r="G54" s="35"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -3533,23 +3532,23 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>377</v>
       </c>
@@ -3557,7 +3556,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>409</v>
       </c>
@@ -3565,7 +3564,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -3573,17 +3572,17 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>440</v>
       </c>
@@ -3604,23 +3603,23 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>377</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>409</v>
       </c>
@@ -3644,27 +3643,27 @@
         <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="54" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>479</v>
       </c>
@@ -3683,23 +3682,23 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>377</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>409</v>
       </c>
@@ -3723,12 +3722,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
         <v>469</v>
       </c>
@@ -3747,23 +3746,23 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>377</v>
       </c>
@@ -3771,7 +3770,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>409</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -3787,27 +3786,27 @@
         <v>436</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="54" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>444</v>
       </c>
@@ -3826,18 +3825,18 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>404</v>
       </c>
@@ -3845,12 +3844,12 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>409</v>
       </c>
@@ -3858,27 +3857,27 @@
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="54" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>417</v>
       </c>
@@ -3899,18 +3898,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>404</v>
       </c>
@@ -3918,12 +3917,12 @@
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>409</v>
       </c>
@@ -3931,27 +3930,27 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="54" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>417</v>
       </c>
@@ -3970,21 +3969,21 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1796875" style="2"/>
+    <col min="5" max="5" width="13.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>77</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>75</v>
       </c>
@@ -4000,7 +3999,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4008,12 +4007,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>43</v>
       </c>
@@ -4021,83 +4020,83 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D17" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D19" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C21" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D23" s="2" t="s">
         <v>55</v>
       </c>
@@ -4108,7 +4107,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
@@ -4122,17 +4121,17 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>49</v>
       </c>
@@ -4153,16 +4152,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="9"/>
+    <col min="2" max="2" width="17.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="9"/>
+    <col min="4" max="4" width="10.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>78</v>
       </c>
@@ -4170,7 +4169,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>77</v>
@@ -4180,7 +4179,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>75</v>
@@ -4190,7 +4189,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>43</v>
@@ -4200,7 +4199,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>47</v>
@@ -4210,7 +4209,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>45</v>
@@ -4218,7 +4217,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>44</v>
@@ -4228,7 +4227,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>131</v>
@@ -4238,7 +4237,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>65</v>
@@ -4246,12 +4245,12 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="9" t="s">
         <v>148</v>
       </c>
@@ -4259,7 +4258,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="9" t="s">
         <v>146</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>116</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>142</v>
       </c>
@@ -4307,7 +4306,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>141</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>140</v>
       </c>
@@ -4341,27 +4340,27 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="13" x14ac:dyDescent="0.3">
       <c r="C22" s="10" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C23" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
         <v>135</v>
       </c>
@@ -4382,19 +4381,19 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.453125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>77</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>75</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
@@ -4434,83 +4433,83 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C12" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C16" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C20" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C24" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
         <v>153</v>
       </c>
@@ -4530,19 +4529,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="9"/>
+    <col min="2" max="2" width="12.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>77</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>75</v>
       </c>
@@ -4558,7 +4557,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>45</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>44</v>
       </c>
@@ -4590,7 +4589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>131</v>
       </c>
@@ -4598,52 +4597,52 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C15" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C16" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C19" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" s="9" t="s">
         <v>172</v>
       </c>
@@ -4660,28 +4659,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BECB6-C670-4D66-9069-7BDB54779CF7}">
   <dimension ref="A1:DZ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CG37" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CM47" sqref="CM47"/>
+      <selection pane="bottomRight" activeCell="CK25" sqref="CK25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="34" width="8.85546875" style="14"/>
-    <col min="35" max="50" width="9.140625" style="14"/>
-    <col min="91" max="91" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="8.81640625" style="14"/>
+    <col min="35" max="50" width="9.1796875" style="14"/>
+    <col min="91" max="91" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
         <v>354</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
@@ -5044,34 +5043,78 @@
         <f>+BO3-M3-L3-K3</f>
         <v>401.9</v>
       </c>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="15"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="15"/>
+      <c r="O3" s="15">
+        <v>359</v>
+      </c>
+      <c r="P3" s="15">
+        <v>418.02199999999999</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>448.84399999999999</v>
+      </c>
+      <c r="R3" s="15">
+        <v>518</v>
+      </c>
+      <c r="S3" s="15">
+        <v>541</v>
+      </c>
+      <c r="T3" s="15">
+        <v>657.81899999999996</v>
+      </c>
+      <c r="U3" s="15">
+        <v>737.56200000000001</v>
+      </c>
+      <c r="V3" s="15">
+        <v>746</v>
+      </c>
+      <c r="W3" s="15">
+        <v>781</v>
+      </c>
+      <c r="X3" s="15">
+        <v>831</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>854</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>858</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>854</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>919</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>953</v>
+      </c>
+      <c r="AD3" s="15">
+        <v>975</v>
+      </c>
+      <c r="AE3" s="15">
+        <v>984</v>
+      </c>
+      <c r="AF3" s="15">
+        <v>992</v>
+      </c>
+      <c r="AG3" s="15">
+        <v>1021.8</v>
+      </c>
+      <c r="AH3" s="15">
+        <v>1078.9000000000001</v>
+      </c>
       <c r="AI3" s="15">
         <v>1074.0999999999999</v>
       </c>
       <c r="AJ3" s="15">
         <v>1160</v>
       </c>
-      <c r="AK3" s="15"/>
-      <c r="AL3" s="15"/>
+      <c r="AK3" s="15">
+        <v>1187.7</v>
+      </c>
+      <c r="AL3" s="15">
+        <v>1222.0999999999999</v>
+      </c>
       <c r="AM3" s="15">
         <v>1172</v>
       </c>
@@ -5241,7 +5284,7 @@
         <v>66.25050200936434</v>
       </c>
     </row>
-    <row r="4" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>317</v>
       </c>
@@ -5385,7 +5428,7 @@
         <v>58.504659428599965</v>
       </c>
     </row>
-    <row r="5" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>207</v>
       </c>
@@ -5410,25 +5453,51 @@
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
       <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="15"/>
+      <c r="X5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="15">
+        <v>14.8</v>
+      </c>
       <c r="AI5" s="15">
         <v>26.8</v>
       </c>
       <c r="AJ5" s="15">
         <v>40.799999999999997</v>
       </c>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="15"/>
+      <c r="AK5" s="15">
+        <v>47.6</v>
+      </c>
+      <c r="AL5" s="15">
+        <v>60.5</v>
+      </c>
       <c r="AM5" s="15">
         <v>61.7</v>
       </c>
@@ -5537,7 +5606,7 @@
         <v>1428.12</v>
       </c>
       <c r="CB5" s="1">
-        <f t="shared" ref="CB5:CK5" si="7">CA5*1.01</f>
+        <f t="shared" ref="CB5:CI5" si="7">CA5*1.01</f>
         <v>1442.4011999999998</v>
       </c>
       <c r="CC5" s="1">
@@ -5577,7 +5646,7 @@
         <v>974.26307061819114</v>
       </c>
     </row>
-    <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>208</v>
       </c>
@@ -5602,25 +5671,51 @@
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
+      <c r="X6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="15">
+        <v>0</v>
+      </c>
       <c r="AI6" s="15">
         <v>0</v>
       </c>
       <c r="AJ6" s="15">
-        <v>26.5</v>
-      </c>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
       <c r="AM6" s="15">
         <v>0</v>
       </c>
@@ -5767,7 +5862,7 @@
         <v>252.84800450662476</v>
       </c>
     </row>
-    <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>247</v>
       </c>
@@ -5792,25 +5887,51 @@
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
+      <c r="X7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="15">
+        <v>0</v>
+      </c>
       <c r="AI7" s="15">
         <v>0</v>
       </c>
       <c r="AJ7" s="15">
         <v>0</v>
       </c>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
+      <c r="AK7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="15">
+        <v>0</v>
+      </c>
       <c r="AM7" s="15">
         <v>0</v>
       </c>
@@ -5910,7 +6031,7 @@
         <v>76.599999999999994</v>
       </c>
     </row>
-    <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>209</v>
       </c>
@@ -5935,25 +6056,51 @@
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
+      <c r="X8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="15">
+        <v>0</v>
+      </c>
       <c r="AI8" s="15">
         <v>0</v>
       </c>
       <c r="AJ8" s="15">
         <v>0</v>
       </c>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
+      <c r="AK8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="15">
+        <v>0</v>
+      </c>
       <c r="AM8" s="15">
         <v>0</v>
       </c>
@@ -6100,7 +6247,7 @@
         <v>149.56583578067711</v>
       </c>
     </row>
-    <row r="9" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>231</v>
       </c>
@@ -6143,34 +6290,72 @@
         <f t="shared" ref="N9:N13" si="9">+BO9-M9-L9-K9</f>
         <v>4.200000000000002</v>
       </c>
-      <c r="O9" s="15"/>
+      <c r="O9" s="15">
+        <v>3</v>
+      </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
+      <c r="R9" s="15">
+        <v>3</v>
+      </c>
+      <c r="S9" s="15">
+        <v>3</v>
+      </c>
+      <c r="T9" s="15">
+        <v>0</v>
+      </c>
       <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
+      <c r="V9" s="15">
+        <v>3</v>
+      </c>
+      <c r="W9" s="15">
+        <v>3</v>
+      </c>
+      <c r="X9" s="15">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="15">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="AG9" s="15">
+        <v>3.7</v>
+      </c>
+      <c r="AH9" s="15">
+        <v>2.7</v>
+      </c>
       <c r="AI9" s="15">
         <v>3.5</v>
       </c>
       <c r="AJ9" s="15">
         <v>4.2</v>
       </c>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
+      <c r="AK9" s="15">
+        <v>3</v>
+      </c>
+      <c r="AL9" s="15">
+        <v>3.8</v>
+      </c>
       <c r="AM9" s="15">
         <v>3</v>
       </c>
@@ -6276,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>264</v>
       </c>
@@ -6354,31 +6539,31 @@
         <v>1200</v>
       </c>
       <c r="CF10" s="1">
-        <f>+CE10*1.1</f>
+        <f t="shared" ref="CF10:CK11" si="10">+CE10*1.1</f>
         <v>1320</v>
       </c>
       <c r="CG10" s="1">
-        <f>+CF10*1.1</f>
+        <f t="shared" si="10"/>
         <v>1452.0000000000002</v>
       </c>
       <c r="CH10" s="1">
-        <f>+CG10*1.1</f>
+        <f t="shared" si="10"/>
         <v>1597.2000000000003</v>
       </c>
       <c r="CI10" s="1">
-        <f>+CH10*1.1</f>
+        <f t="shared" si="10"/>
         <v>1756.9200000000005</v>
       </c>
       <c r="CJ10" s="1">
-        <f>+CI10*1.1</f>
+        <f t="shared" si="10"/>
         <v>1932.6120000000008</v>
       </c>
       <c r="CK10" s="1">
-        <f>+CJ10*1.1</f>
+        <f t="shared" si="10"/>
         <v>2125.8732000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>434</v>
       </c>
@@ -6456,31 +6641,31 @@
         <v>1200</v>
       </c>
       <c r="CF11" s="1">
-        <f>+CE11*1.1</f>
+        <f t="shared" si="10"/>
         <v>1320</v>
       </c>
       <c r="CG11" s="1">
-        <f>+CF11*1.1</f>
+        <f t="shared" si="10"/>
         <v>1452.0000000000002</v>
       </c>
       <c r="CH11" s="1">
-        <f>+CG11*1.1</f>
+        <f t="shared" si="10"/>
         <v>1597.2000000000003</v>
       </c>
       <c r="CI11" s="1">
-        <f>+CH11*1.1</f>
+        <f t="shared" si="10"/>
         <v>1756.9200000000005</v>
       </c>
       <c r="CJ11" s="1">
-        <f>+CI11*1.1</f>
+        <f t="shared" si="10"/>
         <v>1932.6120000000008</v>
       </c>
       <c r="CK11" s="1">
-        <f>+CJ11*1.1</f>
+        <f t="shared" si="10"/>
         <v>2125.8732000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>511</v>
       </c>
@@ -6559,31 +6744,31 @@
         <v>303</v>
       </c>
       <c r="CF12" s="1">
-        <f t="shared" ref="CF12:CK12" si="10">+CE12*1.01</f>
+        <f t="shared" ref="CF12:CK12" si="11">+CE12*1.01</f>
         <v>306.03000000000003</v>
       </c>
       <c r="CG12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>309.09030000000001</v>
       </c>
       <c r="CH12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>312.18120300000004</v>
       </c>
       <c r="CI12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>315.30301503000004</v>
       </c>
       <c r="CJ12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>318.45604518030007</v>
       </c>
       <c r="CK12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>321.64060563210307</v>
       </c>
     </row>
-    <row r="13" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -6626,36 +6811,78 @@
         <f t="shared" si="9"/>
         <v>110.93899999999999</v>
       </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-      <c r="AE13" s="15"/>
-      <c r="AF13" s="15"/>
-      <c r="AG13" s="15"/>
-      <c r="AH13" s="15"/>
+      <c r="O13" s="15">
+        <v>130.50800000000001</v>
+      </c>
+      <c r="P13" s="15">
+        <v>142.595</v>
+      </c>
+      <c r="Q13" s="15">
+        <v>132.92500000000001</v>
+      </c>
+      <c r="R13" s="15">
+        <v>135.27099999999999</v>
+      </c>
+      <c r="S13" s="15">
+        <v>173.35599999999999</v>
+      </c>
+      <c r="T13" s="15">
+        <v>195.11</v>
+      </c>
+      <c r="U13" s="15">
+        <v>224.73500000000001</v>
+      </c>
+      <c r="V13" s="15">
+        <v>165.672</v>
+      </c>
+      <c r="W13" s="15">
+        <v>219.69399999999999</v>
+      </c>
+      <c r="X13" s="15">
+        <v>163.41399999999999</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>144.392</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>131.16499999999999</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>210.36699999999999</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>222.12799999999999</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>245.17500000000001</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>199.523</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>189.5</v>
+      </c>
+      <c r="AF13" s="15">
+        <v>237.8</v>
+      </c>
+      <c r="AG13" s="15">
+        <v>256.3</v>
+      </c>
+      <c r="AH13" s="15">
+        <v>427.6</v>
+      </c>
       <c r="AI13" s="15">
-        <f t="shared" ref="AI13:AJ13" si="11">SUM(AI14:AI16)</f>
-        <v>0</v>
+        <v>373.7</v>
       </c>
       <c r="AJ13" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="15"/>
+        <v>349.1</v>
+      </c>
+      <c r="AK13" s="15">
+        <v>404.2</v>
+      </c>
+      <c r="AL13" s="15">
+        <v>427.1</v>
+      </c>
       <c r="AM13" s="15">
         <f t="shared" ref="AM13:AS13" si="12">SUM(AM14:AM16)</f>
         <v>246.9</v>
@@ -6841,7 +7068,7 @@
         <v>1639.6411205900879</v>
       </c>
     </row>
-    <row r="14" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>225</v>
       </c>
@@ -6939,7 +7166,7 @@
         <v>3923.5</v>
       </c>
     </row>
-    <row r="15" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>226</v>
       </c>
@@ -7037,7 +7264,7 @@
         <v>607.9</v>
       </c>
     </row>
-    <row r="16" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>227</v>
       </c>
@@ -7139,7 +7366,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>228</v>
       </c>
@@ -7166,21 +7393,39 @@
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
+      <c r="Z17" s="15">
+        <v>0</v>
+      </c>
       <c r="AA17" s="15"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-      <c r="AE17" s="15"/>
-      <c r="AF17" s="15"/>
-      <c r="AG17" s="15"/>
-      <c r="AH17" s="15"/>
-      <c r="AI17" s="15"/>
+      <c r="AD17" s="15">
+        <v>139</v>
+      </c>
+      <c r="AE17" s="15">
+        <v>131.4</v>
+      </c>
+      <c r="AF17" s="15">
+        <v>209.2</v>
+      </c>
+      <c r="AG17" s="15">
+        <v>262.60000000000002</v>
+      </c>
+      <c r="AH17" s="15">
+        <v>318.8</v>
+      </c>
+      <c r="AI17" s="15">
+        <v>373.7</v>
+      </c>
       <c r="AJ17" s="15">
         <v>557.29999999999995</v>
       </c>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="15"/>
+      <c r="AK17" s="15">
+        <v>633.1</v>
+      </c>
+      <c r="AL17" s="15">
+        <v>751.5</v>
+      </c>
       <c r="AM17" s="15">
         <v>855</v>
       </c>
@@ -7280,7 +7525,7 @@
         <v>14148.000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>229</v>
       </c>
@@ -7307,21 +7552,39 @@
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
+      <c r="Z18" s="15">
+        <v>41</v>
+      </c>
       <c r="AA18" s="15"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="15"/>
-      <c r="AF18" s="15"/>
-      <c r="AG18" s="15"/>
-      <c r="AH18" s="15"/>
-      <c r="AI18" s="15"/>
+      <c r="AD18" s="15">
+        <v>63</v>
+      </c>
+      <c r="AE18" s="15">
+        <v>59.9</v>
+      </c>
+      <c r="AF18" s="15">
+        <v>73.5</v>
+      </c>
+      <c r="AG18" s="15">
+        <v>80.2</v>
+      </c>
+      <c r="AH18" s="15">
+        <v>93.2</v>
+      </c>
+      <c r="AI18" s="15">
+        <v>63.9</v>
+      </c>
       <c r="AJ18" s="15">
         <v>73.7</v>
       </c>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="15"/>
+      <c r="AK18" s="15">
+        <v>69.7</v>
+      </c>
+      <c r="AL18" s="15">
+        <v>81.400000000000006</v>
+      </c>
       <c r="AM18" s="15"/>
       <c r="AN18" s="15">
         <v>86.6</v>
@@ -7413,7 +7676,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="19" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>382</v>
       </c>
@@ -7440,19 +7703,39 @@
       <c r="W19" s="15"/>
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
+      <c r="Z19" s="15">
+        <v>16</v>
+      </c>
       <c r="AA19" s="15"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="15"/>
-      <c r="AD19" s="15"/>
-      <c r="AE19" s="15"/>
-      <c r="AF19" s="15"/>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
-      <c r="AI19" s="15"/>
-      <c r="AJ19" s="15"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="15"/>
+      <c r="AD19" s="15">
+        <v>25</v>
+      </c>
+      <c r="AE19" s="15">
+        <v>26.3</v>
+      </c>
+      <c r="AF19" s="15">
+        <v>28.4</v>
+      </c>
+      <c r="AG19" s="15">
+        <v>25.4</v>
+      </c>
+      <c r="AH19" s="15">
+        <v>27.8</v>
+      </c>
+      <c r="AI19" s="15">
+        <v>24.5</v>
+      </c>
+      <c r="AJ19" s="15">
+        <v>26.6</v>
+      </c>
+      <c r="AK19" s="15">
+        <v>28.4</v>
+      </c>
+      <c r="AL19" s="15">
+        <v>28.9</v>
+      </c>
       <c r="AM19" s="15"/>
       <c r="AN19" s="15"/>
       <c r="AO19" s="15"/>
@@ -7475,7 +7758,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="20" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>230</v>
       </c>
@@ -7502,21 +7785,39 @@
       <c r="W20" s="15"/>
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
-      <c r="Z20" s="15"/>
+      <c r="Z20" s="15">
+        <v>0</v>
+      </c>
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="15"/>
-      <c r="AD20" s="15"/>
-      <c r="AE20" s="15"/>
-      <c r="AF20" s="15"/>
-      <c r="AG20" s="15"/>
-      <c r="AH20" s="15"/>
-      <c r="AI20" s="15"/>
+      <c r="AD20" s="15">
+        <v>9</v>
+      </c>
+      <c r="AE20" s="15">
+        <v>12.4</v>
+      </c>
+      <c r="AF20" s="15">
+        <v>24.1</v>
+      </c>
+      <c r="AG20" s="15">
+        <v>24.9</v>
+      </c>
+      <c r="AH20" s="15">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AI20" s="15">
+        <v>33.700000000000003</v>
+      </c>
       <c r="AJ20" s="15">
         <v>58.5</v>
       </c>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="15"/>
+      <c r="AK20" s="15">
+        <v>54.8</v>
+      </c>
+      <c r="AL20" s="15">
+        <v>59.7</v>
+      </c>
       <c r="AM20" s="15"/>
       <c r="AN20" s="15">
         <v>68.3</v>
@@ -7605,7 +7906,7 @@
         <v>458.7</v>
       </c>
     </row>
-    <row r="21" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>360</v>
       </c>
@@ -7676,7 +7977,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="22" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>210</v>
       </c>
@@ -7719,32 +8020,78 @@
         <f>+BO22-M22-L22-K22</f>
         <v>85.706000000000017</v>
       </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
-      <c r="Y22" s="15"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="15"/>
-      <c r="AC22" s="15"/>
-      <c r="AD22" s="15"/>
-      <c r="AE22" s="15"/>
-      <c r="AF22" s="15"/>
-      <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
+      <c r="O22" s="15">
+        <v>125.312</v>
+      </c>
+      <c r="P22" s="15">
+        <v>97.295000000000002</v>
+      </c>
+      <c r="Q22" s="15">
+        <v>135.85300000000001</v>
+      </c>
+      <c r="R22" s="15">
+        <v>137.095</v>
+      </c>
+      <c r="S22" s="15">
+        <v>123.846</v>
+      </c>
+      <c r="T22" s="15">
+        <v>134.23699999999999</v>
+      </c>
+      <c r="U22" s="15">
+        <v>157.596</v>
+      </c>
+      <c r="V22" s="15">
+        <v>164.809</v>
+      </c>
+      <c r="W22" s="15">
+        <v>179.59200000000001</v>
+      </c>
+      <c r="X22" s="15">
+        <v>191.89599999999999</v>
+      </c>
+      <c r="Y22" s="15">
+        <v>191.298</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>181.48400000000001</v>
+      </c>
+      <c r="AA22" s="15">
+        <v>193.93899999999999</v>
+      </c>
+      <c r="AB22" s="15">
+        <v>210.35499999999999</v>
+      </c>
+      <c r="AC22" s="15">
+        <v>236.625</v>
+      </c>
+      <c r="AD22" s="15">
+        <v>297.13299999999998</v>
+      </c>
+      <c r="AE22" s="15">
+        <v>247.9</v>
+      </c>
+      <c r="AF22" s="15">
+        <v>262.89999999999998</v>
+      </c>
+      <c r="AG22" s="15">
+        <v>264.39999999999998</v>
+      </c>
+      <c r="AH22" s="15">
+        <v>301.5</v>
+      </c>
       <c r="AI22" s="15">
         <v>264</v>
       </c>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
+      <c r="AJ22" s="15">
+        <v>289</v>
+      </c>
+      <c r="AK22" s="15">
+        <v>302.8</v>
+      </c>
+      <c r="AL22" s="15">
+        <v>320.8</v>
+      </c>
       <c r="AM22" s="15">
         <v>281.39999999999998</v>
       </c>
@@ -7915,7 +8262,7 @@
         <v>135.10249126297612</v>
       </c>
     </row>
-    <row r="23" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>211</v>
       </c>
@@ -7951,21 +8298,11 @@
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
       <c r="AH23" s="15"/>
-      <c r="AI23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="15">
-        <v>0</v>
-      </c>
+      <c r="AI23" s="15"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
       <c r="AN23" s="15">
         <v>0</v>
       </c>
@@ -8035,7 +8372,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="24" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>212</v>
       </c>
@@ -8087,32 +8424,78 @@
         <f>+BO24-M24-L24-K24</f>
         <v>7.6730000000000018</v>
       </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="15"/>
-      <c r="Z24" s="15"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="15"/>
-      <c r="AC24" s="15"/>
-      <c r="AD24" s="15"/>
-      <c r="AE24" s="15"/>
-      <c r="AF24" s="15"/>
-      <c r="AG24" s="15"/>
-      <c r="AH24" s="15"/>
+      <c r="O24" s="15">
+        <v>7.5419999999999998</v>
+      </c>
+      <c r="P24" s="15">
+        <v>7.7880000000000003</v>
+      </c>
+      <c r="Q24" s="15">
+        <v>8.1660000000000004</v>
+      </c>
+      <c r="R24" s="15">
+        <v>8.4450000000000003</v>
+      </c>
+      <c r="S24" s="15">
+        <v>27.837</v>
+      </c>
+      <c r="T24" s="15">
+        <v>11.451000000000001</v>
+      </c>
+      <c r="U24" s="15">
+        <v>17.529</v>
+      </c>
+      <c r="V24" s="15">
+        <v>18.071999999999999</v>
+      </c>
+      <c r="W24" s="15">
+        <v>17.381</v>
+      </c>
+      <c r="X24" s="15">
+        <v>23.1</v>
+      </c>
+      <c r="Y24" s="15">
+        <v>26.963999999999999</v>
+      </c>
+      <c r="Z24" s="15">
+        <v>51.656999999999996</v>
+      </c>
+      <c r="AA24" s="15">
+        <v>56.44</v>
+      </c>
+      <c r="AB24" s="15">
+        <v>113.5</v>
+      </c>
+      <c r="AC24" s="15">
+        <v>61.506</v>
+      </c>
+      <c r="AD24" s="15">
+        <v>107.07299999999999</v>
+      </c>
+      <c r="AE24" s="15">
+        <v>86.2</v>
+      </c>
+      <c r="AF24" s="15">
+        <v>110.9</v>
+      </c>
+      <c r="AG24" s="15">
+        <v>117.3</v>
+      </c>
+      <c r="AH24" s="15">
+        <v>102.3</v>
+      </c>
       <c r="AI24" s="15">
         <v>22.2</v>
       </c>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
+      <c r="AJ24" s="15">
+        <v>90.3</v>
+      </c>
+      <c r="AK24" s="15">
+        <v>103.1</v>
+      </c>
+      <c r="AL24" s="15">
+        <v>135.19999999999999</v>
+      </c>
       <c r="AM24" s="15">
         <v>63.2</v>
       </c>
@@ -8283,7 +8666,7 @@
         <v>176.50102637862003</v>
       </c>
     </row>
-    <row r="25" spans="2:89" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:89" s="16" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>213</v>
       </c>
@@ -8308,7 +8691,7 @@
         <v>231.75800000000001</v>
       </c>
       <c r="H25" s="17">
-        <f t="shared" ref="H25:N25" si="17">+H24+H22+H13+H3+H9</f>
+        <f t="shared" ref="H25:O25" si="17">+H24+H22+H13+H3+H9</f>
         <v>304.38</v>
       </c>
       <c r="I25" s="17">
@@ -8335,58 +8718,124 @@
         <f t="shared" si="17"/>
         <v>610.41800000000001</v>
       </c>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
+      <c r="O25" s="17">
+        <f t="shared" si="17"/>
+        <v>625.36199999999997</v>
+      </c>
+      <c r="P25" s="17">
+        <f t="shared" ref="P25:W25" si="18">SUM(P3:P13)+P22+P23+P24</f>
+        <v>665.69999999999993</v>
+      </c>
+      <c r="Q25" s="17">
+        <f t="shared" si="18"/>
+        <v>725.78800000000012</v>
+      </c>
+      <c r="R25" s="17">
+        <f t="shared" si="18"/>
+        <v>801.81100000000004</v>
+      </c>
+      <c r="S25" s="17">
+        <f t="shared" si="18"/>
+        <v>869.03899999999999</v>
+      </c>
+      <c r="T25" s="17">
+        <f t="shared" si="18"/>
+        <v>998.61699999999996</v>
+      </c>
+      <c r="U25" s="17">
+        <f t="shared" si="18"/>
+        <v>1137.422</v>
+      </c>
+      <c r="V25" s="17">
+        <f t="shared" si="18"/>
+        <v>1097.5529999999999</v>
+      </c>
+      <c r="W25" s="17">
+        <f t="shared" ref="W25:AE25" si="19">SUM(W3:W13)+W22+W23+W24</f>
+        <v>1200.6670000000001</v>
+      </c>
+      <c r="X25" s="17">
+        <f t="shared" si="19"/>
+        <v>1212.4099999999999</v>
+      </c>
+      <c r="Y25" s="17">
+        <f t="shared" si="19"/>
+        <v>1219.654</v>
+      </c>
+      <c r="Z25" s="17">
+        <f t="shared" si="19"/>
+        <v>1227.3059999999998</v>
+      </c>
+      <c r="AA25" s="17">
+        <f t="shared" si="19"/>
+        <v>1318.7460000000001</v>
+      </c>
+      <c r="AB25" s="17">
+        <f t="shared" si="19"/>
+        <v>1469.9829999999999</v>
+      </c>
+      <c r="AC25" s="17">
+        <f t="shared" si="19"/>
+        <v>1500.306</v>
+      </c>
+      <c r="AD25" s="17">
+        <f t="shared" si="19"/>
+        <v>1582.729</v>
+      </c>
+      <c r="AE25" s="17">
+        <f t="shared" ref="AE25:AH25" si="20">SUM(AE3:AE13)+AE22+AE23+AE24</f>
+        <v>1511.5000000000002</v>
+      </c>
+      <c r="AF25" s="17">
+        <f t="shared" si="20"/>
+        <v>1607.8000000000002</v>
+      </c>
+      <c r="AG25" s="17">
+        <f t="shared" si="20"/>
+        <v>1663.4999999999998</v>
+      </c>
+      <c r="AH25" s="17">
+        <f t="shared" si="20"/>
+        <v>1927.8</v>
+      </c>
       <c r="AI25" s="17">
-        <f t="shared" ref="AI25:AJ25" si="18">SUM(AI3:AI13)+AI22+AI23+AI24</f>
-        <v>1390.6</v>
+        <f t="shared" ref="AI25:AK25" si="21">SUM(AI3:AI13)+AI22+AI23+AI24</f>
+        <v>1764.3</v>
       </c>
       <c r="AJ25" s="17">
-        <f t="shared" si="18"/>
-        <v>1231.5</v>
-      </c>
-      <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
+        <f t="shared" si="21"/>
+        <v>1933.3999999999999</v>
+      </c>
+      <c r="AK25" s="17">
+        <f t="shared" si="21"/>
+        <v>2048.4</v>
+      </c>
+      <c r="AL25" s="17">
+        <f>SUM(AL3:AL13)+AL22+AL23+AL24</f>
+        <v>2169.5</v>
+      </c>
       <c r="AM25" s="17">
-        <f t="shared" ref="AM25:AP25" si="19">SUM(AM3:AM13)+AM22+AM23+AM24</f>
+        <f t="shared" ref="AL25:AP25" si="22">SUM(AM3:AM13)+AM22+AM23+AM24</f>
         <v>1828.2</v>
       </c>
       <c r="AN25" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>1952.3000000000002</v>
       </c>
       <c r="AO25" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2293.7999999999997</v>
       </c>
       <c r="AP25" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>2299.6999999999998</v>
       </c>
       <c r="AQ25" s="17">
-        <f t="shared" ref="AQ25:AV25" si="20">SUM(AQ3:AQ13)+AQ22+AQ23+AQ24</f>
+        <f t="shared" ref="AQ25:AV25" si="23">SUM(AQ3:AQ13)+AQ22+AQ23+AQ24</f>
         <v>2529.4000000000005</v>
       </c>
       <c r="AR25" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>5138.7</v>
       </c>
       <c r="AS25" s="17">
@@ -8394,75 +8843,75 @@
         <v>3452.9</v>
       </c>
       <c r="AT25" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>4951.4999999999991</v>
       </c>
       <c r="AU25" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2965.5000000000005</v>
       </c>
       <c r="AV25" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>2856.5</v>
       </c>
       <c r="AW25" s="17">
-        <f t="shared" ref="AW25:BJ25" si="21">SUM(AW3:AW13)+AW22+AW23+AW24</f>
+        <f t="shared" ref="AW25:BJ25" si="24">SUM(AW3:AW13)+AW22+AW23+AW24</f>
         <v>2936.4</v>
       </c>
       <c r="AX25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3414.1</v>
       </c>
       <c r="AY25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3162</v>
       </c>
       <c r="AZ25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3158</v>
       </c>
       <c r="BA25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3363</v>
       </c>
       <c r="BB25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3434</v>
       </c>
       <c r="BC25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3145</v>
       </c>
       <c r="BD25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3547</v>
       </c>
       <c r="BE25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3721.3</v>
       </c>
       <c r="BF25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3789</v>
       </c>
       <c r="BG25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3029</v>
       </c>
       <c r="BH25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3171.2</v>
       </c>
       <c r="BI25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3250.2999999999997</v>
       </c>
       <c r="BJ25" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="24"/>
         <v>3299.596</v>
       </c>
       <c r="BL25" s="17">
-        <f t="shared" ref="BL25:BU25" si="22">SUM(BL3:BL13)+BL22+BL23+BL24</f>
+        <f t="shared" ref="BL25:BU25" si="25">SUM(BL3:BL13)+BL22+BL23+BL24</f>
         <v>336.58600000000001</v>
       </c>
       <c r="BM25" s="17">
@@ -8470,15 +8919,15 @@
         <v>445.8</v>
       </c>
       <c r="BN25" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>1378.5</v>
       </c>
       <c r="BO25" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2104.7000000000003</v>
       </c>
       <c r="BP25" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>2819.6000000000004</v>
       </c>
       <c r="BQ25" s="17">
@@ -8490,83 +8939,83 @@
         <v>4860.4000000000005</v>
       </c>
       <c r="BS25" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>5872.2000000000007</v>
       </c>
       <c r="BT25" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>6892.1</v>
       </c>
       <c r="BU25" s="17">
-        <f t="shared" si="22"/>
+        <f t="shared" si="25"/>
         <v>7989.4</v>
       </c>
       <c r="BV25" s="17">
-        <f t="shared" ref="BV25:CA25" si="23">SUM(BV3:BV13)+BV22+BV23+BV24</f>
+        <f t="shared" ref="BV25:CA25" si="26">SUM(BV3:BV13)+BV22+BV23+BV24</f>
         <v>8374</v>
       </c>
       <c r="BW25" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>16072.500000000002</v>
       </c>
       <c r="BX25" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>12172.500000000002</v>
       </c>
       <c r="BY25" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>13117</v>
       </c>
       <c r="BZ25" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>14202.3</v>
       </c>
       <c r="CA25" s="17">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>12750.096</v>
       </c>
       <c r="CB25" s="17">
-        <f t="shared" ref="CB25:CK25" si="24">SUM(CB3:CB13)+CB22+CB23+CB24</f>
+        <f t="shared" ref="CB25:CK25" si="27">SUM(CB3:CB13)+CB22+CB23+CB24</f>
         <v>13146.9334</v>
       </c>
       <c r="CC25" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>13298.982482000001</v>
       </c>
       <c r="CD25" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>13500.542446419999</v>
       </c>
       <c r="CE25" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>13853.091906204199</v>
       </c>
       <c r="CF25" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>14029.216593470241</v>
       </c>
       <c r="CG25" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>14367.372902261744</v>
       </c>
       <c r="CH25" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>12804.514049976447</v>
       </c>
       <c r="CI25" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>11008.238214219644</v>
       </c>
       <c r="CJ25" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>9249.8612024077211</v>
       </c>
       <c r="CK25" s="17">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>8026.0637162072462</v>
       </c>
     </row>
-    <row r="26" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>214</v>
       </c>
@@ -8622,21 +9071,43 @@
       <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
+      <c r="Z26" s="15">
+        <f>44.534+30.147</f>
+        <v>74.680999999999997</v>
+      </c>
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
+      <c r="AD26" s="15">
+        <f>52.733+53.007</f>
+        <v>105.74</v>
+      </c>
+      <c r="AE26" s="15">
+        <f>69.2+45.7</f>
+        <v>114.9</v>
+      </c>
+      <c r="AF26" s="15">
+        <f>36+55.7</f>
+        <v>91.7</v>
+      </c>
       <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
+      <c r="AH26" s="15">
+        <f>44+73.2</f>
+        <v>117.2</v>
+      </c>
+      <c r="AI26" s="15">
+        <f>70.9+108.3</f>
+        <v>179.2</v>
+      </c>
       <c r="AJ26" s="15">
-        <v>58.2</v>
+        <f>67+85.5</f>
+        <v>152.5</v>
       </c>
       <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
+      <c r="AL26" s="15">
+        <f>108.5+115.4</f>
+        <v>223.9</v>
+      </c>
       <c r="AM26" s="15">
         <f>78.8+138.5</f>
         <v>217.3</v>
@@ -8683,7 +9154,8 @@
         <v>387.20000000000005</v>
       </c>
       <c r="AY26" s="15">
-        <v>168</v>
+        <f>208.4+249.1-18.5</f>
+        <v>439</v>
       </c>
       <c r="AZ26" s="15">
         <v>163</v>
@@ -8696,13 +9168,16 @@
         <v>469.09999999999997</v>
       </c>
       <c r="BC26" s="15">
-        <v>196</v>
+        <f>240.4+193.4-0.4-23.2</f>
+        <v>410.20000000000005</v>
       </c>
       <c r="BD26" s="15">
-        <v>214</v>
+        <f>257.8+222.4-0.8-25.1</f>
+        <v>454.3</v>
       </c>
       <c r="BE26" s="15">
-        <v>217.4</v>
+        <f>262.3-0.5-26.1+228.8</f>
+        <v>464.5</v>
       </c>
       <c r="BF26" s="15">
         <f>270.8+238.6</f>
@@ -8712,11 +9187,11 @@
         <v>217</v>
       </c>
       <c r="BH26" s="1">
-        <f t="shared" ref="BH26:BI26" si="25">+BH25-BH27</f>
+        <f t="shared" ref="BH26:BI26" si="28">+BH25-BH27</f>
         <v>221.98399999999992</v>
       </c>
       <c r="BI26" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>227.52099999999973</v>
       </c>
       <c r="BJ26" s="1">
@@ -8742,76 +9217,76 @@
         <v>392.709</v>
       </c>
       <c r="BV26" s="1">
-        <f t="shared" ref="BV26" si="26">SUM(AM26:AP26)</f>
+        <f t="shared" ref="BV26" si="29">SUM(AM26:AP26)</f>
         <v>945</v>
       </c>
       <c r="BW26" s="1">
-        <f t="shared" ref="BW26" si="27">SUM(AQ26:AT26)</f>
+        <f t="shared" ref="BW26" si="30">SUM(AQ26:AT26)</f>
         <v>1955.6</v>
       </c>
       <c r="BX26" s="1">
-        <f t="shared" ref="BX26" si="28">SUM(AU26:AX26)</f>
+        <f t="shared" ref="BX26" si="31">SUM(AU26:AX26)</f>
         <v>1198.2</v>
       </c>
       <c r="BY26" s="1">
-        <f t="shared" ref="BY26" si="29">SUM(AY26:BB26)</f>
-        <v>980.9</v>
+        <f t="shared" ref="BY26" si="32">SUM(AY26:BB26)</f>
+        <v>1251.8999999999999</v>
       </c>
       <c r="BZ26" s="1">
         <f>SUM(BC26:BF26)</f>
-        <v>1136.8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1838.4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C27" s="15">
-        <f t="shared" ref="C27:F27" si="30">+C25-C26</f>
+        <f t="shared" ref="C27:F27" si="33">+C25-C26</f>
         <v>111.79499999999999</v>
       </c>
       <c r="D27" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>107.41500000000001</v>
       </c>
       <c r="E27" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>102.35</v>
       </c>
       <c r="F27" s="15">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>120.02400000000002</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" ref="G27:N27" si="31">+G25-G26</f>
+        <f t="shared" ref="G27:N27" si="34">+G25-G26</f>
         <v>219.46</v>
       </c>
       <c r="H27" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>282.53699999999998</v>
       </c>
       <c r="I27" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>407.55500000000001</v>
       </c>
       <c r="J27" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>384.49300000000005</v>
       </c>
       <c r="K27" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>410.56899999999996</v>
       </c>
       <c r="L27" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>418.036</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>558.43600000000004</v>
       </c>
       <c r="N27" s="15">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>562.30399999999997</v>
       </c>
       <c r="O27" s="15"/>
@@ -8825,57 +9300,90 @@
       <c r="W27" s="15"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
+      <c r="Z27" s="15">
+        <f t="shared" ref="Z27:AC27" si="35">+Z25-Z26</f>
+        <v>1152.6249999999998</v>
+      </c>
+      <c r="AA27" s="15">
+        <f t="shared" si="35"/>
+        <v>1318.7460000000001</v>
+      </c>
+      <c r="AB27" s="15">
+        <f t="shared" si="35"/>
+        <v>1469.9829999999999</v>
+      </c>
+      <c r="AC27" s="15">
+        <f t="shared" si="35"/>
+        <v>1500.306</v>
+      </c>
+      <c r="AD27" s="15">
+        <f>+AD25-AD26</f>
+        <v>1476.989</v>
+      </c>
+      <c r="AE27" s="15">
+        <f>+AE25-AE26</f>
+        <v>1396.6000000000001</v>
+      </c>
+      <c r="AF27" s="15">
+        <f>+AF25-AF26</f>
+        <v>1516.1000000000001</v>
+      </c>
       <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="15"/>
+      <c r="AH27" s="15">
+        <f>+AH25-AH26</f>
+        <v>1810.6</v>
+      </c>
+      <c r="AI27" s="15">
+        <f>+AI25-AI26</f>
+        <v>1585.1</v>
+      </c>
+      <c r="AJ27" s="15">
+        <f>+AJ25-AJ26</f>
+        <v>1780.8999999999999</v>
+      </c>
       <c r="AK27" s="15"/>
-      <c r="AL27" s="15"/>
+      <c r="AL27" s="15">
+        <f>+AL25-AL26</f>
+        <v>1945.6</v>
+      </c>
       <c r="AM27" s="15">
-        <f t="shared" ref="AM27" si="32">+AM25-AM26</f>
+        <f t="shared" ref="AM27" si="36">+AM25-AM26</f>
         <v>1610.9</v>
       </c>
       <c r="AN27" s="15">
-        <f t="shared" ref="AN27:AV27" si="33">+AN25-AN26</f>
+        <f t="shared" ref="AN27:AV27" si="37">+AN25-AN26</f>
         <v>1686.1000000000001</v>
       </c>
       <c r="AO27" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2171.7999999999997</v>
       </c>
       <c r="AP27" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1960.1999999999998</v>
       </c>
       <c r="AQ27" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2221.4000000000005</v>
       </c>
       <c r="AR27" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>4445</v>
       </c>
       <c r="AS27" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>3228.9</v>
       </c>
       <c r="AT27" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>4221.5999999999995</v>
       </c>
       <c r="AU27" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2560.6000000000004</v>
       </c>
       <c r="AV27" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2559.4</v>
       </c>
       <c r="AW27" s="15">
@@ -8888,7 +9396,7 @@
       </c>
       <c r="AY27" s="15">
         <f>AY25-AY26</f>
-        <v>2994</v>
+        <v>2723</v>
       </c>
       <c r="AZ27" s="15">
         <f>AZ25-AZ26</f>
@@ -8904,15 +9412,15 @@
       </c>
       <c r="BC27" s="15">
         <f>BC25-BC26</f>
-        <v>2949</v>
+        <v>2734.8</v>
       </c>
       <c r="BD27" s="15">
         <f>BD25-BD26</f>
-        <v>3333</v>
+        <v>3092.7</v>
       </c>
       <c r="BE27" s="15">
         <f>+BE25-BE26</f>
-        <v>3503.9</v>
+        <v>3256.8</v>
       </c>
       <c r="BF27" s="15">
         <f>+BF25-BF26</f>
@@ -8959,67 +9467,67 @@
         <v>7429</v>
       </c>
       <c r="BW27" s="1">
-        <f t="shared" ref="BW27:BY27" si="34">+BW25-BW26</f>
+        <f t="shared" ref="BW27:BY27" si="38">+BW25-BW26</f>
         <v>14116.900000000001</v>
       </c>
       <c r="BX27" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>10974.300000000001</v>
       </c>
       <c r="BY27" s="1">
-        <f t="shared" si="34"/>
-        <v>12136.1</v>
+        <f t="shared" si="38"/>
+        <v>11865.1</v>
       </c>
       <c r="BZ27" s="1">
         <f>+BZ25-BZ26</f>
-        <v>13065.5</v>
+        <v>12363.9</v>
       </c>
       <c r="CA27" s="1">
         <f>CA25*0.9</f>
         <v>11475.0864</v>
       </c>
       <c r="CB27" s="1">
-        <f t="shared" ref="CB27:CK27" si="35">CB25*0.9</f>
+        <f t="shared" ref="CB27:CK27" si="39">CB25*0.9</f>
         <v>11832.24006</v>
       </c>
       <c r="CC27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>11969.084233800002</v>
       </c>
       <c r="CD27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>12150.488201777998</v>
       </c>
       <c r="CE27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>12467.78271558378</v>
       </c>
       <c r="CF27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>12626.294934123216</v>
       </c>
       <c r="CG27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>12930.63561203557</v>
       </c>
       <c r="CH27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>11524.062644978803</v>
       </c>
       <c r="CI27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>9907.4143927976802</v>
       </c>
       <c r="CJ27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>8324.8750821669491</v>
       </c>
       <c r="CK27" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>7223.4573445865217</v>
       </c>
     </row>
-    <row r="28" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>216</v>
       </c>
@@ -9073,16 +9581,28 @@
       <c r="W28" s="15"/>
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
+      <c r="Z28" s="15">
+        <v>479.20600000000002</v>
+      </c>
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
+      <c r="AD28" s="15">
+        <v>527.98299999999995</v>
+      </c>
+      <c r="AE28" s="15">
+        <v>198.6</v>
+      </c>
+      <c r="AF28" s="15">
+        <v>529.29999999999995</v>
+      </c>
       <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
+      <c r="AH28" s="15">
+        <v>601.20000000000005</v>
+      </c>
+      <c r="AI28" s="15">
+        <v>641.79999999999995</v>
+      </c>
       <c r="AJ28" s="15">
         <v>426.2</v>
       </c>
@@ -9127,7 +9647,8 @@
         <v>1041.6999999999998</v>
       </c>
       <c r="AY28" s="1">
-        <v>960</v>
+        <f>1101.2-1.6</f>
+        <v>1099.6000000000001</v>
       </c>
       <c r="AZ28" s="1">
         <v>974</v>
@@ -9139,13 +9660,16 @@
         <v>1030.9000000000001</v>
       </c>
       <c r="BC28" s="1">
-        <v>1122</v>
+        <f>1248.4-3.8</f>
+        <v>1244.6000000000001</v>
       </c>
       <c r="BD28" s="1">
-        <v>1072</v>
+        <f>1200-5.3</f>
+        <v>1194.7</v>
       </c>
       <c r="BE28" s="15">
-        <v>1145.8</v>
+        <f>1271.5-2</f>
+        <v>1269.5</v>
       </c>
       <c r="BF28" s="1">
         <v>1223.5999999999999</v>
@@ -9154,15 +9678,15 @@
         <v>1186</v>
       </c>
       <c r="BH28" s="1">
-        <f>+BD28</f>
-        <v>1072</v>
+        <f t="shared" ref="BH28:BJ29" si="40">+BD28</f>
+        <v>1194.7</v>
       </c>
       <c r="BI28" s="1">
-        <f>+BE28</f>
-        <v>1145.8</v>
+        <f t="shared" si="40"/>
+        <v>1269.5</v>
       </c>
       <c r="BJ28" s="1">
-        <f>+BF28</f>
+        <f t="shared" si="40"/>
         <v>1223.5999999999999</v>
       </c>
       <c r="BM28" s="1">
@@ -9181,27 +9705,27 @@
         <v>1620.577</v>
       </c>
       <c r="BV28" s="1">
-        <f t="shared" ref="BV28:BV29" si="36">SUM(AM28:AP28)</f>
+        <f t="shared" ref="BV28:BV29" si="41">SUM(AM28:AP28)</f>
         <v>2468</v>
       </c>
       <c r="BW28" s="1">
-        <f t="shared" ref="BW28:BW29" si="37">SUM(AQ28:AT28)</f>
+        <f t="shared" ref="BW28:BW29" si="42">SUM(AQ28:AT28)</f>
         <v>2688.1</v>
       </c>
       <c r="BX28" s="1">
-        <f t="shared" ref="BX28:BX29" si="38">SUM(AU28:AX28)</f>
+        <f t="shared" ref="BX28:BX29" si="43">SUM(AU28:AX28)</f>
         <v>3482.2</v>
       </c>
       <c r="BY28" s="1">
-        <f t="shared" ref="BY28:BY29" si="39">SUM(AY28:BB28)</f>
-        <v>3919.3</v>
+        <f t="shared" ref="BY28:BY29" si="44">SUM(AY28:BB28)</f>
+        <v>4058.9000000000005</v>
       </c>
       <c r="BZ28" s="1">
         <f>SUM(BC28:BF28)</f>
-        <v>4563.3999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4932.3999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>217</v>
       </c>
@@ -9255,16 +9779,28 @@
       <c r="W29" s="15"/>
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
+      <c r="Z29" s="15">
+        <v>325.93700000000001</v>
+      </c>
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
+      <c r="AD29" s="15">
+        <v>409.91300000000001</v>
+      </c>
+      <c r="AE29" s="15">
+        <v>330.8</v>
+      </c>
+      <c r="AF29" s="15">
+        <v>364.8</v>
+      </c>
       <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="15"/>
+      <c r="AH29" s="15">
+        <v>491.3</v>
+      </c>
+      <c r="AI29" s="15">
+        <v>410.8</v>
+      </c>
       <c r="AJ29" s="15">
         <v>251.9</v>
       </c>
@@ -9310,7 +9846,8 @@
         <v>657</v>
       </c>
       <c r="AY29" s="15">
-        <v>515</v>
+        <f>601.1-9.6</f>
+        <v>591.5</v>
       </c>
       <c r="AZ29" s="15">
         <v>562</v>
@@ -9322,13 +9859,16 @@
         <v>621.79999999999995</v>
       </c>
       <c r="BC29" s="15">
-        <v>584</v>
+        <f>689-18.8</f>
+        <v>670.2</v>
       </c>
       <c r="BD29" s="15">
-        <v>667</v>
+        <f>758.8-9.7</f>
+        <v>749.09999999999991</v>
       </c>
       <c r="BE29" s="15">
-        <v>613.1</v>
+        <f>714.4-18.2</f>
+        <v>696.19999999999993</v>
       </c>
       <c r="BF29" s="15">
         <v>680.6</v>
@@ -9337,15 +9877,15 @@
         <v>537</v>
       </c>
       <c r="BH29" s="1">
-        <f>+BD29</f>
-        <v>667</v>
+        <f t="shared" si="40"/>
+        <v>749.09999999999991</v>
       </c>
       <c r="BI29" s="1">
-        <f>+BE29</f>
-        <v>613.1</v>
+        <f t="shared" si="40"/>
+        <v>696.19999999999993</v>
       </c>
       <c r="BJ29" s="1">
-        <f>+BF29</f>
+        <f t="shared" si="40"/>
         <v>680.6</v>
       </c>
       <c r="BM29" s="1">
@@ -9364,24 +9904,24 @@
         <v>838.52599999999995</v>
       </c>
       <c r="BV29" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1320.5</v>
       </c>
       <c r="BW29" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>1706.3</v>
       </c>
       <c r="BX29" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="43"/>
         <v>2049.1999999999998</v>
       </c>
       <c r="BY29" s="1">
-        <f t="shared" si="39"/>
-        <v>2232.5</v>
+        <f t="shared" si="44"/>
+        <v>2309</v>
       </c>
       <c r="BZ29" s="1">
         <f>SUM(BC29:BF29)</f>
-        <v>2544.6999999999998</v>
+        <v>2796.1</v>
       </c>
       <c r="CA29" s="1">
         <f>CA25*0.2</f>
@@ -9392,92 +9932,92 @@
         <v>2629.3866800000001</v>
       </c>
       <c r="CC29" s="1">
-        <f t="shared" ref="CC29:CK29" si="40">CC25*0.2</f>
+        <f t="shared" ref="CC29:CK29" si="45">CC25*0.2</f>
         <v>2659.7964964000003</v>
       </c>
       <c r="CD29" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>2700.1084892839999</v>
       </c>
       <c r="CE29" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>2770.6183812408399</v>
       </c>
       <c r="CF29" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>2805.8433186940483</v>
       </c>
       <c r="CG29" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>2873.4745804523491</v>
       </c>
       <c r="CH29" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>2560.9028099952898</v>
       </c>
       <c r="CI29" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>2201.6476428439287</v>
       </c>
       <c r="CJ29" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>1849.9722404815443</v>
       </c>
       <c r="CK29" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="45"/>
         <v>1605.2127432414493</v>
       </c>
     </row>
-    <row r="30" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>218</v>
       </c>
       <c r="C30" s="15">
-        <f t="shared" ref="C30" si="41">+C29+C28</f>
+        <f t="shared" ref="C30" si="46">+C29+C28</f>
         <v>152.803</v>
       </c>
       <c r="D30" s="15">
-        <f t="shared" ref="D30:G30" si="42">+D29+D28</f>
+        <f t="shared" ref="D30:G30" si="47">+D29+D28</f>
         <v>167.73400000000001</v>
       </c>
       <c r="E30" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>160.84</v>
       </c>
       <c r="F30" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>165.39</v>
       </c>
       <c r="G30" s="15">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>197.29</v>
       </c>
       <c r="H30" s="15">
-        <f t="shared" ref="H30:N30" si="43">+H29+H28</f>
+        <f t="shared" ref="H30:N30" si="48">+H29+H28</f>
         <v>195.07799999999997</v>
       </c>
       <c r="I30" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>205.178</v>
       </c>
       <c r="J30" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>238.76300000000003</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>257.55900000000003</v>
       </c>
       <c r="L30" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>259.92599999999999</v>
       </c>
       <c r="M30" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>321.65199999999999</v>
       </c>
       <c r="N30" s="15">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>350.22500000000014</v>
       </c>
       <c r="O30" s="15"/>
@@ -9490,22 +10030,64 @@
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
-      <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="15"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="15"/>
-      <c r="AI30" s="15"/>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="15"/>
-      <c r="AL30" s="15"/>
+      <c r="Y30" s="15">
+        <f t="shared" ref="Y30:Z30" si="49">+Y29+Y28</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="15">
+        <f t="shared" ref="Z30:AE30" si="50">+Z29+Z28</f>
+        <v>805.14300000000003</v>
+      </c>
+      <c r="AA30" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="15">
+        <f t="shared" si="50"/>
+        <v>937.89599999999996</v>
+      </c>
+      <c r="AE30" s="15">
+        <f t="shared" ref="AE30:AH30" si="51">+AE29+AE28</f>
+        <v>529.4</v>
+      </c>
+      <c r="AF30" s="15">
+        <f t="shared" si="51"/>
+        <v>894.09999999999991</v>
+      </c>
+      <c r="AG30" s="15">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="15">
+        <f t="shared" ref="AF30:AH30" si="52">+AH29+AH28</f>
+        <v>1092.5</v>
+      </c>
+      <c r="AI30" s="15">
+        <f t="shared" ref="AI30" si="53">+AI29+AI28</f>
+        <v>1052.5999999999999</v>
+      </c>
+      <c r="AJ30" s="15">
+        <f t="shared" ref="AJ30:AM30" si="54">+AJ29+AJ28</f>
+        <v>678.1</v>
+      </c>
+      <c r="AK30" s="15">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="AL30" s="15">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
       <c r="AM30" s="15">
-        <f t="shared" ref="AM30" si="44">+AM29+AM28</f>
+        <f t="shared" ref="AM30" si="55">+AM29+AM28</f>
         <v>931</v>
       </c>
       <c r="AN30" s="15">
@@ -9513,23 +10095,23 @@
         <v>881.5</v>
       </c>
       <c r="AO30" s="15">
-        <f t="shared" ref="AO30:AS30" si="45">+AO29+AO28</f>
+        <f t="shared" ref="AO30:AS30" si="56">+AO29+AO28</f>
         <v>920</v>
       </c>
       <c r="AP30" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>1056</v>
       </c>
       <c r="AQ30" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>1148.5</v>
       </c>
       <c r="AR30" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>1128.9000000000001</v>
       </c>
       <c r="AS30" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="56"/>
         <v>983</v>
       </c>
       <c r="AT30" s="15">
@@ -9553,51 +10135,51 @@
         <v>1698.6999999999998</v>
       </c>
       <c r="AY30" s="15">
-        <f t="shared" ref="AY30:BB30" si="46">+AY29+AY28</f>
-        <v>1475</v>
+        <f t="shared" ref="AY30:BB30" si="57">+AY29+AY28</f>
+        <v>1691.1000000000001</v>
       </c>
       <c r="AZ30" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>1536</v>
       </c>
       <c r="BA30" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>1488.1</v>
       </c>
       <c r="BB30" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="57"/>
         <v>1652.7</v>
       </c>
       <c r="BC30" s="15">
-        <f t="shared" ref="BC30:BD30" si="47">+BC29+BC28</f>
-        <v>1706</v>
+        <f t="shared" ref="BC30:BD30" si="58">+BC29+BC28</f>
+        <v>1914.8000000000002</v>
       </c>
       <c r="BD30" s="15">
-        <f t="shared" si="47"/>
-        <v>1739</v>
+        <f t="shared" si="58"/>
+        <v>1943.8</v>
       </c>
       <c r="BE30" s="15">
-        <f t="shared" ref="BE30:BF30" si="48">+BE29+BE28</f>
-        <v>1758.9</v>
+        <f t="shared" ref="BE30:BF30" si="59">+BE29+BE28</f>
+        <v>1965.6999999999998</v>
       </c>
       <c r="BF30" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="59"/>
         <v>1904.1999999999998</v>
       </c>
       <c r="BG30" s="15">
-        <f t="shared" ref="BG30:BJ30" si="49">+BG29+BG28</f>
+        <f t="shared" ref="BG30:BJ30" si="60">+BG29+BG28</f>
         <v>1723</v>
       </c>
       <c r="BH30" s="15">
-        <f t="shared" si="49"/>
-        <v>1739</v>
+        <f t="shared" si="60"/>
+        <v>1943.8</v>
       </c>
       <c r="BI30" s="15">
-        <f t="shared" si="49"/>
-        <v>1758.9</v>
+        <f t="shared" si="60"/>
+        <v>1965.6999999999998</v>
       </c>
       <c r="BJ30" s="15">
-        <f t="shared" si="49"/>
+        <f t="shared" si="60"/>
         <v>1904.1999999999998</v>
       </c>
       <c r="BM30" s="1">
@@ -9625,116 +10207,116 @@
         <v>3788.5</v>
       </c>
       <c r="BW30" s="1">
-        <f t="shared" ref="BW30:BY30" si="50">+BW28+BW29</f>
+        <f t="shared" ref="BW30:BY30" si="61">+BW28+BW29</f>
         <v>4394.3999999999996</v>
       </c>
       <c r="BX30" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="61"/>
         <v>5531.4</v>
       </c>
       <c r="BY30" s="1">
-        <f t="shared" si="50"/>
-        <v>6151.8</v>
+        <f t="shared" si="61"/>
+        <v>6367.9000000000005</v>
       </c>
       <c r="BZ30" s="1">
-        <f t="shared" ref="BZ30:CK30" si="51">+BZ28+BZ29</f>
-        <v>7108.0999999999995</v>
+        <f t="shared" ref="BZ30:CK30" si="62">+BZ28+BZ29</f>
+        <v>7728.5</v>
       </c>
       <c r="CA30" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>2550.0192000000002</v>
       </c>
       <c r="CB30" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>2629.3866800000001</v>
       </c>
       <c r="CC30" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>2659.7964964000003</v>
       </c>
       <c r="CD30" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>2700.1084892839999</v>
       </c>
       <c r="CE30" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>2770.6183812408399</v>
       </c>
       <c r="CF30" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>2805.8433186940483</v>
       </c>
       <c r="CG30" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>2873.4745804523491</v>
       </c>
       <c r="CH30" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>2560.9028099952898</v>
       </c>
       <c r="CI30" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>2201.6476428439287</v>
       </c>
       <c r="CJ30" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>1849.9722404815443</v>
       </c>
       <c r="CK30" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="62"/>
         <v>1605.2127432414493</v>
       </c>
     </row>
-    <row r="31" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>219</v>
       </c>
       <c r="C31" s="15">
-        <f t="shared" ref="C31" si="52">+C27-C30</f>
+        <f t="shared" ref="C31" si="63">+C27-C30</f>
         <v>-41.00800000000001</v>
       </c>
       <c r="D31" s="15">
-        <f t="shared" ref="D31:G31" si="53">+D27-D30</f>
+        <f t="shared" ref="D31:G31" si="64">+D27-D30</f>
         <v>-60.319000000000003</v>
       </c>
       <c r="E31" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>-58.490000000000009</v>
       </c>
       <c r="F31" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>-45.365999999999971</v>
       </c>
       <c r="G31" s="15">
-        <f t="shared" si="53"/>
+        <f t="shared" si="64"/>
         <v>22.170000000000016</v>
       </c>
       <c r="H31" s="15">
-        <f t="shared" ref="H31:N31" si="54">+H27-H30</f>
+        <f t="shared" ref="H31:N31" si="65">+H27-H30</f>
         <v>87.459000000000003</v>
       </c>
       <c r="I31" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>202.37700000000001</v>
       </c>
       <c r="J31" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>145.73000000000002</v>
       </c>
       <c r="K31" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>153.00999999999993</v>
       </c>
       <c r="L31" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>158.11000000000001</v>
       </c>
       <c r="M31" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>236.78400000000005</v>
       </c>
       <c r="N31" s="15">
-        <f t="shared" si="54"/>
+        <f t="shared" si="65"/>
         <v>212.07899999999984</v>
       </c>
       <c r="O31" s="15"/>
@@ -9747,20 +10329,62 @@
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
       <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="15"/>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="15"/>
-      <c r="AL31" s="15"/>
+      <c r="Y31" s="15">
+        <f t="shared" ref="Y31" si="66">+Y27-Y30</f>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="15">
+        <f t="shared" ref="Z31" si="67">+Z27-Z30</f>
+        <v>347.48199999999974</v>
+      </c>
+      <c r="AA31" s="15">
+        <f t="shared" ref="AA31" si="68">+AA27-AA30</f>
+        <v>1318.7460000000001</v>
+      </c>
+      <c r="AB31" s="15">
+        <f t="shared" ref="AB31" si="69">+AB27-AB30</f>
+        <v>1469.9829999999999</v>
+      </c>
+      <c r="AC31" s="15">
+        <f t="shared" ref="AC31" si="70">+AC27-AC30</f>
+        <v>1500.306</v>
+      </c>
+      <c r="AD31" s="15">
+        <f t="shared" ref="AD31" si="71">+AD27-AD30</f>
+        <v>539.09300000000007</v>
+      </c>
+      <c r="AE31" s="15">
+        <f t="shared" ref="AE31" si="72">+AE27-AE30</f>
+        <v>867.20000000000016</v>
+      </c>
+      <c r="AF31" s="15">
+        <f t="shared" ref="AF31" si="73">+AF27-AF30</f>
+        <v>622.00000000000023</v>
+      </c>
+      <c r="AG31" s="15">
+        <f t="shared" ref="AG31" si="74">+AG27-AG30</f>
+        <v>0</v>
+      </c>
+      <c r="AH31" s="15">
+        <f t="shared" ref="AH31:AL31" si="75">+AH27-AH30</f>
+        <v>718.09999999999991</v>
+      </c>
+      <c r="AI31" s="15">
+        <f t="shared" ref="AI31" si="76">+AI27-AI30</f>
+        <v>532.5</v>
+      </c>
+      <c r="AJ31" s="15">
+        <f t="shared" si="75"/>
+        <v>1102.7999999999997</v>
+      </c>
+      <c r="AK31" s="15">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="AL31" s="15">
+        <f t="shared" si="75"/>
+        <v>1945.6</v>
+      </c>
       <c r="AM31" s="15">
         <f>+AM27-AM30</f>
         <v>679.90000000000009</v>
@@ -9770,23 +10394,23 @@
         <v>804.60000000000014</v>
       </c>
       <c r="AO31" s="15">
-        <f t="shared" ref="AO31:AS31" si="55">+AO27-AO30</f>
+        <f t="shared" ref="AO31:AS31" si="77">+AO27-AO30</f>
         <v>1251.7999999999997</v>
       </c>
       <c r="AP31" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>904.19999999999982</v>
       </c>
       <c r="AQ31" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>1072.9000000000005</v>
       </c>
       <c r="AR31" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>3316.1</v>
       </c>
       <c r="AS31" s="15">
-        <f t="shared" si="55"/>
+        <f t="shared" si="77"/>
         <v>2245.9</v>
       </c>
       <c r="AT31" s="15">
@@ -9810,51 +10434,51 @@
         <v>1328.1999999999998</v>
       </c>
       <c r="AY31" s="15">
-        <f t="shared" ref="AY31:BB31" si="56">+AY27-AY30</f>
-        <v>1519</v>
+        <f t="shared" ref="AY31:BB31" si="78">+AY27-AY30</f>
+        <v>1031.8999999999999</v>
       </c>
       <c r="AZ31" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>1459</v>
       </c>
       <c r="BA31" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>1694.1</v>
       </c>
       <c r="BB31" s="15">
-        <f t="shared" si="56"/>
+        <f t="shared" si="78"/>
         <v>1312.2</v>
       </c>
       <c r="BC31" s="15">
-        <f t="shared" ref="BC31:BD31" si="57">+BC27-BC30</f>
-        <v>1243</v>
+        <f t="shared" ref="BC31:BD31" si="79">+BC27-BC30</f>
+        <v>820</v>
       </c>
       <c r="BD31" s="15">
-        <f t="shared" si="57"/>
-        <v>1594</v>
+        <f t="shared" si="79"/>
+        <v>1148.8999999999999</v>
       </c>
       <c r="BE31" s="15">
-        <f t="shared" ref="BE31" si="58">+BE27-BE30</f>
-        <v>1745</v>
+        <f t="shared" ref="BE31" si="80">+BE27-BE30</f>
+        <v>1291.1000000000004</v>
       </c>
       <c r="BF31" s="15">
         <f>+BF27-BF30</f>
         <v>1375.4</v>
       </c>
       <c r="BG31" s="15">
-        <f t="shared" ref="BG31:BJ31" si="59">+BG27-BG30</f>
+        <f t="shared" ref="BG31:BJ31" si="81">+BG27-BG30</f>
         <v>1089</v>
       </c>
       <c r="BH31" s="15">
-        <f t="shared" si="59"/>
-        <v>1210.2159999999999</v>
+        <f t="shared" si="81"/>
+        <v>1005.4159999999999</v>
       </c>
       <c r="BI31" s="15">
-        <f t="shared" si="59"/>
-        <v>1263.8789999999999</v>
+        <f t="shared" si="81"/>
+        <v>1057.0790000000002</v>
       </c>
       <c r="BJ31" s="15">
-        <f t="shared" si="59"/>
+        <f t="shared" si="81"/>
         <v>1164.4242800000002</v>
       </c>
       <c r="BM31" s="1">
@@ -9882,67 +10506,67 @@
         <v>3640.5</v>
       </c>
       <c r="BW31" s="1">
-        <f t="shared" ref="BW31:BY31" si="60">+BW27-BW30</f>
+        <f t="shared" ref="BW31:BY31" si="82">+BW27-BW30</f>
         <v>9722.5000000000018</v>
       </c>
       <c r="BX31" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="82"/>
         <v>5442.9000000000015</v>
       </c>
       <c r="BY31" s="1">
-        <f t="shared" si="60"/>
-        <v>5984.3</v>
+        <f t="shared" si="82"/>
+        <v>5497.2</v>
       </c>
       <c r="BZ31" s="1">
-        <f t="shared" ref="BZ31:CK31" si="61">+BZ27-BZ30</f>
-        <v>5957.4000000000005</v>
+        <f t="shared" ref="BZ31:CK31" si="83">+BZ27-BZ30</f>
+        <v>4635.3999999999996</v>
       </c>
       <c r="CA31" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>8925.0671999999995</v>
       </c>
       <c r="CB31" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>9202.8533800000005</v>
       </c>
       <c r="CC31" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>9309.2877374000018</v>
       </c>
       <c r="CD31" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>9450.3797124939993</v>
       </c>
       <c r="CE31" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>9697.1643343429405</v>
       </c>
       <c r="CF31" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>9820.4516154291668</v>
       </c>
       <c r="CG31" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>10057.161031583222</v>
       </c>
       <c r="CH31" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>8963.1598349835131</v>
       </c>
       <c r="CI31" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>7705.7667499537511</v>
       </c>
       <c r="CJ31" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>6474.9028416854053</v>
       </c>
       <c r="CK31" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="83"/>
         <v>5618.2446013450726</v>
       </c>
     </row>
-    <row r="32" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>220</v>
       </c>
@@ -9997,17 +10621,29 @@
       <c r="W32" s="15"/>
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
+      <c r="Z32" s="15">
+        <v>-5.476</v>
+      </c>
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
+      <c r="AD32" s="15">
+        <v>15.956</v>
+      </c>
+      <c r="AE32" s="15">
+        <v>18.2</v>
+      </c>
+      <c r="AF32" s="15">
+        <v>33.9</v>
+      </c>
       <c r="AG32" s="15"/>
       <c r="AH32" s="15"/>
-      <c r="AI32" s="15"/>
-      <c r="AJ32" s="15"/>
+      <c r="AI32" s="15">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="AJ32" s="15">
+        <v>-90.9</v>
+      </c>
       <c r="AK32" s="15"/>
       <c r="AL32" s="15"/>
       <c r="AM32" s="15">
@@ -10054,12 +10690,28 @@
         <f>195.3-17.4-80.5</f>
         <v>97.4</v>
       </c>
+      <c r="AY32" s="1">
+        <f>-70.7-18</f>
+        <v>-88.7</v>
+      </c>
+      <c r="AZ32" s="1">
+        <f>85.3-18.9</f>
+        <v>66.400000000000006</v>
+      </c>
       <c r="BB32" s="1">
         <f>193-18.3+0.5-58.1</f>
         <v>117.1</v>
       </c>
       <c r="BC32" s="1">
-        <v>-16.100000000000001</v>
+        <v>-50.7</v>
+      </c>
+      <c r="BD32" s="1">
+        <f>165.9-14.8</f>
+        <v>151.1</v>
+      </c>
+      <c r="BE32" s="1">
+        <f>178.8-13.8</f>
+        <v>165</v>
       </c>
       <c r="BF32" s="1">
         <f>-21.6-10.5+212.9</f>
@@ -10087,76 +10739,76 @@
         <v>-7.9579999999999993</v>
       </c>
       <c r="BV32" s="1">
-        <f t="shared" ref="BV32" si="62">SUM(AM32:AP32)</f>
+        <f t="shared" ref="BV32" si="84">SUM(AM32:AP32)</f>
         <v>26.200000000000003</v>
       </c>
       <c r="BW32" s="1">
-        <f t="shared" ref="BW32" si="63">SUM(AQ32:AT32)</f>
+        <f t="shared" ref="BW32" si="85">SUM(AQ32:AT32)</f>
         <v>-170.90000000000003</v>
       </c>
       <c r="BX32" s="1">
-        <f t="shared" ref="BX32" si="64">SUM(AU32:AX32)</f>
+        <f t="shared" ref="BX32" si="86">SUM(AU32:AX32)</f>
         <v>-211.29999999999998</v>
       </c>
       <c r="BY32" s="1">
-        <f t="shared" ref="BY32" si="65">SUM(AY32:BB32)</f>
-        <v>117.1</v>
+        <f t="shared" ref="BY32" si="87">SUM(AY32:BB32)</f>
+        <v>94.8</v>
       </c>
       <c r="BZ32" s="1">
         <f>SUM(BC32:BF32)</f>
-        <v>164.70000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>446.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>221</v>
       </c>
       <c r="C33" s="15">
-        <f t="shared" ref="C33:F33" si="66">+C31+C32</f>
+        <f t="shared" ref="C33:F33" si="88">+C31+C32</f>
         <v>-43.690000000000012</v>
       </c>
       <c r="D33" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="88"/>
         <v>-63.368000000000002</v>
       </c>
       <c r="E33" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="88"/>
         <v>-61.836000000000013</v>
       </c>
       <c r="F33" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="88"/>
         <v>-54.02199999999997</v>
       </c>
       <c r="G33" s="15">
-        <f t="shared" ref="G33:N33" si="67">+G31+G32</f>
+        <f t="shared" ref="G33:N33" si="89">+G31+G32</f>
         <v>11.620000000000015</v>
       </c>
       <c r="H33" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="89"/>
         <v>76.724000000000004</v>
       </c>
       <c r="I33" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="89"/>
         <v>191.48099999999999</v>
       </c>
       <c r="J33" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="89"/>
         <v>134.61900000000003</v>
       </c>
       <c r="K33" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="89"/>
         <v>141.79099999999994</v>
       </c>
       <c r="L33" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="89"/>
         <v>147.69900000000001</v>
       </c>
       <c r="M33" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="89"/>
         <v>225.66600000000005</v>
       </c>
       <c r="N33" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="89"/>
         <v>198.15899999999985</v>
       </c>
       <c r="O33" s="15"/>
@@ -10169,114 +10821,156 @@
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-      <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
-      <c r="AF33" s="15"/>
-      <c r="AG33" s="15"/>
-      <c r="AH33" s="15"/>
-      <c r="AI33" s="15"/>
-      <c r="AJ33" s="15"/>
-      <c r="AK33" s="15"/>
-      <c r="AL33" s="15"/>
+      <c r="Y33" s="15">
+        <f t="shared" ref="Y33:AE33" si="90">Y31+Y32</f>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="15">
+        <f t="shared" si="90"/>
+        <v>342.00599999999974</v>
+      </c>
+      <c r="AA33" s="15">
+        <f t="shared" si="90"/>
+        <v>1318.7460000000001</v>
+      </c>
+      <c r="AB33" s="15">
+        <f t="shared" si="90"/>
+        <v>1469.9829999999999</v>
+      </c>
+      <c r="AC33" s="15">
+        <f t="shared" si="90"/>
+        <v>1500.306</v>
+      </c>
+      <c r="AD33" s="15">
+        <f t="shared" si="90"/>
+        <v>555.04900000000009</v>
+      </c>
+      <c r="AE33" s="15">
+        <f t="shared" ref="AE33:AH33" si="91">AE31+AE32</f>
+        <v>885.4000000000002</v>
+      </c>
+      <c r="AF33" s="15">
+        <f t="shared" si="91"/>
+        <v>655.9000000000002</v>
+      </c>
+      <c r="AG33" s="15">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="AH33" s="15">
+        <f t="shared" ref="AH33:AM33" si="92">AH31+AH32</f>
+        <v>718.09999999999991</v>
+      </c>
+      <c r="AI33" s="15">
+        <f t="shared" si="92"/>
+        <v>598.6</v>
+      </c>
+      <c r="AJ33" s="15">
+        <f t="shared" si="92"/>
+        <v>1011.8999999999997</v>
+      </c>
+      <c r="AK33" s="15">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="AL33" s="15">
+        <f t="shared" si="92"/>
+        <v>1945.6</v>
+      </c>
       <c r="AM33" s="15">
-        <f t="shared" ref="AM33" si="68">AM31+AM32</f>
+        <f t="shared" ref="AM33" si="93">AM31+AM32</f>
         <v>745.60000000000014</v>
       </c>
       <c r="AN33" s="15">
-        <f t="shared" ref="AN33:AX33" si="69">AN31+AN32</f>
+        <f t="shared" ref="AN33:AX33" si="94">AN31+AN32</f>
         <v>762.30000000000018</v>
       </c>
       <c r="AO33" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="94"/>
         <v>1196.9999999999998</v>
       </c>
       <c r="AP33" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="94"/>
         <v>961.79999999999984</v>
       </c>
       <c r="AQ33" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="94"/>
         <v>1098.8000000000006</v>
       </c>
       <c r="AR33" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="94"/>
         <v>3270.4</v>
       </c>
       <c r="AS33" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="94"/>
         <v>2215.3000000000002</v>
       </c>
       <c r="AT33" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="94"/>
         <v>2967.0999999999995</v>
       </c>
       <c r="AU33" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="94"/>
         <v>1089.6000000000004</v>
       </c>
       <c r="AV33" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="94"/>
         <v>1140.4000000000003</v>
       </c>
       <c r="AW33" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="94"/>
         <v>1576</v>
       </c>
       <c r="AX33" s="15">
-        <f t="shared" si="69"/>
+        <f t="shared" si="94"/>
         <v>1425.6</v>
       </c>
       <c r="AY33" s="15">
-        <f t="shared" ref="AY33" si="70">AY31+AY32</f>
-        <v>1519</v>
+        <f t="shared" ref="AY33" si="95">AY31+AY32</f>
+        <v>943.19999999999982</v>
       </c>
       <c r="AZ33" s="15">
-        <f t="shared" ref="AZ33" si="71">AZ31+AZ32</f>
-        <v>1459</v>
+        <f t="shared" ref="AZ33" si="96">AZ31+AZ32</f>
+        <v>1525.4</v>
       </c>
       <c r="BA33" s="15">
-        <f t="shared" ref="BA33" si="72">BA31+BA32</f>
+        <f t="shared" ref="BA33" si="97">BA31+BA32</f>
         <v>1694.1</v>
       </c>
       <c r="BB33" s="15">
-        <f t="shared" ref="BB33:BF33" si="73">BB31+BB32</f>
+        <f t="shared" ref="BB33:BF33" si="98">BB31+BB32</f>
         <v>1429.3</v>
       </c>
       <c r="BC33" s="15">
-        <f t="shared" si="73"/>
-        <v>1226.9000000000001</v>
+        <f t="shared" si="98"/>
+        <v>769.3</v>
       </c>
       <c r="BD33" s="15">
-        <f t="shared" si="73"/>
-        <v>1594</v>
+        <f t="shared" si="98"/>
+        <v>1299.9999999999998</v>
       </c>
       <c r="BE33" s="15">
-        <f t="shared" si="73"/>
-        <v>1745</v>
+        <f t="shared" si="98"/>
+        <v>1456.1000000000004</v>
       </c>
       <c r="BF33" s="15">
-        <f t="shared" si="73"/>
+        <f t="shared" si="98"/>
         <v>1556.2</v>
       </c>
       <c r="BG33" s="15">
-        <f t="shared" ref="BG33:BJ33" si="74">BG31+BG32</f>
+        <f t="shared" ref="BG33:BJ33" si="99">BG31+BG32</f>
         <v>1080.3</v>
       </c>
       <c r="BH33" s="15">
-        <f t="shared" si="74"/>
-        <v>1210.2159999999999</v>
+        <f t="shared" si="99"/>
+        <v>1005.4159999999999</v>
       </c>
       <c r="BI33" s="15">
-        <f t="shared" si="74"/>
-        <v>1263.8789999999999</v>
+        <f t="shared" si="99"/>
+        <v>1057.0790000000002</v>
       </c>
       <c r="BJ33" s="15">
-        <f t="shared" si="74"/>
+        <f t="shared" si="99"/>
         <v>1164.4242800000002</v>
       </c>
       <c r="BM33" s="1">
@@ -10304,67 +10998,67 @@
         <v>3666.7</v>
       </c>
       <c r="BW33" s="1">
-        <f t="shared" ref="BW33:CK33" si="75">+BW31+BW32</f>
+        <f t="shared" ref="BW33:CK33" si="100">+BW31+BW32</f>
         <v>9551.6000000000022</v>
       </c>
       <c r="BX33" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="100"/>
         <v>5231.6000000000013</v>
       </c>
       <c r="BY33" s="1">
-        <f t="shared" si="75"/>
-        <v>6101.4000000000005</v>
+        <f t="shared" si="100"/>
+        <v>5592</v>
       </c>
       <c r="BZ33" s="1">
-        <f t="shared" si="75"/>
-        <v>6122.1</v>
+        <f t="shared" si="100"/>
+        <v>5081.5999999999995</v>
       </c>
       <c r="CA33" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="100"/>
         <v>8925.0671999999995</v>
       </c>
       <c r="CB33" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="100"/>
         <v>9202.8533800000005</v>
       </c>
       <c r="CC33" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="100"/>
         <v>9309.2877374000018</v>
       </c>
       <c r="CD33" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="100"/>
         <v>9450.3797124939993</v>
       </c>
       <c r="CE33" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="100"/>
         <v>9697.1643343429405</v>
       </c>
       <c r="CF33" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="100"/>
         <v>9820.4516154291668</v>
       </c>
       <c r="CG33" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="100"/>
         <v>10057.161031583222</v>
       </c>
       <c r="CH33" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="100"/>
         <v>8963.1598349835131</v>
       </c>
       <c r="CI33" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="100"/>
         <v>7705.7667499537511</v>
       </c>
       <c r="CJ33" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="100"/>
         <v>6474.9028416854053</v>
       </c>
       <c r="CK33" s="1">
-        <f t="shared" si="75"/>
+        <f t="shared" si="100"/>
         <v>5618.2446013450726</v>
       </c>
     </row>
-    <row r="34" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>222</v>
       </c>
@@ -10418,17 +11112,29 @@
       <c r="W34" s="15"/>
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
-      <c r="Z34" s="15"/>
+      <c r="Z34" s="15">
+        <v>88.412000000000006</v>
+      </c>
       <c r="AA34" s="15"/>
       <c r="AB34" s="15"/>
       <c r="AC34" s="15"/>
-      <c r="AD34" s="15"/>
-      <c r="AE34" s="15"/>
-      <c r="AF34" s="15"/>
+      <c r="AD34" s="15">
+        <v>381.24799999999999</v>
+      </c>
+      <c r="AE34" s="15">
+        <v>107.4</v>
+      </c>
+      <c r="AF34" s="15">
+        <v>104.7</v>
+      </c>
       <c r="AG34" s="15"/>
       <c r="AH34" s="15"/>
-      <c r="AI34" s="15"/>
-      <c r="AJ34" s="15"/>
+      <c r="AI34" s="15">
+        <v>85</v>
+      </c>
+      <c r="AJ34" s="15">
+        <v>-31.6</v>
+      </c>
       <c r="AK34" s="15"/>
       <c r="AL34" s="15"/>
       <c r="AM34" s="15">
@@ -10468,27 +11174,28 @@
         <v>127.6</v>
       </c>
       <c r="AY34" s="15">
-        <f t="shared" ref="AY34:BA34" si="76">+AY33*0.15</f>
-        <v>227.85</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="AZ34" s="15">
-        <f t="shared" si="76"/>
-        <v>218.85</v>
+        <v>114.5</v>
       </c>
       <c r="BA34" s="15">
-        <f t="shared" si="76"/>
-        <v>254.11499999999998</v>
+        <v>103</v>
       </c>
       <c r="BB34" s="15">
         <f>-12+45.3</f>
         <v>33.299999999999997</v>
       </c>
       <c r="BC34" s="15">
-        <f>+BC33*0.061</f>
-        <v>74.840900000000005</v>
-      </c>
-      <c r="BD34" s="15"/>
-      <c r="BE34" s="15"/>
+        <v>-21.3</v>
+      </c>
+      <c r="BD34" s="15">
+        <v>195.8</v>
+      </c>
+      <c r="BE34" s="15">
+        <f>152.4+23.4</f>
+        <v>175.8</v>
+      </c>
       <c r="BF34" s="15">
         <f>40.4+112.5</f>
         <v>152.9</v>
@@ -10499,11 +11206,11 @@
       </c>
       <c r="BH34" s="15">
         <f>+BH33*0.12</f>
-        <v>145.22591999999997</v>
+        <v>120.64991999999999</v>
       </c>
       <c r="BI34" s="15">
         <f>+BI33*0.12</f>
-        <v>151.66547999999997</v>
+        <v>126.84948000000001</v>
       </c>
       <c r="BJ34" s="15">
         <f>+BJ33*0.12</f>
@@ -10525,120 +11232,120 @@
         <v>589.04100000000005</v>
       </c>
       <c r="BV34" s="1">
-        <f t="shared" ref="BV34" si="77">SUM(AM34:AP34)</f>
+        <f t="shared" ref="BV34" si="101">SUM(AM34:AP34)</f>
         <v>297.2</v>
       </c>
       <c r="BW34" s="1">
-        <f t="shared" ref="BW34" si="78">SUM(AQ34:AT34)</f>
+        <f t="shared" ref="BW34" si="102">SUM(AQ34:AT34)</f>
         <v>1250.5</v>
       </c>
       <c r="BX34" s="1">
-        <f t="shared" ref="BX34" si="79">SUM(AU34:AX34)</f>
+        <f t="shared" ref="BX34" si="103">SUM(AU34:AX34)</f>
         <v>520.4</v>
       </c>
       <c r="BY34" s="1">
-        <f t="shared" ref="BY34" si="80">SUM(AY34:BB34)</f>
-        <v>734.1149999999999</v>
+        <f t="shared" ref="BY34" si="104">SUM(AY34:BB34)</f>
+        <v>291</v>
       </c>
       <c r="BZ34" s="1">
         <f>SUM(BC34:BF34)</f>
-        <v>227.74090000000001</v>
+        <v>503.20000000000005</v>
       </c>
       <c r="CA34" s="1">
         <f>CA33*0.15</f>
         <v>1338.7600799999998</v>
       </c>
       <c r="CB34" s="1">
-        <f t="shared" ref="CB34:CK34" si="81">CB33*0.15</f>
+        <f t="shared" ref="CB34:CK34" si="105">CB33*0.15</f>
         <v>1380.428007</v>
       </c>
       <c r="CC34" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="105"/>
         <v>1396.3931606100002</v>
       </c>
       <c r="CD34" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="105"/>
         <v>1417.5569568740998</v>
       </c>
       <c r="CE34" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="105"/>
         <v>1454.5746501514411</v>
       </c>
       <c r="CF34" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="105"/>
         <v>1473.067742314375</v>
       </c>
       <c r="CG34" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="105"/>
         <v>1508.5741547374832</v>
       </c>
       <c r="CH34" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="105"/>
         <v>1344.4739752475268</v>
       </c>
       <c r="CI34" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="105"/>
         <v>1155.8650124930625</v>
       </c>
       <c r="CJ34" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="105"/>
         <v>971.23542625281073</v>
       </c>
       <c r="CK34" s="1">
-        <f t="shared" si="81"/>
+        <f t="shared" si="105"/>
         <v>842.73669020176089</v>
       </c>
     </row>
-    <row r="35" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>223</v>
       </c>
       <c r="C35" s="15">
-        <f t="shared" ref="C35" si="82">+C33-C34</f>
+        <f t="shared" ref="C35" si="106">+C33-C34</f>
         <v>-43.474000000000011</v>
       </c>
       <c r="D35" s="15">
-        <f t="shared" ref="D35:N35" si="83">+D33-D34</f>
+        <f t="shared" ref="D35:N35" si="107">+D33-D34</f>
         <v>-62.505000000000003</v>
       </c>
       <c r="E35" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>-62.39800000000001</v>
       </c>
       <c r="F35" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>-53.406999999999968</v>
       </c>
       <c r="G35" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>11.620000000000015</v>
       </c>
       <c r="H35" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>76.724000000000004</v>
       </c>
       <c r="I35" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>191.48099999999999</v>
       </c>
       <c r="J35" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>134.61900000000003</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>98.833999999999946</v>
       </c>
       <c r="L35" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>87.38300000000001</v>
       </c>
       <c r="M35" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>141.28800000000007</v>
       </c>
       <c r="N35" s="15">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
         <v>96.811999999999841</v>
       </c>
       <c r="O35" s="15"/>
@@ -10651,138 +11358,180 @@
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
-      <c r="Y35" s="15"/>
-      <c r="Z35" s="15"/>
-      <c r="AA35" s="15"/>
-      <c r="AB35" s="15"/>
-      <c r="AC35" s="15"/>
-      <c r="AD35" s="15"/>
-      <c r="AE35" s="15"/>
-      <c r="AF35" s="15"/>
-      <c r="AG35" s="15"/>
-      <c r="AH35" s="15"/>
-      <c r="AI35" s="15"/>
-      <c r="AJ35" s="15"/>
-      <c r="AK35" s="15"/>
-      <c r="AL35" s="15"/>
+      <c r="Y35" s="15">
+        <f t="shared" ref="Y35:AE35" si="108">+Y33-Y34</f>
+        <v>0</v>
+      </c>
+      <c r="Z35" s="15">
+        <f t="shared" si="108"/>
+        <v>253.59399999999974</v>
+      </c>
+      <c r="AA35" s="15">
+        <f t="shared" si="108"/>
+        <v>1318.7460000000001</v>
+      </c>
+      <c r="AB35" s="15">
+        <f t="shared" si="108"/>
+        <v>1469.9829999999999</v>
+      </c>
+      <c r="AC35" s="15">
+        <f t="shared" si="108"/>
+        <v>1500.306</v>
+      </c>
+      <c r="AD35" s="15">
+        <f t="shared" si="108"/>
+        <v>173.8010000000001</v>
+      </c>
+      <c r="AE35" s="15">
+        <f t="shared" ref="AE35:AH35" si="109">+AE33-AE34</f>
+        <v>778.00000000000023</v>
+      </c>
+      <c r="AF35" s="15">
+        <f t="shared" si="109"/>
+        <v>551.20000000000016</v>
+      </c>
+      <c r="AG35" s="15">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="AH35" s="15">
+        <f t="shared" ref="AH35:AM35" si="110">+AH33-AH34</f>
+        <v>718.09999999999991</v>
+      </c>
+      <c r="AI35" s="15">
+        <f t="shared" si="110"/>
+        <v>513.6</v>
+      </c>
+      <c r="AJ35" s="15">
+        <f t="shared" si="110"/>
+        <v>1043.4999999999998</v>
+      </c>
+      <c r="AK35" s="15">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="AL35" s="15">
+        <f t="shared" si="110"/>
+        <v>1945.6</v>
+      </c>
       <c r="AM35" s="15">
-        <f t="shared" ref="AM35" si="84">+AM33-AM34</f>
+        <f t="shared" ref="AM35" si="111">+AM33-AM34</f>
         <v>701.60000000000014</v>
       </c>
       <c r="AN35" s="15">
-        <f t="shared" ref="AN35:AX35" si="85">+AN33-AN34</f>
+        <f t="shared" ref="AN35:AX35" si="112">+AN33-AN34</f>
         <v>740.70000000000016</v>
       </c>
       <c r="AO35" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="112"/>
         <v>1040.7999999999997</v>
       </c>
       <c r="AP35" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="112"/>
         <v>886.39999999999986</v>
       </c>
       <c r="AQ35" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="112"/>
         <v>961.00000000000068</v>
       </c>
       <c r="AR35" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="112"/>
         <v>2616.5</v>
       </c>
       <c r="AS35" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="112"/>
         <v>2030.9</v>
       </c>
       <c r="AT35" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="112"/>
         <v>2692.6999999999994</v>
       </c>
       <c r="AU35" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="112"/>
         <v>1002.0000000000003</v>
       </c>
       <c r="AV35" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="112"/>
         <v>1029.3000000000004</v>
       </c>
       <c r="AW35" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="112"/>
         <v>1381.9</v>
       </c>
       <c r="AX35" s="15">
-        <f t="shared" si="85"/>
+        <f t="shared" si="112"/>
         <v>1298</v>
       </c>
       <c r="AY35" s="15">
-        <f t="shared" ref="AY35" si="86">+AY33-AY34</f>
-        <v>1291.1500000000001</v>
+        <f t="shared" ref="AY35" si="113">+AY33-AY34</f>
+        <v>902.99999999999977</v>
       </c>
       <c r="AZ35" s="15">
-        <f t="shared" ref="AZ35" si="87">+AZ33-AZ34</f>
-        <v>1240.1500000000001</v>
+        <f t="shared" ref="AZ35" si="114">+AZ33-AZ34</f>
+        <v>1410.9</v>
       </c>
       <c r="BA35" s="15">
-        <f t="shared" ref="BA35" si="88">+BA33-BA34</f>
-        <v>1439.9849999999999</v>
+        <f t="shared" ref="BA35" si="115">+BA33-BA34</f>
+        <v>1591.1</v>
       </c>
       <c r="BB35" s="15">
-        <f t="shared" ref="BB35:BF35" si="89">+BB33-BB34</f>
+        <f t="shared" ref="BB35:BF35" si="116">+BB33-BB34</f>
         <v>1396</v>
       </c>
       <c r="BC35" s="15">
-        <f t="shared" si="89"/>
-        <v>1152.0591000000002</v>
+        <f t="shared" si="116"/>
+        <v>790.59999999999991</v>
       </c>
       <c r="BD35" s="15">
-        <f t="shared" si="89"/>
-        <v>1594</v>
+        <f t="shared" si="116"/>
+        <v>1104.1999999999998</v>
       </c>
       <c r="BE35" s="15">
-        <f t="shared" si="89"/>
-        <v>1745</v>
+        <f t="shared" si="116"/>
+        <v>1280.3000000000004</v>
       </c>
       <c r="BF35" s="15">
-        <f t="shared" si="89"/>
+        <f t="shared" si="116"/>
         <v>1403.3</v>
       </c>
       <c r="BG35" s="15">
-        <f t="shared" ref="BG35:BJ35" si="90">+BG33-BG34</f>
+        <f t="shared" ref="BG35:BJ35" si="117">+BG33-BG34</f>
         <v>954.98519999999996</v>
       </c>
       <c r="BH35" s="15">
-        <f t="shared" si="90"/>
-        <v>1064.99008</v>
+        <f t="shared" si="117"/>
+        <v>884.76607999999999</v>
       </c>
       <c r="BI35" s="15">
-        <f t="shared" si="90"/>
-        <v>1112.21352</v>
+        <f t="shared" si="117"/>
+        <v>930.22952000000021</v>
       </c>
       <c r="BJ35" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="117"/>
         <v>1024.6933664000003</v>
       </c>
       <c r="BL35" s="1">
-        <f t="shared" ref="BL35:BQ35" si="91">+BL33-BL34</f>
+        <f t="shared" ref="BL35:BQ35" si="118">+BL33-BL34</f>
         <v>0</v>
       </c>
       <c r="BM35" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="118"/>
         <v>-221.78399999999993</v>
       </c>
       <c r="BN35" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="118"/>
         <v>414.44400000000007</v>
       </c>
       <c r="BO35" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="118"/>
         <v>424.31700000000018</v>
       </c>
       <c r="BP35" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="118"/>
         <v>381.58600000000013</v>
       </c>
       <c r="BQ35" s="1">
-        <f t="shared" si="91"/>
+        <f t="shared" si="118"/>
         <v>654.88899999999978</v>
       </c>
       <c r="BV35" s="1">
@@ -10790,59 +11539,59 @@
         <v>3369.5</v>
       </c>
       <c r="BW35" s="1">
-        <f t="shared" ref="BW35:CK35" si="92">+BW33-BW34</f>
+        <f t="shared" ref="BW35:CJ35" si="119">+BW33-BW34</f>
         <v>8301.1000000000022</v>
       </c>
       <c r="BX35" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="119"/>
         <v>4711.2000000000016</v>
       </c>
       <c r="BY35" s="1">
-        <f t="shared" si="92"/>
-        <v>5367.2850000000008</v>
+        <f t="shared" si="119"/>
+        <v>5301</v>
       </c>
       <c r="BZ35" s="1">
-        <f t="shared" si="92"/>
-        <v>5894.3591000000006</v>
+        <f t="shared" si="119"/>
+        <v>4578.3999999999996</v>
       </c>
       <c r="CA35" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="119"/>
         <v>7586.3071199999995</v>
       </c>
       <c r="CB35" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="119"/>
         <v>7822.425373</v>
       </c>
       <c r="CC35" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="119"/>
         <v>7912.8945767900013</v>
       </c>
       <c r="CD35" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="119"/>
         <v>8032.8227556198999</v>
       </c>
       <c r="CE35" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="119"/>
         <v>8242.5896841915001</v>
       </c>
       <c r="CF35" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="119"/>
         <v>8347.3838731147916</v>
       </c>
       <c r="CG35" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="119"/>
         <v>8548.5868768457385</v>
       </c>
       <c r="CH35" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="119"/>
         <v>7618.685859735986</v>
       </c>
       <c r="CI35" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="119"/>
         <v>6549.9017374606883</v>
       </c>
       <c r="CJ35" s="1">
-        <f t="shared" si="92"/>
+        <f t="shared" si="119"/>
         <v>5503.6674154325947</v>
       </c>
       <c r="CK35" s="1">
@@ -10854,360 +11603,429 @@
         <v>4632.2426738090116</v>
       </c>
       <c r="CM35" s="1">
-        <f t="shared" ref="CM35:DZ35" si="93">CL35*(1+$CM$39)</f>
+        <f t="shared" ref="CM35:DZ35" si="120">CL35*(1+$CM$39)</f>
         <v>4493.2753935947412</v>
       </c>
       <c r="CN35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>4358.477131786899</v>
       </c>
       <c r="CO35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>4227.7228178332916</v>
       </c>
       <c r="CP35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>4100.8911332982925</v>
       </c>
       <c r="CQ35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>3977.8643992993434</v>
       </c>
       <c r="CR35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>3858.5284673203628</v>
       </c>
       <c r="CS35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>3742.7726133007518</v>
       </c>
       <c r="CT35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>3630.4894349017291</v>
       </c>
       <c r="CU35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>3521.5747518546773</v>
       </c>
       <c r="CV35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>3415.927509299037</v>
       </c>
       <c r="CW35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>3313.4496840200659</v>
       </c>
       <c r="CX35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>3214.0461934994637</v>
       </c>
       <c r="CY35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>3117.6248076944798</v>
       </c>
       <c r="CZ35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>3024.0960634636454</v>
       </c>
       <c r="DA35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2933.3731815597357</v>
       </c>
       <c r="DB35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2845.3719861129434</v>
       </c>
       <c r="DC35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2760.0108265295548</v>
       </c>
       <c r="DD35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2677.210501733668</v>
       </c>
       <c r="DE35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2596.8941866816581</v>
       </c>
       <c r="DF35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2518.9873610812083</v>
       </c>
       <c r="DG35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2443.4177402487721</v>
       </c>
       <c r="DH35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2370.115208041309</v>
       </c>
       <c r="DI35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2299.0117518000698</v>
       </c>
       <c r="DJ35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2230.0413992460676</v>
       </c>
       <c r="DK35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2163.1401572686855</v>
       </c>
       <c r="DL35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2098.2459525506247</v>
       </c>
       <c r="DM35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>2035.2985739741059</v>
       </c>
       <c r="DN35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1974.2396167548827</v>
       </c>
       <c r="DO35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1915.0124282522361</v>
       </c>
       <c r="DP35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1857.5620554046689</v>
       </c>
       <c r="DQ35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1801.8351937425286</v>
       </c>
       <c r="DR35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1747.7801379302527</v>
       </c>
       <c r="DS35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1695.346733792345</v>
       </c>
       <c r="DT35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1644.4863317785746</v>
       </c>
       <c r="DU35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1595.1517418252174</v>
       </c>
       <c r="DV35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1547.2971895704609</v>
       </c>
       <c r="DW35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1500.878273883347</v>
       </c>
       <c r="DX35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1455.8519256668465</v>
       </c>
       <c r="DY35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1412.1763678968409</v>
       </c>
       <c r="DZ35" s="1">
-        <f t="shared" si="93"/>
+        <f t="shared" si="120"/>
         <v>1369.8110768599356</v>
       </c>
     </row>
-    <row r="36" spans="2:130" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:130" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>224</v>
       </c>
       <c r="C36" s="55">
-        <f t="shared" ref="C36:N36" si="94">+C35/C37</f>
+        <f t="shared" ref="C36:N36" si="121">+C35/C37</f>
         <v>-0.48758439694040073</v>
       </c>
       <c r="D36" s="55">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>-0.69115175372639215</v>
       </c>
       <c r="E36" s="55">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>-0.68534586912110373</v>
       </c>
       <c r="F36" s="55">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>-0.58659359005337919</v>
       </c>
       <c r="G36" s="55">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>0.10785824345146394</v>
       </c>
       <c r="H36" s="55">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>0.6964335962674848</v>
       </c>
       <c r="I36" s="55">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>1.6531209531209532</v>
       </c>
       <c r="J36" s="55">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>1.1622118622118625</v>
       </c>
       <c r="K36" s="55">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>0.90367471587012727</v>
       </c>
       <c r="L36" s="55">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>0.78680893210877012</v>
       </c>
       <c r="M36" s="55">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>1.2105592350466536</v>
       </c>
       <c r="N36" s="55">
-        <f t="shared" si="94"/>
+        <f t="shared" si="121"/>
         <v>0.82948771773495533</v>
       </c>
       <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="43"/>
-      <c r="AC36" s="43"/>
-      <c r="AD36" s="43"/>
-      <c r="AE36" s="43"/>
-      <c r="AF36" s="43"/>
-      <c r="AG36" s="43"/>
-      <c r="AH36" s="43"/>
-      <c r="AI36" s="43"/>
-      <c r="AJ36" s="43"/>
-      <c r="AK36" s="43"/>
-      <c r="AL36" s="43"/>
+      <c r="P36" s="55">
+        <f t="shared" ref="P36:W36" si="122">+P35/P37</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="55" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" s="55" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S36" s="55" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" s="55">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="55" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V36" s="55" t="e">
+        <f t="shared" si="122"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W36" s="55" t="e">
+        <f t="shared" ref="W36:AE36" si="123">+W35/W37</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X36" s="55" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y36" s="55">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="Z36" s="55">
+        <f t="shared" si="123"/>
+        <v>2.1901578747365855</v>
+      </c>
+      <c r="AA36" s="55" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB36" s="55" t="e">
+        <f t="shared" si="123"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC36" s="55">
+        <f t="shared" si="123"/>
+        <v>12.820060156543732</v>
+      </c>
+      <c r="AD36" s="55">
+        <f t="shared" si="123"/>
+        <v>1.4998878111084271</v>
+      </c>
+      <c r="AE36" s="55">
+        <f t="shared" ref="AE36:AH36" si="124">+AE35/AE37</f>
+        <v>6.7711053089643185</v>
+      </c>
+      <c r="AF36" s="55">
+        <f t="shared" si="124"/>
+        <v>4.8139737991266394</v>
+      </c>
+      <c r="AG36" s="55" t="e">
+        <f t="shared" si="124"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH36" s="55">
+        <f t="shared" ref="AH36:AM36" si="125">+AH35/AH37</f>
+        <v>6.2552264808362361</v>
+      </c>
+      <c r="AI36" s="55">
+        <f t="shared" si="125"/>
+        <v>4.4467532467532473</v>
+      </c>
+      <c r="AJ36" s="55">
+        <f t="shared" si="125"/>
+        <v>9.1055846422338558</v>
+      </c>
+      <c r="AK36" s="55" t="e">
+        <f t="shared" si="125"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL36" s="55">
+        <f t="shared" si="125"/>
+        <v>17.021872265966753</v>
+      </c>
       <c r="AM36" s="55">
-        <f t="shared" ref="AM36" si="95">+AM35/AM37</f>
+        <f t="shared" ref="AM36" si="126">+AM35/AM37</f>
         <v>6.0955690703735899</v>
       </c>
       <c r="AN36" s="55">
-        <f t="shared" ref="AN36:AX36" si="96">+AN35/AN37</f>
+        <f t="shared" ref="AN36:AX36" si="127">+AN35/AN37</f>
         <v>6.2087175188600181</v>
       </c>
       <c r="AO36" s="55">
-        <f t="shared" si="96"/>
+        <f t="shared" si="127"/>
         <v>9.1378402107111469</v>
       </c>
       <c r="AP36" s="55">
-        <f t="shared" si="96"/>
+        <f t="shared" si="127"/>
         <v>7.900178253119428</v>
       </c>
       <c r="AQ36" s="55">
-        <f t="shared" si="96"/>
+        <f t="shared" si="127"/>
         <v>8.5727029438001843</v>
       </c>
       <c r="AR36" s="55">
-        <f t="shared" si="96"/>
+        <f t="shared" si="127"/>
         <v>23.319964349376114</v>
       </c>
       <c r="AS36" s="55">
-        <f t="shared" si="96"/>
+        <f t="shared" si="127"/>
         <v>17.830553116769096</v>
       </c>
       <c r="AT36" s="55">
-        <f t="shared" si="96"/>
+        <f t="shared" si="127"/>
         <v>23.787102473498226</v>
       </c>
       <c r="AU36" s="55">
-        <f t="shared" si="96"/>
+        <f t="shared" si="127"/>
         <v>8.7358326068003507</v>
       </c>
       <c r="AV36" s="55">
-        <f t="shared" si="96"/>
+        <f t="shared" si="127"/>
         <v>8.9194107452339715</v>
       </c>
       <c r="AW36" s="55">
-        <f t="shared" si="96"/>
+        <f t="shared" si="127"/>
         <v>12.250886524822697</v>
       </c>
       <c r="AX36" s="55">
-        <f t="shared" si="96"/>
+        <f t="shared" si="127"/>
         <v>11.385964912280702</v>
       </c>
       <c r="AY36" s="55">
-        <f t="shared" ref="AY36" si="97">+AY35/AY37</f>
-        <v>11.325877192982457</v>
+        <f t="shared" ref="AY36" si="128">+AY35/AY37</f>
+        <v>7.9210526315789451</v>
       </c>
       <c r="AZ36" s="55">
-        <f t="shared" ref="AZ36" si="98">+AZ35/AZ37</f>
-        <v>10.878508771929825</v>
+        <f t="shared" ref="AZ36" si="129">+AZ35/AZ37</f>
+        <v>12.226169844020797</v>
       </c>
       <c r="BA36" s="55">
-        <f t="shared" ref="BA36" si="99">+BA35/BA37</f>
-        <v>12.554359197907583</v>
+        <f t="shared" ref="BA36" si="130">+BA35/BA37</f>
+        <v>14.030864197530862</v>
       </c>
       <c r="BB36" s="55">
-        <f t="shared" ref="BB36:BJ36" si="100">+BB35/BB37</f>
+        <f t="shared" ref="BB36:BJ36" si="131">+BB35/BB37</f>
         <v>12.118055555555555</v>
       </c>
       <c r="BC36" s="55">
-        <f t="shared" si="100"/>
-        <v>10.000513020833335</v>
+        <f t="shared" si="131"/>
+        <v>6.8688097306689828</v>
       </c>
       <c r="BD36" s="55">
-        <f t="shared" si="100"/>
-        <v>13.836805555555555</v>
+        <f t="shared" si="131"/>
+        <v>9.445680068434557</v>
       </c>
       <c r="BE36" s="55">
-        <f t="shared" si="100"/>
-        <v>14.863713798977853</v>
+        <f t="shared" si="131"/>
+        <v>11.018072289156629</v>
       </c>
       <c r="BF36" s="55">
-        <f t="shared" si="100"/>
+        <f t="shared" si="131"/>
         <v>12.192006950477845</v>
       </c>
       <c r="BG36" s="55">
-        <f t="shared" si="100"/>
+        <f t="shared" si="131"/>
         <v>8.5879964028776978</v>
       </c>
       <c r="BH36" s="55">
-        <f t="shared" si="100"/>
-        <v>9.57724892086331</v>
+        <f t="shared" si="131"/>
+        <v>7.9565294964028777</v>
       </c>
       <c r="BI36" s="55">
-        <f t="shared" si="100"/>
-        <v>10.001920143884892</v>
+        <f t="shared" si="131"/>
+        <v>8.3653733812949653</v>
       </c>
       <c r="BJ36" s="55">
-        <f t="shared" si="100"/>
+        <f t="shared" si="131"/>
         <v>9.2148684028777001</v>
       </c>
       <c r="BL36" s="56">
-        <f t="shared" ref="BL36:BQ36" si="101">+BL35/BL37</f>
+        <f t="shared" ref="BL36:BQ36" si="132">+BL35/BL37</f>
         <v>0</v>
       </c>
       <c r="BM36" s="56">
-        <f t="shared" si="101"/>
+        <f t="shared" si="132"/>
         <v>-2.4476768568590654</v>
       </c>
       <c r="BN36" s="56">
-        <f t="shared" si="101"/>
+        <f t="shared" si="132"/>
         <v>3.5919294170667873</v>
       </c>
       <c r="BO36" s="56">
-        <f t="shared" si="101"/>
+        <f t="shared" si="132"/>
         <v>3.8127145296073337</v>
       </c>
       <c r="BP36" s="56">
-        <f t="shared" si="101"/>
+        <f t="shared" si="132"/>
         <v>3.3645701991835164</v>
       </c>
       <c r="BQ36" s="56">
-        <f t="shared" si="101"/>
+        <f t="shared" si="132"/>
         <v>5.683320315889957</v>
       </c>
       <c r="BV36" s="56">
@@ -11215,67 +12033,67 @@
         <v>29.268186753528777</v>
       </c>
       <c r="BW36" s="56">
-        <f t="shared" ref="BW36:CK36" si="102">+BW35/BW37</f>
+        <f t="shared" ref="BW36:CK36" si="133">+BW35/BW37</f>
         <v>73.558706247230845</v>
       </c>
       <c r="BX36" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="133"/>
         <v>41.244911359159566</v>
       </c>
       <c r="BY36" s="56">
-        <f t="shared" si="102"/>
-        <v>46.886088665647527</v>
+        <f t="shared" si="133"/>
+        <v>46.296943231441048</v>
       </c>
       <c r="BZ36" s="56">
-        <f t="shared" si="102"/>
-        <v>50.934189673795643</v>
+        <f t="shared" si="133"/>
+        <v>39.528599179797105</v>
       </c>
       <c r="CA36" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="133"/>
         <v>68.222186330935244</v>
       </c>
       <c r="CB36" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="133"/>
         <v>70.345551915467624</v>
       </c>
       <c r="CC36" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="133"/>
         <v>71.159123891996416</v>
       </c>
       <c r="CD36" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="133"/>
         <v>72.237614708812046</v>
       </c>
       <c r="CE36" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="133"/>
         <v>74.124007951362415</v>
       </c>
       <c r="CF36" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="133"/>
         <v>75.066401736643812</v>
       </c>
       <c r="CG36" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="133"/>
         <v>76.875781266598366</v>
       </c>
       <c r="CH36" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="133"/>
         <v>68.513362047985481</v>
       </c>
       <c r="CI36" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="133"/>
         <v>58.901994041912666</v>
       </c>
       <c r="CJ36" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="133"/>
         <v>49.493412009285919</v>
       </c>
       <c r="CK36" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="133"/>
         <v>42.945215028267185</v>
       </c>
     </row>
-    <row r="37" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:130" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
@@ -11319,29 +12137,53 @@
         <v>116.71299999999999</v>
       </c>
       <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
+      <c r="P37" s="15">
+        <v>113.032</v>
+      </c>
       <c r="Q37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
+      <c r="T37" s="15">
+        <v>115.259</v>
+      </c>
       <c r="U37" s="15"/>
       <c r="V37" s="15"/>
       <c r="W37" s="15"/>
       <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
+      <c r="Y37" s="15">
+        <v>116.46599999999999</v>
+      </c>
+      <c r="Z37" s="15">
+        <v>115.788</v>
+      </c>
       <c r="AA37" s="15"/>
       <c r="AB37" s="15"/>
-      <c r="AC37" s="15"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
+      <c r="AC37" s="15">
+        <v>117.02800000000001</v>
+      </c>
+      <c r="AD37" s="15">
+        <v>115.876</v>
+      </c>
+      <c r="AE37" s="15">
+        <v>114.9</v>
+      </c>
+      <c r="AF37" s="15">
+        <v>114.5</v>
+      </c>
       <c r="AG37" s="15"/>
-      <c r="AH37" s="15"/>
-      <c r="AI37" s="15"/>
-      <c r="AJ37" s="15"/>
+      <c r="AH37" s="15">
+        <v>114.8</v>
+      </c>
+      <c r="AI37" s="15">
+        <v>115.5</v>
+      </c>
+      <c r="AJ37" s="15">
+        <v>114.6</v>
+      </c>
       <c r="AK37" s="15"/>
-      <c r="AL37" s="15"/>
+      <c r="AL37" s="15">
+        <v>114.3</v>
+      </c>
       <c r="AM37" s="15">
         <v>115.1</v>
       </c>
@@ -11379,29 +12221,25 @@
         <v>114</v>
       </c>
       <c r="AY37" s="15">
-        <f t="shared" ref="AY37:BD37" si="103">+AX37</f>
         <v>114</v>
       </c>
       <c r="AZ37" s="15">
-        <f t="shared" si="103"/>
-        <v>114</v>
+        <v>115.4</v>
       </c>
       <c r="BA37" s="15">
-        <v>114.7</v>
+        <v>113.4</v>
       </c>
       <c r="BB37" s="15">
         <v>115.2</v>
       </c>
       <c r="BC37" s="15">
-        <f t="shared" si="103"/>
-        <v>115.2</v>
+        <v>115.1</v>
       </c>
       <c r="BD37" s="15">
-        <f t="shared" si="103"/>
-        <v>115.2</v>
+        <v>116.9</v>
       </c>
       <c r="BE37" s="15">
-        <v>117.4</v>
+        <v>116.2</v>
       </c>
       <c r="BF37" s="15">
         <v>115.1</v>
@@ -11410,15 +12248,15 @@
         <v>111.2</v>
       </c>
       <c r="BH37" s="15">
-        <f t="shared" ref="BH37:BJ37" si="104">+BG37</f>
+        <f t="shared" ref="BH37:BJ37" si="134">+BG37</f>
         <v>111.2</v>
       </c>
       <c r="BI37" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="134"/>
         <v>111.2</v>
       </c>
       <c r="BJ37" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="134"/>
         <v>111.2</v>
       </c>
       <c r="BL37" s="1">
@@ -11453,58 +12291,58 @@
       </c>
       <c r="BY37" s="1">
         <f>AVERAGE(AY37:BB37)</f>
-        <v>114.47499999999999</v>
+        <v>114.5</v>
       </c>
       <c r="BZ37" s="1">
         <f>AVERAGE(BC37:BF37)</f>
-        <v>115.72499999999999</v>
+        <v>115.82499999999999</v>
       </c>
       <c r="CA37" s="1">
         <f>+BJ37</f>
         <v>111.2</v>
       </c>
       <c r="CB37" s="1">
-        <f t="shared" ref="CB37:CK37" si="105">CA37</f>
+        <f t="shared" ref="CB37:CK37" si="135">CA37</f>
         <v>111.2</v>
       </c>
       <c r="CC37" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="135"/>
         <v>111.2</v>
       </c>
       <c r="CD37" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="135"/>
         <v>111.2</v>
       </c>
       <c r="CE37" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="135"/>
         <v>111.2</v>
       </c>
       <c r="CF37" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="135"/>
         <v>111.2</v>
       </c>
       <c r="CG37" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="135"/>
         <v>111.2</v>
       </c>
       <c r="CH37" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="135"/>
         <v>111.2</v>
       </c>
       <c r="CI37" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="135"/>
         <v>111.2</v>
       </c>
       <c r="CJ37" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="135"/>
         <v>111.2</v>
       </c>
       <c r="CK37" s="1">
-        <f t="shared" si="105"/>
+        <f t="shared" si="135"/>
         <v>111.2</v>
       </c>
     </row>
-    <row r="39" spans="2:130" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:130" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>240</v>
       </c>
@@ -11530,42 +12368,96 @@
       <c r="V39" s="43"/>
       <c r="W39" s="43"/>
       <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="43"/>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="43"/>
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="43"/>
-      <c r="AL39" s="43"/>
-      <c r="AM39" s="43"/>
-      <c r="AN39" s="43"/>
-      <c r="AO39" s="43"/>
-      <c r="AP39" s="43"/>
+      <c r="Y39" s="44">
+        <f t="shared" ref="Y39" si="136">Y25/U25-1</f>
+        <v>7.2296825628482608E-2</v>
+      </c>
+      <c r="Z39" s="44">
+        <f t="shared" ref="Z39" si="137">Z25/V25-1</f>
+        <v>0.11822025906721589</v>
+      </c>
+      <c r="AA39" s="44">
+        <f t="shared" ref="AA39" si="138">AA25/W25-1</f>
+        <v>9.8344503513463799E-2</v>
+      </c>
+      <c r="AB39" s="44">
+        <f t="shared" ref="AB39" si="139">AB25/X25-1</f>
+        <v>0.2124471094761673</v>
+      </c>
+      <c r="AC39" s="44">
+        <f t="shared" ref="AC39" si="140">AC25/Y25-1</f>
+        <v>0.23010788305535845</v>
+      </c>
+      <c r="AD39" s="44">
+        <f t="shared" ref="AD39" si="141">AD25/Z25-1</f>
+        <v>0.28959607465456894</v>
+      </c>
+      <c r="AE39" s="44">
+        <f t="shared" ref="AE39" si="142">AE25/AA25-1</f>
+        <v>0.1461646139590187</v>
+      </c>
+      <c r="AF39" s="44">
+        <f t="shared" ref="AF39" si="143">AF25/AB25-1</f>
+        <v>9.3754145456104165E-2</v>
+      </c>
+      <c r="AG39" s="44">
+        <f t="shared" ref="AG39" si="144">AG25/AC25-1</f>
+        <v>0.10877381014273069</v>
+      </c>
+      <c r="AH39" s="44">
+        <f t="shared" ref="AH39" si="145">AH25/AD25-1</f>
+        <v>0.21802279480568054</v>
+      </c>
+      <c r="AI39" s="44">
+        <f t="shared" ref="AI39:AK39" si="146">AI25/AE25-1</f>
+        <v>0.16725107509096904</v>
+      </c>
+      <c r="AJ39" s="44">
+        <f t="shared" si="146"/>
+        <v>0.20251275034208205</v>
+      </c>
+      <c r="AK39" s="44">
+        <f t="shared" si="146"/>
+        <v>0.2313796212804331</v>
+      </c>
+      <c r="AL39" s="44">
+        <f t="shared" ref="AL39" si="147">AL25/AH25-1</f>
+        <v>0.12537607635646864</v>
+      </c>
+      <c r="AM39" s="44">
+        <f t="shared" ref="AM39" si="148">AM25/AI25-1</f>
+        <v>3.6218330215949779E-2</v>
+      </c>
+      <c r="AN39" s="44">
+        <f t="shared" ref="AN39" si="149">AN25/AJ25-1</f>
+        <v>9.7755249818973766E-3</v>
+      </c>
+      <c r="AO39" s="44">
+        <f t="shared" ref="AO39" si="150">AO25/AK25-1</f>
+        <v>0.11980082015231375</v>
+      </c>
+      <c r="AP39" s="44">
+        <f t="shared" ref="AP39" si="151">AP25/AL25-1</f>
+        <v>6.0013828070984099E-2</v>
+      </c>
       <c r="AQ39" s="44">
-        <f t="shared" ref="AQ39" si="106">AQ25/AM25-1</f>
+        <f t="shared" ref="AQ39" si="152">AQ25/AM25-1</f>
         <v>0.38354665791488918</v>
       </c>
       <c r="AR39" s="44">
-        <f t="shared" ref="AR39" si="107">AR25/AN25-1</f>
+        <f t="shared" ref="AR39" si="153">AR25/AN25-1</f>
         <v>1.6321262101111507</v>
       </c>
       <c r="AS39" s="44">
-        <f t="shared" ref="AS39:AU39" si="108">AS25/AO25-1</f>
+        <f t="shared" ref="AS39:AU39" si="154">AS25/AO25-1</f>
         <v>0.50531868515127765</v>
       </c>
       <c r="AT39" s="44">
-        <f t="shared" si="108"/>
+        <f t="shared" si="154"/>
         <v>1.153106926990477</v>
       </c>
       <c r="AU39" s="44">
-        <f t="shared" si="108"/>
+        <f t="shared" si="154"/>
         <v>0.17241242982525495</v>
       </c>
       <c r="AV39" s="44">
@@ -11573,7 +12465,7 @@
         <v>-0.44412010819857162</v>
       </c>
       <c r="AW39" s="44">
-        <f t="shared" ref="AW39" si="109">AW25/AS25-1</f>
+        <f t="shared" ref="AW39" si="155">AW25/AS25-1</f>
         <v>-0.14958440730979761</v>
       </c>
       <c r="AX39" s="44">
@@ -11581,103 +12473,103 @@
         <v>-0.31049177017065521</v>
       </c>
       <c r="AY39" s="44">
-        <f t="shared" ref="AY39" si="110">AY25/AU25-1</f>
+        <f t="shared" ref="AY39" si="156">AY25/AU25-1</f>
         <v>6.626201315123903E-2</v>
       </c>
       <c r="AZ39" s="44">
-        <f t="shared" ref="AZ39" si="111">AZ25/AV25-1</f>
+        <f t="shared" ref="AZ39" si="157">AZ25/AV25-1</f>
         <v>0.10554874846840545</v>
       </c>
       <c r="BA39" s="44">
-        <f t="shared" ref="BA39" si="112">BA25/AW25-1</f>
+        <f t="shared" ref="BA39" si="158">BA25/AW25-1</f>
         <v>0.14527993461381272</v>
       </c>
       <c r="BB39" s="44">
-        <f t="shared" ref="BB39:BJ39" si="113">BB25/AX25-1</f>
+        <f t="shared" ref="BB39:BJ39" si="159">BB25/AX25-1</f>
         <v>5.8287689288538669E-3</v>
       </c>
       <c r="BC39" s="44">
-        <f t="shared" si="113"/>
+        <f t="shared" si="159"/>
         <v>-5.3763440860215006E-3</v>
       </c>
       <c r="BD39" s="44">
-        <f t="shared" si="113"/>
+        <f t="shared" si="159"/>
         <v>0.12317922735908793</v>
       </c>
       <c r="BE39" s="44">
-        <f t="shared" si="113"/>
+        <f t="shared" si="159"/>
         <v>0.10654177817424926</v>
       </c>
       <c r="BF39" s="44">
-        <f t="shared" si="113"/>
+        <f t="shared" si="159"/>
         <v>0.10337798485730931</v>
       </c>
       <c r="BG39" s="44">
-        <f t="shared" si="113"/>
+        <f t="shared" si="159"/>
         <v>-3.6883942766295696E-2</v>
       </c>
       <c r="BH39" s="44">
-        <f t="shared" si="113"/>
+        <f t="shared" si="159"/>
         <v>-0.10594868903298571</v>
       </c>
       <c r="BI39" s="44">
-        <f t="shared" si="113"/>
+        <f t="shared" si="159"/>
         <v>-0.12656867223819646</v>
       </c>
       <c r="BJ39" s="44">
-        <f t="shared" si="113"/>
+        <f t="shared" si="159"/>
         <v>-0.12916442333069411</v>
       </c>
       <c r="BM39" s="51">
-        <f t="shared" ref="BM39:BY39" si="114">+BM25/BL25-1</f>
+        <f t="shared" ref="BM39:BY39" si="160">+BM25/BL25-1</f>
         <v>0.32447576548044177</v>
       </c>
       <c r="BN39" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="160"/>
         <v>2.0921938088829068</v>
       </c>
       <c r="BO39" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="160"/>
         <v>0.52680449764236514</v>
       </c>
       <c r="BP39" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="160"/>
         <v>0.33966836128664424</v>
       </c>
       <c r="BQ39" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="160"/>
         <v>0.45541920839835415</v>
       </c>
       <c r="BR39" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="160"/>
         <v>0.18439457075322285</v>
       </c>
       <c r="BS39" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="160"/>
         <v>0.20817216689984375</v>
       </c>
       <c r="BT39" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="160"/>
         <v>0.17368277647219088</v>
       </c>
       <c r="BU39" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="160"/>
         <v>0.15921127087534992</v>
       </c>
       <c r="BV39" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="160"/>
         <v>4.8138783888652448E-2</v>
       </c>
       <c r="BW39" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="160"/>
         <v>0.91933365177931714</v>
       </c>
       <c r="BX39" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="160"/>
         <v>-0.24265048996733551</v>
       </c>
       <c r="BY39" s="51">
-        <f t="shared" si="114"/>
+        <f t="shared" si="160"/>
         <v>7.7592934894228582E-2</v>
       </c>
       <c r="BZ39" s="51">
@@ -11691,7 +12583,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="40" spans="2:130" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:130" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>248</v>
       </c>
@@ -11719,28 +12611,76 @@
       <c r="X40" s="43"/>
       <c r="Y40" s="43"/>
       <c r="Z40" s="43"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="43"/>
-      <c r="AC40" s="43"/>
-      <c r="AD40" s="43"/>
-      <c r="AE40" s="43"/>
-      <c r="AF40" s="43"/>
-      <c r="AG40" s="43"/>
-      <c r="AH40" s="43"/>
-      <c r="AI40" s="43"/>
-      <c r="AJ40" s="43"/>
-      <c r="AK40" s="43"/>
-      <c r="AL40" s="43"/>
-      <c r="AM40" s="43"/>
-      <c r="AN40" s="43"/>
-      <c r="AO40" s="43"/>
-      <c r="AP40" s="43"/>
+      <c r="AA40" s="42">
+        <f t="shared" ref="AA40" si="161">+AA3/W3-1</f>
+        <v>9.3469910371318798E-2</v>
+      </c>
+      <c r="AB40" s="42">
+        <f t="shared" ref="AB40" si="162">+AB3/X3-1</f>
+        <v>0.10589651022864022</v>
+      </c>
+      <c r="AC40" s="42">
+        <f t="shared" ref="AC40" si="163">+AC3/Y3-1</f>
+        <v>0.11592505854800939</v>
+      </c>
+      <c r="AD40" s="42">
+        <f t="shared" ref="AD40" si="164">+AD3/Z3-1</f>
+        <v>0.13636363636363646</v>
+      </c>
+      <c r="AE40" s="42">
+        <f t="shared" ref="AE40" si="165">+AE3/AA3-1</f>
+        <v>0.15222482435597184</v>
+      </c>
+      <c r="AF40" s="42">
+        <f t="shared" ref="AF40" si="166">+AF3/AB3-1</f>
+        <v>7.9434167573449344E-2</v>
+      </c>
+      <c r="AG40" s="42">
+        <f t="shared" ref="AG40" si="167">+AG3/AC3-1</f>
+        <v>7.2193074501573973E-2</v>
+      </c>
+      <c r="AH40" s="42">
+        <f t="shared" ref="AH40" si="168">+AH3/AD3-1</f>
+        <v>0.10656410256410265</v>
+      </c>
+      <c r="AI40" s="42">
+        <f t="shared" ref="AI40" si="169">+AI3/AE3-1</f>
+        <v>9.1565040650406493E-2</v>
+      </c>
+      <c r="AJ40" s="42">
+        <f t="shared" ref="AJ40" si="170">+AJ3/AF3-1</f>
+        <v>0.16935483870967749</v>
+      </c>
+      <c r="AK40" s="42">
+        <f t="shared" ref="AK40" si="171">+AK3/AG3-1</f>
+        <v>0.16236054022313584</v>
+      </c>
+      <c r="AL40" s="42">
+        <f t="shared" ref="AL40" si="172">+AL3/AH3-1</f>
+        <v>0.13272777829270543</v>
+      </c>
+      <c r="AM40" s="42">
+        <f t="shared" ref="AM40" si="173">+AM3/AI3-1</f>
+        <v>9.1146075784377611E-2</v>
+      </c>
+      <c r="AN40" s="42">
+        <f t="shared" ref="AN40" si="174">+AN3/AJ3-1</f>
+        <v>-3.9655172413793127E-2</v>
+      </c>
+      <c r="AO40" s="42">
+        <f t="shared" ref="AO40" si="175">+AO3/AK3-1</f>
+        <v>0.10970783867980116</v>
+      </c>
+      <c r="AP40" s="42">
+        <f t="shared" ref="AP40" si="176">+AP3/AL3-1</f>
+        <v>9.8928074625644458E-2</v>
+      </c>
       <c r="AQ40" s="42">
-        <f t="shared" ref="AQ40" si="115">+AQ3/AM3-1</f>
+        <f t="shared" ref="AQ40" si="177">+AQ3/AM3-1</f>
         <v>0.14931740614334466</v>
       </c>
       <c r="AR40" s="42">
-        <f t="shared" ref="AR40" si="116">+AR3/AN3-1</f>
+        <f t="shared" ref="AR40" si="178">+AR3/AN3-1</f>
         <v>0.2791741472172351</v>
       </c>
       <c r="AS40" s="42">
@@ -11748,19 +12688,19 @@
         <v>0.11760242792109254</v>
       </c>
       <c r="AT40" s="42">
-        <f t="shared" ref="AT40:BD40" si="117">+AT3/AP3-1</f>
+        <f t="shared" ref="AT40:BD40" si="179">+AT3/AP3-1</f>
         <v>0.15189873417721511</v>
       </c>
       <c r="AU40" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="179"/>
         <v>0.12694877505567925</v>
       </c>
       <c r="AV40" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="179"/>
         <v>0.13754385964912275</v>
       </c>
       <c r="AW40" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="179"/>
         <v>0.10590631364562109</v>
       </c>
       <c r="AX40" s="42">
@@ -11768,31 +12708,31 @@
         <v>-3.2967032967032961E-2</v>
       </c>
       <c r="AY40" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="179"/>
         <v>-5.5335968379446654E-2</v>
       </c>
       <c r="AZ40" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="179"/>
         <v>-7.464528069093157E-2</v>
       </c>
       <c r="BA40" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="179"/>
         <v>-0.11111111111111116</v>
       </c>
       <c r="BB40" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="179"/>
         <v>-0.10561497326203206</v>
       </c>
       <c r="BC40" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="179"/>
         <v>-0.1617852161785216</v>
       </c>
       <c r="BD40" s="42">
-        <f t="shared" si="117"/>
+        <f t="shared" si="179"/>
         <v>-0.17933333333333334</v>
       </c>
       <c r="BE40" s="42">
-        <f t="shared" ref="BE40" si="118">+BE3/BA3-1</f>
+        <f t="shared" ref="BE40" si="180">+BE3/BA3-1</f>
         <v>-0.20953038674033153</v>
       </c>
       <c r="BF40" s="42">
@@ -11800,72 +12740,72 @@
         <v>-0.11061285500747386</v>
       </c>
       <c r="BG40" s="42">
-        <f t="shared" ref="BG40" si="119">+BG3/BC3-1</f>
+        <f t="shared" ref="BG40" si="181">+BG3/BC3-1</f>
         <v>-0.38768718801996671</v>
       </c>
       <c r="BH40" s="42">
-        <f t="shared" ref="BH40" si="120">+BH3/BD3-1</f>
+        <f t="shared" ref="BH40" si="182">+BH3/BD3-1</f>
         <v>-0.49179528838342812</v>
       </c>
       <c r="BI40" s="42">
-        <f t="shared" ref="BI40" si="121">+BI3/BE3-1</f>
+        <f t="shared" ref="BI40" si="183">+BI3/BE3-1</f>
         <v>-0.53541848680761839</v>
       </c>
       <c r="BJ40" s="42">
-        <f t="shared" ref="BJ40" si="122">+BJ3/BF3-1</f>
+        <f t="shared" ref="BJ40" si="184">+BJ3/BF3-1</f>
         <v>-0.6201714285714286</v>
       </c>
       <c r="BM40" s="51"/>
       <c r="BN40" s="51">
-        <f t="shared" ref="BN40:BZ40" si="123">BN3/BM3-1</f>
+        <f t="shared" ref="BN40:BZ40" si="185">BN3/BM3-1</f>
         <v>32.786290322580641</v>
       </c>
       <c r="BO40" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="185"/>
         <v>0.68122687671559867</v>
       </c>
       <c r="BP40" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="185"/>
         <v>0.2326258252289346</v>
       </c>
       <c r="BQ40" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="185"/>
         <v>0.54111955770559761</v>
       </c>
       <c r="BR40" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="185"/>
         <v>0.24181614349775771</v>
       </c>
       <c r="BS40" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="185"/>
         <v>0.11398994914387184</v>
       </c>
       <c r="BT40" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="185"/>
         <v>0.10124530646424801</v>
       </c>
       <c r="BU40" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="185"/>
         <v>0.13920573012485593</v>
       </c>
       <c r="BV40" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="185"/>
         <v>6.5199603806898931E-2</v>
       </c>
       <c r="BW40" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="185"/>
         <v>0.17081059227814843</v>
       </c>
       <c r="BX40" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="185"/>
         <v>8.1491712707182362E-2</v>
       </c>
       <c r="BY40" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="185"/>
         <v>-8.6845466155811013E-2</v>
       </c>
       <c r="BZ40" s="51">
-        <f t="shared" si="123"/>
+        <f t="shared" si="185"/>
         <v>-0.1665034965034965</v>
       </c>
       <c r="CL40" t="s">
@@ -11875,7 +12815,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="41" spans="2:130" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:130" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>381</v>
       </c>
@@ -11971,19 +12911,59 @@
       </c>
       <c r="CM41" s="1">
         <f>NPV(CM40,CB35:EA35)+Main!J5-Main!J6+CA35</f>
-        <v>92880.275305134055</v>
-      </c>
-    </row>
-    <row r="42" spans="2:130" x14ac:dyDescent="0.2">
+        <v>92974.275305134055</v>
+      </c>
+    </row>
+    <row r="42" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>241</v>
       </c>
+      <c r="AG42" s="42">
+        <f t="shared" ref="AG42" si="186">AG13/AC13-1</f>
+        <v>4.5375752013867565E-2</v>
+      </c>
+      <c r="AH42" s="42">
+        <f t="shared" ref="AH42" si="187">AH13/AD13-1</f>
+        <v>1.1431113204993912</v>
+      </c>
+      <c r="AI42" s="42">
+        <f t="shared" ref="AI42" si="188">AI13/AE13-1</f>
+        <v>0.97203166226912918</v>
+      </c>
+      <c r="AJ42" s="42">
+        <f t="shared" ref="AJ42" si="189">AJ13/AF13-1</f>
+        <v>0.46804037005887311</v>
+      </c>
+      <c r="AK42" s="42">
+        <f t="shared" ref="AK42" si="190">AK13/AG13-1</f>
+        <v>0.57705813499804903</v>
+      </c>
+      <c r="AL42" s="42">
+        <f t="shared" ref="AL42" si="191">AL13/AH13-1</f>
+        <v>-1.1693171188026374E-3</v>
+      </c>
+      <c r="AM42" s="42">
+        <f t="shared" ref="AM42" si="192">AM13/AI13-1</f>
+        <v>-0.33930960663633924</v>
+      </c>
+      <c r="AN42" s="42">
+        <f t="shared" ref="AN42" si="193">AN13/AJ13-1</f>
+        <v>-0.2291606989401318</v>
+      </c>
+      <c r="AO42" s="42">
+        <f t="shared" ref="AO42" si="194">AO13/AK13-1</f>
+        <v>-0.12592775853537852</v>
+      </c>
+      <c r="AP42" s="42">
+        <f t="shared" ref="AP42" si="195">AP13/AL13-1</f>
+        <v>-0.25755092484195741</v>
+      </c>
       <c r="AQ42" s="42">
-        <f t="shared" ref="AQ42" si="124">AQ13/AM13-1</f>
+        <f t="shared" ref="AQ42" si="196">AQ13/AM13-1</f>
         <v>0.47752126366950209</v>
       </c>
       <c r="AR42" s="42">
-        <f t="shared" ref="AR42" si="125">AR13/AN13-1</f>
+        <f t="shared" ref="AR42" si="197">AR13/AN13-1</f>
         <v>0.6265328874024525</v>
       </c>
       <c r="AS42" s="42">
@@ -11991,19 +12971,19 @@
         <v>0.64675912821964343</v>
       </c>
       <c r="AT42" s="42">
-        <f t="shared" ref="AT42:AW42" si="126">AT13/AP13-1</f>
+        <f t="shared" ref="AT42:AW42" si="198">AT13/AP13-1</f>
         <v>0.63323872595395758</v>
       </c>
       <c r="AU42" s="42">
-        <f t="shared" si="126"/>
+        <f t="shared" si="198"/>
         <v>0.72944078947368385</v>
       </c>
       <c r="AV42" s="42">
-        <f t="shared" si="126"/>
+        <f t="shared" si="198"/>
         <v>0.54786383367603375</v>
       </c>
       <c r="AW42" s="42">
-        <f t="shared" si="126"/>
+        <f t="shared" si="198"/>
         <v>0.22275696115503596</v>
       </c>
       <c r="AX42" s="42">
@@ -12011,51 +12991,51 @@
         <v>0.61401815022205053</v>
       </c>
       <c r="AY42" s="42">
-        <f t="shared" ref="AY42" si="127">AY13/AU13-1</f>
+        <f t="shared" ref="AY42" si="199">AY13/AU13-1</f>
         <v>0.26485972420351889</v>
       </c>
       <c r="AZ42" s="42">
-        <f t="shared" ref="AZ42" si="128">AZ13/AV13-1</f>
+        <f t="shared" ref="AZ42" si="200">AZ13/AV13-1</f>
         <v>0.39335793357933579</v>
       </c>
       <c r="BA42" s="42">
-        <f t="shared" ref="BA42" si="129">BA13/AW13-1</f>
+        <f t="shared" ref="BA42" si="201">BA13/AW13-1</f>
         <v>0.4970480742198482</v>
       </c>
       <c r="BB42" s="42">
-        <f t="shared" ref="BB42:BD42" si="130">BB13/AX13-1</f>
+        <f t="shared" ref="BB42:BD42" si="202">BB13/AX13-1</f>
         <v>0.18794114128484263</v>
       </c>
       <c r="BC42" s="42">
-        <f t="shared" si="130"/>
+        <f t="shared" si="202"/>
         <v>0.14035087719298245</v>
       </c>
       <c r="BD42" s="42">
-        <f t="shared" si="130"/>
+        <f t="shared" si="202"/>
         <v>0.21398305084745761</v>
       </c>
       <c r="BE42" s="42">
-        <f t="shared" ref="BE42" si="131">BE13/BA13-1</f>
+        <f t="shared" ref="BE42" si="203">BE13/BA13-1</f>
         <v>0.18629107981220638</v>
       </c>
       <c r="BF42" s="42">
-        <f t="shared" ref="BF42" si="132">BF13/BB13-1</f>
+        <f t="shared" ref="BF42" si="204">BF13/BB13-1</f>
         <v>0.22155085599194368</v>
       </c>
       <c r="BG42" s="42">
-        <f t="shared" ref="BG42" si="133">BG13/BC13-1</f>
+        <f t="shared" ref="BG42" si="205">BG13/BC13-1</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="BH42" s="42">
-        <f t="shared" ref="BH42" si="134">BH13/BD13-1</f>
+        <f t="shared" ref="BH42" si="206">BH13/BD13-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="BI42" s="42">
-        <f t="shared" ref="BI42" si="135">BI13/BE13-1</f>
+        <f t="shared" ref="BI42" si="207">BI13/BE13-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="BJ42" s="42">
-        <f t="shared" ref="BJ42" si="136">BJ13/BF13-1</f>
+        <f t="shared" ref="BJ42" si="208">BJ13/BF13-1</f>
         <v>0.19999999999999996</v>
       </c>
       <c r="CL42" t="s">
@@ -12063,19 +13043,56 @@
       </c>
       <c r="CM42" s="21">
         <f>CM41/Main!J3</f>
-        <v>849.58193891781968</v>
-      </c>
-    </row>
-    <row r="43" spans="2:130" x14ac:dyDescent="0.2">
+        <v>836.09959806775225</v>
+      </c>
+    </row>
+    <row r="43" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="AG43" s="42"/>
+      <c r="AH43" s="42">
+        <f t="shared" ref="AH43" si="209">AH17/AD17-1</f>
+        <v>1.2935251798561151</v>
+      </c>
+      <c r="AI43" s="42">
+        <f t="shared" ref="AI43" si="210">AI17/AE17-1</f>
+        <v>1.8439878234398779</v>
+      </c>
+      <c r="AJ43" s="42">
+        <f t="shared" ref="AJ43" si="211">AJ17/AF17-1</f>
+        <v>1.6639579349904396</v>
+      </c>
+      <c r="AK43" s="42">
+        <f t="shared" ref="AK43" si="212">AK17/AG17-1</f>
+        <v>1.4108910891089108</v>
+      </c>
+      <c r="AL43" s="42">
+        <f t="shared" ref="AL43" si="213">AL17/AH17-1</f>
+        <v>1.3572772898368881</v>
+      </c>
+      <c r="AM43" s="42">
+        <f t="shared" ref="AM43" si="214">AM17/AI17-1</f>
+        <v>1.2879314958522881</v>
+      </c>
+      <c r="AN43" s="42">
+        <f t="shared" ref="AN43" si="215">AN17/AJ17-1</f>
+        <v>0.69567557868293561</v>
+      </c>
+      <c r="AO43" s="42">
+        <f t="shared" ref="AO43" si="216">AO17/AK17-1</f>
+        <v>0.69420312746801427</v>
+      </c>
+      <c r="AP43" s="42">
+        <f t="shared" ref="AP43" si="217">AP17/AL17-1</f>
+        <v>0.55954757152361934</v>
+      </c>
       <c r="AQ43" s="42">
-        <f t="shared" ref="AQ43" si="137">AQ17/AM17-1</f>
+        <f t="shared" ref="AQ43" si="218">AQ17/AM17-1</f>
         <v>0.47707602339181299</v>
       </c>
       <c r="AR43" s="42">
-        <f t="shared" ref="AR43" si="138">AR17/AN17-1</f>
+        <f t="shared" ref="AR43" si="219">AR17/AN17-1</f>
         <v>0.58624338624338623</v>
       </c>
       <c r="AS43" s="42">
@@ -12083,19 +13100,19 @@
         <v>0.55034495618124213</v>
       </c>
       <c r="AT43" s="42">
-        <f t="shared" ref="AT43:AW43" si="139">AT17/AP17-1</f>
+        <f t="shared" ref="AT43:AW43" si="220">AT17/AP17-1</f>
         <v>0.51348122866894186</v>
       </c>
       <c r="AU43" s="42">
-        <f t="shared" si="139"/>
+        <f t="shared" si="220"/>
         <v>0.43352601156069359</v>
       </c>
       <c r="AV43" s="42">
-        <f t="shared" si="139"/>
+        <f t="shared" si="220"/>
         <v>0.39546364242828558</v>
       </c>
       <c r="AW43" s="42">
-        <f t="shared" si="139"/>
+        <f t="shared" si="220"/>
         <v>0.40122677250586314</v>
       </c>
       <c r="AX43" s="42">
@@ -12103,63 +13120,63 @@
         <v>0.38059533205547424</v>
       </c>
       <c r="AY43" s="42">
-        <f t="shared" ref="AY43" si="140">AY17/AU17-1</f>
+        <f t="shared" ref="AY43" si="221">AY17/AU17-1</f>
         <v>0.37262483429076432</v>
       </c>
       <c r="AZ43" s="42">
-        <f t="shared" ref="AZ43" si="141">AZ17/AV17-1</f>
+        <f t="shared" ref="AZ43" si="222">AZ17/AV17-1</f>
         <v>0.33349268572521273</v>
       </c>
       <c r="BA43" s="42">
-        <f t="shared" ref="BA43" si="142">BA17/AW17-1</f>
+        <f t="shared" ref="BA43" si="223">BA17/AW17-1</f>
         <v>0.32938500493541056</v>
       </c>
       <c r="BB43" s="42">
-        <f t="shared" ref="BB43:BD43" si="143">BB17/AX17-1</f>
+        <f t="shared" ref="BB43:BD43" si="224">BB17/AX17-1</f>
         <v>0.31328351504757235</v>
       </c>
       <c r="BC43" s="42">
-        <f t="shared" si="143"/>
+        <f t="shared" si="224"/>
         <v>0.23814889336016098</v>
       </c>
       <c r="BD43" s="42">
-        <f t="shared" si="143"/>
+        <f t="shared" si="224"/>
         <v>0.2749695274969528</v>
       </c>
       <c r="BE43" s="42">
-        <f t="shared" ref="BE43" si="144">BE17/BA17-1</f>
+        <f t="shared" ref="BE43" si="225">BE17/BA17-1</f>
         <v>0.23230888429752072</v>
       </c>
       <c r="BF43" s="42">
-        <f t="shared" ref="BF43" si="145">BF17/BB17-1</f>
+        <f t="shared" ref="BF43" si="226">BF17/BB17-1</f>
         <v>0.14971549392120886</v>
       </c>
       <c r="BG43" s="42">
-        <f t="shared" ref="BG43" si="146">BG17/BC17-1</f>
+        <f t="shared" ref="BG43" si="227">BG17/BC17-1</f>
         <v>0.19279771190847628</v>
       </c>
       <c r="BH43" s="42">
-        <f t="shared" ref="BH43" si="147">BH17/BD17-1</f>
+        <f t="shared" ref="BH43" si="228">BH17/BD17-1</f>
         <v>-1</v>
       </c>
       <c r="BI43" s="42">
-        <f t="shared" ref="BI43" si="148">BI17/BE17-1</f>
+        <f t="shared" ref="BI43" si="229">BI17/BE17-1</f>
         <v>-1</v>
       </c>
       <c r="BJ43" s="42">
-        <f t="shared" ref="BJ43" si="149">BJ17/BF17-1</f>
+        <f t="shared" ref="BJ43" si="230">BJ17/BF17-1</f>
         <v>-1</v>
       </c>
       <c r="BW43" s="50">
-        <f t="shared" ref="BW43:BY43" si="150">+BW17/BV17-1</f>
+        <f t="shared" ref="BW43:BY43" si="231">+BW17/BV17-1</f>
         <v>0.53256193443109345</v>
       </c>
       <c r="BX43" s="50">
-        <f t="shared" si="150"/>
+        <f t="shared" si="231"/>
         <v>0.40050979253379793</v>
       </c>
       <c r="BY43" s="50">
-        <f t="shared" si="150"/>
+        <f t="shared" si="231"/>
         <v>0.33485002073446068</v>
       </c>
       <c r="BZ43" s="50">
@@ -12167,7 +13184,7 @@
         <v>0.22090765526704126</v>
       </c>
     </row>
-    <row r="44" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>385</v>
       </c>
@@ -12199,44 +13216,128 @@
         <v>0.40973348783314001</v>
       </c>
     </row>
-    <row r="46" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="R46" s="42">
+        <f t="shared" ref="R46:W46" si="232">+R27/R25</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="42">
+        <f t="shared" si="232"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="42">
+        <f t="shared" si="232"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="42">
+        <f t="shared" si="232"/>
+        <v>0</v>
+      </c>
+      <c r="V46" s="42">
+        <f t="shared" si="232"/>
+        <v>0</v>
+      </c>
+      <c r="W46" s="42">
+        <f t="shared" ref="W46:Y46" si="233">+W27/W25</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="42">
+        <f t="shared" si="233"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="42">
+        <f t="shared" si="233"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="42">
+        <f t="shared" ref="Z46:AI46" si="234">+Z27/Z25</f>
+        <v>0.93915046451333239</v>
+      </c>
+      <c r="AA46" s="42">
+        <f t="shared" si="234"/>
+        <v>1</v>
+      </c>
+      <c r="AB46" s="42">
+        <f t="shared" si="234"/>
+        <v>1</v>
+      </c>
+      <c r="AC46" s="42">
+        <f t="shared" si="234"/>
+        <v>1</v>
+      </c>
+      <c r="AD46" s="42">
+        <f t="shared" si="234"/>
+        <v>0.93319134229549083</v>
+      </c>
+      <c r="AE46" s="42">
+        <f t="shared" si="234"/>
+        <v>0.92398279854449217</v>
+      </c>
+      <c r="AF46" s="42">
+        <f t="shared" si="234"/>
+        <v>0.9429655429779823</v>
+      </c>
+      <c r="AG46" s="42">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+      <c r="AH46" s="42">
+        <f t="shared" si="234"/>
+        <v>0.93920531175433131</v>
+      </c>
+      <c r="AI46" s="42">
+        <f t="shared" ref="AI46:AM46" si="235">+AI27/AI25</f>
+        <v>0.89842997222694554</v>
+      </c>
+      <c r="AJ46" s="42">
+        <f t="shared" si="235"/>
+        <v>0.92112340953760219</v>
+      </c>
+      <c r="AK46" s="42">
+        <f t="shared" si="235"/>
+        <v>0</v>
+      </c>
+      <c r="AL46" s="42">
+        <f t="shared" si="235"/>
+        <v>0.89679649688868401</v>
+      </c>
       <c r="AM46" s="42">
-        <f t="shared" ref="AM46" si="151">+AM27/AM25</f>
+        <f t="shared" ref="AM46" si="236">+AM27/AM25</f>
         <v>0.88113991904605626</v>
       </c>
       <c r="AN46" s="42">
-        <f t="shared" ref="AN46:AU46" si="152">+AN27/AN25</f>
+        <f t="shared" ref="AN46:AU46" si="237">+AN27/AN25</f>
         <v>0.863648004917277</v>
       </c>
       <c r="AO46" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="237"/>
         <v>0.94681314848722642</v>
       </c>
       <c r="AP46" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="237"/>
         <v>0.85237204852806892</v>
       </c>
       <c r="AQ46" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="237"/>
         <v>0.87823199177670597</v>
       </c>
       <c r="AR46" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="237"/>
         <v>0.86500476774281432</v>
       </c>
       <c r="AS46" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="237"/>
         <v>0.93512699470010718</v>
       </c>
       <c r="AT46" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="237"/>
         <v>0.85259012420478653</v>
       </c>
       <c r="AU46" s="42">
-        <f t="shared" si="152"/>
+        <f t="shared" si="237"/>
         <v>0.86346315966953291</v>
       </c>
       <c r="AV46" s="42">
@@ -12244,63 +13345,63 @@
         <v>0.89599159810957474</v>
       </c>
       <c r="AW46" s="42">
-        <f t="shared" ref="AW46" si="153">+AW27/AW25</f>
+        <f t="shared" ref="AW46" si="238">+AW27/AW25</f>
         <v>0.96287971665985561</v>
       </c>
       <c r="AX46" s="42">
-        <f t="shared" ref="AX46:BJ46" si="154">+AX27/AX25</f>
+        <f t="shared" ref="AX46:BJ46" si="239">+AX27/AX25</f>
         <v>0.88658797340441109</v>
       </c>
       <c r="AY46" s="42">
-        <f t="shared" si="154"/>
-        <v>0.94686907020872868</v>
+        <f t="shared" si="239"/>
+        <v>0.86116382036685646</v>
       </c>
       <c r="AZ46" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="239"/>
         <v>0.94838505383153893</v>
       </c>
       <c r="BA46" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="239"/>
         <v>0.94623847754980661</v>
       </c>
       <c r="BB46" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="239"/>
         <v>0.8633954571927781</v>
       </c>
       <c r="BC46" s="42">
-        <f t="shared" si="154"/>
-        <v>0.93767885532591411</v>
+        <f t="shared" si="239"/>
+        <v>0.86957074721780614</v>
       </c>
       <c r="BD46" s="42">
-        <f t="shared" si="154"/>
-        <v>0.93966732449957713</v>
+        <f t="shared" si="239"/>
+        <v>0.87191993233718634</v>
       </c>
       <c r="BE46" s="42">
-        <f t="shared" si="154"/>
-        <v>0.94157955553166905</v>
+        <f t="shared" si="239"/>
+        <v>0.87517802918334986</v>
       </c>
       <c r="BF46" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="239"/>
         <v>0.86555819477434681</v>
       </c>
       <c r="BG46" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="239"/>
         <v>0.92835919445361503</v>
       </c>
       <c r="BH46" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="239"/>
         <v>0.93</v>
       </c>
       <c r="BI46" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="239"/>
         <v>0.93</v>
       </c>
       <c r="BJ46" s="42">
-        <f t="shared" si="154"/>
+        <f t="shared" si="239"/>
         <v>0.93</v>
       </c>
     </row>
-    <row r="48" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>397</v>
       </c>
@@ -12325,7 +13426,7 @@
         <v>15928.199999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>32</v>
       </c>
@@ -12402,7 +13503,7 @@
         <v>17912.599999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>302</v>
       </c>
@@ -12472,11 +13573,11 @@
         <v>5561</v>
       </c>
       <c r="BZ50" s="1">
-        <f t="shared" ref="BZ50:BZ56" si="155">+BF50</f>
+        <f t="shared" ref="BZ50:BZ56" si="240">+BF50</f>
         <v>6211.9</v>
       </c>
     </row>
-    <row r="51" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>303</v>
       </c>
@@ -12546,11 +13647,11 @@
         <v>3192.4</v>
       </c>
       <c r="BZ51" s="1">
-        <f t="shared" si="155"/>
+        <f t="shared" si="240"/>
         <v>3087.3</v>
       </c>
     </row>
-    <row r="52" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>304</v>
       </c>
@@ -12620,11 +13721,11 @@
         <v>0</v>
       </c>
       <c r="BZ52" s="1">
-        <f t="shared" si="155"/>
+        <f t="shared" si="240"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>305</v>
       </c>
@@ -12694,11 +13795,11 @@
         <v>4694.2</v>
       </c>
       <c r="BZ53" s="1">
-        <f t="shared" si="155"/>
+        <f t="shared" si="240"/>
         <v>4599.7</v>
       </c>
     </row>
-    <row r="54" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>306</v>
       </c>
@@ -12768,11 +13869,11 @@
         <v>1167</v>
       </c>
       <c r="BZ54" s="1">
-        <f t="shared" si="155"/>
+        <f t="shared" si="240"/>
         <v>1148.5999999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>222</v>
       </c>
@@ -12842,11 +13943,11 @@
         <v>3442.9</v>
       </c>
       <c r="BZ55" s="1">
-        <f t="shared" si="155"/>
+        <f t="shared" si="240"/>
         <v>3314.1</v>
       </c>
     </row>
-    <row r="56" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>307</v>
       </c>
@@ -12916,11 +14017,11 @@
         <v>1862</v>
       </c>
       <c r="BZ56" s="1">
-        <f t="shared" si="155"/>
+        <f t="shared" si="240"/>
         <v>1485.2</v>
       </c>
     </row>
-    <row r="57" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>308</v>
       </c>
@@ -13000,10 +14101,10 @@
         <v>37759.399999999994</v>
       </c>
     </row>
-    <row r="58" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:78" x14ac:dyDescent="0.25">
       <c r="BD58" s="1"/>
     </row>
-    <row r="59" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>309</v>
       </c>
@@ -13030,7 +14131,7 @@
         <v>4888</v>
       </c>
     </row>
-    <row r="60" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>310</v>
       </c>
@@ -13053,11 +14154,11 @@
         <v>0</v>
       </c>
       <c r="BZ60" s="1">
-        <f t="shared" ref="BZ60:BZ65" si="156">+BF60</f>
+        <f t="shared" ref="BZ60:BZ65" si="241">+BF60</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>311</v>
       </c>
@@ -13083,11 +14184,11 @@
         <v>831.1</v>
       </c>
       <c r="BZ61" s="1">
-        <f t="shared" si="156"/>
+        <f t="shared" si="241"/>
         <v>813.4</v>
       </c>
     </row>
-    <row r="62" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>29</v>
       </c>
@@ -13110,11 +14211,11 @@
         <v>1984.8</v>
       </c>
       <c r="BZ62" s="1">
-        <f t="shared" si="156"/>
+        <f t="shared" si="241"/>
         <v>1984.4</v>
       </c>
     </row>
-    <row r="63" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>312</v>
       </c>
@@ -13137,11 +14238,11 @@
         <v>720</v>
       </c>
       <c r="BZ63" s="1">
-        <f t="shared" si="156"/>
+        <f t="shared" si="241"/>
         <v>720</v>
       </c>
     </row>
-    <row r="64" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>315</v>
       </c>
@@ -13211,11 +14312,11 @@
         <v>0</v>
       </c>
       <c r="BZ64" s="1">
-        <f t="shared" si="156"/>
+        <f t="shared" si="241"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
         <v>314</v>
       </c>
@@ -13238,11 +14339,11 @@
         <v>29387.599999999999</v>
       </c>
       <c r="BZ65" s="1">
-        <f t="shared" si="156"/>
+        <f t="shared" si="241"/>
         <v>29353.599999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>313</v>
       </c>
@@ -13275,31 +14376,31 @@
         <v>37759.399999999994</v>
       </c>
     </row>
-    <row r="67" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:78" x14ac:dyDescent="0.25">
       <c r="AX67" s="15"/>
       <c r="BB67" s="1"/>
       <c r="BF67" s="1"/>
     </row>
-    <row r="68" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>483</v>
       </c>
       <c r="AX68" s="15"/>
       <c r="BB68" s="1">
-        <f t="shared" ref="BB68:BE68" si="157">+BB35</f>
+        <f t="shared" ref="BB68:BE68" si="242">+BB35</f>
         <v>1396</v>
       </c>
       <c r="BC68" s="1">
-        <f t="shared" si="157"/>
-        <v>1152.0591000000002</v>
+        <f t="shared" si="242"/>
+        <v>790.59999999999991</v>
       </c>
       <c r="BD68" s="1">
-        <f t="shared" si="157"/>
-        <v>1594</v>
+        <f t="shared" si="242"/>
+        <v>1104.1999999999998</v>
       </c>
       <c r="BE68" s="1">
-        <f t="shared" si="157"/>
-        <v>1745</v>
+        <f t="shared" si="242"/>
+        <v>1280.3000000000004</v>
       </c>
       <c r="BF68" s="1">
         <f>+BF35</f>
@@ -13310,19 +14411,19 @@
         <v>954.98519999999996</v>
       </c>
       <c r="BX68" s="1">
-        <f t="shared" ref="BX68:BZ68" si="158">+BX35</f>
+        <f t="shared" ref="BX68:BZ68" si="243">+BX35</f>
         <v>4711.2000000000016</v>
       </c>
       <c r="BY68" s="1">
-        <f t="shared" si="158"/>
-        <v>5367.2850000000008</v>
+        <f t="shared" si="243"/>
+        <v>5301</v>
       </c>
       <c r="BZ68" s="1">
-        <f t="shared" si="158"/>
-        <v>5894.3591000000006</v>
-      </c>
-    </row>
-    <row r="69" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="243"/>
+        <v>4578.3999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>484</v>
       </c>
@@ -13396,7 +14497,7 @@
         <v>4412.6000000000004</v>
       </c>
     </row>
-    <row r="70" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>486</v>
       </c>
@@ -13457,7 +14558,7 @@
         <v>121.69999999999999</v>
       </c>
       <c r="BF70" s="1">
-        <f t="shared" ref="BF70:BF76" si="159">+BZ70-BE70-BD70-BC70</f>
+        <f t="shared" ref="BF70:BF76" si="244">+BZ70-BE70-BD70-BC70</f>
         <v>126.39999999999998</v>
       </c>
       <c r="BX70" s="1">
@@ -13470,7 +14571,7 @@
         <v>482.9</v>
       </c>
     </row>
-    <row r="71" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>485</v>
       </c>
@@ -13531,7 +14632,7 @@
         <v>225.09999999999997</v>
       </c>
       <c r="BF71" s="1">
-        <f t="shared" si="159"/>
+        <f t="shared" si="244"/>
         <v>304.40000000000003</v>
       </c>
       <c r="BX71" s="1">
@@ -13544,7 +14645,7 @@
         <v>982.8</v>
       </c>
     </row>
-    <row r="72" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>487</v>
       </c>
@@ -13605,7 +14706,7 @@
         <v>-134.69999999999999</v>
       </c>
       <c r="BF72" s="1">
-        <f t="shared" si="159"/>
+        <f t="shared" si="244"/>
         <v>212.89999999999998</v>
       </c>
       <c r="BX72" s="1">
@@ -13618,7 +14719,7 @@
         <v>-118.3</v>
       </c>
     </row>
-    <row r="73" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>488</v>
       </c>
@@ -13679,7 +14780,7 @@
         <v>-29</v>
       </c>
       <c r="BF73" s="1">
-        <f t="shared" si="159"/>
+        <f t="shared" si="244"/>
         <v>55.4</v>
       </c>
       <c r="BX73" s="1">
@@ -13692,7 +14793,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="74" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>489</v>
       </c>
@@ -13753,7 +14854,7 @@
         <v>-168.60000000000002</v>
       </c>
       <c r="BF74" s="1">
-        <f t="shared" si="159"/>
+        <f t="shared" si="244"/>
         <v>-280.19999999999993</v>
       </c>
       <c r="BX74" s="1">
@@ -13766,7 +14867,7 @@
         <v>-757.3</v>
       </c>
     </row>
-    <row r="75" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
         <v>490</v>
       </c>
@@ -13825,7 +14926,7 @@
         <v>0</v>
       </c>
       <c r="BF75" s="1">
-        <f t="shared" si="159"/>
+        <f t="shared" si="244"/>
         <v>12.6</v>
       </c>
       <c r="BX75" s="1">
@@ -13838,7 +14939,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="76" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>491</v>
       </c>
@@ -13899,7 +15000,7 @@
         <v>-63.899999999999977</v>
       </c>
       <c r="BF76" s="1">
-        <f t="shared" si="159"/>
+        <f t="shared" si="244"/>
         <v>-86.399999999999977</v>
       </c>
       <c r="BX76" s="1">
@@ -13915,7 +15016,7 @@
         <v>-618.30000000000007</v>
       </c>
     </row>
-    <row r="77" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
         <v>492</v>
       </c>
@@ -13968,7 +15069,7 @@
       <c r="AW77" s="15"/>
       <c r="AX77" s="15"/>
       <c r="BC77" s="1">
-        <f t="shared" ref="BC77" si="160">SUM(BC69:BC76)</f>
+        <f t="shared" ref="BC77" si="245">SUM(BC69:BC76)</f>
         <v>0</v>
       </c>
       <c r="BD77" s="1">
@@ -13996,14 +15097,14 @@
         <v>4420.5</v>
       </c>
     </row>
-    <row r="78" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:78" x14ac:dyDescent="0.25">
       <c r="BU78" s="50"/>
       <c r="BV78" s="50"/>
       <c r="BW78" s="50"/>
       <c r="BX78" s="50"/>
       <c r="BY78" s="50"/>
     </row>
-    <row r="79" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
         <v>494</v>
       </c>
@@ -14060,7 +15161,7 @@
         <v>-2219.2000000000007</v>
       </c>
       <c r="BF79" s="1">
-        <f t="shared" ref="BF79:BF82" si="161">+BZ79-BE79-BD79-BC79</f>
+        <f t="shared" ref="BF79:BF82" si="246">+BZ79-BE79-BD79-BC79</f>
         <v>629.09999999999854</v>
       </c>
       <c r="BX79" s="1">
@@ -14076,7 +15177,7 @@
         <v>-1590.1000000000022</v>
       </c>
     </row>
-    <row r="80" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
         <v>495</v>
       </c>
@@ -14133,7 +15234,7 @@
         <v>-536.19999999999993</v>
       </c>
       <c r="BF80" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="246"/>
         <v>-199.60000000000002</v>
       </c>
       <c r="BX80" s="1">
@@ -14147,7 +15248,7 @@
         <v>-735.8</v>
       </c>
     </row>
-    <row r="81" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>207</v>
       </c>
@@ -14204,7 +15305,7 @@
         <v>-58.3</v>
       </c>
       <c r="BF81" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="246"/>
         <v>-67.400000000000006</v>
       </c>
       <c r="BX81" s="1">
@@ -14217,7 +15318,7 @@
         <v>-125.7</v>
       </c>
     </row>
-    <row r="82" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>496</v>
       </c>
@@ -14274,7 +15375,7 @@
         <v>-5</v>
       </c>
       <c r="BF82" s="1">
-        <f t="shared" si="161"/>
+        <f t="shared" si="246"/>
         <v>-11.5</v>
       </c>
       <c r="BX82" s="1">
@@ -14287,7 +15388,7 @@
         <v>-16.5</v>
       </c>
     </row>
-    <row r="83" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>493</v>
       </c>
@@ -14360,14 +15461,14 @@
         <v>-2468.1000000000022</v>
       </c>
     </row>
-    <row r="84" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:78" x14ac:dyDescent="0.25">
       <c r="BU84" s="50"/>
       <c r="BV84" s="50"/>
       <c r="BW84" s="50"/>
       <c r="BX84" s="50"/>
       <c r="BY84" s="50"/>
     </row>
-    <row r="85" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
         <v>497</v>
       </c>
@@ -14424,7 +15525,7 @@
         <v>1374.4</v>
       </c>
       <c r="BF85" s="1">
-        <f t="shared" ref="BF85:BF88" si="162">+BZ85-BE85-BD85-BC85</f>
+        <f t="shared" ref="BF85:BF88" si="247">+BZ85-BE85-BD85-BC85</f>
         <v>90.899999999999864</v>
       </c>
       <c r="BX85" s="1">
@@ -14437,7 +15538,7 @@
         <v>1465.3</v>
       </c>
     </row>
-    <row r="86" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
         <v>498</v>
       </c>
@@ -14494,7 +15595,7 @@
         <v>-775.7</v>
       </c>
       <c r="BF86" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="247"/>
         <v>-253.39999999999986</v>
       </c>
       <c r="BX86" s="1">
@@ -14507,7 +15608,7 @@
         <v>-1029.0999999999999</v>
       </c>
     </row>
-    <row r="87" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
         <v>499</v>
       </c>
@@ -14564,7 +15665,7 @@
         <v>-1630.3</v>
       </c>
       <c r="BF87" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="247"/>
         <v>-973.00000000000023</v>
       </c>
       <c r="BX87" s="1">
@@ -14577,7 +15678,7 @@
         <v>-2603.3000000000002</v>
       </c>
     </row>
-    <row r="88" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
         <v>212</v>
       </c>
@@ -14634,7 +15735,7 @@
         <v>-33.4</v>
       </c>
       <c r="BF88" s="1">
-        <f t="shared" si="162"/>
+        <f t="shared" si="247"/>
         <v>0</v>
       </c>
       <c r="BX88" s="1">
@@ -14647,7 +15748,7 @@
         <v>-33.4</v>
       </c>
     </row>
-    <row r="89" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
         <v>500</v>
       </c>
@@ -14700,19 +15801,19 @@
       <c r="AW89" s="15"/>
       <c r="AX89" s="15"/>
       <c r="BE89" s="1">
-        <f t="shared" ref="BE89:BF89" si="163">SUM(BE85:BE88)</f>
+        <f t="shared" ref="BE89:BF89" si="248">SUM(BE85:BE88)</f>
         <v>-1065</v>
       </c>
       <c r="BF89" s="1">
-        <f t="shared" si="163"/>
+        <f t="shared" si="248"/>
         <v>-1135.5000000000002</v>
       </c>
       <c r="BX89" s="1">
-        <f t="shared" ref="BX89:BY89" si="164">SUM(BX85:BX88)</f>
+        <f t="shared" ref="BX89:BY89" si="249">SUM(BX85:BX88)</f>
         <v>-1009.0000000000002</v>
       </c>
       <c r="BY89" s="1">
-        <f t="shared" si="164"/>
+        <f t="shared" si="249"/>
         <v>-1790.1</v>
       </c>
       <c r="BZ89" s="1">
@@ -14720,7 +15821,7 @@
         <v>-2200.5000000000005</v>
       </c>
     </row>
-    <row r="90" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>501</v>
       </c>
@@ -14788,7 +15889,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="91" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
         <v>502</v>
       </c>
@@ -14861,14 +15962,14 @@
         <v>-248.80000000000291</v>
       </c>
     </row>
-    <row r="92" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:78" x14ac:dyDescent="0.25">
       <c r="BU92" s="50"/>
       <c r="BV92" s="50"/>
       <c r="BW92" s="50"/>
       <c r="BX92" s="50"/>
       <c r="BY92" s="50"/>
     </row>
-    <row r="93" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B93" s="1" t="s">
         <v>383</v>
       </c>
@@ -14918,7 +16019,7 @@
         <v>711.42</v>
       </c>
     </row>
-    <row r="94" spans="2:78" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:78" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B94" s="16" t="s">
         <v>384</v>
       </c>
@@ -14971,128 +16072,128 @@
       <c r="AW94" s="43"/>
       <c r="AX94" s="43"/>
       <c r="BM94" s="51">
-        <f t="shared" ref="BM94:BZ94" si="165">+BM93/BL93-1</f>
+        <f t="shared" ref="BM94:BZ94" si="250">+BM93/BL93-1</f>
         <v>0.6883196096370845</v>
       </c>
       <c r="BN94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>2.0861632947976876</v>
       </c>
       <c r="BO94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>0.60895522388059709</v>
       </c>
       <c r="BP94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>0.49048710393248229</v>
       </c>
       <c r="BQ94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>0.32326954993654189</v>
       </c>
       <c r="BR94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>-0.32379143073205818</v>
       </c>
       <c r="BS94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>2.4166712126997947E-2</v>
       </c>
       <c r="BT94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>-6.5516139341643687E-3</v>
       </c>
       <c r="BU94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>5.3080263792826266E-3</v>
       </c>
       <c r="BV94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>0.28664000000000001</v>
       </c>
       <c r="BW94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>0.30719807664407561</v>
       </c>
       <c r="BX94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>0.14245849915174946</v>
       </c>
       <c r="BY94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>0.21733096480515157</v>
       </c>
       <c r="BZ94" s="51">
-        <f t="shared" si="165"/>
+        <f t="shared" si="250"/>
         <v>-0.18895070454649099</v>
       </c>
     </row>
-    <row r="95" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="BM95" s="1">
-        <f t="shared" ref="BM95:BZ95" si="166">+BM93/$BL$93</f>
+        <f t="shared" ref="BM95:BZ95" si="251">+BM93/$BL$93</f>
         <v>1.6883196096370845</v>
       </c>
       <c r="BN95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>5.2104300091491309</v>
       </c>
       <c r="BO95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>8.3833485818847215</v>
       </c>
       <c r="BP95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>12.49527294906984</v>
       </c>
       <c r="BQ95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>16.534614211649892</v>
       </c>
       <c r="BR95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>11.180847819457153</v>
       </c>
       <c r="BS95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>11.451052150045747</v>
       </c>
       <c r="BT95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>11.376029277218663</v>
       </c>
       <c r="BU95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>11.436413540713632</v>
       </c>
       <c r="BV95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>14.714547118023788</v>
       </c>
       <c r="BW95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>19.234827691369322</v>
       </c>
       <c r="BX95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>21.974992375724305</v>
       </c>
       <c r="BY95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>26.750838670326317</v>
       </c>
       <c r="BZ95" s="1">
-        <f t="shared" si="166"/>
+        <f t="shared" si="251"/>
         <v>21.696248856358647</v>
       </c>
     </row>
-    <row r="96" spans="2:78" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="BM96" s="1"/>
       <c r="BN96" s="1"/>
       <c r="BO96" s="1"/>
     </row>
-    <row r="97" spans="2:78" s="45" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:78" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B97" s="16" t="s">
         <v>240</v>
       </c>
@@ -15145,59 +16246,59 @@
       <c r="AW97" s="43"/>
       <c r="AX97" s="43"/>
       <c r="BM97" s="51">
-        <f t="shared" ref="BM97:BZ97" si="167">BM25/BL25-1</f>
+        <f t="shared" ref="BM97:BZ97" si="252">BM25/BL25-1</f>
         <v>0.32447576548044177</v>
       </c>
       <c r="BN97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>2.0921938088829068</v>
       </c>
       <c r="BO97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>0.52680449764236514</v>
       </c>
       <c r="BP97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>0.33966836128664424</v>
       </c>
       <c r="BQ97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>0.45541920839835415</v>
       </c>
       <c r="BR97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>0.18439457075322285</v>
       </c>
       <c r="BS97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>0.20817216689984375</v>
       </c>
       <c r="BT97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>0.17368277647219088</v>
       </c>
       <c r="BU97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>0.15921127087534992</v>
       </c>
       <c r="BV97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>4.8138783888652448E-2</v>
       </c>
       <c r="BW97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>0.91933365177931714</v>
       </c>
       <c r="BX97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>-0.24265048996733551</v>
       </c>
       <c r="BY97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>7.7592934894228582E-2</v>
       </c>
       <c r="BZ97" s="51">
-        <f t="shared" si="167"/>
+        <f t="shared" si="252"/>
         <v>8.2739955782572094E-2</v>
       </c>
     </row>
@@ -15217,18 +16318,18 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>376</v>
       </c>
@@ -15236,7 +16337,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>377</v>
       </c>
@@ -15244,7 +16345,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -15252,7 +16353,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>371</v>
       </c>
@@ -15260,27 +16361,27 @@
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="54" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="54" t="s">
         <v>402</v>
       </c>
@@ -15299,19 +16400,19 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="9"/>
+    <col min="2" max="2" width="12.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>77</v>
       </c>
@@ -15319,7 +16420,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>75</v>
       </c>
@@ -15327,7 +16428,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -15335,7 +16436,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
@@ -15343,7 +16444,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>45</v>
       </c>
@@ -15351,7 +16452,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>371</v>
       </c>
@@ -15359,7 +16460,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
@@ -15367,32 +16468,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="10" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C17" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="9" t="s">
         <v>186</v>
       </c>
@@ -15411,19 +16512,19 @@
   <sheetViews>
     <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="9"/>
+    <col min="2" max="2" width="12.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>77</v>
       </c>
@@ -15431,7 +16532,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>75</v>
       </c>
@@ -15439,7 +16540,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -15447,17 +16548,17 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="9" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="9" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>47</v>
       </c>
@@ -15465,7 +16566,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>371</v>
       </c>
@@ -15473,52 +16574,52 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C15" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="9" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C19" s="10" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C23" s="10" t="s">
         <v>192</v>
       </c>
@@ -15537,25 +16638,25 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="9" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="12.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="9"/>
-    <col min="9" max="9" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="9"/>
+    <col min="2" max="2" width="14.26953125" style="9" customWidth="1"/>
+    <col min="3" max="6" width="9.1796875" style="9"/>
+    <col min="7" max="7" width="12.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="9"/>
+    <col min="9" max="9" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>77</v>
       </c>
@@ -15563,7 +16664,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>75</v>
       </c>
@@ -15571,7 +16672,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>43</v>
       </c>
@@ -15579,7 +16680,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
@@ -15587,7 +16688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>371</v>
       </c>
@@ -15595,32 +16696,32 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>45</v>
       </c>
@@ -15628,7 +16729,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>44</v>
       </c>
@@ -15636,7 +16737,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>131</v>
       </c>
@@ -15644,57 +16745,57 @@
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" ht="13" x14ac:dyDescent="0.3">
       <c r="C18" s="10" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" ht="13" x14ac:dyDescent="0.3">
       <c r="C23" s="10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" s="9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="9" t="s">
         <v>120</v>
       </c>
@@ -15711,7 +16812,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="9" t="s">
         <v>119</v>
       </c>
@@ -15734,7 +16835,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="9" t="s">
         <v>117</v>
       </c>
@@ -15757,7 +16858,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="9" t="s">
         <v>115</v>
       </c>
@@ -15780,7 +16881,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="9" t="s">
         <v>113</v>
       </c>
@@ -15803,7 +16904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G33" s="65" t="s">
         <v>110</v>
       </c>
@@ -15820,7 +16921,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G34" s="65" t="s">
         <v>109</v>
       </c>
@@ -15840,7 +16941,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G35" s="65" t="s">
         <v>104</v>
       </c>
@@ -15857,43 +16958,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="H36" s="64"/>
       <c r="I36" s="64"/>
       <c r="J36" s="64"/>
       <c r="K36" s="64"/>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:12" ht="13" x14ac:dyDescent="0.3">
       <c r="C37" s="10" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="9" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="9" t="s">
         <v>119</v>
       </c>
@@ -15913,7 +17014,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="9" t="s">
         <v>117</v>
       </c>
@@ -15936,7 +17037,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="9" t="s">
         <v>115</v>
       </c>
@@ -15959,7 +17060,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="9" t="s">
         <v>113</v>
       </c>
@@ -15982,7 +17083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G47" s="9" t="s">
         <v>111</v>
       </c>
@@ -15999,7 +17100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G48" s="65" t="s">
         <v>110</v>
       </c>
@@ -16016,7 +17117,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G49" s="65" t="s">
         <v>109</v>
       </c>
@@ -16036,7 +17137,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G50" s="65" t="s">
         <v>104</v>
       </c>
@@ -16053,14 +17154,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G51" s="65"/>
       <c r="H51" s="64"/>
       <c r="I51" s="64"/>
       <c r="J51" s="64"/>
       <c r="K51" s="64"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:12" ht="13" x14ac:dyDescent="0.3">
       <c r="C52" s="10" t="s">
         <v>103</v>
       </c>
@@ -16070,7 +17171,7 @@
       <c r="J52" s="64"/>
       <c r="K52" s="64"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C53" s="9" t="s">
         <v>102</v>
       </c>
@@ -16080,7 +17181,7 @@
       <c r="J53" s="64"/>
       <c r="K53" s="64"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C54" s="9" t="s">
         <v>101</v>
       </c>
@@ -16090,7 +17191,7 @@
       <c r="J54" s="64"/>
       <c r="K54" s="64"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C55" s="9" t="s">
         <v>100</v>
       </c>
@@ -16100,14 +17201,14 @@
       <c r="J55" s="64"/>
       <c r="K55" s="64"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="G56" s="65"/>
       <c r="H56" s="64"/>
       <c r="I56" s="64"/>
       <c r="J56" s="64"/>
       <c r="K56" s="64"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:12" ht="13" x14ac:dyDescent="0.3">
       <c r="C57" s="10" t="s">
         <v>99</v>
       </c>
@@ -16117,7 +17218,7 @@
       <c r="J57" s="64"/>
       <c r="K57" s="64"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" ht="13" x14ac:dyDescent="0.3">
       <c r="C58" s="9" t="s">
         <v>98</v>
       </c>
@@ -16127,7 +17228,7 @@
       <c r="J58" s="64"/>
       <c r="K58" s="64"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C59" s="9" t="s">
         <v>97</v>
       </c>
@@ -16137,7 +17238,7 @@
       <c r="J59" s="64"/>
       <c r="K59" s="64"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C60" s="9" t="s">
         <v>96</v>
       </c>
@@ -16147,7 +17248,7 @@
       <c r="J60" s="64"/>
       <c r="K60" s="64"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C61" s="9" t="s">
         <v>95</v>
       </c>
@@ -16157,7 +17258,7 @@
       <c r="J61" s="64"/>
       <c r="K61" s="64"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C62" s="9" t="s">
         <v>94</v>
       </c>
@@ -16167,7 +17268,7 @@
       <c r="J62" s="64"/>
       <c r="K62" s="64"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C63" s="9" t="s">
         <v>93</v>
       </c>
@@ -16177,7 +17278,7 @@
       <c r="J63" s="64"/>
       <c r="K63" s="64"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C64" s="9" t="s">
         <v>92</v>
       </c>
@@ -16187,7 +17288,7 @@
       <c r="J64" s="64"/>
       <c r="K64" s="64"/>
     </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65" s="9" t="s">
         <v>91</v>
       </c>
@@ -16197,7 +17298,7 @@
       <c r="J65" s="64"/>
       <c r="K65" s="64"/>
     </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:11" ht="13" x14ac:dyDescent="0.3">
       <c r="C66" s="9" t="s">
         <v>90</v>
       </c>
@@ -16207,57 +17308,57 @@
       <c r="J66" s="64"/>
       <c r="K66" s="64"/>
     </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:11" ht="13" x14ac:dyDescent="0.3">
       <c r="C68" s="10" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:11" ht="13" x14ac:dyDescent="0.3">
       <c r="C71" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C76" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C77" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C78" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C80" s="9" t="s">
         <v>79</v>
       </c>
@@ -16278,23 +17379,23 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>377</v>
       </c>
@@ -16302,7 +17403,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -16310,7 +17411,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -16318,7 +17419,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>371</v>
       </c>
@@ -16326,7 +17427,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>45</v>
       </c>
@@ -16334,22 +17435,22 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="54" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C14" s="54" t="s">
         <v>423</v>
       </c>
@@ -16368,23 +17469,23 @@
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>377</v>
       </c>
@@ -16392,7 +17493,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -16400,7 +17501,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>409</v>
       </c>
@@ -16408,7 +17509,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>371</v>
       </c>
@@ -16416,7 +17517,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>45</v>
       </c>
@@ -16424,12 +17525,12 @@
         <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>65</v>
       </c>
@@ -16448,23 +17549,23 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>377</v>
       </c>
@@ -16472,7 +17573,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -16480,7 +17581,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>409</v>
       </c>
@@ -16488,7 +17589,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>371</v>
       </c>
@@ -16496,27 +17597,27 @@
         <v>447</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C8" s="54" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="54" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>461</v>
       </c>
@@ -16535,23 +17636,23 @@
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>377</v>
       </c>
@@ -16559,7 +17660,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>47</v>
       </c>
@@ -16567,7 +17668,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>409</v>
       </c>
@@ -16575,22 +17676,22 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="54" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>463</v>
       </c>
@@ -16609,19 +17710,19 @@
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>404</v>
       </c>
@@ -16629,7 +17730,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -16637,17 +17738,17 @@
         <v>458</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C5" s="54" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>471</v>
       </c>

--- a/REGN.xlsx
+++ b/REGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B8AE12-7BC5-4DAD-83F9-A75A83014F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4877A4A7-4892-462F-A8BA-01D4606F787B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51585" yWindow="255" windowWidth="21465" windowHeight="19395" activeTab="1" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
+    <workbookView xWindow="60840" yWindow="3710" windowWidth="14940" windowHeight="15420" xr2:uid="{A60D6F5D-C7AD-4CE4-9596-6485E651EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="553">
   <si>
     <t>Nov. 11:  Eylea approved. Priced at $1,700/injection.</t>
   </si>
@@ -1595,9 +1595,6 @@
     <t>CRSsNP</t>
   </si>
   <si>
-    <t>myostatin mab</t>
-  </si>
-  <si>
     <t>Phase II with semaglutide and +- garetosmab</t>
   </si>
   <si>
@@ -1610,9 +1607,6 @@
     <t>CRSsNP, COPD</t>
   </si>
   <si>
-    <t>Phase III COPD</t>
-  </si>
-  <si>
     <t>data 2H25, BLA 2H25</t>
   </si>
   <si>
@@ -1646,9 +1640,6 @@
     <t>III initiating</t>
   </si>
   <si>
-    <t>ubamatamab</t>
-  </si>
-  <si>
     <t>ovarian cancer</t>
   </si>
   <si>
@@ -1821,6 +1812,135 @@
   </si>
   <si>
     <t>Share</t>
+  </si>
+  <si>
+    <t>HS-20094</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>Hansoh</t>
+  </si>
+  <si>
+    <t>GLP/GIP</t>
+  </si>
+  <si>
+    <t>SVP, Internal Medicine: Boaz Hirshberg</t>
+  </si>
+  <si>
+    <t>CSO: George Yancopoulos</t>
+  </si>
+  <si>
+    <t>GDF8/myostatin mab</t>
+  </si>
+  <si>
+    <t>Ozempic</t>
+  </si>
+  <si>
+    <t>Lean Mass</t>
+  </si>
+  <si>
+    <t>Fat Mass</t>
+  </si>
+  <si>
+    <t>Low-dose combo</t>
+  </si>
+  <si>
+    <t>higher-dose</t>
+  </si>
+  <si>
+    <t>triplet</t>
+  </si>
+  <si>
+    <t>TEAE</t>
+  </si>
+  <si>
+    <t>TWO DEATHS!?!?</t>
+  </si>
+  <si>
+    <t>n=149</t>
+  </si>
+  <si>
+    <t>26 weeks</t>
+  </si>
+  <si>
+    <t>Phase III "AERIFY-1" COPD</t>
+  </si>
+  <si>
+    <t>Phase III "AERIFY-2" COPD</t>
+  </si>
+  <si>
+    <t>REGN5837</t>
+  </si>
+  <si>
+    <t>CD22xCD28</t>
+  </si>
+  <si>
+    <t>NHL</t>
+  </si>
+  <si>
+    <t>CD3xBCMA</t>
+  </si>
+  <si>
+    <t>Multiple Myeloma, Kidney Translation, LN</t>
+  </si>
+  <si>
+    <t>REGN5459 (vonsetamig)</t>
+  </si>
+  <si>
+    <t>REGN7945</t>
+  </si>
+  <si>
+    <t>CD38xCD28</t>
+  </si>
+  <si>
+    <t>REGN9533</t>
+  </si>
+  <si>
+    <t>Factor XII</t>
+  </si>
+  <si>
+    <t>ALN-F1202</t>
+  </si>
+  <si>
+    <t>REGN5668</t>
+  </si>
+  <si>
+    <t>MUC16xCD28</t>
+  </si>
+  <si>
+    <t>I/II</t>
+  </si>
+  <si>
+    <t>Ovarian/Uterine Cancer</t>
+  </si>
+  <si>
+    <t>REGN4018 (ubamatamab)</t>
+  </si>
+  <si>
+    <t>27T51</t>
+  </si>
+  <si>
+    <t>MUC16 cell therapy</t>
+  </si>
+  <si>
+    <t>2SeventyBio</t>
+  </si>
+  <si>
+    <t>REGN10597</t>
+  </si>
+  <si>
+    <t>Oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PD-1-IL2RA-IL2 Fusion Protein</t>
+  </si>
+  <si>
+    <t>ALN-PNP</t>
+  </si>
+  <si>
+    <t>PNPLA3</t>
   </si>
 </sst>
 </file>
@@ -1830,7 +1950,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1917,6 +2037,13 @@
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2075,7 +2202,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1"/>
@@ -2221,6 +2348,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2675,10 +2807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD5CF22-E8A9-4919-AD75-F071CE6857D9}">
-  <dimension ref="B2:K55"/>
+  <dimension ref="B2:K65"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2688,7 +2820,7 @@
     <col min="3" max="3" width="25.1796875" customWidth="1"/>
     <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
@@ -2714,7 +2846,7 @@
         <v>41</v>
       </c>
       <c r="J2" s="21">
-        <v>603</v>
+        <v>493.72</v>
       </c>
       <c r="K2" s="22"/>
     </row>
@@ -2765,7 +2897,7 @@
       </c>
       <c r="J4" s="1">
         <f>J2*J3</f>
-        <v>67053.600000000006</v>
+        <v>54901.664000000004</v>
       </c>
       <c r="K4" s="14"/>
     </row>
@@ -2845,7 +2977,7 @@
       </c>
       <c r="J7" s="1">
         <f>J4-J5+J6</f>
-        <v>51412.600000000006</v>
+        <v>39260.664000000004</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -2890,7 +3022,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>261</v>
@@ -2906,7 +3038,7 @@
       </c>
       <c r="G10" s="31"/>
       <c r="I10" s="34" t="s">
-        <v>316</v>
+        <v>515</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -2928,7 +3060,7 @@
       </c>
       <c r="G11" s="46"/>
       <c r="I11" s="34" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="J11" s="36"/>
     </row>
@@ -2942,12 +3074,12 @@
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
       <c r="I12" s="34" t="s">
-        <v>359</v>
+        <v>514</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="23" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>268</v>
@@ -2965,6 +3097,9 @@
         <f>129.4+96.3+66</f>
         <v>291.7</v>
       </c>
+      <c r="I13" s="34" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
@@ -2983,10 +3118,13 @@
         <v>276</v>
       </c>
       <c r="G14" s="31"/>
+      <c r="I14" s="34" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>271</v>
@@ -3031,7 +3169,7 @@
         <v>434</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="68" t="s">
         <v>267</v>
@@ -3053,7 +3191,7 @@
         <v>282</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="30" t="s">
@@ -3069,7 +3207,7 @@
         <v>282</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="30" t="s">
@@ -3079,7 +3217,7 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C20" s="35" t="s">
         <v>289</v>
@@ -3097,410 +3235,570 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>513</v>
+      </c>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C22" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="30" t="s">
+      <c r="D22" s="30"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C23" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D23" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="E22" s="58">
+      <c r="E23" s="58">
         <v>1</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F23" s="30" t="s">
         <v>431</v>
       </c>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="37" t="s">
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="37" t="s">
         <v>388</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C24" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D24" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E24" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="I23" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="I24" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C25" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D25" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="E24" s="58">
+      <c r="E25" s="58">
         <v>1</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F25" s="30" t="s">
         <v>278</v>
-      </c>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="30" t="s">
-        <v>294</v>
       </c>
       <c r="G25" s="31"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="35"/>
       <c r="F26" s="30" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="G26" s="31"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="37" t="s">
-        <v>454</v>
+        <v>284</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>455</v>
+        <v>285</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="35"/>
       <c r="F27" s="30" t="s">
-        <v>456</v>
+        <v>286</v>
       </c>
       <c r="G27" s="31"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="C28" s="30"/>
+        <v>544</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>452</v>
+      </c>
       <c r="D28" s="30"/>
       <c r="E28" s="35"/>
       <c r="F28" s="30" t="s">
-        <v>296</v>
+        <v>453</v>
       </c>
       <c r="G28" s="31"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>458</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>393</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="35"/>
       <c r="F29" s="30" t="s">
-        <v>459</v>
+        <v>296</v>
       </c>
       <c r="G29" s="31"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+        <v>454</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>393</v>
+      </c>
       <c r="E30" s="35"/>
       <c r="F30" s="30" t="s">
-        <v>298</v>
+        <v>456</v>
       </c>
       <c r="G30" s="31"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>393</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="35"/>
       <c r="F31" s="30" t="s">
-        <v>508</v>
+        <v>298</v>
       </c>
       <c r="G31" s="31"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="37" t="s">
-        <v>392</v>
+        <v>545</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>504</v>
+        <v>452</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="E32" s="35"/>
+        <v>390</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>547</v>
+      </c>
       <c r="F32" s="30" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="G32" s="31"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="37" t="s">
-        <v>299</v>
+        <v>539</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="30" t="s">
-        <v>301</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="F33" s="30"/>
       <c r="G33" s="31"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="38"/>
+      <c r="B34" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="35" t="s">
+        <v>391</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="60"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
+      <c r="B35" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>538</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>390</v>
+      </c>
       <c r="E35" s="35"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="2:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="B36" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
+      <c r="G35" s="31"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>390</v>
+      </c>
       <c r="E36" s="35"/>
-      <c r="F36" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="2:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="2:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="35"/>
-    </row>
-    <row r="39" spans="2:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="35"/>
-    </row>
-    <row r="40" spans="2:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
+      <c r="F36" s="73" t="s">
+        <v>550</v>
+      </c>
+      <c r="G36" s="31"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="G37" s="31"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="G38" s="31"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>543</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>542</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="G39" s="31"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="37" t="s">
+        <v>503</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>393</v>
+      </c>
       <c r="E40" s="35"/>
-      <c r="F40" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" s="35"/>
-    </row>
-    <row r="41" spans="2:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
+      <c r="F40" s="30" t="s">
+        <v>505</v>
+      </c>
+      <c r="G40" s="31"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>393</v>
+      </c>
       <c r="E41" s="35"/>
-      <c r="F41" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="35"/>
-    </row>
-    <row r="42" spans="2:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
+      <c r="F41" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="G41" s="31"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>393</v>
+      </c>
       <c r="E42" s="35"/>
-      <c r="F42" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="35"/>
-    </row>
-    <row r="43" spans="2:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
+      <c r="F42" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="G42" s="31"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>390</v>
+      </c>
       <c r="E43" s="35"/>
-      <c r="F43" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="35"/>
-    </row>
-    <row r="44" spans="2:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="35"/>
+      <c r="F43" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G43" s="31"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="38"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="35"/>
-      <c r="F45" s="41" t="s">
-        <v>10</v>
-      </c>
+      <c r="F45" s="30"/>
       <c r="G45" s="35"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="B46" s="34" t="s">
+        <v>506</v>
+      </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
-      <c r="F46" s="41" t="s">
-        <v>9</v>
+      <c r="F46" s="39" t="s">
+        <v>19</v>
       </c>
       <c r="G46" s="35"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="B47" s="34"/>
       <c r="C47" s="35"/>
       <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="41" t="s">
-        <v>8</v>
+      <c r="E47" s="40"/>
+      <c r="F47" s="39" t="s">
+        <v>18</v>
       </c>
       <c r="G47" s="35"/>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="B48" s="34"/>
       <c r="C48" s="35"/>
       <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="41" t="s">
-        <v>7</v>
+      <c r="E48" s="40"/>
+      <c r="F48" s="39" t="s">
+        <v>17</v>
       </c>
       <c r="G48" s="35"/>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="13" x14ac:dyDescent="0.3">
+      <c r="B49" s="34"/>
       <c r="C49" s="35"/>
       <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="41" t="s">
-        <v>6</v>
+      <c r="E49" s="40"/>
+      <c r="F49" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="G49" s="35"/>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C50" s="35"/>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
-      <c r="F50" s="41" t="s">
-        <v>5</v>
+      <c r="F50" s="39" t="s">
+        <v>15</v>
       </c>
       <c r="G50" s="35"/>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
-      <c r="F51" s="41" t="s">
-        <v>4</v>
+      <c r="F51" s="39" t="s">
+        <v>14</v>
       </c>
       <c r="G51" s="35"/>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
-      <c r="F52" s="41" t="s">
-        <v>3</v>
+      <c r="F52" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="G52" s="35"/>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C53" s="35"/>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
-      <c r="F53" s="41" t="s">
-        <v>2</v>
+      <c r="F53" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="G53" s="35"/>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C54" s="35"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
-      <c r="F54" s="41" t="s">
-        <v>1</v>
+      <c r="F54" s="39" t="s">
+        <v>11</v>
       </c>
       <c r="G54" s="35"/>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C55" s="35"/>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
       <c r="F55" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="35"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="35"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="35"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="35"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="35"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="35"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G61" s="35"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="35"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="35"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="35"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="G55" s="35"/>
+      <c r="G65" s="35"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3517,9 +3815,9 @@
     <hyperlink ref="B18" location="REGN9933!A1" display="REGN9933" xr:uid="{6073BB30-626C-4AE9-9CD5-C89B25A1BDE7}"/>
     <hyperlink ref="B10" location="pozelimab!A1" display="pozelimab" xr:uid="{6758568C-53ED-40C0-98D9-15C8F236D3F7}"/>
     <hyperlink ref="B14" location="mibavademab!A1" display="mibavademab" xr:uid="{A20A17B8-FD21-43F7-B1CD-F75FC75815B8}"/>
-    <hyperlink ref="B22" location="trevogrumab!A1" display="trevogrumab" xr:uid="{866D274B-E9D2-484F-A5BA-7720D3D8A32E}"/>
+    <hyperlink ref="B23" location="trevogrumab!A1" display="trevogrumab" xr:uid="{866D274B-E9D2-484F-A5BA-7720D3D8A32E}"/>
     <hyperlink ref="B17" location="itepekimab!A1" display="itepekimab" xr:uid="{C265B947-394F-4472-95E2-5CE0E7DE9965}"/>
-    <hyperlink ref="B24" location="garetosmab!A1" display="garetosmab" xr:uid="{35EFDBA7-99E5-41BD-BE7A-2291D620CC0F}"/>
+    <hyperlink ref="B25" location="garetosmab!A1" display="garetosmab" xr:uid="{35EFDBA7-99E5-41BD-BE7A-2291D620CC0F}"/>
     <hyperlink ref="B16" location="fianlimab!A1" display="fianlimab" xr:uid="{A89220F1-FBF2-4AD8-849A-7F678951CCDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3528,27 +3826,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31131EC2-5A4B-49FE-82E1-AE238EDCA55D}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>377</v>
       </c>
@@ -3556,15 +3857,15 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>409</v>
       </c>
       <c r="C4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>47</v>
       </c>
@@ -3572,19 +3873,115 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>440</v>
+        <v>439</v>
+      </c>
+      <c r="H8">
+        <f>149*26</f>
+        <v>3874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>518</v>
+      </c>
+      <c r="E9" t="s">
+        <v>519</v>
+      </c>
+      <c r="G9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-7.9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-15.3</v>
+      </c>
+      <c r="F10" s="1">
+        <f>+E10+D10</f>
+        <v>-23.200000000000003</v>
+      </c>
+      <c r="G10" s="50">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>520</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-3.7</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <f>+E11+D11</f>
+        <v>-20.599999999999998</v>
+      </c>
+      <c r="G11" s="71">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-4.2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="F12" s="1">
+        <f>+E12+D12</f>
+        <v>-23.099999999999998</v>
+      </c>
+      <c r="G12" s="71">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="H12" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-25.4</v>
+      </c>
+      <c r="F13" s="1">
+        <f>+E13+D13</f>
+        <v>-27.4</v>
+      </c>
+      <c r="G13" s="71">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="H13" s="72" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -3632,7 +4029,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3640,7 +4037,7 @@
         <v>409</v>
       </c>
       <c r="C5" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3650,22 +4047,22 @@
     </row>
     <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="54" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -3711,7 +4108,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3719,7 +4116,7 @@
         <v>409</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3729,7 +4126,7 @@
     </row>
     <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3742,7 +4139,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A567835F-6C5E-42B0-A176-0B0DAC34DD63}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
@@ -3793,22 +4190,27 @@
     </row>
     <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="54" t="s">
-        <v>442</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>444</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C13" s="54" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3869,7 +4271,7 @@
     </row>
     <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -3942,7 +4344,7 @@
     </row>
     <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="54" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
@@ -4659,7 +5061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BECB6-C670-4D66-9069-7BDB54779CF7}">
   <dimension ref="A1:DZ97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="CK3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -6667,7 +7069,7 @@
     </row>
     <row r="12" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -8723,7 +9125,7 @@
         <v>625.36199999999997</v>
       </c>
       <c r="P25" s="17">
-        <f t="shared" ref="P25:W25" si="18">SUM(P3:P13)+P22+P23+P24</f>
+        <f t="shared" ref="P25:V25" si="18">SUM(P3:P13)+P22+P23+P24</f>
         <v>665.69999999999993</v>
       </c>
       <c r="Q25" s="17">
@@ -8751,7 +9153,7 @@
         <v>1097.5529999999999</v>
       </c>
       <c r="W25" s="17">
-        <f t="shared" ref="W25:AE25" si="19">SUM(W3:W13)+W22+W23+W24</f>
+        <f t="shared" ref="W25:AD25" si="19">SUM(W3:W13)+W22+W23+W24</f>
         <v>1200.6670000000001</v>
       </c>
       <c r="X25" s="17">
@@ -8815,7 +9217,7 @@
         <v>2169.5</v>
       </c>
       <c r="AM25" s="17">
-        <f t="shared" ref="AL25:AP25" si="22">SUM(AM3:AM13)+AM22+AM23+AM24</f>
+        <f t="shared" ref="AM25:AP25" si="22">SUM(AM3:AM13)+AM22+AM23+AM24</f>
         <v>1828.2</v>
       </c>
       <c r="AN25" s="17">
@@ -10031,11 +10433,11 @@
       <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15">
-        <f t="shared" ref="Y30:Z30" si="49">+Y29+Y28</f>
+        <f t="shared" ref="Y30" si="49">+Y29+Y28</f>
         <v>0</v>
       </c>
       <c r="Z30" s="15">
-        <f t="shared" ref="Z30:AE30" si="50">+Z29+Z28</f>
+        <f t="shared" ref="Z30:AD30" si="50">+Z29+Z28</f>
         <v>805.14300000000003</v>
       </c>
       <c r="AA30" s="15">
@@ -10055,7 +10457,7 @@
         <v>937.89599999999996</v>
       </c>
       <c r="AE30" s="15">
-        <f t="shared" ref="AE30:AH30" si="51">+AE29+AE28</f>
+        <f t="shared" ref="AE30:AG30" si="51">+AE29+AE28</f>
         <v>529.4</v>
       </c>
       <c r="AF30" s="15">
@@ -10067,7 +10469,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="15">
-        <f t="shared" ref="AF30:AH30" si="52">+AH29+AH28</f>
+        <f t="shared" ref="AH30" si="52">+AH29+AH28</f>
         <v>1092.5</v>
       </c>
       <c r="AI30" s="15">
@@ -10075,7 +10477,7 @@
         <v>1052.5999999999999</v>
       </c>
       <c r="AJ30" s="15">
-        <f t="shared" ref="AJ30:AM30" si="54">+AJ29+AJ28</f>
+        <f t="shared" ref="AJ30:AL30" si="54">+AJ29+AJ28</f>
         <v>678.1</v>
       </c>
       <c r="AK30" s="15">
@@ -10822,7 +11224,7 @@
       <c r="W33" s="15"/>
       <c r="X33" s="15"/>
       <c r="Y33" s="15">
-        <f t="shared" ref="Y33:AE33" si="90">Y31+Y32</f>
+        <f t="shared" ref="Y33:AD33" si="90">Y31+Y32</f>
         <v>0</v>
       </c>
       <c r="Z33" s="15">
@@ -10846,7 +11248,7 @@
         <v>555.04900000000009</v>
       </c>
       <c r="AE33" s="15">
-        <f t="shared" ref="AE33:AH33" si="91">AE31+AE32</f>
+        <f t="shared" ref="AE33:AG33" si="91">AE31+AE32</f>
         <v>885.4000000000002</v>
       </c>
       <c r="AF33" s="15">
@@ -10858,7 +11260,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="15">
-        <f t="shared" ref="AH33:AM33" si="92">AH31+AH32</f>
+        <f t="shared" ref="AH33:AL33" si="92">AH31+AH32</f>
         <v>718.09999999999991</v>
       </c>
       <c r="AI33" s="15">
@@ -11359,7 +11761,7 @@
       <c r="W35" s="15"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="15">
-        <f t="shared" ref="Y35:AE35" si="108">+Y33-Y34</f>
+        <f t="shared" ref="Y35:AD35" si="108">+Y33-Y34</f>
         <v>0</v>
       </c>
       <c r="Z35" s="15">
@@ -11383,7 +11785,7 @@
         <v>173.8010000000001</v>
       </c>
       <c r="AE35" s="15">
-        <f t="shared" ref="AE35:AH35" si="109">+AE33-AE34</f>
+        <f t="shared" ref="AE35:AG35" si="109">+AE33-AE34</f>
         <v>778.00000000000023</v>
       </c>
       <c r="AF35" s="15">
@@ -11395,7 +11797,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="15">
-        <f t="shared" ref="AH35:AM35" si="110">+AH33-AH34</f>
+        <f t="shared" ref="AH35:AL35" si="110">+AH33-AH34</f>
         <v>718.09999999999991</v>
       </c>
       <c r="AI35" s="15">
@@ -11817,7 +12219,7 @@
       </c>
       <c r="O36" s="43"/>
       <c r="P36" s="55">
-        <f t="shared" ref="P36:W36" si="122">+P35/P37</f>
+        <f t="shared" ref="P36:V36" si="122">+P35/P37</f>
         <v>0</v>
       </c>
       <c r="Q36" s="55" t="e">
@@ -11845,7 +12247,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="W36" s="55" t="e">
-        <f t="shared" ref="W36:AE36" si="123">+W35/W37</f>
+        <f t="shared" ref="W36:AD36" si="123">+W35/W37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X36" s="55" t="e">
@@ -11877,7 +12279,7 @@
         <v>1.4998878111084271</v>
       </c>
       <c r="AE36" s="55">
-        <f t="shared" ref="AE36:AH36" si="124">+AE35/AE37</f>
+        <f t="shared" ref="AE36:AG36" si="124">+AE35/AE37</f>
         <v>6.7711053089643185</v>
       </c>
       <c r="AF36" s="55">
@@ -11889,7 +12291,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AH36" s="55">
-        <f t="shared" ref="AH36:AM36" si="125">+AH35/AH37</f>
+        <f t="shared" ref="AH36:AL36" si="125">+AH35/AH37</f>
         <v>6.2552264808362361</v>
       </c>
       <c r="AI36" s="55">
@@ -13039,7 +13441,7 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="CL42" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="CM42" s="21">
         <f>CM41/Main!J3</f>
@@ -13221,7 +13623,7 @@
         <v>215</v>
       </c>
       <c r="R46" s="42">
-        <f t="shared" ref="R46:W46" si="232">+R27/R25</f>
+        <f t="shared" ref="R46:V46" si="232">+R27/R25</f>
         <v>0</v>
       </c>
       <c r="S46" s="42">
@@ -13253,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="Z46" s="42">
-        <f t="shared" ref="Z46:AI46" si="234">+Z27/Z25</f>
+        <f t="shared" ref="Z46:AH46" si="234">+Z27/Z25</f>
         <v>0.93915046451333239</v>
       </c>
       <c r="AA46" s="42">
@@ -13289,7 +13691,7 @@
         <v>0.93920531175433131</v>
       </c>
       <c r="AI46" s="42">
-        <f t="shared" ref="AI46:AM46" si="235">+AI27/AI25</f>
+        <f t="shared" ref="AI46:AL46" si="235">+AI27/AI25</f>
         <v>0.89842997222694554</v>
       </c>
       <c r="AJ46" s="42">
@@ -14383,7 +14785,7 @@
     </row>
     <row r="68" spans="2:78" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="AX68" s="15"/>
       <c r="BB68" s="1">
@@ -14425,7 +14827,7 @@
     </row>
     <row r="69" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
@@ -14499,7 +14901,7 @@
     </row>
     <row r="70" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
@@ -14573,7 +14975,7 @@
     </row>
     <row r="71" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C71" s="15"/>
       <c r="D71" s="15"/>
@@ -14647,7 +15049,7 @@
     </row>
     <row r="72" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
@@ -14721,7 +15123,7 @@
     </row>
     <row r="73" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -14795,7 +15197,7 @@
     </row>
     <row r="74" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
@@ -14869,7 +15271,7 @@
     </row>
     <row r="75" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -14941,7 +15343,7 @@
     </row>
     <row r="76" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
@@ -15018,7 +15420,7 @@
     </row>
     <row r="77" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C77" s="15"/>
       <c r="D77" s="15"/>
@@ -15106,7 +15508,7 @@
     </row>
     <row r="79" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
@@ -15179,7 +15581,7 @@
     </row>
     <row r="80" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
@@ -15320,7 +15722,7 @@
     </row>
     <row r="82" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -15390,7 +15792,7 @@
     </row>
     <row r="83" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
@@ -15470,7 +15872,7 @@
     </row>
     <row r="85" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
@@ -15540,7 +15942,7 @@
     </row>
     <row r="86" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" s="15"/>
@@ -15610,7 +16012,7 @@
     </row>
     <row r="87" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C87" s="15"/>
       <c r="D87" s="15"/>
@@ -15750,7 +16152,7 @@
     </row>
     <row r="89" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
@@ -15823,7 +16225,7 @@
     </row>
     <row r="90" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C90" s="15"/>
       <c r="D90" s="15"/>
@@ -15891,7 +16293,7 @@
     </row>
     <row r="91" spans="2:78" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
@@ -16363,7 +16765,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -16545,17 +16947,17 @@
         <v>43</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -16576,7 +16978,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -16703,22 +17105,22 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -17424,7 +17826,7 @@
         <v>371</v>
       </c>
       <c r="C6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -17514,7 +17916,7 @@
         <v>371</v>
       </c>
       <c r="C6" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -17578,7 +17980,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -17594,7 +17996,7 @@
         <v>371</v>
       </c>
       <c r="C6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -17614,12 +18016,12 @@
     </row>
     <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C11" s="54" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -17688,12 +18090,12 @@
     </row>
     <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="54" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -17727,7 +18129,7 @@
         <v>404</v>
       </c>
       <c r="C2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -17735,7 +18137,7 @@
         <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -17745,12 +18147,12 @@
     </row>
     <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C5" s="54" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
